--- a/OffSeason.xlsx
+++ b/OffSeason.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\Football\Dynasty\20192020 Offseason\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jolson27\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7035"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310"/>
   </bookViews>
   <sheets>
     <sheet name="Rosters" sheetId="1" r:id="rId1"/>
@@ -2060,7 +2060,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2081,36 +2081,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2119,6 +2089,33 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2401,28 +2398,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y83"/>
+  <dimension ref="A1:Y81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="I70" sqref="I70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="1"/>
+    <col min="3" max="3" width="12.26953125" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B1" s="22" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="B1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
       <c r="F1" t="s">
         <v>42</v>
       </c>
@@ -2439,769 +2436,769 @@
         <v>177</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="17" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="17" t="s">
         <v>1</v>
       </c>
       <c r="G2" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="17" t="s">
         <v>1</v>
       </c>
       <c r="K2" t="s">
         <v>77</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="N2" s="17" t="s">
         <v>1</v>
       </c>
       <c r="O2" t="s">
         <v>112</v>
       </c>
-      <c r="R2" s="15" t="s">
+      <c r="R2" s="17" t="s">
         <v>1</v>
       </c>
       <c r="S2" t="s">
         <v>144</v>
       </c>
-      <c r="V2" s="15" t="s">
+      <c r="V2" s="17" t="s">
         <v>1</v>
       </c>
       <c r="W2" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="15"/>
+      <c r="B3" s="17"/>
       <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="15"/>
+      <c r="F3" s="17"/>
       <c r="G3" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="15"/>
+      <c r="J3" s="17"/>
       <c r="K3" t="s">
         <v>78</v>
       </c>
-      <c r="N3" s="15"/>
+      <c r="N3" s="17"/>
       <c r="O3" t="s">
         <v>104</v>
       </c>
-      <c r="R3" s="15"/>
+      <c r="R3" s="17"/>
       <c r="S3" t="s">
         <v>145</v>
       </c>
-      <c r="V3" s="15"/>
+      <c r="V3" s="17"/>
       <c r="W3" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="15"/>
+      <c r="F4" s="17"/>
       <c r="G4" t="s">
         <v>46</v>
       </c>
-      <c r="J4" s="15"/>
+      <c r="J4" s="17"/>
       <c r="K4" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="14" t="s">
+      <c r="N4" s="18" t="s">
         <v>5</v>
       </c>
       <c r="O4" t="s">
         <v>113</v>
       </c>
-      <c r="R4" s="14" t="s">
+      <c r="R4" s="18" t="s">
         <v>5</v>
       </c>
       <c r="S4" t="s">
         <v>146</v>
       </c>
-      <c r="V4" s="15"/>
+      <c r="V4" s="17"/>
       <c r="W4" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="14"/>
+      <c r="B5" s="18"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="15"/>
+      <c r="F5" s="17"/>
       <c r="G5" t="s">
         <v>47</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="J5" s="18" t="s">
         <v>5</v>
       </c>
       <c r="K5" t="s">
         <v>248</v>
       </c>
-      <c r="N5" s="14"/>
+      <c r="N5" s="18"/>
       <c r="O5" t="s">
         <v>114</v>
       </c>
-      <c r="R5" s="14"/>
+      <c r="R5" s="18"/>
       <c r="S5" t="s">
         <v>147</v>
       </c>
-      <c r="V5" s="15"/>
+      <c r="V5" s="17"/>
       <c r="W5" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="14"/>
+      <c r="B6" s="18"/>
       <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="18" t="s">
         <v>5</v>
       </c>
       <c r="G6" t="s">
         <v>48</v>
       </c>
-      <c r="J6" s="14"/>
+      <c r="J6" s="18"/>
       <c r="K6" t="s">
         <v>81</v>
       </c>
-      <c r="N6" s="14"/>
+      <c r="N6" s="18"/>
       <c r="O6" t="s">
         <v>115</v>
       </c>
-      <c r="R6" s="14"/>
+      <c r="R6" s="18"/>
       <c r="S6" t="s">
         <v>148</v>
       </c>
-      <c r="V6" s="14" t="s">
+      <c r="V6" s="18" t="s">
         <v>5</v>
       </c>
       <c r="W6" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="14"/>
+      <c r="B7" s="18"/>
       <c r="C7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="14"/>
+      <c r="F7" s="18"/>
       <c r="G7" t="s">
         <v>49</v>
       </c>
-      <c r="J7" s="14"/>
+      <c r="J7" s="18"/>
       <c r="K7" t="s">
         <v>82</v>
       </c>
-      <c r="N7" s="14"/>
+      <c r="N7" s="18"/>
       <c r="O7" t="s">
         <v>116</v>
       </c>
-      <c r="R7" s="14"/>
+      <c r="R7" s="18"/>
       <c r="S7" t="s">
         <v>149</v>
       </c>
-      <c r="V7" s="14"/>
+      <c r="V7" s="18"/>
       <c r="W7" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="14"/>
+      <c r="B8" s="18"/>
       <c r="C8" t="s">
         <v>80</v>
       </c>
-      <c r="F8" s="14"/>
+      <c r="F8" s="18"/>
       <c r="G8" t="s">
         <v>50</v>
       </c>
-      <c r="J8" s="14"/>
+      <c r="J8" s="18"/>
       <c r="K8" t="s">
         <v>84</v>
       </c>
-      <c r="N8" s="14"/>
+      <c r="N8" s="18"/>
       <c r="O8" t="s">
         <v>117</v>
       </c>
-      <c r="R8" s="14"/>
+      <c r="R8" s="18"/>
       <c r="S8" t="s">
         <v>150</v>
       </c>
-      <c r="V8" s="14"/>
+      <c r="V8" s="18"/>
       <c r="W8" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="14"/>
+      <c r="B9" s="18"/>
       <c r="C9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="14"/>
+      <c r="F9" s="18"/>
       <c r="G9" t="s">
         <v>51</v>
       </c>
-      <c r="J9" s="14"/>
+      <c r="J9" s="18"/>
       <c r="K9" t="s">
         <v>85</v>
       </c>
-      <c r="N9" s="14"/>
+      <c r="N9" s="18"/>
       <c r="O9" t="s">
         <v>118</v>
       </c>
-      <c r="R9" s="14"/>
+      <c r="R9" s="18"/>
       <c r="S9" t="s">
         <v>151</v>
       </c>
-      <c r="V9" s="14"/>
+      <c r="V9" s="18"/>
       <c r="W9" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="19" t="s">
         <v>12</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="14"/>
+      <c r="F10" s="18"/>
       <c r="G10" t="s">
         <v>52</v>
       </c>
-      <c r="J10" s="14"/>
+      <c r="J10" s="18"/>
       <c r="K10" t="s">
         <v>10</v>
       </c>
-      <c r="N10" s="14"/>
+      <c r="N10" s="18"/>
       <c r="O10" t="s">
         <v>119</v>
       </c>
-      <c r="R10" s="16" t="s">
+      <c r="R10" s="19" t="s">
         <v>12</v>
       </c>
       <c r="S10" t="s">
         <v>152</v>
       </c>
-      <c r="V10" s="14"/>
+      <c r="V10" s="18"/>
       <c r="W10" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="16"/>
+      <c r="B11" s="19"/>
       <c r="C11" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="14"/>
+      <c r="F11" s="18"/>
       <c r="G11" t="s">
         <v>53</v>
       </c>
-      <c r="J11" s="16" t="s">
+      <c r="J11" s="19" t="s">
         <v>12</v>
       </c>
       <c r="K11" t="s">
         <v>88</v>
       </c>
-      <c r="N11" s="16" t="s">
+      <c r="N11" s="19" t="s">
         <v>12</v>
       </c>
       <c r="O11" t="s">
         <v>120</v>
       </c>
-      <c r="R11" s="16"/>
+      <c r="R11" s="19"/>
       <c r="S11" t="s">
         <v>153</v>
       </c>
-      <c r="V11" s="14"/>
+      <c r="V11" s="18"/>
       <c r="W11" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="16"/>
+      <c r="B12" s="19"/>
       <c r="C12" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="19" t="s">
         <v>12</v>
       </c>
       <c r="G12" t="s">
         <v>54</v>
       </c>
-      <c r="J12" s="16"/>
+      <c r="J12" s="19"/>
       <c r="K12" t="s">
         <v>93</v>
       </c>
-      <c r="N12" s="16"/>
+      <c r="N12" s="19"/>
       <c r="O12" t="s">
         <v>121</v>
       </c>
-      <c r="R12" s="16"/>
+      <c r="R12" s="19"/>
       <c r="S12" t="s">
         <v>154</v>
       </c>
-      <c r="V12" s="16" t="s">
+      <c r="V12" s="19" t="s">
         <v>12</v>
       </c>
       <c r="W12" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="16"/>
+      <c r="B13" s="19"/>
       <c r="C13" t="s">
         <v>86</v>
       </c>
-      <c r="F13" s="23"/>
+      <c r="F13" s="19"/>
       <c r="G13" t="s">
         <v>55</v>
       </c>
-      <c r="J13" s="16"/>
+      <c r="J13" s="19"/>
       <c r="K13" t="s">
         <v>16</v>
       </c>
-      <c r="N13" s="16"/>
+      <c r="N13" s="19"/>
       <c r="O13" t="s">
         <v>122</v>
       </c>
-      <c r="R13" s="16"/>
+      <c r="R13" s="19"/>
       <c r="S13" t="s">
         <v>155</v>
       </c>
-      <c r="V13" s="16"/>
+      <c r="V13" s="19"/>
       <c r="W13" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="16"/>
+      <c r="B14" s="19"/>
       <c r="C14" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="23"/>
+      <c r="F14" s="19"/>
       <c r="G14" t="s">
         <v>56</v>
       </c>
-      <c r="J14" s="16"/>
+      <c r="J14" s="19"/>
       <c r="K14" t="s">
         <v>17</v>
       </c>
-      <c r="N14" s="16"/>
+      <c r="N14" s="19"/>
       <c r="O14" t="s">
         <v>123</v>
       </c>
-      <c r="R14" s="16"/>
+      <c r="R14" s="19"/>
       <c r="S14" t="s">
         <v>156</v>
       </c>
-      <c r="V14" s="16"/>
+      <c r="V14" s="19"/>
       <c r="W14" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="16"/>
+      <c r="B15" s="19"/>
       <c r="C15" t="s">
         <v>87</v>
       </c>
-      <c r="F15" s="23"/>
+      <c r="F15" s="19"/>
       <c r="G15" t="s">
         <v>57</v>
       </c>
-      <c r="J15" s="16"/>
+      <c r="J15" s="19"/>
       <c r="K15" t="s">
         <v>22</v>
       </c>
-      <c r="N15" s="16"/>
+      <c r="N15" s="19"/>
       <c r="O15" t="s">
         <v>124</v>
       </c>
-      <c r="R15" s="16"/>
+      <c r="R15" s="19"/>
       <c r="S15" t="s">
         <v>157</v>
       </c>
-      <c r="V15" s="16"/>
+      <c r="V15" s="19"/>
       <c r="W15" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="20" t="s">
         <v>18</v>
       </c>
       <c r="C16" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="23"/>
+      <c r="F16" s="19"/>
       <c r="G16" t="s">
         <v>58</v>
       </c>
-      <c r="J16" s="16"/>
+      <c r="J16" s="19"/>
       <c r="K16" t="s">
         <v>23</v>
       </c>
-      <c r="N16" s="16"/>
+      <c r="N16" s="19"/>
       <c r="O16" t="s">
         <v>125</v>
       </c>
-      <c r="R16" s="16"/>
+      <c r="R16" s="19"/>
       <c r="S16" t="s">
         <v>158</v>
       </c>
-      <c r="V16" s="16"/>
+      <c r="V16" s="19"/>
       <c r="W16" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="19"/>
+      <c r="B17" s="20"/>
       <c r="C17" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="23"/>
+      <c r="F17" s="19"/>
       <c r="G17" t="s">
         <v>59</v>
       </c>
-      <c r="J17" s="19" t="s">
+      <c r="J17" s="20" t="s">
         <v>18</v>
       </c>
       <c r="K17" t="s">
         <v>95</v>
       </c>
-      <c r="N17" s="19" t="s">
+      <c r="N17" s="20" t="s">
         <v>18</v>
       </c>
       <c r="O17" t="s">
         <v>126</v>
       </c>
-      <c r="R17" s="16"/>
+      <c r="R17" s="19"/>
       <c r="S17" t="s">
         <v>159</v>
       </c>
-      <c r="V17" s="16"/>
+      <c r="V17" s="19"/>
       <c r="W17" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="19"/>
+      <c r="B18" s="20"/>
       <c r="C18" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="23"/>
+      <c r="F18" s="19"/>
       <c r="G18" t="s">
         <v>226</v>
       </c>
-      <c r="J18" s="19"/>
+      <c r="J18" s="20"/>
       <c r="K18" t="s">
         <v>96</v>
       </c>
-      <c r="N18" s="19"/>
+      <c r="N18" s="20"/>
       <c r="O18" t="s">
         <v>127</v>
       </c>
-      <c r="R18" s="16"/>
+      <c r="R18" s="19"/>
       <c r="S18" t="s">
         <v>160</v>
       </c>
-      <c r="V18" s="16"/>
+      <c r="V18" s="19"/>
       <c r="W18" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="22" t="s">
         <v>24</v>
       </c>
       <c r="C19" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="23"/>
+      <c r="F19" s="19"/>
       <c r="G19" t="s">
         <v>225</v>
       </c>
-      <c r="J19" s="19"/>
+      <c r="J19" s="20"/>
       <c r="K19" t="s">
         <v>97</v>
       </c>
-      <c r="N19" s="17" t="s">
+      <c r="N19" s="22" t="s">
         <v>24</v>
       </c>
       <c r="O19" t="s">
         <v>128</v>
       </c>
-      <c r="R19" s="16"/>
+      <c r="R19" s="19"/>
       <c r="S19" t="s">
         <v>161</v>
       </c>
-      <c r="V19" s="16"/>
+      <c r="V19" s="19"/>
       <c r="W19" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="17"/>
+      <c r="B20" s="22"/>
       <c r="C20" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="19" t="s">
+      <c r="F20" s="20" t="s">
         <v>18</v>
       </c>
       <c r="G20" t="s">
         <v>60</v>
       </c>
-      <c r="J20" s="19"/>
+      <c r="J20" s="20"/>
       <c r="K20" t="s">
         <v>98</v>
       </c>
-      <c r="N20" s="17"/>
+      <c r="N20" s="22"/>
       <c r="O20" t="s">
         <v>129</v>
       </c>
-      <c r="R20" s="19" t="s">
+      <c r="R20" s="20" t="s">
         <v>18</v>
       </c>
       <c r="S20" t="s">
         <v>162</v>
       </c>
-      <c r="V20" s="16"/>
+      <c r="V20" s="19"/>
       <c r="W20" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="17"/>
+      <c r="B21" s="22"/>
       <c r="C21" t="s">
         <v>27</v>
       </c>
-      <c r="F21" s="19"/>
+      <c r="F21" s="20"/>
       <c r="G21" t="s">
         <v>62</v>
       </c>
-      <c r="J21" s="17" t="s">
+      <c r="J21" s="22" t="s">
         <v>24</v>
       </c>
       <c r="K21" t="s">
         <v>99</v>
       </c>
-      <c r="N21" s="17"/>
+      <c r="N21" s="22"/>
       <c r="O21" t="s">
         <v>130</v>
       </c>
-      <c r="R21" s="19"/>
+      <c r="R21" s="20"/>
       <c r="S21" t="s">
         <v>163</v>
       </c>
-      <c r="V21" s="19" t="s">
+      <c r="V21" s="20" t="s">
         <v>18</v>
       </c>
       <c r="W21" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="17"/>
+      <c r="B22" s="22"/>
       <c r="C22" t="s">
         <v>100</v>
       </c>
-      <c r="F22" s="19"/>
+      <c r="F22" s="20"/>
       <c r="G22" t="s">
         <v>63</v>
       </c>
-      <c r="J22" s="17"/>
+      <c r="J22" s="22"/>
       <c r="K22" t="s">
         <v>28</v>
       </c>
-      <c r="N22" s="17"/>
+      <c r="N22" s="22"/>
       <c r="O22" t="s">
         <v>131</v>
       </c>
-      <c r="R22" s="17" t="s">
+      <c r="R22" s="22" t="s">
         <v>24</v>
       </c>
       <c r="S22" t="s">
         <v>164</v>
       </c>
-      <c r="V22" s="19"/>
+      <c r="V22" s="20"/>
       <c r="W22" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="23" t="s">
         <v>30</v>
       </c>
       <c r="C23" t="s">
         <v>31</v>
       </c>
-      <c r="F23" s="17" t="s">
+      <c r="F23" s="22" t="s">
         <v>24</v>
       </c>
       <c r="G23" t="s">
         <v>64</v>
       </c>
-      <c r="J23" s="17"/>
+      <c r="J23" s="22"/>
       <c r="K23" t="s">
         <v>29</v>
       </c>
-      <c r="N23" s="17"/>
+      <c r="N23" s="22"/>
       <c r="O23" t="s">
         <v>132</v>
       </c>
-      <c r="R23" s="17"/>
+      <c r="R23" s="22"/>
       <c r="S23" t="s">
         <v>165</v>
       </c>
-      <c r="V23" s="19"/>
+      <c r="V23" s="20"/>
       <c r="W23" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="20"/>
+      <c r="B24" s="23"/>
       <c r="C24" t="s">
         <v>32</v>
       </c>
-      <c r="F24" s="17"/>
+      <c r="F24" s="22"/>
       <c r="G24" t="s">
         <v>65</v>
       </c>
-      <c r="J24" s="17"/>
+      <c r="J24" s="22"/>
       <c r="K24" t="s">
         <v>102</v>
       </c>
-      <c r="N24" s="20" t="s">
+      <c r="N24" s="23" t="s">
         <v>30</v>
       </c>
       <c r="O24" t="s">
         <v>133</v>
       </c>
-      <c r="R24" s="17"/>
+      <c r="R24" s="22"/>
       <c r="S24" t="s">
         <v>166</v>
       </c>
-      <c r="V24" s="17" t="s">
+      <c r="V24" s="22" t="s">
         <v>24</v>
       </c>
       <c r="W24" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="20"/>
+      <c r="B25" s="23"/>
       <c r="C25" t="s">
         <v>33</v>
       </c>
-      <c r="F25" s="17"/>
+      <c r="F25" s="22"/>
       <c r="G25" t="s">
         <v>66</v>
       </c>
-      <c r="J25" s="20" t="s">
+      <c r="J25" s="23" t="s">
         <v>30</v>
       </c>
       <c r="K25" t="s">
         <v>103</v>
       </c>
-      <c r="N25" s="20"/>
+      <c r="N25" s="23"/>
       <c r="O25" t="s">
         <v>134</v>
       </c>
-      <c r="R25" s="17"/>
+      <c r="R25" s="22"/>
       <c r="S25" t="s">
         <v>167</v>
       </c>
-      <c r="V25" s="17"/>
+      <c r="V25" s="22"/>
       <c r="W25" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -3211,30 +3208,30 @@
       <c r="C26" t="s">
         <v>37</v>
       </c>
-      <c r="F26" s="17"/>
+      <c r="F26" s="22"/>
       <c r="G26" t="s">
         <v>67</v>
       </c>
-      <c r="J26" s="20"/>
+      <c r="J26" s="23"/>
       <c r="K26" t="s">
         <v>104</v>
       </c>
-      <c r="N26" s="20"/>
+      <c r="N26" s="23"/>
       <c r="O26" t="s">
         <v>135</v>
       </c>
-      <c r="R26" s="20" t="s">
+      <c r="R26" s="23" t="s">
         <v>30</v>
       </c>
       <c r="S26" t="s">
         <v>168</v>
       </c>
-      <c r="V26" s="17"/>
+      <c r="V26" s="22"/>
       <c r="W26" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -3242,30 +3239,30 @@
       <c r="C27" t="s">
         <v>38</v>
       </c>
-      <c r="F27" s="20" t="s">
+      <c r="F27" s="23" t="s">
         <v>30</v>
       </c>
       <c r="G27" t="s">
         <v>69</v>
       </c>
-      <c r="J27" s="20"/>
+      <c r="J27" s="23"/>
       <c r="K27" t="s">
         <v>105</v>
       </c>
-      <c r="N27" s="20"/>
+      <c r="N27" s="23"/>
       <c r="O27" t="s">
         <v>136</v>
       </c>
-      <c r="R27" s="20"/>
+      <c r="R27" s="23"/>
       <c r="S27" t="s">
         <v>169</v>
       </c>
-      <c r="V27" s="17"/>
+      <c r="V27" s="22"/>
       <c r="W27" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -3273,30 +3270,30 @@
       <c r="C28" t="s">
         <v>39</v>
       </c>
-      <c r="F28" s="20"/>
+      <c r="F28" s="23"/>
       <c r="G28" t="s">
         <v>70</v>
       </c>
-      <c r="J28" s="20"/>
+      <c r="J28" s="23"/>
       <c r="K28" t="s">
         <v>106</v>
       </c>
-      <c r="N28" s="20"/>
+      <c r="N28" s="23"/>
       <c r="O28" t="s">
         <v>137</v>
       </c>
-      <c r="R28" s="20"/>
+      <c r="R28" s="23"/>
       <c r="S28" t="s">
         <v>170</v>
       </c>
-      <c r="V28" s="20" t="s">
+      <c r="V28" s="23" t="s">
         <v>30</v>
       </c>
       <c r="W28" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -3304,36 +3301,36 @@
       <c r="C29" t="s">
         <v>107</v>
       </c>
-      <c r="F29" s="20"/>
+      <c r="F29" s="23"/>
       <c r="G29" t="s">
         <v>71</v>
       </c>
-      <c r="J29" s="20"/>
+      <c r="J29" s="23"/>
       <c r="K29" t="s">
         <v>34</v>
       </c>
-      <c r="N29" s="20"/>
+      <c r="N29" s="23"/>
       <c r="O29" t="s">
         <v>138</v>
       </c>
-      <c r="R29" s="20"/>
+      <c r="R29" s="23"/>
       <c r="S29" t="s">
         <v>171</v>
       </c>
-      <c r="V29" s="20"/>
+      <c r="V29" s="23"/>
       <c r="W29" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="F30" s="20"/>
+      <c r="F30" s="23"/>
       <c r="G30" t="s">
         <v>68</v>
       </c>
-      <c r="J30" s="20"/>
+      <c r="J30" s="23"/>
       <c r="K30" t="s">
         <v>35</v>
       </c>
@@ -3343,16 +3340,16 @@
       <c r="O30" t="s">
         <v>139</v>
       </c>
-      <c r="R30" s="20"/>
+      <c r="R30" s="23"/>
       <c r="S30" t="s">
         <v>172</v>
       </c>
-      <c r="V30" s="20"/>
+      <c r="V30" s="23"/>
       <c r="W30" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -3378,12 +3375,12 @@
       <c r="S31" t="s">
         <v>173</v>
       </c>
-      <c r="V31" s="20"/>
+      <c r="V31" s="23"/>
       <c r="W31" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
       <c r="F32" s="21"/>
       <c r="G32" t="s">
         <v>73</v>
@@ -3407,7 +3404,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
       <c r="F33" s="21"/>
       <c r="G33" t="s">
         <v>74</v>
@@ -3429,7 +3426,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
       <c r="F34" s="21"/>
       <c r="G34" t="s">
         <v>75</v>
@@ -3447,7 +3444,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
       <c r="J35" s="21"/>
       <c r="K35" t="s">
         <v>41</v>
@@ -3457,7 +3454,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
         <v>212</v>
       </c>
@@ -3473,498 +3470,501 @@
       <c r="R43" t="s">
         <v>315</v>
       </c>
-      <c r="V43" s="18" t="s">
+      <c r="V43" s="25" t="s">
         <v>316</v>
       </c>
-      <c r="W43" s="18"/>
-      <c r="X43" s="18"/>
-      <c r="Y43" s="18"/>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="W43" s="25"/>
+      <c r="X43" s="25"/>
+      <c r="Y43" s="25"/>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>1</v>
       </c>
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="17" t="s">
         <v>1</v>
       </c>
       <c r="C44" t="s">
         <v>44</v>
       </c>
-      <c r="F44" s="15" t="s">
+      <c r="F44" s="17" t="s">
         <v>1</v>
       </c>
       <c r="G44" t="s">
         <v>246</v>
       </c>
-      <c r="J44" s="15" t="s">
+      <c r="J44" s="17" t="s">
         <v>1</v>
       </c>
       <c r="K44" t="s">
         <v>280</v>
       </c>
-      <c r="N44" s="15" t="s">
+      <c r="N44" s="17" t="s">
         <v>1</v>
       </c>
       <c r="O44" t="s">
         <v>317</v>
       </c>
-      <c r="R44" s="15" t="s">
+      <c r="R44" s="17" t="s">
         <v>1</v>
       </c>
       <c r="S44" t="s">
         <v>348</v>
       </c>
-      <c r="V44" s="15" t="s">
+      <c r="V44" s="17" t="s">
         <v>1</v>
       </c>
       <c r="W44" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>2</v>
       </c>
-      <c r="B45" s="15"/>
+      <c r="B45" s="17"/>
       <c r="C45" t="s">
         <v>214</v>
       </c>
-      <c r="F45" s="15"/>
+      <c r="F45" s="17"/>
       <c r="G45" t="s">
         <v>247</v>
       </c>
-      <c r="J45" s="15"/>
+      <c r="J45" s="17"/>
       <c r="K45" t="s">
         <v>281</v>
       </c>
-      <c r="N45" s="15"/>
+      <c r="N45" s="17"/>
       <c r="O45" t="s">
         <v>318</v>
       </c>
-      <c r="R45" s="15"/>
+      <c r="R45" s="17"/>
       <c r="S45" t="s">
         <v>349</v>
       </c>
-      <c r="V45" s="15"/>
+      <c r="V45" s="17"/>
       <c r="W45" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>3</v>
       </c>
-      <c r="B46" s="15"/>
+      <c r="B46" s="17"/>
       <c r="C46" t="s">
         <v>213</v>
       </c>
-      <c r="F46" s="15"/>
+      <c r="F46" s="17"/>
       <c r="G46" t="s">
         <v>79</v>
       </c>
-      <c r="J46" s="15"/>
+      <c r="J46" s="17"/>
       <c r="K46" t="s">
         <v>282</v>
       </c>
-      <c r="N46" s="15"/>
+      <c r="N46" s="17"/>
       <c r="O46" t="s">
         <v>319</v>
       </c>
-      <c r="R46" s="15"/>
+      <c r="R46" s="17"/>
       <c r="S46" t="s">
         <v>350</v>
       </c>
-      <c r="V46" s="15"/>
+      <c r="V46" s="17"/>
       <c r="W46" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>4</v>
       </c>
-      <c r="B47" s="14" t="s">
+      <c r="B47" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C47" t="s">
         <v>215</v>
       </c>
-      <c r="F47" s="14" t="s">
+      <c r="F47" s="18" t="s">
         <v>5</v>
       </c>
       <c r="G47" t="s">
         <v>249</v>
       </c>
-      <c r="J47" s="14" t="s">
+      <c r="J47" s="18" t="s">
         <v>5</v>
       </c>
       <c r="K47" t="s">
         <v>283</v>
       </c>
-      <c r="N47" s="14" t="s">
+      <c r="N47" s="18" t="s">
         <v>5</v>
       </c>
       <c r="O47" t="s">
         <v>320</v>
       </c>
-      <c r="R47" s="14" t="s">
+      <c r="R47" s="18" t="s">
         <v>5</v>
       </c>
       <c r="S47" t="s">
         <v>351</v>
       </c>
-      <c r="V47" s="14" t="s">
+      <c r="V47" s="18" t="s">
         <v>5</v>
       </c>
       <c r="W47" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>5</v>
       </c>
-      <c r="B48" s="14"/>
+      <c r="B48" s="18"/>
       <c r="C48" t="s">
         <v>216</v>
       </c>
-      <c r="F48" s="14"/>
+      <c r="F48" s="18"/>
       <c r="G48" t="s">
         <v>250</v>
       </c>
-      <c r="J48" s="14"/>
+      <c r="J48" s="18"/>
       <c r="K48" t="s">
         <v>284</v>
       </c>
-      <c r="N48" s="14"/>
+      <c r="N48" s="18"/>
       <c r="O48" t="s">
         <v>251</v>
       </c>
-      <c r="R48" s="14"/>
+      <c r="R48" s="18"/>
       <c r="S48" t="s">
         <v>352</v>
       </c>
-      <c r="V48" s="14"/>
+      <c r="V48" s="18"/>
       <c r="W48" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>6</v>
       </c>
-      <c r="B49" s="14"/>
+      <c r="B49" s="18"/>
       <c r="C49" t="s">
         <v>217</v>
       </c>
-      <c r="F49" s="14"/>
+      <c r="F49" s="18"/>
       <c r="G49" t="s">
         <v>321</v>
       </c>
-      <c r="J49" s="14"/>
+      <c r="J49" s="18"/>
       <c r="K49" t="s">
         <v>285</v>
       </c>
-      <c r="N49" s="14"/>
+      <c r="N49" s="18"/>
       <c r="O49" t="s">
         <v>322</v>
       </c>
-      <c r="R49" s="14"/>
+      <c r="R49" s="18"/>
       <c r="S49" t="s">
         <v>353</v>
       </c>
-      <c r="V49" s="14"/>
+      <c r="V49" s="18"/>
       <c r="W49" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>7</v>
       </c>
-      <c r="B50" s="14"/>
+      <c r="B50" s="18"/>
       <c r="C50" t="s">
         <v>221</v>
       </c>
-      <c r="F50" s="14"/>
+      <c r="F50" s="18"/>
       <c r="G50" t="s">
         <v>252</v>
       </c>
-      <c r="J50" s="16" t="s">
+      <c r="J50" s="19" t="s">
         <v>12</v>
       </c>
       <c r="K50" t="s">
         <v>286</v>
       </c>
-      <c r="N50" s="16" t="s">
+      <c r="N50" s="19" t="s">
         <v>12</v>
       </c>
       <c r="O50" t="s">
         <v>323</v>
       </c>
-      <c r="R50" s="14"/>
+      <c r="R50" s="18"/>
       <c r="S50" t="s">
         <v>354</v>
       </c>
-      <c r="V50" s="14"/>
+      <c r="V50" s="18"/>
       <c r="W50" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>8</v>
       </c>
-      <c r="B51" s="14"/>
+      <c r="B51" s="18"/>
       <c r="C51" t="s">
         <v>222</v>
       </c>
-      <c r="F51" s="14"/>
+      <c r="F51" s="18"/>
       <c r="G51" t="s">
         <v>253</v>
       </c>
-      <c r="J51" s="16"/>
+      <c r="J51" s="19"/>
       <c r="K51" t="s">
         <v>287</v>
       </c>
-      <c r="N51" s="16"/>
+      <c r="N51" s="19"/>
       <c r="O51" t="s">
         <v>324</v>
       </c>
-      <c r="R51" s="14"/>
+      <c r="R51" s="18"/>
       <c r="S51" t="s">
         <v>355</v>
       </c>
-      <c r="V51" s="14"/>
+      <c r="V51" s="18"/>
       <c r="W51" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>9</v>
       </c>
-      <c r="B52" s="16" t="s">
+      <c r="B52" s="19" t="s">
         <v>12</v>
       </c>
       <c r="C52" t="s">
         <v>218</v>
       </c>
-      <c r="F52" s="14"/>
+      <c r="F52" s="18"/>
       <c r="G52" t="s">
         <v>254</v>
       </c>
-      <c r="J52" s="16"/>
+      <c r="J52" s="19"/>
       <c r="K52" t="s">
         <v>288</v>
       </c>
-      <c r="N52" s="16"/>
+      <c r="N52" s="19"/>
       <c r="O52" t="s">
         <v>325</v>
       </c>
-      <c r="R52" s="16" t="s">
+      <c r="R52" s="19" t="s">
         <v>12</v>
       </c>
       <c r="S52" t="s">
         <v>356</v>
       </c>
-      <c r="V52" s="16" t="s">
+      <c r="V52" s="19" t="s">
         <v>12</v>
       </c>
       <c r="W52" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>10</v>
       </c>
-      <c r="B53" s="16"/>
+      <c r="B53" s="19"/>
       <c r="C53" t="s">
         <v>219</v>
       </c>
-      <c r="F53" s="14"/>
+      <c r="F53" s="18"/>
       <c r="G53" t="s">
         <v>255</v>
       </c>
-      <c r="J53" s="16"/>
+      <c r="J53" s="19"/>
       <c r="K53" t="s">
         <v>289</v>
       </c>
-      <c r="N53" s="16"/>
+      <c r="N53" s="19"/>
       <c r="O53" t="s">
         <v>326</v>
       </c>
-      <c r="R53" s="16"/>
+      <c r="R53" s="19"/>
       <c r="S53" t="s">
         <v>357</v>
       </c>
-      <c r="V53" s="16"/>
+      <c r="V53" s="19"/>
       <c r="W53" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>11</v>
       </c>
-      <c r="B54" s="16"/>
+      <c r="B54" s="19"/>
       <c r="C54" t="s">
         <v>220</v>
       </c>
-      <c r="F54" s="14"/>
+      <c r="F54" s="18"/>
       <c r="G54" t="s">
         <v>83</v>
       </c>
-      <c r="J54" s="16"/>
+      <c r="J54" s="19"/>
       <c r="K54" t="s">
         <v>290</v>
       </c>
-      <c r="N54" s="16"/>
+      <c r="N54" s="19"/>
       <c r="O54" t="s">
         <v>327</v>
       </c>
-      <c r="R54" s="16"/>
+      <c r="R54" s="19"/>
       <c r="S54" t="s">
         <v>358</v>
       </c>
-      <c r="V54" s="16"/>
+      <c r="V54" s="19"/>
       <c r="W54" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>12</v>
       </c>
-      <c r="B55" s="16"/>
+      <c r="B55" s="19"/>
       <c r="C55" t="s">
         <v>223</v>
       </c>
-      <c r="F55" s="16" t="s">
+      <c r="F55" s="19" t="s">
         <v>12</v>
       </c>
       <c r="G55" t="s">
         <v>256</v>
       </c>
-      <c r="J55" s="16"/>
+      <c r="J55" s="19"/>
       <c r="K55" t="s">
         <v>291</v>
       </c>
-      <c r="N55" s="16"/>
+      <c r="N55" s="19"/>
       <c r="O55" t="s">
         <v>328</v>
       </c>
-      <c r="R55" s="16"/>
+      <c r="R55" s="19"/>
       <c r="S55" t="s">
         <v>359</v>
       </c>
-      <c r="V55" s="16"/>
+      <c r="V55" s="19"/>
       <c r="W55" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>13</v>
       </c>
-      <c r="B56" s="16"/>
+      <c r="B56" s="19"/>
       <c r="C56" t="s">
         <v>224</v>
       </c>
-      <c r="F56" s="16"/>
-      <c r="J56" s="16"/>
+      <c r="F56" s="19"/>
+      <c r="G56" t="s">
+        <v>258</v>
+      </c>
+      <c r="J56" s="19"/>
       <c r="K56" t="s">
         <v>292</v>
       </c>
-      <c r="N56" s="16"/>
+      <c r="N56" s="19"/>
       <c r="O56" t="s">
         <v>329</v>
       </c>
-      <c r="R56" s="16"/>
+      <c r="R56" s="19"/>
       <c r="S56" t="s">
         <v>360</v>
       </c>
-      <c r="V56" s="16"/>
+      <c r="V56" s="19"/>
       <c r="W56" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>14</v>
       </c>
-      <c r="B57" s="16"/>
+      <c r="B57" s="19"/>
       <c r="C57" t="s">
         <v>227</v>
       </c>
-      <c r="F57" s="16"/>
+      <c r="F57" s="19"/>
       <c r="G57" t="s">
-        <v>258</v>
-      </c>
-      <c r="J57" s="16"/>
+        <v>90</v>
+      </c>
+      <c r="J57" s="19"/>
       <c r="K57" t="s">
         <v>293</v>
       </c>
-      <c r="N57" s="16"/>
+      <c r="N57" s="19"/>
       <c r="O57" t="s">
         <v>257</v>
       </c>
-      <c r="R57" s="16"/>
+      <c r="R57" s="19"/>
       <c r="S57" t="s">
         <v>361</v>
       </c>
-      <c r="V57" s="16"/>
+      <c r="V57" s="19"/>
       <c r="W57" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>15</v>
       </c>
-      <c r="B58" s="16"/>
+      <c r="B58" s="19"/>
       <c r="C58" t="s">
         <v>228</v>
       </c>
-      <c r="F58" s="16"/>
+      <c r="F58" s="19"/>
       <c r="G58" t="s">
-        <v>259</v>
-      </c>
-      <c r="J58" s="16"/>
+        <v>91</v>
+      </c>
+      <c r="J58" s="19"/>
       <c r="K58" t="s">
         <v>294</v>
       </c>
-      <c r="N58" s="16"/>
+      <c r="N58" s="19"/>
       <c r="O58" t="s">
         <v>263</v>
       </c>
-      <c r="R58" s="16"/>
+      <c r="R58" s="19"/>
       <c r="S58" t="s">
         <v>362</v>
       </c>
-      <c r="V58" s="16"/>
+      <c r="V58" s="19"/>
       <c r="W58" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>16</v>
       </c>
-      <c r="B59" s="16"/>
+      <c r="B59" s="19"/>
       <c r="C59" t="s">
         <v>229</v>
       </c>
-      <c r="F59" s="16"/>
+      <c r="F59" s="19"/>
       <c r="G59" t="s">
         <v>260</v>
       </c>
-      <c r="J59" s="16"/>
+      <c r="J59" s="19"/>
       <c r="K59" t="s">
         <v>295</v>
       </c>
-      <c r="N59" s="16"/>
+      <c r="N59" s="19"/>
       <c r="O59" t="s">
         <v>330</v>
       </c>
@@ -3974,310 +3974,315 @@
       <c r="S59" t="s">
         <v>363</v>
       </c>
-      <c r="V59" s="16"/>
+      <c r="V59" s="19"/>
       <c r="W59" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>17</v>
       </c>
-      <c r="B60" s="19" t="s">
+      <c r="B60" s="20" t="s">
         <v>18</v>
       </c>
       <c r="C60" t="s">
         <v>233</v>
       </c>
-      <c r="F60" s="16"/>
+      <c r="F60" s="19"/>
       <c r="G60" t="s">
         <v>261</v>
       </c>
-      <c r="J60" s="19" t="s">
+      <c r="J60" s="20" t="s">
         <v>18</v>
       </c>
       <c r="K60" t="s">
         <v>296</v>
       </c>
-      <c r="N60" s="19" t="s">
+      <c r="N60" s="20" t="s">
         <v>18</v>
       </c>
       <c r="O60" t="s">
         <v>331</v>
       </c>
-      <c r="R60" s="17" t="s">
+      <c r="R60" s="22" t="s">
         <v>24</v>
       </c>
       <c r="S60" t="s">
         <v>364</v>
       </c>
-      <c r="V60" s="19" t="s">
+      <c r="V60" s="20" t="s">
         <v>18</v>
       </c>
       <c r="W60" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>18</v>
       </c>
-      <c r="B61" s="19"/>
+      <c r="B61" s="20"/>
       <c r="C61" t="s">
         <v>230</v>
       </c>
-      <c r="F61" s="16"/>
+      <c r="F61" s="19"/>
       <c r="G61" t="s">
         <v>262</v>
       </c>
-      <c r="J61" s="19"/>
+      <c r="J61" s="20"/>
       <c r="K61" t="s">
         <v>297</v>
       </c>
-      <c r="N61" s="19"/>
+      <c r="N61" s="20"/>
       <c r="O61" t="s">
         <v>332</v>
       </c>
-      <c r="R61" s="17"/>
+      <c r="R61" s="22"/>
       <c r="S61" t="s">
         <v>365</v>
       </c>
-      <c r="V61" s="19"/>
+      <c r="V61" s="20"/>
       <c r="W61" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>19</v>
       </c>
-      <c r="B62" s="19"/>
+      <c r="B62" s="20"/>
       <c r="C62" t="s">
         <v>231</v>
       </c>
-      <c r="F62" s="16"/>
-      <c r="J62" s="19"/>
+      <c r="F62" s="19"/>
+      <c r="G62" t="s">
+        <v>259</v>
+      </c>
+      <c r="J62" s="20"/>
       <c r="K62" t="s">
         <v>298</v>
       </c>
-      <c r="N62" s="19"/>
+      <c r="N62" s="20"/>
       <c r="O62" t="s">
         <v>333</v>
       </c>
-      <c r="R62" s="17"/>
+      <c r="R62" s="22"/>
       <c r="S62" t="s">
         <v>366</v>
       </c>
-      <c r="V62" s="19"/>
+      <c r="V62" s="20"/>
       <c r="W62" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>20</v>
       </c>
-      <c r="B63" s="19"/>
+      <c r="B63" s="20"/>
       <c r="C63" t="s">
         <v>232</v>
       </c>
-      <c r="F63" s="16"/>
+      <c r="F63" s="19"/>
       <c r="G63" t="s">
-        <v>90</v>
-      </c>
-      <c r="J63" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="J63" s="22" t="s">
         <v>24</v>
       </c>
       <c r="K63" t="s">
         <v>299</v>
       </c>
-      <c r="N63" s="19"/>
+      <c r="N63" s="20"/>
       <c r="O63" t="s">
         <v>334</v>
       </c>
-      <c r="R63" s="17"/>
+      <c r="R63" s="22"/>
       <c r="S63" t="s">
         <v>367</v>
       </c>
-      <c r="V63" s="19"/>
+      <c r="V63" s="20"/>
       <c r="W63" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>21</v>
       </c>
-      <c r="B64" s="19"/>
+      <c r="B64" s="20"/>
       <c r="C64" t="s">
         <v>61</v>
       </c>
-      <c r="F64" s="16"/>
+      <c r="F64" s="19"/>
       <c r="G64" t="s">
-        <v>91</v>
-      </c>
-      <c r="J64" s="17"/>
+        <v>94</v>
+      </c>
+      <c r="J64" s="22"/>
       <c r="K64" t="s">
         <v>300</v>
       </c>
-      <c r="N64" s="19"/>
+      <c r="N64" s="20"/>
       <c r="O64" t="s">
         <v>335</v>
       </c>
-      <c r="R64" s="17"/>
+      <c r="R64" s="22"/>
       <c r="S64" t="s">
         <v>368</v>
       </c>
-      <c r="V64" s="17" t="s">
+      <c r="V64" s="22" t="s">
         <v>24</v>
       </c>
       <c r="W64" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>22</v>
       </c>
-      <c r="B65" s="17" t="s">
+      <c r="B65" s="22" t="s">
         <v>24</v>
       </c>
       <c r="C65" t="s">
         <v>234</v>
       </c>
-      <c r="F65" s="16"/>
+      <c r="F65" s="20" t="s">
+        <v>18</v>
+      </c>
       <c r="G65" t="s">
-        <v>92</v>
-      </c>
-      <c r="J65" s="17"/>
+        <v>264</v>
+      </c>
+      <c r="J65" s="22"/>
       <c r="K65" t="s">
         <v>301</v>
       </c>
-      <c r="N65" s="17" t="s">
+      <c r="N65" s="22" t="s">
         <v>24</v>
       </c>
       <c r="O65" t="s">
         <v>336</v>
       </c>
-      <c r="R65" s="20" t="s">
+      <c r="R65" s="23" t="s">
         <v>30</v>
       </c>
       <c r="S65" t="s">
         <v>369</v>
       </c>
-      <c r="V65" s="17"/>
+      <c r="V65" s="22"/>
       <c r="W65" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>23</v>
       </c>
-      <c r="B66" s="17"/>
+      <c r="B66" s="22"/>
       <c r="C66" t="s">
         <v>235</v>
       </c>
-      <c r="F66" s="16"/>
+      <c r="F66" s="20"/>
       <c r="G66" t="s">
-        <v>94</v>
-      </c>
-      <c r="J66" s="17"/>
+        <v>265</v>
+      </c>
+      <c r="J66" s="22"/>
       <c r="K66" t="s">
         <v>302</v>
       </c>
-      <c r="N66" s="17"/>
+      <c r="N66" s="22"/>
       <c r="O66" t="s">
         <v>337</v>
       </c>
-      <c r="R66" s="20"/>
+      <c r="R66" s="23"/>
       <c r="S66" t="s">
         <v>370</v>
       </c>
-      <c r="V66" s="17"/>
+      <c r="V66" s="22"/>
       <c r="W66" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>24</v>
       </c>
-      <c r="B67" s="17"/>
+      <c r="B67" s="22"/>
       <c r="C67" t="s">
         <v>236</v>
       </c>
-      <c r="F67" s="19" t="s">
-        <v>18</v>
-      </c>
+      <c r="F67" s="20"/>
       <c r="G67" t="s">
-        <v>264</v>
-      </c>
-      <c r="J67" s="17"/>
+        <v>266</v>
+      </c>
+      <c r="J67" s="22"/>
       <c r="K67" t="s">
         <v>303</v>
       </c>
-      <c r="N67" s="17"/>
+      <c r="N67" s="22"/>
       <c r="O67" t="s">
         <v>338</v>
       </c>
-      <c r="R67" s="20"/>
+      <c r="R67" s="23"/>
       <c r="S67" t="s">
         <v>371</v>
       </c>
-      <c r="V67" s="17"/>
+      <c r="V67" s="22"/>
       <c r="W67" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>25</v>
       </c>
-      <c r="B68" s="17"/>
+      <c r="B68" s="22"/>
       <c r="C68" t="s">
         <v>237</v>
       </c>
-      <c r="F68" s="19"/>
+      <c r="F68" s="20"/>
       <c r="G68" t="s">
-        <v>265</v>
-      </c>
-      <c r="J68" s="17"/>
+        <v>267</v>
+      </c>
+      <c r="J68" s="22"/>
       <c r="K68" t="s">
         <v>304</v>
       </c>
-      <c r="N68" s="17"/>
+      <c r="N68" s="22"/>
       <c r="O68" t="s">
         <v>342</v>
       </c>
-      <c r="R68" s="20"/>
+      <c r="R68" s="23"/>
       <c r="S68" t="s">
         <v>372</v>
       </c>
-      <c r="V68" s="20" t="s">
+      <c r="V68" s="23" t="s">
         <v>30</v>
       </c>
       <c r="W68" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>26</v>
       </c>
-      <c r="B69" s="17"/>
+      <c r="B69" s="22"/>
       <c r="C69" t="s">
         <v>238</v>
       </c>
-      <c r="F69" s="19"/>
+      <c r="F69" s="22" t="s">
+        <v>24</v>
+      </c>
       <c r="G69" t="s">
-        <v>266</v>
-      </c>
-      <c r="J69" s="17"/>
+        <v>268</v>
+      </c>
+      <c r="J69" s="22"/>
       <c r="K69" t="s">
         <v>305</v>
       </c>
-      <c r="N69" s="20" t="s">
+      <c r="N69" s="23" t="s">
         <v>30</v>
       </c>
       <c r="O69" t="s">
@@ -4289,32 +4294,32 @@
       <c r="S69" t="s">
         <v>373</v>
       </c>
-      <c r="V69" s="20"/>
+      <c r="V69" s="23"/>
       <c r="W69" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>27</v>
       </c>
-      <c r="B70" s="20" t="s">
+      <c r="B70" s="23" t="s">
         <v>30</v>
       </c>
       <c r="C70" t="s">
         <v>239</v>
       </c>
-      <c r="F70" s="19"/>
+      <c r="F70" s="22"/>
       <c r="G70" t="s">
-        <v>267</v>
-      </c>
-      <c r="J70" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="J70" s="23" t="s">
         <v>30</v>
       </c>
       <c r="K70" t="s">
         <v>306</v>
       </c>
-      <c r="N70" s="20"/>
+      <c r="N70" s="23"/>
       <c r="O70" t="s">
         <v>340</v>
       </c>
@@ -4322,30 +4327,28 @@
       <c r="S70" t="s">
         <v>374</v>
       </c>
-      <c r="V70" s="20"/>
+      <c r="V70" s="23"/>
       <c r="W70" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>28</v>
       </c>
-      <c r="B71" s="20"/>
+      <c r="B71" s="23"/>
       <c r="C71" t="s">
         <v>240</v>
       </c>
-      <c r="F71" s="17" t="s">
-        <v>24</v>
-      </c>
+      <c r="F71" s="22"/>
       <c r="G71" t="s">
-        <v>268</v>
-      </c>
-      <c r="J71" s="20"/>
+        <v>270</v>
+      </c>
+      <c r="J71" s="23"/>
       <c r="K71" t="s">
         <v>307</v>
       </c>
-      <c r="N71" s="20"/>
+      <c r="N71" s="23"/>
       <c r="O71" t="s">
         <v>341</v>
       </c>
@@ -4353,28 +4356,28 @@
       <c r="S71" t="s">
         <v>375</v>
       </c>
-      <c r="V71" s="20"/>
+      <c r="V71" s="23"/>
       <c r="W71" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>29</v>
       </c>
-      <c r="B72" s="20"/>
+      <c r="B72" s="23"/>
       <c r="C72" t="s">
         <v>241</v>
       </c>
-      <c r="F72" s="17"/>
+      <c r="F72" s="22"/>
       <c r="G72" t="s">
-        <v>269</v>
-      </c>
-      <c r="J72" s="20"/>
+        <v>101</v>
+      </c>
+      <c r="J72" s="23"/>
       <c r="K72" t="s">
         <v>308</v>
       </c>
-      <c r="N72" s="20"/>
+      <c r="N72" s="23"/>
       <c r="O72" t="s">
         <v>343</v>
       </c>
@@ -4382,12 +4385,12 @@
       <c r="S72" t="s">
         <v>376</v>
       </c>
-      <c r="V72" s="20"/>
+      <c r="V72" s="23"/>
       <c r="W72" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>30</v>
       </c>
@@ -4397,11 +4400,13 @@
       <c r="C73" t="s">
         <v>242</v>
       </c>
-      <c r="F73" s="17"/>
+      <c r="F73" s="23" t="s">
+        <v>30</v>
+      </c>
       <c r="G73" t="s">
-        <v>270</v>
-      </c>
-      <c r="J73" s="20"/>
+        <v>271</v>
+      </c>
+      <c r="J73" s="23"/>
       <c r="K73" t="s">
         <v>309</v>
       </c>
@@ -4422,14 +4427,14 @@
         <v>407</v>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B74" s="21"/>
       <c r="C74" t="s">
         <v>243</v>
       </c>
-      <c r="F74" s="17"/>
+      <c r="F74" s="23"/>
       <c r="G74" t="s">
-        <v>101</v>
+        <v>272</v>
       </c>
       <c r="J74" s="21" t="s">
         <v>36</v>
@@ -4446,16 +4451,14 @@
         <v>408</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B75" s="21"/>
       <c r="C75" t="s">
         <v>244</v>
       </c>
-      <c r="F75" s="20" t="s">
-        <v>30</v>
-      </c>
+      <c r="F75" s="23"/>
       <c r="G75" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="J75" s="21"/>
       <c r="K75" t="s">
@@ -4470,10 +4473,10 @@
         <v>409</v>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="F76" s="20"/>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="F76" s="23"/>
       <c r="G76" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="J76" s="21"/>
       <c r="K76" t="s">
@@ -4488,96 +4491,60 @@
         <v>410</v>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="F77" s="20"/>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="F77" s="21" t="s">
+        <v>36</v>
+      </c>
       <c r="G77" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="J77" s="21"/>
       <c r="K77" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="F78" s="20"/>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="F78" s="21"/>
       <c r="G78" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="F79" s="21" t="s">
-        <v>36</v>
-      </c>
+        <v>276</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="F79" s="21"/>
       <c r="G79" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.35">
       <c r="F80" s="21"/>
       <c r="G80" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="81" spans="6:7" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="81" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F81" s="21"/>
       <c r="G81" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="82" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F82" s="21"/>
-      <c r="G82" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="83" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F83" s="21"/>
-      <c r="G83" t="s">
         <v>279</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="84">
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B47:B51"/>
-    <mergeCell ref="B52:B59"/>
-    <mergeCell ref="B60:B64"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="F79:F83"/>
-    <mergeCell ref="J63:J69"/>
-    <mergeCell ref="J70:J73"/>
-    <mergeCell ref="J74:J77"/>
-    <mergeCell ref="N44:N46"/>
-    <mergeCell ref="N47:N49"/>
-    <mergeCell ref="N60:N64"/>
-    <mergeCell ref="N65:N68"/>
-    <mergeCell ref="N69:N72"/>
-    <mergeCell ref="N73:N76"/>
-    <mergeCell ref="N50:N59"/>
-    <mergeCell ref="B65:B69"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="B73:B75"/>
-    <mergeCell ref="F67:F70"/>
-    <mergeCell ref="F75:F78"/>
-    <mergeCell ref="V28:V31"/>
-    <mergeCell ref="V32:V35"/>
-    <mergeCell ref="J44:J46"/>
-    <mergeCell ref="J47:J49"/>
-    <mergeCell ref="J50:J59"/>
-    <mergeCell ref="J60:J62"/>
-    <mergeCell ref="R44:R46"/>
-    <mergeCell ref="R47:R51"/>
-    <mergeCell ref="R52:R58"/>
-    <mergeCell ref="R60:R64"/>
-    <mergeCell ref="N24:N29"/>
-    <mergeCell ref="N30:N33"/>
-    <mergeCell ref="R26:R30"/>
-    <mergeCell ref="V2:V5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V20"/>
-    <mergeCell ref="V21:V23"/>
-    <mergeCell ref="V24:V27"/>
-    <mergeCell ref="J31:J35"/>
+  <mergeCells count="85">
+    <mergeCell ref="V68:V72"/>
+    <mergeCell ref="V73:V76"/>
+    <mergeCell ref="R65:R68"/>
+    <mergeCell ref="R69:R73"/>
+    <mergeCell ref="F12:F19"/>
+    <mergeCell ref="F55:F64"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="F6:F11"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="F27:F30"/>
+    <mergeCell ref="F31:F34"/>
     <mergeCell ref="J11:J16"/>
     <mergeCell ref="R31:R34"/>
     <mergeCell ref="N2:N3"/>
@@ -4594,34 +4561,59 @@
     <mergeCell ref="J17:J20"/>
     <mergeCell ref="J21:J24"/>
     <mergeCell ref="J5:J10"/>
-    <mergeCell ref="J25:J30"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="F6:F11"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="F27:F30"/>
-    <mergeCell ref="F31:F34"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="B10:B15"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="F47:F54"/>
-    <mergeCell ref="F44:F46"/>
-    <mergeCell ref="F55:F66"/>
-    <mergeCell ref="F71:F74"/>
+    <mergeCell ref="R60:R64"/>
+    <mergeCell ref="N24:N29"/>
+    <mergeCell ref="N30:N33"/>
+    <mergeCell ref="R26:R30"/>
+    <mergeCell ref="V2:V5"/>
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V20"/>
+    <mergeCell ref="V21:V23"/>
+    <mergeCell ref="V24:V27"/>
     <mergeCell ref="V43:Y43"/>
     <mergeCell ref="V44:V46"/>
     <mergeCell ref="V47:V51"/>
     <mergeCell ref="V52:V59"/>
     <mergeCell ref="V60:V63"/>
     <mergeCell ref="V64:V67"/>
-    <mergeCell ref="V68:V72"/>
-    <mergeCell ref="V73:V76"/>
-    <mergeCell ref="R65:R68"/>
-    <mergeCell ref="R69:R73"/>
+    <mergeCell ref="V28:V31"/>
+    <mergeCell ref="V32:V35"/>
+    <mergeCell ref="J44:J46"/>
+    <mergeCell ref="J47:J49"/>
+    <mergeCell ref="J50:J59"/>
+    <mergeCell ref="R44:R46"/>
+    <mergeCell ref="R47:R51"/>
+    <mergeCell ref="R52:R58"/>
+    <mergeCell ref="J31:J35"/>
+    <mergeCell ref="J25:J30"/>
+    <mergeCell ref="B65:B69"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="F65:F68"/>
+    <mergeCell ref="F73:F76"/>
+    <mergeCell ref="F69:F72"/>
+    <mergeCell ref="F77:F81"/>
+    <mergeCell ref="J63:J69"/>
+    <mergeCell ref="J70:J73"/>
+    <mergeCell ref="J74:J77"/>
+    <mergeCell ref="N44:N46"/>
+    <mergeCell ref="N47:N49"/>
+    <mergeCell ref="N60:N64"/>
+    <mergeCell ref="N65:N68"/>
+    <mergeCell ref="N69:N72"/>
+    <mergeCell ref="N73:N76"/>
+    <mergeCell ref="N50:N59"/>
+    <mergeCell ref="J60:J62"/>
+    <mergeCell ref="F47:F54"/>
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B47:B51"/>
+    <mergeCell ref="B52:B59"/>
+    <mergeCell ref="B60:B64"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B26:B29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4635,56 +4627,56 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.7265625" customWidth="1"/>
     <col min="10" max="10" width="29" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.54296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="26.453125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="30.1796875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="E1" s="18" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="E1" s="25" t="s">
         <v>412</v>
       </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
       <c r="J1" t="s">
         <v>411</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="O1" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="T1" s="18" t="s">
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="T1" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="X1" s="18" t="s">
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="X1" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="Y1" s="18"/>
-      <c r="Z1" s="18"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="25"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>425</v>
       </c>
@@ -4722,7 +4714,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>420</v>
       </c>
@@ -4760,7 +4752,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>442</v>
       </c>
@@ -4798,7 +4790,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>623</v>
       </c>
@@ -4830,7 +4822,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>541</v>
       </c>
@@ -4853,7 +4845,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>539</v>
       </c>
@@ -4867,7 +4859,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>540</v>
       </c>
@@ -4878,43 +4870,43 @@
         <v>443</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="T9" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A17" s="25" t="s">
         <v>212</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
       <c r="E17" t="s">
         <v>445</v>
       </c>
-      <c r="I17" s="18" t="s">
+      <c r="I17" s="25" t="s">
         <v>446</v>
       </c>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="N17" s="18" t="s">
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="N17" s="25" t="s">
         <v>314</v>
       </c>
-      <c r="O17" s="18"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="18"/>
-      <c r="S17" s="18" t="s">
+      <c r="O17" s="25"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="25"/>
+      <c r="S17" s="25" t="s">
         <v>315</v>
       </c>
-      <c r="T17" s="18"/>
-      <c r="U17" s="18"/>
-      <c r="V17" s="18"/>
+      <c r="T17" s="25"/>
+      <c r="U17" s="25"/>
+      <c r="V17" s="25"/>
       <c r="X17" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>448</v>
       </c>
@@ -4952,7 +4944,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>454</v>
       </c>
@@ -4990,7 +4982,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>460</v>
       </c>
@@ -5028,7 +5020,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>466</v>
       </c>
@@ -5066,7 +5058,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>472</v>
       </c>
@@ -5098,7 +5090,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>476</v>
       </c>
@@ -5112,7 +5104,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>479</v>
       </c>
@@ -5126,7 +5118,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
       <c r="E25" t="s">
         <v>481</v>
       </c>
@@ -5134,37 +5126,37 @@
         <v>480</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
       <c r="E26" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
       <c r="C29" s="2" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
       <c r="C30" s="2" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
       <c r="C31" s="2" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
       <c r="C32" s="2" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C33" s="2" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C34" s="2" t="s">
         <v>488</v>
       </c>
@@ -5193,14 +5185,14 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>520</v>
       </c>
@@ -5211,7 +5203,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>492</v>
       </c>
@@ -5222,7 +5214,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>521</v>
       </c>
@@ -5233,7 +5225,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>497</v>
       </c>
@@ -5244,7 +5236,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>500</v>
       </c>
@@ -5255,7 +5247,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>485</v>
       </c>
@@ -5266,7 +5258,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>522</v>
       </c>
@@ -5277,7 +5269,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>486</v>
       </c>
@@ -5288,7 +5280,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>509</v>
       </c>
@@ -5299,7 +5291,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>487</v>
       </c>
@@ -5310,7 +5302,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>514</v>
       </c>
@@ -5321,7 +5313,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>517</v>
       </c>
@@ -5358,22 +5350,22 @@
       <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>523</v>
       </c>
@@ -5381,7 +5373,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
         <v>524</v>
       </c>
@@ -5389,8 +5381,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>507</v>
       </c>
@@ -5405,23 +5397,23 @@
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="10"/>
       <c r="B5" s="11" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="10"/>
       <c r="B6" s="11" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="10"/>
       <c r="B7" s="11"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
         <v>528</v>
       </c>
@@ -5429,62 +5421,62 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="10"/>
       <c r="B9" s="11" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="10"/>
       <c r="B10" s="11" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="10"/>
       <c r="B11" s="11" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="10"/>
       <c r="B12" s="11" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="10"/>
       <c r="B13" s="11" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="10"/>
       <c r="B14" s="11" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="10"/>
       <c r="B15" s="11" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="10"/>
       <c r="B16" s="11" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="7"/>
       <c r="B17" s="8" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>597</v>
       </c>
@@ -5492,59 +5484,59 @@
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="10"/>
       <c r="B20" s="12" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="10"/>
       <c r="B21" s="11" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="10"/>
       <c r="B22" s="11" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="10"/>
       <c r="B23" s="11" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="10"/>
       <c r="B24" s="12" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="10"/>
       <c r="B25" s="12" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="10"/>
       <c r="B26" s="11" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="10"/>
       <c r="B27" s="11" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="10" t="s">
         <v>602</v>
       </c>
@@ -5552,104 +5544,104 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="10"/>
       <c r="B30" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="10"/>
       <c r="B31" s="11" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="10"/>
       <c r="B32" s="11" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="10"/>
       <c r="B33" s="12" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="10"/>
       <c r="B34" s="12" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="10"/>
       <c r="B35" s="12" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="10"/>
       <c r="B36" s="12" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="10"/>
       <c r="B37" s="12" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="10"/>
       <c r="B38" s="11" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="10"/>
       <c r="B39" s="12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="10"/>
       <c r="B40" s="11" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="10"/>
       <c r="B41" s="11" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="10"/>
       <c r="B42" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="10"/>
       <c r="B43" s="11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="10"/>
       <c r="B44" s="12" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="7"/>
       <c r="B45" s="13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
         <v>613</v>
       </c>
@@ -5657,19 +5649,19 @@
         <v>614</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="10"/>
       <c r="B48" s="11" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="10"/>
       <c r="B49" s="11" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="7" t="s">
         <v>617</v>
       </c>
@@ -5677,42 +5669,42 @@
         <v>225</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="B53" s="24" t="s">
+      <c r="B53" s="14" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="10"/>
-      <c r="B54" s="25" t="s">
+      <c r="B54" s="15" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="10"/>
-      <c r="B55" s="25" t="s">
+      <c r="B55" s="15" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="10"/>
-      <c r="B56" s="25" t="s">
+      <c r="B56" s="15" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="10"/>
-      <c r="B57" s="25"/>
-    </row>
-    <row r="58" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="15"/>
+    </row>
+    <row r="58" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="7" t="s">
         <v>622</v>
       </c>
-      <c r="B58" s="26" t="s">
+      <c r="B58" s="16" t="s">
         <v>321</v>
       </c>
     </row>

--- a/OffSeason.xlsx
+++ b/OffSeason.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Rosters" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="632">
   <si>
     <t>Chubber for Chubb - John Olson</t>
   </si>
@@ -1899,6 +1899,30 @@
   </si>
   <si>
     <t>Start 8th round own picks</t>
+  </si>
+  <si>
+    <t>AlanP</t>
+  </si>
+  <si>
+    <t>2021 2nd (Alan P)</t>
+  </si>
+  <si>
+    <t>Rashad Penny</t>
+  </si>
+  <si>
+    <t>2021 3rd</t>
+  </si>
+  <si>
+    <t>Vanja</t>
+  </si>
+  <si>
+    <t>2020 2nd (BeatinGoff)</t>
+  </si>
+  <si>
+    <t>2020 2nd (Naked Pooper)</t>
+  </si>
+  <si>
+    <t>2020 4th (Jacobs Ladder)</t>
   </si>
 </sst>
 </file>
@@ -2090,29 +2114,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2400,26 +2424,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I70" sqref="I70"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="1"/>
-    <col min="3" max="3" width="12.26953125" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B1" s="24" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
       <c r="F1" t="s">
         <v>42</v>
       </c>
@@ -2436,263 +2461,263 @@
         <v>177</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="23" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="23" t="s">
         <v>1</v>
       </c>
       <c r="G2" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="23" t="s">
         <v>1</v>
       </c>
       <c r="K2" t="s">
         <v>77</v>
       </c>
-      <c r="N2" s="17" t="s">
+      <c r="N2" s="23" t="s">
         <v>1</v>
       </c>
       <c r="O2" t="s">
         <v>112</v>
       </c>
-      <c r="R2" s="17" t="s">
+      <c r="R2" s="23" t="s">
         <v>1</v>
       </c>
       <c r="S2" t="s">
         <v>144</v>
       </c>
-      <c r="V2" s="17" t="s">
+      <c r="V2" s="23" t="s">
         <v>1</v>
       </c>
       <c r="W2" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="17"/>
+      <c r="B3" s="23"/>
       <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="17"/>
+      <c r="F3" s="23"/>
       <c r="G3" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="17"/>
+      <c r="J3" s="23"/>
       <c r="K3" t="s">
         <v>78</v>
       </c>
-      <c r="N3" s="17"/>
+      <c r="N3" s="23"/>
       <c r="O3" t="s">
         <v>104</v>
       </c>
-      <c r="R3" s="17"/>
+      <c r="R3" s="23"/>
       <c r="S3" t="s">
         <v>145</v>
       </c>
-      <c r="V3" s="17"/>
+      <c r="V3" s="23"/>
       <c r="W3" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="21" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="17"/>
+      <c r="F4" s="23"/>
       <c r="G4" t="s">
         <v>46</v>
       </c>
-      <c r="J4" s="17"/>
+      <c r="J4" s="23"/>
       <c r="K4" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="18" t="s">
+      <c r="N4" s="21" t="s">
         <v>5</v>
       </c>
       <c r="O4" t="s">
         <v>113</v>
       </c>
-      <c r="R4" s="18" t="s">
+      <c r="R4" s="21" t="s">
         <v>5</v>
       </c>
       <c r="S4" t="s">
         <v>146</v>
       </c>
-      <c r="V4" s="17"/>
+      <c r="V4" s="23"/>
       <c r="W4" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="18"/>
+      <c r="B5" s="21"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="17"/>
+      <c r="F5" s="23"/>
       <c r="G5" t="s">
         <v>47</v>
       </c>
-      <c r="J5" s="18" t="s">
+      <c r="J5" s="21" t="s">
         <v>5</v>
       </c>
       <c r="K5" t="s">
         <v>248</v>
       </c>
-      <c r="N5" s="18"/>
+      <c r="N5" s="21"/>
       <c r="O5" t="s">
         <v>114</v>
       </c>
-      <c r="R5" s="18"/>
+      <c r="R5" s="21"/>
       <c r="S5" t="s">
         <v>147</v>
       </c>
-      <c r="V5" s="17"/>
+      <c r="V5" s="23"/>
       <c r="W5" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="18"/>
+      <c r="B6" s="21"/>
       <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="21" t="s">
         <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>48</v>
-      </c>
-      <c r="J6" s="18"/>
+        <v>49</v>
+      </c>
+      <c r="J6" s="21"/>
       <c r="K6" t="s">
         <v>81</v>
       </c>
-      <c r="N6" s="18"/>
+      <c r="N6" s="21"/>
       <c r="O6" t="s">
         <v>115</v>
       </c>
-      <c r="R6" s="18"/>
+      <c r="R6" s="21"/>
       <c r="S6" t="s">
         <v>148</v>
       </c>
-      <c r="V6" s="18" t="s">
+      <c r="V6" s="21" t="s">
         <v>5</v>
       </c>
       <c r="W6" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="18"/>
+      <c r="B7" s="21"/>
       <c r="C7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="18"/>
+      <c r="F7" s="21"/>
       <c r="G7" t="s">
-        <v>49</v>
-      </c>
-      <c r="J7" s="18"/>
+        <v>50</v>
+      </c>
+      <c r="J7" s="21"/>
       <c r="K7" t="s">
         <v>82</v>
       </c>
-      <c r="N7" s="18"/>
+      <c r="N7" s="21"/>
       <c r="O7" t="s">
         <v>116</v>
       </c>
-      <c r="R7" s="18"/>
+      <c r="R7" s="21"/>
       <c r="S7" t="s">
         <v>149</v>
       </c>
-      <c r="V7" s="18"/>
+      <c r="V7" s="21"/>
       <c r="W7" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="18"/>
+      <c r="B8" s="21"/>
       <c r="C8" t="s">
         <v>80</v>
       </c>
-      <c r="F8" s="18"/>
+      <c r="F8" s="21"/>
       <c r="G8" t="s">
-        <v>50</v>
-      </c>
-      <c r="J8" s="18"/>
+        <v>51</v>
+      </c>
+      <c r="J8" s="21"/>
       <c r="K8" t="s">
         <v>84</v>
       </c>
-      <c r="N8" s="18"/>
+      <c r="N8" s="21"/>
       <c r="O8" t="s">
         <v>117</v>
       </c>
-      <c r="R8" s="18"/>
+      <c r="R8" s="21"/>
       <c r="S8" t="s">
         <v>150</v>
       </c>
-      <c r="V8" s="18"/>
+      <c r="V8" s="21"/>
       <c r="W8" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="18"/>
+      <c r="B9" s="21"/>
       <c r="C9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="18"/>
+      <c r="F9" s="21"/>
       <c r="G9" t="s">
-        <v>51</v>
-      </c>
-      <c r="J9" s="18"/>
+        <v>52</v>
+      </c>
+      <c r="J9" s="21"/>
       <c r="K9" t="s">
         <v>85</v>
       </c>
-      <c r="N9" s="18"/>
+      <c r="N9" s="21"/>
       <c r="O9" t="s">
         <v>118</v>
       </c>
-      <c r="R9" s="18"/>
+      <c r="R9" s="21"/>
       <c r="S9" t="s">
         <v>151</v>
       </c>
-      <c r="V9" s="18"/>
+      <c r="V9" s="21"/>
       <c r="W9" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2702,15 +2727,17 @@
       <c r="C10" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="18"/>
+      <c r="F10" s="19" t="s">
+        <v>12</v>
+      </c>
       <c r="G10" t="s">
-        <v>52</v>
-      </c>
-      <c r="J10" s="18"/>
+        <v>54</v>
+      </c>
+      <c r="J10" s="21"/>
       <c r="K10" t="s">
         <v>10</v>
       </c>
-      <c r="N10" s="18"/>
+      <c r="N10" s="21"/>
       <c r="O10" t="s">
         <v>119</v>
       </c>
@@ -2720,12 +2747,12 @@
       <c r="S10" t="s">
         <v>152</v>
       </c>
-      <c r="V10" s="18"/>
+      <c r="V10" s="21"/>
       <c r="W10" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2733,15 +2760,13 @@
       <c r="C11" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="18"/>
+      <c r="F11" s="19"/>
       <c r="G11" t="s">
-        <v>53</v>
-      </c>
-      <c r="J11" s="19" t="s">
-        <v>12</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="J11" s="21"/>
       <c r="K11" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="N11" s="19" t="s">
         <v>12</v>
@@ -2753,12 +2778,12 @@
       <c r="S11" t="s">
         <v>153</v>
       </c>
-      <c r="V11" s="18"/>
+      <c r="V11" s="21"/>
       <c r="W11" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2766,15 +2791,15 @@
       <c r="C12" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="19"/>
+      <c r="G12" t="s">
+        <v>56</v>
+      </c>
+      <c r="J12" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="G12" t="s">
-        <v>54</v>
-      </c>
-      <c r="J12" s="19"/>
       <c r="K12" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="N12" s="19"/>
       <c r="O12" t="s">
@@ -2784,14 +2809,12 @@
       <c r="S12" t="s">
         <v>154</v>
       </c>
-      <c r="V12" s="19" t="s">
-        <v>12</v>
-      </c>
+      <c r="V12" s="21"/>
       <c r="W12" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2801,11 +2824,11 @@
       </c>
       <c r="F13" s="19"/>
       <c r="G13" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J13" s="19"/>
       <c r="K13" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="N13" s="19"/>
       <c r="O13" t="s">
@@ -2815,12 +2838,14 @@
       <c r="S13" t="s">
         <v>155</v>
       </c>
-      <c r="V13" s="19"/>
+      <c r="V13" s="19" t="s">
+        <v>12</v>
+      </c>
       <c r="W13" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2830,11 +2855,11 @@
       </c>
       <c r="F14" s="19"/>
       <c r="G14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J14" s="19"/>
       <c r="K14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N14" s="19"/>
       <c r="O14" t="s">
@@ -2846,10 +2871,10 @@
       </c>
       <c r="V14" s="19"/>
       <c r="W14" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2859,11 +2884,11 @@
       </c>
       <c r="F15" s="19"/>
       <c r="G15" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J15" s="19"/>
       <c r="K15" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="N15" s="19"/>
       <c r="O15" t="s">
@@ -2875,14 +2900,14 @@
       </c>
       <c r="V15" s="19"/>
       <c r="W15" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="22" t="s">
         <v>18</v>
       </c>
       <c r="C16" t="s">
@@ -2890,11 +2915,11 @@
       </c>
       <c r="F16" s="19"/>
       <c r="G16" t="s">
-        <v>58</v>
+        <v>226</v>
       </c>
       <c r="J16" s="19"/>
       <c r="K16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N16" s="19"/>
       <c r="O16" t="s">
@@ -2906,28 +2931,26 @@
       </c>
       <c r="V16" s="19"/>
       <c r="W16" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="20"/>
+      <c r="B17" s="22"/>
       <c r="C17" t="s">
         <v>20</v>
       </c>
       <c r="F17" s="19"/>
       <c r="G17" t="s">
-        <v>59</v>
-      </c>
-      <c r="J17" s="20" t="s">
-        <v>18</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="J17" s="19"/>
       <c r="K17" t="s">
-        <v>95</v>
-      </c>
-      <c r="N17" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="N17" s="22" t="s">
         <v>18</v>
       </c>
       <c r="O17" t="s">
@@ -2939,26 +2962,30 @@
       </c>
       <c r="V17" s="19"/>
       <c r="W17" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="20"/>
+      <c r="B18" s="22"/>
       <c r="C18" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="19"/>
+      <c r="F18" s="22" t="s">
+        <v>18</v>
+      </c>
       <c r="G18" t="s">
-        <v>226</v>
-      </c>
-      <c r="J18" s="20"/>
+        <v>60</v>
+      </c>
+      <c r="J18" s="22" t="s">
+        <v>18</v>
+      </c>
       <c r="K18" t="s">
-        <v>96</v>
-      </c>
-      <c r="N18" s="20"/>
+        <v>95</v>
+      </c>
+      <c r="N18" s="22"/>
       <c r="O18" t="s">
         <v>127</v>
       </c>
@@ -2968,28 +2995,28 @@
       </c>
       <c r="V18" s="19"/>
       <c r="W18" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="24" t="s">
         <v>24</v>
       </c>
       <c r="C19" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="19"/>
+      <c r="F19" s="22"/>
       <c r="G19" t="s">
-        <v>225</v>
-      </c>
-      <c r="J19" s="20"/>
+        <v>62</v>
+      </c>
+      <c r="J19" s="22"/>
       <c r="K19" t="s">
-        <v>97</v>
-      </c>
-      <c r="N19" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="N19" s="24" t="s">
         <v>24</v>
       </c>
       <c r="O19" t="s">
@@ -3001,32 +3028,30 @@
       </c>
       <c r="V19" s="19"/>
       <c r="W19" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="22"/>
+      <c r="B20" s="24"/>
       <c r="C20" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="20" t="s">
-        <v>18</v>
-      </c>
+      <c r="F20" s="22"/>
       <c r="G20" t="s">
-        <v>60</v>
-      </c>
-      <c r="J20" s="20"/>
+        <v>63</v>
+      </c>
+      <c r="J20" s="22"/>
       <c r="K20" t="s">
-        <v>98</v>
-      </c>
-      <c r="N20" s="22"/>
+        <v>97</v>
+      </c>
+      <c r="N20" s="24"/>
       <c r="O20" t="s">
         <v>129</v>
       </c>
-      <c r="R20" s="20" t="s">
+      <c r="R20" s="22" t="s">
         <v>18</v>
       </c>
       <c r="S20" t="s">
@@ -3034,427 +3059,429 @@
       </c>
       <c r="V20" s="19"/>
       <c r="W20" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="22"/>
+      <c r="B21" s="24"/>
       <c r="C21" t="s">
         <v>27</v>
       </c>
-      <c r="F21" s="20"/>
+      <c r="F21" s="24" t="s">
+        <v>24</v>
+      </c>
       <c r="G21" t="s">
-        <v>62</v>
-      </c>
-      <c r="J21" s="22" t="s">
-        <v>24</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="J21" s="22"/>
       <c r="K21" t="s">
-        <v>99</v>
-      </c>
-      <c r="N21" s="22"/>
+        <v>98</v>
+      </c>
+      <c r="N21" s="24"/>
       <c r="O21" t="s">
         <v>130</v>
       </c>
-      <c r="R21" s="20"/>
+      <c r="R21" s="22"/>
       <c r="S21" t="s">
         <v>163</v>
       </c>
-      <c r="V21" s="20" t="s">
-        <v>18</v>
-      </c>
+      <c r="V21" s="19"/>
       <c r="W21" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="22"/>
+      <c r="B22" s="24"/>
       <c r="C22" t="s">
         <v>100</v>
       </c>
-      <c r="F22" s="20"/>
+      <c r="F22" s="24"/>
       <c r="G22" t="s">
-        <v>63</v>
-      </c>
-      <c r="J22" s="22"/>
+        <v>65</v>
+      </c>
+      <c r="J22" s="24" t="s">
+        <v>24</v>
+      </c>
       <c r="K22" t="s">
-        <v>28</v>
-      </c>
-      <c r="N22" s="22"/>
+        <v>99</v>
+      </c>
+      <c r="N22" s="24"/>
       <c r="O22" t="s">
         <v>131</v>
       </c>
-      <c r="R22" s="22" t="s">
+      <c r="R22" s="24" t="s">
         <v>24</v>
       </c>
       <c r="S22" t="s">
         <v>164</v>
       </c>
-      <c r="V22" s="20"/>
+      <c r="V22" s="22" t="s">
+        <v>18</v>
+      </c>
       <c r="W22" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="17" t="s">
         <v>30</v>
       </c>
       <c r="C23" t="s">
         <v>31</v>
       </c>
-      <c r="F23" s="22" t="s">
-        <v>24</v>
-      </c>
+      <c r="F23" s="24"/>
       <c r="G23" t="s">
-        <v>64</v>
-      </c>
-      <c r="J23" s="22"/>
+        <v>66</v>
+      </c>
+      <c r="J23" s="24"/>
       <c r="K23" t="s">
-        <v>29</v>
-      </c>
-      <c r="N23" s="22"/>
+        <v>28</v>
+      </c>
+      <c r="N23" s="24"/>
       <c r="O23" t="s">
         <v>132</v>
       </c>
-      <c r="R23" s="22"/>
+      <c r="R23" s="24"/>
       <c r="S23" t="s">
         <v>165</v>
       </c>
-      <c r="V23" s="20"/>
+      <c r="V23" s="22"/>
       <c r="W23" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="23"/>
+      <c r="B24" s="17"/>
       <c r="C24" t="s">
         <v>32</v>
       </c>
-      <c r="F24" s="22"/>
+      <c r="F24" s="24"/>
       <c r="G24" t="s">
-        <v>65</v>
-      </c>
-      <c r="J24" s="22"/>
+        <v>67</v>
+      </c>
+      <c r="J24" s="24"/>
       <c r="K24" t="s">
-        <v>102</v>
-      </c>
-      <c r="N24" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="N24" s="17" t="s">
         <v>30</v>
       </c>
       <c r="O24" t="s">
         <v>133</v>
       </c>
-      <c r="R24" s="22"/>
+      <c r="R24" s="24"/>
       <c r="S24" t="s">
         <v>166</v>
       </c>
-      <c r="V24" s="22" t="s">
-        <v>24</v>
-      </c>
+      <c r="V24" s="22"/>
       <c r="W24" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="23"/>
+      <c r="B25" s="17"/>
       <c r="C25" t="s">
         <v>33</v>
       </c>
-      <c r="F25" s="22"/>
+      <c r="F25" s="17" t="s">
+        <v>30</v>
+      </c>
       <c r="G25" t="s">
-        <v>66</v>
-      </c>
-      <c r="J25" s="23" t="s">
-        <v>30</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="J25" s="24"/>
       <c r="K25" t="s">
-        <v>103</v>
-      </c>
-      <c r="N25" s="23"/>
+        <v>102</v>
+      </c>
+      <c r="N25" s="17"/>
       <c r="O25" t="s">
         <v>134</v>
       </c>
-      <c r="R25" s="22"/>
+      <c r="R25" s="24"/>
       <c r="S25" t="s">
         <v>167</v>
       </c>
-      <c r="V25" s="22"/>
+      <c r="V25" s="24" t="s">
+        <v>24</v>
+      </c>
       <c r="W25" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="18" t="s">
         <v>36</v>
       </c>
       <c r="C26" t="s">
         <v>37</v>
       </c>
-      <c r="F26" s="22"/>
+      <c r="F26" s="17"/>
       <c r="G26" t="s">
-        <v>67</v>
-      </c>
-      <c r="J26" s="23"/>
+        <v>70</v>
+      </c>
+      <c r="J26" s="17" t="s">
+        <v>30</v>
+      </c>
       <c r="K26" t="s">
-        <v>104</v>
-      </c>
-      <c r="N26" s="23"/>
+        <v>103</v>
+      </c>
+      <c r="N26" s="17"/>
       <c r="O26" t="s">
         <v>135</v>
       </c>
-      <c r="R26" s="23" t="s">
+      <c r="R26" s="17" t="s">
         <v>30</v>
       </c>
       <c r="S26" t="s">
         <v>168</v>
       </c>
-      <c r="V26" s="22"/>
+      <c r="V26" s="24"/>
       <c r="W26" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="21"/>
+      <c r="B27" s="18"/>
       <c r="C27" t="s">
         <v>38</v>
       </c>
-      <c r="F27" s="23" t="s">
-        <v>30</v>
-      </c>
+      <c r="F27" s="17"/>
       <c r="G27" t="s">
-        <v>69</v>
-      </c>
-      <c r="J27" s="23"/>
+        <v>71</v>
+      </c>
+      <c r="J27" s="17"/>
       <c r="K27" t="s">
-        <v>105</v>
-      </c>
-      <c r="N27" s="23"/>
+        <v>104</v>
+      </c>
+      <c r="N27" s="17"/>
       <c r="O27" t="s">
         <v>136</v>
       </c>
-      <c r="R27" s="23"/>
+      <c r="R27" s="17"/>
       <c r="S27" t="s">
         <v>169</v>
       </c>
-      <c r="V27" s="22"/>
+      <c r="V27" s="24"/>
       <c r="W27" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="21"/>
+      <c r="B28" s="18"/>
       <c r="C28" t="s">
         <v>39</v>
       </c>
-      <c r="F28" s="23"/>
+      <c r="F28" s="17"/>
       <c r="G28" t="s">
-        <v>70</v>
-      </c>
-      <c r="J28" s="23"/>
+        <v>68</v>
+      </c>
+      <c r="J28" s="17"/>
       <c r="K28" t="s">
-        <v>106</v>
-      </c>
-      <c r="N28" s="23"/>
+        <v>105</v>
+      </c>
+      <c r="N28" s="17"/>
       <c r="O28" t="s">
         <v>137</v>
       </c>
-      <c r="R28" s="23"/>
+      <c r="R28" s="17"/>
       <c r="S28" t="s">
         <v>170</v>
       </c>
-      <c r="V28" s="23" t="s">
-        <v>30</v>
-      </c>
+      <c r="V28" s="24"/>
       <c r="W28" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="21"/>
+      <c r="B29" s="18"/>
       <c r="C29" t="s">
         <v>107</v>
       </c>
-      <c r="F29" s="23"/>
+      <c r="F29" s="18" t="s">
+        <v>36</v>
+      </c>
       <c r="G29" t="s">
-        <v>71</v>
-      </c>
-      <c r="J29" s="23"/>
+        <v>72</v>
+      </c>
+      <c r="J29" s="17"/>
       <c r="K29" t="s">
-        <v>34</v>
-      </c>
-      <c r="N29" s="23"/>
+        <v>106</v>
+      </c>
+      <c r="N29" s="17"/>
       <c r="O29" t="s">
         <v>138</v>
       </c>
-      <c r="R29" s="23"/>
+      <c r="R29" s="17"/>
       <c r="S29" t="s">
         <v>171</v>
       </c>
-      <c r="V29" s="23"/>
+      <c r="V29" s="17" t="s">
+        <v>30</v>
+      </c>
       <c r="W29" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="F30" s="23"/>
+      <c r="F30" s="18"/>
       <c r="G30" t="s">
-        <v>68</v>
-      </c>
-      <c r="J30" s="23"/>
+        <v>73</v>
+      </c>
+      <c r="J30" s="17"/>
       <c r="K30" t="s">
-        <v>35</v>
-      </c>
-      <c r="N30" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="N30" s="18" t="s">
         <v>36</v>
       </c>
       <c r="O30" t="s">
         <v>139</v>
       </c>
-      <c r="R30" s="23"/>
+      <c r="R30" s="17"/>
       <c r="S30" t="s">
         <v>172</v>
       </c>
-      <c r="V30" s="23"/>
+      <c r="V30" s="17"/>
       <c r="W30" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="F31" s="21" t="s">
-        <v>36</v>
-      </c>
+      <c r="F31" s="18"/>
       <c r="G31" t="s">
-        <v>72</v>
-      </c>
-      <c r="J31" s="21" t="s">
-        <v>36</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="J31" s="17"/>
       <c r="K31" t="s">
-        <v>40</v>
-      </c>
-      <c r="N31" s="21"/>
+        <v>35</v>
+      </c>
+      <c r="N31" s="18"/>
       <c r="O31" t="s">
         <v>140</v>
       </c>
-      <c r="R31" s="21" t="s">
+      <c r="R31" s="18" t="s">
         <v>36</v>
       </c>
       <c r="S31" t="s">
         <v>173</v>
       </c>
-      <c r="V31" s="23"/>
+      <c r="V31" s="17"/>
       <c r="W31" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="F32" s="21"/>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="F32" s="18"/>
       <c r="G32" t="s">
-        <v>73</v>
-      </c>
-      <c r="J32" s="21"/>
+        <v>75</v>
+      </c>
+      <c r="J32" s="18" t="s">
+        <v>36</v>
+      </c>
       <c r="K32" t="s">
-        <v>108</v>
-      </c>
-      <c r="N32" s="21"/>
+        <v>40</v>
+      </c>
+      <c r="N32" s="18"/>
       <c r="O32" t="s">
         <v>141</v>
       </c>
-      <c r="R32" s="21"/>
+      <c r="R32" s="18"/>
       <c r="S32" t="s">
         <v>174</v>
       </c>
-      <c r="V32" s="21" t="s">
-        <v>36</v>
-      </c>
+      <c r="V32" s="17"/>
       <c r="W32" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="F33" s="21"/>
-      <c r="G33" t="s">
-        <v>74</v>
-      </c>
-      <c r="J33" s="21"/>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="J33" s="18"/>
       <c r="K33" t="s">
-        <v>109</v>
-      </c>
-      <c r="N33" s="21"/>
+        <v>108</v>
+      </c>
+      <c r="N33" s="18"/>
       <c r="O33" t="s">
         <v>142</v>
       </c>
-      <c r="R33" s="21"/>
+      <c r="R33" s="18"/>
       <c r="S33" t="s">
         <v>175</v>
       </c>
-      <c r="V33" s="21"/>
+      <c r="V33" s="18" t="s">
+        <v>36</v>
+      </c>
       <c r="W33" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="F34" s="21"/>
-      <c r="G34" t="s">
-        <v>75</v>
-      </c>
-      <c r="J34" s="21"/>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="J34" s="18"/>
       <c r="K34" t="s">
-        <v>110</v>
-      </c>
-      <c r="R34" s="21"/>
+        <v>109</v>
+      </c>
+      <c r="R34" s="18"/>
       <c r="S34" t="s">
         <v>176</v>
       </c>
-      <c r="V34" s="21"/>
+      <c r="V34" s="18"/>
       <c r="W34" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="J35" s="18"/>
+      <c r="K35" t="s">
+        <v>110</v>
+      </c>
+      <c r="V35" s="18"/>
+      <c r="W35" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="J35" s="21"/>
-      <c r="K35" t="s">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="J36" s="18"/>
+      <c r="K36" t="s">
         <v>41</v>
       </c>
-      <c r="V35" s="21"/>
-      <c r="W35" t="s">
+      <c r="V36" s="18"/>
+      <c r="W36" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>212</v>
       </c>
@@ -3477,213 +3504,213 @@
       <c r="X43" s="25"/>
       <c r="Y43" s="25"/>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1</v>
       </c>
-      <c r="B44" s="17" t="s">
+      <c r="B44" s="23" t="s">
         <v>1</v>
       </c>
       <c r="C44" t="s">
         <v>44</v>
       </c>
-      <c r="F44" s="17" t="s">
+      <c r="F44" s="23" t="s">
         <v>1</v>
       </c>
       <c r="G44" t="s">
         <v>246</v>
       </c>
-      <c r="J44" s="17" t="s">
+      <c r="J44" s="23" t="s">
         <v>1</v>
       </c>
       <c r="K44" t="s">
         <v>280</v>
       </c>
-      <c r="N44" s="17" t="s">
+      <c r="N44" s="23" t="s">
         <v>1</v>
       </c>
       <c r="O44" t="s">
         <v>317</v>
       </c>
-      <c r="R44" s="17" t="s">
+      <c r="R44" s="23" t="s">
         <v>1</v>
       </c>
       <c r="S44" t="s">
         <v>348</v>
       </c>
-      <c r="V44" s="17" t="s">
+      <c r="V44" s="23" t="s">
         <v>1</v>
       </c>
       <c r="W44" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>2</v>
       </c>
-      <c r="B45" s="17"/>
+      <c r="B45" s="23"/>
       <c r="C45" t="s">
         <v>214</v>
       </c>
-      <c r="F45" s="17"/>
+      <c r="F45" s="23"/>
       <c r="G45" t="s">
         <v>247</v>
       </c>
-      <c r="J45" s="17"/>
+      <c r="J45" s="23"/>
       <c r="K45" t="s">
         <v>281</v>
       </c>
-      <c r="N45" s="17"/>
+      <c r="N45" s="23"/>
       <c r="O45" t="s">
         <v>318</v>
       </c>
-      <c r="R45" s="17"/>
+      <c r="R45" s="23"/>
       <c r="S45" t="s">
         <v>349</v>
       </c>
-      <c r="V45" s="17"/>
+      <c r="V45" s="23"/>
       <c r="W45" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>3</v>
       </c>
-      <c r="B46" s="17"/>
+      <c r="B46" s="23"/>
       <c r="C46" t="s">
         <v>213</v>
       </c>
-      <c r="F46" s="17"/>
+      <c r="F46" s="23"/>
       <c r="G46" t="s">
         <v>79</v>
       </c>
-      <c r="J46" s="17"/>
+      <c r="J46" s="23"/>
       <c r="K46" t="s">
         <v>282</v>
       </c>
-      <c r="N46" s="17"/>
+      <c r="N46" s="23"/>
       <c r="O46" t="s">
         <v>319</v>
       </c>
-      <c r="R46" s="17"/>
+      <c r="R46" s="23"/>
       <c r="S46" t="s">
         <v>350</v>
       </c>
-      <c r="V46" s="17"/>
+      <c r="V46" s="23"/>
       <c r="W46" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>4</v>
       </c>
-      <c r="B47" s="18" t="s">
+      <c r="B47" s="21" t="s">
         <v>5</v>
       </c>
       <c r="C47" t="s">
         <v>215</v>
       </c>
-      <c r="F47" s="18" t="s">
+      <c r="F47" s="21" t="s">
         <v>5</v>
       </c>
       <c r="G47" t="s">
         <v>249</v>
       </c>
-      <c r="J47" s="18" t="s">
+      <c r="J47" s="21" t="s">
         <v>5</v>
       </c>
       <c r="K47" t="s">
         <v>283</v>
       </c>
-      <c r="N47" s="18" t="s">
+      <c r="N47" s="21" t="s">
         <v>5</v>
       </c>
       <c r="O47" t="s">
         <v>320</v>
       </c>
-      <c r="R47" s="18" t="s">
+      <c r="R47" s="21" t="s">
         <v>5</v>
       </c>
       <c r="S47" t="s">
         <v>351</v>
       </c>
-      <c r="V47" s="18" t="s">
+      <c r="V47" s="21" t="s">
         <v>5</v>
       </c>
       <c r="W47" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>5</v>
       </c>
-      <c r="B48" s="18"/>
+      <c r="B48" s="21"/>
       <c r="C48" t="s">
         <v>216</v>
       </c>
-      <c r="F48" s="18"/>
+      <c r="F48" s="21"/>
       <c r="G48" t="s">
         <v>250</v>
       </c>
-      <c r="J48" s="18"/>
+      <c r="J48" s="21"/>
       <c r="K48" t="s">
         <v>284</v>
       </c>
-      <c r="N48" s="18"/>
+      <c r="N48" s="21"/>
       <c r="O48" t="s">
         <v>251</v>
       </c>
-      <c r="R48" s="18"/>
+      <c r="R48" s="21"/>
       <c r="S48" t="s">
         <v>352</v>
       </c>
-      <c r="V48" s="18"/>
+      <c r="V48" s="21"/>
       <c r="W48" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>6</v>
       </c>
-      <c r="B49" s="18"/>
+      <c r="B49" s="21"/>
       <c r="C49" t="s">
         <v>217</v>
       </c>
-      <c r="F49" s="18"/>
+      <c r="F49" s="21"/>
       <c r="G49" t="s">
         <v>321</v>
       </c>
-      <c r="J49" s="18"/>
+      <c r="J49" s="21"/>
       <c r="K49" t="s">
         <v>285</v>
       </c>
-      <c r="N49" s="18"/>
+      <c r="N49" s="21"/>
       <c r="O49" t="s">
         <v>322</v>
       </c>
-      <c r="R49" s="18"/>
+      <c r="R49" s="21"/>
       <c r="S49" t="s">
         <v>353</v>
       </c>
-      <c r="V49" s="18"/>
+      <c r="V49" s="21"/>
       <c r="W49" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>7</v>
       </c>
-      <c r="B50" s="18"/>
+      <c r="B50" s="21"/>
       <c r="C50" t="s">
         <v>221</v>
       </c>
-      <c r="F50" s="18"/>
+      <c r="F50" s="21"/>
       <c r="G50" t="s">
         <v>252</v>
       </c>
@@ -3699,24 +3726,24 @@
       <c r="O50" t="s">
         <v>323</v>
       </c>
-      <c r="R50" s="18"/>
+      <c r="R50" s="21"/>
       <c r="S50" t="s">
         <v>354</v>
       </c>
-      <c r="V50" s="18"/>
+      <c r="V50" s="21"/>
       <c r="W50" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>8</v>
       </c>
-      <c r="B51" s="18"/>
+      <c r="B51" s="21"/>
       <c r="C51" t="s">
         <v>222</v>
       </c>
-      <c r="F51" s="18"/>
+      <c r="F51" s="21"/>
       <c r="G51" t="s">
         <v>253</v>
       </c>
@@ -3728,16 +3755,16 @@
       <c r="O51" t="s">
         <v>324</v>
       </c>
-      <c r="R51" s="18"/>
+      <c r="R51" s="21"/>
       <c r="S51" t="s">
         <v>355</v>
       </c>
-      <c r="V51" s="18"/>
+      <c r="V51" s="21"/>
       <c r="W51" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>9</v>
       </c>
@@ -3747,7 +3774,7 @@
       <c r="C52" t="s">
         <v>218</v>
       </c>
-      <c r="F52" s="18"/>
+      <c r="F52" s="21"/>
       <c r="G52" t="s">
         <v>254</v>
       </c>
@@ -3772,7 +3799,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>10</v>
       </c>
@@ -3780,7 +3807,7 @@
       <c r="C53" t="s">
         <v>219</v>
       </c>
-      <c r="F53" s="18"/>
+      <c r="F53" s="21"/>
       <c r="G53" t="s">
         <v>255</v>
       </c>
@@ -3801,7 +3828,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>11</v>
       </c>
@@ -3809,7 +3836,7 @@
       <c r="C54" t="s">
         <v>220</v>
       </c>
-      <c r="F54" s="18"/>
+      <c r="F54" s="21"/>
       <c r="G54" t="s">
         <v>83</v>
       </c>
@@ -3830,7 +3857,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>12</v>
       </c>
@@ -3861,7 +3888,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>13</v>
       </c>
@@ -3890,7 +3917,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>14</v>
       </c>
@@ -3919,7 +3946,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>15</v>
       </c>
@@ -3948,7 +3975,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>16</v>
       </c>
@@ -3979,11 +4006,11 @@
         <v>393</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>17</v>
       </c>
-      <c r="B60" s="20" t="s">
+      <c r="B60" s="22" t="s">
         <v>18</v>
       </c>
       <c r="C60" t="s">
@@ -3993,36 +4020,36 @@
       <c r="G60" t="s">
         <v>261</v>
       </c>
-      <c r="J60" s="20" t="s">
+      <c r="J60" s="22" t="s">
         <v>18</v>
       </c>
       <c r="K60" t="s">
         <v>296</v>
       </c>
-      <c r="N60" s="20" t="s">
+      <c r="N60" s="22" t="s">
         <v>18</v>
       </c>
       <c r="O60" t="s">
         <v>331</v>
       </c>
-      <c r="R60" s="22" t="s">
+      <c r="R60" s="24" t="s">
         <v>24</v>
       </c>
       <c r="S60" t="s">
         <v>364</v>
       </c>
-      <c r="V60" s="20" t="s">
+      <c r="V60" s="22" t="s">
         <v>18</v>
       </c>
       <c r="W60" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>18</v>
       </c>
-      <c r="B61" s="20"/>
+      <c r="B61" s="22"/>
       <c r="C61" t="s">
         <v>230</v>
       </c>
@@ -4030,28 +4057,28 @@
       <c r="G61" t="s">
         <v>262</v>
       </c>
-      <c r="J61" s="20"/>
+      <c r="J61" s="22"/>
       <c r="K61" t="s">
         <v>297</v>
       </c>
-      <c r="N61" s="20"/>
+      <c r="N61" s="22"/>
       <c r="O61" t="s">
         <v>332</v>
       </c>
-      <c r="R61" s="22"/>
+      <c r="R61" s="24"/>
       <c r="S61" t="s">
         <v>365</v>
       </c>
-      <c r="V61" s="20"/>
+      <c r="V61" s="22"/>
       <c r="W61" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>19</v>
       </c>
-      <c r="B62" s="20"/>
+      <c r="B62" s="22"/>
       <c r="C62" t="s">
         <v>231</v>
       </c>
@@ -4059,28 +4086,28 @@
       <c r="G62" t="s">
         <v>259</v>
       </c>
-      <c r="J62" s="20"/>
+      <c r="J62" s="22"/>
       <c r="K62" t="s">
         <v>298</v>
       </c>
-      <c r="N62" s="20"/>
+      <c r="N62" s="22"/>
       <c r="O62" t="s">
         <v>333</v>
       </c>
-      <c r="R62" s="22"/>
+      <c r="R62" s="24"/>
       <c r="S62" t="s">
         <v>366</v>
       </c>
-      <c r="V62" s="20"/>
+      <c r="V62" s="22"/>
       <c r="W62" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>20</v>
       </c>
-      <c r="B63" s="20"/>
+      <c r="B63" s="22"/>
       <c r="C63" t="s">
         <v>232</v>
       </c>
@@ -4088,30 +4115,30 @@
       <c r="G63" t="s">
         <v>92</v>
       </c>
-      <c r="J63" s="22" t="s">
+      <c r="J63" s="24" t="s">
         <v>24</v>
       </c>
       <c r="K63" t="s">
         <v>299</v>
       </c>
-      <c r="N63" s="20"/>
+      <c r="N63" s="22"/>
       <c r="O63" t="s">
         <v>334</v>
       </c>
-      <c r="R63" s="22"/>
+      <c r="R63" s="24"/>
       <c r="S63" t="s">
         <v>367</v>
       </c>
-      <c r="V63" s="20"/>
+      <c r="V63" s="22"/>
       <c r="W63" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>21</v>
       </c>
-      <c r="B64" s="20"/>
+      <c r="B64" s="22"/>
       <c r="C64" t="s">
         <v>61</v>
       </c>
@@ -4119,479 +4146,425 @@
       <c r="G64" t="s">
         <v>94</v>
       </c>
-      <c r="J64" s="22"/>
+      <c r="J64" s="24"/>
       <c r="K64" t="s">
         <v>300</v>
       </c>
-      <c r="N64" s="20"/>
+      <c r="N64" s="22"/>
       <c r="O64" t="s">
         <v>335</v>
       </c>
-      <c r="R64" s="22"/>
+      <c r="R64" s="24"/>
       <c r="S64" t="s">
         <v>368</v>
       </c>
-      <c r="V64" s="22" t="s">
+      <c r="V64" s="24" t="s">
         <v>24</v>
       </c>
       <c r="W64" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>22</v>
       </c>
-      <c r="B65" s="22" t="s">
+      <c r="B65" s="24" t="s">
         <v>24</v>
       </c>
       <c r="C65" t="s">
         <v>234</v>
       </c>
-      <c r="F65" s="20" t="s">
+      <c r="F65" s="22" t="s">
         <v>18</v>
       </c>
       <c r="G65" t="s">
         <v>264</v>
       </c>
-      <c r="J65" s="22"/>
+      <c r="J65" s="24"/>
       <c r="K65" t="s">
         <v>301</v>
       </c>
-      <c r="N65" s="22" t="s">
+      <c r="N65" s="24" t="s">
         <v>24</v>
       </c>
       <c r="O65" t="s">
         <v>336</v>
       </c>
-      <c r="R65" s="23" t="s">
+      <c r="R65" s="17" t="s">
         <v>30</v>
       </c>
       <c r="S65" t="s">
         <v>369</v>
       </c>
-      <c r="V65" s="22"/>
+      <c r="V65" s="24"/>
       <c r="W65" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>23</v>
       </c>
-      <c r="B66" s="22"/>
+      <c r="B66" s="24"/>
       <c r="C66" t="s">
         <v>235</v>
       </c>
-      <c r="F66" s="20"/>
+      <c r="F66" s="22"/>
       <c r="G66" t="s">
         <v>265</v>
       </c>
-      <c r="J66" s="22"/>
+      <c r="J66" s="24"/>
       <c r="K66" t="s">
         <v>302</v>
       </c>
-      <c r="N66" s="22"/>
+      <c r="N66" s="24"/>
       <c r="O66" t="s">
         <v>337</v>
       </c>
-      <c r="R66" s="23"/>
+      <c r="R66" s="17"/>
       <c r="S66" t="s">
         <v>370</v>
       </c>
-      <c r="V66" s="22"/>
+      <c r="V66" s="24"/>
       <c r="W66" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>24</v>
       </c>
-      <c r="B67" s="22"/>
+      <c r="B67" s="24"/>
       <c r="C67" t="s">
         <v>236</v>
       </c>
-      <c r="F67" s="20"/>
+      <c r="F67" s="22"/>
       <c r="G67" t="s">
         <v>266</v>
       </c>
-      <c r="J67" s="22"/>
+      <c r="J67" s="24"/>
       <c r="K67" t="s">
         <v>303</v>
       </c>
-      <c r="N67" s="22"/>
+      <c r="N67" s="24"/>
       <c r="O67" t="s">
         <v>338</v>
       </c>
-      <c r="R67" s="23"/>
+      <c r="R67" s="17"/>
       <c r="S67" t="s">
         <v>371</v>
       </c>
-      <c r="V67" s="22"/>
+      <c r="V67" s="24"/>
       <c r="W67" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>25</v>
       </c>
-      <c r="B68" s="22"/>
+      <c r="B68" s="24"/>
       <c r="C68" t="s">
         <v>237</v>
       </c>
-      <c r="F68" s="20"/>
+      <c r="F68" s="22"/>
       <c r="G68" t="s">
         <v>267</v>
       </c>
-      <c r="J68" s="22"/>
+      <c r="J68" s="24"/>
       <c r="K68" t="s">
         <v>304</v>
       </c>
-      <c r="N68" s="22"/>
+      <c r="N68" s="24"/>
       <c r="O68" t="s">
         <v>342</v>
       </c>
-      <c r="R68" s="23"/>
+      <c r="R68" s="17"/>
       <c r="S68" t="s">
         <v>372</v>
       </c>
-      <c r="V68" s="23" t="s">
+      <c r="V68" s="17" t="s">
         <v>30</v>
       </c>
       <c r="W68" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>26</v>
       </c>
-      <c r="B69" s="22"/>
+      <c r="B69" s="24"/>
       <c r="C69" t="s">
         <v>238</v>
       </c>
-      <c r="F69" s="22" t="s">
+      <c r="F69" s="24" t="s">
         <v>24</v>
       </c>
       <c r="G69" t="s">
         <v>268</v>
       </c>
-      <c r="J69" s="22"/>
+      <c r="J69" s="24"/>
       <c r="K69" t="s">
         <v>305</v>
       </c>
-      <c r="N69" s="23" t="s">
+      <c r="N69" s="17" t="s">
         <v>30</v>
       </c>
       <c r="O69" t="s">
         <v>339</v>
       </c>
-      <c r="R69" s="21" t="s">
+      <c r="R69" s="18" t="s">
         <v>36</v>
       </c>
       <c r="S69" t="s">
         <v>373</v>
       </c>
-      <c r="V69" s="23"/>
+      <c r="V69" s="17"/>
       <c r="W69" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>27</v>
       </c>
-      <c r="B70" s="23" t="s">
+      <c r="B70" s="17" t="s">
         <v>30</v>
       </c>
       <c r="C70" t="s">
         <v>239</v>
       </c>
-      <c r="F70" s="22"/>
+      <c r="F70" s="24"/>
       <c r="G70" t="s">
         <v>269</v>
       </c>
-      <c r="J70" s="23" t="s">
+      <c r="J70" s="17" t="s">
         <v>30</v>
       </c>
       <c r="K70" t="s">
         <v>306</v>
       </c>
-      <c r="N70" s="23"/>
+      <c r="N70" s="17"/>
       <c r="O70" t="s">
         <v>340</v>
       </c>
-      <c r="R70" s="21"/>
+      <c r="R70" s="18"/>
       <c r="S70" t="s">
         <v>374</v>
       </c>
-      <c r="V70" s="23"/>
+      <c r="V70" s="17"/>
       <c r="W70" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>28</v>
       </c>
-      <c r="B71" s="23"/>
+      <c r="B71" s="17"/>
       <c r="C71" t="s">
         <v>240</v>
       </c>
-      <c r="F71" s="22"/>
+      <c r="F71" s="24"/>
       <c r="G71" t="s">
         <v>270</v>
       </c>
-      <c r="J71" s="23"/>
+      <c r="J71" s="17"/>
       <c r="K71" t="s">
         <v>307</v>
       </c>
-      <c r="N71" s="23"/>
+      <c r="N71" s="17"/>
       <c r="O71" t="s">
         <v>341</v>
       </c>
-      <c r="R71" s="21"/>
+      <c r="R71" s="18"/>
       <c r="S71" t="s">
         <v>375</v>
       </c>
-      <c r="V71" s="23"/>
+      <c r="V71" s="17"/>
       <c r="W71" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>29</v>
       </c>
-      <c r="B72" s="23"/>
+      <c r="B72" s="17"/>
       <c r="C72" t="s">
         <v>241</v>
       </c>
-      <c r="F72" s="22"/>
+      <c r="F72" s="24"/>
       <c r="G72" t="s">
         <v>101</v>
       </c>
-      <c r="J72" s="23"/>
+      <c r="J72" s="17"/>
       <c r="K72" t="s">
         <v>308</v>
       </c>
-      <c r="N72" s="23"/>
+      <c r="N72" s="17"/>
       <c r="O72" t="s">
         <v>343</v>
       </c>
-      <c r="R72" s="21"/>
+      <c r="R72" s="18"/>
       <c r="S72" t="s">
         <v>376</v>
       </c>
-      <c r="V72" s="23"/>
+      <c r="V72" s="17"/>
       <c r="W72" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>30</v>
       </c>
-      <c r="B73" s="21" t="s">
+      <c r="B73" s="18" t="s">
         <v>36</v>
       </c>
       <c r="C73" t="s">
         <v>242</v>
       </c>
-      <c r="F73" s="23" t="s">
+      <c r="F73" s="17" t="s">
         <v>30</v>
       </c>
       <c r="G73" t="s">
         <v>271</v>
       </c>
-      <c r="J73" s="23"/>
+      <c r="J73" s="17"/>
       <c r="K73" t="s">
         <v>309</v>
       </c>
-      <c r="N73" s="21" t="s">
+      <c r="N73" s="18" t="s">
         <v>36</v>
       </c>
       <c r="O73" t="s">
         <v>344</v>
       </c>
-      <c r="R73" s="21"/>
+      <c r="R73" s="18"/>
       <c r="S73" t="s">
         <v>377</v>
       </c>
-      <c r="V73" s="21" t="s">
+      <c r="V73" s="18" t="s">
         <v>36</v>
       </c>
       <c r="W73" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B74" s="21"/>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B74" s="18"/>
       <c r="C74" t="s">
         <v>243</v>
       </c>
-      <c r="F74" s="23"/>
+      <c r="F74" s="17"/>
       <c r="G74" t="s">
         <v>272</v>
       </c>
-      <c r="J74" s="21" t="s">
+      <c r="J74" s="18" t="s">
         <v>36</v>
       </c>
       <c r="K74" t="s">
         <v>310</v>
       </c>
-      <c r="N74" s="21"/>
+      <c r="N74" s="18"/>
       <c r="O74" t="s">
         <v>345</v>
       </c>
-      <c r="V74" s="21"/>
+      <c r="V74" s="18"/>
       <c r="W74" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B75" s="21"/>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B75" s="18"/>
       <c r="C75" t="s">
         <v>244</v>
       </c>
-      <c r="F75" s="23"/>
+      <c r="F75" s="17"/>
       <c r="G75" t="s">
         <v>273</v>
       </c>
-      <c r="J75" s="21"/>
+      <c r="J75" s="18"/>
       <c r="K75" t="s">
         <v>311</v>
       </c>
-      <c r="N75" s="21"/>
+      <c r="N75" s="18"/>
       <c r="O75" t="s">
         <v>346</v>
       </c>
-      <c r="V75" s="21"/>
+      <c r="V75" s="18"/>
       <c r="W75" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="F76" s="23"/>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="F76" s="17"/>
       <c r="G76" t="s">
         <v>274</v>
       </c>
-      <c r="J76" s="21"/>
+      <c r="J76" s="18"/>
       <c r="K76" t="s">
         <v>312</v>
       </c>
-      <c r="N76" s="21"/>
+      <c r="N76" s="18"/>
       <c r="O76" t="s">
         <v>347</v>
       </c>
-      <c r="V76" s="21"/>
+      <c r="V76" s="18"/>
       <c r="W76" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="F77" s="21" t="s">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="F77" s="18" t="s">
         <v>36</v>
       </c>
       <c r="G77" t="s">
         <v>275</v>
       </c>
-      <c r="J77" s="21"/>
+      <c r="J77" s="18"/>
       <c r="K77" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="F78" s="21"/>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="F78" s="18"/>
       <c r="G78" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="F79" s="21"/>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="F79" s="18"/>
       <c r="G79" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="F80" s="21"/>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="F80" s="18"/>
       <c r="G80" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="81" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F81" s="21"/>
+    <row r="81" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F81" s="18"/>
       <c r="G81" t="s">
         <v>279</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="85">
-    <mergeCell ref="V68:V72"/>
-    <mergeCell ref="V73:V76"/>
-    <mergeCell ref="R65:R68"/>
-    <mergeCell ref="R69:R73"/>
-    <mergeCell ref="F12:F19"/>
-    <mergeCell ref="F55:F64"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="B10:B15"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="F6:F11"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="F27:F30"/>
-    <mergeCell ref="F31:F34"/>
-    <mergeCell ref="J11:J16"/>
-    <mergeCell ref="R31:R34"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="N4:N10"/>
-    <mergeCell ref="N11:N16"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="N19:N23"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="R4:R9"/>
-    <mergeCell ref="R10:R19"/>
-    <mergeCell ref="R20:R21"/>
-    <mergeCell ref="R22:R25"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="J17:J20"/>
-    <mergeCell ref="J21:J24"/>
-    <mergeCell ref="J5:J10"/>
-    <mergeCell ref="R60:R64"/>
-    <mergeCell ref="N24:N29"/>
-    <mergeCell ref="N30:N33"/>
-    <mergeCell ref="R26:R30"/>
-    <mergeCell ref="V2:V5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V20"/>
-    <mergeCell ref="V21:V23"/>
-    <mergeCell ref="V24:V27"/>
-    <mergeCell ref="V43:Y43"/>
-    <mergeCell ref="V44:V46"/>
-    <mergeCell ref="V47:V51"/>
-    <mergeCell ref="V52:V59"/>
-    <mergeCell ref="V60:V63"/>
-    <mergeCell ref="V64:V67"/>
-    <mergeCell ref="V28:V31"/>
-    <mergeCell ref="V32:V35"/>
-    <mergeCell ref="J44:J46"/>
-    <mergeCell ref="J47:J49"/>
-    <mergeCell ref="J50:J59"/>
-    <mergeCell ref="R44:R46"/>
-    <mergeCell ref="R47:R51"/>
-    <mergeCell ref="R52:R58"/>
-    <mergeCell ref="J31:J35"/>
-    <mergeCell ref="J25:J30"/>
-    <mergeCell ref="B65:B69"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="B73:B75"/>
-    <mergeCell ref="F65:F68"/>
-    <mergeCell ref="F73:F76"/>
-    <mergeCell ref="F69:F72"/>
+    <mergeCell ref="J5:J11"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B47:B51"/>
+    <mergeCell ref="B52:B59"/>
+    <mergeCell ref="B60:B64"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B26:B29"/>
     <mergeCell ref="F77:F81"/>
     <mergeCell ref="J63:J69"/>
     <mergeCell ref="J70:J73"/>
@@ -4606,14 +4579,68 @@
     <mergeCell ref="J60:J62"/>
     <mergeCell ref="F47:F54"/>
     <mergeCell ref="F44:F46"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B47:B51"/>
-    <mergeCell ref="B52:B59"/>
-    <mergeCell ref="B60:B64"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B65:B69"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="F65:F68"/>
+    <mergeCell ref="F73:F76"/>
+    <mergeCell ref="F69:F72"/>
+    <mergeCell ref="V2:V5"/>
+    <mergeCell ref="V13:V21"/>
+    <mergeCell ref="V22:V24"/>
+    <mergeCell ref="V25:V28"/>
+    <mergeCell ref="V6:V12"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="J18:J21"/>
+    <mergeCell ref="J22:J25"/>
+    <mergeCell ref="R60:R64"/>
+    <mergeCell ref="N24:N29"/>
+    <mergeCell ref="N30:N33"/>
+    <mergeCell ref="R26:R30"/>
+    <mergeCell ref="J44:J46"/>
+    <mergeCell ref="J47:J49"/>
+    <mergeCell ref="J50:J59"/>
+    <mergeCell ref="R44:R46"/>
+    <mergeCell ref="R47:R51"/>
+    <mergeCell ref="R52:R58"/>
+    <mergeCell ref="J32:J36"/>
+    <mergeCell ref="J26:J31"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="R4:R9"/>
+    <mergeCell ref="R10:R19"/>
+    <mergeCell ref="R20:R21"/>
+    <mergeCell ref="R22:R25"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="N4:N10"/>
+    <mergeCell ref="N11:N16"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="N19:N23"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="F21:F24"/>
+    <mergeCell ref="F25:F28"/>
+    <mergeCell ref="F29:F32"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="V68:V72"/>
+    <mergeCell ref="V73:V76"/>
+    <mergeCell ref="R65:R68"/>
+    <mergeCell ref="R69:R73"/>
+    <mergeCell ref="F10:F17"/>
+    <mergeCell ref="F55:F64"/>
+    <mergeCell ref="J12:J17"/>
+    <mergeCell ref="R31:R34"/>
+    <mergeCell ref="V43:Y43"/>
+    <mergeCell ref="V44:V46"/>
+    <mergeCell ref="V47:V51"/>
+    <mergeCell ref="V52:V59"/>
+    <mergeCell ref="V60:V63"/>
+    <mergeCell ref="V64:V67"/>
+    <mergeCell ref="V29:V32"/>
+    <mergeCell ref="V33:V36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4623,28 +4650,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z34"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.7265625" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.7109375" customWidth="1"/>
     <col min="10" max="10" width="29" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25.54296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="26.453125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="30.1796875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -4676,7 +4703,7 @@
       <c r="Y1" s="25"/>
       <c r="Z1" s="25"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>425</v>
       </c>
@@ -4714,7 +4741,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>420</v>
       </c>
@@ -4725,13 +4752,13 @@
         <v>422</v>
       </c>
       <c r="F3" t="s">
-        <v>544</v>
+        <v>588</v>
       </c>
       <c r="J3" t="s">
         <v>419</v>
       </c>
       <c r="K3" t="s">
-        <v>560</v>
+        <v>544</v>
       </c>
       <c r="O3" t="s">
         <v>421</v>
@@ -4748,11 +4775,8 @@
       <c r="X3" t="s">
         <v>424</v>
       </c>
-      <c r="Y3" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>442</v>
       </c>
@@ -4769,7 +4793,7 @@
         <v>431</v>
       </c>
       <c r="K4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="O4" t="s">
         <v>427</v>
@@ -4790,7 +4814,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>623</v>
       </c>
@@ -4804,7 +4828,10 @@
         <v>618</v>
       </c>
       <c r="J5" t="s">
-        <v>436</v>
+        <v>432</v>
+      </c>
+      <c r="K5" t="s">
+        <v>561</v>
       </c>
       <c r="O5" t="s">
         <v>433</v>
@@ -4822,15 +4849,12 @@
         <v>590</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>541</v>
       </c>
       <c r="E6" t="s">
-        <v>437</v>
-      </c>
-      <c r="J6" t="s">
-        <v>414</v>
+        <v>436</v>
       </c>
       <c r="P6" t="s">
         <v>571</v>
@@ -4845,37 +4869,42 @@
         <v>591</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>539</v>
       </c>
       <c r="E7" t="s">
-        <v>440</v>
-      </c>
-      <c r="J7" t="s">
-        <v>432</v>
+        <v>414</v>
       </c>
       <c r="T7" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>540</v>
       </c>
-      <c r="J8" t="s">
+      <c r="E8" t="s">
         <v>439</v>
       </c>
       <c r="T8" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>437</v>
+      </c>
       <c r="T9" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
         <v>212</v>
       </c>
@@ -4906,7 +4935,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>448</v>
       </c>
@@ -4944,7 +4973,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>454</v>
       </c>
@@ -4982,7 +5011,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>460</v>
       </c>
@@ -5020,7 +5049,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>466</v>
       </c>
@@ -5058,7 +5087,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>472</v>
       </c>
@@ -5090,7 +5119,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>476</v>
       </c>
@@ -5104,7 +5133,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>479</v>
       </c>
@@ -5118,7 +5147,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
         <v>481</v>
       </c>
@@ -5126,37 +5155,37 @@
         <v>480</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C29" s="2" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C30" s="2" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C31" s="2" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C32" s="2" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="2" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" s="2" t="s">
         <v>488</v>
       </c>
@@ -5185,14 +5214,14 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>520</v>
       </c>
@@ -5203,7 +5232,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>492</v>
       </c>
@@ -5214,7 +5243,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>521</v>
       </c>
@@ -5225,7 +5254,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>497</v>
       </c>
@@ -5236,7 +5265,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>500</v>
       </c>
@@ -5247,7 +5276,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>485</v>
       </c>
@@ -5258,7 +5287,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>522</v>
       </c>
@@ -5269,7 +5298,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>486</v>
       </c>
@@ -5280,7 +5309,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>509</v>
       </c>
@@ -5291,7 +5320,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>487</v>
       </c>
@@ -5302,7 +5331,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>514</v>
       </c>
@@ -5313,7 +5342,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>517</v>
       </c>
@@ -5344,28 +5373,28 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K58"/>
+  <dimension ref="A1:K68"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>523</v>
       </c>
@@ -5373,7 +5402,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>524</v>
       </c>
@@ -5381,8 +5410,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>507</v>
       </c>
@@ -5397,23 +5426,23 @@
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="11" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="11" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="11"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>528</v>
       </c>
@@ -5421,62 +5450,62 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="11" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="11" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="11" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="11" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="11" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="11" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="11" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="11" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="B17" s="8" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>597</v>
       </c>
@@ -5484,59 +5513,59 @@
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="12" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
       <c r="B21" s="11" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="11" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="11" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="12" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="12" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="11" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
       <c r="B27" s="11" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>602</v>
       </c>
@@ -5544,104 +5573,104 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="10"/>
       <c r="B30" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="10"/>
       <c r="B31" s="11" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
       <c r="B32" s="11" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="10"/>
       <c r="B33" s="12" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="10"/>
       <c r="B34" s="12" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="10"/>
       <c r="B35" s="12" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="10"/>
       <c r="B36" s="12" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="10"/>
       <c r="B37" s="12" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="10"/>
       <c r="B38" s="11" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="10"/>
       <c r="B39" s="12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="10"/>
       <c r="B40" s="11" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="10"/>
       <c r="B41" s="11" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="10"/>
       <c r="B42" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="10"/>
       <c r="B43" s="11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="10"/>
       <c r="B44" s="12" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="7"/>
       <c r="B45" s="13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>613</v>
       </c>
@@ -5649,19 +5678,19 @@
         <v>614</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="10"/>
       <c r="B48" s="11" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="10"/>
       <c r="B49" s="11" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
         <v>617</v>
       </c>
@@ -5669,8 +5698,8 @@
         <v>225</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>507</v>
       </c>
@@ -5678,34 +5707,86 @@
         <v>619</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="10"/>
       <c r="B54" s="15" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="10"/>
       <c r="B55" s="15" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="10"/>
       <c r="B56" s="15" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="10"/>
       <c r="B57" s="15"/>
     </row>
-    <row r="58" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
         <v>622</v>
       </c>
       <c r="B58" s="16" t="s">
         <v>321</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="10"/>
+      <c r="B65" s="11" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="10"/>
+      <c r="B67" s="11" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="7"/>
+      <c r="B68" s="8" t="s">
+        <v>631</v>
       </c>
     </row>
   </sheetData>

--- a/OffSeason.xlsx
+++ b/OffSeason.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235"/>
   </bookViews>
   <sheets>
     <sheet name="Rosters" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="637">
   <si>
     <t>Chubber for Chubb - John Olson</t>
   </si>
@@ -1268,27 +1268,9 @@
     <t>Cooper Solo Kupp - Benjamin Luther</t>
   </si>
   <si>
-    <t>2020 1st Jacobs ladder</t>
-  </si>
-  <si>
-    <t>2020 2nd Beating off</t>
-  </si>
-  <si>
     <t>2020 1st own</t>
   </si>
   <si>
-    <t>2020 1st Injured reserve</t>
-  </si>
-  <si>
-    <t>2020 3rd BeatinGoff</t>
-  </si>
-  <si>
-    <t>2020 round 5 Punisher</t>
-  </si>
-  <si>
-    <t>2020 1st Naked pooper</t>
-  </si>
-  <si>
     <t>2020 2nd Snow Happens</t>
   </si>
   <si>
@@ -1298,144 +1280,48 @@
     <t>2020 1st Slick Dady Club</t>
   </si>
   <si>
-    <t>2020 3rd Chubber for Chubb</t>
-  </si>
-  <si>
-    <t>2020 round 5 The naked Pooper</t>
-  </si>
-  <si>
     <t>2020 1st Jimmy's done</t>
   </si>
   <si>
-    <t>2020 4th Injured Reserve</t>
-  </si>
-  <si>
     <t>2020 3rd own</t>
   </si>
   <si>
-    <t>2020 2nd Injured Reserve</t>
-  </si>
-  <si>
-    <t>2020 3rd Cooper Solo Kupp</t>
-  </si>
-  <si>
     <t>Round 7 start own</t>
   </si>
   <si>
-    <t>2020 2nd Punishers</t>
-  </si>
-  <si>
     <t>2020 4th Jimmy's done</t>
   </si>
   <si>
     <t>2020 4th own</t>
   </si>
   <si>
-    <t>2020 2nd Cooper Solo Kupp</t>
-  </si>
-  <si>
-    <t>2020 3rd The Guice is Right</t>
-  </si>
-  <si>
     <t>2020 2nd Naked Pooper</t>
   </si>
   <si>
-    <t>2020 4th Cooper Solo Kupp</t>
-  </si>
-  <si>
-    <t>2020 4th The Naked Pooper</t>
-  </si>
-  <si>
-    <t>2020 4th Jacobs ladder</t>
-  </si>
-  <si>
     <t>Round 7 start of own</t>
   </si>
   <si>
-    <t>2020 4th The Guice is Right</t>
-  </si>
-  <si>
-    <t>2020 5th Injured reserve</t>
-  </si>
-  <si>
-    <t>2020 6th Chubber for Chubb</t>
-  </si>
-  <si>
-    <t>2020 6th BeatinGoff</t>
-  </si>
-  <si>
     <t>Punishers - Mike Rhode</t>
   </si>
   <si>
     <t>Injured Reserve Team - Patrick Ponterelli</t>
   </si>
   <si>
-    <t>2020 2nd The Guice is Right</t>
-  </si>
-  <si>
-    <t>2020 4th BeatinGoff</t>
-  </si>
-  <si>
-    <t>2020 1st Punisher</t>
-  </si>
-  <si>
-    <t>2020 1st The Guice is Right</t>
-  </si>
-  <si>
     <t>2020 2nd Jimmy's Done</t>
   </si>
   <si>
-    <t>2020 1st Cooper Solo Kupp</t>
-  </si>
-  <si>
-    <t>2020 3rd Jacobs Ladder</t>
-  </si>
-  <si>
-    <t>2020 5th Chubber for Chubb</t>
-  </si>
-  <si>
-    <t>2020 1st Chubber for Chubb</t>
-  </si>
-  <si>
-    <t>2020 1st BeatinGoff</t>
-  </si>
-  <si>
-    <t>2020 2nd Chubber for Chubb</t>
-  </si>
-  <si>
     <t>2020 2nd Slick Daddy Club</t>
   </si>
   <si>
-    <t>2020 4th Chubber for Chubb</t>
-  </si>
-  <si>
-    <t>2020 6th Jacobs Ladder</t>
-  </si>
-  <si>
-    <t>2020 2nd Jacobs Ladder</t>
-  </si>
-  <si>
     <t>2020 1st Snow Happens</t>
   </si>
   <si>
     <t>2020 3rd Jimmy's Done</t>
   </si>
   <si>
-    <t>2020 3rd Injured reserve Team</t>
-  </si>
-  <si>
-    <t>2020 4th Punishers</t>
-  </si>
-  <si>
-    <t>2020 6th The Naked Pooper</t>
-  </si>
-  <si>
     <t>own 7th start</t>
   </si>
   <si>
-    <t>2020 3rd Punishers</t>
-  </si>
-  <si>
     <t>2020 5th starts own</t>
   </si>
   <si>
@@ -1445,45 +1331,24 @@
     <t>2020 4th Snow Happens</t>
   </si>
   <si>
-    <t>2020 6th The Guice is Right</t>
-  </si>
-  <si>
-    <t>2020 3rd The Naked Pooper</t>
-  </si>
-  <si>
     <t>start 4th own</t>
   </si>
   <si>
-    <t>2020 5th Jacobs Ladder</t>
-  </si>
-  <si>
-    <t>2020 7th Chubber for Chubb</t>
-  </si>
-  <si>
     <t>2020 3rd Snow Happens</t>
   </si>
   <si>
-    <t>2020 5th Cooper Solo Kupp</t>
-  </si>
-  <si>
     <t>own rest</t>
   </si>
   <si>
     <t>start 6th</t>
   </si>
   <si>
-    <t>2020 5th The Guice is Right</t>
-  </si>
-  <si>
     <t>2020 5th Snow happens</t>
   </si>
   <si>
     <t>1-3 will be auto generated between the picks of Slick Daddy Club, Jimmy's Done I'm not, and Snow happens.</t>
   </si>
   <si>
-    <t>pick 4-6 are as followed</t>
-  </si>
-  <si>
     <t>Injured Reserve Team</t>
   </si>
   <si>
@@ -1493,9 +1358,6 @@
     <t>Jacobs Ladder</t>
   </si>
   <si>
-    <t xml:space="preserve">The next 6 picks will be determined by the playoffs! </t>
-  </si>
-  <si>
     <t>Injured Reserve team - Patrick Ponterelli</t>
   </si>
   <si>
@@ -1923,6 +1785,159 @@
   </si>
   <si>
     <t>2020 4th (Jacobs Ladder)</t>
+  </si>
+  <si>
+    <t>Naked Pooper</t>
+  </si>
+  <si>
+    <t>Guice is Right</t>
+  </si>
+  <si>
+    <t>Alan</t>
+  </si>
+  <si>
+    <t>Benny Snell</t>
+  </si>
+  <si>
+    <t>Ju-ju Smith Schuster</t>
+  </si>
+  <si>
+    <t>2021 1st</t>
+  </si>
+  <si>
+    <t>MikeR</t>
+  </si>
+  <si>
+    <t>Ronald Jones</t>
+  </si>
+  <si>
+    <t>2020 1.4</t>
+  </si>
+  <si>
+    <t>2020 2.4</t>
+  </si>
+  <si>
+    <t>2020 5.4</t>
+  </si>
+  <si>
+    <t>2020 3.4</t>
+  </si>
+  <si>
+    <t>2020 4.4</t>
+  </si>
+  <si>
+    <t>2020 5.5</t>
+  </si>
+  <si>
+    <t>2020 2.5</t>
+  </si>
+  <si>
+    <t>2020 1.5</t>
+  </si>
+  <si>
+    <t>2020 4.5</t>
+  </si>
+  <si>
+    <t>2020 3.5</t>
+  </si>
+  <si>
+    <t>2020 4.6</t>
+  </si>
+  <si>
+    <t>2020 3.6</t>
+  </si>
+  <si>
+    <t>2020 6.6</t>
+  </si>
+  <si>
+    <t>2020 2.6</t>
+  </si>
+  <si>
+    <t>2020 5.6</t>
+  </si>
+  <si>
+    <t>2020 5.7</t>
+  </si>
+  <si>
+    <t>2020 2.7</t>
+  </si>
+  <si>
+    <t>2020 4.7</t>
+  </si>
+  <si>
+    <t>2020 6.7</t>
+  </si>
+  <si>
+    <t>2020 3.7</t>
+  </si>
+  <si>
+    <t>2020 3.8</t>
+  </si>
+  <si>
+    <t>2020 2.8</t>
+  </si>
+  <si>
+    <t>2020 6.8</t>
+  </si>
+  <si>
+    <t>2020 4.8</t>
+  </si>
+  <si>
+    <t>2020 1.8</t>
+  </si>
+  <si>
+    <t>2020 3.10</t>
+  </si>
+  <si>
+    <t>2020 4.10</t>
+  </si>
+  <si>
+    <t>2020 1.10</t>
+  </si>
+  <si>
+    <t>2020 2.10</t>
+  </si>
+  <si>
+    <t>2020 6.10</t>
+  </si>
+  <si>
+    <t>2020 5.10</t>
+  </si>
+  <si>
+    <t>2020 2.11</t>
+  </si>
+  <si>
+    <t>2020 4.11</t>
+  </si>
+  <si>
+    <t>2020 1.11</t>
+  </si>
+  <si>
+    <t>2020 5.11</t>
+  </si>
+  <si>
+    <t>2020 3.11</t>
+  </si>
+  <si>
+    <t>2020 3.12</t>
+  </si>
+  <si>
+    <t>2020 6.12</t>
+  </si>
+  <si>
+    <t>2020 5.12</t>
+  </si>
+  <si>
+    <t>2020 4.12</t>
+  </si>
+  <si>
+    <t>2020 1.12</t>
+  </si>
+  <si>
+    <t>2020 2.12</t>
+  </si>
+  <si>
+    <t>2020 7.12</t>
   </si>
 </sst>
 </file>
@@ -2114,29 +2129,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2422,15 +2437,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y81"/>
+  <dimension ref="A1:Y78"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="1" max="1" width="6.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="7" max="7" width="20.140625" bestFit="1" customWidth="1"/>
@@ -2440,11 +2455,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
       <c r="F1" t="s">
         <v>42</v>
       </c>
@@ -2465,37 +2480,37 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="18" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="18" t="s">
         <v>1</v>
       </c>
       <c r="G2" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="J2" s="18" t="s">
         <v>1</v>
       </c>
       <c r="K2" t="s">
         <v>77</v>
       </c>
-      <c r="N2" s="23" t="s">
+      <c r="N2" s="18" t="s">
         <v>1</v>
       </c>
       <c r="O2" t="s">
         <v>112</v>
       </c>
-      <c r="R2" s="23" t="s">
+      <c r="R2" s="18" t="s">
         <v>1</v>
       </c>
       <c r="S2" t="s">
         <v>144</v>
       </c>
-      <c r="V2" s="23" t="s">
+      <c r="V2" s="18" t="s">
         <v>1</v>
       </c>
       <c r="W2" t="s">
@@ -2506,27 +2521,27 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="23"/>
+      <c r="B3" s="18"/>
       <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="23"/>
+      <c r="F3" s="18"/>
       <c r="G3" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="23"/>
+      <c r="J3" s="18"/>
       <c r="K3" t="s">
         <v>78</v>
       </c>
-      <c r="N3" s="23"/>
+      <c r="N3" s="18"/>
       <c r="O3" t="s">
         <v>104</v>
       </c>
-      <c r="R3" s="23"/>
+      <c r="R3" s="18"/>
       <c r="S3" t="s">
         <v>145</v>
       </c>
-      <c r="V3" s="23"/>
+      <c r="V3" s="18"/>
       <c r="W3" t="s">
         <v>179</v>
       </c>
@@ -2535,33 +2550,33 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="17" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="23"/>
+      <c r="F4" s="18"/>
       <c r="G4" t="s">
         <v>46</v>
       </c>
-      <c r="J4" s="23"/>
+      <c r="J4" s="18"/>
       <c r="K4" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="21" t="s">
+      <c r="N4" s="17" t="s">
         <v>5</v>
       </c>
       <c r="O4" t="s">
         <v>113</v>
       </c>
-      <c r="R4" s="21" t="s">
+      <c r="R4" s="17" t="s">
         <v>5</v>
       </c>
       <c r="S4" t="s">
         <v>146</v>
       </c>
-      <c r="V4" s="23"/>
+      <c r="V4" s="18"/>
       <c r="W4" t="s">
         <v>180</v>
       </c>
@@ -2570,29 +2585,29 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="21"/>
+      <c r="B5" s="17"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="23"/>
+      <c r="F5" s="18"/>
       <c r="G5" t="s">
         <v>47</v>
       </c>
-      <c r="J5" s="21" t="s">
+      <c r="J5" s="17" t="s">
         <v>5</v>
       </c>
       <c r="K5" t="s">
         <v>248</v>
       </c>
-      <c r="N5" s="21"/>
+      <c r="N5" s="17"/>
       <c r="O5" t="s">
         <v>114</v>
       </c>
-      <c r="R5" s="21"/>
+      <c r="R5" s="17"/>
       <c r="S5" t="s">
         <v>147</v>
       </c>
-      <c r="V5" s="23"/>
+      <c r="V5" s="18"/>
       <c r="W5" t="s">
         <v>181</v>
       </c>
@@ -2601,29 +2616,29 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="21"/>
+      <c r="B6" s="17"/>
       <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="17" t="s">
         <v>5</v>
       </c>
       <c r="G6" t="s">
         <v>49</v>
       </c>
-      <c r="J6" s="21"/>
+      <c r="J6" s="17"/>
       <c r="K6" t="s">
         <v>81</v>
       </c>
-      <c r="N6" s="21"/>
+      <c r="N6" s="17"/>
       <c r="O6" t="s">
         <v>115</v>
       </c>
-      <c r="R6" s="21"/>
+      <c r="R6" s="17"/>
       <c r="S6" t="s">
         <v>148</v>
       </c>
-      <c r="V6" s="21" t="s">
+      <c r="V6" s="17" t="s">
         <v>5</v>
       </c>
       <c r="W6" t="s">
@@ -2634,56 +2649,56 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="21"/>
+      <c r="B7" s="17"/>
       <c r="C7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="21"/>
+      <c r="F7" s="17"/>
       <c r="G7" t="s">
         <v>50</v>
       </c>
-      <c r="J7" s="21"/>
+      <c r="J7" s="17"/>
       <c r="K7" t="s">
         <v>82</v>
       </c>
-      <c r="N7" s="21"/>
+      <c r="N7" s="17"/>
       <c r="O7" t="s">
         <v>116</v>
       </c>
-      <c r="R7" s="21"/>
+      <c r="R7" s="17"/>
       <c r="S7" t="s">
         <v>149</v>
       </c>
-      <c r="V7" s="21"/>
+      <c r="V7" s="17"/>
       <c r="W7" t="s">
-        <v>183</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="21"/>
+      <c r="B8" s="17"/>
       <c r="C8" t="s">
         <v>80</v>
       </c>
-      <c r="F8" s="21"/>
+      <c r="F8" s="17"/>
       <c r="G8" t="s">
         <v>51</v>
       </c>
-      <c r="J8" s="21"/>
+      <c r="J8" s="17"/>
       <c r="K8" t="s">
         <v>84</v>
       </c>
-      <c r="N8" s="21"/>
+      <c r="N8" s="17"/>
       <c r="O8" t="s">
         <v>117</v>
       </c>
-      <c r="R8" s="21"/>
+      <c r="R8" s="17"/>
       <c r="S8" t="s">
         <v>150</v>
       </c>
-      <c r="V8" s="21"/>
+      <c r="V8" s="17"/>
       <c r="W8" t="s">
         <v>184</v>
       </c>
@@ -2692,29 +2707,29 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="21"/>
+      <c r="B9" s="17"/>
       <c r="C9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="21"/>
+      <c r="F9" s="17"/>
       <c r="G9" t="s">
         <v>52</v>
       </c>
-      <c r="J9" s="21"/>
+      <c r="J9" s="17"/>
       <c r="K9" t="s">
         <v>85</v>
       </c>
-      <c r="N9" s="21"/>
+      <c r="N9" s="17"/>
       <c r="O9" t="s">
         <v>118</v>
       </c>
-      <c r="R9" s="21"/>
+      <c r="R9" s="17"/>
       <c r="S9" t="s">
         <v>151</v>
       </c>
-      <c r="V9" s="21"/>
+      <c r="V9" s="17"/>
       <c r="W9" t="s">
-        <v>185</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
@@ -2733,11 +2748,11 @@
       <c r="G10" t="s">
         <v>54</v>
       </c>
-      <c r="J10" s="21"/>
+      <c r="J10" s="17"/>
       <c r="K10" t="s">
         <v>10</v>
       </c>
-      <c r="N10" s="21"/>
+      <c r="N10" s="17"/>
       <c r="O10" t="s">
         <v>119</v>
       </c>
@@ -2747,7 +2762,7 @@
       <c r="S10" t="s">
         <v>152</v>
       </c>
-      <c r="V10" s="21"/>
+      <c r="V10" s="17"/>
       <c r="W10" t="s">
         <v>186</v>
       </c>
@@ -2764,7 +2779,7 @@
       <c r="G11" t="s">
         <v>55</v>
       </c>
-      <c r="J11" s="21"/>
+      <c r="J11" s="17"/>
       <c r="K11" t="s">
         <v>48</v>
       </c>
@@ -2778,7 +2793,7 @@
       <c r="S11" t="s">
         <v>153</v>
       </c>
-      <c r="V11" s="21"/>
+      <c r="V11" s="17"/>
       <c r="W11" t="s">
         <v>187</v>
       </c>
@@ -2809,7 +2824,7 @@
       <c r="S12" t="s">
         <v>154</v>
       </c>
-      <c r="V12" s="21"/>
+      <c r="V12" s="17"/>
       <c r="W12" t="s">
         <v>53</v>
       </c>
@@ -2871,7 +2886,7 @@
       </c>
       <c r="V14" s="19"/>
       <c r="W14" t="s">
-        <v>189</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
@@ -2900,14 +2915,14 @@
       </c>
       <c r="V15" s="19"/>
       <c r="W15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="20" t="s">
         <v>18</v>
       </c>
       <c r="C16" t="s">
@@ -2931,14 +2946,14 @@
       </c>
       <c r="V16" s="19"/>
       <c r="W16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="22"/>
+      <c r="B17" s="20"/>
       <c r="C17" t="s">
         <v>20</v>
       </c>
@@ -2950,7 +2965,7 @@
       <c r="K17" t="s">
         <v>23</v>
       </c>
-      <c r="N17" s="22" t="s">
+      <c r="N17" s="20" t="s">
         <v>18</v>
       </c>
       <c r="O17" t="s">
@@ -2962,30 +2977,30 @@
       </c>
       <c r="V17" s="19"/>
       <c r="W17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="22"/>
+      <c r="B18" s="20"/>
       <c r="C18" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="22" t="s">
+      <c r="F18" s="20" t="s">
         <v>18</v>
       </c>
       <c r="G18" t="s">
         <v>60</v>
       </c>
-      <c r="J18" s="22" t="s">
+      <c r="J18" s="20" t="s">
         <v>18</v>
       </c>
       <c r="K18" t="s">
         <v>95</v>
       </c>
-      <c r="N18" s="22"/>
+      <c r="N18" s="20"/>
       <c r="O18" t="s">
         <v>127</v>
       </c>
@@ -2995,28 +3010,28 @@
       </c>
       <c r="V18" s="19"/>
       <c r="W18" t="s">
-        <v>193</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="21" t="s">
         <v>24</v>
       </c>
       <c r="C19" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="22"/>
+      <c r="F19" s="20"/>
       <c r="G19" t="s">
         <v>62</v>
       </c>
-      <c r="J19" s="22"/>
+      <c r="J19" s="20"/>
       <c r="K19" t="s">
         <v>96</v>
       </c>
-      <c r="N19" s="24" t="s">
+      <c r="N19" s="21" t="s">
         <v>24</v>
       </c>
       <c r="O19" t="s">
@@ -3028,30 +3043,30 @@
       </c>
       <c r="V19" s="19"/>
       <c r="W19" t="s">
-        <v>194</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="24"/>
+      <c r="B20" s="21"/>
       <c r="C20" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="22"/>
+      <c r="F20" s="20"/>
       <c r="G20" t="s">
         <v>63</v>
       </c>
-      <c r="J20" s="22"/>
+      <c r="J20" s="20"/>
       <c r="K20" t="s">
         <v>97</v>
       </c>
-      <c r="N20" s="24"/>
+      <c r="N20" s="21"/>
       <c r="O20" t="s">
         <v>129</v>
       </c>
-      <c r="R20" s="22" t="s">
+      <c r="R20" s="20" t="s">
         <v>18</v>
       </c>
       <c r="S20" t="s">
@@ -3059,425 +3074,443 @@
       </c>
       <c r="V20" s="19"/>
       <c r="W20" t="s">
-        <v>195</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="24"/>
+      <c r="B21" s="21"/>
       <c r="C21" t="s">
         <v>27</v>
       </c>
-      <c r="F21" s="24" t="s">
+      <c r="F21" s="21" t="s">
         <v>24</v>
       </c>
       <c r="G21" t="s">
         <v>64</v>
       </c>
-      <c r="J21" s="22"/>
+      <c r="J21" s="20"/>
       <c r="K21" t="s">
         <v>98</v>
       </c>
-      <c r="N21" s="24"/>
+      <c r="N21" s="21"/>
       <c r="O21" t="s">
         <v>130</v>
       </c>
-      <c r="R21" s="22"/>
+      <c r="R21" s="20"/>
       <c r="S21" t="s">
         <v>163</v>
       </c>
       <c r="V21" s="19"/>
       <c r="W21" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="24"/>
+      <c r="B22" s="21"/>
       <c r="C22" t="s">
         <v>100</v>
       </c>
-      <c r="F22" s="24"/>
+      <c r="F22" s="21"/>
       <c r="G22" t="s">
         <v>65</v>
       </c>
-      <c r="J22" s="24" t="s">
+      <c r="J22" s="21" t="s">
         <v>24</v>
       </c>
       <c r="K22" t="s">
         <v>99</v>
       </c>
-      <c r="N22" s="24"/>
+      <c r="N22" s="21"/>
       <c r="O22" t="s">
         <v>131</v>
       </c>
-      <c r="R22" s="24" t="s">
+      <c r="R22" s="21" t="s">
         <v>24</v>
       </c>
       <c r="S22" t="s">
         <v>164</v>
       </c>
-      <c r="V22" s="22" t="s">
-        <v>18</v>
-      </c>
+      <c r="V22" s="19"/>
       <c r="W22" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="22" t="s">
         <v>30</v>
       </c>
       <c r="C23" t="s">
         <v>31</v>
       </c>
-      <c r="F23" s="24"/>
+      <c r="F23" s="21"/>
       <c r="G23" t="s">
         <v>66</v>
       </c>
-      <c r="J23" s="24"/>
+      <c r="J23" s="21"/>
       <c r="K23" t="s">
         <v>28</v>
       </c>
-      <c r="N23" s="24"/>
+      <c r="N23" s="21"/>
       <c r="O23" t="s">
         <v>132</v>
       </c>
-      <c r="R23" s="24"/>
+      <c r="R23" s="21"/>
       <c r="S23" t="s">
         <v>165</v>
       </c>
-      <c r="V23" s="22"/>
+      <c r="V23" s="19"/>
       <c r="W23" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="17"/>
+      <c r="B24" s="22"/>
       <c r="C24" t="s">
         <v>32</v>
       </c>
-      <c r="F24" s="24"/>
+      <c r="F24" s="21"/>
       <c r="G24" t="s">
         <v>67</v>
       </c>
-      <c r="J24" s="24"/>
+      <c r="J24" s="21"/>
       <c r="K24" t="s">
         <v>29</v>
       </c>
-      <c r="N24" s="17" t="s">
+      <c r="N24" s="22" t="s">
         <v>30</v>
       </c>
       <c r="O24" t="s">
         <v>133</v>
       </c>
-      <c r="R24" s="24"/>
+      <c r="R24" s="21"/>
       <c r="S24" t="s">
         <v>166</v>
       </c>
-      <c r="V24" s="22"/>
+      <c r="V24" s="19"/>
       <c r="W24" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="17"/>
+      <c r="B25" s="22"/>
       <c r="C25" t="s">
         <v>33</v>
       </c>
-      <c r="F25" s="17" t="s">
+      <c r="F25" s="22" t="s">
         <v>30</v>
       </c>
       <c r="G25" t="s">
         <v>69</v>
       </c>
-      <c r="J25" s="24"/>
+      <c r="J25" s="21"/>
       <c r="K25" t="s">
         <v>102</v>
       </c>
-      <c r="N25" s="17"/>
+      <c r="N25" s="22"/>
       <c r="O25" t="s">
         <v>134</v>
       </c>
-      <c r="R25" s="24"/>
+      <c r="R25" s="21"/>
       <c r="S25" t="s">
         <v>167</v>
       </c>
-      <c r="V25" s="24" t="s">
-        <v>24</v>
+      <c r="V25" s="20" t="s">
+        <v>18</v>
       </c>
       <c r="W25" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="23" t="s">
         <v>36</v>
       </c>
       <c r="C26" t="s">
         <v>37</v>
       </c>
-      <c r="F26" s="17"/>
+      <c r="F26" s="22"/>
       <c r="G26" t="s">
         <v>70</v>
       </c>
-      <c r="J26" s="17" t="s">
+      <c r="J26" s="22" t="s">
         <v>30</v>
       </c>
       <c r="K26" t="s">
         <v>103</v>
       </c>
-      <c r="N26" s="17"/>
+      <c r="N26" s="22"/>
       <c r="O26" t="s">
         <v>135</v>
       </c>
-      <c r="R26" s="17" t="s">
+      <c r="R26" s="22" t="s">
         <v>30</v>
       </c>
       <c r="S26" t="s">
         <v>168</v>
       </c>
-      <c r="V26" s="24"/>
+      <c r="V26" s="20"/>
       <c r="W26" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="18"/>
+      <c r="B27" s="23"/>
       <c r="C27" t="s">
         <v>38</v>
       </c>
-      <c r="F27" s="17"/>
+      <c r="F27" s="22"/>
       <c r="G27" t="s">
         <v>71</v>
       </c>
-      <c r="J27" s="17"/>
+      <c r="J27" s="22"/>
       <c r="K27" t="s">
         <v>104</v>
       </c>
-      <c r="N27" s="17"/>
+      <c r="N27" s="22"/>
       <c r="O27" t="s">
         <v>136</v>
       </c>
-      <c r="R27" s="17"/>
+      <c r="R27" s="22"/>
       <c r="S27" t="s">
         <v>169</v>
       </c>
-      <c r="V27" s="24"/>
+      <c r="V27" s="20"/>
       <c r="W27" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="18"/>
+      <c r="B28" s="23"/>
       <c r="C28" t="s">
         <v>39</v>
       </c>
-      <c r="F28" s="17"/>
+      <c r="F28" s="22"/>
       <c r="G28" t="s">
         <v>68</v>
       </c>
-      <c r="J28" s="17"/>
+      <c r="J28" s="22"/>
       <c r="K28" t="s">
         <v>105</v>
       </c>
-      <c r="N28" s="17"/>
+      <c r="N28" s="22"/>
       <c r="O28" t="s">
         <v>137</v>
       </c>
-      <c r="R28" s="17"/>
+      <c r="R28" s="22"/>
       <c r="S28" t="s">
         <v>170</v>
       </c>
-      <c r="V28" s="24"/>
+      <c r="V28" s="21" t="s">
+        <v>24</v>
+      </c>
       <c r="W28" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="18"/>
+      <c r="B29" s="23"/>
       <c r="C29" t="s">
         <v>107</v>
       </c>
-      <c r="F29" s="18" t="s">
+      <c r="F29" s="23" t="s">
         <v>36</v>
       </c>
       <c r="G29" t="s">
         <v>72</v>
       </c>
-      <c r="J29" s="17"/>
+      <c r="J29" s="22"/>
       <c r="K29" t="s">
         <v>106</v>
       </c>
-      <c r="N29" s="17"/>
+      <c r="N29" s="22"/>
       <c r="O29" t="s">
         <v>138</v>
       </c>
-      <c r="R29" s="17"/>
+      <c r="R29" s="22"/>
       <c r="S29" t="s">
         <v>171</v>
       </c>
-      <c r="V29" s="17" t="s">
-        <v>30</v>
-      </c>
+      <c r="V29" s="21"/>
       <c r="W29" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="F30" s="18"/>
+      <c r="F30" s="23"/>
       <c r="G30" t="s">
         <v>73</v>
       </c>
-      <c r="J30" s="17"/>
+      <c r="J30" s="22"/>
       <c r="K30" t="s">
         <v>34</v>
       </c>
-      <c r="N30" s="18" t="s">
+      <c r="N30" s="23" t="s">
         <v>36</v>
       </c>
       <c r="O30" t="s">
         <v>139</v>
       </c>
-      <c r="R30" s="17"/>
+      <c r="R30" s="22"/>
       <c r="S30" t="s">
         <v>172</v>
       </c>
-      <c r="V30" s="17"/>
+      <c r="V30" s="21"/>
       <c r="W30" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="F31" s="18"/>
+      <c r="F31" s="23"/>
       <c r="G31" t="s">
         <v>74</v>
       </c>
-      <c r="J31" s="17"/>
+      <c r="J31" s="22"/>
       <c r="K31" t="s">
         <v>35</v>
       </c>
-      <c r="N31" s="18"/>
+      <c r="N31" s="23"/>
       <c r="O31" t="s">
         <v>140</v>
       </c>
-      <c r="R31" s="18" t="s">
+      <c r="R31" s="23" t="s">
         <v>36</v>
       </c>
       <c r="S31" t="s">
         <v>173</v>
       </c>
-      <c r="V31" s="17"/>
+      <c r="V31" s="21"/>
       <c r="W31" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="F32" s="18"/>
+      <c r="F32" s="23"/>
       <c r="G32" t="s">
         <v>75</v>
       </c>
-      <c r="J32" s="18" t="s">
+      <c r="J32" s="23" t="s">
         <v>36</v>
       </c>
       <c r="K32" t="s">
         <v>40</v>
       </c>
-      <c r="N32" s="18"/>
+      <c r="N32" s="23"/>
       <c r="O32" t="s">
         <v>141</v>
       </c>
-      <c r="R32" s="18"/>
+      <c r="R32" s="23"/>
       <c r="S32" t="s">
         <v>174</v>
       </c>
-      <c r="V32" s="17"/>
+      <c r="V32" s="22" t="s">
+        <v>30</v>
+      </c>
       <c r="W32" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="J33" s="18"/>
+      <c r="J33" s="23"/>
       <c r="K33" t="s">
         <v>108</v>
       </c>
-      <c r="N33" s="18"/>
+      <c r="N33" s="23"/>
       <c r="O33" t="s">
         <v>142</v>
       </c>
-      <c r="R33" s="18"/>
+      <c r="R33" s="23"/>
       <c r="S33" t="s">
         <v>175</v>
       </c>
-      <c r="V33" s="18" t="s">
-        <v>36</v>
-      </c>
+      <c r="V33" s="22"/>
       <c r="W33" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="J34" s="18"/>
+      <c r="J34" s="23"/>
       <c r="K34" t="s">
         <v>109</v>
       </c>
-      <c r="R34" s="18"/>
+      <c r="R34" s="23"/>
       <c r="S34" t="s">
         <v>176</v>
       </c>
-      <c r="V34" s="18"/>
+      <c r="V34" s="22"/>
       <c r="W34" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="J35" s="18"/>
+      <c r="J35" s="23"/>
       <c r="K35" t="s">
         <v>110</v>
       </c>
-      <c r="V35" s="18"/>
+      <c r="V35" s="22"/>
       <c r="W35" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="J36" s="18"/>
+      <c r="J36" s="23"/>
       <c r="K36" t="s">
         <v>41</v>
       </c>
-      <c r="V36" s="18"/>
+      <c r="V36" s="23" t="s">
+        <v>36</v>
+      </c>
       <c r="W36" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V37" s="23"/>
+      <c r="W37" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V38" s="23"/>
+      <c r="W38" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V39" s="23"/>
+      <c r="W39" t="s">
         <v>211</v>
       </c>
     </row>
@@ -3489,7 +3522,7 @@
         <v>245</v>
       </c>
       <c r="J43" t="s">
-        <v>489</v>
+        <v>443</v>
       </c>
       <c r="N43" t="s">
         <v>314</v>
@@ -3508,37 +3541,37 @@
       <c r="A44" s="1">
         <v>1</v>
       </c>
-      <c r="B44" s="23" t="s">
+      <c r="B44" s="18" t="s">
         <v>1</v>
       </c>
       <c r="C44" t="s">
         <v>44</v>
       </c>
-      <c r="F44" s="23" t="s">
+      <c r="F44" s="18" t="s">
         <v>1</v>
       </c>
       <c r="G44" t="s">
         <v>246</v>
       </c>
-      <c r="J44" s="23" t="s">
+      <c r="J44" s="18" t="s">
         <v>1</v>
       </c>
       <c r="K44" t="s">
         <v>280</v>
       </c>
-      <c r="N44" s="23" t="s">
+      <c r="N44" s="18" t="s">
         <v>1</v>
       </c>
       <c r="O44" t="s">
         <v>317</v>
       </c>
-      <c r="R44" s="23" t="s">
+      <c r="R44" s="18" t="s">
         <v>1</v>
       </c>
       <c r="S44" t="s">
         <v>348</v>
       </c>
-      <c r="V44" s="23" t="s">
+      <c r="V44" s="18" t="s">
         <v>1</v>
       </c>
       <c r="W44" t="s">
@@ -3549,27 +3582,27 @@
       <c r="A45" s="1">
         <v>2</v>
       </c>
-      <c r="B45" s="23"/>
+      <c r="B45" s="18"/>
       <c r="C45" t="s">
         <v>214</v>
       </c>
-      <c r="F45" s="23"/>
+      <c r="F45" s="18"/>
       <c r="G45" t="s">
         <v>247</v>
       </c>
-      <c r="J45" s="23"/>
+      <c r="J45" s="18"/>
       <c r="K45" t="s">
         <v>281</v>
       </c>
-      <c r="N45" s="23"/>
+      <c r="N45" s="18"/>
       <c r="O45" t="s">
         <v>318</v>
       </c>
-      <c r="R45" s="23"/>
+      <c r="R45" s="18"/>
       <c r="S45" t="s">
         <v>349</v>
       </c>
-      <c r="V45" s="23"/>
+      <c r="V45" s="18"/>
       <c r="W45" t="s">
         <v>379</v>
       </c>
@@ -3578,27 +3611,27 @@
       <c r="A46" s="1">
         <v>3</v>
       </c>
-      <c r="B46" s="23"/>
+      <c r="B46" s="18"/>
       <c r="C46" t="s">
         <v>213</v>
       </c>
-      <c r="F46" s="23"/>
+      <c r="F46" s="18"/>
       <c r="G46" t="s">
         <v>79</v>
       </c>
-      <c r="J46" s="23"/>
+      <c r="J46" s="18"/>
       <c r="K46" t="s">
         <v>282</v>
       </c>
-      <c r="N46" s="23"/>
+      <c r="N46" s="18"/>
       <c r="O46" t="s">
         <v>319</v>
       </c>
-      <c r="R46" s="23"/>
+      <c r="R46" s="18"/>
       <c r="S46" t="s">
         <v>350</v>
       </c>
-      <c r="V46" s="23"/>
+      <c r="V46" s="18"/>
       <c r="W46" t="s">
         <v>380</v>
       </c>
@@ -3607,37 +3640,37 @@
       <c r="A47" s="1">
         <v>4</v>
       </c>
-      <c r="B47" s="21" t="s">
+      <c r="B47" s="17" t="s">
         <v>5</v>
       </c>
       <c r="C47" t="s">
         <v>215</v>
       </c>
-      <c r="F47" s="21" t="s">
+      <c r="F47" s="17" t="s">
         <v>5</v>
       </c>
       <c r="G47" t="s">
-        <v>249</v>
-      </c>
-      <c r="J47" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="J47" s="17" t="s">
         <v>5</v>
       </c>
       <c r="K47" t="s">
         <v>283</v>
       </c>
-      <c r="N47" s="21" t="s">
+      <c r="N47" s="17" t="s">
         <v>5</v>
       </c>
       <c r="O47" t="s">
         <v>320</v>
       </c>
-      <c r="R47" s="21" t="s">
+      <c r="R47" s="17" t="s">
         <v>5</v>
       </c>
       <c r="S47" t="s">
         <v>351</v>
       </c>
-      <c r="V47" s="21" t="s">
+      <c r="V47" s="17" t="s">
         <v>5</v>
       </c>
       <c r="W47" t="s">
@@ -3648,27 +3681,27 @@
       <c r="A48" s="1">
         <v>5</v>
       </c>
-      <c r="B48" s="21"/>
+      <c r="B48" s="17"/>
       <c r="C48" t="s">
         <v>216</v>
       </c>
-      <c r="F48" s="21"/>
+      <c r="F48" s="17"/>
       <c r="G48" t="s">
-        <v>250</v>
-      </c>
-      <c r="J48" s="21"/>
+        <v>321</v>
+      </c>
+      <c r="J48" s="17"/>
       <c r="K48" t="s">
         <v>284</v>
       </c>
-      <c r="N48" s="21"/>
+      <c r="N48" s="17"/>
       <c r="O48" t="s">
         <v>251</v>
       </c>
-      <c r="R48" s="21"/>
+      <c r="R48" s="17"/>
       <c r="S48" t="s">
         <v>352</v>
       </c>
-      <c r="V48" s="21"/>
+      <c r="V48" s="17"/>
       <c r="W48" t="s">
         <v>382</v>
       </c>
@@ -3677,27 +3710,27 @@
       <c r="A49" s="1">
         <v>6</v>
       </c>
-      <c r="B49" s="21"/>
+      <c r="B49" s="17"/>
       <c r="C49" t="s">
         <v>217</v>
       </c>
-      <c r="F49" s="21"/>
+      <c r="F49" s="17"/>
       <c r="G49" t="s">
-        <v>321</v>
-      </c>
-      <c r="J49" s="21"/>
+        <v>185</v>
+      </c>
+      <c r="J49" s="17"/>
       <c r="K49" t="s">
         <v>285</v>
       </c>
-      <c r="N49" s="21"/>
+      <c r="N49" s="17"/>
       <c r="O49" t="s">
         <v>322</v>
       </c>
-      <c r="R49" s="21"/>
+      <c r="R49" s="17"/>
       <c r="S49" t="s">
         <v>353</v>
       </c>
-      <c r="V49" s="21"/>
+      <c r="V49" s="17"/>
       <c r="W49" t="s">
         <v>383</v>
       </c>
@@ -3706,13 +3739,13 @@
       <c r="A50" s="1">
         <v>7</v>
       </c>
-      <c r="B50" s="21"/>
+      <c r="B50" s="17"/>
       <c r="C50" t="s">
         <v>221</v>
       </c>
-      <c r="F50" s="21"/>
+      <c r="F50" s="17"/>
       <c r="G50" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="J50" s="19" t="s">
         <v>12</v>
@@ -3726,11 +3759,11 @@
       <c r="O50" t="s">
         <v>323</v>
       </c>
-      <c r="R50" s="21"/>
+      <c r="R50" s="17"/>
       <c r="S50" t="s">
         <v>354</v>
       </c>
-      <c r="V50" s="21"/>
+      <c r="V50" s="17"/>
       <c r="W50" t="s">
         <v>384</v>
       </c>
@@ -3739,11 +3772,11 @@
       <c r="A51" s="1">
         <v>8</v>
       </c>
-      <c r="B51" s="21"/>
+      <c r="B51" s="17"/>
       <c r="C51" t="s">
         <v>222</v>
       </c>
-      <c r="F51" s="21"/>
+      <c r="F51" s="17"/>
       <c r="G51" t="s">
         <v>253</v>
       </c>
@@ -3755,11 +3788,11 @@
       <c r="O51" t="s">
         <v>324</v>
       </c>
-      <c r="R51" s="21"/>
+      <c r="R51" s="17"/>
       <c r="S51" t="s">
         <v>355</v>
       </c>
-      <c r="V51" s="21"/>
+      <c r="V51" s="17"/>
       <c r="W51" t="s">
         <v>385</v>
       </c>
@@ -3774,7 +3807,7 @@
       <c r="C52" t="s">
         <v>218</v>
       </c>
-      <c r="F52" s="21"/>
+      <c r="F52" s="17"/>
       <c r="G52" t="s">
         <v>254</v>
       </c>
@@ -3807,7 +3840,7 @@
       <c r="C53" t="s">
         <v>219</v>
       </c>
-      <c r="F53" s="21"/>
+      <c r="F53" s="17"/>
       <c r="G53" t="s">
         <v>255</v>
       </c>
@@ -3836,7 +3869,7 @@
       <c r="C54" t="s">
         <v>220</v>
       </c>
-      <c r="F54" s="21"/>
+      <c r="F54" s="17"/>
       <c r="G54" t="s">
         <v>83</v>
       </c>
@@ -3869,7 +3902,7 @@
         <v>12</v>
       </c>
       <c r="G55" t="s">
-        <v>256</v>
+        <v>194</v>
       </c>
       <c r="J55" s="19"/>
       <c r="K55" t="s">
@@ -3956,7 +3989,7 @@
       </c>
       <c r="F58" s="19"/>
       <c r="G58" t="s">
-        <v>91</v>
+        <v>260</v>
       </c>
       <c r="J58" s="19"/>
       <c r="K58" t="s">
@@ -3985,7 +4018,7 @@
       </c>
       <c r="F59" s="19"/>
       <c r="G59" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="J59" s="19"/>
       <c r="K59" t="s">
@@ -4010,7 +4043,7 @@
       <c r="A60" s="1">
         <v>17</v>
       </c>
-      <c r="B60" s="22" t="s">
+      <c r="B60" s="20" t="s">
         <v>18</v>
       </c>
       <c r="C60" t="s">
@@ -4018,27 +4051,27 @@
       </c>
       <c r="F60" s="19"/>
       <c r="G60" t="s">
-        <v>261</v>
-      </c>
-      <c r="J60" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="J60" s="20" t="s">
         <v>18</v>
       </c>
       <c r="K60" t="s">
         <v>296</v>
       </c>
-      <c r="N60" s="22" t="s">
+      <c r="N60" s="20" t="s">
         <v>18</v>
       </c>
       <c r="O60" t="s">
         <v>331</v>
       </c>
-      <c r="R60" s="24" t="s">
+      <c r="R60" s="21" t="s">
         <v>24</v>
       </c>
       <c r="S60" t="s">
         <v>364</v>
       </c>
-      <c r="V60" s="22" t="s">
+      <c r="V60" s="20" t="s">
         <v>18</v>
       </c>
       <c r="W60" t="s">
@@ -4049,27 +4082,27 @@
       <c r="A61" s="1">
         <v>18</v>
       </c>
-      <c r="B61" s="22"/>
+      <c r="B61" s="20"/>
       <c r="C61" t="s">
         <v>230</v>
       </c>
       <c r="F61" s="19"/>
       <c r="G61" t="s">
-        <v>262</v>
-      </c>
-      <c r="J61" s="22"/>
+        <v>92</v>
+      </c>
+      <c r="J61" s="20"/>
       <c r="K61" t="s">
         <v>297</v>
       </c>
-      <c r="N61" s="22"/>
+      <c r="N61" s="20"/>
       <c r="O61" t="s">
         <v>332</v>
       </c>
-      <c r="R61" s="24"/>
+      <c r="R61" s="21"/>
       <c r="S61" t="s">
         <v>365</v>
       </c>
-      <c r="V61" s="22"/>
+      <c r="V61" s="20"/>
       <c r="W61" t="s">
         <v>395</v>
       </c>
@@ -4078,27 +4111,29 @@
       <c r="A62" s="1">
         <v>19</v>
       </c>
-      <c r="B62" s="22"/>
+      <c r="B62" s="20"/>
       <c r="C62" t="s">
         <v>231</v>
       </c>
-      <c r="F62" s="19"/>
+      <c r="F62" s="20" t="s">
+        <v>18</v>
+      </c>
       <c r="G62" t="s">
-        <v>259</v>
-      </c>
-      <c r="J62" s="22"/>
+        <v>264</v>
+      </c>
+      <c r="J62" s="20"/>
       <c r="K62" t="s">
         <v>298</v>
       </c>
-      <c r="N62" s="22"/>
+      <c r="N62" s="20"/>
       <c r="O62" t="s">
         <v>333</v>
       </c>
-      <c r="R62" s="24"/>
+      <c r="R62" s="21"/>
       <c r="S62" t="s">
         <v>366</v>
       </c>
-      <c r="V62" s="22"/>
+      <c r="V62" s="20"/>
       <c r="W62" t="s">
         <v>396</v>
       </c>
@@ -4107,29 +4142,29 @@
       <c r="A63" s="1">
         <v>20</v>
       </c>
-      <c r="B63" s="22"/>
+      <c r="B63" s="20"/>
       <c r="C63" t="s">
         <v>232</v>
       </c>
-      <c r="F63" s="19"/>
+      <c r="F63" s="20"/>
       <c r="G63" t="s">
-        <v>92</v>
-      </c>
-      <c r="J63" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="J63" s="21" t="s">
         <v>24</v>
       </c>
       <c r="K63" t="s">
         <v>299</v>
       </c>
-      <c r="N63" s="22"/>
+      <c r="N63" s="20"/>
       <c r="O63" t="s">
         <v>334</v>
       </c>
-      <c r="R63" s="24"/>
+      <c r="R63" s="21"/>
       <c r="S63" t="s">
         <v>367</v>
       </c>
-      <c r="V63" s="22"/>
+      <c r="V63" s="20"/>
       <c r="W63" t="s">
         <v>397</v>
       </c>
@@ -4138,27 +4173,27 @@
       <c r="A64" s="1">
         <v>21</v>
       </c>
-      <c r="B64" s="22"/>
+      <c r="B64" s="20"/>
       <c r="C64" t="s">
         <v>61</v>
       </c>
-      <c r="F64" s="19"/>
+      <c r="F64" s="20"/>
       <c r="G64" t="s">
-        <v>94</v>
-      </c>
-      <c r="J64" s="24"/>
+        <v>266</v>
+      </c>
+      <c r="J64" s="21"/>
       <c r="K64" t="s">
         <v>300</v>
       </c>
-      <c r="N64" s="22"/>
+      <c r="N64" s="20"/>
       <c r="O64" t="s">
         <v>335</v>
       </c>
-      <c r="R64" s="24"/>
+      <c r="R64" s="21"/>
       <c r="S64" t="s">
         <v>368</v>
       </c>
-      <c r="V64" s="24" t="s">
+      <c r="V64" s="21" t="s">
         <v>24</v>
       </c>
       <c r="W64" t="s">
@@ -4169,35 +4204,33 @@
       <c r="A65" s="1">
         <v>22</v>
       </c>
-      <c r="B65" s="24" t="s">
+      <c r="B65" s="21" t="s">
         <v>24</v>
       </c>
       <c r="C65" t="s">
         <v>234</v>
       </c>
-      <c r="F65" s="22" t="s">
-        <v>18</v>
-      </c>
+      <c r="F65" s="20"/>
       <c r="G65" t="s">
-        <v>264</v>
-      </c>
-      <c r="J65" s="24"/>
+        <v>267</v>
+      </c>
+      <c r="J65" s="21"/>
       <c r="K65" t="s">
         <v>301</v>
       </c>
-      <c r="N65" s="24" t="s">
+      <c r="N65" s="21" t="s">
         <v>24</v>
       </c>
       <c r="O65" t="s">
         <v>336</v>
       </c>
-      <c r="R65" s="17" t="s">
+      <c r="R65" s="22" t="s">
         <v>30</v>
       </c>
       <c r="S65" t="s">
         <v>369</v>
       </c>
-      <c r="V65" s="24"/>
+      <c r="V65" s="21"/>
       <c r="W65" t="s">
         <v>399</v>
       </c>
@@ -4206,27 +4239,29 @@
       <c r="A66" s="1">
         <v>23</v>
       </c>
-      <c r="B66" s="24"/>
+      <c r="B66" s="21"/>
       <c r="C66" t="s">
         <v>235</v>
       </c>
-      <c r="F66" s="22"/>
+      <c r="F66" s="21" t="s">
+        <v>24</v>
+      </c>
       <c r="G66" t="s">
-        <v>265</v>
-      </c>
-      <c r="J66" s="24"/>
+        <v>268</v>
+      </c>
+      <c r="J66" s="21"/>
       <c r="K66" t="s">
         <v>302</v>
       </c>
-      <c r="N66" s="24"/>
+      <c r="N66" s="21"/>
       <c r="O66" t="s">
         <v>337</v>
       </c>
-      <c r="R66" s="17"/>
+      <c r="R66" s="22"/>
       <c r="S66" t="s">
         <v>370</v>
       </c>
-      <c r="V66" s="24"/>
+      <c r="V66" s="21"/>
       <c r="W66" t="s">
         <v>400</v>
       </c>
@@ -4235,27 +4270,27 @@
       <c r="A67" s="1">
         <v>24</v>
       </c>
-      <c r="B67" s="24"/>
+      <c r="B67" s="21"/>
       <c r="C67" t="s">
         <v>236</v>
       </c>
-      <c r="F67" s="22"/>
+      <c r="F67" s="21"/>
       <c r="G67" t="s">
-        <v>266</v>
-      </c>
-      <c r="J67" s="24"/>
+        <v>269</v>
+      </c>
+      <c r="J67" s="21"/>
       <c r="K67" t="s">
         <v>303</v>
       </c>
-      <c r="N67" s="24"/>
+      <c r="N67" s="21"/>
       <c r="O67" t="s">
         <v>338</v>
       </c>
-      <c r="R67" s="17"/>
+      <c r="R67" s="22"/>
       <c r="S67" t="s">
         <v>371</v>
       </c>
-      <c r="V67" s="24"/>
+      <c r="V67" s="21"/>
       <c r="W67" t="s">
         <v>401</v>
       </c>
@@ -4264,27 +4299,27 @@
       <c r="A68" s="1">
         <v>25</v>
       </c>
-      <c r="B68" s="24"/>
+      <c r="B68" s="21"/>
       <c r="C68" t="s">
         <v>237</v>
       </c>
-      <c r="F68" s="22"/>
+      <c r="F68" s="21"/>
       <c r="G68" t="s">
-        <v>267</v>
-      </c>
-      <c r="J68" s="24"/>
+        <v>270</v>
+      </c>
+      <c r="J68" s="21"/>
       <c r="K68" t="s">
         <v>304</v>
       </c>
-      <c r="N68" s="24"/>
+      <c r="N68" s="21"/>
       <c r="O68" t="s">
         <v>342</v>
       </c>
-      <c r="R68" s="17"/>
+      <c r="R68" s="22"/>
       <c r="S68" t="s">
         <v>372</v>
       </c>
-      <c r="V68" s="17" t="s">
+      <c r="V68" s="22" t="s">
         <v>30</v>
       </c>
       <c r="W68" t="s">
@@ -4295,33 +4330,31 @@
       <c r="A69" s="1">
         <v>26</v>
       </c>
-      <c r="B69" s="24"/>
+      <c r="B69" s="21"/>
       <c r="C69" t="s">
         <v>238</v>
       </c>
-      <c r="F69" s="24" t="s">
-        <v>24</v>
-      </c>
+      <c r="F69" s="21"/>
       <c r="G69" t="s">
-        <v>268</v>
-      </c>
-      <c r="J69" s="24"/>
+        <v>101</v>
+      </c>
+      <c r="J69" s="21"/>
       <c r="K69" t="s">
         <v>305</v>
       </c>
-      <c r="N69" s="17" t="s">
+      <c r="N69" s="22" t="s">
         <v>30</v>
       </c>
       <c r="O69" t="s">
         <v>339</v>
       </c>
-      <c r="R69" s="18" t="s">
+      <c r="R69" s="23" t="s">
         <v>36</v>
       </c>
       <c r="S69" t="s">
         <v>373</v>
       </c>
-      <c r="V69" s="17"/>
+      <c r="V69" s="22"/>
       <c r="W69" t="s">
         <v>403</v>
       </c>
@@ -4330,31 +4363,33 @@
       <c r="A70" s="1">
         <v>27</v>
       </c>
-      <c r="B70" s="17" t="s">
+      <c r="B70" s="22" t="s">
         <v>30</v>
       </c>
       <c r="C70" t="s">
         <v>239</v>
       </c>
-      <c r="F70" s="24"/>
+      <c r="F70" s="22" t="s">
+        <v>30</v>
+      </c>
       <c r="G70" t="s">
-        <v>269</v>
-      </c>
-      <c r="J70" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="J70" s="22" t="s">
         <v>30</v>
       </c>
       <c r="K70" t="s">
         <v>306</v>
       </c>
-      <c r="N70" s="17"/>
+      <c r="N70" s="22"/>
       <c r="O70" t="s">
         <v>340</v>
       </c>
-      <c r="R70" s="18"/>
+      <c r="R70" s="23"/>
       <c r="S70" t="s">
         <v>374</v>
       </c>
-      <c r="V70" s="17"/>
+      <c r="V70" s="22"/>
       <c r="W70" t="s">
         <v>404</v>
       </c>
@@ -4363,27 +4398,27 @@
       <c r="A71" s="1">
         <v>28</v>
       </c>
-      <c r="B71" s="17"/>
+      <c r="B71" s="22"/>
       <c r="C71" t="s">
         <v>240</v>
       </c>
-      <c r="F71" s="24"/>
+      <c r="F71" s="22"/>
       <c r="G71" t="s">
-        <v>270</v>
-      </c>
-      <c r="J71" s="17"/>
+        <v>272</v>
+      </c>
+      <c r="J71" s="22"/>
       <c r="K71" t="s">
         <v>307</v>
       </c>
-      <c r="N71" s="17"/>
+      <c r="N71" s="22"/>
       <c r="O71" t="s">
         <v>341</v>
       </c>
-      <c r="R71" s="18"/>
+      <c r="R71" s="23"/>
       <c r="S71" t="s">
         <v>375</v>
       </c>
-      <c r="V71" s="17"/>
+      <c r="V71" s="22"/>
       <c r="W71" t="s">
         <v>405</v>
       </c>
@@ -4392,27 +4427,27 @@
       <c r="A72" s="1">
         <v>29</v>
       </c>
-      <c r="B72" s="17"/>
+      <c r="B72" s="22"/>
       <c r="C72" t="s">
         <v>241</v>
       </c>
-      <c r="F72" s="24"/>
+      <c r="F72" s="22"/>
       <c r="G72" t="s">
-        <v>101</v>
-      </c>
-      <c r="J72" s="17"/>
+        <v>273</v>
+      </c>
+      <c r="J72" s="22"/>
       <c r="K72" t="s">
         <v>308</v>
       </c>
-      <c r="N72" s="17"/>
+      <c r="N72" s="22"/>
       <c r="O72" t="s">
         <v>343</v>
       </c>
-      <c r="R72" s="18"/>
+      <c r="R72" s="23"/>
       <c r="S72" t="s">
         <v>376</v>
       </c>
-      <c r="V72" s="17"/>
+      <c r="V72" s="22"/>
       <c r="W72" t="s">
         <v>406</v>
       </c>
@@ -4421,33 +4456,31 @@
       <c r="A73" s="1">
         <v>30</v>
       </c>
-      <c r="B73" s="18" t="s">
+      <c r="B73" s="23" t="s">
         <v>36</v>
       </c>
       <c r="C73" t="s">
         <v>242</v>
       </c>
-      <c r="F73" s="17" t="s">
-        <v>30</v>
-      </c>
+      <c r="F73" s="22"/>
       <c r="G73" t="s">
-        <v>271</v>
-      </c>
-      <c r="J73" s="17"/>
+        <v>274</v>
+      </c>
+      <c r="J73" s="22"/>
       <c r="K73" t="s">
         <v>309</v>
       </c>
-      <c r="N73" s="18" t="s">
+      <c r="N73" s="23" t="s">
         <v>36</v>
       </c>
       <c r="O73" t="s">
         <v>344</v>
       </c>
-      <c r="R73" s="18"/>
+      <c r="R73" s="23"/>
       <c r="S73" t="s">
         <v>377</v>
       </c>
-      <c r="V73" s="18" t="s">
+      <c r="V73" s="23" t="s">
         <v>36</v>
       </c>
       <c r="W73" t="s">
@@ -4455,141 +4488,118 @@
       </c>
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B74" s="18"/>
+      <c r="B74" s="23"/>
       <c r="C74" t="s">
         <v>243</v>
       </c>
-      <c r="F74" s="17"/>
+      <c r="F74" s="23" t="s">
+        <v>36</v>
+      </c>
       <c r="G74" t="s">
-        <v>272</v>
-      </c>
-      <c r="J74" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="J74" s="23" t="s">
         <v>36</v>
       </c>
       <c r="K74" t="s">
         <v>310</v>
       </c>
-      <c r="N74" s="18"/>
+      <c r="N74" s="23"/>
       <c r="O74" t="s">
         <v>345</v>
       </c>
-      <c r="V74" s="18"/>
+      <c r="V74" s="23"/>
       <c r="W74" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B75" s="18"/>
+      <c r="B75" s="23"/>
       <c r="C75" t="s">
         <v>244</v>
       </c>
-      <c r="F75" s="17"/>
+      <c r="F75" s="23"/>
       <c r="G75" t="s">
-        <v>273</v>
-      </c>
-      <c r="J75" s="18"/>
+        <v>276</v>
+      </c>
+      <c r="J75" s="23"/>
       <c r="K75" t="s">
         <v>311</v>
       </c>
-      <c r="N75" s="18"/>
+      <c r="N75" s="23"/>
       <c r="O75" t="s">
         <v>346</v>
       </c>
-      <c r="V75" s="18"/>
+      <c r="V75" s="23"/>
       <c r="W75" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="F76" s="17"/>
+      <c r="F76" s="23"/>
       <c r="G76" t="s">
-        <v>274</v>
-      </c>
-      <c r="J76" s="18"/>
+        <v>277</v>
+      </c>
+      <c r="J76" s="23"/>
       <c r="K76" t="s">
         <v>312</v>
       </c>
-      <c r="N76" s="18"/>
+      <c r="N76" s="23"/>
       <c r="O76" t="s">
         <v>347</v>
       </c>
-      <c r="V76" s="18"/>
+      <c r="V76" s="23"/>
       <c r="W76" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="F77" s="18" t="s">
-        <v>36</v>
-      </c>
+      <c r="F77" s="23"/>
       <c r="G77" t="s">
-        <v>275</v>
-      </c>
-      <c r="J77" s="18"/>
+        <v>278</v>
+      </c>
+      <c r="J77" s="23"/>
       <c r="K77" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="F78" s="18"/>
+      <c r="F78" s="23"/>
       <c r="G78" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="F79" s="18"/>
-      <c r="G79" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="F80" s="18"/>
-      <c r="G80" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="81" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F81" s="18"/>
-      <c r="G81" t="s">
         <v>279</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="85">
-    <mergeCell ref="J5:J11"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B47:B51"/>
-    <mergeCell ref="B52:B59"/>
-    <mergeCell ref="B60:B64"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="F77:F81"/>
-    <mergeCell ref="J63:J69"/>
-    <mergeCell ref="J70:J73"/>
-    <mergeCell ref="J74:J77"/>
-    <mergeCell ref="N44:N46"/>
-    <mergeCell ref="N47:N49"/>
-    <mergeCell ref="N60:N64"/>
-    <mergeCell ref="N65:N68"/>
-    <mergeCell ref="N69:N72"/>
-    <mergeCell ref="N73:N76"/>
-    <mergeCell ref="N50:N59"/>
-    <mergeCell ref="J60:J62"/>
-    <mergeCell ref="F47:F54"/>
-    <mergeCell ref="F44:F46"/>
-    <mergeCell ref="B65:B69"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="B73:B75"/>
-    <mergeCell ref="F65:F68"/>
-    <mergeCell ref="F73:F76"/>
-    <mergeCell ref="F69:F72"/>
-    <mergeCell ref="V2:V5"/>
-    <mergeCell ref="V13:V21"/>
-    <mergeCell ref="V22:V24"/>
-    <mergeCell ref="V25:V28"/>
-    <mergeCell ref="V6:V12"/>
+    <mergeCell ref="V68:V72"/>
+    <mergeCell ref="V73:V76"/>
+    <mergeCell ref="R65:R68"/>
+    <mergeCell ref="R69:R73"/>
+    <mergeCell ref="F10:F17"/>
+    <mergeCell ref="J12:J17"/>
+    <mergeCell ref="R31:R34"/>
+    <mergeCell ref="V43:Y43"/>
+    <mergeCell ref="V44:V46"/>
+    <mergeCell ref="V47:V51"/>
+    <mergeCell ref="V52:V59"/>
+    <mergeCell ref="V60:V63"/>
+    <mergeCell ref="V64:V67"/>
+    <mergeCell ref="V32:V35"/>
+    <mergeCell ref="V36:V39"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="R4:R9"/>
+    <mergeCell ref="R10:R19"/>
+    <mergeCell ref="R20:R21"/>
+    <mergeCell ref="R22:R25"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="N4:N10"/>
+    <mergeCell ref="N11:N16"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="N19:N23"/>
     <mergeCell ref="J2:J4"/>
     <mergeCell ref="J18:J21"/>
     <mergeCell ref="J22:J25"/>
@@ -4606,41 +4616,46 @@
     <mergeCell ref="J32:J36"/>
     <mergeCell ref="J26:J31"/>
     <mergeCell ref="R2:R3"/>
-    <mergeCell ref="R4:R9"/>
-    <mergeCell ref="R10:R19"/>
-    <mergeCell ref="R20:R21"/>
-    <mergeCell ref="R22:R25"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="N4:N10"/>
-    <mergeCell ref="N11:N16"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="N19:N23"/>
+    <mergeCell ref="V2:V5"/>
+    <mergeCell ref="V25:V27"/>
+    <mergeCell ref="V28:V31"/>
+    <mergeCell ref="V6:V12"/>
+    <mergeCell ref="V13:V24"/>
+    <mergeCell ref="B65:B69"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="F62:F65"/>
+    <mergeCell ref="F70:F73"/>
+    <mergeCell ref="F66:F69"/>
+    <mergeCell ref="F74:F78"/>
+    <mergeCell ref="J63:J69"/>
+    <mergeCell ref="J70:J73"/>
+    <mergeCell ref="J74:J77"/>
+    <mergeCell ref="N44:N46"/>
+    <mergeCell ref="N47:N49"/>
+    <mergeCell ref="N60:N64"/>
+    <mergeCell ref="N65:N68"/>
+    <mergeCell ref="N69:N72"/>
+    <mergeCell ref="N73:N76"/>
+    <mergeCell ref="N50:N59"/>
+    <mergeCell ref="J60:J62"/>
+    <mergeCell ref="F47:F54"/>
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="F55:F61"/>
+    <mergeCell ref="J5:J11"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B47:B51"/>
+    <mergeCell ref="B52:B59"/>
+    <mergeCell ref="B60:B64"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B26:B29"/>
     <mergeCell ref="F2:F5"/>
     <mergeCell ref="F21:F24"/>
     <mergeCell ref="F25:F28"/>
     <mergeCell ref="F29:F32"/>
     <mergeCell ref="F6:F9"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="B10:B15"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="V68:V72"/>
-    <mergeCell ref="V73:V76"/>
-    <mergeCell ref="R65:R68"/>
-    <mergeCell ref="R69:R73"/>
-    <mergeCell ref="F10:F17"/>
-    <mergeCell ref="F55:F64"/>
-    <mergeCell ref="J12:J17"/>
-    <mergeCell ref="R31:R34"/>
-    <mergeCell ref="V43:Y43"/>
-    <mergeCell ref="V44:V46"/>
-    <mergeCell ref="V47:V51"/>
-    <mergeCell ref="V52:V59"/>
-    <mergeCell ref="V60:V63"/>
-    <mergeCell ref="V64:V67"/>
-    <mergeCell ref="V29:V32"/>
-    <mergeCell ref="V33:V36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4648,10 +4663,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z34"/>
+  <dimension ref="A1:Z39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4705,203 +4720,203 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="B2" t="s">
-        <v>547</v>
+        <v>501</v>
       </c>
       <c r="E2" t="s">
-        <v>416</v>
+        <v>594</v>
       </c>
       <c r="F2" t="s">
-        <v>542</v>
+        <v>496</v>
       </c>
       <c r="J2" t="s">
+        <v>560</v>
+      </c>
+      <c r="K2" t="s">
+        <v>511</v>
+      </c>
+      <c r="O2" t="s">
         <v>413</v>
       </c>
-      <c r="K2" t="s">
-        <v>557</v>
-      </c>
-      <c r="O2" t="s">
-        <v>415</v>
-      </c>
       <c r="P2" t="s">
-        <v>567</v>
+        <v>521</v>
       </c>
       <c r="T2" t="s">
-        <v>417</v>
+        <v>614</v>
       </c>
       <c r="U2" t="s">
-        <v>582</v>
+        <v>536</v>
       </c>
       <c r="X2" t="s">
-        <v>418</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="B3" t="s">
+        <v>491</v>
+      </c>
+      <c r="E3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F3" t="s">
+        <v>542</v>
+      </c>
+      <c r="J3" t="s">
+        <v>559</v>
+      </c>
+      <c r="K3" t="s">
+        <v>498</v>
+      </c>
+      <c r="O3" t="s">
+        <v>415</v>
+      </c>
+      <c r="P3" t="s">
+        <v>522</v>
+      </c>
+      <c r="T3" t="s">
+        <v>630</v>
+      </c>
+      <c r="U3" t="s">
         <v>537</v>
       </c>
-      <c r="E3" t="s">
-        <v>422</v>
-      </c>
-      <c r="F3" t="s">
-        <v>588</v>
-      </c>
-      <c r="J3" t="s">
-        <v>419</v>
-      </c>
-      <c r="K3" t="s">
-        <v>544</v>
-      </c>
-      <c r="O3" t="s">
-        <v>421</v>
-      </c>
-      <c r="P3" t="s">
-        <v>568</v>
-      </c>
-      <c r="T3" t="s">
-        <v>423</v>
-      </c>
-      <c r="U3" t="s">
-        <v>583</v>
-      </c>
       <c r="X3" t="s">
-        <v>424</v>
+        <v>609</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>442</v>
+        <v>596</v>
       </c>
       <c r="B4" t="s">
-        <v>548</v>
+        <v>502</v>
       </c>
       <c r="E4" t="s">
-        <v>428</v>
+        <v>595</v>
       </c>
       <c r="F4" t="s">
-        <v>546</v>
+        <v>500</v>
       </c>
       <c r="J4" t="s">
-        <v>431</v>
+        <v>600</v>
       </c>
       <c r="K4" t="s">
-        <v>560</v>
+        <v>514</v>
       </c>
       <c r="O4" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="P4" t="s">
-        <v>569</v>
+        <v>523</v>
       </c>
       <c r="T4" t="s">
-        <v>429</v>
+        <v>629</v>
       </c>
       <c r="U4" t="s">
-        <v>584</v>
+        <v>538</v>
       </c>
       <c r="X4" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="Y4" t="s">
-        <v>589</v>
+        <v>543</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>623</v>
+        <v>577</v>
       </c>
       <c r="B5" t="s">
-        <v>538</v>
+        <v>492</v>
       </c>
       <c r="E5" t="s">
-        <v>434</v>
+        <v>625</v>
       </c>
       <c r="G5" t="s">
-        <v>618</v>
+        <v>572</v>
       </c>
       <c r="J5" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="K5" t="s">
-        <v>561</v>
+        <v>515</v>
       </c>
       <c r="O5" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="P5" t="s">
-        <v>570</v>
+        <v>524</v>
       </c>
       <c r="T5" t="s">
-        <v>435</v>
+        <v>619</v>
       </c>
       <c r="U5" t="s">
-        <v>585</v>
+        <v>539</v>
       </c>
       <c r="Y5" t="s">
-        <v>590</v>
+        <v>544</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>541</v>
+        <v>495</v>
       </c>
       <c r="E6" t="s">
-        <v>436</v>
+        <v>610</v>
       </c>
       <c r="P6" t="s">
-        <v>571</v>
+        <v>525</v>
       </c>
       <c r="T6" t="s">
-        <v>438</v>
+        <v>611</v>
       </c>
       <c r="U6" t="s">
-        <v>586</v>
+        <v>540</v>
       </c>
       <c r="Y6" t="s">
-        <v>591</v>
+        <v>545</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>539</v>
+        <v>493</v>
       </c>
       <c r="E7" t="s">
-        <v>414</v>
+        <v>615</v>
       </c>
       <c r="T7" t="s">
-        <v>441</v>
+        <v>620</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>540</v>
+        <v>494</v>
       </c>
       <c r="E8" t="s">
-        <v>439</v>
+        <v>604</v>
       </c>
       <c r="T8" t="s">
-        <v>443</v>
+        <v>631</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
-        <v>437</v>
+        <v>626</v>
       </c>
       <c r="T9" t="s">
-        <v>444</v>
+        <v>616</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
@@ -4911,10 +4926,10 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="E17" t="s">
-        <v>445</v>
+        <v>424</v>
       </c>
       <c r="I17" s="25" t="s">
-        <v>446</v>
+        <v>425</v>
       </c>
       <c r="J17" s="25"/>
       <c r="K17" s="25"/>
@@ -4937,257 +4952,278 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>448</v>
+        <v>617</v>
       </c>
       <c r="B18" t="s">
-        <v>552</v>
+        <v>506</v>
       </c>
       <c r="E18" t="s">
-        <v>453</v>
+        <v>605</v>
       </c>
       <c r="F18" t="s">
-        <v>558</v>
+        <v>541</v>
       </c>
       <c r="J18" t="s">
-        <v>449</v>
+        <v>601</v>
       </c>
       <c r="K18" t="s">
-        <v>562</v>
+        <v>516</v>
       </c>
       <c r="O18" t="s">
-        <v>450</v>
+        <v>621</v>
       </c>
       <c r="P18" t="s">
-        <v>572</v>
+        <v>526</v>
       </c>
       <c r="T18" t="s">
-        <v>451</v>
+        <v>426</v>
       </c>
       <c r="U18" t="s">
-        <v>577</v>
+        <v>531</v>
       </c>
       <c r="X18" t="s">
-        <v>452</v>
+        <v>627</v>
       </c>
       <c r="Y18" t="s">
-        <v>592</v>
+        <v>546</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>454</v>
+        <v>632</v>
       </c>
       <c r="B19" t="s">
-        <v>553</v>
+        <v>507</v>
       </c>
       <c r="E19" t="s">
-        <v>459</v>
+        <v>633</v>
       </c>
       <c r="F19" t="s">
-        <v>559</v>
+        <v>512</v>
       </c>
       <c r="J19" t="s">
-        <v>455</v>
+        <v>634</v>
       </c>
       <c r="K19" t="s">
-        <v>563</v>
+        <v>517</v>
       </c>
       <c r="O19" t="s">
-        <v>456</v>
+        <v>618</v>
       </c>
       <c r="P19" t="s">
-        <v>574</v>
+        <v>528</v>
       </c>
       <c r="T19" t="s">
-        <v>457</v>
+        <v>635</v>
       </c>
       <c r="U19" t="s">
-        <v>578</v>
+        <v>532</v>
       </c>
       <c r="X19" t="s">
-        <v>458</v>
+        <v>427</v>
       </c>
       <c r="Y19" t="s">
-        <v>593</v>
+        <v>547</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>460</v>
+        <v>606</v>
       </c>
       <c r="B20" t="s">
-        <v>543</v>
+        <v>497</v>
       </c>
       <c r="E20" t="s">
-        <v>465</v>
+        <v>602</v>
       </c>
       <c r="F20" t="s">
-        <v>549</v>
+        <v>503</v>
       </c>
       <c r="J20" t="s">
-        <v>461</v>
+        <v>607</v>
       </c>
       <c r="K20" t="s">
-        <v>564</v>
+        <v>518</v>
       </c>
       <c r="O20" t="s">
-        <v>462</v>
+        <v>428</v>
       </c>
       <c r="P20" t="s">
-        <v>573</v>
+        <v>527</v>
       </c>
       <c r="T20" t="s">
-        <v>463</v>
+        <v>429</v>
       </c>
       <c r="U20" t="s">
-        <v>579</v>
+        <v>533</v>
       </c>
       <c r="X20" t="s">
-        <v>464</v>
+        <v>597</v>
       </c>
       <c r="Y20" t="s">
-        <v>594</v>
+        <v>548</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>466</v>
+        <v>612</v>
       </c>
       <c r="B21" t="s">
-        <v>554</v>
+        <v>508</v>
       </c>
       <c r="E21" t="s">
-        <v>471</v>
+        <v>433</v>
       </c>
       <c r="F21" t="s">
-        <v>550</v>
+        <v>504</v>
       </c>
       <c r="J21" t="s">
-        <v>467</v>
+        <v>430</v>
       </c>
       <c r="K21" t="s">
-        <v>565</v>
+        <v>519</v>
       </c>
       <c r="O21" t="s">
-        <v>447</v>
+        <v>622</v>
       </c>
       <c r="P21" t="s">
-        <v>575</v>
+        <v>529</v>
       </c>
       <c r="T21" t="s">
-        <v>469</v>
+        <v>431</v>
       </c>
       <c r="U21" t="s">
-        <v>580</v>
+        <v>534</v>
       </c>
       <c r="X21" t="s">
-        <v>470</v>
+        <v>432</v>
       </c>
       <c r="Y21" t="s">
-        <v>595</v>
+        <v>549</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>472</v>
+        <v>623</v>
       </c>
       <c r="B22" t="s">
-        <v>555</v>
+        <v>509</v>
       </c>
       <c r="E22" t="s">
-        <v>426</v>
+        <v>598</v>
       </c>
       <c r="F22" t="s">
-        <v>551</v>
+        <v>505</v>
       </c>
       <c r="K22" t="s">
-        <v>566</v>
+        <v>520</v>
       </c>
       <c r="O22" t="s">
-        <v>468</v>
+        <v>603</v>
       </c>
       <c r="P22" t="s">
-        <v>576</v>
+        <v>530</v>
       </c>
       <c r="U22" t="s">
-        <v>581</v>
+        <v>535</v>
       </c>
       <c r="X22" t="s">
-        <v>474</v>
+        <v>434</v>
       </c>
       <c r="Y22" t="s">
-        <v>596</v>
+        <v>550</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>476</v>
+        <v>636</v>
       </c>
       <c r="B23" t="s">
-        <v>545</v>
+        <v>499</v>
       </c>
       <c r="E23" t="s">
-        <v>475</v>
+        <v>608</v>
       </c>
       <c r="O23" t="s">
-        <v>473</v>
+        <v>613</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>479</v>
+        <v>436</v>
       </c>
       <c r="B24" t="s">
-        <v>556</v>
+        <v>510</v>
       </c>
       <c r="E24" t="s">
-        <v>478</v>
+        <v>628</v>
       </c>
       <c r="O24" t="s">
-        <v>477</v>
+        <v>435</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
-        <v>481</v>
+        <v>624</v>
       </c>
       <c r="O25" t="s">
-        <v>480</v>
+        <v>437</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C29" s="2" t="s">
-        <v>483</v>
+        <v>438</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C30" s="2" t="s">
-        <v>484</v>
+        <v>439</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C31" s="2" t="s">
-        <v>485</v>
+        <v>440</v>
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C32" s="2" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C33" s="2" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C34" s="2" t="s">
-        <v>488</v>
+        <v>586</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C35" s="2" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C36" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="H36" s="2"/>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C37" s="2" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C38" s="2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="39" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C39" s="2" t="s">
+        <v>451</v>
       </c>
     </row>
   </sheetData>
@@ -5223,134 +5259,134 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>520</v>
+        <v>474</v>
       </c>
       <c r="B1" t="s">
-        <v>490</v>
+        <v>444</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>491</v>
+        <v>445</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>492</v>
+        <v>446</v>
       </c>
       <c r="B2" t="s">
-        <v>493</v>
+        <v>447</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>494</v>
+        <v>448</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>521</v>
+        <v>475</v>
       </c>
       <c r="B3" t="s">
-        <v>495</v>
+        <v>449</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>496</v>
+        <v>450</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>497</v>
+        <v>451</v>
       </c>
       <c r="B4" t="s">
-        <v>498</v>
+        <v>452</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>499</v>
+        <v>453</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>500</v>
+        <v>454</v>
       </c>
       <c r="B5" t="s">
-        <v>501</v>
+        <v>455</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>502</v>
+        <v>456</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>485</v>
+        <v>440</v>
       </c>
       <c r="B6" t="s">
-        <v>503</v>
+        <v>457</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>504</v>
+        <v>458</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>522</v>
+        <v>476</v>
       </c>
       <c r="B7" t="s">
-        <v>505</v>
+        <v>459</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>506</v>
+        <v>460</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>486</v>
+        <v>441</v>
       </c>
       <c r="B8" t="s">
-        <v>507</v>
+        <v>461</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>508</v>
+        <v>462</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>509</v>
+        <v>463</v>
       </c>
       <c r="B9" t="s">
-        <v>510</v>
+        <v>464</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>511</v>
+        <v>465</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>487</v>
+        <v>442</v>
       </c>
       <c r="B10" t="s">
-        <v>512</v>
+        <v>466</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>513</v>
+        <v>467</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>514</v>
+        <v>468</v>
       </c>
       <c r="B11" t="s">
-        <v>515</v>
+        <v>469</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>516</v>
+        <v>470</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>517</v>
+        <v>471</v>
       </c>
       <c r="B12" t="s">
-        <v>518</v>
+        <v>472</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>519</v>
+        <v>473</v>
       </c>
     </row>
   </sheetData>
@@ -5373,10 +5409,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K68"/>
+  <dimension ref="A1:K80"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+      <selection activeCell="B80" sqref="A70:B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5396,7 +5432,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>523</v>
+        <v>477</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>226</v>
@@ -5404,7 +5440,7 @@
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>524</v>
+        <v>478</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>44</v>
@@ -5413,10 +5449,10 @@
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>507</v>
+        <v>461</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>525</v>
+        <v>479</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
@@ -5429,13 +5465,13 @@
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="11" t="s">
-        <v>526</v>
+        <v>480</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="11" t="s">
-        <v>527</v>
+        <v>481</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -5444,7 +5480,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>528</v>
+        <v>482</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>90</v>
@@ -5453,19 +5489,19 @@
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="11" t="s">
-        <v>529</v>
+        <v>483</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="11" t="s">
-        <v>530</v>
+        <v>484</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="11" t="s">
-        <v>531</v>
+        <v>485</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -5477,37 +5513,37 @@
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="11" t="s">
-        <v>532</v>
+        <v>486</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="11" t="s">
-        <v>533</v>
+        <v>487</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="11" t="s">
-        <v>534</v>
+        <v>488</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="11" t="s">
-        <v>535</v>
+        <v>489</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="B17" s="8" t="s">
-        <v>536</v>
+        <v>490</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>597</v>
+        <v>551</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>86</v>
@@ -5522,7 +5558,7 @@
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
       <c r="B21" s="11" t="s">
-        <v>599</v>
+        <v>553</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -5534,7 +5570,7 @@
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="11" t="s">
-        <v>600</v>
+        <v>554</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -5546,19 +5582,19 @@
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="12" t="s">
-        <v>601</v>
+        <v>555</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="11" t="s">
-        <v>598</v>
+        <v>552</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
       <c r="B27" s="11" t="s">
-        <v>526</v>
+        <v>480</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -5567,7 +5603,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>602</v>
+        <v>556</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>17</v>
@@ -5582,49 +5618,49 @@
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="10"/>
       <c r="B31" s="11" t="s">
-        <v>603</v>
+        <v>557</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
       <c r="B32" s="11" t="s">
-        <v>604</v>
+        <v>558</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="10"/>
       <c r="B33" s="12" t="s">
-        <v>605</v>
+        <v>559</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="10"/>
       <c r="B34" s="12" t="s">
-        <v>606</v>
+        <v>560</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="10"/>
       <c r="B35" s="12" t="s">
-        <v>607</v>
+        <v>561</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="10"/>
       <c r="B36" s="12" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="10"/>
       <c r="B37" s="12" t="s">
-        <v>608</v>
+        <v>562</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="10"/>
       <c r="B38" s="11" t="s">
-        <v>609</v>
+        <v>563</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -5636,13 +5672,13 @@
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="10"/>
       <c r="B40" s="11" t="s">
-        <v>610</v>
+        <v>564</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="10"/>
       <c r="B41" s="11" t="s">
-        <v>611</v>
+        <v>565</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -5660,7 +5696,7 @@
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="10"/>
       <c r="B44" s="12" t="s">
-        <v>612</v>
+        <v>566</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5672,27 +5708,27 @@
     <row r="46" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>613</v>
+        <v>567</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>614</v>
+        <v>568</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="10"/>
       <c r="B48" s="11" t="s">
-        <v>615</v>
+        <v>569</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="10"/>
       <c r="B49" s="11" t="s">
-        <v>616</v>
+        <v>570</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
-        <v>617</v>
+        <v>571</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>225</v>
@@ -5701,28 +5737,28 @@
     <row r="52" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>507</v>
+        <v>461</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>619</v>
+        <v>573</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="10"/>
       <c r="B54" s="15" t="s">
-        <v>620</v>
+        <v>574</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="10"/>
       <c r="B55" s="15" t="s">
-        <v>621</v>
+        <v>575</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="10"/>
       <c r="B56" s="15" t="s">
-        <v>614</v>
+        <v>568</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -5731,7 +5767,7 @@
     </row>
     <row r="58" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
-        <v>622</v>
+        <v>576</v>
       </c>
       <c r="B58" s="16" t="s">
         <v>321</v>
@@ -5740,24 +5776,24 @@
     <row r="60" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>624</v>
+        <v>578</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>625</v>
+        <v>579</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
-        <v>613</v>
+        <v>567</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>626</v>
+        <v>580</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>613</v>
+        <v>567</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>48</v>
@@ -5766,27 +5802,98 @@
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="10"/>
       <c r="B65" s="11" t="s">
-        <v>627</v>
+        <v>581</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
-        <v>628</v>
+        <v>582</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>629</v>
+        <v>583</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="10"/>
       <c r="B67" s="11" t="s">
-        <v>630</v>
+        <v>584</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="7"/>
       <c r="B68" s="8" t="s">
-        <v>631</v>
+        <v>585</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="10"/>
+      <c r="B71" s="11" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="10"/>
+      <c r="B72" s="11" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="10"/>
+      <c r="B73" s="11" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="10"/>
+      <c r="B75" s="11" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="10"/>
+      <c r="B76" s="11" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="10"/>
+      <c r="B77" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="10"/>
+      <c r="B78" s="11" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="10"/>
+      <c r="B79" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="7"/>
+      <c r="B80" s="8" t="s">
+        <v>581</v>
       </c>
     </row>
   </sheetData>

--- a/OffSeason.xlsx
+++ b/OffSeason.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7035"/>
   </bookViews>
   <sheets>
     <sheet name="Rosters" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="653">
   <si>
     <t>Chubber for Chubb - John Olson</t>
   </si>
@@ -1268,33 +1268,21 @@
     <t>Cooper Solo Kupp - Benjamin Luther</t>
   </si>
   <si>
-    <t>2020 1st own</t>
-  </si>
-  <si>
     <t>2020 2nd Snow Happens</t>
   </si>
   <si>
-    <t>2020 2nd own</t>
-  </si>
-  <si>
     <t>2020 1st Slick Dady Club</t>
   </si>
   <si>
     <t>2020 1st Jimmy's done</t>
   </si>
   <si>
-    <t>2020 3rd own</t>
-  </si>
-  <si>
     <t>Round 7 start own</t>
   </si>
   <si>
     <t>2020 4th Jimmy's done</t>
   </si>
   <si>
-    <t>2020 4th own</t>
-  </si>
-  <si>
     <t>2020 2nd Naked Pooper</t>
   </si>
   <si>
@@ -1938,6 +1926,66 @@
   </si>
   <si>
     <t>2020 7.12</t>
+  </si>
+  <si>
+    <t>John Via MikeW</t>
+  </si>
+  <si>
+    <t>Ben via Andrew</t>
+  </si>
+  <si>
+    <t>Ben via Patrick</t>
+  </si>
+  <si>
+    <t>Patrick via MikeR</t>
+  </si>
+  <si>
+    <t>Vanja via John via AdamW</t>
+  </si>
+  <si>
+    <t>Vanja via John via Alan</t>
+  </si>
+  <si>
+    <t>Cameron via Vanja via Zach</t>
+  </si>
+  <si>
+    <t>2020 1.9</t>
+  </si>
+  <si>
+    <t>2020 2.9</t>
+  </si>
+  <si>
+    <t>2020 3.9</t>
+  </si>
+  <si>
+    <t>2020 4.9</t>
+  </si>
+  <si>
+    <t>Cameron via Vanja</t>
+  </si>
+  <si>
+    <t>Andrew via BenL</t>
+  </si>
+  <si>
+    <t>Patrick via John</t>
+  </si>
+  <si>
+    <t>* Lottery</t>
+  </si>
+  <si>
+    <t>MikeW</t>
+  </si>
+  <si>
+    <t>2021 2nd</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>Ben</t>
+  </si>
+  <si>
+    <t>2021 1st (Ben)</t>
   </si>
 </sst>
 </file>
@@ -2024,7 +2072,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -2094,12 +2142,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2129,6 +2214,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2440,7 +2528,7 @@
   <dimension ref="A1:Y78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2455,11 +2543,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
       <c r="F1" t="s">
         <v>42</v>
       </c>
@@ -2480,37 +2568,37 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="21" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="21" t="s">
         <v>1</v>
       </c>
       <c r="G2" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="21" t="s">
         <v>1</v>
       </c>
       <c r="K2" t="s">
         <v>77</v>
       </c>
-      <c r="N2" s="18" t="s">
+      <c r="N2" s="21" t="s">
         <v>1</v>
       </c>
       <c r="O2" t="s">
         <v>112</v>
       </c>
-      <c r="R2" s="18" t="s">
+      <c r="R2" s="21" t="s">
         <v>1</v>
       </c>
       <c r="S2" t="s">
         <v>144</v>
       </c>
-      <c r="V2" s="18" t="s">
+      <c r="V2" s="21" t="s">
         <v>1</v>
       </c>
       <c r="W2" t="s">
@@ -2521,27 +2609,27 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="18"/>
+      <c r="B3" s="21"/>
       <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="18"/>
+      <c r="F3" s="21"/>
       <c r="G3" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="18"/>
+      <c r="J3" s="21"/>
       <c r="K3" t="s">
-        <v>78</v>
-      </c>
-      <c r="N3" s="18"/>
+        <v>4</v>
+      </c>
+      <c r="N3" s="21"/>
       <c r="O3" t="s">
         <v>104</v>
       </c>
-      <c r="R3" s="18"/>
+      <c r="R3" s="21"/>
       <c r="S3" t="s">
         <v>145</v>
       </c>
-      <c r="V3" s="18"/>
+      <c r="V3" s="21"/>
       <c r="W3" t="s">
         <v>179</v>
       </c>
@@ -2550,33 +2638,35 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="20" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="18"/>
+      <c r="F4" s="21"/>
       <c r="G4" t="s">
         <v>46</v>
       </c>
-      <c r="J4" s="18"/>
+      <c r="J4" s="20" t="s">
+        <v>5</v>
+      </c>
       <c r="K4" t="s">
-        <v>4</v>
-      </c>
-      <c r="N4" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="N4" s="20" t="s">
         <v>5</v>
       </c>
       <c r="O4" t="s">
         <v>113</v>
       </c>
-      <c r="R4" s="17" t="s">
+      <c r="R4" s="20" t="s">
         <v>5</v>
       </c>
       <c r="S4" t="s">
         <v>146</v>
       </c>
-      <c r="V4" s="18"/>
+      <c r="V4" s="21"/>
       <c r="W4" t="s">
         <v>180</v>
       </c>
@@ -2585,29 +2675,27 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="17"/>
+      <c r="B5" s="20"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="18"/>
+      <c r="F5" s="21"/>
       <c r="G5" t="s">
         <v>47</v>
       </c>
-      <c r="J5" s="17" t="s">
-        <v>5</v>
-      </c>
+      <c r="J5" s="20"/>
       <c r="K5" t="s">
-        <v>248</v>
-      </c>
-      <c r="N5" s="17"/>
+        <v>81</v>
+      </c>
+      <c r="N5" s="20"/>
       <c r="O5" t="s">
         <v>114</v>
       </c>
-      <c r="R5" s="17"/>
+      <c r="R5" s="20"/>
       <c r="S5" t="s">
         <v>147</v>
       </c>
-      <c r="V5" s="18"/>
+      <c r="V5" s="21"/>
       <c r="W5" t="s">
         <v>181</v>
       </c>
@@ -2616,29 +2704,29 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="17"/>
+      <c r="B6" s="20"/>
       <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="20" t="s">
         <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
-      </c>
-      <c r="J6" s="17"/>
+        <v>215</v>
+      </c>
+      <c r="J6" s="20"/>
       <c r="K6" t="s">
-        <v>81</v>
-      </c>
-      <c r="N6" s="17"/>
+        <v>82</v>
+      </c>
+      <c r="N6" s="20"/>
       <c r="O6" t="s">
         <v>115</v>
       </c>
-      <c r="R6" s="17"/>
+      <c r="R6" s="20"/>
       <c r="S6" t="s">
         <v>148</v>
       </c>
-      <c r="V6" s="17" t="s">
+      <c r="V6" s="20" t="s">
         <v>5</v>
       </c>
       <c r="W6" t="s">
@@ -2649,27 +2737,27 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="17"/>
+      <c r="B7" s="20"/>
       <c r="C7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="17"/>
+      <c r="F7" s="20"/>
       <c r="G7" t="s">
-        <v>50</v>
-      </c>
-      <c r="J7" s="17"/>
+        <v>52</v>
+      </c>
+      <c r="J7" s="20"/>
       <c r="K7" t="s">
-        <v>82</v>
-      </c>
-      <c r="N7" s="17"/>
+        <v>84</v>
+      </c>
+      <c r="N7" s="20"/>
       <c r="O7" t="s">
         <v>116</v>
       </c>
-      <c r="R7" s="17"/>
+      <c r="R7" s="20"/>
       <c r="S7" t="s">
         <v>149</v>
       </c>
-      <c r="V7" s="17"/>
+      <c r="V7" s="20"/>
       <c r="W7" t="s">
         <v>250</v>
       </c>
@@ -2678,27 +2766,27 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="17"/>
+      <c r="B8" s="20"/>
       <c r="C8" t="s">
         <v>80</v>
       </c>
-      <c r="F8" s="17"/>
+      <c r="F8" s="20"/>
       <c r="G8" t="s">
         <v>51</v>
       </c>
-      <c r="J8" s="17"/>
+      <c r="J8" s="20"/>
       <c r="K8" t="s">
-        <v>84</v>
-      </c>
-      <c r="N8" s="17"/>
+        <v>85</v>
+      </c>
+      <c r="N8" s="20"/>
       <c r="O8" t="s">
         <v>117</v>
       </c>
-      <c r="R8" s="17"/>
+      <c r="R8" s="20"/>
       <c r="S8" t="s">
         <v>150</v>
       </c>
-      <c r="V8" s="17"/>
+      <c r="V8" s="20"/>
       <c r="W8" t="s">
         <v>184</v>
       </c>
@@ -2707,27 +2795,27 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="17"/>
+      <c r="B9" s="20"/>
       <c r="C9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="17"/>
+      <c r="F9" s="20"/>
       <c r="G9" t="s">
-        <v>52</v>
-      </c>
-      <c r="J9" s="17"/>
+        <v>50</v>
+      </c>
+      <c r="J9" s="20"/>
       <c r="K9" t="s">
-        <v>85</v>
-      </c>
-      <c r="N9" s="17"/>
+        <v>10</v>
+      </c>
+      <c r="N9" s="20"/>
       <c r="O9" t="s">
         <v>118</v>
       </c>
-      <c r="R9" s="17"/>
+      <c r="R9" s="20"/>
       <c r="S9" t="s">
         <v>151</v>
       </c>
-      <c r="V9" s="17"/>
+      <c r="V9" s="20"/>
       <c r="W9" t="s">
         <v>252</v>
       </c>
@@ -2736,33 +2824,31 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="22" t="s">
         <v>12</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="19" t="s">
-        <v>12</v>
-      </c>
+      <c r="F10" s="20"/>
       <c r="G10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J10" s="17"/>
+        <v>49</v>
+      </c>
+      <c r="J10" s="20"/>
       <c r="K10" t="s">
-        <v>10</v>
-      </c>
-      <c r="N10" s="17"/>
+        <v>48</v>
+      </c>
+      <c r="N10" s="20"/>
       <c r="O10" t="s">
         <v>119</v>
       </c>
-      <c r="R10" s="19" t="s">
+      <c r="R10" s="22" t="s">
         <v>12</v>
       </c>
       <c r="S10" t="s">
         <v>152</v>
       </c>
-      <c r="V10" s="17"/>
+      <c r="V10" s="20"/>
       <c r="W10" t="s">
         <v>186</v>
       </c>
@@ -2771,29 +2857,33 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="19"/>
+      <c r="B11" s="22"/>
       <c r="C11" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="19"/>
+      <c r="F11" s="22" t="s">
+        <v>12</v>
+      </c>
       <c r="G11" t="s">
-        <v>55</v>
-      </c>
-      <c r="J11" s="17"/>
+        <v>54</v>
+      </c>
+      <c r="J11" s="22" t="s">
+        <v>12</v>
+      </c>
       <c r="K11" t="s">
-        <v>48</v>
-      </c>
-      <c r="N11" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="N11" s="22" t="s">
         <v>12</v>
       </c>
       <c r="O11" t="s">
         <v>120</v>
       </c>
-      <c r="R11" s="19"/>
+      <c r="R11" s="22"/>
       <c r="S11" t="s">
         <v>153</v>
       </c>
-      <c r="V11" s="17"/>
+      <c r="V11" s="20"/>
       <c r="W11" t="s">
         <v>187</v>
       </c>
@@ -2802,29 +2892,27 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="19"/>
+      <c r="B12" s="22"/>
       <c r="C12" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="19"/>
+      <c r="F12" s="22"/>
       <c r="G12" t="s">
         <v>56</v>
       </c>
-      <c r="J12" s="19" t="s">
-        <v>12</v>
-      </c>
+      <c r="J12" s="22"/>
       <c r="K12" t="s">
-        <v>88</v>
-      </c>
-      <c r="N12" s="19"/>
+        <v>93</v>
+      </c>
+      <c r="N12" s="22"/>
       <c r="O12" t="s">
         <v>121</v>
       </c>
-      <c r="R12" s="19"/>
+      <c r="R12" s="22"/>
       <c r="S12" t="s">
         <v>154</v>
       </c>
-      <c r="V12" s="17"/>
+      <c r="V12" s="20"/>
       <c r="W12" t="s">
         <v>53</v>
       </c>
@@ -2833,27 +2921,27 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="19"/>
+      <c r="B13" s="22"/>
       <c r="C13" t="s">
         <v>86</v>
       </c>
-      <c r="F13" s="19"/>
+      <c r="F13" s="22"/>
       <c r="G13" t="s">
-        <v>57</v>
-      </c>
-      <c r="J13" s="19"/>
+        <v>58</v>
+      </c>
+      <c r="J13" s="22"/>
       <c r="K13" t="s">
-        <v>93</v>
-      </c>
-      <c r="N13" s="19"/>
+        <v>16</v>
+      </c>
+      <c r="N13" s="22"/>
       <c r="O13" t="s">
         <v>122</v>
       </c>
-      <c r="R13" s="19"/>
+      <c r="R13" s="22"/>
       <c r="S13" t="s">
         <v>155</v>
       </c>
-      <c r="V13" s="19" t="s">
+      <c r="V13" s="22" t="s">
         <v>12</v>
       </c>
       <c r="W13" t="s">
@@ -2864,27 +2952,27 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="19"/>
+      <c r="B14" s="22"/>
       <c r="C14" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="19"/>
+      <c r="F14" s="22"/>
       <c r="G14" t="s">
-        <v>58</v>
-      </c>
-      <c r="J14" s="19"/>
+        <v>59</v>
+      </c>
+      <c r="J14" s="22"/>
       <c r="K14" t="s">
-        <v>16</v>
-      </c>
-      <c r="N14" s="19"/>
+        <v>17</v>
+      </c>
+      <c r="N14" s="22"/>
       <c r="O14" t="s">
         <v>123</v>
       </c>
-      <c r="R14" s="19"/>
+      <c r="R14" s="22"/>
       <c r="S14" t="s">
         <v>156</v>
       </c>
-      <c r="V14" s="19"/>
+      <c r="V14" s="22"/>
       <c r="W14" t="s">
         <v>256</v>
       </c>
@@ -2893,27 +2981,27 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="19"/>
+      <c r="B15" s="22"/>
       <c r="C15" t="s">
         <v>87</v>
       </c>
-      <c r="F15" s="19"/>
+      <c r="F15" s="22"/>
       <c r="G15" t="s">
-        <v>59</v>
-      </c>
-      <c r="J15" s="19"/>
+        <v>226</v>
+      </c>
+      <c r="J15" s="22"/>
       <c r="K15" t="s">
-        <v>17</v>
-      </c>
-      <c r="N15" s="19"/>
+        <v>22</v>
+      </c>
+      <c r="N15" s="22"/>
       <c r="O15" t="s">
         <v>124</v>
       </c>
-      <c r="R15" s="19"/>
+      <c r="R15" s="22"/>
       <c r="S15" t="s">
         <v>157</v>
       </c>
-      <c r="V15" s="19"/>
+      <c r="V15" s="22"/>
       <c r="W15" t="s">
         <v>189</v>
       </c>
@@ -2922,29 +3010,29 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="23" t="s">
         <v>18</v>
       </c>
       <c r="C16" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="19"/>
+      <c r="F16" s="22"/>
       <c r="G16" t="s">
-        <v>226</v>
-      </c>
-      <c r="J16" s="19"/>
+        <v>225</v>
+      </c>
+      <c r="J16" s="22"/>
       <c r="K16" t="s">
-        <v>22</v>
-      </c>
-      <c r="N16" s="19"/>
+        <v>23</v>
+      </c>
+      <c r="N16" s="22"/>
       <c r="O16" t="s">
         <v>125</v>
       </c>
-      <c r="R16" s="19"/>
+      <c r="R16" s="22"/>
       <c r="S16" t="s">
         <v>158</v>
       </c>
-      <c r="V16" s="19"/>
+      <c r="V16" s="22"/>
       <c r="W16" t="s">
         <v>190</v>
       </c>
@@ -2953,29 +3041,33 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="20"/>
+      <c r="B17" s="23"/>
       <c r="C17" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="19"/>
+      <c r="F17" s="23" t="s">
+        <v>18</v>
+      </c>
       <c r="G17" t="s">
-        <v>225</v>
-      </c>
-      <c r="J17" s="19"/>
+        <v>60</v>
+      </c>
+      <c r="J17" s="23" t="s">
+        <v>18</v>
+      </c>
       <c r="K17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N17" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="N17" s="23" t="s">
         <v>18</v>
       </c>
       <c r="O17" t="s">
         <v>126</v>
       </c>
-      <c r="R17" s="19"/>
+      <c r="R17" s="22"/>
       <c r="S17" t="s">
         <v>159</v>
       </c>
-      <c r="V17" s="19"/>
+      <c r="V17" s="22"/>
       <c r="W17" t="s">
         <v>191</v>
       </c>
@@ -2984,31 +3076,27 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="20"/>
+      <c r="B18" s="23"/>
       <c r="C18" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="20" t="s">
-        <v>18</v>
-      </c>
+      <c r="F18" s="23"/>
       <c r="G18" t="s">
-        <v>60</v>
-      </c>
-      <c r="J18" s="20" t="s">
-        <v>18</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="J18" s="23"/>
       <c r="K18" t="s">
-        <v>95</v>
-      </c>
-      <c r="N18" s="20"/>
+        <v>96</v>
+      </c>
+      <c r="N18" s="23"/>
       <c r="O18" t="s">
         <v>127</v>
       </c>
-      <c r="R18" s="19"/>
+      <c r="R18" s="22"/>
       <c r="S18" t="s">
         <v>160</v>
       </c>
-      <c r="V18" s="19"/>
+      <c r="V18" s="22"/>
       <c r="W18" t="s">
         <v>91</v>
       </c>
@@ -3017,31 +3105,31 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="24" t="s">
         <v>24</v>
       </c>
       <c r="C19" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="20"/>
+      <c r="F19" s="23"/>
       <c r="G19" t="s">
-        <v>62</v>
-      </c>
-      <c r="J19" s="20"/>
+        <v>63</v>
+      </c>
+      <c r="J19" s="23"/>
       <c r="K19" t="s">
-        <v>96</v>
-      </c>
-      <c r="N19" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="N19" s="24" t="s">
         <v>24</v>
       </c>
       <c r="O19" t="s">
         <v>128</v>
       </c>
-      <c r="R19" s="19"/>
+      <c r="R19" s="22"/>
       <c r="S19" t="s">
         <v>161</v>
       </c>
-      <c r="V19" s="19"/>
+      <c r="V19" s="22"/>
       <c r="W19" t="s">
         <v>261</v>
       </c>
@@ -3050,29 +3138,31 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="21"/>
+      <c r="B20" s="24"/>
       <c r="C20" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="20"/>
+      <c r="F20" s="24" t="s">
+        <v>24</v>
+      </c>
       <c r="G20" t="s">
-        <v>63</v>
-      </c>
-      <c r="J20" s="20"/>
+        <v>64</v>
+      </c>
+      <c r="J20" s="23"/>
       <c r="K20" t="s">
-        <v>97</v>
-      </c>
-      <c r="N20" s="21"/>
+        <v>98</v>
+      </c>
+      <c r="N20" s="24"/>
       <c r="O20" t="s">
         <v>129</v>
       </c>
-      <c r="R20" s="20" t="s">
+      <c r="R20" s="23" t="s">
         <v>18</v>
       </c>
       <c r="S20" t="s">
         <v>162</v>
       </c>
-      <c r="V20" s="19"/>
+      <c r="V20" s="22"/>
       <c r="W20" t="s">
         <v>94</v>
       </c>
@@ -3081,29 +3171,29 @@
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="21"/>
+      <c r="B21" s="24"/>
       <c r="C21" t="s">
         <v>27</v>
       </c>
-      <c r="F21" s="21" t="s">
+      <c r="F21" s="24"/>
+      <c r="G21" t="s">
+        <v>65</v>
+      </c>
+      <c r="J21" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="G21" t="s">
-        <v>64</v>
-      </c>
-      <c r="J21" s="20"/>
       <c r="K21" t="s">
-        <v>98</v>
-      </c>
-      <c r="N21" s="21"/>
+        <v>99</v>
+      </c>
+      <c r="N21" s="24"/>
       <c r="O21" t="s">
         <v>130</v>
       </c>
-      <c r="R21" s="20"/>
+      <c r="R21" s="23"/>
       <c r="S21" t="s">
         <v>163</v>
       </c>
-      <c r="V21" s="19"/>
+      <c r="V21" s="22"/>
       <c r="W21" t="s">
         <v>192</v>
       </c>
@@ -3112,31 +3202,29 @@
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="21"/>
+      <c r="B22" s="24"/>
       <c r="C22" t="s">
         <v>100</v>
       </c>
-      <c r="F22" s="21"/>
+      <c r="F22" s="24"/>
       <c r="G22" t="s">
-        <v>65</v>
-      </c>
-      <c r="J22" s="21" t="s">
-        <v>24</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="J22" s="24"/>
       <c r="K22" t="s">
-        <v>99</v>
-      </c>
-      <c r="N22" s="21"/>
+        <v>28</v>
+      </c>
+      <c r="N22" s="24"/>
       <c r="O22" t="s">
         <v>131</v>
       </c>
-      <c r="R22" s="21" t="s">
+      <c r="R22" s="24" t="s">
         <v>24</v>
       </c>
       <c r="S22" t="s">
         <v>164</v>
       </c>
-      <c r="V22" s="19"/>
+      <c r="V22" s="22"/>
       <c r="W22" t="s">
         <v>193</v>
       </c>
@@ -3145,29 +3233,29 @@
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="25" t="s">
         <v>30</v>
       </c>
       <c r="C23" t="s">
         <v>31</v>
       </c>
-      <c r="F23" s="21"/>
+      <c r="F23" s="24"/>
       <c r="G23" t="s">
-        <v>66</v>
-      </c>
-      <c r="J23" s="21"/>
+        <v>67</v>
+      </c>
+      <c r="J23" s="24"/>
       <c r="K23" t="s">
-        <v>28</v>
-      </c>
-      <c r="N23" s="21"/>
+        <v>29</v>
+      </c>
+      <c r="N23" s="24"/>
       <c r="O23" t="s">
         <v>132</v>
       </c>
-      <c r="R23" s="21"/>
+      <c r="R23" s="24"/>
       <c r="S23" t="s">
         <v>165</v>
       </c>
-      <c r="V23" s="19"/>
+      <c r="V23" s="22"/>
       <c r="W23" t="s">
         <v>195</v>
       </c>
@@ -3176,29 +3264,31 @@
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="22"/>
+      <c r="B24" s="25"/>
       <c r="C24" t="s">
         <v>32</v>
       </c>
-      <c r="F24" s="21"/>
+      <c r="F24" s="25" t="s">
+        <v>30</v>
+      </c>
       <c r="G24" t="s">
-        <v>67</v>
-      </c>
-      <c r="J24" s="21"/>
+        <v>69</v>
+      </c>
+      <c r="J24" s="24"/>
       <c r="K24" t="s">
-        <v>29</v>
-      </c>
-      <c r="N24" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="N24" s="25" t="s">
         <v>30</v>
       </c>
       <c r="O24" t="s">
         <v>133</v>
       </c>
-      <c r="R24" s="21"/>
+      <c r="R24" s="24"/>
       <c r="S24" t="s">
         <v>166</v>
       </c>
-      <c r="V24" s="19"/>
+      <c r="V24" s="22"/>
       <c r="W24" t="s">
         <v>196</v>
       </c>
@@ -3207,29 +3297,29 @@
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="22"/>
+      <c r="B25" s="25"/>
       <c r="C25" t="s">
         <v>33</v>
       </c>
-      <c r="F25" s="22" t="s">
+      <c r="F25" s="25"/>
+      <c r="G25" t="s">
+        <v>70</v>
+      </c>
+      <c r="J25" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="G25" t="s">
-        <v>69</v>
-      </c>
-      <c r="J25" s="21"/>
       <c r="K25" t="s">
-        <v>102</v>
-      </c>
-      <c r="N25" s="22"/>
+        <v>103</v>
+      </c>
+      <c r="N25" s="25"/>
       <c r="O25" t="s">
         <v>134</v>
       </c>
-      <c r="R25" s="21"/>
+      <c r="R25" s="24"/>
       <c r="S25" t="s">
         <v>167</v>
       </c>
-      <c r="V25" s="20" t="s">
+      <c r="V25" s="23" t="s">
         <v>18</v>
       </c>
       <c r="W25" t="s">
@@ -3240,33 +3330,31 @@
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="26" t="s">
         <v>36</v>
       </c>
       <c r="C26" t="s">
         <v>37</v>
       </c>
-      <c r="F26" s="22"/>
+      <c r="F26" s="25"/>
       <c r="G26" t="s">
-        <v>70</v>
-      </c>
-      <c r="J26" s="22" t="s">
-        <v>30</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="J26" s="25"/>
       <c r="K26" t="s">
-        <v>103</v>
-      </c>
-      <c r="N26" s="22"/>
+        <v>104</v>
+      </c>
+      <c r="N26" s="25"/>
       <c r="O26" t="s">
         <v>135</v>
       </c>
-      <c r="R26" s="22" t="s">
+      <c r="R26" s="25" t="s">
         <v>30</v>
       </c>
       <c r="S26" t="s">
         <v>168</v>
       </c>
-      <c r="V26" s="20"/>
+      <c r="V26" s="23"/>
       <c r="W26" t="s">
         <v>198</v>
       </c>
@@ -3275,27 +3363,27 @@
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="23"/>
+      <c r="B27" s="26"/>
       <c r="C27" t="s">
         <v>38</v>
       </c>
-      <c r="F27" s="22"/>
+      <c r="F27" s="25"/>
       <c r="G27" t="s">
-        <v>71</v>
-      </c>
-      <c r="J27" s="22"/>
+        <v>68</v>
+      </c>
+      <c r="J27" s="25"/>
       <c r="K27" t="s">
-        <v>104</v>
-      </c>
-      <c r="N27" s="22"/>
+        <v>105</v>
+      </c>
+      <c r="N27" s="25"/>
       <c r="O27" t="s">
         <v>136</v>
       </c>
-      <c r="R27" s="22"/>
+      <c r="R27" s="25"/>
       <c r="S27" t="s">
         <v>169</v>
       </c>
-      <c r="V27" s="20"/>
+      <c r="V27" s="23"/>
       <c r="W27" t="s">
         <v>199</v>
       </c>
@@ -3304,27 +3392,29 @@
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="23"/>
+      <c r="B28" s="26"/>
       <c r="C28" t="s">
         <v>39</v>
       </c>
-      <c r="F28" s="22"/>
+      <c r="F28" s="26" t="s">
+        <v>36</v>
+      </c>
       <c r="G28" t="s">
-        <v>68</v>
-      </c>
-      <c r="J28" s="22"/>
+        <v>72</v>
+      </c>
+      <c r="J28" s="25"/>
       <c r="K28" t="s">
-        <v>105</v>
-      </c>
-      <c r="N28" s="22"/>
+        <v>106</v>
+      </c>
+      <c r="N28" s="25"/>
       <c r="O28" t="s">
         <v>137</v>
       </c>
-      <c r="R28" s="22"/>
+      <c r="R28" s="25"/>
       <c r="S28" t="s">
         <v>170</v>
       </c>
-      <c r="V28" s="21" t="s">
+      <c r="V28" s="24" t="s">
         <v>24</v>
       </c>
       <c r="W28" t="s">
@@ -3335,29 +3425,27 @@
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="23"/>
+      <c r="B29" s="26"/>
       <c r="C29" t="s">
         <v>107</v>
       </c>
-      <c r="F29" s="23" t="s">
-        <v>36</v>
-      </c>
+      <c r="F29" s="26"/>
       <c r="G29" t="s">
-        <v>72</v>
-      </c>
-      <c r="J29" s="22"/>
+        <v>73</v>
+      </c>
+      <c r="J29" s="25"/>
       <c r="K29" t="s">
-        <v>106</v>
-      </c>
-      <c r="N29" s="22"/>
+        <v>34</v>
+      </c>
+      <c r="N29" s="25"/>
       <c r="O29" t="s">
         <v>138</v>
       </c>
-      <c r="R29" s="22"/>
+      <c r="R29" s="25"/>
       <c r="S29" t="s">
         <v>171</v>
       </c>
-      <c r="V29" s="21"/>
+      <c r="V29" s="24"/>
       <c r="W29" t="s">
         <v>201</v>
       </c>
@@ -3366,25 +3454,25 @@
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="F30" s="23"/>
+      <c r="F30" s="26"/>
       <c r="G30" t="s">
-        <v>73</v>
-      </c>
-      <c r="J30" s="22"/>
+        <v>74</v>
+      </c>
+      <c r="J30" s="25"/>
       <c r="K30" t="s">
-        <v>34</v>
-      </c>
-      <c r="N30" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="N30" s="26" t="s">
         <v>36</v>
       </c>
       <c r="O30" t="s">
         <v>139</v>
       </c>
-      <c r="R30" s="22"/>
+      <c r="R30" s="25"/>
       <c r="S30" t="s">
         <v>172</v>
       </c>
-      <c r="V30" s="21"/>
+      <c r="V30" s="24"/>
       <c r="W30" t="s">
         <v>202</v>
       </c>
@@ -3393,49 +3481,45 @@
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="F31" s="23"/>
+      <c r="F31" s="26"/>
       <c r="G31" t="s">
-        <v>74</v>
-      </c>
-      <c r="J31" s="22"/>
+        <v>75</v>
+      </c>
+      <c r="J31" s="26" t="s">
+        <v>36</v>
+      </c>
       <c r="K31" t="s">
-        <v>35</v>
-      </c>
-      <c r="N31" s="23"/>
+        <v>40</v>
+      </c>
+      <c r="N31" s="26"/>
       <c r="O31" t="s">
         <v>140</v>
       </c>
-      <c r="R31" s="23" t="s">
+      <c r="R31" s="26" t="s">
         <v>36</v>
       </c>
       <c r="S31" t="s">
         <v>173</v>
       </c>
-      <c r="V31" s="21"/>
+      <c r="V31" s="24"/>
       <c r="W31" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="F32" s="23"/>
-      <c r="G32" t="s">
-        <v>75</v>
-      </c>
-      <c r="J32" s="23" t="s">
-        <v>36</v>
-      </c>
+      <c r="J32" s="26"/>
       <c r="K32" t="s">
-        <v>40</v>
-      </c>
-      <c r="N32" s="23"/>
+        <v>108</v>
+      </c>
+      <c r="N32" s="26"/>
       <c r="O32" t="s">
         <v>141</v>
       </c>
-      <c r="R32" s="23"/>
+      <c r="R32" s="26"/>
       <c r="S32" t="s">
         <v>174</v>
       </c>
-      <c r="V32" s="22" t="s">
+      <c r="V32" s="25" t="s">
         <v>30</v>
       </c>
       <c r="W32" t="s">
@@ -3443,53 +3527,49 @@
       </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="J33" s="23"/>
+      <c r="J33" s="26"/>
       <c r="K33" t="s">
-        <v>108</v>
-      </c>
-      <c r="N33" s="23"/>
+        <v>109</v>
+      </c>
+      <c r="N33" s="26"/>
       <c r="O33" t="s">
         <v>142</v>
       </c>
-      <c r="R33" s="23"/>
+      <c r="R33" s="26"/>
       <c r="S33" t="s">
         <v>175</v>
       </c>
-      <c r="V33" s="22"/>
+      <c r="V33" s="25"/>
       <c r="W33" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="J34" s="23"/>
+      <c r="J34" s="26"/>
       <c r="K34" t="s">
-        <v>109</v>
-      </c>
-      <c r="R34" s="23"/>
+        <v>110</v>
+      </c>
+      <c r="R34" s="26"/>
       <c r="S34" t="s">
         <v>176</v>
       </c>
-      <c r="V34" s="22"/>
+      <c r="V34" s="25"/>
       <c r="W34" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="J35" s="23"/>
+      <c r="J35" s="26"/>
       <c r="K35" t="s">
-        <v>110</v>
-      </c>
-      <c r="V35" s="22"/>
+        <v>41</v>
+      </c>
+      <c r="V35" s="25"/>
       <c r="W35" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="J36" s="23"/>
-      <c r="K36" t="s">
-        <v>41</v>
-      </c>
-      <c r="V36" s="23" t="s">
+      <c r="V36" s="26" t="s">
         <v>36</v>
       </c>
       <c r="W36" t="s">
@@ -3497,19 +3577,19 @@
       </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="V37" s="23"/>
+      <c r="V37" s="26"/>
       <c r="W37" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="V38" s="23"/>
+      <c r="V38" s="26"/>
       <c r="W38" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="V39" s="23"/>
+      <c r="V39" s="26"/>
       <c r="W39" t="s">
         <v>211</v>
       </c>
@@ -3522,7 +3602,7 @@
         <v>245</v>
       </c>
       <c r="J43" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="N43" t="s">
         <v>314</v>
@@ -3530,48 +3610,48 @@
       <c r="R43" t="s">
         <v>315</v>
       </c>
-      <c r="V43" s="25" t="s">
+      <c r="V43" s="28" t="s">
         <v>316</v>
       </c>
-      <c r="W43" s="25"/>
-      <c r="X43" s="25"/>
-      <c r="Y43" s="25"/>
+      <c r="W43" s="28"/>
+      <c r="X43" s="28"/>
+      <c r="Y43" s="28"/>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1</v>
       </c>
-      <c r="B44" s="18" t="s">
+      <c r="B44" s="21" t="s">
         <v>1</v>
       </c>
       <c r="C44" t="s">
         <v>44</v>
       </c>
-      <c r="F44" s="18" t="s">
+      <c r="F44" s="21" t="s">
         <v>1</v>
       </c>
       <c r="G44" t="s">
         <v>246</v>
       </c>
-      <c r="J44" s="18" t="s">
+      <c r="J44" s="21" t="s">
         <v>1</v>
       </c>
       <c r="K44" t="s">
         <v>280</v>
       </c>
-      <c r="N44" s="18" t="s">
+      <c r="N44" s="21" t="s">
         <v>1</v>
       </c>
       <c r="O44" t="s">
         <v>317</v>
       </c>
-      <c r="R44" s="18" t="s">
+      <c r="R44" s="21" t="s">
         <v>1</v>
       </c>
       <c r="S44" t="s">
         <v>348</v>
       </c>
-      <c r="V44" s="18" t="s">
+      <c r="V44" s="21" t="s">
         <v>1</v>
       </c>
       <c r="W44" t="s">
@@ -3582,27 +3662,27 @@
       <c r="A45" s="1">
         <v>2</v>
       </c>
-      <c r="B45" s="18"/>
+      <c r="B45" s="21"/>
       <c r="C45" t="s">
         <v>214</v>
       </c>
-      <c r="F45" s="18"/>
+      <c r="F45" s="21"/>
       <c r="G45" t="s">
         <v>247</v>
       </c>
-      <c r="J45" s="18"/>
+      <c r="J45" s="21"/>
       <c r="K45" t="s">
         <v>281</v>
       </c>
-      <c r="N45" s="18"/>
+      <c r="N45" s="21"/>
       <c r="O45" t="s">
         <v>318</v>
       </c>
-      <c r="R45" s="18"/>
+      <c r="R45" s="21"/>
       <c r="S45" t="s">
         <v>349</v>
       </c>
-      <c r="V45" s="18"/>
+      <c r="V45" s="21"/>
       <c r="W45" t="s">
         <v>379</v>
       </c>
@@ -3611,27 +3691,27 @@
       <c r="A46" s="1">
         <v>3</v>
       </c>
-      <c r="B46" s="18"/>
+      <c r="B46" s="21"/>
       <c r="C46" t="s">
         <v>213</v>
       </c>
-      <c r="F46" s="18"/>
+      <c r="F46" s="21"/>
       <c r="G46" t="s">
         <v>79</v>
       </c>
-      <c r="J46" s="18"/>
+      <c r="J46" s="21"/>
       <c r="K46" t="s">
         <v>282</v>
       </c>
-      <c r="N46" s="18"/>
+      <c r="N46" s="21"/>
       <c r="O46" t="s">
         <v>319</v>
       </c>
-      <c r="R46" s="18"/>
+      <c r="R46" s="21"/>
       <c r="S46" t="s">
-        <v>350</v>
-      </c>
-      <c r="V46" s="18"/>
+        <v>78</v>
+      </c>
+      <c r="V46" s="21"/>
       <c r="W46" t="s">
         <v>380</v>
       </c>
@@ -3640,37 +3720,35 @@
       <c r="A47" s="1">
         <v>4</v>
       </c>
-      <c r="B47" s="17" t="s">
+      <c r="B47" s="20" t="s">
         <v>5</v>
       </c>
       <c r="C47" t="s">
-        <v>215</v>
-      </c>
-      <c r="F47" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="F47" s="20" t="s">
         <v>5</v>
       </c>
       <c r="G47" t="s">
         <v>183</v>
       </c>
-      <c r="J47" s="17" t="s">
+      <c r="J47" s="20" t="s">
         <v>5</v>
       </c>
       <c r="K47" t="s">
         <v>283</v>
       </c>
-      <c r="N47" s="17" t="s">
+      <c r="N47" s="20" t="s">
         <v>5</v>
       </c>
       <c r="O47" t="s">
         <v>320</v>
       </c>
-      <c r="R47" s="17" t="s">
-        <v>5</v>
-      </c>
+      <c r="R47" s="21"/>
       <c r="S47" t="s">
-        <v>351</v>
-      </c>
-      <c r="V47" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="V47" s="20" t="s">
         <v>5</v>
       </c>
       <c r="W47" t="s">
@@ -3681,27 +3759,29 @@
       <c r="A48" s="1">
         <v>5</v>
       </c>
-      <c r="B48" s="17"/>
+      <c r="B48" s="20"/>
       <c r="C48" t="s">
-        <v>216</v>
-      </c>
-      <c r="F48" s="17"/>
+        <v>217</v>
+      </c>
+      <c r="F48" s="20"/>
       <c r="G48" t="s">
         <v>321</v>
       </c>
-      <c r="J48" s="17"/>
+      <c r="J48" s="20"/>
       <c r="K48" t="s">
         <v>284</v>
       </c>
-      <c r="N48" s="17"/>
+      <c r="N48" s="20"/>
       <c r="O48" t="s">
         <v>251</v>
       </c>
-      <c r="R48" s="17"/>
+      <c r="R48" s="20" t="s">
+        <v>5</v>
+      </c>
       <c r="S48" t="s">
-        <v>352</v>
-      </c>
-      <c r="V48" s="17"/>
+        <v>351</v>
+      </c>
+      <c r="V48" s="20"/>
       <c r="W48" t="s">
         <v>382</v>
       </c>
@@ -3710,27 +3790,27 @@
       <c r="A49" s="1">
         <v>6</v>
       </c>
-      <c r="B49" s="17"/>
+      <c r="B49" s="20"/>
       <c r="C49" t="s">
-        <v>217</v>
-      </c>
-      <c r="F49" s="17"/>
+        <v>221</v>
+      </c>
+      <c r="F49" s="20"/>
       <c r="G49" t="s">
         <v>185</v>
       </c>
-      <c r="J49" s="17"/>
+      <c r="J49" s="20"/>
       <c r="K49" t="s">
         <v>285</v>
       </c>
-      <c r="N49" s="17"/>
+      <c r="N49" s="20"/>
       <c r="O49" t="s">
         <v>322</v>
       </c>
-      <c r="R49" s="17"/>
+      <c r="R49" s="20"/>
       <c r="S49" t="s">
-        <v>353</v>
-      </c>
-      <c r="V49" s="17"/>
+        <v>352</v>
+      </c>
+      <c r="V49" s="20"/>
       <c r="W49" t="s">
         <v>383</v>
       </c>
@@ -3739,31 +3819,31 @@
       <c r="A50" s="1">
         <v>7</v>
       </c>
-      <c r="B50" s="17"/>
+      <c r="B50" s="20"/>
       <c r="C50" t="s">
-        <v>221</v>
-      </c>
-      <c r="F50" s="17"/>
+        <v>222</v>
+      </c>
+      <c r="F50" s="20"/>
       <c r="G50" t="s">
         <v>249</v>
       </c>
-      <c r="J50" s="19" t="s">
+      <c r="J50" s="22" t="s">
         <v>12</v>
       </c>
       <c r="K50" t="s">
         <v>286</v>
       </c>
-      <c r="N50" s="19" t="s">
+      <c r="N50" s="22" t="s">
         <v>12</v>
       </c>
       <c r="O50" t="s">
         <v>323</v>
       </c>
-      <c r="R50" s="17"/>
+      <c r="R50" s="20"/>
       <c r="S50" t="s">
-        <v>354</v>
-      </c>
-      <c r="V50" s="17"/>
+        <v>353</v>
+      </c>
+      <c r="V50" s="20"/>
       <c r="W50" t="s">
         <v>384</v>
       </c>
@@ -3772,27 +3852,29 @@
       <c r="A51" s="1">
         <v>8</v>
       </c>
-      <c r="B51" s="17"/>
+      <c r="B51" s="22" t="s">
+        <v>12</v>
+      </c>
       <c r="C51" t="s">
-        <v>222</v>
-      </c>
-      <c r="F51" s="17"/>
+        <v>57</v>
+      </c>
+      <c r="F51" s="20"/>
       <c r="G51" t="s">
         <v>253</v>
       </c>
-      <c r="J51" s="19"/>
+      <c r="J51" s="22"/>
       <c r="K51" t="s">
         <v>287</v>
       </c>
-      <c r="N51" s="19"/>
+      <c r="N51" s="22"/>
       <c r="O51" t="s">
         <v>324</v>
       </c>
-      <c r="R51" s="17"/>
+      <c r="R51" s="20"/>
       <c r="S51" t="s">
-        <v>355</v>
-      </c>
-      <c r="V51" s="17"/>
+        <v>354</v>
+      </c>
+      <c r="V51" s="20"/>
       <c r="W51" t="s">
         <v>385</v>
       </c>
@@ -3801,31 +3883,27 @@
       <c r="A52" s="1">
         <v>9</v>
       </c>
-      <c r="B52" s="19" t="s">
-        <v>12</v>
-      </c>
+      <c r="B52" s="22"/>
       <c r="C52" t="s">
         <v>218</v>
       </c>
-      <c r="F52" s="17"/>
+      <c r="F52" s="20"/>
       <c r="G52" t="s">
         <v>254</v>
       </c>
-      <c r="J52" s="19"/>
+      <c r="J52" s="22"/>
       <c r="K52" t="s">
         <v>288</v>
       </c>
-      <c r="N52" s="19"/>
+      <c r="N52" s="22"/>
       <c r="O52" t="s">
         <v>325</v>
       </c>
-      <c r="R52" s="19" t="s">
-        <v>12</v>
-      </c>
+      <c r="R52" s="20"/>
       <c r="S52" t="s">
-        <v>356</v>
-      </c>
-      <c r="V52" s="19" t="s">
+        <v>355</v>
+      </c>
+      <c r="V52" s="22" t="s">
         <v>12</v>
       </c>
       <c r="W52" t="s">
@@ -3836,27 +3914,29 @@
       <c r="A53" s="1">
         <v>10</v>
       </c>
-      <c r="B53" s="19"/>
+      <c r="B53" s="22"/>
       <c r="C53" t="s">
         <v>219</v>
       </c>
-      <c r="F53" s="17"/>
+      <c r="F53" s="20"/>
       <c r="G53" t="s">
         <v>255</v>
       </c>
-      <c r="J53" s="19"/>
+      <c r="J53" s="22"/>
       <c r="K53" t="s">
         <v>289</v>
       </c>
-      <c r="N53" s="19"/>
+      <c r="N53" s="22"/>
       <c r="O53" t="s">
         <v>326</v>
       </c>
-      <c r="R53" s="19"/>
+      <c r="R53" s="22" t="s">
+        <v>12</v>
+      </c>
       <c r="S53" t="s">
-        <v>357</v>
-      </c>
-      <c r="V53" s="19"/>
+        <v>356</v>
+      </c>
+      <c r="V53" s="22"/>
       <c r="W53" t="s">
         <v>387</v>
       </c>
@@ -3865,27 +3945,27 @@
       <c r="A54" s="1">
         <v>11</v>
       </c>
-      <c r="B54" s="19"/>
+      <c r="B54" s="22"/>
       <c r="C54" t="s">
         <v>220</v>
       </c>
-      <c r="F54" s="17"/>
+      <c r="F54" s="20"/>
       <c r="G54" t="s">
         <v>83</v>
       </c>
-      <c r="J54" s="19"/>
+      <c r="J54" s="22"/>
       <c r="K54" t="s">
         <v>290</v>
       </c>
-      <c r="N54" s="19"/>
+      <c r="N54" s="22"/>
       <c r="O54" t="s">
         <v>327</v>
       </c>
-      <c r="R54" s="19"/>
+      <c r="R54" s="22"/>
       <c r="S54" t="s">
-        <v>358</v>
-      </c>
-      <c r="V54" s="19"/>
+        <v>357</v>
+      </c>
+      <c r="V54" s="22"/>
       <c r="W54" t="s">
         <v>388</v>
       </c>
@@ -3894,29 +3974,29 @@
       <c r="A55" s="1">
         <v>12</v>
       </c>
-      <c r="B55" s="19"/>
+      <c r="B55" s="22"/>
       <c r="C55" t="s">
         <v>223</v>
       </c>
-      <c r="F55" s="19" t="s">
+      <c r="F55" s="22" t="s">
         <v>12</v>
       </c>
       <c r="G55" t="s">
         <v>194</v>
       </c>
-      <c r="J55" s="19"/>
+      <c r="J55" s="22"/>
       <c r="K55" t="s">
         <v>291</v>
       </c>
-      <c r="N55" s="19"/>
+      <c r="N55" s="22"/>
       <c r="O55" t="s">
         <v>328</v>
       </c>
-      <c r="R55" s="19"/>
+      <c r="R55" s="22"/>
       <c r="S55" t="s">
-        <v>359</v>
-      </c>
-      <c r="V55" s="19"/>
+        <v>358</v>
+      </c>
+      <c r="V55" s="22"/>
       <c r="W55" t="s">
         <v>389</v>
       </c>
@@ -3925,27 +4005,27 @@
       <c r="A56" s="1">
         <v>13</v>
       </c>
-      <c r="B56" s="19"/>
+      <c r="B56" s="22"/>
       <c r="C56" t="s">
         <v>224</v>
       </c>
-      <c r="F56" s="19"/>
+      <c r="F56" s="22"/>
       <c r="G56" t="s">
         <v>258</v>
       </c>
-      <c r="J56" s="19"/>
+      <c r="J56" s="22"/>
       <c r="K56" t="s">
         <v>292</v>
       </c>
-      <c r="N56" s="19"/>
+      <c r="N56" s="22"/>
       <c r="O56" t="s">
         <v>329</v>
       </c>
-      <c r="R56" s="19"/>
+      <c r="R56" s="22"/>
       <c r="S56" t="s">
-        <v>360</v>
-      </c>
-      <c r="V56" s="19"/>
+        <v>359</v>
+      </c>
+      <c r="V56" s="22"/>
       <c r="W56" t="s">
         <v>390</v>
       </c>
@@ -3954,27 +4034,27 @@
       <c r="A57" s="1">
         <v>14</v>
       </c>
-      <c r="B57" s="19"/>
+      <c r="B57" s="22"/>
       <c r="C57" t="s">
         <v>227</v>
       </c>
-      <c r="F57" s="19"/>
+      <c r="F57" s="22"/>
       <c r="G57" t="s">
         <v>90</v>
       </c>
-      <c r="J57" s="19"/>
+      <c r="J57" s="22"/>
       <c r="K57" t="s">
         <v>293</v>
       </c>
-      <c r="N57" s="19"/>
+      <c r="N57" s="22"/>
       <c r="O57" t="s">
         <v>257</v>
       </c>
-      <c r="R57" s="19"/>
+      <c r="R57" s="22"/>
       <c r="S57" t="s">
-        <v>361</v>
-      </c>
-      <c r="V57" s="19"/>
+        <v>360</v>
+      </c>
+      <c r="V57" s="22"/>
       <c r="W57" t="s">
         <v>391</v>
       </c>
@@ -3983,27 +4063,27 @@
       <c r="A58" s="1">
         <v>15</v>
       </c>
-      <c r="B58" s="19"/>
+      <c r="B58" s="22"/>
       <c r="C58" t="s">
         <v>228</v>
       </c>
-      <c r="F58" s="19"/>
+      <c r="F58" s="22"/>
       <c r="G58" t="s">
         <v>260</v>
       </c>
-      <c r="J58" s="19"/>
+      <c r="J58" s="22"/>
       <c r="K58" t="s">
         <v>294</v>
       </c>
-      <c r="N58" s="19"/>
+      <c r="N58" s="22"/>
       <c r="O58" t="s">
         <v>263</v>
       </c>
-      <c r="R58" s="19"/>
+      <c r="R58" s="22"/>
       <c r="S58" t="s">
-        <v>362</v>
-      </c>
-      <c r="V58" s="19"/>
+        <v>361</v>
+      </c>
+      <c r="V58" s="22"/>
       <c r="W58" t="s">
         <v>392</v>
       </c>
@@ -4012,29 +4092,27 @@
       <c r="A59" s="1">
         <v>16</v>
       </c>
-      <c r="B59" s="19"/>
+      <c r="B59" s="22"/>
       <c r="C59" t="s">
         <v>229</v>
       </c>
-      <c r="F59" s="19"/>
+      <c r="F59" s="22"/>
       <c r="G59" t="s">
         <v>262</v>
       </c>
-      <c r="J59" s="19"/>
+      <c r="J59" s="22"/>
       <c r="K59" t="s">
         <v>295</v>
       </c>
-      <c r="N59" s="19"/>
+      <c r="N59" s="22"/>
       <c r="O59" t="s">
         <v>330</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="R59" s="22"/>
       <c r="S59" t="s">
-        <v>363</v>
-      </c>
-      <c r="V59" s="19"/>
+        <v>362</v>
+      </c>
+      <c r="V59" s="22"/>
       <c r="W59" t="s">
         <v>393</v>
       </c>
@@ -4043,35 +4121,33 @@
       <c r="A60" s="1">
         <v>17</v>
       </c>
-      <c r="B60" s="20" t="s">
-        <v>18</v>
-      </c>
+      <c r="B60" s="22"/>
       <c r="C60" t="s">
-        <v>233</v>
-      </c>
-      <c r="F60" s="19"/>
+        <v>55</v>
+      </c>
+      <c r="F60" s="22"/>
       <c r="G60" t="s">
         <v>259</v>
       </c>
-      <c r="J60" s="20" t="s">
+      <c r="J60" s="23" t="s">
         <v>18</v>
       </c>
       <c r="K60" t="s">
         <v>296</v>
       </c>
-      <c r="N60" s="20" t="s">
+      <c r="N60" s="23" t="s">
         <v>18</v>
       </c>
       <c r="O60" t="s">
         <v>331</v>
       </c>
-      <c r="R60" s="21" t="s">
-        <v>24</v>
+      <c r="R60" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="S60" t="s">
-        <v>364</v>
-      </c>
-      <c r="V60" s="20" t="s">
+        <v>363</v>
+      </c>
+      <c r="V60" s="23" t="s">
         <v>18</v>
       </c>
       <c r="W60" t="s">
@@ -4082,27 +4158,31 @@
       <c r="A61" s="1">
         <v>18</v>
       </c>
-      <c r="B61" s="20"/>
+      <c r="B61" s="23" t="s">
+        <v>18</v>
+      </c>
       <c r="C61" t="s">
-        <v>230</v>
-      </c>
-      <c r="F61" s="19"/>
+        <v>233</v>
+      </c>
+      <c r="F61" s="22"/>
       <c r="G61" t="s">
         <v>92</v>
       </c>
-      <c r="J61" s="20"/>
+      <c r="J61" s="23"/>
       <c r="K61" t="s">
         <v>297</v>
       </c>
-      <c r="N61" s="20"/>
+      <c r="N61" s="23"/>
       <c r="O61" t="s">
         <v>332</v>
       </c>
-      <c r="R61" s="21"/>
+      <c r="R61" s="24" t="s">
+        <v>24</v>
+      </c>
       <c r="S61" t="s">
-        <v>365</v>
-      </c>
-      <c r="V61" s="20"/>
+        <v>364</v>
+      </c>
+      <c r="V61" s="23"/>
       <c r="W61" t="s">
         <v>395</v>
       </c>
@@ -4111,29 +4191,29 @@
       <c r="A62" s="1">
         <v>19</v>
       </c>
-      <c r="B62" s="20"/>
+      <c r="B62" s="23"/>
       <c r="C62" t="s">
-        <v>231</v>
-      </c>
-      <c r="F62" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="F62" s="23" t="s">
         <v>18</v>
       </c>
       <c r="G62" t="s">
         <v>264</v>
       </c>
-      <c r="J62" s="20"/>
+      <c r="J62" s="23"/>
       <c r="K62" t="s">
         <v>298</v>
       </c>
-      <c r="N62" s="20"/>
+      <c r="N62" s="23"/>
       <c r="O62" t="s">
         <v>333</v>
       </c>
-      <c r="R62" s="21"/>
+      <c r="R62" s="24"/>
       <c r="S62" t="s">
-        <v>366</v>
-      </c>
-      <c r="V62" s="20"/>
+        <v>365</v>
+      </c>
+      <c r="V62" s="23"/>
       <c r="W62" t="s">
         <v>396</v>
       </c>
@@ -4142,29 +4222,29 @@
       <c r="A63" s="1">
         <v>20</v>
       </c>
-      <c r="B63" s="20"/>
+      <c r="B63" s="23"/>
       <c r="C63" t="s">
-        <v>232</v>
-      </c>
-      <c r="F63" s="20"/>
+        <v>231</v>
+      </c>
+      <c r="F63" s="23"/>
       <c r="G63" t="s">
         <v>265</v>
       </c>
-      <c r="J63" s="21" t="s">
+      <c r="J63" s="24" t="s">
         <v>24</v>
       </c>
       <c r="K63" t="s">
         <v>299</v>
       </c>
-      <c r="N63" s="20"/>
+      <c r="N63" s="23"/>
       <c r="O63" t="s">
         <v>334</v>
       </c>
-      <c r="R63" s="21"/>
+      <c r="R63" s="24"/>
       <c r="S63" t="s">
-        <v>367</v>
-      </c>
-      <c r="V63" s="20"/>
+        <v>366</v>
+      </c>
+      <c r="V63" s="23"/>
       <c r="W63" t="s">
         <v>397</v>
       </c>
@@ -4173,27 +4253,27 @@
       <c r="A64" s="1">
         <v>21</v>
       </c>
-      <c r="B64" s="20"/>
+      <c r="B64" s="23"/>
       <c r="C64" t="s">
-        <v>61</v>
-      </c>
-      <c r="F64" s="20"/>
+        <v>232</v>
+      </c>
+      <c r="F64" s="23"/>
       <c r="G64" t="s">
         <v>266</v>
       </c>
-      <c r="J64" s="21"/>
+      <c r="J64" s="24"/>
       <c r="K64" t="s">
         <v>300</v>
       </c>
-      <c r="N64" s="20"/>
+      <c r="N64" s="23"/>
       <c r="O64" t="s">
         <v>335</v>
       </c>
-      <c r="R64" s="21"/>
+      <c r="R64" s="24"/>
       <c r="S64" t="s">
-        <v>368</v>
-      </c>
-      <c r="V64" s="21" t="s">
+        <v>367</v>
+      </c>
+      <c r="V64" s="24" t="s">
         <v>24</v>
       </c>
       <c r="W64" t="s">
@@ -4204,33 +4284,29 @@
       <c r="A65" s="1">
         <v>22</v>
       </c>
-      <c r="B65" s="21" t="s">
-        <v>24</v>
-      </c>
+      <c r="B65" s="23"/>
       <c r="C65" t="s">
-        <v>234</v>
-      </c>
-      <c r="F65" s="20"/>
+        <v>61</v>
+      </c>
+      <c r="F65" s="23"/>
       <c r="G65" t="s">
         <v>267</v>
       </c>
-      <c r="J65" s="21"/>
+      <c r="J65" s="24"/>
       <c r="K65" t="s">
         <v>301</v>
       </c>
-      <c r="N65" s="21" t="s">
+      <c r="N65" s="24" t="s">
         <v>24</v>
       </c>
       <c r="O65" t="s">
         <v>336</v>
       </c>
-      <c r="R65" s="22" t="s">
-        <v>30</v>
-      </c>
+      <c r="R65" s="24"/>
       <c r="S65" t="s">
-        <v>369</v>
-      </c>
-      <c r="V65" s="21"/>
+        <v>368</v>
+      </c>
+      <c r="V65" s="24"/>
       <c r="W65" t="s">
         <v>399</v>
       </c>
@@ -4239,29 +4315,33 @@
       <c r="A66" s="1">
         <v>23</v>
       </c>
-      <c r="B66" s="21"/>
+      <c r="B66" s="24" t="s">
+        <v>24</v>
+      </c>
       <c r="C66" t="s">
-        <v>235</v>
-      </c>
-      <c r="F66" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="F66" s="24" t="s">
         <v>24</v>
       </c>
       <c r="G66" t="s">
         <v>268</v>
       </c>
-      <c r="J66" s="21"/>
+      <c r="J66" s="24"/>
       <c r="K66" t="s">
         <v>302</v>
       </c>
-      <c r="N66" s="21"/>
+      <c r="N66" s="24"/>
       <c r="O66" t="s">
         <v>337</v>
       </c>
-      <c r="R66" s="22"/>
+      <c r="R66" s="25" t="s">
+        <v>30</v>
+      </c>
       <c r="S66" t="s">
-        <v>370</v>
-      </c>
-      <c r="V66" s="21"/>
+        <v>369</v>
+      </c>
+      <c r="V66" s="24"/>
       <c r="W66" t="s">
         <v>400</v>
       </c>
@@ -4270,27 +4350,27 @@
       <c r="A67" s="1">
         <v>24</v>
       </c>
-      <c r="B67" s="21"/>
+      <c r="B67" s="24"/>
       <c r="C67" t="s">
-        <v>236</v>
-      </c>
-      <c r="F67" s="21"/>
+        <v>235</v>
+      </c>
+      <c r="F67" s="24"/>
       <c r="G67" t="s">
         <v>269</v>
       </c>
-      <c r="J67" s="21"/>
+      <c r="J67" s="24"/>
       <c r="K67" t="s">
         <v>303</v>
       </c>
-      <c r="N67" s="21"/>
+      <c r="N67" s="24"/>
       <c r="O67" t="s">
         <v>338</v>
       </c>
-      <c r="R67" s="22"/>
+      <c r="R67" s="25"/>
       <c r="S67" t="s">
-        <v>371</v>
-      </c>
-      <c r="V67" s="21"/>
+        <v>370</v>
+      </c>
+      <c r="V67" s="24"/>
       <c r="W67" t="s">
         <v>401</v>
       </c>
@@ -4299,27 +4379,27 @@
       <c r="A68" s="1">
         <v>25</v>
       </c>
-      <c r="B68" s="21"/>
+      <c r="B68" s="24"/>
       <c r="C68" t="s">
-        <v>237</v>
-      </c>
-      <c r="F68" s="21"/>
+        <v>236</v>
+      </c>
+      <c r="F68" s="24"/>
       <c r="G68" t="s">
         <v>270</v>
       </c>
-      <c r="J68" s="21"/>
+      <c r="J68" s="24"/>
       <c r="K68" t="s">
         <v>304</v>
       </c>
-      <c r="N68" s="21"/>
+      <c r="N68" s="24"/>
       <c r="O68" t="s">
         <v>342</v>
       </c>
-      <c r="R68" s="22"/>
+      <c r="R68" s="25"/>
       <c r="S68" t="s">
-        <v>372</v>
-      </c>
-      <c r="V68" s="22" t="s">
+        <v>371</v>
+      </c>
+      <c r="V68" s="25" t="s">
         <v>30</v>
       </c>
       <c r="W68" t="s">
@@ -4330,31 +4410,29 @@
       <c r="A69" s="1">
         <v>26</v>
       </c>
-      <c r="B69" s="21"/>
+      <c r="B69" s="24"/>
       <c r="C69" t="s">
-        <v>238</v>
-      </c>
-      <c r="F69" s="21"/>
+        <v>237</v>
+      </c>
+      <c r="F69" s="24"/>
       <c r="G69" t="s">
         <v>101</v>
       </c>
-      <c r="J69" s="21"/>
+      <c r="J69" s="24"/>
       <c r="K69" t="s">
         <v>305</v>
       </c>
-      <c r="N69" s="22" t="s">
+      <c r="N69" s="25" t="s">
         <v>30</v>
       </c>
       <c r="O69" t="s">
         <v>339</v>
       </c>
-      <c r="R69" s="23" t="s">
-        <v>36</v>
-      </c>
+      <c r="R69" s="25"/>
       <c r="S69" t="s">
-        <v>373</v>
-      </c>
-      <c r="V69" s="22"/>
+        <v>372</v>
+      </c>
+      <c r="V69" s="25"/>
       <c r="W69" t="s">
         <v>403</v>
       </c>
@@ -4363,33 +4441,33 @@
       <c r="A70" s="1">
         <v>27</v>
       </c>
-      <c r="B70" s="22" t="s">
-        <v>30</v>
-      </c>
+      <c r="B70" s="24"/>
       <c r="C70" t="s">
-        <v>239</v>
-      </c>
-      <c r="F70" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="F70" s="25" t="s">
         <v>30</v>
       </c>
       <c r="G70" t="s">
         <v>271</v>
       </c>
-      <c r="J70" s="22" t="s">
+      <c r="J70" s="25" t="s">
         <v>30</v>
       </c>
       <c r="K70" t="s">
         <v>306</v>
       </c>
-      <c r="N70" s="22"/>
+      <c r="N70" s="25"/>
       <c r="O70" t="s">
         <v>340</v>
       </c>
-      <c r="R70" s="23"/>
+      <c r="R70" s="26" t="s">
+        <v>36</v>
+      </c>
       <c r="S70" t="s">
-        <v>374</v>
-      </c>
-      <c r="V70" s="22"/>
+        <v>373</v>
+      </c>
+      <c r="V70" s="25"/>
       <c r="W70" t="s">
         <v>404</v>
       </c>
@@ -4398,27 +4476,29 @@
       <c r="A71" s="1">
         <v>28</v>
       </c>
-      <c r="B71" s="22"/>
+      <c r="B71" s="25" t="s">
+        <v>30</v>
+      </c>
       <c r="C71" t="s">
-        <v>240</v>
-      </c>
-      <c r="F71" s="22"/>
+        <v>239</v>
+      </c>
+      <c r="F71" s="25"/>
       <c r="G71" t="s">
         <v>272</v>
       </c>
-      <c r="J71" s="22"/>
+      <c r="J71" s="25"/>
       <c r="K71" t="s">
         <v>307</v>
       </c>
-      <c r="N71" s="22"/>
+      <c r="N71" s="25"/>
       <c r="O71" t="s">
         <v>341</v>
       </c>
-      <c r="R71" s="23"/>
+      <c r="R71" s="26"/>
       <c r="S71" t="s">
-        <v>375</v>
-      </c>
-      <c r="V71" s="22"/>
+        <v>374</v>
+      </c>
+      <c r="V71" s="25"/>
       <c r="W71" t="s">
         <v>405</v>
       </c>
@@ -4427,27 +4507,27 @@
       <c r="A72" s="1">
         <v>29</v>
       </c>
-      <c r="B72" s="22"/>
+      <c r="B72" s="25"/>
       <c r="C72" t="s">
-        <v>241</v>
-      </c>
-      <c r="F72" s="22"/>
+        <v>240</v>
+      </c>
+      <c r="F72" s="25"/>
       <c r="G72" t="s">
         <v>273</v>
       </c>
-      <c r="J72" s="22"/>
+      <c r="J72" s="25"/>
       <c r="K72" t="s">
         <v>308</v>
       </c>
-      <c r="N72" s="22"/>
+      <c r="N72" s="25"/>
       <c r="O72" t="s">
         <v>343</v>
       </c>
-      <c r="R72" s="23"/>
+      <c r="R72" s="26"/>
       <c r="S72" t="s">
-        <v>376</v>
-      </c>
-      <c r="V72" s="22"/>
+        <v>375</v>
+      </c>
+      <c r="V72" s="25"/>
       <c r="W72" t="s">
         <v>406</v>
       </c>
@@ -4456,31 +4536,29 @@
       <c r="A73" s="1">
         <v>30</v>
       </c>
-      <c r="B73" s="23" t="s">
-        <v>36</v>
-      </c>
+      <c r="B73" s="25"/>
       <c r="C73" t="s">
-        <v>242</v>
-      </c>
-      <c r="F73" s="22"/>
+        <v>241</v>
+      </c>
+      <c r="F73" s="25"/>
       <c r="G73" t="s">
         <v>274</v>
       </c>
-      <c r="J73" s="22"/>
+      <c r="J73" s="25"/>
       <c r="K73" t="s">
         <v>309</v>
       </c>
-      <c r="N73" s="23" t="s">
+      <c r="N73" s="26" t="s">
         <v>36</v>
       </c>
       <c r="O73" t="s">
         <v>344</v>
       </c>
-      <c r="R73" s="23"/>
+      <c r="R73" s="26"/>
       <c r="S73" t="s">
-        <v>377</v>
-      </c>
-      <c r="V73" s="23" t="s">
+        <v>376</v>
+      </c>
+      <c r="V73" s="26" t="s">
         <v>36</v>
       </c>
       <c r="W73" t="s">
@@ -4488,83 +4566,93 @@
       </c>
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B74" s="23"/>
+      <c r="B74" s="26" t="s">
+        <v>36</v>
+      </c>
       <c r="C74" t="s">
-        <v>243</v>
-      </c>
-      <c r="F74" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="F74" s="26" t="s">
         <v>36</v>
       </c>
       <c r="G74" t="s">
         <v>275</v>
       </c>
-      <c r="J74" s="23" t="s">
+      <c r="J74" s="26" t="s">
         <v>36</v>
       </c>
       <c r="K74" t="s">
         <v>310</v>
       </c>
-      <c r="N74" s="23"/>
+      <c r="N74" s="26"/>
       <c r="O74" t="s">
         <v>345</v>
       </c>
-      <c r="V74" s="23"/>
+      <c r="R74" s="26"/>
+      <c r="S74" t="s">
+        <v>377</v>
+      </c>
+      <c r="V74" s="26"/>
       <c r="W74" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B75" s="23"/>
+      <c r="B75" s="26"/>
       <c r="C75" t="s">
-        <v>244</v>
-      </c>
-      <c r="F75" s="23"/>
+        <v>243</v>
+      </c>
+      <c r="F75" s="26"/>
       <c r="G75" t="s">
         <v>276</v>
       </c>
-      <c r="J75" s="23"/>
+      <c r="J75" s="26"/>
       <c r="K75" t="s">
         <v>311</v>
       </c>
-      <c r="N75" s="23"/>
+      <c r="N75" s="26"/>
       <c r="O75" t="s">
         <v>346</v>
       </c>
-      <c r="V75" s="23"/>
+      <c r="V75" s="26"/>
       <c r="W75" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="F76" s="23"/>
+      <c r="B76" s="26"/>
+      <c r="C76" t="s">
+        <v>244</v>
+      </c>
+      <c r="F76" s="26"/>
       <c r="G76" t="s">
         <v>277</v>
       </c>
-      <c r="J76" s="23"/>
+      <c r="J76" s="26"/>
       <c r="K76" t="s">
         <v>312</v>
       </c>
-      <c r="N76" s="23"/>
+      <c r="N76" s="26"/>
       <c r="O76" t="s">
         <v>347</v>
       </c>
-      <c r="V76" s="23"/>
+      <c r="V76" s="26"/>
       <c r="W76" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="F77" s="23"/>
+      <c r="F77" s="26"/>
       <c r="G77" t="s">
         <v>278</v>
       </c>
-      <c r="J77" s="23"/>
+      <c r="J77" s="26"/>
       <c r="K77" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="F78" s="23"/>
+      <c r="F78" s="26"/>
       <c r="G78" t="s">
         <v>279</v>
       </c>
@@ -4573,10 +4661,9 @@
   <mergeCells count="85">
     <mergeCell ref="V68:V72"/>
     <mergeCell ref="V73:V76"/>
-    <mergeCell ref="R65:R68"/>
-    <mergeCell ref="R69:R73"/>
-    <mergeCell ref="F10:F17"/>
-    <mergeCell ref="J12:J17"/>
+    <mergeCell ref="R66:R69"/>
+    <mergeCell ref="R70:R74"/>
+    <mergeCell ref="J11:J16"/>
     <mergeCell ref="R31:R34"/>
     <mergeCell ref="V43:Y43"/>
     <mergeCell ref="V44:V46"/>
@@ -4586,49 +4673,46 @@
     <mergeCell ref="V64:V67"/>
     <mergeCell ref="V32:V35"/>
     <mergeCell ref="V36:V39"/>
+    <mergeCell ref="J63:J69"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B4:B9"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="B10:B15"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="R4:R9"/>
-    <mergeCell ref="R10:R19"/>
-    <mergeCell ref="R20:R21"/>
-    <mergeCell ref="R22:R25"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="N4:N10"/>
     <mergeCell ref="N11:N16"/>
     <mergeCell ref="N17:N18"/>
     <mergeCell ref="N19:N23"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="J18:J21"/>
-    <mergeCell ref="J22:J25"/>
-    <mergeCell ref="R60:R64"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="R4:R9"/>
+    <mergeCell ref="R10:R19"/>
+    <mergeCell ref="R20:R21"/>
+    <mergeCell ref="R22:R25"/>
+    <mergeCell ref="R61:R65"/>
     <mergeCell ref="N24:N29"/>
     <mergeCell ref="N30:N33"/>
     <mergeCell ref="R26:R30"/>
     <mergeCell ref="J44:J46"/>
     <mergeCell ref="J47:J49"/>
     <mergeCell ref="J50:J59"/>
-    <mergeCell ref="R44:R46"/>
-    <mergeCell ref="R47:R51"/>
-    <mergeCell ref="R52:R58"/>
-    <mergeCell ref="J32:J36"/>
-    <mergeCell ref="J26:J31"/>
-    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="R48:R52"/>
+    <mergeCell ref="R53:R59"/>
+    <mergeCell ref="J31:J35"/>
+    <mergeCell ref="J25:J30"/>
+    <mergeCell ref="R44:R47"/>
     <mergeCell ref="V2:V5"/>
     <mergeCell ref="V25:V27"/>
     <mergeCell ref="V28:V31"/>
     <mergeCell ref="V6:V12"/>
     <mergeCell ref="V13:V24"/>
-    <mergeCell ref="B65:B69"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="B66:B70"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="B74:B76"/>
     <mergeCell ref="F62:F65"/>
     <mergeCell ref="F70:F73"/>
     <mergeCell ref="F66:F69"/>
     <mergeCell ref="F74:F78"/>
-    <mergeCell ref="J63:J69"/>
     <mergeCell ref="J70:J73"/>
     <mergeCell ref="J74:J77"/>
     <mergeCell ref="N44:N46"/>
@@ -4639,23 +4723,27 @@
     <mergeCell ref="N73:N76"/>
     <mergeCell ref="N50:N59"/>
     <mergeCell ref="J60:J62"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B61:B65"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="F20:F23"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="F28:F31"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="B51:B60"/>
     <mergeCell ref="F47:F54"/>
     <mergeCell ref="F44:F46"/>
     <mergeCell ref="F55:F61"/>
-    <mergeCell ref="J5:J11"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B47:B51"/>
-    <mergeCell ref="B52:B59"/>
-    <mergeCell ref="B60:B64"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="J4:J10"/>
     <mergeCell ref="F2:F5"/>
-    <mergeCell ref="F21:F24"/>
-    <mergeCell ref="F25:F28"/>
-    <mergeCell ref="F29:F32"/>
-    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="J17:J20"/>
+    <mergeCell ref="J21:J24"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="F11:F16"/>
+    <mergeCell ref="F6:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4663,10 +4751,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z39"/>
+  <dimension ref="A1:Z50"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4687,543 +4775,610 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="E1" s="25" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="E1" s="28" t="s">
         <v>412</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
       <c r="J1" t="s">
         <v>411</v>
       </c>
-      <c r="O1" s="25" t="s">
+      <c r="O1" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="T1" s="25" t="s">
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="T1" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-      <c r="X1" s="25" t="s">
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="X1" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="25"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B2" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="E2" t="s">
-        <v>594</v>
-      </c>
-      <c r="F2" t="s">
-        <v>496</v>
+        <v>590</v>
       </c>
       <c r="J2" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="K2" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="O2" t="s">
-        <v>413</v>
+        <v>640</v>
       </c>
       <c r="P2" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="T2" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="U2" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="X2" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>413</v>
+      </c>
+      <c r="B3" t="s">
+        <v>487</v>
+      </c>
+      <c r="E3" t="s">
         <v>414</v>
       </c>
-      <c r="B3" t="s">
-        <v>491</v>
-      </c>
-      <c r="E3" t="s">
-        <v>416</v>
-      </c>
       <c r="F3" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="J3" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="K3" t="s">
-        <v>498</v>
+        <v>528</v>
       </c>
       <c r="O3" t="s">
-        <v>415</v>
+        <v>641</v>
       </c>
       <c r="P3" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="T3" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="U3" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="X3" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="Y3" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>592</v>
+      </c>
+      <c r="B4" t="s">
+        <v>498</v>
+      </c>
+      <c r="E4" t="s">
+        <v>591</v>
+      </c>
+      <c r="F4" t="s">
+        <v>496</v>
+      </c>
+      <c r="J4" t="s">
         <v>596</v>
       </c>
-      <c r="B4" t="s">
-        <v>502</v>
-      </c>
-      <c r="E4" t="s">
-        <v>595</v>
-      </c>
-      <c r="F4" t="s">
-        <v>500</v>
-      </c>
-      <c r="J4" t="s">
-        <v>600</v>
-      </c>
       <c r="K4" t="s">
-        <v>514</v>
+        <v>494</v>
       </c>
       <c r="O4" t="s">
-        <v>418</v>
+        <v>642</v>
       </c>
       <c r="P4" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="T4" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="U4" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="X4" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="Y4" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="B5" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="E5" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="G5" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="J5" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="K5" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="O5" t="s">
-        <v>421</v>
+        <v>643</v>
       </c>
       <c r="P5" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="T5" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="U5" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="Y5" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="E6" t="s">
-        <v>610</v>
+        <v>606</v>
+      </c>
+      <c r="K6" t="s">
+        <v>511</v>
       </c>
       <c r="P6" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="T6" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="U6" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="Y6" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>493</v>
-      </c>
-      <c r="E7" t="s">
-        <v>615</v>
+        <v>489</v>
       </c>
       <c r="T7" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="E8" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="T8" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="T9" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="28" t="s">
         <v>212</v>
       </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
       <c r="E17" t="s">
-        <v>424</v>
-      </c>
-      <c r="I17" s="25" t="s">
-        <v>425</v>
-      </c>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="N17" s="25" t="s">
+        <v>420</v>
+      </c>
+      <c r="I17" s="28" t="s">
+        <v>421</v>
+      </c>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="N17" s="28" t="s">
         <v>314</v>
       </c>
-      <c r="O17" s="25"/>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="25"/>
-      <c r="S17" s="25" t="s">
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="28"/>
+      <c r="S17" s="28" t="s">
         <v>315</v>
       </c>
-      <c r="T17" s="25"/>
-      <c r="U17" s="25"/>
-      <c r="V17" s="25"/>
+      <c r="T17" s="28"/>
+      <c r="U17" s="28"/>
+      <c r="V17" s="28"/>
       <c r="X17" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="B18" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="E18" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="F18" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="J18" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="K18" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="O18" t="s">
-        <v>621</v>
+        <v>424</v>
       </c>
       <c r="P18" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="T18" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="U18" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="X18" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="Y18" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>632</v>
+        <v>613</v>
       </c>
       <c r="B19" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
       <c r="E19" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="F19" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="J19" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="K19" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="O19" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="P19" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="T19" t="s">
-        <v>635</v>
-      </c>
-      <c r="U19" t="s">
-        <v>532</v>
+        <v>631</v>
       </c>
       <c r="X19" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="Y19" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>606</v>
+        <v>628</v>
       </c>
       <c r="B20" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="E20" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="F20" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="J20" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="K20" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="O20" t="s">
-        <v>428</v>
+        <v>617</v>
       </c>
       <c r="P20" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="T20" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="U20" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="X20" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="Y20" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="B21" t="s">
-        <v>508</v>
+        <v>493</v>
       </c>
       <c r="E21" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="F21" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="J21" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="K21" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="O21" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="P21" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="T21" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="U21" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="X21" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="Y21" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>623</v>
+        <v>608</v>
       </c>
       <c r="B22" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="E22" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="F22" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="K22" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="O22" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="P22" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="U22" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="X22" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="Y22" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>636</v>
+        <v>619</v>
       </c>
       <c r="B23" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="E23" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="O23" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>436</v>
+        <v>632</v>
       </c>
       <c r="B24" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="E24" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="O24" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>432</v>
+      </c>
+      <c r="B25" t="s">
+        <v>506</v>
+      </c>
       <c r="E25" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="O25" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C30" s="2" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C31" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C32" s="2" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="33" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C33" s="2" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="34" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C34" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="35" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C35" s="2" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C34" s="2" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="35" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C35" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="36" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C36" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="H36" s="2"/>
+    </row>
+    <row r="37" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C37" s="2" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="38" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C38" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="H36" s="2"/>
-    </row>
-    <row r="37" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C37" s="2" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="38" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C38" s="2" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="39" spans="3:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C39" s="2" t="s">
-        <v>451</v>
+        <v>447</v>
+      </c>
+      <c r="J39" s="17" t="s">
+        <v>633</v>
+      </c>
+      <c r="K39" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="40" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="J40" s="18" t="s">
+        <v>634</v>
+      </c>
+      <c r="K40" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="41" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J41" s="19" t="s">
+        <v>572</v>
+      </c>
+      <c r="K41" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="42" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="J42" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="43" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="J43" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="44" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="J44" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="45" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="J45" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="46" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="J46" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="47" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="J47" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="48" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="J48" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="49" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J49" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="50" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J50" t="s">
+        <v>646</v>
       </c>
     </row>
   </sheetData>
@@ -5259,134 +5414,134 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B1" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B2" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B3" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B4" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="B5" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B6" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B7" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B8" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B9" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B10" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B11" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B12" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
   </sheetData>
@@ -5409,10 +5564,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K80"/>
+  <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B80" sqref="A70:B80"/>
+    <sheetView topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="A92" sqref="A92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5432,7 +5587,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>226</v>
@@ -5440,7 +5595,7 @@
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>44</v>
@@ -5449,10 +5604,10 @@
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
@@ -5465,13 +5620,13 @@
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="11" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="11" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -5480,7 +5635,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>90</v>
@@ -5489,19 +5644,19 @@
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="11" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="11" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="11" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -5513,37 +5668,37 @@
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="11" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="11" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="11" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="11" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="B17" s="8" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>86</v>
@@ -5558,7 +5713,7 @@
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
       <c r="B21" s="11" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -5570,7 +5725,7 @@
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="11" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -5582,19 +5737,19 @@
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="12" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="11" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
       <c r="B27" s="11" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -5603,7 +5758,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>17</v>
@@ -5618,49 +5773,49 @@
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="10"/>
       <c r="B31" s="11" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
       <c r="B32" s="11" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="10"/>
       <c r="B33" s="12" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="10"/>
       <c r="B34" s="12" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="10"/>
       <c r="B35" s="12" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="10"/>
       <c r="B36" s="12" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="10"/>
       <c r="B37" s="12" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="10"/>
       <c r="B38" s="11" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -5672,13 +5827,13 @@
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="10"/>
       <c r="B40" s="11" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="10"/>
       <c r="B41" s="11" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -5696,7 +5851,7 @@
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="10"/>
       <c r="B44" s="12" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5708,27 +5863,27 @@
     <row r="46" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="10"/>
       <c r="B48" s="11" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="10"/>
       <c r="B49" s="11" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>225</v>
@@ -5737,28 +5892,28 @@
     <row r="52" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="10"/>
       <c r="B54" s="15" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="10"/>
       <c r="B55" s="15" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="10"/>
       <c r="B56" s="15" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -5767,7 +5922,7 @@
     </row>
     <row r="58" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="B58" s="16" t="s">
         <v>321</v>
@@ -5776,24 +5931,24 @@
     <row r="60" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>48</v>
@@ -5802,33 +5957,33 @@
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="10"/>
       <c r="B65" s="11" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="10"/>
       <c r="B67" s="11" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="7"/>
       <c r="B68" s="8" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>183</v>
@@ -5837,27 +5992,27 @@
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="10"/>
       <c r="B71" s="11" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="10"/>
       <c r="B72" s="11" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="10"/>
       <c r="B73" s="11" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -5893,7 +6048,55 @@
     <row r="80" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="7"/>
       <c r="B80" s="8" t="s">
-        <v>581</v>
+        <v>577</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="7" t="s">
+        <v>648</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>650</v>
+      </c>
+      <c r="B87" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>651</v>
+      </c>
+      <c r="B88" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/OffSeason.xlsx
+++ b/OffSeason.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7035"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Rosters" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="658">
   <si>
     <t>Chubber for Chubb - John Olson</t>
   </si>
@@ -1986,6 +1986,21 @@
   </si>
   <si>
     <t>2021 1st (Ben)</t>
+  </si>
+  <si>
+    <t>Devin Mccourty</t>
+  </si>
+  <si>
+    <t>2021 1st ( Ben)</t>
+  </si>
+  <si>
+    <t>2021 1st (Adam)</t>
+  </si>
+  <si>
+    <t>2021 2nd (Ben)</t>
+  </si>
+  <si>
+    <t>2021 2nd (Adam)</t>
   </si>
 </sst>
 </file>
@@ -2217,13 +2232,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2232,17 +2256,8 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2525,29 +2540,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y78"/>
+  <dimension ref="A1:Y80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="6.26953125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.26953125" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.1796875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B1" s="27" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="B1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
       <c r="F1" t="s">
         <v>42</v>
       </c>
@@ -2564,263 +2579,263 @@
         <v>177</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="24" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="24" t="s">
         <v>1</v>
       </c>
       <c r="G2" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="21" t="s">
+      <c r="J2" s="24" t="s">
         <v>1</v>
       </c>
       <c r="K2" t="s">
         <v>77</v>
       </c>
-      <c r="N2" s="21" t="s">
+      <c r="N2" s="24" t="s">
         <v>1</v>
       </c>
       <c r="O2" t="s">
         <v>112</v>
       </c>
-      <c r="R2" s="21" t="s">
+      <c r="R2" s="24" t="s">
         <v>1</v>
       </c>
       <c r="S2" t="s">
         <v>144</v>
       </c>
-      <c r="V2" s="21" t="s">
+      <c r="V2" s="24" t="s">
         <v>1</v>
       </c>
       <c r="W2" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="21"/>
+      <c r="B3" s="24"/>
       <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="21"/>
+      <c r="F3" s="24"/>
       <c r="G3" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="21"/>
+      <c r="J3" s="24"/>
       <c r="K3" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="21"/>
+      <c r="N3" s="24"/>
       <c r="O3" t="s">
         <v>104</v>
       </c>
-      <c r="R3" s="21"/>
+      <c r="R3" s="24"/>
       <c r="S3" t="s">
         <v>145</v>
       </c>
-      <c r="V3" s="21"/>
+      <c r="V3" s="24"/>
       <c r="W3" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="25" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="21"/>
+      <c r="F4" s="24"/>
       <c r="G4" t="s">
         <v>46</v>
       </c>
-      <c r="J4" s="20" t="s">
+      <c r="J4" s="25" t="s">
         <v>5</v>
       </c>
       <c r="K4" t="s">
         <v>248</v>
       </c>
-      <c r="N4" s="20" t="s">
+      <c r="N4" s="25" t="s">
         <v>5</v>
       </c>
       <c r="O4" t="s">
         <v>113</v>
       </c>
-      <c r="R4" s="20" t="s">
+      <c r="R4" s="25" t="s">
         <v>5</v>
       </c>
       <c r="S4" t="s">
         <v>146</v>
       </c>
-      <c r="V4" s="21"/>
+      <c r="V4" s="24"/>
       <c r="W4" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="20"/>
+      <c r="B5" s="25"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="21"/>
+      <c r="F5" s="24"/>
       <c r="G5" t="s">
         <v>47</v>
       </c>
-      <c r="J5" s="20"/>
+      <c r="J5" s="25"/>
       <c r="K5" t="s">
         <v>81</v>
       </c>
-      <c r="N5" s="20"/>
+      <c r="N5" s="25"/>
       <c r="O5" t="s">
         <v>114</v>
       </c>
-      <c r="R5" s="20"/>
+      <c r="R5" s="25"/>
       <c r="S5" t="s">
         <v>147</v>
       </c>
-      <c r="V5" s="21"/>
+      <c r="V5" s="24"/>
       <c r="W5" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="20"/>
+      <c r="B6" s="25"/>
       <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="25" t="s">
         <v>5</v>
       </c>
       <c r="G6" t="s">
         <v>215</v>
       </c>
-      <c r="J6" s="20"/>
+      <c r="J6" s="25"/>
       <c r="K6" t="s">
         <v>82</v>
       </c>
-      <c r="N6" s="20"/>
+      <c r="N6" s="25"/>
       <c r="O6" t="s">
         <v>115</v>
       </c>
-      <c r="R6" s="20"/>
+      <c r="R6" s="25"/>
       <c r="S6" t="s">
         <v>148</v>
       </c>
-      <c r="V6" s="20" t="s">
+      <c r="V6" s="25" t="s">
         <v>5</v>
       </c>
       <c r="W6" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="20"/>
+      <c r="B7" s="25"/>
       <c r="C7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="20"/>
+      <c r="F7" s="25"/>
       <c r="G7" t="s">
         <v>52</v>
       </c>
-      <c r="J7" s="20"/>
+      <c r="J7" s="25"/>
       <c r="K7" t="s">
         <v>84</v>
       </c>
-      <c r="N7" s="20"/>
+      <c r="N7" s="25"/>
       <c r="O7" t="s">
         <v>116</v>
       </c>
-      <c r="R7" s="20"/>
+      <c r="R7" s="25"/>
       <c r="S7" t="s">
         <v>149</v>
       </c>
-      <c r="V7" s="20"/>
+      <c r="V7" s="25"/>
       <c r="W7" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="20"/>
+      <c r="B8" s="25"/>
       <c r="C8" t="s">
         <v>80</v>
       </c>
-      <c r="F8" s="20"/>
+      <c r="F8" s="25"/>
       <c r="G8" t="s">
         <v>51</v>
       </c>
-      <c r="J8" s="20"/>
+      <c r="J8" s="25"/>
       <c r="K8" t="s">
         <v>85</v>
       </c>
-      <c r="N8" s="20"/>
+      <c r="N8" s="25"/>
       <c r="O8" t="s">
         <v>117</v>
       </c>
-      <c r="R8" s="20"/>
+      <c r="R8" s="25"/>
       <c r="S8" t="s">
         <v>150</v>
       </c>
-      <c r="V8" s="20"/>
+      <c r="V8" s="25"/>
       <c r="W8" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="20"/>
+      <c r="B9" s="25"/>
       <c r="C9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="20"/>
+      <c r="F9" s="25"/>
       <c r="G9" t="s">
         <v>50</v>
       </c>
-      <c r="J9" s="20"/>
+      <c r="J9" s="25"/>
       <c r="K9" t="s">
         <v>10</v>
       </c>
-      <c r="N9" s="20"/>
+      <c r="N9" s="25"/>
       <c r="O9" t="s">
         <v>118</v>
       </c>
-      <c r="R9" s="20"/>
+      <c r="R9" s="25"/>
       <c r="S9" t="s">
         <v>151</v>
       </c>
-      <c r="V9" s="20"/>
+      <c r="V9" s="25"/>
       <c r="W9" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2830,15 +2845,15 @@
       <c r="C10" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="20"/>
+      <c r="F10" s="25"/>
       <c r="G10" t="s">
         <v>49</v>
       </c>
-      <c r="J10" s="20"/>
+      <c r="J10" s="25"/>
       <c r="K10" t="s">
         <v>48</v>
       </c>
-      <c r="N10" s="20"/>
+      <c r="N10" s="25"/>
       <c r="O10" t="s">
         <v>119</v>
       </c>
@@ -2848,12 +2863,12 @@
       <c r="S10" t="s">
         <v>152</v>
       </c>
-      <c r="V10" s="20"/>
+      <c r="V10" s="25"/>
       <c r="W10" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2883,12 +2898,12 @@
       <c r="S11" t="s">
         <v>153</v>
       </c>
-      <c r="V11" s="20"/>
+      <c r="V11" s="25"/>
       <c r="W11" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2902,7 +2917,7 @@
       </c>
       <c r="J12" s="22"/>
       <c r="K12" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="N12" s="22"/>
       <c r="O12" t="s">
@@ -2912,12 +2927,12 @@
       <c r="S12" t="s">
         <v>154</v>
       </c>
-      <c r="V12" s="20"/>
+      <c r="V12" s="25"/>
       <c r="W12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2931,7 +2946,7 @@
       </c>
       <c r="J13" s="22"/>
       <c r="K13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N13" s="22"/>
       <c r="O13" t="s">
@@ -2948,7 +2963,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2962,7 +2977,7 @@
       </c>
       <c r="J14" s="22"/>
       <c r="K14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="N14" s="22"/>
       <c r="O14" t="s">
@@ -2977,7 +2992,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2991,7 +3006,7 @@
       </c>
       <c r="J15" s="22"/>
       <c r="K15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N15" s="22"/>
       <c r="O15" t="s">
@@ -3006,11 +3021,11 @@
         <v>189</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="26" t="s">
         <v>18</v>
       </c>
       <c r="C16" t="s">
@@ -3020,9 +3035,11 @@
       <c r="G16" t="s">
         <v>225</v>
       </c>
-      <c r="J16" s="22"/>
+      <c r="J16" s="26" t="s">
+        <v>18</v>
+      </c>
       <c r="K16" t="s">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="N16" s="22"/>
       <c r="O16" t="s">
@@ -3037,27 +3054,25 @@
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="23"/>
+      <c r="B17" s="26"/>
       <c r="C17" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="23" t="s">
+      <c r="F17" s="26" t="s">
         <v>18</v>
       </c>
       <c r="G17" t="s">
         <v>60</v>
       </c>
-      <c r="J17" s="23" t="s">
-        <v>18</v>
-      </c>
+      <c r="J17" s="26"/>
       <c r="K17" t="s">
-        <v>95</v>
-      </c>
-      <c r="N17" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="N17" s="26" t="s">
         <v>18</v>
       </c>
       <c r="O17" t="s">
@@ -3072,23 +3087,23 @@
         <v>191</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="23"/>
+      <c r="B18" s="26"/>
       <c r="C18" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="23"/>
+      <c r="F18" s="26"/>
       <c r="G18" t="s">
         <v>62</v>
       </c>
-      <c r="J18" s="23"/>
+      <c r="J18" s="26"/>
       <c r="K18" t="s">
-        <v>96</v>
-      </c>
-      <c r="N18" s="23"/>
+        <v>97</v>
+      </c>
+      <c r="N18" s="26"/>
       <c r="O18" t="s">
         <v>127</v>
       </c>
@@ -3101,25 +3116,25 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="27" t="s">
         <v>24</v>
       </c>
       <c r="C19" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="23"/>
+      <c r="F19" s="26"/>
       <c r="G19" t="s">
         <v>63</v>
       </c>
-      <c r="J19" s="23"/>
+      <c r="J19" s="26"/>
       <c r="K19" t="s">
-        <v>97</v>
-      </c>
-      <c r="N19" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="N19" s="27" t="s">
         <v>24</v>
       </c>
       <c r="O19" t="s">
@@ -3134,29 +3149,31 @@
         <v>261</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="24"/>
+      <c r="B20" s="27"/>
       <c r="C20" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="24" t="s">
+      <c r="F20" s="27" t="s">
         <v>24</v>
       </c>
       <c r="G20" t="s">
         <v>64</v>
       </c>
-      <c r="J20" s="23"/>
+      <c r="J20" s="27" t="s">
+        <v>24</v>
+      </c>
       <c r="K20" t="s">
-        <v>98</v>
-      </c>
-      <c r="N20" s="24"/>
+        <v>99</v>
+      </c>
+      <c r="N20" s="27"/>
       <c r="O20" t="s">
         <v>129</v>
       </c>
-      <c r="R20" s="23" t="s">
+      <c r="R20" s="26" t="s">
         <v>18</v>
       </c>
       <c r="S20" t="s">
@@ -3167,29 +3184,27 @@
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="24"/>
+      <c r="B21" s="27"/>
       <c r="C21" t="s">
         <v>27</v>
       </c>
-      <c r="F21" s="24"/>
+      <c r="F21" s="27"/>
       <c r="G21" t="s">
         <v>65</v>
       </c>
-      <c r="J21" s="24" t="s">
-        <v>24</v>
-      </c>
+      <c r="J21" s="27"/>
       <c r="K21" t="s">
-        <v>99</v>
-      </c>
-      <c r="N21" s="24"/>
+        <v>28</v>
+      </c>
+      <c r="N21" s="27"/>
       <c r="O21" t="s">
         <v>130</v>
       </c>
-      <c r="R21" s="23"/>
+      <c r="R21" s="26"/>
       <c r="S21" t="s">
         <v>163</v>
       </c>
@@ -3198,27 +3213,27 @@
         <v>192</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="24"/>
+      <c r="B22" s="27"/>
       <c r="C22" t="s">
         <v>100</v>
       </c>
-      <c r="F22" s="24"/>
+      <c r="F22" s="27"/>
       <c r="G22" t="s">
         <v>66</v>
       </c>
-      <c r="J22" s="24"/>
+      <c r="J22" s="27"/>
       <c r="K22" t="s">
-        <v>28</v>
-      </c>
-      <c r="N22" s="24"/>
+        <v>29</v>
+      </c>
+      <c r="N22" s="27"/>
       <c r="O22" t="s">
         <v>131</v>
       </c>
-      <c r="R22" s="24" t="s">
+      <c r="R22" s="27" t="s">
         <v>24</v>
       </c>
       <c r="S22" t="s">
@@ -3229,29 +3244,31 @@
         <v>193</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="20" t="s">
         <v>30</v>
       </c>
       <c r="C23" t="s">
         <v>31</v>
       </c>
-      <c r="F23" s="24"/>
+      <c r="F23" s="27"/>
       <c r="G23" t="s">
         <v>67</v>
       </c>
-      <c r="J23" s="24"/>
+      <c r="J23" s="20" t="s">
+        <v>30</v>
+      </c>
       <c r="K23" t="s">
-        <v>29</v>
-      </c>
-      <c r="N23" s="24"/>
+        <v>103</v>
+      </c>
+      <c r="N23" s="27"/>
       <c r="O23" t="s">
         <v>132</v>
       </c>
-      <c r="R23" s="24"/>
+      <c r="R23" s="27"/>
       <c r="S23" t="s">
         <v>165</v>
       </c>
@@ -3260,31 +3277,31 @@
         <v>195</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="25"/>
+      <c r="B24" s="20"/>
       <c r="C24" t="s">
         <v>32</v>
       </c>
-      <c r="F24" s="25" t="s">
+      <c r="F24" s="20" t="s">
         <v>30</v>
       </c>
       <c r="G24" t="s">
         <v>69</v>
       </c>
-      <c r="J24" s="24"/>
+      <c r="J24" s="20"/>
       <c r="K24" t="s">
-        <v>102</v>
-      </c>
-      <c r="N24" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="N24" s="20" t="s">
         <v>30</v>
       </c>
       <c r="O24" t="s">
         <v>133</v>
       </c>
-      <c r="R24" s="24"/>
+      <c r="R24" s="27"/>
       <c r="S24" t="s">
         <v>166</v>
       </c>
@@ -3293,308 +3310,290 @@
         <v>196</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="25"/>
+      <c r="B25" s="20"/>
       <c r="C25" t="s">
         <v>33</v>
       </c>
-      <c r="F25" s="25"/>
+      <c r="F25" s="20"/>
       <c r="G25" t="s">
         <v>70</v>
       </c>
-      <c r="J25" s="25" t="s">
-        <v>30</v>
-      </c>
+      <c r="J25" s="20"/>
       <c r="K25" t="s">
-        <v>103</v>
-      </c>
-      <c r="N25" s="25"/>
+        <v>105</v>
+      </c>
+      <c r="N25" s="20"/>
       <c r="O25" t="s">
         <v>134</v>
       </c>
-      <c r="R25" s="24"/>
+      <c r="R25" s="27"/>
       <c r="S25" t="s">
         <v>167</v>
       </c>
-      <c r="V25" s="23" t="s">
+      <c r="V25" s="26" t="s">
         <v>18</v>
       </c>
       <c r="W25" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="21" t="s">
         <v>36</v>
       </c>
       <c r="C26" t="s">
         <v>37</v>
       </c>
-      <c r="F26" s="25"/>
+      <c r="F26" s="20"/>
       <c r="G26" t="s">
         <v>71</v>
       </c>
-      <c r="J26" s="25"/>
+      <c r="J26" s="20"/>
       <c r="K26" t="s">
-        <v>104</v>
-      </c>
-      <c r="N26" s="25"/>
+        <v>106</v>
+      </c>
+      <c r="N26" s="20"/>
       <c r="O26" t="s">
         <v>135</v>
       </c>
-      <c r="R26" s="25" t="s">
+      <c r="R26" s="20" t="s">
         <v>30</v>
       </c>
       <c r="S26" t="s">
         <v>168</v>
       </c>
-      <c r="V26" s="23"/>
+      <c r="V26" s="26"/>
       <c r="W26" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="26"/>
+      <c r="B27" s="21"/>
       <c r="C27" t="s">
         <v>38</v>
       </c>
-      <c r="F27" s="25"/>
+      <c r="F27" s="20"/>
       <c r="G27" t="s">
         <v>68</v>
       </c>
-      <c r="J27" s="25"/>
+      <c r="J27" s="20"/>
       <c r="K27" t="s">
-        <v>105</v>
-      </c>
-      <c r="N27" s="25"/>
+        <v>35</v>
+      </c>
+      <c r="N27" s="20"/>
       <c r="O27" t="s">
         <v>136</v>
       </c>
-      <c r="R27" s="25"/>
+      <c r="R27" s="20"/>
       <c r="S27" t="s">
         <v>169</v>
       </c>
-      <c r="V27" s="23"/>
+      <c r="V27" s="26"/>
       <c r="W27" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="26"/>
+      <c r="B28" s="21"/>
       <c r="C28" t="s">
         <v>39</v>
       </c>
-      <c r="F28" s="26" t="s">
+      <c r="F28" s="21" t="s">
         <v>36</v>
       </c>
       <c r="G28" t="s">
         <v>72</v>
       </c>
-      <c r="J28" s="25"/>
+      <c r="J28" s="21" t="s">
+        <v>36</v>
+      </c>
       <c r="K28" t="s">
-        <v>106</v>
-      </c>
-      <c r="N28" s="25"/>
+        <v>40</v>
+      </c>
+      <c r="N28" s="20"/>
       <c r="O28" t="s">
         <v>137</v>
       </c>
-      <c r="R28" s="25"/>
+      <c r="R28" s="20"/>
       <c r="S28" t="s">
         <v>170</v>
       </c>
-      <c r="V28" s="24" t="s">
+      <c r="V28" s="27" t="s">
         <v>24</v>
       </c>
       <c r="W28" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="26"/>
+      <c r="B29" s="21"/>
       <c r="C29" t="s">
         <v>107</v>
       </c>
-      <c r="F29" s="26"/>
+      <c r="F29" s="21"/>
       <c r="G29" t="s">
         <v>73</v>
       </c>
-      <c r="J29" s="25"/>
+      <c r="J29" s="21"/>
       <c r="K29" t="s">
-        <v>34</v>
-      </c>
-      <c r="N29" s="25"/>
+        <v>108</v>
+      </c>
+      <c r="N29" s="20"/>
       <c r="O29" t="s">
         <v>138</v>
       </c>
-      <c r="R29" s="25"/>
+      <c r="R29" s="20"/>
       <c r="S29" t="s">
         <v>171</v>
       </c>
-      <c r="V29" s="24"/>
+      <c r="V29" s="27"/>
       <c r="W29" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="F30" s="26"/>
+      <c r="F30" s="21"/>
       <c r="G30" t="s">
         <v>74</v>
       </c>
-      <c r="J30" s="25"/>
+      <c r="J30" s="21"/>
       <c r="K30" t="s">
-        <v>35</v>
-      </c>
-      <c r="N30" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="N30" s="21" t="s">
         <v>36</v>
       </c>
       <c r="O30" t="s">
         <v>139</v>
       </c>
-      <c r="R30" s="25"/>
+      <c r="R30" s="20"/>
       <c r="S30" t="s">
         <v>172</v>
       </c>
-      <c r="V30" s="24"/>
+      <c r="V30" s="27"/>
       <c r="W30" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="F31" s="26"/>
+      <c r="F31" s="21"/>
       <c r="G31" t="s">
         <v>75</v>
       </c>
-      <c r="J31" s="26" t="s">
-        <v>36</v>
-      </c>
+      <c r="J31" s="21"/>
       <c r="K31" t="s">
-        <v>40</v>
-      </c>
-      <c r="N31" s="26"/>
+        <v>41</v>
+      </c>
+      <c r="N31" s="21"/>
       <c r="O31" t="s">
         <v>140</v>
       </c>
-      <c r="R31" s="26" t="s">
+      <c r="R31" s="21" t="s">
         <v>36</v>
       </c>
       <c r="S31" t="s">
         <v>173</v>
       </c>
-      <c r="V31" s="24"/>
+      <c r="V31" s="27"/>
       <c r="W31" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="J32" s="26"/>
-      <c r="K32" t="s">
-        <v>108</v>
-      </c>
-      <c r="N32" s="26"/>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="N32" s="21"/>
       <c r="O32" t="s">
         <v>141</v>
       </c>
-      <c r="R32" s="26"/>
+      <c r="R32" s="21"/>
       <c r="S32" t="s">
         <v>174</v>
       </c>
-      <c r="V32" s="25" t="s">
+      <c r="V32" s="20" t="s">
         <v>30</v>
       </c>
       <c r="W32" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="J33" s="26"/>
-      <c r="K33" t="s">
-        <v>109</v>
-      </c>
-      <c r="N33" s="26"/>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="N33" s="21"/>
       <c r="O33" t="s">
         <v>142</v>
       </c>
-      <c r="R33" s="26"/>
+      <c r="R33" s="21"/>
       <c r="S33" t="s">
         <v>175</v>
       </c>
-      <c r="V33" s="25"/>
+      <c r="V33" s="20"/>
       <c r="W33" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="J34" s="26"/>
-      <c r="K34" t="s">
-        <v>110</v>
-      </c>
-      <c r="R34" s="26"/>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="R34" s="21"/>
       <c r="S34" t="s">
         <v>176</v>
       </c>
-      <c r="V34" s="25"/>
+      <c r="V34" s="20"/>
       <c r="W34" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="J35" s="26"/>
-      <c r="K35" t="s">
-        <v>41</v>
-      </c>
-      <c r="V35" s="25"/>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="V35" s="20"/>
       <c r="W35" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="V36" s="26" t="s">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="V36" s="21" t="s">
         <v>36</v>
       </c>
       <c r="W36" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="V37" s="26"/>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="V37" s="21"/>
       <c r="W37" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="V38" s="26"/>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="V38" s="21"/>
       <c r="W38" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="V39" s="26"/>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="V39" s="21"/>
       <c r="W39" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
         <v>212</v>
       </c>
@@ -3610,220 +3609,220 @@
       <c r="R43" t="s">
         <v>315</v>
       </c>
-      <c r="V43" s="28" t="s">
+      <c r="V43" s="23" t="s">
         <v>316</v>
       </c>
-      <c r="W43" s="28"/>
-      <c r="X43" s="28"/>
-      <c r="Y43" s="28"/>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="W43" s="23"/>
+      <c r="X43" s="23"/>
+      <c r="Y43" s="23"/>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>1</v>
       </c>
-      <c r="B44" s="21" t="s">
+      <c r="B44" s="24" t="s">
         <v>1</v>
       </c>
       <c r="C44" t="s">
         <v>44</v>
       </c>
-      <c r="F44" s="21" t="s">
+      <c r="F44" s="24" t="s">
         <v>1</v>
       </c>
       <c r="G44" t="s">
         <v>246</v>
       </c>
-      <c r="J44" s="21" t="s">
+      <c r="J44" s="24" t="s">
         <v>1</v>
       </c>
       <c r="K44" t="s">
         <v>280</v>
       </c>
-      <c r="N44" s="21" t="s">
+      <c r="N44" s="24" t="s">
         <v>1</v>
       </c>
       <c r="O44" t="s">
         <v>317</v>
       </c>
-      <c r="R44" s="21" t="s">
+      <c r="R44" s="24" t="s">
         <v>1</v>
       </c>
       <c r="S44" t="s">
         <v>348</v>
       </c>
-      <c r="V44" s="21" t="s">
+      <c r="V44" s="24" t="s">
         <v>1</v>
       </c>
       <c r="W44" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>2</v>
       </c>
-      <c r="B45" s="21"/>
+      <c r="B45" s="24"/>
       <c r="C45" t="s">
         <v>214</v>
       </c>
-      <c r="F45" s="21"/>
+      <c r="F45" s="24"/>
       <c r="G45" t="s">
         <v>247</v>
       </c>
-      <c r="J45" s="21"/>
+      <c r="J45" s="24"/>
       <c r="K45" t="s">
         <v>281</v>
       </c>
-      <c r="N45" s="21"/>
+      <c r="N45" s="24"/>
       <c r="O45" t="s">
         <v>318</v>
       </c>
-      <c r="R45" s="21"/>
+      <c r="R45" s="24"/>
       <c r="S45" t="s">
         <v>349</v>
       </c>
-      <c r="V45" s="21"/>
+      <c r="V45" s="24"/>
       <c r="W45" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>3</v>
       </c>
-      <c r="B46" s="21"/>
+      <c r="B46" s="24"/>
       <c r="C46" t="s">
         <v>213</v>
       </c>
-      <c r="F46" s="21"/>
+      <c r="F46" s="24"/>
       <c r="G46" t="s">
         <v>79</v>
       </c>
-      <c r="J46" s="21"/>
+      <c r="J46" s="24"/>
       <c r="K46" t="s">
         <v>282</v>
       </c>
-      <c r="N46" s="21"/>
+      <c r="N46" s="24"/>
       <c r="O46" t="s">
         <v>319</v>
       </c>
-      <c r="R46" s="21"/>
+      <c r="R46" s="24"/>
       <c r="S46" t="s">
         <v>78</v>
       </c>
-      <c r="V46" s="21"/>
+      <c r="V46" s="24"/>
       <c r="W46" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>4</v>
       </c>
-      <c r="B47" s="20" t="s">
+      <c r="B47" s="25" t="s">
         <v>5</v>
       </c>
       <c r="C47" t="s">
         <v>216</v>
       </c>
-      <c r="F47" s="20" t="s">
+      <c r="F47" s="25" t="s">
         <v>5</v>
       </c>
       <c r="G47" t="s">
         <v>183</v>
       </c>
-      <c r="J47" s="20" t="s">
+      <c r="J47" s="25" t="s">
         <v>5</v>
       </c>
       <c r="K47" t="s">
         <v>283</v>
       </c>
-      <c r="N47" s="20" t="s">
+      <c r="N47" s="25" t="s">
         <v>5</v>
       </c>
       <c r="O47" t="s">
         <v>320</v>
       </c>
-      <c r="R47" s="21"/>
+      <c r="R47" s="24"/>
       <c r="S47" t="s">
         <v>350</v>
       </c>
-      <c r="V47" s="20" t="s">
+      <c r="V47" s="25" t="s">
         <v>5</v>
       </c>
       <c r="W47" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>5</v>
       </c>
-      <c r="B48" s="20"/>
+      <c r="B48" s="25"/>
       <c r="C48" t="s">
         <v>217</v>
       </c>
-      <c r="F48" s="20"/>
+      <c r="F48" s="25"/>
       <c r="G48" t="s">
         <v>321</v>
       </c>
-      <c r="J48" s="20"/>
+      <c r="J48" s="25"/>
       <c r="K48" t="s">
         <v>284</v>
       </c>
-      <c r="N48" s="20"/>
+      <c r="N48" s="25"/>
       <c r="O48" t="s">
         <v>251</v>
       </c>
-      <c r="R48" s="20" t="s">
+      <c r="R48" s="25" t="s">
         <v>5</v>
       </c>
       <c r="S48" t="s">
         <v>351</v>
       </c>
-      <c r="V48" s="20"/>
+      <c r="V48" s="25"/>
       <c r="W48" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>6</v>
       </c>
-      <c r="B49" s="20"/>
+      <c r="B49" s="25"/>
       <c r="C49" t="s">
         <v>221</v>
       </c>
-      <c r="F49" s="20"/>
+      <c r="F49" s="25"/>
       <c r="G49" t="s">
         <v>185</v>
       </c>
-      <c r="J49" s="20"/>
+      <c r="J49" s="25"/>
       <c r="K49" t="s">
         <v>285</v>
       </c>
-      <c r="N49" s="20"/>
+      <c r="N49" s="25"/>
       <c r="O49" t="s">
         <v>322</v>
       </c>
-      <c r="R49" s="20"/>
+      <c r="R49" s="25"/>
       <c r="S49" t="s">
         <v>352</v>
       </c>
-      <c r="V49" s="20"/>
+      <c r="V49" s="25"/>
       <c r="W49" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>7</v>
       </c>
-      <c r="B50" s="20"/>
+      <c r="B50" s="25"/>
       <c r="C50" t="s">
         <v>222</v>
       </c>
-      <c r="F50" s="20"/>
+      <c r="F50" s="25"/>
       <c r="G50" t="s">
         <v>249</v>
       </c>
@@ -3839,16 +3838,16 @@
       <c r="O50" t="s">
         <v>323</v>
       </c>
-      <c r="R50" s="20"/>
+      <c r="R50" s="25"/>
       <c r="S50" t="s">
         <v>353</v>
       </c>
-      <c r="V50" s="20"/>
+      <c r="V50" s="25"/>
       <c r="W50" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>8</v>
       </c>
@@ -3858,7 +3857,7 @@
       <c r="C51" t="s">
         <v>57</v>
       </c>
-      <c r="F51" s="20"/>
+      <c r="F51" s="25"/>
       <c r="G51" t="s">
         <v>253</v>
       </c>
@@ -3870,16 +3869,16 @@
       <c r="O51" t="s">
         <v>324</v>
       </c>
-      <c r="R51" s="20"/>
+      <c r="R51" s="25"/>
       <c r="S51" t="s">
         <v>354</v>
       </c>
-      <c r="V51" s="20"/>
+      <c r="V51" s="25"/>
       <c r="W51" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>9</v>
       </c>
@@ -3887,7 +3886,7 @@
       <c r="C52" t="s">
         <v>218</v>
       </c>
-      <c r="F52" s="20"/>
+      <c r="F52" s="25"/>
       <c r="G52" t="s">
         <v>254</v>
       </c>
@@ -3899,7 +3898,7 @@
       <c r="O52" t="s">
         <v>325</v>
       </c>
-      <c r="R52" s="20"/>
+      <c r="R52" s="25"/>
       <c r="S52" t="s">
         <v>355</v>
       </c>
@@ -3910,7 +3909,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>10</v>
       </c>
@@ -3918,7 +3917,7 @@
       <c r="C53" t="s">
         <v>219</v>
       </c>
-      <c r="F53" s="20"/>
+      <c r="F53" s="25"/>
       <c r="G53" t="s">
         <v>255</v>
       </c>
@@ -3941,15 +3940,15 @@
         <v>387</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>11</v>
       </c>
       <c r="B54" s="22"/>
       <c r="C54" t="s">
-        <v>220</v>
-      </c>
-      <c r="F54" s="20"/>
+        <v>93</v>
+      </c>
+      <c r="F54" s="25"/>
       <c r="G54" t="s">
         <v>83</v>
       </c>
@@ -3970,13 +3969,13 @@
         <v>388</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>12</v>
       </c>
       <c r="B55" s="22"/>
       <c r="C55" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F55" s="22" t="s">
         <v>12</v>
@@ -4001,13 +4000,13 @@
         <v>389</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>13</v>
       </c>
       <c r="B56" s="22"/>
       <c r="C56" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F56" s="22"/>
       <c r="G56" t="s">
@@ -4030,13 +4029,13 @@
         <v>390</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>14</v>
       </c>
       <c r="B57" s="22"/>
       <c r="C57" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F57" s="22"/>
       <c r="G57" t="s">
@@ -4059,13 +4058,13 @@
         <v>391</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>15</v>
       </c>
       <c r="B58" s="22"/>
       <c r="C58" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F58" s="22"/>
       <c r="G58" t="s">
@@ -4088,13 +4087,13 @@
         <v>392</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>16</v>
       </c>
       <c r="B59" s="22"/>
       <c r="C59" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F59" s="22"/>
       <c r="G59" t="s">
@@ -4117,25 +4116,25 @@
         <v>393</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>17</v>
       </c>
       <c r="B60" s="22"/>
       <c r="C60" t="s">
-        <v>55</v>
+        <v>229</v>
       </c>
       <c r="F60" s="22"/>
       <c r="G60" t="s">
         <v>259</v>
       </c>
-      <c r="J60" s="23" t="s">
+      <c r="J60" s="26" t="s">
         <v>18</v>
       </c>
       <c r="K60" t="s">
         <v>296</v>
       </c>
-      <c r="N60" s="23" t="s">
+      <c r="N60" s="26" t="s">
         <v>18</v>
       </c>
       <c r="O60" t="s">
@@ -4147,523 +4146,612 @@
       <c r="S60" t="s">
         <v>363</v>
       </c>
-      <c r="V60" s="23" t="s">
+      <c r="V60" s="26" t="s">
         <v>18</v>
       </c>
       <c r="W60" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>18</v>
       </c>
-      <c r="B61" s="23" t="s">
-        <v>18</v>
-      </c>
+      <c r="B61" s="22"/>
       <c r="C61" t="s">
-        <v>233</v>
+        <v>55</v>
       </c>
       <c r="F61" s="22"/>
       <c r="G61" t="s">
         <v>92</v>
       </c>
-      <c r="J61" s="23"/>
+      <c r="J61" s="26"/>
       <c r="K61" t="s">
         <v>297</v>
       </c>
-      <c r="N61" s="23"/>
+      <c r="N61" s="26"/>
       <c r="O61" t="s">
         <v>332</v>
       </c>
-      <c r="R61" s="24" t="s">
+      <c r="R61" s="27" t="s">
         <v>24</v>
       </c>
       <c r="S61" t="s">
         <v>364</v>
       </c>
-      <c r="V61" s="23"/>
+      <c r="V61" s="26"/>
       <c r="W61" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>19</v>
       </c>
-      <c r="B62" s="23"/>
+      <c r="B62" s="26" t="s">
+        <v>18</v>
+      </c>
       <c r="C62" t="s">
-        <v>230</v>
-      </c>
-      <c r="F62" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="F62" s="26" t="s">
         <v>18</v>
       </c>
       <c r="G62" t="s">
         <v>264</v>
       </c>
-      <c r="J62" s="23"/>
+      <c r="J62" s="26"/>
       <c r="K62" t="s">
         <v>298</v>
       </c>
-      <c r="N62" s="23"/>
+      <c r="N62" s="26"/>
       <c r="O62" t="s">
         <v>333</v>
       </c>
-      <c r="R62" s="24"/>
+      <c r="R62" s="27"/>
       <c r="S62" t="s">
         <v>365</v>
       </c>
-      <c r="V62" s="23"/>
+      <c r="V62" s="26"/>
       <c r="W62" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>20</v>
       </c>
-      <c r="B63" s="23"/>
+      <c r="B63" s="26"/>
       <c r="C63" t="s">
-        <v>231</v>
-      </c>
-      <c r="F63" s="23"/>
+        <v>230</v>
+      </c>
+      <c r="F63" s="26"/>
       <c r="G63" t="s">
         <v>265</v>
       </c>
-      <c r="J63" s="24" t="s">
+      <c r="J63" s="27" t="s">
         <v>24</v>
       </c>
       <c r="K63" t="s">
         <v>299</v>
       </c>
-      <c r="N63" s="23"/>
+      <c r="N63" s="26"/>
       <c r="O63" t="s">
         <v>334</v>
       </c>
-      <c r="R63" s="24"/>
+      <c r="R63" s="27"/>
       <c r="S63" t="s">
         <v>366</v>
       </c>
-      <c r="V63" s="23"/>
+      <c r="V63" s="26"/>
       <c r="W63" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>21</v>
       </c>
-      <c r="B64" s="23"/>
+      <c r="B64" s="26"/>
       <c r="C64" t="s">
-        <v>232</v>
-      </c>
-      <c r="F64" s="23"/>
+        <v>231</v>
+      </c>
+      <c r="F64" s="26"/>
       <c r="G64" t="s">
         <v>266</v>
       </c>
-      <c r="J64" s="24"/>
+      <c r="J64" s="27"/>
       <c r="K64" t="s">
         <v>300</v>
       </c>
-      <c r="N64" s="23"/>
+      <c r="N64" s="26"/>
       <c r="O64" t="s">
         <v>335</v>
       </c>
-      <c r="R64" s="24"/>
+      <c r="R64" s="27"/>
       <c r="S64" t="s">
         <v>367</v>
       </c>
-      <c r="V64" s="24" t="s">
+      <c r="V64" s="27" t="s">
         <v>24</v>
       </c>
       <c r="W64" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>22</v>
       </c>
-      <c r="B65" s="23"/>
+      <c r="B65" s="26"/>
       <c r="C65" t="s">
-        <v>61</v>
-      </c>
-      <c r="F65" s="23"/>
+        <v>232</v>
+      </c>
+      <c r="F65" s="26"/>
       <c r="G65" t="s">
         <v>267</v>
       </c>
-      <c r="J65" s="24"/>
+      <c r="J65" s="27"/>
       <c r="K65" t="s">
         <v>301</v>
       </c>
-      <c r="N65" s="24" t="s">
+      <c r="N65" s="27" t="s">
         <v>24</v>
       </c>
       <c r="O65" t="s">
         <v>336</v>
       </c>
-      <c r="R65" s="24"/>
+      <c r="R65" s="27"/>
       <c r="S65" t="s">
         <v>368</v>
       </c>
-      <c r="V65" s="24"/>
+      <c r="V65" s="27"/>
       <c r="W65" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>23</v>
       </c>
-      <c r="B66" s="24" t="s">
-        <v>24</v>
-      </c>
+      <c r="B66" s="26"/>
       <c r="C66" t="s">
-        <v>234</v>
-      </c>
-      <c r="F66" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="F66" s="27" t="s">
         <v>24</v>
       </c>
       <c r="G66" t="s">
         <v>268</v>
       </c>
-      <c r="J66" s="24"/>
+      <c r="J66" s="27"/>
       <c r="K66" t="s">
         <v>302</v>
       </c>
-      <c r="N66" s="24"/>
+      <c r="N66" s="27"/>
       <c r="O66" t="s">
         <v>337</v>
       </c>
-      <c r="R66" s="25" t="s">
+      <c r="R66" s="20" t="s">
         <v>30</v>
       </c>
       <c r="S66" t="s">
         <v>369</v>
       </c>
-      <c r="V66" s="24"/>
+      <c r="V66" s="27"/>
       <c r="W66" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>24</v>
       </c>
-      <c r="B67" s="24"/>
+      <c r="B67" s="27" t="s">
+        <v>24</v>
+      </c>
       <c r="C67" t="s">
-        <v>235</v>
-      </c>
-      <c r="F67" s="24"/>
+        <v>102</v>
+      </c>
+      <c r="F67" s="27"/>
       <c r="G67" t="s">
         <v>269</v>
       </c>
-      <c r="J67" s="24"/>
+      <c r="J67" s="27"/>
       <c r="K67" t="s">
         <v>303</v>
       </c>
-      <c r="N67" s="24"/>
+      <c r="N67" s="27"/>
       <c r="O67" t="s">
         <v>338</v>
       </c>
-      <c r="R67" s="25"/>
+      <c r="R67" s="20"/>
       <c r="S67" t="s">
         <v>370</v>
       </c>
-      <c r="V67" s="24"/>
+      <c r="V67" s="27"/>
       <c r="W67" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>25</v>
       </c>
-      <c r="B68" s="24"/>
+      <c r="B68" s="27"/>
       <c r="C68" t="s">
-        <v>236</v>
-      </c>
-      <c r="F68" s="24"/>
+        <v>234</v>
+      </c>
+      <c r="F68" s="27"/>
       <c r="G68" t="s">
         <v>270</v>
       </c>
-      <c r="J68" s="24"/>
+      <c r="J68" s="27"/>
       <c r="K68" t="s">
         <v>304</v>
       </c>
-      <c r="N68" s="24"/>
+      <c r="N68" s="27"/>
       <c r="O68" t="s">
         <v>342</v>
       </c>
-      <c r="R68" s="25"/>
+      <c r="R68" s="20"/>
       <c r="S68" t="s">
         <v>371</v>
       </c>
-      <c r="V68" s="25" t="s">
+      <c r="V68" s="20" t="s">
         <v>30</v>
       </c>
       <c r="W68" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>26</v>
       </c>
-      <c r="B69" s="24"/>
+      <c r="B69" s="27"/>
       <c r="C69" t="s">
-        <v>237</v>
-      </c>
-      <c r="F69" s="24"/>
+        <v>235</v>
+      </c>
+      <c r="F69" s="27"/>
       <c r="G69" t="s">
         <v>101</v>
       </c>
-      <c r="J69" s="24"/>
+      <c r="J69" s="27"/>
       <c r="K69" t="s">
         <v>305</v>
       </c>
-      <c r="N69" s="25" t="s">
+      <c r="N69" s="20" t="s">
         <v>30</v>
       </c>
       <c r="O69" t="s">
         <v>339</v>
       </c>
-      <c r="R69" s="25"/>
+      <c r="R69" s="20"/>
       <c r="S69" t="s">
         <v>372</v>
       </c>
-      <c r="V69" s="25"/>
+      <c r="V69" s="20"/>
       <c r="W69" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>27</v>
       </c>
-      <c r="B70" s="24"/>
+      <c r="B70" s="27"/>
       <c r="C70" t="s">
-        <v>238</v>
-      </c>
-      <c r="F70" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="F70" s="20" t="s">
         <v>30</v>
       </c>
       <c r="G70" t="s">
         <v>271</v>
       </c>
-      <c r="J70" s="25" t="s">
+      <c r="J70" s="20" t="s">
         <v>30</v>
       </c>
       <c r="K70" t="s">
         <v>306</v>
       </c>
-      <c r="N70" s="25"/>
+      <c r="N70" s="20"/>
       <c r="O70" t="s">
         <v>340</v>
       </c>
-      <c r="R70" s="26" t="s">
+      <c r="R70" s="21" t="s">
         <v>36</v>
       </c>
       <c r="S70" t="s">
         <v>373</v>
       </c>
-      <c r="V70" s="25"/>
+      <c r="V70" s="20"/>
       <c r="W70" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>28</v>
       </c>
-      <c r="B71" s="25" t="s">
-        <v>30</v>
-      </c>
+      <c r="B71" s="27"/>
       <c r="C71" t="s">
-        <v>239</v>
-      </c>
-      <c r="F71" s="25"/>
+        <v>237</v>
+      </c>
+      <c r="F71" s="20"/>
       <c r="G71" t="s">
         <v>272</v>
       </c>
-      <c r="J71" s="25"/>
+      <c r="J71" s="20"/>
       <c r="K71" t="s">
         <v>307</v>
       </c>
-      <c r="N71" s="25"/>
+      <c r="N71" s="20"/>
       <c r="O71" t="s">
         <v>341</v>
       </c>
-      <c r="R71" s="26"/>
+      <c r="R71" s="21"/>
       <c r="S71" t="s">
         <v>374</v>
       </c>
-      <c r="V71" s="25"/>
+      <c r="V71" s="20"/>
       <c r="W71" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>29</v>
       </c>
-      <c r="B72" s="25"/>
+      <c r="B72" s="27"/>
       <c r="C72" t="s">
-        <v>240</v>
-      </c>
-      <c r="F72" s="25"/>
+        <v>238</v>
+      </c>
+      <c r="F72" s="20"/>
       <c r="G72" t="s">
         <v>273</v>
       </c>
-      <c r="J72" s="25"/>
+      <c r="J72" s="20"/>
       <c r="K72" t="s">
         <v>308</v>
       </c>
-      <c r="N72" s="25"/>
+      <c r="N72" s="20"/>
       <c r="O72" t="s">
         <v>343</v>
       </c>
-      <c r="R72" s="26"/>
+      <c r="R72" s="21"/>
       <c r="S72" t="s">
         <v>375</v>
       </c>
-      <c r="V72" s="25"/>
+      <c r="V72" s="20"/>
       <c r="W72" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>30</v>
       </c>
-      <c r="B73" s="25"/>
+      <c r="B73" s="20" t="s">
+        <v>30</v>
+      </c>
       <c r="C73" t="s">
-        <v>241</v>
-      </c>
-      <c r="F73" s="25"/>
+        <v>34</v>
+      </c>
+      <c r="F73" s="20"/>
       <c r="G73" t="s">
         <v>274</v>
       </c>
-      <c r="J73" s="25"/>
+      <c r="J73" s="20"/>
       <c r="K73" t="s">
         <v>309</v>
       </c>
-      <c r="N73" s="26" t="s">
+      <c r="N73" s="21" t="s">
         <v>36</v>
       </c>
       <c r="O73" t="s">
         <v>344</v>
       </c>
-      <c r="R73" s="26"/>
+      <c r="R73" s="21"/>
       <c r="S73" t="s">
         <v>376</v>
       </c>
-      <c r="V73" s="26" t="s">
+      <c r="V73" s="21" t="s">
         <v>36</v>
       </c>
       <c r="W73" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B74" s="26" t="s">
-        <v>36</v>
-      </c>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="B74" s="20"/>
       <c r="C74" t="s">
-        <v>242</v>
-      </c>
-      <c r="F74" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="F74" s="21" t="s">
         <v>36</v>
       </c>
       <c r="G74" t="s">
         <v>275</v>
       </c>
-      <c r="J74" s="26" t="s">
+      <c r="J74" s="21" t="s">
         <v>36</v>
       </c>
       <c r="K74" t="s">
         <v>310</v>
       </c>
-      <c r="N74" s="26"/>
+      <c r="N74" s="21"/>
       <c r="O74" t="s">
         <v>345</v>
       </c>
-      <c r="R74" s="26"/>
+      <c r="R74" s="21"/>
       <c r="S74" t="s">
         <v>377</v>
       </c>
-      <c r="V74" s="26"/>
+      <c r="V74" s="21"/>
       <c r="W74" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B75" s="26"/>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="B75" s="20"/>
       <c r="C75" t="s">
-        <v>243</v>
-      </c>
-      <c r="F75" s="26"/>
+        <v>240</v>
+      </c>
+      <c r="F75" s="21"/>
       <c r="G75" t="s">
         <v>276</v>
       </c>
-      <c r="J75" s="26"/>
+      <c r="J75" s="21"/>
       <c r="K75" t="s">
         <v>311</v>
       </c>
-      <c r="N75" s="26"/>
+      <c r="N75" s="21"/>
       <c r="O75" t="s">
         <v>346</v>
       </c>
-      <c r="V75" s="26"/>
+      <c r="V75" s="21"/>
       <c r="W75" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B76" s="26"/>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="B76" s="20"/>
       <c r="C76" t="s">
-        <v>244</v>
-      </c>
-      <c r="F76" s="26"/>
+        <v>241</v>
+      </c>
+      <c r="F76" s="21"/>
       <c r="G76" t="s">
         <v>277</v>
       </c>
-      <c r="J76" s="26"/>
+      <c r="J76" s="21"/>
       <c r="K76" t="s">
         <v>312</v>
       </c>
-      <c r="N76" s="26"/>
+      <c r="N76" s="21"/>
       <c r="O76" t="s">
         <v>347</v>
       </c>
-      <c r="V76" s="26"/>
+      <c r="V76" s="21"/>
       <c r="W76" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="F77" s="26"/>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="B77" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C77" t="s">
+        <v>109</v>
+      </c>
+      <c r="F77" s="21"/>
       <c r="G77" t="s">
         <v>278</v>
       </c>
-      <c r="J77" s="26"/>
+      <c r="J77" s="21"/>
       <c r="K77" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="F78" s="26"/>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="B78" s="21"/>
+      <c r="C78" t="s">
+        <v>242</v>
+      </c>
+      <c r="F78" s="21"/>
       <c r="G78" t="s">
         <v>279</v>
       </c>
     </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="B79" s="21"/>
+      <c r="C79" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="B80" s="21"/>
+      <c r="C80" t="s">
+        <v>244</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="85">
+    <mergeCell ref="J4:J10"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="J16:J19"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="F11:F16"/>
+    <mergeCell ref="F6:F10"/>
+    <mergeCell ref="J11:J15"/>
+    <mergeCell ref="J20:J22"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B62:B66"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="F20:F23"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="F28:F31"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="F47:F54"/>
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="F55:F61"/>
+    <mergeCell ref="B51:B61"/>
+    <mergeCell ref="J70:J73"/>
+    <mergeCell ref="J74:J77"/>
+    <mergeCell ref="N44:N46"/>
+    <mergeCell ref="N47:N49"/>
+    <mergeCell ref="N60:N64"/>
+    <mergeCell ref="N65:N68"/>
+    <mergeCell ref="N69:N72"/>
+    <mergeCell ref="N73:N76"/>
+    <mergeCell ref="N50:N59"/>
+    <mergeCell ref="J60:J62"/>
+    <mergeCell ref="F62:F65"/>
+    <mergeCell ref="F70:F73"/>
+    <mergeCell ref="F66:F69"/>
+    <mergeCell ref="F74:F78"/>
+    <mergeCell ref="B67:B72"/>
+    <mergeCell ref="B73:B76"/>
+    <mergeCell ref="B77:B80"/>
+    <mergeCell ref="V2:V5"/>
+    <mergeCell ref="V25:V27"/>
+    <mergeCell ref="V28:V31"/>
+    <mergeCell ref="V6:V12"/>
+    <mergeCell ref="V13:V24"/>
+    <mergeCell ref="J50:J59"/>
+    <mergeCell ref="R48:R52"/>
+    <mergeCell ref="R53:R59"/>
+    <mergeCell ref="R44:R47"/>
+    <mergeCell ref="J23:J27"/>
+    <mergeCell ref="J28:J31"/>
+    <mergeCell ref="N24:N29"/>
+    <mergeCell ref="N30:N33"/>
+    <mergeCell ref="R26:R30"/>
+    <mergeCell ref="J44:J46"/>
+    <mergeCell ref="J47:J49"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="R4:R9"/>
+    <mergeCell ref="R10:R19"/>
+    <mergeCell ref="R20:R21"/>
+    <mergeCell ref="R22:R25"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="N4:N10"/>
+    <mergeCell ref="N11:N16"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="N19:N23"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="B2:B3"/>
     <mergeCell ref="V68:V72"/>
     <mergeCell ref="V73:V76"/>
     <mergeCell ref="R66:R69"/>
     <mergeCell ref="R70:R74"/>
-    <mergeCell ref="J11:J16"/>
     <mergeCell ref="R31:R34"/>
     <mergeCell ref="V43:Y43"/>
     <mergeCell ref="V44:V46"/>
@@ -4674,76 +4762,7 @@
     <mergeCell ref="V32:V35"/>
     <mergeCell ref="V36:V39"/>
     <mergeCell ref="J63:J69"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="B10:B15"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="N4:N10"/>
-    <mergeCell ref="N11:N16"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="N19:N23"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="R4:R9"/>
-    <mergeCell ref="R10:R19"/>
-    <mergeCell ref="R20:R21"/>
-    <mergeCell ref="R22:R25"/>
     <mergeCell ref="R61:R65"/>
-    <mergeCell ref="N24:N29"/>
-    <mergeCell ref="N30:N33"/>
-    <mergeCell ref="R26:R30"/>
-    <mergeCell ref="J44:J46"/>
-    <mergeCell ref="J47:J49"/>
-    <mergeCell ref="J50:J59"/>
-    <mergeCell ref="R48:R52"/>
-    <mergeCell ref="R53:R59"/>
-    <mergeCell ref="J31:J35"/>
-    <mergeCell ref="J25:J30"/>
-    <mergeCell ref="R44:R47"/>
-    <mergeCell ref="V2:V5"/>
-    <mergeCell ref="V25:V27"/>
-    <mergeCell ref="V28:V31"/>
-    <mergeCell ref="V6:V12"/>
-    <mergeCell ref="V13:V24"/>
-    <mergeCell ref="B66:B70"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="F62:F65"/>
-    <mergeCell ref="F70:F73"/>
-    <mergeCell ref="F66:F69"/>
-    <mergeCell ref="F74:F78"/>
-    <mergeCell ref="J70:J73"/>
-    <mergeCell ref="J74:J77"/>
-    <mergeCell ref="N44:N46"/>
-    <mergeCell ref="N47:N49"/>
-    <mergeCell ref="N60:N64"/>
-    <mergeCell ref="N65:N68"/>
-    <mergeCell ref="N69:N72"/>
-    <mergeCell ref="N73:N76"/>
-    <mergeCell ref="N50:N59"/>
-    <mergeCell ref="J60:J62"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B61:B65"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="F20:F23"/>
-    <mergeCell ref="F24:F27"/>
-    <mergeCell ref="F28:F31"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="B51:B60"/>
-    <mergeCell ref="F47:F54"/>
-    <mergeCell ref="F44:F46"/>
-    <mergeCell ref="F55:F61"/>
-    <mergeCell ref="J4:J10"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="J17:J20"/>
-    <mergeCell ref="J21:J24"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="F11:F16"/>
-    <mergeCell ref="F6:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4754,59 +4773,59 @@
   <dimension ref="A1:Z50"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="K8" sqref="K8:K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.7265625" customWidth="1"/>
     <col min="10" max="10" width="29" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.54296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="26.453125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="30.1796875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="E1" s="28" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="E1" s="23" t="s">
         <v>412</v>
       </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
       <c r="J1" t="s">
         <v>411</v>
       </c>
-      <c r="O1" s="28" t="s">
+      <c r="O1" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="T1" s="28" t="s">
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="T1" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="X1" s="28" t="s">
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="X1" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>415</v>
       </c>
@@ -4838,7 +4857,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>413</v>
       </c>
@@ -4855,7 +4874,7 @@
         <v>555</v>
       </c>
       <c r="K3" t="s">
-        <v>528</v>
+        <v>502</v>
       </c>
       <c r="O3" t="s">
         <v>641</v>
@@ -4876,7 +4895,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>592</v>
       </c>
@@ -4893,7 +4912,7 @@
         <v>596</v>
       </c>
       <c r="K4" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="O4" t="s">
         <v>642</v>
@@ -4914,7 +4933,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>573</v>
       </c>
@@ -4931,7 +4950,7 @@
         <v>417</v>
       </c>
       <c r="K5" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="O5" t="s">
         <v>643</v>
@@ -4949,7 +4968,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>491</v>
       </c>
@@ -4957,7 +4976,7 @@
         <v>606</v>
       </c>
       <c r="K6" t="s">
-        <v>511</v>
+        <v>528</v>
       </c>
       <c r="P6" t="s">
         <v>521</v>
@@ -4972,75 +4991,87 @@
         <v>541</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>489</v>
       </c>
+      <c r="K7" t="s">
+        <v>493</v>
+      </c>
       <c r="T7" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>490</v>
       </c>
       <c r="E8" t="s">
         <v>600</v>
       </c>
+      <c r="K8" t="s">
+        <v>494</v>
+      </c>
       <c r="T8" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="E9" t="s">
         <v>622</v>
       </c>
+      <c r="K9" t="s">
+        <v>510</v>
+      </c>
       <c r="T9" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="E10" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
+      <c r="K10" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A17" s="23" t="s">
         <v>212</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
       <c r="E17" t="s">
         <v>420</v>
       </c>
-      <c r="I17" s="28" t="s">
+      <c r="I17" s="23" t="s">
         <v>421</v>
       </c>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="N17" s="28" t="s">
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="N17" s="23" t="s">
         <v>314</v>
       </c>
-      <c r="O17" s="28"/>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="28"/>
-      <c r="S17" s="28" t="s">
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="S17" s="23" t="s">
         <v>315</v>
       </c>
-      <c r="T17" s="28"/>
-      <c r="U17" s="28"/>
-      <c r="V17" s="28"/>
+      <c r="T17" s="23"/>
+      <c r="U17" s="23"/>
+      <c r="V17" s="23"/>
       <c r="X17" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>611</v>
       </c>
       <c r="B18" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="E18" t="s">
         <v>601</v>
@@ -5073,12 +5104,12 @@
         <v>542</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>613</v>
       </c>
       <c r="B19" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
       <c r="E19" t="s">
         <v>629</v>
@@ -5108,12 +5139,12 @@
         <v>543</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>628</v>
       </c>
       <c r="B20" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="E20" t="s">
         <v>598</v>
@@ -5146,12 +5177,12 @@
         <v>544</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>602</v>
       </c>
       <c r="B21" t="s">
-        <v>493</v>
+        <v>506</v>
       </c>
       <c r="E21" t="s">
         <v>429</v>
@@ -5184,13 +5215,10 @@
         <v>545</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>608</v>
       </c>
-      <c r="B22" t="s">
-        <v>504</v>
-      </c>
       <c r="E22" t="s">
         <v>594</v>
       </c>
@@ -5216,13 +5244,10 @@
         <v>546</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>619</v>
       </c>
-      <c r="B23" t="s">
-        <v>505</v>
-      </c>
       <c r="E23" t="s">
         <v>604</v>
       </c>
@@ -5230,13 +5255,10 @@
         <v>609</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>632</v>
       </c>
-      <c r="B24" t="s">
-        <v>495</v>
-      </c>
       <c r="E24" t="s">
         <v>624</v>
       </c>
@@ -5244,13 +5266,10 @@
         <v>431</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>432</v>
       </c>
-      <c r="B25" t="s">
-        <v>506</v>
-      </c>
       <c r="E25" t="s">
         <v>620</v>
       </c>
@@ -5258,58 +5277,58 @@
         <v>433</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
       <c r="E26" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
       <c r="C30" s="2" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
       <c r="C31" s="2" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
       <c r="C32" s="2" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="33" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C33" s="2" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="34" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C34" s="2" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="35" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C35" s="2" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="36" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C36" s="2" t="s">
         <v>467</v>
       </c>
       <c r="H36" s="2"/>
     </row>
-    <row r="37" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C37" s="2" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="38" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C38" s="2" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="39" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C39" s="2" t="s">
         <v>447</v>
       </c>
@@ -5320,7 +5339,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="40" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:11" x14ac:dyDescent="0.35">
       <c r="J40" s="18" t="s">
         <v>634</v>
       </c>
@@ -5328,7 +5347,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="41" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="J41" s="19" t="s">
         <v>572</v>
       </c>
@@ -5336,47 +5355,47 @@
         <v>647</v>
       </c>
     </row>
-    <row r="42" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:11" x14ac:dyDescent="0.35">
       <c r="J42" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="43" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:11" x14ac:dyDescent="0.35">
       <c r="J43" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="44" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:11" x14ac:dyDescent="0.35">
       <c r="J44" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="45" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:11" x14ac:dyDescent="0.35">
       <c r="J45" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="46" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:11" x14ac:dyDescent="0.35">
       <c r="J46" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="47" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:11" x14ac:dyDescent="0.35">
       <c r="J47" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="48" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:11" x14ac:dyDescent="0.35">
       <c r="J48" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="49" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J49" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="50" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J50" t="s">
         <v>646</v>
       </c>
@@ -5405,14 +5424,14 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>470</v>
       </c>
@@ -5423,7 +5442,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>442</v>
       </c>
@@ -5434,7 +5453,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>471</v>
       </c>
@@ -5445,7 +5464,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>447</v>
       </c>
@@ -5456,7 +5475,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>450</v>
       </c>
@@ -5467,7 +5486,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>436</v>
       </c>
@@ -5478,7 +5497,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>472</v>
       </c>
@@ -5489,7 +5508,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>437</v>
       </c>
@@ -5500,7 +5519,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>459</v>
       </c>
@@ -5511,7 +5530,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>438</v>
       </c>
@@ -5522,7 +5541,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>464</v>
       </c>
@@ -5533,7 +5552,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>467</v>
       </c>
@@ -5564,28 +5583,28 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K91"/>
+  <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="A92" sqref="A92"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>473</v>
       </c>
@@ -5593,7 +5612,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
         <v>474</v>
       </c>
@@ -5601,8 +5620,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>457</v>
       </c>
@@ -5617,23 +5636,23 @@
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="10"/>
       <c r="B5" s="11" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="10"/>
       <c r="B6" s="11" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="10"/>
       <c r="B7" s="11"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
         <v>478</v>
       </c>
@@ -5641,62 +5660,62 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="10"/>
       <c r="B9" s="11" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="10"/>
       <c r="B10" s="11" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="10"/>
       <c r="B11" s="11" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="10"/>
       <c r="B12" s="11" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="10"/>
       <c r="B13" s="11" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="10"/>
       <c r="B14" s="11" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="10"/>
       <c r="B15" s="11" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="10"/>
       <c r="B16" s="11" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="7"/>
       <c r="B17" s="8" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>547</v>
       </c>
@@ -5704,59 +5723,59 @@
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="10"/>
       <c r="B20" s="12" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="10"/>
       <c r="B21" s="11" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="10"/>
       <c r="B22" s="11" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="10"/>
       <c r="B23" s="11" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="10"/>
       <c r="B24" s="12" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="10"/>
       <c r="B25" s="12" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="10"/>
       <c r="B26" s="11" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="10"/>
       <c r="B27" s="11" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="10" t="s">
         <v>552</v>
       </c>
@@ -5764,104 +5783,104 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="10"/>
       <c r="B30" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="10"/>
       <c r="B31" s="11" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="10"/>
       <c r="B32" s="11" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="10"/>
       <c r="B33" s="12" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="10"/>
       <c r="B34" s="12" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="10"/>
       <c r="B35" s="12" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="10"/>
       <c r="B36" s="12" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="10"/>
       <c r="B37" s="12" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="10"/>
       <c r="B38" s="11" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="10"/>
       <c r="B39" s="12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="10"/>
       <c r="B40" s="11" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="10"/>
       <c r="B41" s="11" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="10"/>
       <c r="B42" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="10"/>
       <c r="B43" s="11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="10"/>
       <c r="B44" s="12" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="7"/>
       <c r="B45" s="13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
         <v>563</v>
       </c>
@@ -5869,19 +5888,19 @@
         <v>564</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="10"/>
       <c r="B48" s="11" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="10"/>
       <c r="B49" s="11" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="7" t="s">
         <v>567</v>
       </c>
@@ -5889,8 +5908,8 @@
         <v>225</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
         <v>457</v>
       </c>
@@ -5898,29 +5917,29 @@
         <v>569</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="10"/>
       <c r="B54" s="15" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="10"/>
       <c r="B55" s="15" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="10"/>
       <c r="B56" s="15" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="10"/>
       <c r="B57" s="15"/>
     </row>
-    <row r="58" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="7" t="s">
         <v>572</v>
       </c>
@@ -5928,8 +5947,8 @@
         <v>321</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
         <v>574</v>
       </c>
@@ -5937,7 +5956,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="7" t="s">
         <v>563</v>
       </c>
@@ -5945,8 +5964,8 @@
         <v>576</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
         <v>563</v>
       </c>
@@ -5954,13 +5973,13 @@
         <v>48</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="10"/>
       <c r="B65" s="11" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="10" t="s">
         <v>578</v>
       </c>
@@ -5968,20 +5987,20 @@
         <v>579</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="10"/>
       <c r="B67" s="11" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="7"/>
       <c r="B68" s="8" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
         <v>584</v>
       </c>
@@ -5989,25 +6008,25 @@
         <v>183</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="10"/>
       <c r="B71" s="11" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="10"/>
       <c r="B72" s="11" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="10"/>
       <c r="B73" s="11" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="10" t="s">
         <v>588</v>
       </c>
@@ -6015,44 +6034,44 @@
         <v>589</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="10"/>
       <c r="B75" s="11" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="10"/>
       <c r="B76" s="11" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="10"/>
       <c r="B77" s="11" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="10"/>
       <c r="B78" s="11" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="10"/>
       <c r="B79" s="11" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="7"/>
       <c r="B80" s="8" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="5" t="s">
         <v>578</v>
       </c>
@@ -6060,7 +6079,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84" s="7" t="s">
         <v>648</v>
       </c>
@@ -6068,35 +6087,92 @@
         <v>649</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+    <row r="86" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" s="5" t="s">
         <v>650</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="6" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" s="10" t="s">
         <v>651</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="11" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B89" t="s">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" s="10"/>
+      <c r="B89" s="11" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B90" t="s">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" s="10"/>
+      <c r="B90" s="11" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B91" t="s">
+    <row r="91" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A91" s="7"/>
+      <c r="B91" s="8" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" s="10"/>
+      <c r="B94" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" s="10"/>
+      <c r="B95" s="11" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" s="10"/>
+      <c r="B96" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" s="10" t="s">
+        <v>650</v>
+      </c>
+      <c r="B97" s="11" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" s="10"/>
+      <c r="B98" s="11" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" s="10"/>
+      <c r="B99" s="11" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A100" s="7"/>
+      <c r="B100" s="8" t="s">
+        <v>657</v>
       </c>
     </row>
   </sheetData>

--- a/OffSeason.xlsx
+++ b/OffSeason.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310"/>
   </bookViews>
   <sheets>
     <sheet name="Rosters" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="660">
   <si>
     <t>Chubber for Chubb - John Olson</t>
   </si>
@@ -2001,6 +2001,12 @@
   </si>
   <si>
     <t>2021 2nd (Adam)</t>
+  </si>
+  <si>
+    <t>alan</t>
+  </si>
+  <si>
+    <t>2021 3rd (vanja)</t>
   </si>
 </sst>
 </file>
@@ -2232,32 +2238,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2542,8 +2548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y80"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11:K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2558,11 +2564,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
       <c r="F1" t="s">
         <v>42</v>
       </c>
@@ -2583,37 +2589,37 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="21" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="21" t="s">
         <v>1</v>
       </c>
       <c r="G2" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="J2" s="21" t="s">
         <v>1</v>
       </c>
       <c r="K2" t="s">
         <v>77</v>
       </c>
-      <c r="N2" s="24" t="s">
+      <c r="N2" s="21" t="s">
         <v>1</v>
       </c>
       <c r="O2" t="s">
         <v>112</v>
       </c>
-      <c r="R2" s="24" t="s">
+      <c r="R2" s="21" t="s">
         <v>1</v>
       </c>
       <c r="S2" t="s">
         <v>144</v>
       </c>
-      <c r="V2" s="24" t="s">
+      <c r="V2" s="21" t="s">
         <v>1</v>
       </c>
       <c r="W2" t="s">
@@ -2624,27 +2630,27 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="24"/>
+      <c r="B3" s="21"/>
       <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="24"/>
+      <c r="F3" s="21"/>
       <c r="G3" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="24"/>
+      <c r="J3" s="21"/>
       <c r="K3" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="24"/>
+      <c r="N3" s="21"/>
       <c r="O3" t="s">
         <v>104</v>
       </c>
-      <c r="R3" s="24"/>
+      <c r="R3" s="21"/>
       <c r="S3" t="s">
         <v>145</v>
       </c>
-      <c r="V3" s="24"/>
+      <c r="V3" s="21"/>
       <c r="W3" t="s">
         <v>179</v>
       </c>
@@ -2653,35 +2659,35 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="20" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="24"/>
+      <c r="F4" s="21"/>
       <c r="G4" t="s">
         <v>46</v>
       </c>
-      <c r="J4" s="25" t="s">
+      <c r="J4" s="20" t="s">
         <v>5</v>
       </c>
       <c r="K4" t="s">
         <v>248</v>
       </c>
-      <c r="N4" s="25" t="s">
+      <c r="N4" s="20" t="s">
         <v>5</v>
       </c>
       <c r="O4" t="s">
         <v>113</v>
       </c>
-      <c r="R4" s="25" t="s">
+      <c r="R4" s="20" t="s">
         <v>5</v>
       </c>
       <c r="S4" t="s">
         <v>146</v>
       </c>
-      <c r="V4" s="24"/>
+      <c r="V4" s="21"/>
       <c r="W4" t="s">
         <v>180</v>
       </c>
@@ -2690,27 +2696,27 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="25"/>
+      <c r="B5" s="20"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="24"/>
+      <c r="F5" s="21"/>
       <c r="G5" t="s">
         <v>47</v>
       </c>
-      <c r="J5" s="25"/>
+      <c r="J5" s="20"/>
       <c r="K5" t="s">
         <v>81</v>
       </c>
-      <c r="N5" s="25"/>
+      <c r="N5" s="20"/>
       <c r="O5" t="s">
         <v>114</v>
       </c>
-      <c r="R5" s="25"/>
+      <c r="R5" s="20"/>
       <c r="S5" t="s">
         <v>147</v>
       </c>
-      <c r="V5" s="24"/>
+      <c r="V5" s="21"/>
       <c r="W5" t="s">
         <v>181</v>
       </c>
@@ -2719,29 +2725,29 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="25"/>
+      <c r="B6" s="20"/>
       <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="20" t="s">
         <v>5</v>
       </c>
       <c r="G6" t="s">
         <v>215</v>
       </c>
-      <c r="J6" s="25"/>
+      <c r="J6" s="20"/>
       <c r="K6" t="s">
         <v>82</v>
       </c>
-      <c r="N6" s="25"/>
+      <c r="N6" s="20"/>
       <c r="O6" t="s">
         <v>115</v>
       </c>
-      <c r="R6" s="25"/>
+      <c r="R6" s="20"/>
       <c r="S6" t="s">
         <v>148</v>
       </c>
-      <c r="V6" s="25" t="s">
+      <c r="V6" s="20" t="s">
         <v>5</v>
       </c>
       <c r="W6" t="s">
@@ -2752,27 +2758,27 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="25"/>
+      <c r="B7" s="20"/>
       <c r="C7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="25"/>
+      <c r="F7" s="20"/>
       <c r="G7" t="s">
         <v>52</v>
       </c>
-      <c r="J7" s="25"/>
+      <c r="J7" s="20"/>
       <c r="K7" t="s">
         <v>84</v>
       </c>
-      <c r="N7" s="25"/>
+      <c r="N7" s="20"/>
       <c r="O7" t="s">
         <v>116</v>
       </c>
-      <c r="R7" s="25"/>
+      <c r="R7" s="20"/>
       <c r="S7" t="s">
         <v>149</v>
       </c>
-      <c r="V7" s="25"/>
+      <c r="V7" s="20"/>
       <c r="W7" t="s">
         <v>250</v>
       </c>
@@ -2781,27 +2787,27 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="25"/>
+      <c r="B8" s="20"/>
       <c r="C8" t="s">
         <v>80</v>
       </c>
-      <c r="F8" s="25"/>
+      <c r="F8" s="20"/>
       <c r="G8" t="s">
         <v>51</v>
       </c>
-      <c r="J8" s="25"/>
+      <c r="J8" s="20"/>
       <c r="K8" t="s">
         <v>85</v>
       </c>
-      <c r="N8" s="25"/>
+      <c r="N8" s="20"/>
       <c r="O8" t="s">
         <v>117</v>
       </c>
-      <c r="R8" s="25"/>
+      <c r="R8" s="20"/>
       <c r="S8" t="s">
         <v>150</v>
       </c>
-      <c r="V8" s="25"/>
+      <c r="V8" s="20"/>
       <c r="W8" t="s">
         <v>184</v>
       </c>
@@ -2810,27 +2816,27 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="25"/>
+      <c r="B9" s="20"/>
       <c r="C9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="25"/>
+      <c r="F9" s="20"/>
       <c r="G9" t="s">
         <v>50</v>
       </c>
-      <c r="J9" s="25"/>
+      <c r="J9" s="20"/>
       <c r="K9" t="s">
         <v>10</v>
       </c>
-      <c r="N9" s="25"/>
+      <c r="N9" s="20"/>
       <c r="O9" t="s">
         <v>118</v>
       </c>
-      <c r="R9" s="25"/>
+      <c r="R9" s="20"/>
       <c r="S9" t="s">
         <v>151</v>
       </c>
-      <c r="V9" s="25"/>
+      <c r="V9" s="20"/>
       <c r="W9" t="s">
         <v>252</v>
       </c>
@@ -2839,31 +2845,31 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="23" t="s">
         <v>12</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="25"/>
+      <c r="F10" s="20"/>
       <c r="G10" t="s">
         <v>49</v>
       </c>
-      <c r="J10" s="25"/>
+      <c r="J10" s="20"/>
       <c r="K10" t="s">
         <v>48</v>
       </c>
-      <c r="N10" s="25"/>
+      <c r="N10" s="20"/>
       <c r="O10" t="s">
         <v>119</v>
       </c>
-      <c r="R10" s="22" t="s">
+      <c r="R10" s="23" t="s">
         <v>12</v>
       </c>
       <c r="S10" t="s">
         <v>152</v>
       </c>
-      <c r="V10" s="25"/>
+      <c r="V10" s="20"/>
       <c r="W10" t="s">
         <v>186</v>
       </c>
@@ -2872,33 +2878,33 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="22"/>
+      <c r="B11" s="23"/>
       <c r="C11" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F11" s="23" t="s">
         <v>12</v>
       </c>
       <c r="G11" t="s">
         <v>54</v>
       </c>
-      <c r="J11" s="22" t="s">
+      <c r="J11" s="23" t="s">
         <v>12</v>
       </c>
       <c r="K11" t="s">
         <v>88</v>
       </c>
-      <c r="N11" s="22" t="s">
+      <c r="N11" s="23" t="s">
         <v>12</v>
       </c>
       <c r="O11" t="s">
         <v>120</v>
       </c>
-      <c r="R11" s="22"/>
+      <c r="R11" s="23"/>
       <c r="S11" t="s">
         <v>153</v>
       </c>
-      <c r="V11" s="25"/>
+      <c r="V11" s="20"/>
       <c r="W11" t="s">
         <v>187</v>
       </c>
@@ -2907,27 +2913,27 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="22"/>
+      <c r="B12" s="23"/>
       <c r="C12" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="22"/>
+      <c r="F12" s="23"/>
       <c r="G12" t="s">
         <v>56</v>
       </c>
-      <c r="J12" s="22"/>
+      <c r="J12" s="23"/>
       <c r="K12" t="s">
         <v>16</v>
       </c>
-      <c r="N12" s="22"/>
+      <c r="N12" s="23"/>
       <c r="O12" t="s">
         <v>121</v>
       </c>
-      <c r="R12" s="22"/>
+      <c r="R12" s="23"/>
       <c r="S12" t="s">
         <v>154</v>
       </c>
-      <c r="V12" s="25"/>
+      <c r="V12" s="20"/>
       <c r="W12" t="s">
         <v>53</v>
       </c>
@@ -2936,27 +2942,27 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="22"/>
+      <c r="B13" s="23"/>
       <c r="C13" t="s">
         <v>86</v>
       </c>
-      <c r="F13" s="22"/>
+      <c r="F13" s="23"/>
       <c r="G13" t="s">
         <v>58</v>
       </c>
-      <c r="J13" s="22"/>
+      <c r="J13" s="23"/>
       <c r="K13" t="s">
         <v>17</v>
       </c>
-      <c r="N13" s="22"/>
+      <c r="N13" s="23"/>
       <c r="O13" t="s">
         <v>122</v>
       </c>
-      <c r="R13" s="22"/>
+      <c r="R13" s="23"/>
       <c r="S13" t="s">
         <v>155</v>
       </c>
-      <c r="V13" s="22" t="s">
+      <c r="V13" s="23" t="s">
         <v>12</v>
       </c>
       <c r="W13" t="s">
@@ -2967,27 +2973,27 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="22"/>
+      <c r="B14" s="23"/>
       <c r="C14" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="22"/>
+      <c r="F14" s="23"/>
       <c r="G14" t="s">
         <v>59</v>
       </c>
-      <c r="J14" s="22"/>
+      <c r="J14" s="23"/>
       <c r="K14" t="s">
         <v>22</v>
       </c>
-      <c r="N14" s="22"/>
+      <c r="N14" s="23"/>
       <c r="O14" t="s">
         <v>123</v>
       </c>
-      <c r="R14" s="22"/>
+      <c r="R14" s="23"/>
       <c r="S14" t="s">
         <v>156</v>
       </c>
-      <c r="V14" s="22"/>
+      <c r="V14" s="23"/>
       <c r="W14" t="s">
         <v>256</v>
       </c>
@@ -2996,27 +3002,27 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="22"/>
+      <c r="B15" s="23"/>
       <c r="C15" t="s">
         <v>87</v>
       </c>
-      <c r="F15" s="22"/>
+      <c r="F15" s="23"/>
       <c r="G15" t="s">
         <v>226</v>
       </c>
-      <c r="J15" s="22"/>
+      <c r="J15" s="23"/>
       <c r="K15" t="s">
         <v>23</v>
       </c>
-      <c r="N15" s="22"/>
+      <c r="N15" s="23"/>
       <c r="O15" t="s">
         <v>124</v>
       </c>
-      <c r="R15" s="22"/>
+      <c r="R15" s="23"/>
       <c r="S15" t="s">
         <v>157</v>
       </c>
-      <c r="V15" s="22"/>
+      <c r="V15" s="23"/>
       <c r="W15" t="s">
         <v>189</v>
       </c>
@@ -3025,31 +3031,31 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="22" t="s">
         <v>18</v>
       </c>
       <c r="C16" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="22"/>
+      <c r="F16" s="23"/>
       <c r="G16" t="s">
         <v>225</v>
       </c>
-      <c r="J16" s="26" t="s">
+      <c r="J16" s="22" t="s">
         <v>18</v>
       </c>
       <c r="K16" t="s">
         <v>95</v>
       </c>
-      <c r="N16" s="22"/>
+      <c r="N16" s="23"/>
       <c r="O16" t="s">
         <v>125</v>
       </c>
-      <c r="R16" s="22"/>
+      <c r="R16" s="23"/>
       <c r="S16" t="s">
         <v>158</v>
       </c>
-      <c r="V16" s="22"/>
+      <c r="V16" s="23"/>
       <c r="W16" t="s">
         <v>190</v>
       </c>
@@ -3058,31 +3064,31 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="26"/>
+      <c r="B17" s="22"/>
       <c r="C17" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="26" t="s">
+      <c r="F17" s="22" t="s">
         <v>18</v>
       </c>
       <c r="G17" t="s">
         <v>60</v>
       </c>
-      <c r="J17" s="26"/>
+      <c r="J17" s="22"/>
       <c r="K17" t="s">
         <v>96</v>
       </c>
-      <c r="N17" s="26" t="s">
+      <c r="N17" s="22" t="s">
         <v>18</v>
       </c>
       <c r="O17" t="s">
         <v>126</v>
       </c>
-      <c r="R17" s="22"/>
+      <c r="R17" s="23"/>
       <c r="S17" t="s">
         <v>159</v>
       </c>
-      <c r="V17" s="22"/>
+      <c r="V17" s="23"/>
       <c r="W17" t="s">
         <v>191</v>
       </c>
@@ -3091,27 +3097,27 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="26"/>
+      <c r="B18" s="22"/>
       <c r="C18" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="26"/>
+      <c r="F18" s="22"/>
       <c r="G18" t="s">
         <v>62</v>
       </c>
-      <c r="J18" s="26"/>
+      <c r="J18" s="22"/>
       <c r="K18" t="s">
         <v>97</v>
       </c>
-      <c r="N18" s="26"/>
+      <c r="N18" s="22"/>
       <c r="O18" t="s">
         <v>127</v>
       </c>
-      <c r="R18" s="22"/>
+      <c r="R18" s="23"/>
       <c r="S18" t="s">
         <v>160</v>
       </c>
-      <c r="V18" s="22"/>
+      <c r="V18" s="23"/>
       <c r="W18" t="s">
         <v>91</v>
       </c>
@@ -3120,31 +3126,31 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="24" t="s">
         <v>24</v>
       </c>
       <c r="C19" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="26"/>
+      <c r="F19" s="22"/>
       <c r="G19" t="s">
         <v>63</v>
       </c>
-      <c r="J19" s="26"/>
+      <c r="J19" s="22"/>
       <c r="K19" t="s">
         <v>98</v>
       </c>
-      <c r="N19" s="27" t="s">
+      <c r="N19" s="24" t="s">
         <v>24</v>
       </c>
       <c r="O19" t="s">
         <v>128</v>
       </c>
-      <c r="R19" s="22"/>
+      <c r="R19" s="23"/>
       <c r="S19" t="s">
         <v>161</v>
       </c>
-      <c r="V19" s="22"/>
+      <c r="V19" s="23"/>
       <c r="W19" t="s">
         <v>261</v>
       </c>
@@ -3153,33 +3159,33 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="27"/>
+      <c r="B20" s="24"/>
       <c r="C20" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="27" t="s">
+      <c r="F20" s="24" t="s">
         <v>24</v>
       </c>
       <c r="G20" t="s">
         <v>64</v>
       </c>
-      <c r="J20" s="27" t="s">
+      <c r="J20" s="24" t="s">
         <v>24</v>
       </c>
       <c r="K20" t="s">
         <v>99</v>
       </c>
-      <c r="N20" s="27"/>
+      <c r="N20" s="24"/>
       <c r="O20" t="s">
         <v>129</v>
       </c>
-      <c r="R20" s="26" t="s">
+      <c r="R20" s="22" t="s">
         <v>18</v>
       </c>
       <c r="S20" t="s">
         <v>162</v>
       </c>
-      <c r="V20" s="22"/>
+      <c r="V20" s="23"/>
       <c r="W20" t="s">
         <v>94</v>
       </c>
@@ -3188,27 +3194,27 @@
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="27"/>
+      <c r="B21" s="24"/>
       <c r="C21" t="s">
         <v>27</v>
       </c>
-      <c r="F21" s="27"/>
+      <c r="F21" s="24"/>
       <c r="G21" t="s">
         <v>65</v>
       </c>
-      <c r="J21" s="27"/>
+      <c r="J21" s="24"/>
       <c r="K21" t="s">
         <v>28</v>
       </c>
-      <c r="N21" s="27"/>
+      <c r="N21" s="24"/>
       <c r="O21" t="s">
         <v>130</v>
       </c>
-      <c r="R21" s="26"/>
+      <c r="R21" s="22"/>
       <c r="S21" t="s">
         <v>163</v>
       </c>
-      <c r="V21" s="22"/>
+      <c r="V21" s="23"/>
       <c r="W21" t="s">
         <v>192</v>
       </c>
@@ -3217,29 +3223,29 @@
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="27"/>
+      <c r="B22" s="24"/>
       <c r="C22" t="s">
         <v>100</v>
       </c>
-      <c r="F22" s="27"/>
+      <c r="F22" s="24"/>
       <c r="G22" t="s">
         <v>66</v>
       </c>
-      <c r="J22" s="27"/>
+      <c r="J22" s="24"/>
       <c r="K22" t="s">
         <v>29</v>
       </c>
-      <c r="N22" s="27"/>
+      <c r="N22" s="24"/>
       <c r="O22" t="s">
         <v>131</v>
       </c>
-      <c r="R22" s="27" t="s">
+      <c r="R22" s="24" t="s">
         <v>24</v>
       </c>
       <c r="S22" t="s">
         <v>164</v>
       </c>
-      <c r="V22" s="22"/>
+      <c r="V22" s="23"/>
       <c r="W22" t="s">
         <v>193</v>
       </c>
@@ -3248,31 +3254,31 @@
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="25" t="s">
         <v>30</v>
       </c>
       <c r="C23" t="s">
         <v>31</v>
       </c>
-      <c r="F23" s="27"/>
+      <c r="F23" s="24"/>
       <c r="G23" t="s">
         <v>67</v>
       </c>
-      <c r="J23" s="20" t="s">
+      <c r="J23" s="25" t="s">
         <v>30</v>
       </c>
       <c r="K23" t="s">
         <v>103</v>
       </c>
-      <c r="N23" s="27"/>
+      <c r="N23" s="24"/>
       <c r="O23" t="s">
         <v>132</v>
       </c>
-      <c r="R23" s="27"/>
+      <c r="R23" s="24"/>
       <c r="S23" t="s">
         <v>165</v>
       </c>
-      <c r="V23" s="22"/>
+      <c r="V23" s="23"/>
       <c r="W23" t="s">
         <v>195</v>
       </c>
@@ -3281,31 +3287,31 @@
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="20"/>
+      <c r="B24" s="25"/>
       <c r="C24" t="s">
         <v>32</v>
       </c>
-      <c r="F24" s="20" t="s">
+      <c r="F24" s="25" t="s">
         <v>30</v>
       </c>
       <c r="G24" t="s">
         <v>69</v>
       </c>
-      <c r="J24" s="20"/>
+      <c r="J24" s="25"/>
       <c r="K24" t="s">
         <v>104</v>
       </c>
-      <c r="N24" s="20" t="s">
+      <c r="N24" s="25" t="s">
         <v>30</v>
       </c>
       <c r="O24" t="s">
         <v>133</v>
       </c>
-      <c r="R24" s="27"/>
+      <c r="R24" s="24"/>
       <c r="S24" t="s">
         <v>166</v>
       </c>
-      <c r="V24" s="22"/>
+      <c r="V24" s="23"/>
       <c r="W24" t="s">
         <v>196</v>
       </c>
@@ -3314,27 +3320,27 @@
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="20"/>
+      <c r="B25" s="25"/>
       <c r="C25" t="s">
         <v>33</v>
       </c>
-      <c r="F25" s="20"/>
+      <c r="F25" s="25"/>
       <c r="G25" t="s">
         <v>70</v>
       </c>
-      <c r="J25" s="20"/>
+      <c r="J25" s="25"/>
       <c r="K25" t="s">
         <v>105</v>
       </c>
-      <c r="N25" s="20"/>
+      <c r="N25" s="25"/>
       <c r="O25" t="s">
         <v>134</v>
       </c>
-      <c r="R25" s="27"/>
+      <c r="R25" s="24"/>
       <c r="S25" t="s">
         <v>167</v>
       </c>
-      <c r="V25" s="26" t="s">
+      <c r="V25" s="22" t="s">
         <v>18</v>
       </c>
       <c r="W25" t="s">
@@ -3345,31 +3351,31 @@
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="26" t="s">
         <v>36</v>
       </c>
       <c r="C26" t="s">
         <v>37</v>
       </c>
-      <c r="F26" s="20"/>
+      <c r="F26" s="25"/>
       <c r="G26" t="s">
         <v>71</v>
       </c>
-      <c r="J26" s="20"/>
+      <c r="J26" s="25"/>
       <c r="K26" t="s">
         <v>106</v>
       </c>
-      <c r="N26" s="20"/>
+      <c r="N26" s="25"/>
       <c r="O26" t="s">
         <v>135</v>
       </c>
-      <c r="R26" s="20" t="s">
+      <c r="R26" s="25" t="s">
         <v>30</v>
       </c>
       <c r="S26" t="s">
         <v>168</v>
       </c>
-      <c r="V26" s="26"/>
+      <c r="V26" s="22"/>
       <c r="W26" t="s">
         <v>198</v>
       </c>
@@ -3378,27 +3384,29 @@
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="21"/>
+      <c r="B27" s="26"/>
       <c r="C27" t="s">
         <v>38</v>
       </c>
-      <c r="F27" s="20"/>
+      <c r="F27" s="25"/>
       <c r="G27" t="s">
         <v>68</v>
       </c>
-      <c r="J27" s="20"/>
+      <c r="J27" s="26" t="s">
+        <v>36</v>
+      </c>
       <c r="K27" t="s">
-        <v>35</v>
-      </c>
-      <c r="N27" s="20"/>
+        <v>40</v>
+      </c>
+      <c r="N27" s="25"/>
       <c r="O27" t="s">
         <v>136</v>
       </c>
-      <c r="R27" s="20"/>
+      <c r="R27" s="25"/>
       <c r="S27" t="s">
         <v>169</v>
       </c>
-      <c r="V27" s="26"/>
+      <c r="V27" s="22"/>
       <c r="W27" t="s">
         <v>199</v>
       </c>
@@ -3407,31 +3415,29 @@
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="21"/>
+      <c r="B28" s="26"/>
       <c r="C28" t="s">
         <v>39</v>
       </c>
-      <c r="F28" s="21" t="s">
+      <c r="F28" s="26" t="s">
         <v>36</v>
       </c>
       <c r="G28" t="s">
         <v>72</v>
       </c>
-      <c r="J28" s="21" t="s">
-        <v>36</v>
-      </c>
+      <c r="J28" s="26"/>
       <c r="K28" t="s">
-        <v>40</v>
-      </c>
-      <c r="N28" s="20"/>
+        <v>108</v>
+      </c>
+      <c r="N28" s="25"/>
       <c r="O28" t="s">
         <v>137</v>
       </c>
-      <c r="R28" s="20"/>
+      <c r="R28" s="25"/>
       <c r="S28" t="s">
         <v>170</v>
       </c>
-      <c r="V28" s="27" t="s">
+      <c r="V28" s="24" t="s">
         <v>24</v>
       </c>
       <c r="W28" t="s">
@@ -3442,27 +3448,27 @@
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="21"/>
+      <c r="B29" s="26"/>
       <c r="C29" t="s">
         <v>107</v>
       </c>
-      <c r="F29" s="21"/>
+      <c r="F29" s="26"/>
       <c r="G29" t="s">
         <v>73</v>
       </c>
-      <c r="J29" s="21"/>
+      <c r="J29" s="26"/>
       <c r="K29" t="s">
-        <v>108</v>
-      </c>
-      <c r="N29" s="20"/>
+        <v>110</v>
+      </c>
+      <c r="N29" s="25"/>
       <c r="O29" t="s">
         <v>138</v>
       </c>
-      <c r="R29" s="20"/>
+      <c r="R29" s="25"/>
       <c r="S29" t="s">
         <v>171</v>
       </c>
-      <c r="V29" s="27"/>
+      <c r="V29" s="24"/>
       <c r="W29" t="s">
         <v>201</v>
       </c>
@@ -3471,25 +3477,25 @@
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="F30" s="21"/>
+      <c r="F30" s="26"/>
       <c r="G30" t="s">
         <v>74</v>
       </c>
-      <c r="J30" s="21"/>
+      <c r="J30" s="26"/>
       <c r="K30" t="s">
-        <v>110</v>
-      </c>
-      <c r="N30" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="N30" s="26" t="s">
         <v>36</v>
       </c>
       <c r="O30" t="s">
         <v>139</v>
       </c>
-      <c r="R30" s="20"/>
+      <c r="R30" s="25"/>
       <c r="S30" t="s">
         <v>172</v>
       </c>
-      <c r="V30" s="27"/>
+      <c r="V30" s="24"/>
       <c r="W30" t="s">
         <v>202</v>
       </c>
@@ -3498,39 +3504,35 @@
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="F31" s="21"/>
+      <c r="F31" s="26"/>
       <c r="G31" t="s">
         <v>75</v>
       </c>
-      <c r="J31" s="21"/>
-      <c r="K31" t="s">
-        <v>41</v>
-      </c>
-      <c r="N31" s="21"/>
+      <c r="N31" s="26"/>
       <c r="O31" t="s">
         <v>140</v>
       </c>
-      <c r="R31" s="21" t="s">
+      <c r="R31" s="26" t="s">
         <v>36</v>
       </c>
       <c r="S31" t="s">
         <v>173</v>
       </c>
-      <c r="V31" s="27"/>
+      <c r="V31" s="24"/>
       <c r="W31" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="N32" s="21"/>
+      <c r="N32" s="26"/>
       <c r="O32" t="s">
         <v>141</v>
       </c>
-      <c r="R32" s="21"/>
+      <c r="R32" s="26"/>
       <c r="S32" t="s">
         <v>174</v>
       </c>
-      <c r="V32" s="20" t="s">
+      <c r="V32" s="25" t="s">
         <v>30</v>
       </c>
       <c r="W32" t="s">
@@ -3538,58 +3540,64 @@
       </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="N33" s="21"/>
+      <c r="N33" s="26"/>
       <c r="O33" t="s">
         <v>142</v>
       </c>
-      <c r="R33" s="21"/>
+      <c r="R33" s="26"/>
       <c r="S33" t="s">
         <v>175</v>
       </c>
-      <c r="V33" s="20"/>
+      <c r="V33" s="25"/>
       <c r="W33" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="R34" s="21"/>
+      <c r="R34" s="26"/>
       <c r="S34" t="s">
         <v>176</v>
       </c>
-      <c r="V34" s="20"/>
+      <c r="V34" s="25"/>
       <c r="W34" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="V35" s="20"/>
+      <c r="V35" s="25"/>
       <c r="W35" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="V36" s="21" t="s">
+      <c r="V36" s="25"/>
+      <c r="W36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="V37" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="W36" t="s">
+      <c r="W37" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="V37" s="21"/>
-      <c r="W37" t="s">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="V38" s="26"/>
+      <c r="W38" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="V38" s="21"/>
-      <c r="W38" t="s">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="V39" s="26"/>
+      <c r="W39" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="V39" s="21"/>
-      <c r="W39" t="s">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="V40" s="26"/>
+      <c r="W40" t="s">
         <v>211</v>
       </c>
     </row>
@@ -3609,48 +3617,48 @@
       <c r="R43" t="s">
         <v>315</v>
       </c>
-      <c r="V43" s="23" t="s">
+      <c r="V43" s="28" t="s">
         <v>316</v>
       </c>
-      <c r="W43" s="23"/>
-      <c r="X43" s="23"/>
-      <c r="Y43" s="23"/>
+      <c r="W43" s="28"/>
+      <c r="X43" s="28"/>
+      <c r="Y43" s="28"/>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>1</v>
       </c>
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="21" t="s">
         <v>1</v>
       </c>
       <c r="C44" t="s">
         <v>44</v>
       </c>
-      <c r="F44" s="24" t="s">
+      <c r="F44" s="21" t="s">
         <v>1</v>
       </c>
       <c r="G44" t="s">
         <v>246</v>
       </c>
-      <c r="J44" s="24" t="s">
+      <c r="J44" s="21" t="s">
         <v>1</v>
       </c>
       <c r="K44" t="s">
         <v>280</v>
       </c>
-      <c r="N44" s="24" t="s">
+      <c r="N44" s="21" t="s">
         <v>1</v>
       </c>
       <c r="O44" t="s">
         <v>317</v>
       </c>
-      <c r="R44" s="24" t="s">
+      <c r="R44" s="21" t="s">
         <v>1</v>
       </c>
       <c r="S44" t="s">
         <v>348</v>
       </c>
-      <c r="V44" s="24" t="s">
+      <c r="V44" s="21" t="s">
         <v>1</v>
       </c>
       <c r="W44" t="s">
@@ -3661,27 +3669,27 @@
       <c r="A45" s="1">
         <v>2</v>
       </c>
-      <c r="B45" s="24"/>
+      <c r="B45" s="21"/>
       <c r="C45" t="s">
         <v>214</v>
       </c>
-      <c r="F45" s="24"/>
+      <c r="F45" s="21"/>
       <c r="G45" t="s">
         <v>247</v>
       </c>
-      <c r="J45" s="24"/>
+      <c r="J45" s="21"/>
       <c r="K45" t="s">
         <v>281</v>
       </c>
-      <c r="N45" s="24"/>
+      <c r="N45" s="21"/>
       <c r="O45" t="s">
         <v>318</v>
       </c>
-      <c r="R45" s="24"/>
+      <c r="R45" s="21"/>
       <c r="S45" t="s">
         <v>349</v>
       </c>
-      <c r="V45" s="24"/>
+      <c r="V45" s="21"/>
       <c r="W45" t="s">
         <v>379</v>
       </c>
@@ -3690,27 +3698,27 @@
       <c r="A46" s="1">
         <v>3</v>
       </c>
-      <c r="B46" s="24"/>
+      <c r="B46" s="21"/>
       <c r="C46" t="s">
         <v>213</v>
       </c>
-      <c r="F46" s="24"/>
+      <c r="F46" s="21"/>
       <c r="G46" t="s">
         <v>79</v>
       </c>
-      <c r="J46" s="24"/>
+      <c r="J46" s="21"/>
       <c r="K46" t="s">
         <v>282</v>
       </c>
-      <c r="N46" s="24"/>
+      <c r="N46" s="21"/>
       <c r="O46" t="s">
         <v>319</v>
       </c>
-      <c r="R46" s="24"/>
+      <c r="R46" s="21"/>
       <c r="S46" t="s">
         <v>78</v>
       </c>
-      <c r="V46" s="24"/>
+      <c r="V46" s="21"/>
       <c r="W46" t="s">
         <v>380</v>
       </c>
@@ -3719,35 +3727,35 @@
       <c r="A47" s="1">
         <v>4</v>
       </c>
-      <c r="B47" s="25" t="s">
+      <c r="B47" s="20" t="s">
         <v>5</v>
       </c>
       <c r="C47" t="s">
         <v>216</v>
       </c>
-      <c r="F47" s="25" t="s">
+      <c r="F47" s="20" t="s">
         <v>5</v>
       </c>
       <c r="G47" t="s">
         <v>183</v>
       </c>
-      <c r="J47" s="25" t="s">
+      <c r="J47" s="20" t="s">
         <v>5</v>
       </c>
       <c r="K47" t="s">
         <v>283</v>
       </c>
-      <c r="N47" s="25" t="s">
+      <c r="N47" s="20" t="s">
         <v>5</v>
       </c>
       <c r="O47" t="s">
         <v>320</v>
       </c>
-      <c r="R47" s="24"/>
+      <c r="R47" s="21"/>
       <c r="S47" t="s">
         <v>350</v>
       </c>
-      <c r="V47" s="25" t="s">
+      <c r="V47" s="20" t="s">
         <v>5</v>
       </c>
       <c r="W47" t="s">
@@ -3758,29 +3766,29 @@
       <c r="A48" s="1">
         <v>5</v>
       </c>
-      <c r="B48" s="25"/>
+      <c r="B48" s="20"/>
       <c r="C48" t="s">
         <v>217</v>
       </c>
-      <c r="F48" s="25"/>
+      <c r="F48" s="20"/>
       <c r="G48" t="s">
         <v>321</v>
       </c>
-      <c r="J48" s="25"/>
+      <c r="J48" s="20"/>
       <c r="K48" t="s">
         <v>284</v>
       </c>
-      <c r="N48" s="25"/>
+      <c r="N48" s="20"/>
       <c r="O48" t="s">
         <v>251</v>
       </c>
-      <c r="R48" s="25" t="s">
+      <c r="R48" s="20" t="s">
         <v>5</v>
       </c>
       <c r="S48" t="s">
         <v>351</v>
       </c>
-      <c r="V48" s="25"/>
+      <c r="V48" s="20"/>
       <c r="W48" t="s">
         <v>382</v>
       </c>
@@ -3789,27 +3797,27 @@
       <c r="A49" s="1">
         <v>6</v>
       </c>
-      <c r="B49" s="25"/>
+      <c r="B49" s="20"/>
       <c r="C49" t="s">
         <v>221</v>
       </c>
-      <c r="F49" s="25"/>
+      <c r="F49" s="20"/>
       <c r="G49" t="s">
         <v>185</v>
       </c>
-      <c r="J49" s="25"/>
+      <c r="J49" s="20"/>
       <c r="K49" t="s">
         <v>285</v>
       </c>
-      <c r="N49" s="25"/>
+      <c r="N49" s="20"/>
       <c r="O49" t="s">
         <v>322</v>
       </c>
-      <c r="R49" s="25"/>
+      <c r="R49" s="20"/>
       <c r="S49" t="s">
         <v>352</v>
       </c>
-      <c r="V49" s="25"/>
+      <c r="V49" s="20"/>
       <c r="W49" t="s">
         <v>383</v>
       </c>
@@ -3818,31 +3826,31 @@
       <c r="A50" s="1">
         <v>7</v>
       </c>
-      <c r="B50" s="25"/>
+      <c r="B50" s="20"/>
       <c r="C50" t="s">
         <v>222</v>
       </c>
-      <c r="F50" s="25"/>
+      <c r="F50" s="20"/>
       <c r="G50" t="s">
         <v>249</v>
       </c>
-      <c r="J50" s="22" t="s">
+      <c r="J50" s="23" t="s">
         <v>12</v>
       </c>
       <c r="K50" t="s">
         <v>286</v>
       </c>
-      <c r="N50" s="22" t="s">
+      <c r="N50" s="23" t="s">
         <v>12</v>
       </c>
       <c r="O50" t="s">
         <v>323</v>
       </c>
-      <c r="R50" s="25"/>
+      <c r="R50" s="20"/>
       <c r="S50" t="s">
         <v>353</v>
       </c>
-      <c r="V50" s="25"/>
+      <c r="V50" s="20"/>
       <c r="W50" t="s">
         <v>384</v>
       </c>
@@ -3851,29 +3859,29 @@
       <c r="A51" s="1">
         <v>8</v>
       </c>
-      <c r="B51" s="22" t="s">
+      <c r="B51" s="23" t="s">
         <v>12</v>
       </c>
       <c r="C51" t="s">
         <v>57</v>
       </c>
-      <c r="F51" s="25"/>
+      <c r="F51" s="20"/>
       <c r="G51" t="s">
         <v>253</v>
       </c>
-      <c r="J51" s="22"/>
+      <c r="J51" s="23"/>
       <c r="K51" t="s">
         <v>287</v>
       </c>
-      <c r="N51" s="22"/>
+      <c r="N51" s="23"/>
       <c r="O51" t="s">
         <v>324</v>
       </c>
-      <c r="R51" s="25"/>
+      <c r="R51" s="20"/>
       <c r="S51" t="s">
         <v>354</v>
       </c>
-      <c r="V51" s="25"/>
+      <c r="V51" s="20"/>
       <c r="W51" t="s">
         <v>385</v>
       </c>
@@ -3882,27 +3890,27 @@
       <c r="A52" s="1">
         <v>9</v>
       </c>
-      <c r="B52" s="22"/>
+      <c r="B52" s="23"/>
       <c r="C52" t="s">
         <v>218</v>
       </c>
-      <c r="F52" s="25"/>
+      <c r="F52" s="20"/>
       <c r="G52" t="s">
         <v>254</v>
       </c>
-      <c r="J52" s="22"/>
+      <c r="J52" s="23"/>
       <c r="K52" t="s">
         <v>288</v>
       </c>
-      <c r="N52" s="22"/>
+      <c r="N52" s="23"/>
       <c r="O52" t="s">
         <v>325</v>
       </c>
-      <c r="R52" s="25"/>
+      <c r="R52" s="20"/>
       <c r="S52" t="s">
         <v>355</v>
       </c>
-      <c r="V52" s="22" t="s">
+      <c r="V52" s="23" t="s">
         <v>12</v>
       </c>
       <c r="W52" t="s">
@@ -3913,29 +3921,29 @@
       <c r="A53" s="1">
         <v>10</v>
       </c>
-      <c r="B53" s="22"/>
+      <c r="B53" s="23"/>
       <c r="C53" t="s">
         <v>219</v>
       </c>
-      <c r="F53" s="25"/>
+      <c r="F53" s="20"/>
       <c r="G53" t="s">
         <v>255</v>
       </c>
-      <c r="J53" s="22"/>
+      <c r="J53" s="23"/>
       <c r="K53" t="s">
         <v>289</v>
       </c>
-      <c r="N53" s="22"/>
+      <c r="N53" s="23"/>
       <c r="O53" t="s">
         <v>326</v>
       </c>
-      <c r="R53" s="22" t="s">
+      <c r="R53" s="23" t="s">
         <v>12</v>
       </c>
       <c r="S53" t="s">
         <v>356</v>
       </c>
-      <c r="V53" s="22"/>
+      <c r="V53" s="23"/>
       <c r="W53" t="s">
         <v>387</v>
       </c>
@@ -3944,27 +3952,27 @@
       <c r="A54" s="1">
         <v>11</v>
       </c>
-      <c r="B54" s="22"/>
+      <c r="B54" s="23"/>
       <c r="C54" t="s">
         <v>93</v>
       </c>
-      <c r="F54" s="25"/>
+      <c r="F54" s="20"/>
       <c r="G54" t="s">
         <v>83</v>
       </c>
-      <c r="J54" s="22"/>
+      <c r="J54" s="23"/>
       <c r="K54" t="s">
         <v>290</v>
       </c>
-      <c r="N54" s="22"/>
+      <c r="N54" s="23"/>
       <c r="O54" t="s">
         <v>327</v>
       </c>
-      <c r="R54" s="22"/>
+      <c r="R54" s="23"/>
       <c r="S54" t="s">
         <v>357</v>
       </c>
-      <c r="V54" s="22"/>
+      <c r="V54" s="23"/>
       <c r="W54" t="s">
         <v>388</v>
       </c>
@@ -3973,29 +3981,29 @@
       <c r="A55" s="1">
         <v>12</v>
       </c>
-      <c r="B55" s="22"/>
+      <c r="B55" s="23"/>
       <c r="C55" t="s">
         <v>220</v>
       </c>
-      <c r="F55" s="22" t="s">
+      <c r="F55" s="23" t="s">
         <v>12</v>
       </c>
       <c r="G55" t="s">
         <v>194</v>
       </c>
-      <c r="J55" s="22"/>
+      <c r="J55" s="23"/>
       <c r="K55" t="s">
         <v>291</v>
       </c>
-      <c r="N55" s="22"/>
+      <c r="N55" s="23"/>
       <c r="O55" t="s">
         <v>328</v>
       </c>
-      <c r="R55" s="22"/>
+      <c r="R55" s="23"/>
       <c r="S55" t="s">
         <v>358</v>
       </c>
-      <c r="V55" s="22"/>
+      <c r="V55" s="23"/>
       <c r="W55" t="s">
         <v>389</v>
       </c>
@@ -4004,27 +4012,27 @@
       <c r="A56" s="1">
         <v>13</v>
       </c>
-      <c r="B56" s="22"/>
+      <c r="B56" s="23"/>
       <c r="C56" t="s">
         <v>223</v>
       </c>
-      <c r="F56" s="22"/>
+      <c r="F56" s="23"/>
       <c r="G56" t="s">
         <v>258</v>
       </c>
-      <c r="J56" s="22"/>
+      <c r="J56" s="23"/>
       <c r="K56" t="s">
         <v>292</v>
       </c>
-      <c r="N56" s="22"/>
+      <c r="N56" s="23"/>
       <c r="O56" t="s">
         <v>329</v>
       </c>
-      <c r="R56" s="22"/>
+      <c r="R56" s="23"/>
       <c r="S56" t="s">
         <v>359</v>
       </c>
-      <c r="V56" s="22"/>
+      <c r="V56" s="23"/>
       <c r="W56" t="s">
         <v>390</v>
       </c>
@@ -4033,27 +4041,27 @@
       <c r="A57" s="1">
         <v>14</v>
       </c>
-      <c r="B57" s="22"/>
+      <c r="B57" s="23"/>
       <c r="C57" t="s">
         <v>224</v>
       </c>
-      <c r="F57" s="22"/>
+      <c r="F57" s="23"/>
       <c r="G57" t="s">
         <v>90</v>
       </c>
-      <c r="J57" s="22"/>
+      <c r="J57" s="23"/>
       <c r="K57" t="s">
         <v>293</v>
       </c>
-      <c r="N57" s="22"/>
+      <c r="N57" s="23"/>
       <c r="O57" t="s">
         <v>257</v>
       </c>
-      <c r="R57" s="22"/>
+      <c r="R57" s="23"/>
       <c r="S57" t="s">
         <v>360</v>
       </c>
-      <c r="V57" s="22"/>
+      <c r="V57" s="23"/>
       <c r="W57" t="s">
         <v>391</v>
       </c>
@@ -4062,27 +4070,27 @@
       <c r="A58" s="1">
         <v>15</v>
       </c>
-      <c r="B58" s="22"/>
+      <c r="B58" s="23"/>
       <c r="C58" t="s">
         <v>227</v>
       </c>
-      <c r="F58" s="22"/>
+      <c r="F58" s="23"/>
       <c r="G58" t="s">
         <v>260</v>
       </c>
-      <c r="J58" s="22"/>
+      <c r="J58" s="23"/>
       <c r="K58" t="s">
         <v>294</v>
       </c>
-      <c r="N58" s="22"/>
+      <c r="N58" s="23"/>
       <c r="O58" t="s">
         <v>263</v>
       </c>
-      <c r="R58" s="22"/>
+      <c r="R58" s="23"/>
       <c r="S58" t="s">
         <v>361</v>
       </c>
-      <c r="V58" s="22"/>
+      <c r="V58" s="23"/>
       <c r="W58" t="s">
         <v>392</v>
       </c>
@@ -4091,27 +4099,27 @@
       <c r="A59" s="1">
         <v>16</v>
       </c>
-      <c r="B59" s="22"/>
+      <c r="B59" s="23"/>
       <c r="C59" t="s">
         <v>228</v>
       </c>
-      <c r="F59" s="22"/>
+      <c r="F59" s="23"/>
       <c r="G59" t="s">
         <v>262</v>
       </c>
-      <c r="J59" s="22"/>
+      <c r="J59" s="23"/>
       <c r="K59" t="s">
         <v>295</v>
       </c>
-      <c r="N59" s="22"/>
+      <c r="N59" s="23"/>
       <c r="O59" t="s">
         <v>330</v>
       </c>
-      <c r="R59" s="22"/>
+      <c r="R59" s="23"/>
       <c r="S59" t="s">
         <v>362</v>
       </c>
-      <c r="V59" s="22"/>
+      <c r="V59" s="23"/>
       <c r="W59" t="s">
         <v>393</v>
       </c>
@@ -4120,21 +4128,21 @@
       <c r="A60" s="1">
         <v>17</v>
       </c>
-      <c r="B60" s="22"/>
+      <c r="B60" s="23"/>
       <c r="C60" t="s">
         <v>229</v>
       </c>
-      <c r="F60" s="22"/>
+      <c r="F60" s="23"/>
       <c r="G60" t="s">
         <v>259</v>
       </c>
-      <c r="J60" s="26" t="s">
+      <c r="J60" s="22" t="s">
         <v>18</v>
       </c>
       <c r="K60" t="s">
         <v>296</v>
       </c>
-      <c r="N60" s="26" t="s">
+      <c r="N60" s="22" t="s">
         <v>18</v>
       </c>
       <c r="O60" t="s">
@@ -4146,7 +4154,7 @@
       <c r="S60" t="s">
         <v>363</v>
       </c>
-      <c r="V60" s="26" t="s">
+      <c r="V60" s="22" t="s">
         <v>18</v>
       </c>
       <c r="W60" t="s">
@@ -4157,29 +4165,29 @@
       <c r="A61" s="1">
         <v>18</v>
       </c>
-      <c r="B61" s="22"/>
+      <c r="B61" s="23"/>
       <c r="C61" t="s">
         <v>55</v>
       </c>
-      <c r="F61" s="22"/>
+      <c r="F61" s="23"/>
       <c r="G61" t="s">
         <v>92</v>
       </c>
-      <c r="J61" s="26"/>
+      <c r="J61" s="22"/>
       <c r="K61" t="s">
         <v>297</v>
       </c>
-      <c r="N61" s="26"/>
+      <c r="N61" s="22"/>
       <c r="O61" t="s">
         <v>332</v>
       </c>
-      <c r="R61" s="27" t="s">
+      <c r="R61" s="24" t="s">
         <v>24</v>
       </c>
       <c r="S61" t="s">
         <v>364</v>
       </c>
-      <c r="V61" s="26"/>
+      <c r="V61" s="22"/>
       <c r="W61" t="s">
         <v>395</v>
       </c>
@@ -4188,31 +4196,31 @@
       <c r="A62" s="1">
         <v>19</v>
       </c>
-      <c r="B62" s="26" t="s">
+      <c r="B62" s="22" t="s">
         <v>18</v>
       </c>
       <c r="C62" t="s">
         <v>233</v>
       </c>
-      <c r="F62" s="26" t="s">
+      <c r="F62" s="22" t="s">
         <v>18</v>
       </c>
       <c r="G62" t="s">
         <v>264</v>
       </c>
-      <c r="J62" s="26"/>
+      <c r="J62" s="22"/>
       <c r="K62" t="s">
         <v>298</v>
       </c>
-      <c r="N62" s="26"/>
+      <c r="N62" s="22"/>
       <c r="O62" t="s">
         <v>333</v>
       </c>
-      <c r="R62" s="27"/>
+      <c r="R62" s="24"/>
       <c r="S62" t="s">
         <v>365</v>
       </c>
-      <c r="V62" s="26"/>
+      <c r="V62" s="22"/>
       <c r="W62" t="s">
         <v>396</v>
       </c>
@@ -4221,29 +4229,29 @@
       <c r="A63" s="1">
         <v>20</v>
       </c>
-      <c r="B63" s="26"/>
+      <c r="B63" s="22"/>
       <c r="C63" t="s">
         <v>230</v>
       </c>
-      <c r="F63" s="26"/>
+      <c r="F63" s="22"/>
       <c r="G63" t="s">
         <v>265</v>
       </c>
-      <c r="J63" s="27" t="s">
+      <c r="J63" s="24" t="s">
         <v>24</v>
       </c>
       <c r="K63" t="s">
         <v>299</v>
       </c>
-      <c r="N63" s="26"/>
+      <c r="N63" s="22"/>
       <c r="O63" t="s">
         <v>334</v>
       </c>
-      <c r="R63" s="27"/>
+      <c r="R63" s="24"/>
       <c r="S63" t="s">
         <v>366</v>
       </c>
-      <c r="V63" s="26"/>
+      <c r="V63" s="22"/>
       <c r="W63" t="s">
         <v>397</v>
       </c>
@@ -4252,27 +4260,27 @@
       <c r="A64" s="1">
         <v>21</v>
       </c>
-      <c r="B64" s="26"/>
+      <c r="B64" s="22"/>
       <c r="C64" t="s">
         <v>231</v>
       </c>
-      <c r="F64" s="26"/>
+      <c r="F64" s="22"/>
       <c r="G64" t="s">
         <v>266</v>
       </c>
-      <c r="J64" s="27"/>
+      <c r="J64" s="24"/>
       <c r="K64" t="s">
         <v>300</v>
       </c>
-      <c r="N64" s="26"/>
+      <c r="N64" s="22"/>
       <c r="O64" t="s">
         <v>335</v>
       </c>
-      <c r="R64" s="27"/>
+      <c r="R64" s="24"/>
       <c r="S64" t="s">
         <v>367</v>
       </c>
-      <c r="V64" s="27" t="s">
+      <c r="V64" s="24" t="s">
         <v>24</v>
       </c>
       <c r="W64" t="s">
@@ -4283,29 +4291,29 @@
       <c r="A65" s="1">
         <v>22</v>
       </c>
-      <c r="B65" s="26"/>
+      <c r="B65" s="22"/>
       <c r="C65" t="s">
         <v>232</v>
       </c>
-      <c r="F65" s="26"/>
+      <c r="F65" s="22"/>
       <c r="G65" t="s">
         <v>267</v>
       </c>
-      <c r="J65" s="27"/>
+      <c r="J65" s="24"/>
       <c r="K65" t="s">
         <v>301</v>
       </c>
-      <c r="N65" s="27" t="s">
+      <c r="N65" s="24" t="s">
         <v>24</v>
       </c>
       <c r="O65" t="s">
         <v>336</v>
       </c>
-      <c r="R65" s="27"/>
+      <c r="R65" s="24"/>
       <c r="S65" t="s">
         <v>368</v>
       </c>
-      <c r="V65" s="27"/>
+      <c r="V65" s="24"/>
       <c r="W65" t="s">
         <v>399</v>
       </c>
@@ -4314,31 +4322,31 @@
       <c r="A66" s="1">
         <v>23</v>
       </c>
-      <c r="B66" s="26"/>
+      <c r="B66" s="22"/>
       <c r="C66" t="s">
         <v>61</v>
       </c>
-      <c r="F66" s="27" t="s">
+      <c r="F66" s="24" t="s">
         <v>24</v>
       </c>
       <c r="G66" t="s">
         <v>268</v>
       </c>
-      <c r="J66" s="27"/>
+      <c r="J66" s="24"/>
       <c r="K66" t="s">
         <v>302</v>
       </c>
-      <c r="N66" s="27"/>
+      <c r="N66" s="24"/>
       <c r="O66" t="s">
         <v>337</v>
       </c>
-      <c r="R66" s="20" t="s">
+      <c r="R66" s="25" t="s">
         <v>30</v>
       </c>
       <c r="S66" t="s">
         <v>369</v>
       </c>
-      <c r="V66" s="27"/>
+      <c r="V66" s="24"/>
       <c r="W66" t="s">
         <v>400</v>
       </c>
@@ -4347,29 +4355,29 @@
       <c r="A67" s="1">
         <v>24</v>
       </c>
-      <c r="B67" s="27" t="s">
+      <c r="B67" s="24" t="s">
         <v>24</v>
       </c>
       <c r="C67" t="s">
         <v>102</v>
       </c>
-      <c r="F67" s="27"/>
+      <c r="F67" s="24"/>
       <c r="G67" t="s">
         <v>269</v>
       </c>
-      <c r="J67" s="27"/>
+      <c r="J67" s="24"/>
       <c r="K67" t="s">
         <v>303</v>
       </c>
-      <c r="N67" s="27"/>
+      <c r="N67" s="24"/>
       <c r="O67" t="s">
         <v>338</v>
       </c>
-      <c r="R67" s="20"/>
+      <c r="R67" s="25"/>
       <c r="S67" t="s">
         <v>370</v>
       </c>
-      <c r="V67" s="27"/>
+      <c r="V67" s="24"/>
       <c r="W67" t="s">
         <v>401</v>
       </c>
@@ -4378,27 +4386,27 @@
       <c r="A68" s="1">
         <v>25</v>
       </c>
-      <c r="B68" s="27"/>
+      <c r="B68" s="24"/>
       <c r="C68" t="s">
         <v>234</v>
       </c>
-      <c r="F68" s="27"/>
+      <c r="F68" s="24"/>
       <c r="G68" t="s">
         <v>270</v>
       </c>
-      <c r="J68" s="27"/>
+      <c r="J68" s="24"/>
       <c r="K68" t="s">
         <v>304</v>
       </c>
-      <c r="N68" s="27"/>
+      <c r="N68" s="24"/>
       <c r="O68" t="s">
         <v>342</v>
       </c>
-      <c r="R68" s="20"/>
+      <c r="R68" s="25"/>
       <c r="S68" t="s">
         <v>371</v>
       </c>
-      <c r="V68" s="20" t="s">
+      <c r="V68" s="25" t="s">
         <v>30</v>
       </c>
       <c r="W68" t="s">
@@ -4409,29 +4417,29 @@
       <c r="A69" s="1">
         <v>26</v>
       </c>
-      <c r="B69" s="27"/>
+      <c r="B69" s="24"/>
       <c r="C69" t="s">
         <v>235</v>
       </c>
-      <c r="F69" s="27"/>
+      <c r="F69" s="24"/>
       <c r="G69" t="s">
         <v>101</v>
       </c>
-      <c r="J69" s="27"/>
+      <c r="J69" s="24"/>
       <c r="K69" t="s">
         <v>305</v>
       </c>
-      <c r="N69" s="20" t="s">
+      <c r="N69" s="25" t="s">
         <v>30</v>
       </c>
       <c r="O69" t="s">
         <v>339</v>
       </c>
-      <c r="R69" s="20"/>
+      <c r="R69" s="25"/>
       <c r="S69" t="s">
         <v>372</v>
       </c>
-      <c r="V69" s="20"/>
+      <c r="V69" s="25"/>
       <c r="W69" t="s">
         <v>403</v>
       </c>
@@ -4440,33 +4448,33 @@
       <c r="A70" s="1">
         <v>27</v>
       </c>
-      <c r="B70" s="27"/>
+      <c r="B70" s="24"/>
       <c r="C70" t="s">
         <v>236</v>
       </c>
-      <c r="F70" s="20" t="s">
+      <c r="F70" s="25" t="s">
         <v>30</v>
       </c>
       <c r="G70" t="s">
         <v>271</v>
       </c>
-      <c r="J70" s="20" t="s">
+      <c r="J70" s="25" t="s">
         <v>30</v>
       </c>
       <c r="K70" t="s">
         <v>306</v>
       </c>
-      <c r="N70" s="20"/>
+      <c r="N70" s="25"/>
       <c r="O70" t="s">
         <v>340</v>
       </c>
-      <c r="R70" s="21" t="s">
+      <c r="R70" s="26" t="s">
         <v>36</v>
       </c>
       <c r="S70" t="s">
         <v>373</v>
       </c>
-      <c r="V70" s="20"/>
+      <c r="V70" s="25"/>
       <c r="W70" t="s">
         <v>404</v>
       </c>
@@ -4475,27 +4483,27 @@
       <c r="A71" s="1">
         <v>28</v>
       </c>
-      <c r="B71" s="27"/>
+      <c r="B71" s="24"/>
       <c r="C71" t="s">
         <v>237</v>
       </c>
-      <c r="F71" s="20"/>
+      <c r="F71" s="25"/>
       <c r="G71" t="s">
         <v>272</v>
       </c>
-      <c r="J71" s="20"/>
+      <c r="J71" s="25"/>
       <c r="K71" t="s">
         <v>307</v>
       </c>
-      <c r="N71" s="20"/>
+      <c r="N71" s="25"/>
       <c r="O71" t="s">
         <v>341</v>
       </c>
-      <c r="R71" s="21"/>
+      <c r="R71" s="26"/>
       <c r="S71" t="s">
         <v>374</v>
       </c>
-      <c r="V71" s="20"/>
+      <c r="V71" s="25"/>
       <c r="W71" t="s">
         <v>405</v>
       </c>
@@ -4504,27 +4512,27 @@
       <c r="A72" s="1">
         <v>29</v>
       </c>
-      <c r="B72" s="27"/>
+      <c r="B72" s="24"/>
       <c r="C72" t="s">
         <v>238</v>
       </c>
-      <c r="F72" s="20"/>
+      <c r="F72" s="25"/>
       <c r="G72" t="s">
         <v>273</v>
       </c>
-      <c r="J72" s="20"/>
+      <c r="J72" s="25"/>
       <c r="K72" t="s">
         <v>308</v>
       </c>
-      <c r="N72" s="20"/>
+      <c r="N72" s="25"/>
       <c r="O72" t="s">
         <v>343</v>
       </c>
-      <c r="R72" s="21"/>
+      <c r="R72" s="26"/>
       <c r="S72" t="s">
         <v>375</v>
       </c>
-      <c r="V72" s="20"/>
+      <c r="V72" s="25"/>
       <c r="W72" t="s">
         <v>406</v>
       </c>
@@ -4533,31 +4541,31 @@
       <c r="A73" s="1">
         <v>30</v>
       </c>
-      <c r="B73" s="20" t="s">
+      <c r="B73" s="25" t="s">
         <v>30</v>
       </c>
       <c r="C73" t="s">
         <v>34</v>
       </c>
-      <c r="F73" s="20"/>
+      <c r="F73" s="25"/>
       <c r="G73" t="s">
         <v>274</v>
       </c>
-      <c r="J73" s="20"/>
+      <c r="J73" s="25"/>
       <c r="K73" t="s">
         <v>309</v>
       </c>
-      <c r="N73" s="21" t="s">
+      <c r="N73" s="26" t="s">
         <v>36</v>
       </c>
       <c r="O73" t="s">
         <v>344</v>
       </c>
-      <c r="R73" s="21"/>
+      <c r="R73" s="26"/>
       <c r="S73" t="s">
         <v>376</v>
       </c>
-      <c r="V73" s="21" t="s">
+      <c r="V73" s="26" t="s">
         <v>36</v>
       </c>
       <c r="W73" t="s">
@@ -4565,126 +4573,181 @@
       </c>
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B74" s="20"/>
+      <c r="B74" s="25"/>
       <c r="C74" t="s">
         <v>239</v>
       </c>
-      <c r="F74" s="21" t="s">
+      <c r="F74" s="26" t="s">
         <v>36</v>
       </c>
       <c r="G74" t="s">
         <v>275</v>
       </c>
-      <c r="J74" s="21" t="s">
+      <c r="J74" s="26" t="s">
         <v>36</v>
       </c>
       <c r="K74" t="s">
         <v>310</v>
       </c>
-      <c r="N74" s="21"/>
+      <c r="N74" s="26"/>
       <c r="O74" t="s">
         <v>345</v>
       </c>
-      <c r="R74" s="21"/>
+      <c r="R74" s="26"/>
       <c r="S74" t="s">
         <v>377</v>
       </c>
-      <c r="V74" s="21"/>
+      <c r="V74" s="26"/>
       <c r="W74" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B75" s="20"/>
+      <c r="B75" s="25"/>
       <c r="C75" t="s">
         <v>240</v>
       </c>
-      <c r="F75" s="21"/>
+      <c r="F75" s="26"/>
       <c r="G75" t="s">
         <v>276</v>
       </c>
-      <c r="J75" s="21"/>
+      <c r="J75" s="26"/>
       <c r="K75" t="s">
         <v>311</v>
       </c>
-      <c r="N75" s="21"/>
+      <c r="N75" s="26"/>
       <c r="O75" t="s">
         <v>346</v>
       </c>
-      <c r="V75" s="21"/>
+      <c r="V75" s="26"/>
       <c r="W75" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B76" s="20"/>
+      <c r="B76" s="25"/>
       <c r="C76" t="s">
         <v>241</v>
       </c>
-      <c r="F76" s="21"/>
+      <c r="F76" s="26"/>
       <c r="G76" t="s">
         <v>277</v>
       </c>
-      <c r="J76" s="21"/>
+      <c r="J76" s="26"/>
       <c r="K76" t="s">
         <v>312</v>
       </c>
-      <c r="N76" s="21"/>
+      <c r="N76" s="26"/>
       <c r="O76" t="s">
         <v>347</v>
       </c>
-      <c r="V76" s="21"/>
+      <c r="V76" s="26"/>
       <c r="W76" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B77" s="21" t="s">
+      <c r="B77" s="26" t="s">
         <v>36</v>
       </c>
       <c r="C77" t="s">
         <v>109</v>
       </c>
-      <c r="F77" s="21"/>
+      <c r="F77" s="26"/>
       <c r="G77" t="s">
         <v>278</v>
       </c>
-      <c r="J77" s="21"/>
+      <c r="J77" s="26"/>
       <c r="K77" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B78" s="21"/>
+      <c r="B78" s="26"/>
       <c r="C78" t="s">
         <v>242</v>
       </c>
-      <c r="F78" s="21"/>
+      <c r="F78" s="26"/>
       <c r="G78" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B79" s="21"/>
+      <c r="B79" s="26"/>
       <c r="C79" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B80" s="21"/>
+      <c r="B80" s="26"/>
       <c r="C80" t="s">
         <v>244</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="85">
-    <mergeCell ref="J4:J10"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="J16:J19"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="F11:F16"/>
-    <mergeCell ref="F6:F10"/>
-    <mergeCell ref="J11:J15"/>
+    <mergeCell ref="V68:V72"/>
+    <mergeCell ref="V73:V76"/>
+    <mergeCell ref="R66:R69"/>
+    <mergeCell ref="R70:R74"/>
+    <mergeCell ref="R31:R34"/>
+    <mergeCell ref="V43:Y43"/>
+    <mergeCell ref="V44:V46"/>
+    <mergeCell ref="V47:V51"/>
+    <mergeCell ref="V52:V59"/>
+    <mergeCell ref="V60:V63"/>
+    <mergeCell ref="V64:V67"/>
+    <mergeCell ref="V37:V40"/>
+    <mergeCell ref="R61:R65"/>
+    <mergeCell ref="V32:V36"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="N4:N10"/>
+    <mergeCell ref="N11:N16"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="N19:N23"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="R4:R9"/>
+    <mergeCell ref="R10:R19"/>
+    <mergeCell ref="R20:R21"/>
+    <mergeCell ref="R22:R25"/>
+    <mergeCell ref="R48:R52"/>
+    <mergeCell ref="R53:R59"/>
+    <mergeCell ref="R44:R47"/>
+    <mergeCell ref="J27:J30"/>
+    <mergeCell ref="N24:N29"/>
+    <mergeCell ref="N30:N33"/>
+    <mergeCell ref="R26:R30"/>
+    <mergeCell ref="J44:J46"/>
+    <mergeCell ref="J47:J49"/>
+    <mergeCell ref="J23:J26"/>
+    <mergeCell ref="V2:V5"/>
+    <mergeCell ref="V25:V27"/>
+    <mergeCell ref="V28:V31"/>
+    <mergeCell ref="V6:V12"/>
+    <mergeCell ref="V13:V24"/>
+    <mergeCell ref="F70:F73"/>
+    <mergeCell ref="F66:F69"/>
+    <mergeCell ref="F74:F78"/>
+    <mergeCell ref="B67:B72"/>
+    <mergeCell ref="B73:B76"/>
+    <mergeCell ref="B77:B80"/>
+    <mergeCell ref="J70:J73"/>
+    <mergeCell ref="J74:J77"/>
+    <mergeCell ref="N44:N46"/>
+    <mergeCell ref="N47:N49"/>
+    <mergeCell ref="N60:N64"/>
+    <mergeCell ref="N65:N68"/>
+    <mergeCell ref="N69:N72"/>
+    <mergeCell ref="N73:N76"/>
+    <mergeCell ref="N50:N59"/>
+    <mergeCell ref="J60:J62"/>
+    <mergeCell ref="J50:J59"/>
+    <mergeCell ref="J63:J69"/>
     <mergeCell ref="J20:J22"/>
     <mergeCell ref="B44:B46"/>
     <mergeCell ref="B62:B66"/>
@@ -4700,69 +4763,14 @@
     <mergeCell ref="F44:F46"/>
     <mergeCell ref="F55:F61"/>
     <mergeCell ref="B51:B61"/>
-    <mergeCell ref="J70:J73"/>
-    <mergeCell ref="J74:J77"/>
-    <mergeCell ref="N44:N46"/>
-    <mergeCell ref="N47:N49"/>
-    <mergeCell ref="N60:N64"/>
-    <mergeCell ref="N65:N68"/>
-    <mergeCell ref="N69:N72"/>
-    <mergeCell ref="N73:N76"/>
-    <mergeCell ref="N50:N59"/>
-    <mergeCell ref="J60:J62"/>
     <mergeCell ref="F62:F65"/>
-    <mergeCell ref="F70:F73"/>
-    <mergeCell ref="F66:F69"/>
-    <mergeCell ref="F74:F78"/>
-    <mergeCell ref="B67:B72"/>
-    <mergeCell ref="B73:B76"/>
-    <mergeCell ref="B77:B80"/>
-    <mergeCell ref="V2:V5"/>
-    <mergeCell ref="V25:V27"/>
-    <mergeCell ref="V28:V31"/>
-    <mergeCell ref="V6:V12"/>
-    <mergeCell ref="V13:V24"/>
-    <mergeCell ref="J50:J59"/>
-    <mergeCell ref="R48:R52"/>
-    <mergeCell ref="R53:R59"/>
-    <mergeCell ref="R44:R47"/>
-    <mergeCell ref="J23:J27"/>
-    <mergeCell ref="J28:J31"/>
-    <mergeCell ref="N24:N29"/>
-    <mergeCell ref="N30:N33"/>
-    <mergeCell ref="R26:R30"/>
-    <mergeCell ref="J44:J46"/>
-    <mergeCell ref="J47:J49"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="R4:R9"/>
-    <mergeCell ref="R10:R19"/>
-    <mergeCell ref="R20:R21"/>
-    <mergeCell ref="R22:R25"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="N4:N10"/>
-    <mergeCell ref="N11:N16"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="N19:N23"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="B10:B15"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="V68:V72"/>
-    <mergeCell ref="V73:V76"/>
-    <mergeCell ref="R66:R69"/>
-    <mergeCell ref="R70:R74"/>
-    <mergeCell ref="R31:R34"/>
-    <mergeCell ref="V43:Y43"/>
-    <mergeCell ref="V44:V46"/>
-    <mergeCell ref="V47:V51"/>
-    <mergeCell ref="V52:V59"/>
-    <mergeCell ref="V60:V63"/>
-    <mergeCell ref="V64:V67"/>
-    <mergeCell ref="V32:V35"/>
-    <mergeCell ref="V36:V39"/>
-    <mergeCell ref="J63:J69"/>
-    <mergeCell ref="R61:R65"/>
+    <mergeCell ref="J4:J10"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="J16:J19"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="F11:F16"/>
+    <mergeCell ref="F6:F10"/>
+    <mergeCell ref="J11:J15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4773,7 +4781,7 @@
   <dimension ref="A1:Z50"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8:K10"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4794,36 +4802,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="E1" s="23" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="E1" s="28" t="s">
         <v>412</v>
       </c>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
       <c r="J1" t="s">
         <v>411</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="O1" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="T1" s="23" t="s">
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="T1" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="X1" s="23" t="s">
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="X1" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -4891,9 +4899,6 @@
       <c r="X3" t="s">
         <v>605</v>
       </c>
-      <c r="Y3" t="s">
-        <v>509</v>
-      </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -5021,7 +5026,7 @@
         <v>622</v>
       </c>
       <c r="K9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="T9" t="s">
         <v>612</v>
@@ -5032,36 +5037,41 @@
         <v>419</v>
       </c>
       <c r="K10" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="K11" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="28" t="s">
         <v>212</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
       <c r="E17" t="s">
         <v>420</v>
       </c>
-      <c r="I17" s="23" t="s">
+      <c r="I17" s="28" t="s">
         <v>421</v>
       </c>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="N17" s="23" t="s">
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="N17" s="28" t="s">
         <v>314</v>
       </c>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="S17" s="23" t="s">
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="28"/>
+      <c r="S17" s="28" t="s">
         <v>315</v>
       </c>
-      <c r="T17" s="23"/>
-      <c r="U17" s="23"/>
-      <c r="V17" s="23"/>
+      <c r="T17" s="28"/>
+      <c r="U17" s="28"/>
+      <c r="V17" s="28"/>
       <c r="X17" t="s">
         <v>316</v>
       </c>
@@ -5583,10 +5593,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K100"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="C91" sqref="C91"/>
+    <sheetView topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="C103" sqref="C103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6175,6 +6185,23 @@
         <v>657</v>
       </c>
     </row>
+    <row r="102" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A104" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/OffSeason.xlsx
+++ b/OffSeason.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="664">
   <si>
     <t>Chubber for Chubb - John Olson</t>
   </si>
@@ -2007,6 +2007,18 @@
   </si>
   <si>
     <t>2021 3rd (vanja)</t>
+  </si>
+  <si>
+    <t>Sony</t>
+  </si>
+  <si>
+    <t>2020 4.x</t>
+  </si>
+  <si>
+    <t>2021 2nd (Vanja)</t>
+  </si>
+  <si>
+    <t>2021 3rd (alan)</t>
   </si>
 </sst>
 </file>
@@ -2205,7 +2217,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2238,21 +2250,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2260,10 +2257,28 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2548,8 +2563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11:K14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2564,11 +2579,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
       <c r="F1" t="s">
         <v>42</v>
       </c>
@@ -2589,37 +2604,37 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="23" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="23" t="s">
         <v>1</v>
       </c>
       <c r="G2" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="21" t="s">
+      <c r="J2" s="23" t="s">
         <v>1</v>
       </c>
       <c r="K2" t="s">
         <v>77</v>
       </c>
-      <c r="N2" s="21" t="s">
+      <c r="N2" s="23" t="s">
         <v>1</v>
       </c>
       <c r="O2" t="s">
         <v>112</v>
       </c>
-      <c r="R2" s="21" t="s">
+      <c r="R2" s="23" t="s">
         <v>1</v>
       </c>
       <c r="S2" t="s">
         <v>144</v>
       </c>
-      <c r="V2" s="21" t="s">
+      <c r="V2" s="23" t="s">
         <v>1</v>
       </c>
       <c r="W2" t="s">
@@ -2630,27 +2645,27 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="21"/>
+      <c r="B3" s="23"/>
       <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="21"/>
+      <c r="F3" s="23"/>
       <c r="G3" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="21"/>
+      <c r="J3" s="23"/>
       <c r="K3" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="21"/>
+      <c r="N3" s="23"/>
       <c r="O3" t="s">
         <v>104</v>
       </c>
-      <c r="R3" s="21"/>
+      <c r="R3" s="23"/>
       <c r="S3" t="s">
         <v>145</v>
       </c>
-      <c r="V3" s="21"/>
+      <c r="V3" s="23"/>
       <c r="W3" t="s">
         <v>179</v>
       </c>
@@ -2659,35 +2674,35 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="24" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="21"/>
+      <c r="F4" s="23"/>
       <c r="G4" t="s">
         <v>46</v>
       </c>
-      <c r="J4" s="20" t="s">
+      <c r="J4" s="24" t="s">
         <v>5</v>
       </c>
       <c r="K4" t="s">
         <v>248</v>
       </c>
-      <c r="N4" s="20" t="s">
+      <c r="N4" s="24" t="s">
         <v>5</v>
       </c>
       <c r="O4" t="s">
         <v>113</v>
       </c>
-      <c r="R4" s="20" t="s">
+      <c r="R4" s="24" t="s">
         <v>5</v>
       </c>
       <c r="S4" t="s">
         <v>146</v>
       </c>
-      <c r="V4" s="21"/>
+      <c r="V4" s="23"/>
       <c r="W4" t="s">
         <v>180</v>
       </c>
@@ -2696,27 +2711,27 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="20"/>
+      <c r="B5" s="24"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="21"/>
+      <c r="F5" s="23"/>
       <c r="G5" t="s">
         <v>47</v>
       </c>
-      <c r="J5" s="20"/>
+      <c r="J5" s="24"/>
       <c r="K5" t="s">
         <v>81</v>
       </c>
-      <c r="N5" s="20"/>
+      <c r="N5" s="24"/>
       <c r="O5" t="s">
         <v>114</v>
       </c>
-      <c r="R5" s="20"/>
+      <c r="R5" s="24"/>
       <c r="S5" t="s">
         <v>147</v>
       </c>
-      <c r="V5" s="21"/>
+      <c r="V5" s="23"/>
       <c r="W5" t="s">
         <v>181</v>
       </c>
@@ -2725,29 +2740,29 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="20"/>
+      <c r="B6" s="24"/>
       <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="24" t="s">
         <v>5</v>
       </c>
       <c r="G6" t="s">
         <v>215</v>
       </c>
-      <c r="J6" s="20"/>
+      <c r="J6" s="24"/>
       <c r="K6" t="s">
         <v>82</v>
       </c>
-      <c r="N6" s="20"/>
+      <c r="N6" s="24"/>
       <c r="O6" t="s">
         <v>115</v>
       </c>
-      <c r="R6" s="20"/>
+      <c r="R6" s="24"/>
       <c r="S6" t="s">
         <v>148</v>
       </c>
-      <c r="V6" s="20" t="s">
+      <c r="V6" s="24" t="s">
         <v>5</v>
       </c>
       <c r="W6" t="s">
@@ -2758,27 +2773,27 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="20"/>
+      <c r="B7" s="24"/>
       <c r="C7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="20"/>
+      <c r="F7" s="24"/>
       <c r="G7" t="s">
         <v>52</v>
       </c>
-      <c r="J7" s="20"/>
+      <c r="J7" s="24"/>
       <c r="K7" t="s">
         <v>84</v>
       </c>
-      <c r="N7" s="20"/>
+      <c r="N7" s="24"/>
       <c r="O7" t="s">
         <v>116</v>
       </c>
-      <c r="R7" s="20"/>
+      <c r="R7" s="24"/>
       <c r="S7" t="s">
         <v>149</v>
       </c>
-      <c r="V7" s="20"/>
+      <c r="V7" s="24"/>
       <c r="W7" t="s">
         <v>250</v>
       </c>
@@ -2787,27 +2802,27 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="20"/>
+      <c r="B8" s="24"/>
       <c r="C8" t="s">
         <v>80</v>
       </c>
-      <c r="F8" s="20"/>
+      <c r="F8" s="24"/>
       <c r="G8" t="s">
-        <v>51</v>
-      </c>
-      <c r="J8" s="20"/>
+        <v>50</v>
+      </c>
+      <c r="J8" s="24"/>
       <c r="K8" t="s">
-        <v>85</v>
-      </c>
-      <c r="N8" s="20"/>
+        <v>48</v>
+      </c>
+      <c r="N8" s="24"/>
       <c r="O8" t="s">
         <v>117</v>
       </c>
-      <c r="R8" s="20"/>
+      <c r="R8" s="24"/>
       <c r="S8" t="s">
         <v>150</v>
       </c>
-      <c r="V8" s="20"/>
+      <c r="V8" s="24"/>
       <c r="W8" t="s">
         <v>184</v>
       </c>
@@ -2816,27 +2831,27 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="20"/>
+      <c r="B9" s="24"/>
       <c r="C9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="20"/>
+      <c r="F9" s="24"/>
       <c r="G9" t="s">
-        <v>50</v>
-      </c>
-      <c r="J9" s="20"/>
+        <v>49</v>
+      </c>
+      <c r="J9" s="24"/>
       <c r="K9" t="s">
-        <v>10</v>
-      </c>
-      <c r="N9" s="20"/>
+        <v>85</v>
+      </c>
+      <c r="N9" s="24"/>
       <c r="O9" t="s">
         <v>118</v>
       </c>
-      <c r="R9" s="20"/>
+      <c r="R9" s="24"/>
       <c r="S9" t="s">
         <v>151</v>
       </c>
-      <c r="V9" s="20"/>
+      <c r="V9" s="24"/>
       <c r="W9" t="s">
         <v>252</v>
       </c>
@@ -2845,31 +2860,35 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="25" t="s">
         <v>12</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="20"/>
+      <c r="F10" s="25" t="s">
+        <v>12</v>
+      </c>
       <c r="G10" t="s">
-        <v>49</v>
-      </c>
-      <c r="J10" s="20"/>
+        <v>54</v>
+      </c>
+      <c r="J10" s="25" t="s">
+        <v>12</v>
+      </c>
       <c r="K10" t="s">
-        <v>48</v>
-      </c>
-      <c r="N10" s="20"/>
+        <v>188</v>
+      </c>
+      <c r="N10" s="24"/>
       <c r="O10" t="s">
         <v>119</v>
       </c>
-      <c r="R10" s="23" t="s">
+      <c r="R10" s="25" t="s">
         <v>12</v>
       </c>
       <c r="S10" t="s">
         <v>152</v>
       </c>
-      <c r="V10" s="20"/>
+      <c r="V10" s="24"/>
       <c r="W10" t="s">
         <v>186</v>
       </c>
@@ -2878,33 +2897,29 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="23"/>
+      <c r="B11" s="25"/>
       <c r="C11" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="23" t="s">
-        <v>12</v>
-      </c>
+      <c r="F11" s="25"/>
       <c r="G11" t="s">
-        <v>54</v>
-      </c>
-      <c r="J11" s="23" t="s">
-        <v>12</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="J11" s="25"/>
       <c r="K11" t="s">
         <v>88</v>
       </c>
-      <c r="N11" s="23" t="s">
+      <c r="N11" s="25" t="s">
         <v>12</v>
       </c>
       <c r="O11" t="s">
         <v>120</v>
       </c>
-      <c r="R11" s="23"/>
+      <c r="R11" s="25"/>
       <c r="S11" t="s">
         <v>153</v>
       </c>
-      <c r="V11" s="20"/>
+      <c r="V11" s="24"/>
       <c r="W11" t="s">
         <v>187</v>
       </c>
@@ -2913,27 +2928,27 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="23"/>
+      <c r="B12" s="25"/>
       <c r="C12" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="23"/>
+      <c r="F12" s="25"/>
       <c r="G12" t="s">
-        <v>56</v>
-      </c>
-      <c r="J12" s="23"/>
+        <v>58</v>
+      </c>
+      <c r="J12" s="25"/>
       <c r="K12" t="s">
         <v>16</v>
       </c>
-      <c r="N12" s="23"/>
+      <c r="N12" s="25"/>
       <c r="O12" t="s">
         <v>121</v>
       </c>
-      <c r="R12" s="23"/>
+      <c r="R12" s="25"/>
       <c r="S12" t="s">
         <v>154</v>
       </c>
-      <c r="V12" s="20"/>
+      <c r="V12" s="24"/>
       <c r="W12" t="s">
         <v>53</v>
       </c>
@@ -2942,58 +2957,58 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="23"/>
+      <c r="B13" s="25"/>
       <c r="C13" t="s">
         <v>86</v>
       </c>
-      <c r="F13" s="23"/>
+      <c r="F13" s="25"/>
       <c r="G13" t="s">
-        <v>58</v>
-      </c>
-      <c r="J13" s="23"/>
+        <v>59</v>
+      </c>
+      <c r="J13" s="25"/>
       <c r="K13" t="s">
         <v>17</v>
       </c>
-      <c r="N13" s="23"/>
+      <c r="N13" s="25"/>
       <c r="O13" t="s">
         <v>122</v>
       </c>
-      <c r="R13" s="23"/>
+      <c r="R13" s="25"/>
       <c r="S13" t="s">
         <v>155</v>
       </c>
-      <c r="V13" s="23" t="s">
-        <v>12</v>
-      </c>
+      <c r="V13" s="24"/>
       <c r="W13" t="s">
-        <v>188</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="23"/>
+      <c r="B14" s="25"/>
       <c r="C14" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="23"/>
+      <c r="F14" s="25"/>
       <c r="G14" t="s">
-        <v>59</v>
-      </c>
-      <c r="J14" s="23"/>
+        <v>226</v>
+      </c>
+      <c r="J14" s="25"/>
       <c r="K14" t="s">
         <v>22</v>
       </c>
-      <c r="N14" s="23"/>
+      <c r="N14" s="25"/>
       <c r="O14" t="s">
         <v>123</v>
       </c>
-      <c r="R14" s="23"/>
+      <c r="R14" s="25"/>
       <c r="S14" t="s">
         <v>156</v>
       </c>
-      <c r="V14" s="23"/>
+      <c r="V14" s="29" t="s">
+        <v>12</v>
+      </c>
       <c r="W14" t="s">
         <v>256</v>
       </c>
@@ -3002,27 +3017,27 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="23"/>
+      <c r="B15" s="25"/>
       <c r="C15" t="s">
         <v>87</v>
       </c>
-      <c r="F15" s="23"/>
+      <c r="F15" s="25"/>
       <c r="G15" t="s">
-        <v>226</v>
-      </c>
-      <c r="J15" s="23"/>
+        <v>225</v>
+      </c>
+      <c r="J15" s="25"/>
       <c r="K15" t="s">
         <v>23</v>
       </c>
-      <c r="N15" s="23"/>
+      <c r="N15" s="25"/>
       <c r="O15" t="s">
         <v>124</v>
       </c>
-      <c r="R15" s="23"/>
+      <c r="R15" s="25"/>
       <c r="S15" t="s">
         <v>157</v>
       </c>
-      <c r="V15" s="23"/>
+      <c r="V15" s="29"/>
       <c r="W15" t="s">
         <v>189</v>
       </c>
@@ -3031,31 +3046,33 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="26" t="s">
         <v>18</v>
       </c>
       <c r="C16" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="23"/>
+      <c r="F16" s="26" t="s">
+        <v>18</v>
+      </c>
       <c r="G16" t="s">
-        <v>225</v>
-      </c>
-      <c r="J16" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="J16" s="26" t="s">
         <v>18</v>
       </c>
       <c r="K16" t="s">
         <v>95</v>
       </c>
-      <c r="N16" s="23"/>
+      <c r="N16" s="25"/>
       <c r="O16" t="s">
         <v>125</v>
       </c>
-      <c r="R16" s="23"/>
+      <c r="R16" s="25"/>
       <c r="S16" t="s">
         <v>158</v>
       </c>
-      <c r="V16" s="23"/>
+      <c r="V16" s="29"/>
       <c r="W16" t="s">
         <v>190</v>
       </c>
@@ -3064,31 +3081,29 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="22"/>
+      <c r="B17" s="26"/>
       <c r="C17" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="22" t="s">
-        <v>18</v>
-      </c>
+      <c r="F17" s="26"/>
       <c r="G17" t="s">
-        <v>60</v>
-      </c>
-      <c r="J17" s="22"/>
+        <v>62</v>
+      </c>
+      <c r="J17" s="26"/>
       <c r="K17" t="s">
         <v>96</v>
       </c>
-      <c r="N17" s="22" t="s">
+      <c r="N17" s="26" t="s">
         <v>18</v>
       </c>
       <c r="O17" t="s">
         <v>126</v>
       </c>
-      <c r="R17" s="23"/>
+      <c r="R17" s="25"/>
       <c r="S17" t="s">
         <v>159</v>
       </c>
-      <c r="V17" s="23"/>
+      <c r="V17" s="29"/>
       <c r="W17" t="s">
         <v>191</v>
       </c>
@@ -3097,27 +3112,27 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="22"/>
+      <c r="B18" s="26"/>
       <c r="C18" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="22"/>
+      <c r="F18" s="26"/>
       <c r="G18" t="s">
-        <v>62</v>
-      </c>
-      <c r="J18" s="22"/>
+        <v>63</v>
+      </c>
+      <c r="J18" s="26"/>
       <c r="K18" t="s">
         <v>97</v>
       </c>
-      <c r="N18" s="22"/>
+      <c r="N18" s="26"/>
       <c r="O18" t="s">
         <v>127</v>
       </c>
-      <c r="R18" s="23"/>
+      <c r="R18" s="25"/>
       <c r="S18" t="s">
         <v>160</v>
       </c>
-      <c r="V18" s="23"/>
+      <c r="V18" s="29"/>
       <c r="W18" t="s">
         <v>91</v>
       </c>
@@ -3126,31 +3141,33 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="27" t="s">
         <v>24</v>
       </c>
       <c r="C19" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="22"/>
+      <c r="F19" s="27" t="s">
+        <v>24</v>
+      </c>
       <c r="G19" t="s">
-        <v>63</v>
-      </c>
-      <c r="J19" s="22"/>
+        <v>64</v>
+      </c>
+      <c r="J19" s="26"/>
       <c r="K19" t="s">
         <v>98</v>
       </c>
-      <c r="N19" s="24" t="s">
+      <c r="N19" s="27" t="s">
         <v>24</v>
       </c>
       <c r="O19" t="s">
         <v>128</v>
       </c>
-      <c r="R19" s="23"/>
+      <c r="R19" s="25"/>
       <c r="S19" t="s">
         <v>161</v>
       </c>
-      <c r="V19" s="23"/>
+      <c r="V19" s="29"/>
       <c r="W19" t="s">
         <v>261</v>
       </c>
@@ -3159,33 +3176,31 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="24"/>
+      <c r="B20" s="27"/>
       <c r="C20" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="24" t="s">
-        <v>24</v>
-      </c>
+      <c r="F20" s="27"/>
       <c r="G20" t="s">
-        <v>64</v>
-      </c>
-      <c r="J20" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="J20" s="27" t="s">
         <v>24</v>
       </c>
       <c r="K20" t="s">
         <v>99</v>
       </c>
-      <c r="N20" s="24"/>
+      <c r="N20" s="27"/>
       <c r="O20" t="s">
         <v>129</v>
       </c>
-      <c r="R20" s="22" t="s">
+      <c r="R20" s="26" t="s">
         <v>18</v>
       </c>
       <c r="S20" t="s">
         <v>162</v>
       </c>
-      <c r="V20" s="23"/>
+      <c r="V20" s="29"/>
       <c r="W20" t="s">
         <v>94</v>
       </c>
@@ -3194,27 +3209,27 @@
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="24"/>
+      <c r="B21" s="27"/>
       <c r="C21" t="s">
         <v>27</v>
       </c>
-      <c r="F21" s="24"/>
+      <c r="F21" s="27"/>
       <c r="G21" t="s">
-        <v>65</v>
-      </c>
-      <c r="J21" s="24"/>
+        <v>66</v>
+      </c>
+      <c r="J21" s="27"/>
       <c r="K21" t="s">
         <v>28</v>
       </c>
-      <c r="N21" s="24"/>
+      <c r="N21" s="27"/>
       <c r="O21" t="s">
         <v>130</v>
       </c>
-      <c r="R21" s="22"/>
+      <c r="R21" s="26"/>
       <c r="S21" t="s">
         <v>163</v>
       </c>
-      <c r="V21" s="23"/>
+      <c r="V21" s="29"/>
       <c r="W21" t="s">
         <v>192</v>
       </c>
@@ -3223,29 +3238,29 @@
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="24"/>
+      <c r="B22" s="27"/>
       <c r="C22" t="s">
         <v>100</v>
       </c>
-      <c r="F22" s="24"/>
+      <c r="F22" s="27"/>
       <c r="G22" t="s">
-        <v>66</v>
-      </c>
-      <c r="J22" s="24"/>
+        <v>67</v>
+      </c>
+      <c r="J22" s="27"/>
       <c r="K22" t="s">
         <v>29</v>
       </c>
-      <c r="N22" s="24"/>
+      <c r="N22" s="27"/>
       <c r="O22" t="s">
         <v>131</v>
       </c>
-      <c r="R22" s="24" t="s">
+      <c r="R22" s="27" t="s">
         <v>24</v>
       </c>
       <c r="S22" t="s">
         <v>164</v>
       </c>
-      <c r="V22" s="23"/>
+      <c r="V22" s="29"/>
       <c r="W22" t="s">
         <v>193</v>
       </c>
@@ -3254,31 +3269,33 @@
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="20" t="s">
         <v>30</v>
       </c>
       <c r="C23" t="s">
         <v>31</v>
       </c>
-      <c r="F23" s="24"/>
+      <c r="F23" s="20" t="s">
+        <v>30</v>
+      </c>
       <c r="G23" t="s">
-        <v>67</v>
-      </c>
-      <c r="J23" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="J23" s="20" t="s">
         <v>30</v>
       </c>
       <c r="K23" t="s">
         <v>103</v>
       </c>
-      <c r="N23" s="24"/>
+      <c r="N23" s="27"/>
       <c r="O23" t="s">
         <v>132</v>
       </c>
-      <c r="R23" s="24"/>
+      <c r="R23" s="27"/>
       <c r="S23" t="s">
         <v>165</v>
       </c>
-      <c r="V23" s="23"/>
+      <c r="V23" s="29"/>
       <c r="W23" t="s">
         <v>195</v>
       </c>
@@ -3287,31 +3304,29 @@
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="25"/>
+      <c r="B24" s="20"/>
       <c r="C24" t="s">
         <v>32</v>
       </c>
-      <c r="F24" s="25" t="s">
-        <v>30</v>
-      </c>
+      <c r="F24" s="20"/>
       <c r="G24" t="s">
-        <v>69</v>
-      </c>
-      <c r="J24" s="25"/>
+        <v>70</v>
+      </c>
+      <c r="J24" s="20"/>
       <c r="K24" t="s">
         <v>104</v>
       </c>
-      <c r="N24" s="25" t="s">
+      <c r="N24" s="20" t="s">
         <v>30</v>
       </c>
       <c r="O24" t="s">
         <v>133</v>
       </c>
-      <c r="R24" s="24"/>
+      <c r="R24" s="27"/>
       <c r="S24" t="s">
         <v>166</v>
       </c>
-      <c r="V24" s="23"/>
+      <c r="V24" s="29"/>
       <c r="W24" t="s">
         <v>196</v>
       </c>
@@ -3320,27 +3335,27 @@
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="25"/>
+      <c r="B25" s="20"/>
       <c r="C25" t="s">
         <v>33</v>
       </c>
-      <c r="F25" s="25"/>
+      <c r="F25" s="20"/>
       <c r="G25" t="s">
-        <v>70</v>
-      </c>
-      <c r="J25" s="25"/>
+        <v>71</v>
+      </c>
+      <c r="J25" s="20"/>
       <c r="K25" t="s">
         <v>105</v>
       </c>
-      <c r="N25" s="25"/>
+      <c r="N25" s="20"/>
       <c r="O25" t="s">
         <v>134</v>
       </c>
-      <c r="R25" s="24"/>
+      <c r="R25" s="27"/>
       <c r="S25" t="s">
         <v>167</v>
       </c>
-      <c r="V25" s="22" t="s">
+      <c r="V25" s="26" t="s">
         <v>18</v>
       </c>
       <c r="W25" t="s">
@@ -3351,31 +3366,31 @@
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="21" t="s">
         <v>36</v>
       </c>
       <c r="C26" t="s">
         <v>37</v>
       </c>
-      <c r="F26" s="25"/>
+      <c r="F26" s="20"/>
       <c r="G26" t="s">
-        <v>71</v>
-      </c>
-      <c r="J26" s="25"/>
+        <v>68</v>
+      </c>
+      <c r="J26" s="20"/>
       <c r="K26" t="s">
         <v>106</v>
       </c>
-      <c r="N26" s="25"/>
+      <c r="N26" s="20"/>
       <c r="O26" t="s">
         <v>135</v>
       </c>
-      <c r="R26" s="25" t="s">
+      <c r="R26" s="20" t="s">
         <v>30</v>
       </c>
       <c r="S26" t="s">
         <v>168</v>
       </c>
-      <c r="V26" s="22"/>
+      <c r="V26" s="26"/>
       <c r="W26" t="s">
         <v>198</v>
       </c>
@@ -3384,29 +3399,31 @@
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="26"/>
+      <c r="B27" s="21"/>
       <c r="C27" t="s">
         <v>38</v>
       </c>
-      <c r="F27" s="25"/>
+      <c r="F27" s="21" t="s">
+        <v>36</v>
+      </c>
       <c r="G27" t="s">
-        <v>68</v>
-      </c>
-      <c r="J27" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="J27" s="21" t="s">
         <v>36</v>
       </c>
       <c r="K27" t="s">
         <v>40</v>
       </c>
-      <c r="N27" s="25"/>
+      <c r="N27" s="20"/>
       <c r="O27" t="s">
         <v>136</v>
       </c>
-      <c r="R27" s="25"/>
+      <c r="R27" s="20"/>
       <c r="S27" t="s">
         <v>169</v>
       </c>
-      <c r="V27" s="22"/>
+      <c r="V27" s="26"/>
       <c r="W27" t="s">
         <v>199</v>
       </c>
@@ -3415,29 +3432,27 @@
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="26"/>
+      <c r="B28" s="21"/>
       <c r="C28" t="s">
         <v>39</v>
       </c>
-      <c r="F28" s="26" t="s">
-        <v>36</v>
-      </c>
+      <c r="F28" s="21"/>
       <c r="G28" t="s">
-        <v>72</v>
-      </c>
-      <c r="J28" s="26"/>
+        <v>73</v>
+      </c>
+      <c r="J28" s="21"/>
       <c r="K28" t="s">
         <v>108</v>
       </c>
-      <c r="N28" s="25"/>
+      <c r="N28" s="20"/>
       <c r="O28" t="s">
         <v>137</v>
       </c>
-      <c r="R28" s="25"/>
+      <c r="R28" s="20"/>
       <c r="S28" t="s">
         <v>170</v>
       </c>
-      <c r="V28" s="24" t="s">
+      <c r="V28" s="27" t="s">
         <v>24</v>
       </c>
       <c r="W28" t="s">
@@ -3448,27 +3463,27 @@
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="26"/>
+      <c r="B29" s="21"/>
       <c r="C29" t="s">
         <v>107</v>
       </c>
-      <c r="F29" s="26"/>
+      <c r="F29" s="21"/>
       <c r="G29" t="s">
-        <v>73</v>
-      </c>
-      <c r="J29" s="26"/>
+        <v>74</v>
+      </c>
+      <c r="J29" s="21"/>
       <c r="K29" t="s">
         <v>110</v>
       </c>
-      <c r="N29" s="25"/>
+      <c r="N29" s="20"/>
       <c r="O29" t="s">
         <v>138</v>
       </c>
-      <c r="R29" s="25"/>
+      <c r="R29" s="20"/>
       <c r="S29" t="s">
         <v>171</v>
       </c>
-      <c r="V29" s="24"/>
+      <c r="V29" s="27"/>
       <c r="W29" t="s">
         <v>201</v>
       </c>
@@ -3477,25 +3492,25 @@
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="F30" s="26"/>
+      <c r="F30" s="21"/>
       <c r="G30" t="s">
-        <v>74</v>
-      </c>
-      <c r="J30" s="26"/>
+        <v>75</v>
+      </c>
+      <c r="J30" s="21"/>
       <c r="K30" t="s">
         <v>41</v>
       </c>
-      <c r="N30" s="26" t="s">
+      <c r="N30" s="21" t="s">
         <v>36</v>
       </c>
       <c r="O30" t="s">
         <v>139</v>
       </c>
-      <c r="R30" s="25"/>
+      <c r="R30" s="20"/>
       <c r="S30" t="s">
         <v>172</v>
       </c>
-      <c r="V30" s="24"/>
+      <c r="V30" s="27"/>
       <c r="W30" t="s">
         <v>202</v>
       </c>
@@ -3504,35 +3519,35 @@
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="F31" s="26"/>
+      <c r="F31" s="21"/>
       <c r="G31" t="s">
-        <v>75</v>
-      </c>
-      <c r="N31" s="26"/>
+        <v>275</v>
+      </c>
+      <c r="N31" s="21"/>
       <c r="O31" t="s">
         <v>140</v>
       </c>
-      <c r="R31" s="26" t="s">
+      <c r="R31" s="21" t="s">
         <v>36</v>
       </c>
       <c r="S31" t="s">
         <v>173</v>
       </c>
-      <c r="V31" s="24"/>
+      <c r="V31" s="27"/>
       <c r="W31" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="N32" s="26"/>
+      <c r="N32" s="21"/>
       <c r="O32" t="s">
         <v>141</v>
       </c>
-      <c r="R32" s="26"/>
+      <c r="R32" s="21"/>
       <c r="S32" t="s">
         <v>174</v>
       </c>
-      <c r="V32" s="25" t="s">
+      <c r="V32" s="20" t="s">
         <v>30</v>
       </c>
       <c r="W32" t="s">
@@ -3540,43 +3555,43 @@
       </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="N33" s="26"/>
+      <c r="N33" s="21"/>
       <c r="O33" t="s">
         <v>142</v>
       </c>
-      <c r="R33" s="26"/>
+      <c r="R33" s="21"/>
       <c r="S33" t="s">
         <v>175</v>
       </c>
-      <c r="V33" s="25"/>
+      <c r="V33" s="20"/>
       <c r="W33" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="R34" s="26"/>
+      <c r="R34" s="21"/>
       <c r="S34" t="s">
         <v>176</v>
       </c>
-      <c r="V34" s="25"/>
+      <c r="V34" s="20"/>
       <c r="W34" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="V35" s="25"/>
+      <c r="V35" s="20"/>
       <c r="W35" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="V36" s="25"/>
+      <c r="V36" s="20"/>
       <c r="W36" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="V37" s="26" t="s">
+      <c r="V37" s="21" t="s">
         <v>36</v>
       </c>
       <c r="W37" t="s">
@@ -3584,21 +3599,26 @@
       </c>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="V38" s="26"/>
+      <c r="V38" s="21"/>
       <c r="W38" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="V39" s="26"/>
+      <c r="V39" s="21"/>
       <c r="W39" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="V40" s="26"/>
+      <c r="V40" s="21"/>
       <c r="W40" t="s">
         <v>211</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="G41" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.35">
@@ -3617,48 +3637,48 @@
       <c r="R43" t="s">
         <v>315</v>
       </c>
-      <c r="V43" s="28" t="s">
+      <c r="V43" s="22" t="s">
         <v>316</v>
       </c>
-      <c r="W43" s="28"/>
-      <c r="X43" s="28"/>
-      <c r="Y43" s="28"/>
+      <c r="W43" s="22"/>
+      <c r="X43" s="22"/>
+      <c r="Y43" s="22"/>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>1</v>
       </c>
-      <c r="B44" s="21" t="s">
+      <c r="B44" s="23" t="s">
         <v>1</v>
       </c>
       <c r="C44" t="s">
         <v>44</v>
       </c>
-      <c r="F44" s="21" t="s">
+      <c r="F44" s="23" t="s">
         <v>1</v>
       </c>
       <c r="G44" t="s">
         <v>246</v>
       </c>
-      <c r="J44" s="21" t="s">
+      <c r="J44" s="23" t="s">
         <v>1</v>
       </c>
       <c r="K44" t="s">
         <v>280</v>
       </c>
-      <c r="N44" s="21" t="s">
+      <c r="N44" s="23" t="s">
         <v>1</v>
       </c>
       <c r="O44" t="s">
         <v>317</v>
       </c>
-      <c r="R44" s="21" t="s">
+      <c r="R44" s="23" t="s">
         <v>1</v>
       </c>
       <c r="S44" t="s">
         <v>348</v>
       </c>
-      <c r="V44" s="21" t="s">
+      <c r="V44" s="23" t="s">
         <v>1</v>
       </c>
       <c r="W44" t="s">
@@ -3669,27 +3689,27 @@
       <c r="A45" s="1">
         <v>2</v>
       </c>
-      <c r="B45" s="21"/>
+      <c r="B45" s="23"/>
       <c r="C45" t="s">
         <v>214</v>
       </c>
-      <c r="F45" s="21"/>
+      <c r="F45" s="23"/>
       <c r="G45" t="s">
         <v>247</v>
       </c>
-      <c r="J45" s="21"/>
+      <c r="J45" s="23"/>
       <c r="K45" t="s">
         <v>281</v>
       </c>
-      <c r="N45" s="21"/>
+      <c r="N45" s="23"/>
       <c r="O45" t="s">
         <v>318</v>
       </c>
-      <c r="R45" s="21"/>
+      <c r="R45" s="23"/>
       <c r="S45" t="s">
         <v>349</v>
       </c>
-      <c r="V45" s="21"/>
+      <c r="V45" s="23"/>
       <c r="W45" t="s">
         <v>379</v>
       </c>
@@ -3698,27 +3718,27 @@
       <c r="A46" s="1">
         <v>3</v>
       </c>
-      <c r="B46" s="21"/>
+      <c r="B46" s="23"/>
       <c r="C46" t="s">
         <v>213</v>
       </c>
-      <c r="F46" s="21"/>
+      <c r="F46" s="23"/>
       <c r="G46" t="s">
         <v>79</v>
       </c>
-      <c r="J46" s="21"/>
+      <c r="J46" s="23"/>
       <c r="K46" t="s">
         <v>282</v>
       </c>
-      <c r="N46" s="21"/>
+      <c r="N46" s="23"/>
       <c r="O46" t="s">
         <v>319</v>
       </c>
-      <c r="R46" s="21"/>
+      <c r="R46" s="23"/>
       <c r="S46" t="s">
         <v>78</v>
       </c>
-      <c r="V46" s="21"/>
+      <c r="V46" s="23"/>
       <c r="W46" t="s">
         <v>380</v>
       </c>
@@ -3727,35 +3747,35 @@
       <c r="A47" s="1">
         <v>4</v>
       </c>
-      <c r="B47" s="20" t="s">
+      <c r="B47" s="24" t="s">
         <v>5</v>
       </c>
       <c r="C47" t="s">
         <v>216</v>
       </c>
-      <c r="F47" s="20" t="s">
+      <c r="F47" s="24" t="s">
         <v>5</v>
       </c>
       <c r="G47" t="s">
         <v>183</v>
       </c>
-      <c r="J47" s="20" t="s">
+      <c r="J47" s="24" t="s">
         <v>5</v>
       </c>
       <c r="K47" t="s">
         <v>283</v>
       </c>
-      <c r="N47" s="20" t="s">
+      <c r="N47" s="24" t="s">
         <v>5</v>
       </c>
       <c r="O47" t="s">
         <v>320</v>
       </c>
-      <c r="R47" s="21"/>
+      <c r="R47" s="23"/>
       <c r="S47" t="s">
         <v>350</v>
       </c>
-      <c r="V47" s="20" t="s">
+      <c r="V47" s="24" t="s">
         <v>5</v>
       </c>
       <c r="W47" t="s">
@@ -3766,29 +3786,29 @@
       <c r="A48" s="1">
         <v>5</v>
       </c>
-      <c r="B48" s="20"/>
+      <c r="B48" s="24"/>
       <c r="C48" t="s">
         <v>217</v>
       </c>
-      <c r="F48" s="20"/>
+      <c r="F48" s="24"/>
       <c r="G48" t="s">
         <v>321</v>
       </c>
-      <c r="J48" s="20"/>
+      <c r="J48" s="24"/>
       <c r="K48" t="s">
         <v>284</v>
       </c>
-      <c r="N48" s="20"/>
+      <c r="N48" s="24"/>
       <c r="O48" t="s">
         <v>251</v>
       </c>
-      <c r="R48" s="20" t="s">
+      <c r="R48" s="24" t="s">
         <v>5</v>
       </c>
       <c r="S48" t="s">
         <v>351</v>
       </c>
-      <c r="V48" s="20"/>
+      <c r="V48" s="24"/>
       <c r="W48" t="s">
         <v>382</v>
       </c>
@@ -3797,27 +3817,27 @@
       <c r="A49" s="1">
         <v>6</v>
       </c>
-      <c r="B49" s="20"/>
+      <c r="B49" s="24"/>
       <c r="C49" t="s">
         <v>221</v>
       </c>
-      <c r="F49" s="20"/>
+      <c r="F49" s="24"/>
       <c r="G49" t="s">
         <v>185</v>
       </c>
-      <c r="J49" s="20"/>
+      <c r="J49" s="24"/>
       <c r="K49" t="s">
         <v>285</v>
       </c>
-      <c r="N49" s="20"/>
+      <c r="N49" s="24"/>
       <c r="O49" t="s">
         <v>322</v>
       </c>
-      <c r="R49" s="20"/>
+      <c r="R49" s="24"/>
       <c r="S49" t="s">
         <v>352</v>
       </c>
-      <c r="V49" s="20"/>
+      <c r="V49" s="24"/>
       <c r="W49" t="s">
         <v>383</v>
       </c>
@@ -3826,31 +3846,31 @@
       <c r="A50" s="1">
         <v>7</v>
       </c>
-      <c r="B50" s="20"/>
+      <c r="B50" s="24"/>
       <c r="C50" t="s">
         <v>222</v>
       </c>
-      <c r="F50" s="20"/>
+      <c r="F50" s="24"/>
       <c r="G50" t="s">
         <v>249</v>
       </c>
-      <c r="J50" s="23" t="s">
+      <c r="J50" s="25" t="s">
         <v>12</v>
       </c>
       <c r="K50" t="s">
         <v>286</v>
       </c>
-      <c r="N50" s="23" t="s">
+      <c r="N50" s="25" t="s">
         <v>12</v>
       </c>
       <c r="O50" t="s">
         <v>323</v>
       </c>
-      <c r="R50" s="20"/>
+      <c r="R50" s="24"/>
       <c r="S50" t="s">
         <v>353</v>
       </c>
-      <c r="V50" s="20"/>
+      <c r="V50" s="24"/>
       <c r="W50" t="s">
         <v>384</v>
       </c>
@@ -3859,29 +3879,29 @@
       <c r="A51" s="1">
         <v>8</v>
       </c>
-      <c r="B51" s="23" t="s">
+      <c r="B51" s="25" t="s">
         <v>12</v>
       </c>
       <c r="C51" t="s">
         <v>57</v>
       </c>
-      <c r="F51" s="20"/>
+      <c r="F51" s="24"/>
       <c r="G51" t="s">
         <v>253</v>
       </c>
-      <c r="J51" s="23"/>
+      <c r="J51" s="25"/>
       <c r="K51" t="s">
         <v>287</v>
       </c>
-      <c r="N51" s="23"/>
+      <c r="N51" s="25"/>
       <c r="O51" t="s">
         <v>324</v>
       </c>
-      <c r="R51" s="20"/>
+      <c r="R51" s="24"/>
       <c r="S51" t="s">
         <v>354</v>
       </c>
-      <c r="V51" s="20"/>
+      <c r="V51" s="24"/>
       <c r="W51" t="s">
         <v>385</v>
       </c>
@@ -3890,27 +3910,27 @@
       <c r="A52" s="1">
         <v>9</v>
       </c>
-      <c r="B52" s="23"/>
+      <c r="B52" s="25"/>
       <c r="C52" t="s">
         <v>218</v>
       </c>
-      <c r="F52" s="20"/>
+      <c r="F52" s="24"/>
       <c r="G52" t="s">
         <v>254</v>
       </c>
-      <c r="J52" s="23"/>
+      <c r="J52" s="25"/>
       <c r="K52" t="s">
         <v>288</v>
       </c>
-      <c r="N52" s="23"/>
+      <c r="N52" s="25"/>
       <c r="O52" t="s">
         <v>325</v>
       </c>
-      <c r="R52" s="20"/>
+      <c r="R52" s="24"/>
       <c r="S52" t="s">
         <v>355</v>
       </c>
-      <c r="V52" s="23" t="s">
+      <c r="V52" s="25" t="s">
         <v>12</v>
       </c>
       <c r="W52" t="s">
@@ -3921,29 +3941,29 @@
       <c r="A53" s="1">
         <v>10</v>
       </c>
-      <c r="B53" s="23"/>
+      <c r="B53" s="25"/>
       <c r="C53" t="s">
         <v>219</v>
       </c>
-      <c r="F53" s="20"/>
+      <c r="F53" s="24"/>
       <c r="G53" t="s">
         <v>255</v>
       </c>
-      <c r="J53" s="23"/>
+      <c r="J53" s="25"/>
       <c r="K53" t="s">
         <v>289</v>
       </c>
-      <c r="N53" s="23"/>
+      <c r="N53" s="25"/>
       <c r="O53" t="s">
         <v>326</v>
       </c>
-      <c r="R53" s="23" t="s">
+      <c r="R53" s="25" t="s">
         <v>12</v>
       </c>
       <c r="S53" t="s">
         <v>356</v>
       </c>
-      <c r="V53" s="23"/>
+      <c r="V53" s="25"/>
       <c r="W53" t="s">
         <v>387</v>
       </c>
@@ -3952,27 +3972,27 @@
       <c r="A54" s="1">
         <v>11</v>
       </c>
-      <c r="B54" s="23"/>
+      <c r="B54" s="25"/>
       <c r="C54" t="s">
         <v>93</v>
       </c>
-      <c r="F54" s="20"/>
+      <c r="F54" s="24"/>
       <c r="G54" t="s">
         <v>83</v>
       </c>
-      <c r="J54" s="23"/>
+      <c r="J54" s="25"/>
       <c r="K54" t="s">
         <v>290</v>
       </c>
-      <c r="N54" s="23"/>
+      <c r="N54" s="25"/>
       <c r="O54" t="s">
         <v>327</v>
       </c>
-      <c r="R54" s="23"/>
+      <c r="R54" s="25"/>
       <c r="S54" t="s">
         <v>357</v>
       </c>
-      <c r="V54" s="23"/>
+      <c r="V54" s="25"/>
       <c r="W54" t="s">
         <v>388</v>
       </c>
@@ -3981,29 +4001,29 @@
       <c r="A55" s="1">
         <v>12</v>
       </c>
-      <c r="B55" s="23"/>
+      <c r="B55" s="25"/>
       <c r="C55" t="s">
         <v>220</v>
       </c>
-      <c r="F55" s="23" t="s">
+      <c r="F55" s="25" t="s">
         <v>12</v>
       </c>
       <c r="G55" t="s">
         <v>194</v>
       </c>
-      <c r="J55" s="23"/>
+      <c r="J55" s="25"/>
       <c r="K55" t="s">
         <v>291</v>
       </c>
-      <c r="N55" s="23"/>
+      <c r="N55" s="25"/>
       <c r="O55" t="s">
         <v>328</v>
       </c>
-      <c r="R55" s="23"/>
+      <c r="R55" s="25"/>
       <c r="S55" t="s">
         <v>358</v>
       </c>
-      <c r="V55" s="23"/>
+      <c r="V55" s="25"/>
       <c r="W55" t="s">
         <v>389</v>
       </c>
@@ -4012,27 +4032,27 @@
       <c r="A56" s="1">
         <v>13</v>
       </c>
-      <c r="B56" s="23"/>
+      <c r="B56" s="25"/>
       <c r="C56" t="s">
         <v>223</v>
       </c>
-      <c r="F56" s="23"/>
+      <c r="F56" s="25"/>
       <c r="G56" t="s">
         <v>258</v>
       </c>
-      <c r="J56" s="23"/>
+      <c r="J56" s="25"/>
       <c r="K56" t="s">
         <v>292</v>
       </c>
-      <c r="N56" s="23"/>
+      <c r="N56" s="25"/>
       <c r="O56" t="s">
         <v>329</v>
       </c>
-      <c r="R56" s="23"/>
+      <c r="R56" s="25"/>
       <c r="S56" t="s">
         <v>359</v>
       </c>
-      <c r="V56" s="23"/>
+      <c r="V56" s="25"/>
       <c r="W56" t="s">
         <v>390</v>
       </c>
@@ -4041,27 +4061,27 @@
       <c r="A57" s="1">
         <v>14</v>
       </c>
-      <c r="B57" s="23"/>
+      <c r="B57" s="25"/>
       <c r="C57" t="s">
         <v>224</v>
       </c>
-      <c r="F57" s="23"/>
+      <c r="F57" s="25"/>
       <c r="G57" t="s">
         <v>90</v>
       </c>
-      <c r="J57" s="23"/>
+      <c r="J57" s="25"/>
       <c r="K57" t="s">
         <v>293</v>
       </c>
-      <c r="N57" s="23"/>
+      <c r="N57" s="25"/>
       <c r="O57" t="s">
         <v>257</v>
       </c>
-      <c r="R57" s="23"/>
+      <c r="R57" s="25"/>
       <c r="S57" t="s">
         <v>360</v>
       </c>
-      <c r="V57" s="23"/>
+      <c r="V57" s="25"/>
       <c r="W57" t="s">
         <v>391</v>
       </c>
@@ -4070,27 +4090,27 @@
       <c r="A58" s="1">
         <v>15</v>
       </c>
-      <c r="B58" s="23"/>
+      <c r="B58" s="25"/>
       <c r="C58" t="s">
         <v>227</v>
       </c>
-      <c r="F58" s="23"/>
+      <c r="F58" s="25"/>
       <c r="G58" t="s">
         <v>260</v>
       </c>
-      <c r="J58" s="23"/>
+      <c r="J58" s="25"/>
       <c r="K58" t="s">
         <v>294</v>
       </c>
-      <c r="N58" s="23"/>
+      <c r="N58" s="25"/>
       <c r="O58" t="s">
         <v>263</v>
       </c>
-      <c r="R58" s="23"/>
+      <c r="R58" s="25"/>
       <c r="S58" t="s">
         <v>361</v>
       </c>
-      <c r="V58" s="23"/>
+      <c r="V58" s="25"/>
       <c r="W58" t="s">
         <v>392</v>
       </c>
@@ -4099,27 +4119,27 @@
       <c r="A59" s="1">
         <v>16</v>
       </c>
-      <c r="B59" s="23"/>
+      <c r="B59" s="25"/>
       <c r="C59" t="s">
         <v>228</v>
       </c>
-      <c r="F59" s="23"/>
+      <c r="F59" s="25"/>
       <c r="G59" t="s">
         <v>262</v>
       </c>
-      <c r="J59" s="23"/>
+      <c r="J59" s="25"/>
       <c r="K59" t="s">
         <v>295</v>
       </c>
-      <c r="N59" s="23"/>
+      <c r="N59" s="25"/>
       <c r="O59" t="s">
         <v>330</v>
       </c>
-      <c r="R59" s="23"/>
+      <c r="R59" s="25"/>
       <c r="S59" t="s">
         <v>362</v>
       </c>
-      <c r="V59" s="23"/>
+      <c r="V59" s="25"/>
       <c r="W59" t="s">
         <v>393</v>
       </c>
@@ -4128,21 +4148,21 @@
       <c r="A60" s="1">
         <v>17</v>
       </c>
-      <c r="B60" s="23"/>
+      <c r="B60" s="25"/>
       <c r="C60" t="s">
         <v>229</v>
       </c>
-      <c r="F60" s="23"/>
+      <c r="F60" s="25"/>
       <c r="G60" t="s">
         <v>259</v>
       </c>
-      <c r="J60" s="22" t="s">
+      <c r="J60" s="26" t="s">
         <v>18</v>
       </c>
       <c r="K60" t="s">
         <v>296</v>
       </c>
-      <c r="N60" s="22" t="s">
+      <c r="N60" s="26" t="s">
         <v>18</v>
       </c>
       <c r="O60" t="s">
@@ -4154,7 +4174,7 @@
       <c r="S60" t="s">
         <v>363</v>
       </c>
-      <c r="V60" s="22" t="s">
+      <c r="V60" s="26" t="s">
         <v>18</v>
       </c>
       <c r="W60" t="s">
@@ -4165,29 +4185,29 @@
       <c r="A61" s="1">
         <v>18</v>
       </c>
-      <c r="B61" s="23"/>
+      <c r="B61" s="25"/>
       <c r="C61" t="s">
         <v>55</v>
       </c>
-      <c r="F61" s="23"/>
+      <c r="F61" s="25"/>
       <c r="G61" t="s">
         <v>92</v>
       </c>
-      <c r="J61" s="22"/>
+      <c r="J61" s="26"/>
       <c r="K61" t="s">
         <v>297</v>
       </c>
-      <c r="N61" s="22"/>
+      <c r="N61" s="26"/>
       <c r="O61" t="s">
         <v>332</v>
       </c>
-      <c r="R61" s="24" t="s">
+      <c r="R61" s="27" t="s">
         <v>24</v>
       </c>
       <c r="S61" t="s">
         <v>364</v>
       </c>
-      <c r="V61" s="22"/>
+      <c r="V61" s="26"/>
       <c r="W61" t="s">
         <v>395</v>
       </c>
@@ -4196,31 +4216,31 @@
       <c r="A62" s="1">
         <v>19</v>
       </c>
-      <c r="B62" s="22" t="s">
+      <c r="B62" s="26" t="s">
         <v>18</v>
       </c>
       <c r="C62" t="s">
         <v>233</v>
       </c>
-      <c r="F62" s="22" t="s">
+      <c r="F62" s="26" t="s">
         <v>18</v>
       </c>
       <c r="G62" t="s">
         <v>264</v>
       </c>
-      <c r="J62" s="22"/>
+      <c r="J62" s="26"/>
       <c r="K62" t="s">
         <v>298</v>
       </c>
-      <c r="N62" s="22"/>
+      <c r="N62" s="26"/>
       <c r="O62" t="s">
         <v>333</v>
       </c>
-      <c r="R62" s="24"/>
+      <c r="R62" s="27"/>
       <c r="S62" t="s">
         <v>365</v>
       </c>
-      <c r="V62" s="22"/>
+      <c r="V62" s="26"/>
       <c r="W62" t="s">
         <v>396</v>
       </c>
@@ -4229,29 +4249,29 @@
       <c r="A63" s="1">
         <v>20</v>
       </c>
-      <c r="B63" s="22"/>
+      <c r="B63" s="26"/>
       <c r="C63" t="s">
         <v>230</v>
       </c>
-      <c r="F63" s="22"/>
+      <c r="F63" s="26"/>
       <c r="G63" t="s">
         <v>265</v>
       </c>
-      <c r="J63" s="24" t="s">
+      <c r="J63" s="27" t="s">
         <v>24</v>
       </c>
       <c r="K63" t="s">
         <v>299</v>
       </c>
-      <c r="N63" s="22"/>
+      <c r="N63" s="26"/>
       <c r="O63" t="s">
         <v>334</v>
       </c>
-      <c r="R63" s="24"/>
+      <c r="R63" s="27"/>
       <c r="S63" t="s">
         <v>366</v>
       </c>
-      <c r="V63" s="22"/>
+      <c r="V63" s="26"/>
       <c r="W63" t="s">
         <v>397</v>
       </c>
@@ -4260,27 +4280,27 @@
       <c r="A64" s="1">
         <v>21</v>
       </c>
-      <c r="B64" s="22"/>
+      <c r="B64" s="26"/>
       <c r="C64" t="s">
         <v>231</v>
       </c>
-      <c r="F64" s="22"/>
+      <c r="F64" s="26"/>
       <c r="G64" t="s">
         <v>266</v>
       </c>
-      <c r="J64" s="24"/>
+      <c r="J64" s="27"/>
       <c r="K64" t="s">
         <v>300</v>
       </c>
-      <c r="N64" s="22"/>
+      <c r="N64" s="26"/>
       <c r="O64" t="s">
         <v>335</v>
       </c>
-      <c r="R64" s="24"/>
+      <c r="R64" s="27"/>
       <c r="S64" t="s">
         <v>367</v>
       </c>
-      <c r="V64" s="24" t="s">
+      <c r="V64" s="27" t="s">
         <v>24</v>
       </c>
       <c r="W64" t="s">
@@ -4291,29 +4311,29 @@
       <c r="A65" s="1">
         <v>22</v>
       </c>
-      <c r="B65" s="22"/>
+      <c r="B65" s="26"/>
       <c r="C65" t="s">
         <v>232</v>
       </c>
-      <c r="F65" s="22"/>
+      <c r="F65" s="26"/>
       <c r="G65" t="s">
         <v>267</v>
       </c>
-      <c r="J65" s="24"/>
+      <c r="J65" s="27"/>
       <c r="K65" t="s">
         <v>301</v>
       </c>
-      <c r="N65" s="24" t="s">
+      <c r="N65" s="27" t="s">
         <v>24</v>
       </c>
       <c r="O65" t="s">
         <v>336</v>
       </c>
-      <c r="R65" s="24"/>
+      <c r="R65" s="27"/>
       <c r="S65" t="s">
         <v>368</v>
       </c>
-      <c r="V65" s="24"/>
+      <c r="V65" s="27"/>
       <c r="W65" t="s">
         <v>399</v>
       </c>
@@ -4322,31 +4342,31 @@
       <c r="A66" s="1">
         <v>23</v>
       </c>
-      <c r="B66" s="22"/>
+      <c r="B66" s="26"/>
       <c r="C66" t="s">
         <v>61</v>
       </c>
-      <c r="F66" s="24" t="s">
+      <c r="F66" s="27" t="s">
         <v>24</v>
       </c>
       <c r="G66" t="s">
         <v>268</v>
       </c>
-      <c r="J66" s="24"/>
+      <c r="J66" s="27"/>
       <c r="K66" t="s">
         <v>302</v>
       </c>
-      <c r="N66" s="24"/>
+      <c r="N66" s="27"/>
       <c r="O66" t="s">
         <v>337</v>
       </c>
-      <c r="R66" s="25" t="s">
+      <c r="R66" s="20" t="s">
         <v>30</v>
       </c>
       <c r="S66" t="s">
         <v>369</v>
       </c>
-      <c r="V66" s="24"/>
+      <c r="V66" s="27"/>
       <c r="W66" t="s">
         <v>400</v>
       </c>
@@ -4355,29 +4375,29 @@
       <c r="A67" s="1">
         <v>24</v>
       </c>
-      <c r="B67" s="24" t="s">
+      <c r="B67" s="27" t="s">
         <v>24</v>
       </c>
       <c r="C67" t="s">
         <v>102</v>
       </c>
-      <c r="F67" s="24"/>
+      <c r="F67" s="27"/>
       <c r="G67" t="s">
         <v>269</v>
       </c>
-      <c r="J67" s="24"/>
+      <c r="J67" s="27"/>
       <c r="K67" t="s">
         <v>303</v>
       </c>
-      <c r="N67" s="24"/>
+      <c r="N67" s="27"/>
       <c r="O67" t="s">
         <v>338</v>
       </c>
-      <c r="R67" s="25"/>
+      <c r="R67" s="20"/>
       <c r="S67" t="s">
         <v>370</v>
       </c>
-      <c r="V67" s="24"/>
+      <c r="V67" s="27"/>
       <c r="W67" t="s">
         <v>401</v>
       </c>
@@ -4386,27 +4406,27 @@
       <c r="A68" s="1">
         <v>25</v>
       </c>
-      <c r="B68" s="24"/>
+      <c r="B68" s="27"/>
       <c r="C68" t="s">
         <v>234</v>
       </c>
-      <c r="F68" s="24"/>
+      <c r="F68" s="27"/>
       <c r="G68" t="s">
         <v>270</v>
       </c>
-      <c r="J68" s="24"/>
+      <c r="J68" s="27"/>
       <c r="K68" t="s">
         <v>304</v>
       </c>
-      <c r="N68" s="24"/>
+      <c r="N68" s="27"/>
       <c r="O68" t="s">
         <v>342</v>
       </c>
-      <c r="R68" s="25"/>
+      <c r="R68" s="20"/>
       <c r="S68" t="s">
         <v>371</v>
       </c>
-      <c r="V68" s="25" t="s">
+      <c r="V68" s="20" t="s">
         <v>30</v>
       </c>
       <c r="W68" t="s">
@@ -4417,29 +4437,29 @@
       <c r="A69" s="1">
         <v>26</v>
       </c>
-      <c r="B69" s="24"/>
+      <c r="B69" s="27"/>
       <c r="C69" t="s">
         <v>235</v>
       </c>
-      <c r="F69" s="24"/>
+      <c r="F69" s="27"/>
       <c r="G69" t="s">
         <v>101</v>
       </c>
-      <c r="J69" s="24"/>
+      <c r="J69" s="27"/>
       <c r="K69" t="s">
         <v>305</v>
       </c>
-      <c r="N69" s="25" t="s">
+      <c r="N69" s="20" t="s">
         <v>30</v>
       </c>
       <c r="O69" t="s">
         <v>339</v>
       </c>
-      <c r="R69" s="25"/>
+      <c r="R69" s="20"/>
       <c r="S69" t="s">
         <v>372</v>
       </c>
-      <c r="V69" s="25"/>
+      <c r="V69" s="20"/>
       <c r="W69" t="s">
         <v>403</v>
       </c>
@@ -4448,33 +4468,33 @@
       <c r="A70" s="1">
         <v>27</v>
       </c>
-      <c r="B70" s="24"/>
+      <c r="B70" s="27"/>
       <c r="C70" t="s">
         <v>236</v>
       </c>
-      <c r="F70" s="25" t="s">
+      <c r="F70" s="20" t="s">
         <v>30</v>
       </c>
       <c r="G70" t="s">
         <v>271</v>
       </c>
-      <c r="J70" s="25" t="s">
+      <c r="J70" s="20" t="s">
         <v>30</v>
       </c>
       <c r="K70" t="s">
         <v>306</v>
       </c>
-      <c r="N70" s="25"/>
+      <c r="N70" s="20"/>
       <c r="O70" t="s">
         <v>340</v>
       </c>
-      <c r="R70" s="26" t="s">
+      <c r="R70" s="21" t="s">
         <v>36</v>
       </c>
       <c r="S70" t="s">
         <v>373</v>
       </c>
-      <c r="V70" s="25"/>
+      <c r="V70" s="20"/>
       <c r="W70" t="s">
         <v>404</v>
       </c>
@@ -4483,27 +4503,27 @@
       <c r="A71" s="1">
         <v>28</v>
       </c>
-      <c r="B71" s="24"/>
+      <c r="B71" s="27"/>
       <c r="C71" t="s">
         <v>237</v>
       </c>
-      <c r="F71" s="25"/>
+      <c r="F71" s="20"/>
       <c r="G71" t="s">
         <v>272</v>
       </c>
-      <c r="J71" s="25"/>
+      <c r="J71" s="20"/>
       <c r="K71" t="s">
         <v>307</v>
       </c>
-      <c r="N71" s="25"/>
+      <c r="N71" s="20"/>
       <c r="O71" t="s">
         <v>341</v>
       </c>
-      <c r="R71" s="26"/>
+      <c r="R71" s="21"/>
       <c r="S71" t="s">
         <v>374</v>
       </c>
-      <c r="V71" s="25"/>
+      <c r="V71" s="20"/>
       <c r="W71" t="s">
         <v>405</v>
       </c>
@@ -4512,27 +4532,27 @@
       <c r="A72" s="1">
         <v>29</v>
       </c>
-      <c r="B72" s="24"/>
+      <c r="B72" s="27"/>
       <c r="C72" t="s">
         <v>238</v>
       </c>
-      <c r="F72" s="25"/>
+      <c r="F72" s="20"/>
       <c r="G72" t="s">
         <v>273</v>
       </c>
-      <c r="J72" s="25"/>
+      <c r="J72" s="20"/>
       <c r="K72" t="s">
         <v>308</v>
       </c>
-      <c r="N72" s="25"/>
+      <c r="N72" s="20"/>
       <c r="O72" t="s">
         <v>343</v>
       </c>
-      <c r="R72" s="26"/>
+      <c r="R72" s="21"/>
       <c r="S72" t="s">
         <v>375</v>
       </c>
-      <c r="V72" s="25"/>
+      <c r="V72" s="20"/>
       <c r="W72" t="s">
         <v>406</v>
       </c>
@@ -4541,31 +4561,31 @@
       <c r="A73" s="1">
         <v>30</v>
       </c>
-      <c r="B73" s="25" t="s">
+      <c r="B73" s="20" t="s">
         <v>30</v>
       </c>
       <c r="C73" t="s">
         <v>34</v>
       </c>
-      <c r="F73" s="25"/>
+      <c r="F73" s="20"/>
       <c r="G73" t="s">
         <v>274</v>
       </c>
-      <c r="J73" s="25"/>
+      <c r="J73" s="20"/>
       <c r="K73" t="s">
         <v>309</v>
       </c>
-      <c r="N73" s="26" t="s">
+      <c r="N73" s="21" t="s">
         <v>36</v>
       </c>
       <c r="O73" t="s">
         <v>344</v>
       </c>
-      <c r="R73" s="26"/>
+      <c r="R73" s="21"/>
       <c r="S73" t="s">
         <v>376</v>
       </c>
-      <c r="V73" s="26" t="s">
+      <c r="V73" s="21" t="s">
         <v>36</v>
       </c>
       <c r="W73" t="s">
@@ -4573,119 +4593,184 @@
       </c>
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B74" s="25"/>
+      <c r="B74" s="20"/>
       <c r="C74" t="s">
         <v>239</v>
       </c>
-      <c r="F74" s="26" t="s">
+      <c r="F74" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="G74" t="s">
-        <v>275</v>
-      </c>
-      <c r="J74" s="26" t="s">
+      <c r="J74" s="21" t="s">
         <v>36</v>
       </c>
       <c r="K74" t="s">
         <v>310</v>
       </c>
-      <c r="N74" s="26"/>
+      <c r="N74" s="21"/>
       <c r="O74" t="s">
         <v>345</v>
       </c>
-      <c r="R74" s="26"/>
+      <c r="R74" s="21"/>
       <c r="S74" t="s">
         <v>377</v>
       </c>
-      <c r="V74" s="26"/>
+      <c r="V74" s="21"/>
       <c r="W74" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B75" s="25"/>
+      <c r="B75" s="20"/>
       <c r="C75" t="s">
         <v>240</v>
       </c>
-      <c r="F75" s="26"/>
+      <c r="F75" s="21"/>
       <c r="G75" t="s">
         <v>276</v>
       </c>
-      <c r="J75" s="26"/>
+      <c r="J75" s="21"/>
       <c r="K75" t="s">
         <v>311</v>
       </c>
-      <c r="N75" s="26"/>
+      <c r="N75" s="21"/>
       <c r="O75" t="s">
         <v>346</v>
       </c>
-      <c r="V75" s="26"/>
+      <c r="V75" s="21"/>
       <c r="W75" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B76" s="25"/>
+      <c r="B76" s="20"/>
       <c r="C76" t="s">
         <v>241</v>
       </c>
-      <c r="F76" s="26"/>
+      <c r="F76" s="21"/>
       <c r="G76" t="s">
         <v>277</v>
       </c>
-      <c r="J76" s="26"/>
+      <c r="J76" s="21"/>
       <c r="K76" t="s">
         <v>312</v>
       </c>
-      <c r="N76" s="26"/>
+      <c r="N76" s="21"/>
       <c r="O76" t="s">
         <v>347</v>
       </c>
-      <c r="V76" s="26"/>
+      <c r="V76" s="21"/>
       <c r="W76" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B77" s="26" t="s">
+      <c r="B77" s="21" t="s">
         <v>36</v>
       </c>
       <c r="C77" t="s">
         <v>109</v>
       </c>
-      <c r="F77" s="26"/>
+      <c r="F77" s="21"/>
       <c r="G77" t="s">
         <v>278</v>
       </c>
-      <c r="J77" s="26"/>
+      <c r="J77" s="21"/>
       <c r="K77" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B78" s="26"/>
+      <c r="B78" s="21"/>
       <c r="C78" t="s">
         <v>242</v>
       </c>
-      <c r="F78" s="26"/>
+      <c r="F78" s="21"/>
       <c r="G78" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B79" s="26"/>
+      <c r="B79" s="21"/>
       <c r="C79" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B80" s="26"/>
+      <c r="B80" s="21"/>
       <c r="C80" t="s">
         <v>244</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="85">
+  <mergeCells count="84">
+    <mergeCell ref="F27:F31"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="V6:V13"/>
+    <mergeCell ref="J10:J15"/>
+    <mergeCell ref="J4:J9"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="J16:J19"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="F10:F15"/>
+    <mergeCell ref="J20:J22"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B62:B66"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="F47:F54"/>
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="F55:F61"/>
+    <mergeCell ref="B51:B61"/>
+    <mergeCell ref="F62:F65"/>
+    <mergeCell ref="J70:J73"/>
+    <mergeCell ref="J74:J77"/>
+    <mergeCell ref="N44:N46"/>
+    <mergeCell ref="N47:N49"/>
+    <mergeCell ref="N60:N64"/>
+    <mergeCell ref="N65:N68"/>
+    <mergeCell ref="N69:N72"/>
+    <mergeCell ref="N73:N76"/>
+    <mergeCell ref="N50:N59"/>
+    <mergeCell ref="J60:J62"/>
+    <mergeCell ref="J50:J59"/>
+    <mergeCell ref="J63:J69"/>
+    <mergeCell ref="F70:F73"/>
+    <mergeCell ref="F66:F69"/>
+    <mergeCell ref="F74:F78"/>
+    <mergeCell ref="B67:B72"/>
+    <mergeCell ref="B73:B76"/>
+    <mergeCell ref="B77:B80"/>
+    <mergeCell ref="V2:V5"/>
+    <mergeCell ref="V25:V27"/>
+    <mergeCell ref="V28:V31"/>
+    <mergeCell ref="R44:R47"/>
+    <mergeCell ref="J27:J30"/>
+    <mergeCell ref="N24:N29"/>
+    <mergeCell ref="N30:N33"/>
+    <mergeCell ref="R26:R30"/>
+    <mergeCell ref="J44:J46"/>
+    <mergeCell ref="J47:J49"/>
+    <mergeCell ref="J23:J26"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="R4:R9"/>
+    <mergeCell ref="R10:R19"/>
+    <mergeCell ref="R20:R21"/>
+    <mergeCell ref="R22:R25"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="N4:N10"/>
+    <mergeCell ref="N11:N16"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="N19:N23"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="B2:B3"/>
     <mergeCell ref="V68:V72"/>
     <mergeCell ref="V73:V76"/>
     <mergeCell ref="R66:R69"/>
@@ -4700,77 +4785,8 @@
     <mergeCell ref="V37:V40"/>
     <mergeCell ref="R61:R65"/>
     <mergeCell ref="V32:V36"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="B10:B15"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="N4:N10"/>
-    <mergeCell ref="N11:N16"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="N19:N23"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="R4:R9"/>
-    <mergeCell ref="R10:R19"/>
-    <mergeCell ref="R20:R21"/>
-    <mergeCell ref="R22:R25"/>
     <mergeCell ref="R48:R52"/>
     <mergeCell ref="R53:R59"/>
-    <mergeCell ref="R44:R47"/>
-    <mergeCell ref="J27:J30"/>
-    <mergeCell ref="N24:N29"/>
-    <mergeCell ref="N30:N33"/>
-    <mergeCell ref="R26:R30"/>
-    <mergeCell ref="J44:J46"/>
-    <mergeCell ref="J47:J49"/>
-    <mergeCell ref="J23:J26"/>
-    <mergeCell ref="V2:V5"/>
-    <mergeCell ref="V25:V27"/>
-    <mergeCell ref="V28:V31"/>
-    <mergeCell ref="V6:V12"/>
-    <mergeCell ref="V13:V24"/>
-    <mergeCell ref="F70:F73"/>
-    <mergeCell ref="F66:F69"/>
-    <mergeCell ref="F74:F78"/>
-    <mergeCell ref="B67:B72"/>
-    <mergeCell ref="B73:B76"/>
-    <mergeCell ref="B77:B80"/>
-    <mergeCell ref="J70:J73"/>
-    <mergeCell ref="J74:J77"/>
-    <mergeCell ref="N44:N46"/>
-    <mergeCell ref="N47:N49"/>
-    <mergeCell ref="N60:N64"/>
-    <mergeCell ref="N65:N68"/>
-    <mergeCell ref="N69:N72"/>
-    <mergeCell ref="N73:N76"/>
-    <mergeCell ref="N50:N59"/>
-    <mergeCell ref="J60:J62"/>
-    <mergeCell ref="J50:J59"/>
-    <mergeCell ref="J63:J69"/>
-    <mergeCell ref="J20:J22"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B62:B66"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="F20:F23"/>
-    <mergeCell ref="F24:F27"/>
-    <mergeCell ref="F28:F31"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="F47:F54"/>
-    <mergeCell ref="F44:F46"/>
-    <mergeCell ref="F55:F61"/>
-    <mergeCell ref="B51:B61"/>
-    <mergeCell ref="F62:F65"/>
-    <mergeCell ref="J4:J10"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="J16:J19"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="F11:F16"/>
-    <mergeCell ref="F6:F10"/>
-    <mergeCell ref="J11:J15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4781,7 +4797,7 @@
   <dimension ref="A1:Z50"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4802,36 +4818,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="E1" s="28" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="E1" s="22" t="s">
         <v>412</v>
       </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
       <c r="J1" t="s">
         <v>411</v>
       </c>
-      <c r="O1" s="28" t="s">
+      <c r="O1" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="T1" s="28" t="s">
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="T1" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="X1" s="28" t="s">
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="X1" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -4843,6 +4859,9 @@
       <c r="E2" t="s">
         <v>590</v>
       </c>
+      <c r="F2" t="s">
+        <v>508</v>
+      </c>
       <c r="J2" t="s">
         <v>556</v>
       </c>
@@ -4934,9 +4953,6 @@
       <c r="X4" t="s">
         <v>416</v>
       </c>
-      <c r="Y4" t="s">
-        <v>539</v>
-      </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
@@ -5000,6 +5016,9 @@
       <c r="B7" t="s">
         <v>489</v>
       </c>
+      <c r="E7" t="s">
+        <v>622</v>
+      </c>
       <c r="K7" t="s">
         <v>493</v>
       </c>
@@ -5012,66 +5031,65 @@
         <v>490</v>
       </c>
       <c r="E8" t="s">
-        <v>600</v>
+        <v>419</v>
       </c>
       <c r="K8" t="s">
-        <v>494</v>
+        <v>539</v>
       </c>
       <c r="T8" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="E9" t="s">
-        <v>622</v>
-      </c>
       <c r="K9" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="T9" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="E10" t="s">
-        <v>419</v>
-      </c>
       <c r="K10" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="K11" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="K12" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
       <c r="E17" t="s">
         <v>420</v>
       </c>
-      <c r="I17" s="28" t="s">
+      <c r="I17" s="22" t="s">
         <v>421</v>
       </c>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="N17" s="28" t="s">
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="N17" s="22" t="s">
         <v>314</v>
       </c>
-      <c r="O17" s="28"/>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="28"/>
-      <c r="S17" s="28" t="s">
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+      <c r="S17" s="22" t="s">
         <v>315</v>
       </c>
-      <c r="T17" s="28"/>
-      <c r="U17" s="28"/>
-      <c r="V17" s="28"/>
+      <c r="T17" s="22"/>
+      <c r="U17" s="22"/>
+      <c r="V17" s="22"/>
       <c r="X17" t="s">
         <v>316</v>
       </c>
@@ -5125,7 +5143,7 @@
         <v>629</v>
       </c>
       <c r="F19" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="J19" t="s">
         <v>630</v>
@@ -5160,7 +5178,7 @@
         <v>598</v>
       </c>
       <c r="F20" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="J20" t="s">
         <v>603</v>
@@ -5198,7 +5216,7 @@
         <v>429</v>
       </c>
       <c r="F21" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="J21" t="s">
         <v>426</v>
@@ -5232,9 +5250,6 @@
       <c r="E22" t="s">
         <v>594</v>
       </c>
-      <c r="F22" t="s">
-        <v>501</v>
-      </c>
       <c r="K22" t="s">
         <v>516</v>
       </c>
@@ -5259,7 +5274,7 @@
         <v>619</v>
       </c>
       <c r="E23" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="O23" t="s">
         <v>609</v>
@@ -5270,7 +5285,7 @@
         <v>632</v>
       </c>
       <c r="E24" t="s">
-        <v>624</v>
+        <v>604</v>
       </c>
       <c r="O24" t="s">
         <v>431</v>
@@ -5281,7 +5296,7 @@
         <v>432</v>
       </c>
       <c r="E25" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="O25" t="s">
         <v>433</v>
@@ -5289,6 +5304,11 @@
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.35">
       <c r="E26" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="E27" t="s">
         <v>434</v>
       </c>
     </row>
@@ -5593,10 +5613,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K104"/>
+  <dimension ref="A1:K115"/>
   <sheetViews>
-    <sheetView topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="C103" sqref="C103"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D107" sqref="D107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6202,6 +6222,58 @@
         <v>35</v>
       </c>
     </row>
+    <row r="106" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108" s="10"/>
+      <c r="B108" s="11" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109" s="10" t="s">
+        <v>588</v>
+      </c>
+      <c r="B109" s="11" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A110" s="7"/>
+      <c r="B110" s="8" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114" s="10" t="s">
+        <v>584</v>
+      </c>
+      <c r="B114" s="11" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A115" s="7"/>
+      <c r="B115" s="8" t="s">
+        <v>663</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/OffSeason.xlsx
+++ b/OffSeason.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="667">
   <si>
     <t>Chubber for Chubb - John Olson</t>
   </si>
@@ -2019,6 +2019,15 @@
   </si>
   <si>
     <t>2021 3rd (alan)</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>2020 2 snow happens (lottery)</t>
+  </si>
+  <si>
+    <t>2021 3rd (John O)</t>
   </si>
 </sst>
 </file>
@@ -2250,6 +2259,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2276,9 +2288,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2564,7 +2573,7 @@
   <dimension ref="A1:Y80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2579,11 +2588,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
       <c r="F1" t="s">
         <v>42</v>
       </c>
@@ -2604,37 +2613,37 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="24" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="24" t="s">
         <v>1</v>
       </c>
       <c r="G2" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="J2" s="24" t="s">
         <v>1</v>
       </c>
       <c r="K2" t="s">
         <v>77</v>
       </c>
-      <c r="N2" s="23" t="s">
+      <c r="N2" s="24" t="s">
         <v>1</v>
       </c>
       <c r="O2" t="s">
         <v>112</v>
       </c>
-      <c r="R2" s="23" t="s">
+      <c r="R2" s="24" t="s">
         <v>1</v>
       </c>
       <c r="S2" t="s">
         <v>144</v>
       </c>
-      <c r="V2" s="23" t="s">
+      <c r="V2" s="24" t="s">
         <v>1</v>
       </c>
       <c r="W2" t="s">
@@ -2645,27 +2654,27 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="23"/>
+      <c r="B3" s="24"/>
       <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="23"/>
+      <c r="F3" s="24"/>
       <c r="G3" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="23"/>
+      <c r="J3" s="24"/>
       <c r="K3" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="23"/>
+      <c r="N3" s="24"/>
       <c r="O3" t="s">
         <v>104</v>
       </c>
-      <c r="R3" s="23"/>
+      <c r="R3" s="24"/>
       <c r="S3" t="s">
         <v>145</v>
       </c>
-      <c r="V3" s="23"/>
+      <c r="V3" s="24"/>
       <c r="W3" t="s">
         <v>179</v>
       </c>
@@ -2674,35 +2683,35 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="25" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="23"/>
+      <c r="F4" s="24"/>
       <c r="G4" t="s">
         <v>46</v>
       </c>
-      <c r="J4" s="24" t="s">
+      <c r="J4" s="25" t="s">
         <v>5</v>
       </c>
       <c r="K4" t="s">
         <v>248</v>
       </c>
-      <c r="N4" s="24" t="s">
+      <c r="N4" s="25" t="s">
         <v>5</v>
       </c>
       <c r="O4" t="s">
         <v>113</v>
       </c>
-      <c r="R4" s="24" t="s">
+      <c r="R4" s="25" t="s">
         <v>5</v>
       </c>
       <c r="S4" t="s">
         <v>146</v>
       </c>
-      <c r="V4" s="23"/>
+      <c r="V4" s="24"/>
       <c r="W4" t="s">
         <v>180</v>
       </c>
@@ -2711,27 +2720,27 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="24"/>
+      <c r="B5" s="25"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="23"/>
+      <c r="F5" s="24"/>
       <c r="G5" t="s">
         <v>47</v>
       </c>
-      <c r="J5" s="24"/>
+      <c r="J5" s="25"/>
       <c r="K5" t="s">
         <v>81</v>
       </c>
-      <c r="N5" s="24"/>
+      <c r="N5" s="25"/>
       <c r="O5" t="s">
         <v>114</v>
       </c>
-      <c r="R5" s="24"/>
+      <c r="R5" s="25"/>
       <c r="S5" t="s">
         <v>147</v>
       </c>
-      <c r="V5" s="23"/>
+      <c r="V5" s="24"/>
       <c r="W5" t="s">
         <v>181</v>
       </c>
@@ -2740,29 +2749,29 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="24"/>
+      <c r="B6" s="25"/>
       <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="25" t="s">
         <v>5</v>
       </c>
       <c r="G6" t="s">
         <v>215</v>
       </c>
-      <c r="J6" s="24"/>
+      <c r="J6" s="25"/>
       <c r="K6" t="s">
         <v>82</v>
       </c>
-      <c r="N6" s="24"/>
+      <c r="N6" s="25"/>
       <c r="O6" t="s">
         <v>115</v>
       </c>
-      <c r="R6" s="24"/>
+      <c r="R6" s="25"/>
       <c r="S6" t="s">
         <v>148</v>
       </c>
-      <c r="V6" s="24" t="s">
+      <c r="V6" s="25" t="s">
         <v>5</v>
       </c>
       <c r="W6" t="s">
@@ -2773,27 +2782,27 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="24"/>
+      <c r="B7" s="25"/>
       <c r="C7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="24"/>
+      <c r="F7" s="25"/>
       <c r="G7" t="s">
         <v>52</v>
       </c>
-      <c r="J7" s="24"/>
+      <c r="J7" s="25"/>
       <c r="K7" t="s">
         <v>84</v>
       </c>
-      <c r="N7" s="24"/>
+      <c r="N7" s="25"/>
       <c r="O7" t="s">
         <v>116</v>
       </c>
-      <c r="R7" s="24"/>
+      <c r="R7" s="25"/>
       <c r="S7" t="s">
         <v>149</v>
       </c>
-      <c r="V7" s="24"/>
+      <c r="V7" s="25"/>
       <c r="W7" t="s">
         <v>250</v>
       </c>
@@ -2802,27 +2811,27 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="24"/>
+      <c r="B8" s="25"/>
       <c r="C8" t="s">
         <v>80</v>
       </c>
-      <c r="F8" s="24"/>
+      <c r="F8" s="25"/>
       <c r="G8" t="s">
         <v>50</v>
       </c>
-      <c r="J8" s="24"/>
+      <c r="J8" s="25"/>
       <c r="K8" t="s">
         <v>48</v>
       </c>
-      <c r="N8" s="24"/>
+      <c r="N8" s="25"/>
       <c r="O8" t="s">
         <v>117</v>
       </c>
-      <c r="R8" s="24"/>
+      <c r="R8" s="25"/>
       <c r="S8" t="s">
         <v>150</v>
       </c>
-      <c r="V8" s="24"/>
+      <c r="V8" s="25"/>
       <c r="W8" t="s">
         <v>184</v>
       </c>
@@ -2831,27 +2840,27 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="24"/>
+      <c r="B9" s="25"/>
       <c r="C9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="24"/>
+      <c r="F9" s="25"/>
       <c r="G9" t="s">
         <v>49</v>
       </c>
-      <c r="J9" s="24"/>
+      <c r="J9" s="25"/>
       <c r="K9" t="s">
         <v>85</v>
       </c>
-      <c r="N9" s="24"/>
+      <c r="N9" s="25"/>
       <c r="O9" t="s">
         <v>118</v>
       </c>
-      <c r="R9" s="24"/>
+      <c r="R9" s="25"/>
       <c r="S9" t="s">
         <v>151</v>
       </c>
-      <c r="V9" s="24"/>
+      <c r="V9" s="25"/>
       <c r="W9" t="s">
         <v>252</v>
       </c>
@@ -2860,35 +2869,35 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="26" t="s">
         <v>12</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="F10" s="26" t="s">
         <v>12</v>
       </c>
       <c r="G10" t="s">
         <v>54</v>
       </c>
-      <c r="J10" s="25" t="s">
+      <c r="J10" s="26" t="s">
         <v>12</v>
       </c>
       <c r="K10" t="s">
         <v>188</v>
       </c>
-      <c r="N10" s="24"/>
+      <c r="N10" s="25"/>
       <c r="O10" t="s">
         <v>119</v>
       </c>
-      <c r="R10" s="25" t="s">
+      <c r="R10" s="26" t="s">
         <v>12</v>
       </c>
       <c r="S10" t="s">
         <v>152</v>
       </c>
-      <c r="V10" s="24"/>
+      <c r="V10" s="25"/>
       <c r="W10" t="s">
         <v>186</v>
       </c>
@@ -2897,29 +2906,29 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="25"/>
+      <c r="B11" s="26"/>
       <c r="C11" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="25"/>
+      <c r="F11" s="26"/>
       <c r="G11" t="s">
         <v>56</v>
       </c>
-      <c r="J11" s="25"/>
+      <c r="J11" s="26"/>
       <c r="K11" t="s">
         <v>88</v>
       </c>
-      <c r="N11" s="25" t="s">
+      <c r="N11" s="26" t="s">
         <v>12</v>
       </c>
       <c r="O11" t="s">
         <v>120</v>
       </c>
-      <c r="R11" s="25"/>
+      <c r="R11" s="26"/>
       <c r="S11" t="s">
         <v>153</v>
       </c>
-      <c r="V11" s="24"/>
+      <c r="V11" s="25"/>
       <c r="W11" t="s">
         <v>187</v>
       </c>
@@ -2928,27 +2937,27 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="25"/>
+      <c r="B12" s="26"/>
       <c r="C12" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="25"/>
+      <c r="F12" s="26"/>
       <c r="G12" t="s">
         <v>58</v>
       </c>
-      <c r="J12" s="25"/>
+      <c r="J12" s="26"/>
       <c r="K12" t="s">
         <v>16</v>
       </c>
-      <c r="N12" s="25"/>
+      <c r="N12" s="26"/>
       <c r="O12" t="s">
         <v>121</v>
       </c>
-      <c r="R12" s="25"/>
+      <c r="R12" s="26"/>
       <c r="S12" t="s">
         <v>154</v>
       </c>
-      <c r="V12" s="24"/>
+      <c r="V12" s="25"/>
       <c r="W12" t="s">
         <v>53</v>
       </c>
@@ -2957,27 +2966,27 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="25"/>
+      <c r="B13" s="26"/>
       <c r="C13" t="s">
         <v>86</v>
       </c>
-      <c r="F13" s="25"/>
+      <c r="F13" s="26"/>
       <c r="G13" t="s">
         <v>59</v>
       </c>
-      <c r="J13" s="25"/>
+      <c r="J13" s="26"/>
       <c r="K13" t="s">
         <v>17</v>
       </c>
-      <c r="N13" s="25"/>
+      <c r="N13" s="26"/>
       <c r="O13" t="s">
         <v>122</v>
       </c>
-      <c r="R13" s="25"/>
+      <c r="R13" s="26"/>
       <c r="S13" t="s">
         <v>155</v>
       </c>
-      <c r="V13" s="24"/>
+      <c r="V13" s="25"/>
       <c r="W13" t="s">
         <v>10</v>
       </c>
@@ -2986,27 +2995,27 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="25"/>
+      <c r="B14" s="26"/>
       <c r="C14" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="25"/>
+      <c r="F14" s="26"/>
       <c r="G14" t="s">
         <v>226</v>
       </c>
-      <c r="J14" s="25"/>
+      <c r="J14" s="26"/>
       <c r="K14" t="s">
         <v>22</v>
       </c>
-      <c r="N14" s="25"/>
+      <c r="N14" s="26"/>
       <c r="O14" t="s">
         <v>123</v>
       </c>
-      <c r="R14" s="25"/>
+      <c r="R14" s="26"/>
       <c r="S14" t="s">
         <v>156</v>
       </c>
-      <c r="V14" s="29" t="s">
+      <c r="V14" s="20" t="s">
         <v>12</v>
       </c>
       <c r="W14" t="s">
@@ -3017,27 +3026,27 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="25"/>
+      <c r="B15" s="26"/>
       <c r="C15" t="s">
         <v>87</v>
       </c>
-      <c r="F15" s="25"/>
+      <c r="F15" s="26"/>
       <c r="G15" t="s">
         <v>225</v>
       </c>
-      <c r="J15" s="25"/>
+      <c r="J15" s="26"/>
       <c r="K15" t="s">
         <v>23</v>
       </c>
-      <c r="N15" s="25"/>
+      <c r="N15" s="26"/>
       <c r="O15" t="s">
         <v>124</v>
       </c>
-      <c r="R15" s="25"/>
+      <c r="R15" s="26"/>
       <c r="S15" t="s">
         <v>157</v>
       </c>
-      <c r="V15" s="29"/>
+      <c r="V15" s="20"/>
       <c r="W15" t="s">
         <v>189</v>
       </c>
@@ -3046,33 +3055,33 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="27" t="s">
         <v>18</v>
       </c>
       <c r="C16" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="26" t="s">
+      <c r="F16" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G16" t="s">
         <v>60</v>
       </c>
-      <c r="J16" s="26" t="s">
+      <c r="J16" s="27" t="s">
         <v>18</v>
       </c>
       <c r="K16" t="s">
         <v>95</v>
       </c>
-      <c r="N16" s="25"/>
+      <c r="N16" s="26"/>
       <c r="O16" t="s">
         <v>125</v>
       </c>
-      <c r="R16" s="25"/>
+      <c r="R16" s="26"/>
       <c r="S16" t="s">
         <v>158</v>
       </c>
-      <c r="V16" s="29"/>
+      <c r="V16" s="20"/>
       <c r="W16" t="s">
         <v>190</v>
       </c>
@@ -3081,29 +3090,29 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="26"/>
+      <c r="B17" s="27"/>
       <c r="C17" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="26"/>
+      <c r="F17" s="27"/>
       <c r="G17" t="s">
         <v>62</v>
       </c>
-      <c r="J17" s="26"/>
+      <c r="J17" s="27"/>
       <c r="K17" t="s">
-        <v>96</v>
-      </c>
-      <c r="N17" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="N17" s="27" t="s">
         <v>18</v>
       </c>
       <c r="O17" t="s">
         <v>126</v>
       </c>
-      <c r="R17" s="25"/>
+      <c r="R17" s="26"/>
       <c r="S17" t="s">
         <v>159</v>
       </c>
-      <c r="V17" s="29"/>
+      <c r="V17" s="20"/>
       <c r="W17" t="s">
         <v>191</v>
       </c>
@@ -3112,27 +3121,27 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="26"/>
+      <c r="B18" s="27"/>
       <c r="C18" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="26"/>
+        <v>96</v>
+      </c>
+      <c r="F18" s="27"/>
       <c r="G18" t="s">
         <v>63</v>
       </c>
-      <c r="J18" s="26"/>
+      <c r="J18" s="27"/>
       <c r="K18" t="s">
         <v>97</v>
       </c>
-      <c r="N18" s="26"/>
+      <c r="N18" s="27"/>
       <c r="O18" t="s">
         <v>127</v>
       </c>
-      <c r="R18" s="25"/>
+      <c r="R18" s="26"/>
       <c r="S18" t="s">
         <v>160</v>
       </c>
-      <c r="V18" s="29"/>
+      <c r="V18" s="20"/>
       <c r="W18" t="s">
         <v>91</v>
       </c>
@@ -3141,33 +3150,33 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="28" t="s">
         <v>24</v>
       </c>
       <c r="C19" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="27" t="s">
+      <c r="F19" s="28" t="s">
         <v>24</v>
       </c>
       <c r="G19" t="s">
         <v>64</v>
       </c>
-      <c r="J19" s="26"/>
+      <c r="J19" s="27"/>
       <c r="K19" t="s">
         <v>98</v>
       </c>
-      <c r="N19" s="27" t="s">
+      <c r="N19" s="28" t="s">
         <v>24</v>
       </c>
       <c r="O19" t="s">
         <v>128</v>
       </c>
-      <c r="R19" s="25"/>
+      <c r="R19" s="26"/>
       <c r="S19" t="s">
         <v>161</v>
       </c>
-      <c r="V19" s="29"/>
+      <c r="V19" s="20"/>
       <c r="W19" t="s">
         <v>261</v>
       </c>
@@ -3176,31 +3185,31 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="27"/>
+      <c r="B20" s="28"/>
       <c r="C20" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="27"/>
+      <c r="F20" s="28"/>
       <c r="G20" t="s">
         <v>65</v>
       </c>
-      <c r="J20" s="27" t="s">
+      <c r="J20" s="28" t="s">
         <v>24</v>
       </c>
       <c r="K20" t="s">
         <v>99</v>
       </c>
-      <c r="N20" s="27"/>
+      <c r="N20" s="28"/>
       <c r="O20" t="s">
         <v>129</v>
       </c>
-      <c r="R20" s="26" t="s">
+      <c r="R20" s="27" t="s">
         <v>18</v>
       </c>
       <c r="S20" t="s">
         <v>162</v>
       </c>
-      <c r="V20" s="29"/>
+      <c r="V20" s="20"/>
       <c r="W20" t="s">
         <v>94</v>
       </c>
@@ -3209,27 +3218,27 @@
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="27"/>
+      <c r="B21" s="28"/>
       <c r="C21" t="s">
         <v>27</v>
       </c>
-      <c r="F21" s="27"/>
+      <c r="F21" s="28"/>
       <c r="G21" t="s">
         <v>66</v>
       </c>
-      <c r="J21" s="27"/>
+      <c r="J21" s="28"/>
       <c r="K21" t="s">
         <v>28</v>
       </c>
-      <c r="N21" s="27"/>
+      <c r="N21" s="28"/>
       <c r="O21" t="s">
         <v>130</v>
       </c>
-      <c r="R21" s="26"/>
+      <c r="R21" s="27"/>
       <c r="S21" t="s">
         <v>163</v>
       </c>
-      <c r="V21" s="29"/>
+      <c r="V21" s="20"/>
       <c r="W21" t="s">
         <v>192</v>
       </c>
@@ -3238,29 +3247,29 @@
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="27"/>
+      <c r="B22" s="28"/>
       <c r="C22" t="s">
         <v>100</v>
       </c>
-      <c r="F22" s="27"/>
+      <c r="F22" s="28"/>
       <c r="G22" t="s">
         <v>67</v>
       </c>
-      <c r="J22" s="27"/>
+      <c r="J22" s="28"/>
       <c r="K22" t="s">
         <v>29</v>
       </c>
-      <c r="N22" s="27"/>
+      <c r="N22" s="28"/>
       <c r="O22" t="s">
         <v>131</v>
       </c>
-      <c r="R22" s="27" t="s">
+      <c r="R22" s="28" t="s">
         <v>24</v>
       </c>
       <c r="S22" t="s">
         <v>164</v>
       </c>
-      <c r="V22" s="29"/>
+      <c r="V22" s="20"/>
       <c r="W22" t="s">
         <v>193</v>
       </c>
@@ -3269,33 +3278,33 @@
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="21" t="s">
         <v>30</v>
       </c>
       <c r="C23" t="s">
         <v>31</v>
       </c>
-      <c r="F23" s="20" t="s">
+      <c r="F23" s="21" t="s">
         <v>30</v>
       </c>
       <c r="G23" t="s">
         <v>69</v>
       </c>
-      <c r="J23" s="20" t="s">
+      <c r="J23" s="21" t="s">
         <v>30</v>
       </c>
       <c r="K23" t="s">
         <v>103</v>
       </c>
-      <c r="N23" s="27"/>
+      <c r="N23" s="28"/>
       <c r="O23" t="s">
         <v>132</v>
       </c>
-      <c r="R23" s="27"/>
+      <c r="R23" s="28"/>
       <c r="S23" t="s">
         <v>165</v>
       </c>
-      <c r="V23" s="29"/>
+      <c r="V23" s="20"/>
       <c r="W23" t="s">
         <v>195</v>
       </c>
@@ -3304,29 +3313,29 @@
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="20"/>
+      <c r="B24" s="21"/>
       <c r="C24" t="s">
         <v>32</v>
       </c>
-      <c r="F24" s="20"/>
+      <c r="F24" s="21"/>
       <c r="G24" t="s">
         <v>70</v>
       </c>
-      <c r="J24" s="20"/>
+      <c r="J24" s="21"/>
       <c r="K24" t="s">
         <v>104</v>
       </c>
-      <c r="N24" s="20" t="s">
+      <c r="N24" s="21" t="s">
         <v>30</v>
       </c>
       <c r="O24" t="s">
         <v>133</v>
       </c>
-      <c r="R24" s="27"/>
+      <c r="R24" s="28"/>
       <c r="S24" t="s">
         <v>166</v>
       </c>
-      <c r="V24" s="29"/>
+      <c r="V24" s="20"/>
       <c r="W24" t="s">
         <v>196</v>
       </c>
@@ -3335,27 +3344,27 @@
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="20"/>
+      <c r="B25" s="21"/>
       <c r="C25" t="s">
         <v>33</v>
       </c>
-      <c r="F25" s="20"/>
+      <c r="F25" s="21"/>
       <c r="G25" t="s">
         <v>71</v>
       </c>
-      <c r="J25" s="20"/>
+      <c r="J25" s="21"/>
       <c r="K25" t="s">
         <v>105</v>
       </c>
-      <c r="N25" s="20"/>
+      <c r="N25" s="21"/>
       <c r="O25" t="s">
         <v>134</v>
       </c>
-      <c r="R25" s="27"/>
+      <c r="R25" s="28"/>
       <c r="S25" t="s">
         <v>167</v>
       </c>
-      <c r="V25" s="26" t="s">
+      <c r="V25" s="27" t="s">
         <v>18</v>
       </c>
       <c r="W25" t="s">
@@ -3366,31 +3375,31 @@
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="22" t="s">
         <v>36</v>
       </c>
       <c r="C26" t="s">
         <v>37</v>
       </c>
-      <c r="F26" s="20"/>
+      <c r="F26" s="21"/>
       <c r="G26" t="s">
         <v>68</v>
       </c>
-      <c r="J26" s="20"/>
+      <c r="J26" s="21"/>
       <c r="K26" t="s">
         <v>106</v>
       </c>
-      <c r="N26" s="20"/>
+      <c r="N26" s="21"/>
       <c r="O26" t="s">
         <v>135</v>
       </c>
-      <c r="R26" s="20" t="s">
+      <c r="R26" s="21" t="s">
         <v>30</v>
       </c>
       <c r="S26" t="s">
         <v>168</v>
       </c>
-      <c r="V26" s="26"/>
+      <c r="V26" s="27"/>
       <c r="W26" t="s">
         <v>198</v>
       </c>
@@ -3399,31 +3408,31 @@
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="21"/>
+      <c r="B27" s="22"/>
       <c r="C27" t="s">
         <v>38</v>
       </c>
-      <c r="F27" s="21" t="s">
+      <c r="F27" s="22" t="s">
         <v>36</v>
       </c>
       <c r="G27" t="s">
         <v>72</v>
       </c>
-      <c r="J27" s="21" t="s">
+      <c r="J27" s="22" t="s">
         <v>36</v>
       </c>
       <c r="K27" t="s">
         <v>40</v>
       </c>
-      <c r="N27" s="20"/>
+      <c r="N27" s="21"/>
       <c r="O27" t="s">
         <v>136</v>
       </c>
-      <c r="R27" s="20"/>
+      <c r="R27" s="21"/>
       <c r="S27" t="s">
         <v>169</v>
       </c>
-      <c r="V27" s="26"/>
+      <c r="V27" s="27"/>
       <c r="W27" t="s">
         <v>199</v>
       </c>
@@ -3432,27 +3441,27 @@
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="21"/>
+      <c r="B28" s="22"/>
       <c r="C28" t="s">
         <v>39</v>
       </c>
-      <c r="F28" s="21"/>
+      <c r="F28" s="22"/>
       <c r="G28" t="s">
         <v>73</v>
       </c>
-      <c r="J28" s="21"/>
+      <c r="J28" s="22"/>
       <c r="K28" t="s">
         <v>108</v>
       </c>
-      <c r="N28" s="20"/>
+      <c r="N28" s="21"/>
       <c r="O28" t="s">
         <v>137</v>
       </c>
-      <c r="R28" s="20"/>
+      <c r="R28" s="21"/>
       <c r="S28" t="s">
         <v>170</v>
       </c>
-      <c r="V28" s="27" t="s">
+      <c r="V28" s="28" t="s">
         <v>24</v>
       </c>
       <c r="W28" t="s">
@@ -3463,27 +3472,27 @@
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="21"/>
+      <c r="B29" s="22"/>
       <c r="C29" t="s">
         <v>107</v>
       </c>
-      <c r="F29" s="21"/>
+      <c r="F29" s="22"/>
       <c r="G29" t="s">
         <v>74</v>
       </c>
-      <c r="J29" s="21"/>
+      <c r="J29" s="22"/>
       <c r="K29" t="s">
         <v>110</v>
       </c>
-      <c r="N29" s="20"/>
+      <c r="N29" s="21"/>
       <c r="O29" t="s">
         <v>138</v>
       </c>
-      <c r="R29" s="20"/>
+      <c r="R29" s="21"/>
       <c r="S29" t="s">
         <v>171</v>
       </c>
-      <c r="V29" s="27"/>
+      <c r="V29" s="28"/>
       <c r="W29" t="s">
         <v>201</v>
       </c>
@@ -3492,25 +3501,25 @@
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="F30" s="21"/>
+      <c r="F30" s="22"/>
       <c r="G30" t="s">
         <v>75</v>
       </c>
-      <c r="J30" s="21"/>
+      <c r="J30" s="22"/>
       <c r="K30" t="s">
         <v>41</v>
       </c>
-      <c r="N30" s="21" t="s">
+      <c r="N30" s="22" t="s">
         <v>36</v>
       </c>
       <c r="O30" t="s">
         <v>139</v>
       </c>
-      <c r="R30" s="20"/>
+      <c r="R30" s="21"/>
       <c r="S30" t="s">
         <v>172</v>
       </c>
-      <c r="V30" s="27"/>
+      <c r="V30" s="28"/>
       <c r="W30" t="s">
         <v>202</v>
       </c>
@@ -3519,35 +3528,35 @@
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="F31" s="21"/>
+      <c r="F31" s="22"/>
       <c r="G31" t="s">
         <v>275</v>
       </c>
-      <c r="N31" s="21"/>
+      <c r="N31" s="22"/>
       <c r="O31" t="s">
         <v>140</v>
       </c>
-      <c r="R31" s="21" t="s">
+      <c r="R31" s="22" t="s">
         <v>36</v>
       </c>
       <c r="S31" t="s">
         <v>173</v>
       </c>
-      <c r="V31" s="27"/>
+      <c r="V31" s="28"/>
       <c r="W31" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="N32" s="21"/>
+      <c r="N32" s="22"/>
       <c r="O32" t="s">
         <v>141</v>
       </c>
-      <c r="R32" s="21"/>
+      <c r="R32" s="22"/>
       <c r="S32" t="s">
         <v>174</v>
       </c>
-      <c r="V32" s="20" t="s">
+      <c r="V32" s="21" t="s">
         <v>30</v>
       </c>
       <c r="W32" t="s">
@@ -3555,43 +3564,43 @@
       </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="N33" s="21"/>
+      <c r="N33" s="22"/>
       <c r="O33" t="s">
         <v>142</v>
       </c>
-      <c r="R33" s="21"/>
+      <c r="R33" s="22"/>
       <c r="S33" t="s">
         <v>175</v>
       </c>
-      <c r="V33" s="20"/>
+      <c r="V33" s="21"/>
       <c r="W33" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="R34" s="21"/>
+      <c r="R34" s="22"/>
       <c r="S34" t="s">
         <v>176</v>
       </c>
-      <c r="V34" s="20"/>
+      <c r="V34" s="21"/>
       <c r="W34" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="V35" s="20"/>
+      <c r="V35" s="21"/>
       <c r="W35" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="V36" s="20"/>
+      <c r="V36" s="21"/>
       <c r="W36" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="V37" s="21" t="s">
+      <c r="V37" s="22" t="s">
         <v>36</v>
       </c>
       <c r="W37" t="s">
@@ -3599,26 +3608,21 @@
       </c>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="V38" s="21"/>
+      <c r="V38" s="22"/>
       <c r="W38" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="V39" s="21"/>
+      <c r="V39" s="22"/>
       <c r="W39" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="V40" s="21"/>
+      <c r="V40" s="22"/>
       <c r="W40" t="s">
         <v>211</v>
-      </c>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="G41" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.35">
@@ -3637,48 +3641,48 @@
       <c r="R43" t="s">
         <v>315</v>
       </c>
-      <c r="V43" s="22" t="s">
+      <c r="V43" s="23" t="s">
         <v>316</v>
       </c>
-      <c r="W43" s="22"/>
-      <c r="X43" s="22"/>
-      <c r="Y43" s="22"/>
+      <c r="W43" s="23"/>
+      <c r="X43" s="23"/>
+      <c r="Y43" s="23"/>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>1</v>
       </c>
-      <c r="B44" s="23" t="s">
+      <c r="B44" s="24" t="s">
         <v>1</v>
       </c>
       <c r="C44" t="s">
         <v>44</v>
       </c>
-      <c r="F44" s="23" t="s">
+      <c r="F44" s="24" t="s">
         <v>1</v>
       </c>
       <c r="G44" t="s">
         <v>246</v>
       </c>
-      <c r="J44" s="23" t="s">
+      <c r="J44" s="24" t="s">
         <v>1</v>
       </c>
       <c r="K44" t="s">
         <v>280</v>
       </c>
-      <c r="N44" s="23" t="s">
+      <c r="N44" s="24" t="s">
         <v>1</v>
       </c>
       <c r="O44" t="s">
         <v>317</v>
       </c>
-      <c r="R44" s="23" t="s">
+      <c r="R44" s="24" t="s">
         <v>1</v>
       </c>
       <c r="S44" t="s">
         <v>348</v>
       </c>
-      <c r="V44" s="23" t="s">
+      <c r="V44" s="24" t="s">
         <v>1</v>
       </c>
       <c r="W44" t="s">
@@ -3689,27 +3693,27 @@
       <c r="A45" s="1">
         <v>2</v>
       </c>
-      <c r="B45" s="23"/>
+      <c r="B45" s="24"/>
       <c r="C45" t="s">
         <v>214</v>
       </c>
-      <c r="F45" s="23"/>
+      <c r="F45" s="24"/>
       <c r="G45" t="s">
         <v>247</v>
       </c>
-      <c r="J45" s="23"/>
+      <c r="J45" s="24"/>
       <c r="K45" t="s">
         <v>281</v>
       </c>
-      <c r="N45" s="23"/>
+      <c r="N45" s="24"/>
       <c r="O45" t="s">
         <v>318</v>
       </c>
-      <c r="R45" s="23"/>
+      <c r="R45" s="24"/>
       <c r="S45" t="s">
         <v>349</v>
       </c>
-      <c r="V45" s="23"/>
+      <c r="V45" s="24"/>
       <c r="W45" t="s">
         <v>379</v>
       </c>
@@ -3718,27 +3722,27 @@
       <c r="A46" s="1">
         <v>3</v>
       </c>
-      <c r="B46" s="23"/>
+      <c r="B46" s="24"/>
       <c r="C46" t="s">
         <v>213</v>
       </c>
-      <c r="F46" s="23"/>
+      <c r="F46" s="24"/>
       <c r="G46" t="s">
         <v>79</v>
       </c>
-      <c r="J46" s="23"/>
+      <c r="J46" s="24"/>
       <c r="K46" t="s">
         <v>282</v>
       </c>
-      <c r="N46" s="23"/>
+      <c r="N46" s="24"/>
       <c r="O46" t="s">
         <v>319</v>
       </c>
-      <c r="R46" s="23"/>
+      <c r="R46" s="24"/>
       <c r="S46" t="s">
         <v>78</v>
       </c>
-      <c r="V46" s="23"/>
+      <c r="V46" s="24"/>
       <c r="W46" t="s">
         <v>380</v>
       </c>
@@ -3747,35 +3751,35 @@
       <c r="A47" s="1">
         <v>4</v>
       </c>
-      <c r="B47" s="24" t="s">
+      <c r="B47" s="25" t="s">
         <v>5</v>
       </c>
       <c r="C47" t="s">
         <v>216</v>
       </c>
-      <c r="F47" s="24" t="s">
+      <c r="F47" s="25" t="s">
         <v>5</v>
       </c>
       <c r="G47" t="s">
         <v>183</v>
       </c>
-      <c r="J47" s="24" t="s">
+      <c r="J47" s="25" t="s">
         <v>5</v>
       </c>
       <c r="K47" t="s">
         <v>283</v>
       </c>
-      <c r="N47" s="24" t="s">
+      <c r="N47" s="25" t="s">
         <v>5</v>
       </c>
       <c r="O47" t="s">
         <v>320</v>
       </c>
-      <c r="R47" s="23"/>
+      <c r="R47" s="24"/>
       <c r="S47" t="s">
         <v>350</v>
       </c>
-      <c r="V47" s="24" t="s">
+      <c r="V47" s="25" t="s">
         <v>5</v>
       </c>
       <c r="W47" t="s">
@@ -3786,29 +3790,29 @@
       <c r="A48" s="1">
         <v>5</v>
       </c>
-      <c r="B48" s="24"/>
+      <c r="B48" s="25"/>
       <c r="C48" t="s">
         <v>217</v>
       </c>
-      <c r="F48" s="24"/>
+      <c r="F48" s="25"/>
       <c r="G48" t="s">
         <v>321</v>
       </c>
-      <c r="J48" s="24"/>
+      <c r="J48" s="25"/>
       <c r="K48" t="s">
         <v>284</v>
       </c>
-      <c r="N48" s="24"/>
+      <c r="N48" s="25"/>
       <c r="O48" t="s">
         <v>251</v>
       </c>
-      <c r="R48" s="24" t="s">
+      <c r="R48" s="25" t="s">
         <v>5</v>
       </c>
       <c r="S48" t="s">
         <v>351</v>
       </c>
-      <c r="V48" s="24"/>
+      <c r="V48" s="25"/>
       <c r="W48" t="s">
         <v>382</v>
       </c>
@@ -3817,27 +3821,27 @@
       <c r="A49" s="1">
         <v>6</v>
       </c>
-      <c r="B49" s="24"/>
+      <c r="B49" s="25"/>
       <c r="C49" t="s">
         <v>221</v>
       </c>
-      <c r="F49" s="24"/>
+      <c r="F49" s="25"/>
       <c r="G49" t="s">
         <v>185</v>
       </c>
-      <c r="J49" s="24"/>
+      <c r="J49" s="25"/>
       <c r="K49" t="s">
         <v>285</v>
       </c>
-      <c r="N49" s="24"/>
+      <c r="N49" s="25"/>
       <c r="O49" t="s">
         <v>322</v>
       </c>
-      <c r="R49" s="24"/>
+      <c r="R49" s="25"/>
       <c r="S49" t="s">
         <v>352</v>
       </c>
-      <c r="V49" s="24"/>
+      <c r="V49" s="25"/>
       <c r="W49" t="s">
         <v>383</v>
       </c>
@@ -3846,31 +3850,31 @@
       <c r="A50" s="1">
         <v>7</v>
       </c>
-      <c r="B50" s="24"/>
+      <c r="B50" s="25"/>
       <c r="C50" t="s">
         <v>222</v>
       </c>
-      <c r="F50" s="24"/>
+      <c r="F50" s="25"/>
       <c r="G50" t="s">
         <v>249</v>
       </c>
-      <c r="J50" s="25" t="s">
+      <c r="J50" s="26" t="s">
         <v>12</v>
       </c>
       <c r="K50" t="s">
         <v>286</v>
       </c>
-      <c r="N50" s="25" t="s">
+      <c r="N50" s="26" t="s">
         <v>12</v>
       </c>
       <c r="O50" t="s">
         <v>323</v>
       </c>
-      <c r="R50" s="24"/>
+      <c r="R50" s="25"/>
       <c r="S50" t="s">
         <v>353</v>
       </c>
-      <c r="V50" s="24"/>
+      <c r="V50" s="25"/>
       <c r="W50" t="s">
         <v>384</v>
       </c>
@@ -3879,29 +3883,29 @@
       <c r="A51" s="1">
         <v>8</v>
       </c>
-      <c r="B51" s="25" t="s">
+      <c r="B51" s="26" t="s">
         <v>12</v>
       </c>
       <c r="C51" t="s">
         <v>57</v>
       </c>
-      <c r="F51" s="24"/>
+      <c r="F51" s="25"/>
       <c r="G51" t="s">
         <v>253</v>
       </c>
-      <c r="J51" s="25"/>
+      <c r="J51" s="26"/>
       <c r="K51" t="s">
         <v>287</v>
       </c>
-      <c r="N51" s="25"/>
+      <c r="N51" s="26"/>
       <c r="O51" t="s">
         <v>324</v>
       </c>
-      <c r="R51" s="24"/>
+      <c r="R51" s="25"/>
       <c r="S51" t="s">
         <v>354</v>
       </c>
-      <c r="V51" s="24"/>
+      <c r="V51" s="25"/>
       <c r="W51" t="s">
         <v>385</v>
       </c>
@@ -3910,27 +3914,27 @@
       <c r="A52" s="1">
         <v>9</v>
       </c>
-      <c r="B52" s="25"/>
+      <c r="B52" s="26"/>
       <c r="C52" t="s">
         <v>218</v>
       </c>
-      <c r="F52" s="24"/>
+      <c r="F52" s="25"/>
       <c r="G52" t="s">
         <v>254</v>
       </c>
-      <c r="J52" s="25"/>
+      <c r="J52" s="26"/>
       <c r="K52" t="s">
         <v>288</v>
       </c>
-      <c r="N52" s="25"/>
+      <c r="N52" s="26"/>
       <c r="O52" t="s">
         <v>325</v>
       </c>
-      <c r="R52" s="24"/>
+      <c r="R52" s="25"/>
       <c r="S52" t="s">
         <v>355</v>
       </c>
-      <c r="V52" s="25" t="s">
+      <c r="V52" s="26" t="s">
         <v>12</v>
       </c>
       <c r="W52" t="s">
@@ -3941,29 +3945,29 @@
       <c r="A53" s="1">
         <v>10</v>
       </c>
-      <c r="B53" s="25"/>
+      <c r="B53" s="26"/>
       <c r="C53" t="s">
         <v>219</v>
       </c>
-      <c r="F53" s="24"/>
+      <c r="F53" s="25"/>
       <c r="G53" t="s">
         <v>255</v>
       </c>
-      <c r="J53" s="25"/>
+      <c r="J53" s="26"/>
       <c r="K53" t="s">
         <v>289</v>
       </c>
-      <c r="N53" s="25"/>
+      <c r="N53" s="26"/>
       <c r="O53" t="s">
         <v>326</v>
       </c>
-      <c r="R53" s="25" t="s">
+      <c r="R53" s="26" t="s">
         <v>12</v>
       </c>
       <c r="S53" t="s">
         <v>356</v>
       </c>
-      <c r="V53" s="25"/>
+      <c r="V53" s="26"/>
       <c r="W53" t="s">
         <v>387</v>
       </c>
@@ -3972,27 +3976,27 @@
       <c r="A54" s="1">
         <v>11</v>
       </c>
-      <c r="B54" s="25"/>
+      <c r="B54" s="26"/>
       <c r="C54" t="s">
         <v>93</v>
       </c>
-      <c r="F54" s="24"/>
+      <c r="F54" s="25"/>
       <c r="G54" t="s">
         <v>83</v>
       </c>
-      <c r="J54" s="25"/>
+      <c r="J54" s="26"/>
       <c r="K54" t="s">
         <v>290</v>
       </c>
-      <c r="N54" s="25"/>
+      <c r="N54" s="26"/>
       <c r="O54" t="s">
         <v>327</v>
       </c>
-      <c r="R54" s="25"/>
+      <c r="R54" s="26"/>
       <c r="S54" t="s">
         <v>357</v>
       </c>
-      <c r="V54" s="25"/>
+      <c r="V54" s="26"/>
       <c r="W54" t="s">
         <v>388</v>
       </c>
@@ -4001,29 +4005,27 @@
       <c r="A55" s="1">
         <v>12</v>
       </c>
-      <c r="B55" s="25"/>
+      <c r="B55" s="26"/>
       <c r="C55" t="s">
         <v>220</v>
       </c>
-      <c r="F55" s="25" t="s">
-        <v>12</v>
-      </c>
+      <c r="F55" s="25"/>
       <c r="G55" t="s">
-        <v>194</v>
-      </c>
-      <c r="J55" s="25"/>
+        <v>51</v>
+      </c>
+      <c r="J55" s="26"/>
       <c r="K55" t="s">
         <v>291</v>
       </c>
-      <c r="N55" s="25"/>
+      <c r="N55" s="26"/>
       <c r="O55" t="s">
         <v>328</v>
       </c>
-      <c r="R55" s="25"/>
+      <c r="R55" s="26"/>
       <c r="S55" t="s">
         <v>358</v>
       </c>
-      <c r="V55" s="25"/>
+      <c r="V55" s="26"/>
       <c r="W55" t="s">
         <v>389</v>
       </c>
@@ -4032,27 +4034,29 @@
       <c r="A56" s="1">
         <v>13</v>
       </c>
-      <c r="B56" s="25"/>
+      <c r="B56" s="26"/>
       <c r="C56" t="s">
         <v>223</v>
       </c>
-      <c r="F56" s="25"/>
+      <c r="F56" s="26" t="s">
+        <v>12</v>
+      </c>
       <c r="G56" t="s">
-        <v>258</v>
-      </c>
-      <c r="J56" s="25"/>
+        <v>194</v>
+      </c>
+      <c r="J56" s="26"/>
       <c r="K56" t="s">
         <v>292</v>
       </c>
-      <c r="N56" s="25"/>
+      <c r="N56" s="26"/>
       <c r="O56" t="s">
         <v>329</v>
       </c>
-      <c r="R56" s="25"/>
+      <c r="R56" s="26"/>
       <c r="S56" t="s">
         <v>359</v>
       </c>
-      <c r="V56" s="25"/>
+      <c r="V56" s="26"/>
       <c r="W56" t="s">
         <v>390</v>
       </c>
@@ -4061,27 +4065,27 @@
       <c r="A57" s="1">
         <v>14</v>
       </c>
-      <c r="B57" s="25"/>
+      <c r="B57" s="26"/>
       <c r="C57" t="s">
         <v>224</v>
       </c>
-      <c r="F57" s="25"/>
+      <c r="F57" s="26"/>
       <c r="G57" t="s">
-        <v>90</v>
-      </c>
-      <c r="J57" s="25"/>
+        <v>258</v>
+      </c>
+      <c r="J57" s="26"/>
       <c r="K57" t="s">
         <v>293</v>
       </c>
-      <c r="N57" s="25"/>
+      <c r="N57" s="26"/>
       <c r="O57" t="s">
         <v>257</v>
       </c>
-      <c r="R57" s="25"/>
+      <c r="R57" s="26"/>
       <c r="S57" t="s">
         <v>360</v>
       </c>
-      <c r="V57" s="25"/>
+      <c r="V57" s="26"/>
       <c r="W57" t="s">
         <v>391</v>
       </c>
@@ -4090,27 +4094,27 @@
       <c r="A58" s="1">
         <v>15</v>
       </c>
-      <c r="B58" s="25"/>
+      <c r="B58" s="26"/>
       <c r="C58" t="s">
         <v>227</v>
       </c>
-      <c r="F58" s="25"/>
+      <c r="F58" s="26"/>
       <c r="G58" t="s">
-        <v>260</v>
-      </c>
-      <c r="J58" s="25"/>
+        <v>90</v>
+      </c>
+      <c r="J58" s="26"/>
       <c r="K58" t="s">
         <v>294</v>
       </c>
-      <c r="N58" s="25"/>
+      <c r="N58" s="26"/>
       <c r="O58" t="s">
         <v>263</v>
       </c>
-      <c r="R58" s="25"/>
+      <c r="R58" s="26"/>
       <c r="S58" t="s">
         <v>361</v>
       </c>
-      <c r="V58" s="25"/>
+      <c r="V58" s="26"/>
       <c r="W58" t="s">
         <v>392</v>
       </c>
@@ -4119,27 +4123,27 @@
       <c r="A59" s="1">
         <v>16</v>
       </c>
-      <c r="B59" s="25"/>
+      <c r="B59" s="26"/>
       <c r="C59" t="s">
         <v>228</v>
       </c>
-      <c r="F59" s="25"/>
+      <c r="F59" s="26"/>
       <c r="G59" t="s">
-        <v>262</v>
-      </c>
-      <c r="J59" s="25"/>
+        <v>260</v>
+      </c>
+      <c r="J59" s="26"/>
       <c r="K59" t="s">
         <v>295</v>
       </c>
-      <c r="N59" s="25"/>
+      <c r="N59" s="26"/>
       <c r="O59" t="s">
         <v>330</v>
       </c>
-      <c r="R59" s="25"/>
+      <c r="R59" s="26"/>
       <c r="S59" t="s">
         <v>362</v>
       </c>
-      <c r="V59" s="25"/>
+      <c r="V59" s="26"/>
       <c r="W59" t="s">
         <v>393</v>
       </c>
@@ -4148,21 +4152,21 @@
       <c r="A60" s="1">
         <v>17</v>
       </c>
-      <c r="B60" s="25"/>
+      <c r="B60" s="26"/>
       <c r="C60" t="s">
         <v>229</v>
       </c>
-      <c r="F60" s="25"/>
+      <c r="F60" s="26"/>
       <c r="G60" t="s">
-        <v>259</v>
-      </c>
-      <c r="J60" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="J60" s="27" t="s">
         <v>18</v>
       </c>
       <c r="K60" t="s">
         <v>296</v>
       </c>
-      <c r="N60" s="26" t="s">
+      <c r="N60" s="27" t="s">
         <v>18</v>
       </c>
       <c r="O60" t="s">
@@ -4174,7 +4178,7 @@
       <c r="S60" t="s">
         <v>363</v>
       </c>
-      <c r="V60" s="26" t="s">
+      <c r="V60" s="27" t="s">
         <v>18</v>
       </c>
       <c r="W60" t="s">
@@ -4185,29 +4189,29 @@
       <c r="A61" s="1">
         <v>18</v>
       </c>
-      <c r="B61" s="25"/>
+      <c r="B61" s="26"/>
       <c r="C61" t="s">
         <v>55</v>
       </c>
-      <c r="F61" s="25"/>
+      <c r="F61" s="26"/>
       <c r="G61" t="s">
-        <v>92</v>
-      </c>
-      <c r="J61" s="26"/>
+        <v>259</v>
+      </c>
+      <c r="J61" s="27"/>
       <c r="K61" t="s">
         <v>297</v>
       </c>
-      <c r="N61" s="26"/>
+      <c r="N61" s="27"/>
       <c r="O61" t="s">
         <v>332</v>
       </c>
-      <c r="R61" s="27" t="s">
+      <c r="R61" s="28" t="s">
         <v>24</v>
       </c>
       <c r="S61" t="s">
         <v>364</v>
       </c>
-      <c r="V61" s="26"/>
+      <c r="V61" s="27"/>
       <c r="W61" t="s">
         <v>395</v>
       </c>
@@ -4216,31 +4220,29 @@
       <c r="A62" s="1">
         <v>19</v>
       </c>
-      <c r="B62" s="26" t="s">
+      <c r="B62" s="27" t="s">
         <v>18</v>
       </c>
       <c r="C62" t="s">
         <v>233</v>
       </c>
-      <c r="F62" s="26" t="s">
-        <v>18</v>
-      </c>
+      <c r="F62" s="26"/>
       <c r="G62" t="s">
-        <v>264</v>
-      </c>
-      <c r="J62" s="26"/>
+        <v>92</v>
+      </c>
+      <c r="J62" s="27"/>
       <c r="K62" t="s">
         <v>298</v>
       </c>
-      <c r="N62" s="26"/>
+      <c r="N62" s="27"/>
       <c r="O62" t="s">
         <v>333</v>
       </c>
-      <c r="R62" s="27"/>
+      <c r="R62" s="28"/>
       <c r="S62" t="s">
         <v>365</v>
       </c>
-      <c r="V62" s="26"/>
+      <c r="V62" s="27"/>
       <c r="W62" t="s">
         <v>396</v>
       </c>
@@ -4249,29 +4251,31 @@
       <c r="A63" s="1">
         <v>20</v>
       </c>
-      <c r="B63" s="26"/>
+      <c r="B63" s="27"/>
       <c r="C63" t="s">
         <v>230</v>
       </c>
-      <c r="F63" s="26"/>
+      <c r="F63" s="27" t="s">
+        <v>18</v>
+      </c>
       <c r="G63" t="s">
-        <v>265</v>
-      </c>
-      <c r="J63" s="27" t="s">
+        <v>264</v>
+      </c>
+      <c r="J63" s="28" t="s">
         <v>24</v>
       </c>
       <c r="K63" t="s">
         <v>299</v>
       </c>
-      <c r="N63" s="26"/>
+      <c r="N63" s="27"/>
       <c r="O63" t="s">
         <v>334</v>
       </c>
-      <c r="R63" s="27"/>
+      <c r="R63" s="28"/>
       <c r="S63" t="s">
         <v>366</v>
       </c>
-      <c r="V63" s="26"/>
+      <c r="V63" s="27"/>
       <c r="W63" t="s">
         <v>397</v>
       </c>
@@ -4280,27 +4284,27 @@
       <c r="A64" s="1">
         <v>21</v>
       </c>
-      <c r="B64" s="26"/>
+      <c r="B64" s="27"/>
       <c r="C64" t="s">
         <v>231</v>
       </c>
-      <c r="F64" s="26"/>
+      <c r="F64" s="27"/>
       <c r="G64" t="s">
-        <v>266</v>
-      </c>
-      <c r="J64" s="27"/>
+        <v>265</v>
+      </c>
+      <c r="J64" s="28"/>
       <c r="K64" t="s">
         <v>300</v>
       </c>
-      <c r="N64" s="26"/>
+      <c r="N64" s="27"/>
       <c r="O64" t="s">
         <v>335</v>
       </c>
-      <c r="R64" s="27"/>
+      <c r="R64" s="28"/>
       <c r="S64" t="s">
         <v>367</v>
       </c>
-      <c r="V64" s="27" t="s">
+      <c r="V64" s="28" t="s">
         <v>24</v>
       </c>
       <c r="W64" t="s">
@@ -4311,29 +4315,29 @@
       <c r="A65" s="1">
         <v>22</v>
       </c>
-      <c r="B65" s="26"/>
+      <c r="B65" s="27"/>
       <c r="C65" t="s">
         <v>232</v>
       </c>
-      <c r="F65" s="26"/>
+      <c r="F65" s="27"/>
       <c r="G65" t="s">
-        <v>267</v>
-      </c>
-      <c r="J65" s="27"/>
+        <v>266</v>
+      </c>
+      <c r="J65" s="28"/>
       <c r="K65" t="s">
         <v>301</v>
       </c>
-      <c r="N65" s="27" t="s">
+      <c r="N65" s="28" t="s">
         <v>24</v>
       </c>
       <c r="O65" t="s">
         <v>336</v>
       </c>
-      <c r="R65" s="27"/>
+      <c r="R65" s="28"/>
       <c r="S65" t="s">
         <v>368</v>
       </c>
-      <c r="V65" s="27"/>
+      <c r="V65" s="28"/>
       <c r="W65" t="s">
         <v>399</v>
       </c>
@@ -4342,31 +4346,29 @@
       <c r="A66" s="1">
         <v>23</v>
       </c>
-      <c r="B66" s="26"/>
+      <c r="B66" s="27"/>
       <c r="C66" t="s">
         <v>61</v>
       </c>
-      <c r="F66" s="27" t="s">
-        <v>24</v>
-      </c>
+      <c r="F66" s="27"/>
       <c r="G66" t="s">
-        <v>268</v>
-      </c>
-      <c r="J66" s="27"/>
+        <v>267</v>
+      </c>
+      <c r="J66" s="28"/>
       <c r="K66" t="s">
         <v>302</v>
       </c>
-      <c r="N66" s="27"/>
+      <c r="N66" s="28"/>
       <c r="O66" t="s">
         <v>337</v>
       </c>
-      <c r="R66" s="20" t="s">
+      <c r="R66" s="21" t="s">
         <v>30</v>
       </c>
       <c r="S66" t="s">
         <v>369</v>
       </c>
-      <c r="V66" s="27"/>
+      <c r="V66" s="28"/>
       <c r="W66" t="s">
         <v>400</v>
       </c>
@@ -4375,29 +4377,31 @@
       <c r="A67" s="1">
         <v>24</v>
       </c>
-      <c r="B67" s="27" t="s">
+      <c r="B67" s="28" t="s">
         <v>24</v>
       </c>
       <c r="C67" t="s">
         <v>102</v>
       </c>
-      <c r="F67" s="27"/>
+      <c r="F67" s="28" t="s">
+        <v>24</v>
+      </c>
       <c r="G67" t="s">
-        <v>269</v>
-      </c>
-      <c r="J67" s="27"/>
+        <v>268</v>
+      </c>
+      <c r="J67" s="28"/>
       <c r="K67" t="s">
         <v>303</v>
       </c>
-      <c r="N67" s="27"/>
+      <c r="N67" s="28"/>
       <c r="O67" t="s">
         <v>338</v>
       </c>
-      <c r="R67" s="20"/>
+      <c r="R67" s="21"/>
       <c r="S67" t="s">
         <v>370</v>
       </c>
-      <c r="V67" s="27"/>
+      <c r="V67" s="28"/>
       <c r="W67" t="s">
         <v>401</v>
       </c>
@@ -4406,27 +4410,27 @@
       <c r="A68" s="1">
         <v>25</v>
       </c>
-      <c r="B68" s="27"/>
+      <c r="B68" s="28"/>
       <c r="C68" t="s">
         <v>234</v>
       </c>
-      <c r="F68" s="27"/>
+      <c r="F68" s="28"/>
       <c r="G68" t="s">
-        <v>270</v>
-      </c>
-      <c r="J68" s="27"/>
+        <v>269</v>
+      </c>
+      <c r="J68" s="28"/>
       <c r="K68" t="s">
         <v>304</v>
       </c>
-      <c r="N68" s="27"/>
+      <c r="N68" s="28"/>
       <c r="O68" t="s">
         <v>342</v>
       </c>
-      <c r="R68" s="20"/>
+      <c r="R68" s="21"/>
       <c r="S68" t="s">
         <v>371</v>
       </c>
-      <c r="V68" s="20" t="s">
+      <c r="V68" s="21" t="s">
         <v>30</v>
       </c>
       <c r="W68" t="s">
@@ -4437,29 +4441,29 @@
       <c r="A69" s="1">
         <v>26</v>
       </c>
-      <c r="B69" s="27"/>
+      <c r="B69" s="28"/>
       <c r="C69" t="s">
         <v>235</v>
       </c>
-      <c r="F69" s="27"/>
+      <c r="F69" s="28"/>
       <c r="G69" t="s">
-        <v>101</v>
-      </c>
-      <c r="J69" s="27"/>
+        <v>270</v>
+      </c>
+      <c r="J69" s="28"/>
       <c r="K69" t="s">
         <v>305</v>
       </c>
-      <c r="N69" s="20" t="s">
+      <c r="N69" s="21" t="s">
         <v>30</v>
       </c>
       <c r="O69" t="s">
         <v>339</v>
       </c>
-      <c r="R69" s="20"/>
+      <c r="R69" s="21"/>
       <c r="S69" t="s">
         <v>372</v>
       </c>
-      <c r="V69" s="20"/>
+      <c r="V69" s="21"/>
       <c r="W69" t="s">
         <v>403</v>
       </c>
@@ -4468,33 +4472,31 @@
       <c r="A70" s="1">
         <v>27</v>
       </c>
-      <c r="B70" s="27"/>
+      <c r="B70" s="28"/>
       <c r="C70" t="s">
         <v>236</v>
       </c>
-      <c r="F70" s="20" t="s">
-        <v>30</v>
-      </c>
+      <c r="F70" s="28"/>
       <c r="G70" t="s">
-        <v>271</v>
-      </c>
-      <c r="J70" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="J70" s="21" t="s">
         <v>30</v>
       </c>
       <c r="K70" t="s">
         <v>306</v>
       </c>
-      <c r="N70" s="20"/>
+      <c r="N70" s="21"/>
       <c r="O70" t="s">
         <v>340</v>
       </c>
-      <c r="R70" s="21" t="s">
+      <c r="R70" s="22" t="s">
         <v>36</v>
       </c>
       <c r="S70" t="s">
         <v>373</v>
       </c>
-      <c r="V70" s="20"/>
+      <c r="V70" s="21"/>
       <c r="W70" t="s">
         <v>404</v>
       </c>
@@ -4503,27 +4505,29 @@
       <c r="A71" s="1">
         <v>28</v>
       </c>
-      <c r="B71" s="27"/>
+      <c r="B71" s="28"/>
       <c r="C71" t="s">
         <v>237</v>
       </c>
-      <c r="F71" s="20"/>
+      <c r="F71" s="21" t="s">
+        <v>30</v>
+      </c>
       <c r="G71" t="s">
-        <v>272</v>
-      </c>
-      <c r="J71" s="20"/>
+        <v>271</v>
+      </c>
+      <c r="J71" s="21"/>
       <c r="K71" t="s">
         <v>307</v>
       </c>
-      <c r="N71" s="20"/>
+      <c r="N71" s="21"/>
       <c r="O71" t="s">
         <v>341</v>
       </c>
-      <c r="R71" s="21"/>
+      <c r="R71" s="22"/>
       <c r="S71" t="s">
         <v>374</v>
       </c>
-      <c r="V71" s="20"/>
+      <c r="V71" s="21"/>
       <c r="W71" t="s">
         <v>405</v>
       </c>
@@ -4532,27 +4536,27 @@
       <c r="A72" s="1">
         <v>29</v>
       </c>
-      <c r="B72" s="27"/>
+      <c r="B72" s="28"/>
       <c r="C72" t="s">
         <v>238</v>
       </c>
-      <c r="F72" s="20"/>
+      <c r="F72" s="21"/>
       <c r="G72" t="s">
-        <v>273</v>
-      </c>
-      <c r="J72" s="20"/>
+        <v>272</v>
+      </c>
+      <c r="J72" s="21"/>
       <c r="K72" t="s">
         <v>308</v>
       </c>
-      <c r="N72" s="20"/>
+      <c r="N72" s="21"/>
       <c r="O72" t="s">
         <v>343</v>
       </c>
-      <c r="R72" s="21"/>
+      <c r="R72" s="22"/>
       <c r="S72" t="s">
         <v>375</v>
       </c>
-      <c r="V72" s="20"/>
+      <c r="V72" s="21"/>
       <c r="W72" t="s">
         <v>406</v>
       </c>
@@ -4561,31 +4565,31 @@
       <c r="A73" s="1">
         <v>30</v>
       </c>
-      <c r="B73" s="20" t="s">
+      <c r="B73" s="21" t="s">
         <v>30</v>
       </c>
       <c r="C73" t="s">
         <v>34</v>
       </c>
-      <c r="F73" s="20"/>
+      <c r="F73" s="21"/>
       <c r="G73" t="s">
-        <v>274</v>
-      </c>
-      <c r="J73" s="20"/>
+        <v>273</v>
+      </c>
+      <c r="J73" s="21"/>
       <c r="K73" t="s">
         <v>309</v>
       </c>
-      <c r="N73" s="21" t="s">
+      <c r="N73" s="22" t="s">
         <v>36</v>
       </c>
       <c r="O73" t="s">
         <v>344</v>
       </c>
-      <c r="R73" s="21"/>
+      <c r="R73" s="22"/>
       <c r="S73" t="s">
         <v>376</v>
       </c>
-      <c r="V73" s="21" t="s">
+      <c r="V73" s="22" t="s">
         <v>36</v>
       </c>
       <c r="W73" t="s">
@@ -4593,126 +4597,134 @@
       </c>
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B74" s="20"/>
+      <c r="B74" s="21"/>
       <c r="C74" t="s">
         <v>239</v>
       </c>
-      <c r="F74" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="J74" s="21" t="s">
+      <c r="F74" s="21"/>
+      <c r="G74" t="s">
+        <v>274</v>
+      </c>
+      <c r="J74" s="22" t="s">
         <v>36</v>
       </c>
       <c r="K74" t="s">
         <v>310</v>
       </c>
-      <c r="N74" s="21"/>
+      <c r="N74" s="22"/>
       <c r="O74" t="s">
         <v>345</v>
       </c>
-      <c r="R74" s="21"/>
+      <c r="R74" s="22"/>
       <c r="S74" t="s">
         <v>377</v>
       </c>
-      <c r="V74" s="21"/>
+      <c r="V74" s="22"/>
       <c r="W74" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B75" s="20"/>
+      <c r="B75" s="21"/>
       <c r="C75" t="s">
         <v>240</v>
       </c>
-      <c r="F75" s="21"/>
+      <c r="F75" s="22" t="s">
+        <v>36</v>
+      </c>
       <c r="G75" t="s">
         <v>276</v>
       </c>
-      <c r="J75" s="21"/>
+      <c r="J75" s="22"/>
       <c r="K75" t="s">
         <v>311</v>
       </c>
-      <c r="N75" s="21"/>
+      <c r="N75" s="22"/>
       <c r="O75" t="s">
         <v>346</v>
       </c>
-      <c r="V75" s="21"/>
+      <c r="V75" s="22"/>
       <c r="W75" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B76" s="20"/>
+      <c r="B76" s="21"/>
       <c r="C76" t="s">
         <v>241</v>
       </c>
-      <c r="F76" s="21"/>
+      <c r="F76" s="22"/>
       <c r="G76" t="s">
         <v>277</v>
       </c>
-      <c r="J76" s="21"/>
+      <c r="J76" s="22"/>
       <c r="K76" t="s">
         <v>312</v>
       </c>
-      <c r="N76" s="21"/>
+      <c r="N76" s="22"/>
       <c r="O76" t="s">
         <v>347</v>
       </c>
-      <c r="V76" s="21"/>
+      <c r="V76" s="22"/>
       <c r="W76" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B77" s="21" t="s">
+      <c r="B77" s="22" t="s">
         <v>36</v>
       </c>
       <c r="C77" t="s">
         <v>109</v>
       </c>
-      <c r="F77" s="21"/>
+      <c r="F77" s="22"/>
       <c r="G77" t="s">
         <v>278</v>
       </c>
-      <c r="J77" s="21"/>
+      <c r="J77" s="22"/>
       <c r="K77" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B78" s="21"/>
+      <c r="B78" s="22"/>
       <c r="C78" t="s">
         <v>242</v>
       </c>
-      <c r="F78" s="21"/>
+      <c r="F78" s="22"/>
       <c r="G78" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B79" s="21"/>
+      <c r="B79" s="22"/>
       <c r="C79" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B80" s="21"/>
+      <c r="B80" s="22"/>
       <c r="C80" t="s">
         <v>244</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="F27:F31"/>
+    <mergeCell ref="V25:V27"/>
+    <mergeCell ref="V28:V31"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="R4:R9"/>
+    <mergeCell ref="R10:R19"/>
+    <mergeCell ref="J16:J19"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="F10:F15"/>
+    <mergeCell ref="J20:J22"/>
+    <mergeCell ref="V2:V5"/>
     <mergeCell ref="F6:F9"/>
     <mergeCell ref="V6:V13"/>
     <mergeCell ref="J10:J15"/>
     <mergeCell ref="J4:J9"/>
     <mergeCell ref="F2:F5"/>
-    <mergeCell ref="J16:J19"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="F10:F15"/>
-    <mergeCell ref="J20:J22"/>
     <mergeCell ref="B44:B46"/>
     <mergeCell ref="B62:B66"/>
     <mergeCell ref="F16:F18"/>
@@ -4722,11 +4734,12 @@
     <mergeCell ref="F19:F22"/>
     <mergeCell ref="F23:F26"/>
     <mergeCell ref="B47:B50"/>
-    <mergeCell ref="F47:F54"/>
     <mergeCell ref="F44:F46"/>
-    <mergeCell ref="F55:F61"/>
+    <mergeCell ref="F56:F62"/>
     <mergeCell ref="B51:B61"/>
-    <mergeCell ref="F62:F65"/>
+    <mergeCell ref="F63:F66"/>
+    <mergeCell ref="F47:F55"/>
+    <mergeCell ref="F27:F31"/>
     <mergeCell ref="J70:J73"/>
     <mergeCell ref="J74:J77"/>
     <mergeCell ref="N44:N46"/>
@@ -4739,15 +4752,12 @@
     <mergeCell ref="J60:J62"/>
     <mergeCell ref="J50:J59"/>
     <mergeCell ref="J63:J69"/>
-    <mergeCell ref="F70:F73"/>
-    <mergeCell ref="F66:F69"/>
-    <mergeCell ref="F74:F78"/>
+    <mergeCell ref="F71:F74"/>
+    <mergeCell ref="F67:F70"/>
     <mergeCell ref="B67:B72"/>
     <mergeCell ref="B73:B76"/>
     <mergeCell ref="B77:B80"/>
-    <mergeCell ref="V2:V5"/>
-    <mergeCell ref="V25:V27"/>
-    <mergeCell ref="V28:V31"/>
+    <mergeCell ref="F75:F78"/>
     <mergeCell ref="R44:R47"/>
     <mergeCell ref="J27:J30"/>
     <mergeCell ref="N24:N29"/>
@@ -4756,9 +4766,6 @@
     <mergeCell ref="J44:J46"/>
     <mergeCell ref="J47:J49"/>
     <mergeCell ref="J23:J26"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="R4:R9"/>
-    <mergeCell ref="R10:R19"/>
     <mergeCell ref="R20:R21"/>
     <mergeCell ref="R22:R25"/>
     <mergeCell ref="N2:N3"/>
@@ -4797,7 +4804,7 @@
   <dimension ref="A1:Z50"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="B6" sqref="B6:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4818,36 +4825,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="E1" s="22" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="E1" s="23" t="s">
         <v>412</v>
       </c>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
       <c r="J1" t="s">
         <v>411</v>
       </c>
-      <c r="O1" s="22" t="s">
+      <c r="O1" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="T1" s="22" t="s">
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="T1" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="X1" s="22" t="s">
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="X1" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -4886,7 +4893,7 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>413</v>
+        <v>596</v>
       </c>
       <c r="B3" t="s">
         <v>487</v>
@@ -4933,7 +4940,7 @@
         <v>496</v>
       </c>
       <c r="J4" t="s">
-        <v>596</v>
+        <v>413</v>
       </c>
       <c r="K4" t="s">
         <v>492</v>
@@ -4991,7 +4998,7 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E6" t="s">
         <v>606</v>
@@ -5014,7 +5021,7 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="E7" t="s">
         <v>622</v>
@@ -5027,9 +5034,6 @@
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="B8" t="s">
-        <v>490</v>
-      </c>
       <c r="E8" t="s">
         <v>419</v>
       </c>
@@ -5055,41 +5059,46 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="K11" t="s">
-        <v>510</v>
+        <v>491</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.35">
       <c r="K12" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="K13" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="23" t="s">
         <v>212</v>
       </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
       <c r="E17" t="s">
         <v>420</v>
       </c>
-      <c r="I17" s="22" t="s">
+      <c r="I17" s="23" t="s">
         <v>421</v>
       </c>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="N17" s="22" t="s">
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="N17" s="23" t="s">
         <v>314</v>
       </c>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="22"/>
-      <c r="S17" s="22" t="s">
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="S17" s="23" t="s">
         <v>315</v>
       </c>
-      <c r="T17" s="22"/>
-      <c r="U17" s="22"/>
-      <c r="V17" s="22"/>
+      <c r="T17" s="23"/>
+      <c r="U17" s="23"/>
+      <c r="V17" s="23"/>
       <c r="X17" t="s">
         <v>316</v>
       </c>
@@ -5613,10 +5622,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K115"/>
+  <dimension ref="A1:K122"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D107" sqref="D107"/>
+    <sheetView topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="A118" sqref="A118:B122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6274,6 +6283,41 @@
         <v>663</v>
       </c>
     </row>
+    <row r="117" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A118" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A119" s="10"/>
+      <c r="B119" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A120" s="10" t="s">
+        <v>664</v>
+      </c>
+      <c r="B120" s="11" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A121" s="10"/>
+      <c r="B121" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A122" s="7"/>
+      <c r="B122" s="8" t="s">
+        <v>666</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/OffSeason.xlsx
+++ b/OffSeason.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Rosters" sheetId="1" r:id="rId1"/>
     <sheet name="Picks" sheetId="2" r:id="rId2"/>
     <sheet name="Managers" sheetId="3" r:id="rId3"/>
-    <sheet name="Off-Season Trades Stars Feb 3rd" sheetId="4" r:id="rId4"/>
+    <sheet name="Off-Season Trades" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="667">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="672">
   <si>
     <t>Chubber for Chubb - John Olson</t>
   </si>
@@ -2028,6 +2028,21 @@
   </si>
   <si>
     <t>2021 3rd (John O)</t>
+  </si>
+  <si>
+    <t>AJ Green</t>
+  </si>
+  <si>
+    <t>2021 4th (Vanja)</t>
+  </si>
+  <si>
+    <t>2021 1st(Alan)</t>
+  </si>
+  <si>
+    <t>Miles boykin</t>
+  </si>
+  <si>
+    <t>2021 3rd(MikeR)</t>
   </si>
 </sst>
 </file>
@@ -2226,7 +2241,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2259,9 +2274,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2572,8 +2584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2588,11 +2600,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
       <c r="F1" t="s">
         <v>42</v>
       </c>
@@ -2613,37 +2625,37 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="23" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="23" t="s">
         <v>1</v>
       </c>
       <c r="G2" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="J2" s="23" t="s">
         <v>1</v>
       </c>
       <c r="K2" t="s">
         <v>77</v>
       </c>
-      <c r="N2" s="24" t="s">
+      <c r="N2" s="23" t="s">
         <v>1</v>
       </c>
       <c r="O2" t="s">
         <v>112</v>
       </c>
-      <c r="R2" s="24" t="s">
+      <c r="R2" s="23" t="s">
         <v>1</v>
       </c>
       <c r="S2" t="s">
         <v>144</v>
       </c>
-      <c r="V2" s="24" t="s">
+      <c r="V2" s="23" t="s">
         <v>1</v>
       </c>
       <c r="W2" t="s">
@@ -2654,27 +2666,27 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="24"/>
+      <c r="B3" s="23"/>
       <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="24"/>
+      <c r="F3" s="23"/>
       <c r="G3" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="24"/>
+      <c r="J3" s="23"/>
       <c r="K3" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="24"/>
+      <c r="N3" s="23"/>
       <c r="O3" t="s">
         <v>104</v>
       </c>
-      <c r="R3" s="24"/>
+      <c r="R3" s="23"/>
       <c r="S3" t="s">
         <v>145</v>
       </c>
-      <c r="V3" s="24"/>
+      <c r="V3" s="23"/>
       <c r="W3" t="s">
         <v>179</v>
       </c>
@@ -2683,35 +2695,35 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="24" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="24"/>
+      <c r="F4" s="23"/>
       <c r="G4" t="s">
         <v>46</v>
       </c>
-      <c r="J4" s="25" t="s">
+      <c r="J4" s="24" t="s">
         <v>5</v>
       </c>
       <c r="K4" t="s">
         <v>248</v>
       </c>
-      <c r="N4" s="25" t="s">
+      <c r="N4" s="24" t="s">
         <v>5</v>
       </c>
       <c r="O4" t="s">
         <v>113</v>
       </c>
-      <c r="R4" s="25" t="s">
+      <c r="R4" s="24" t="s">
         <v>5</v>
       </c>
       <c r="S4" t="s">
         <v>146</v>
       </c>
-      <c r="V4" s="24"/>
+      <c r="V4" s="23"/>
       <c r="W4" t="s">
         <v>180</v>
       </c>
@@ -2720,27 +2732,27 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="25"/>
+      <c r="B5" s="24"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="24"/>
+      <c r="F5" s="23"/>
       <c r="G5" t="s">
         <v>47</v>
       </c>
-      <c r="J5" s="25"/>
+      <c r="J5" s="24"/>
       <c r="K5" t="s">
         <v>81</v>
       </c>
-      <c r="N5" s="25"/>
+      <c r="N5" s="24"/>
       <c r="O5" t="s">
         <v>114</v>
       </c>
-      <c r="R5" s="25"/>
+      <c r="R5" s="24"/>
       <c r="S5" t="s">
         <v>147</v>
       </c>
-      <c r="V5" s="24"/>
+      <c r="V5" s="23"/>
       <c r="W5" t="s">
         <v>181</v>
       </c>
@@ -2749,29 +2761,29 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="25"/>
+      <c r="B6" s="24"/>
       <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="24" t="s">
         <v>5</v>
       </c>
       <c r="G6" t="s">
         <v>215</v>
       </c>
-      <c r="J6" s="25"/>
+      <c r="J6" s="24"/>
       <c r="K6" t="s">
         <v>82</v>
       </c>
-      <c r="N6" s="25"/>
+      <c r="N6" s="24"/>
       <c r="O6" t="s">
         <v>115</v>
       </c>
-      <c r="R6" s="25"/>
+      <c r="R6" s="24"/>
       <c r="S6" t="s">
         <v>148</v>
       </c>
-      <c r="V6" s="25" t="s">
+      <c r="V6" s="24" t="s">
         <v>5</v>
       </c>
       <c r="W6" t="s">
@@ -2782,27 +2794,27 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="25"/>
+      <c r="B7" s="24"/>
       <c r="C7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="25"/>
+      <c r="F7" s="24"/>
       <c r="G7" t="s">
         <v>52</v>
       </c>
-      <c r="J7" s="25"/>
+      <c r="J7" s="24"/>
       <c r="K7" t="s">
         <v>84</v>
       </c>
-      <c r="N7" s="25"/>
+      <c r="N7" s="24"/>
       <c r="O7" t="s">
         <v>116</v>
       </c>
-      <c r="R7" s="25"/>
+      <c r="R7" s="24"/>
       <c r="S7" t="s">
         <v>149</v>
       </c>
-      <c r="V7" s="25"/>
+      <c r="V7" s="24"/>
       <c r="W7" t="s">
         <v>250</v>
       </c>
@@ -2811,27 +2823,27 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="25"/>
+      <c r="B8" s="24"/>
       <c r="C8" t="s">
         <v>80</v>
       </c>
-      <c r="F8" s="25"/>
+      <c r="F8" s="24"/>
       <c r="G8" t="s">
         <v>50</v>
       </c>
-      <c r="J8" s="25"/>
+      <c r="J8" s="24"/>
       <c r="K8" t="s">
         <v>48</v>
       </c>
-      <c r="N8" s="25"/>
+      <c r="N8" s="24"/>
       <c r="O8" t="s">
         <v>117</v>
       </c>
-      <c r="R8" s="25"/>
+      <c r="R8" s="24"/>
       <c r="S8" t="s">
         <v>150</v>
       </c>
-      <c r="V8" s="25"/>
+      <c r="V8" s="24"/>
       <c r="W8" t="s">
         <v>184</v>
       </c>
@@ -2840,27 +2852,27 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="25"/>
+      <c r="B9" s="24"/>
       <c r="C9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="25"/>
+      <c r="F9" s="24"/>
       <c r="G9" t="s">
         <v>49</v>
       </c>
-      <c r="J9" s="25"/>
+      <c r="J9" s="24"/>
       <c r="K9" t="s">
         <v>85</v>
       </c>
-      <c r="N9" s="25"/>
+      <c r="N9" s="24"/>
       <c r="O9" t="s">
         <v>118</v>
       </c>
-      <c r="R9" s="25"/>
+      <c r="R9" s="24"/>
       <c r="S9" t="s">
         <v>151</v>
       </c>
-      <c r="V9" s="25"/>
+      <c r="V9" s="24"/>
       <c r="W9" t="s">
         <v>252</v>
       </c>
@@ -2869,35 +2881,35 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="25" t="s">
         <v>12</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="25" t="s">
         <v>12</v>
       </c>
       <c r="G10" t="s">
         <v>54</v>
       </c>
-      <c r="J10" s="26" t="s">
+      <c r="J10" s="25" t="s">
         <v>12</v>
       </c>
       <c r="K10" t="s">
         <v>188</v>
       </c>
-      <c r="N10" s="25"/>
+      <c r="N10" s="24"/>
       <c r="O10" t="s">
         <v>119</v>
       </c>
-      <c r="R10" s="26" t="s">
+      <c r="R10" s="25" t="s">
         <v>12</v>
       </c>
       <c r="S10" t="s">
         <v>152</v>
       </c>
-      <c r="V10" s="25"/>
+      <c r="V10" s="24"/>
       <c r="W10" t="s">
         <v>186</v>
       </c>
@@ -2906,29 +2918,29 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="26"/>
+      <c r="B11" s="25"/>
       <c r="C11" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="26"/>
+      <c r="F11" s="25"/>
       <c r="G11" t="s">
         <v>56</v>
       </c>
-      <c r="J11" s="26"/>
+      <c r="J11" s="25"/>
       <c r="K11" t="s">
-        <v>88</v>
-      </c>
-      <c r="N11" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="N11" s="25" t="s">
         <v>12</v>
       </c>
       <c r="O11" t="s">
         <v>120</v>
       </c>
-      <c r="R11" s="26"/>
+      <c r="R11" s="25"/>
       <c r="S11" t="s">
         <v>153</v>
       </c>
-      <c r="V11" s="25"/>
+      <c r="V11" s="24"/>
       <c r="W11" t="s">
         <v>187</v>
       </c>
@@ -2937,27 +2949,27 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="26"/>
+      <c r="B12" s="25"/>
       <c r="C12" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="26"/>
+      <c r="F12" s="25"/>
       <c r="G12" t="s">
         <v>58</v>
       </c>
-      <c r="J12" s="26"/>
+      <c r="J12" s="25"/>
       <c r="K12" t="s">
-        <v>16</v>
-      </c>
-      <c r="N12" s="26"/>
+        <v>88</v>
+      </c>
+      <c r="N12" s="25"/>
       <c r="O12" t="s">
         <v>121</v>
       </c>
-      <c r="R12" s="26"/>
+      <c r="R12" s="25"/>
       <c r="S12" t="s">
         <v>154</v>
       </c>
-      <c r="V12" s="25"/>
+      <c r="V12" s="24"/>
       <c r="W12" t="s">
         <v>53</v>
       </c>
@@ -2966,27 +2978,27 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="26"/>
+      <c r="B13" s="25"/>
       <c r="C13" t="s">
         <v>86</v>
       </c>
-      <c r="F13" s="26"/>
+      <c r="F13" s="25"/>
       <c r="G13" t="s">
         <v>59</v>
       </c>
-      <c r="J13" s="26"/>
+      <c r="J13" s="25"/>
       <c r="K13" t="s">
-        <v>17</v>
-      </c>
-      <c r="N13" s="26"/>
+        <v>16</v>
+      </c>
+      <c r="N13" s="25"/>
       <c r="O13" t="s">
         <v>122</v>
       </c>
-      <c r="R13" s="26"/>
+      <c r="R13" s="25"/>
       <c r="S13" t="s">
         <v>155</v>
       </c>
-      <c r="V13" s="25"/>
+      <c r="V13" s="24"/>
       <c r="W13" t="s">
         <v>10</v>
       </c>
@@ -2995,27 +3007,27 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="26"/>
+      <c r="B14" s="25"/>
       <c r="C14" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="26"/>
+      <c r="F14" s="25"/>
       <c r="G14" t="s">
         <v>226</v>
       </c>
-      <c r="J14" s="26"/>
+      <c r="J14" s="25"/>
       <c r="K14" t="s">
-        <v>22</v>
-      </c>
-      <c r="N14" s="26"/>
+        <v>23</v>
+      </c>
+      <c r="N14" s="25"/>
       <c r="O14" t="s">
         <v>123</v>
       </c>
-      <c r="R14" s="26"/>
+      <c r="R14" s="25"/>
       <c r="S14" t="s">
         <v>156</v>
       </c>
-      <c r="V14" s="20" t="s">
+      <c r="V14" s="25" t="s">
         <v>12</v>
       </c>
       <c r="W14" t="s">
@@ -3026,27 +3038,27 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="26"/>
+      <c r="B15" s="25"/>
       <c r="C15" t="s">
         <v>87</v>
       </c>
-      <c r="F15" s="26"/>
+      <c r="F15" s="25"/>
       <c r="G15" t="s">
         <v>225</v>
       </c>
-      <c r="J15" s="26"/>
+      <c r="J15" s="25"/>
       <c r="K15" t="s">
-        <v>23</v>
-      </c>
-      <c r="N15" s="26"/>
+        <v>259</v>
+      </c>
+      <c r="N15" s="25"/>
       <c r="O15" t="s">
         <v>124</v>
       </c>
-      <c r="R15" s="26"/>
+      <c r="R15" s="25"/>
       <c r="S15" t="s">
         <v>157</v>
       </c>
-      <c r="V15" s="20"/>
+      <c r="V15" s="25"/>
       <c r="W15" t="s">
         <v>189</v>
       </c>
@@ -3055,33 +3067,33 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="26" t="s">
         <v>18</v>
       </c>
       <c r="C16" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="27" t="s">
+      <c r="F16" s="26" t="s">
         <v>18</v>
       </c>
       <c r="G16" t="s">
         <v>60</v>
       </c>
-      <c r="J16" s="27" t="s">
+      <c r="J16" s="26" t="s">
         <v>18</v>
       </c>
       <c r="K16" t="s">
         <v>95</v>
       </c>
-      <c r="N16" s="26"/>
+      <c r="N16" s="25"/>
       <c r="O16" t="s">
         <v>125</v>
       </c>
-      <c r="R16" s="26"/>
+      <c r="R16" s="25"/>
       <c r="S16" t="s">
         <v>158</v>
       </c>
-      <c r="V16" s="20"/>
+      <c r="V16" s="25"/>
       <c r="W16" t="s">
         <v>190</v>
       </c>
@@ -3090,29 +3102,29 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="27"/>
+      <c r="B17" s="26"/>
       <c r="C17" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="27"/>
+      <c r="F17" s="26"/>
       <c r="G17" t="s">
         <v>62</v>
       </c>
-      <c r="J17" s="27"/>
+      <c r="J17" s="26"/>
       <c r="K17" t="s">
         <v>21</v>
       </c>
-      <c r="N17" s="27" t="s">
+      <c r="N17" s="26" t="s">
         <v>18</v>
       </c>
       <c r="O17" t="s">
         <v>126</v>
       </c>
-      <c r="R17" s="26"/>
+      <c r="R17" s="25"/>
       <c r="S17" t="s">
         <v>159</v>
       </c>
-      <c r="V17" s="20"/>
+      <c r="V17" s="25"/>
       <c r="W17" t="s">
         <v>191</v>
       </c>
@@ -3121,27 +3133,24 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="27"/>
+      <c r="B18" s="26"/>
       <c r="C18" t="s">
         <v>96</v>
       </c>
-      <c r="F18" s="27"/>
+      <c r="F18" s="26"/>
       <c r="G18" t="s">
         <v>63</v>
       </c>
-      <c r="J18" s="27"/>
-      <c r="K18" t="s">
-        <v>97</v>
-      </c>
-      <c r="N18" s="27"/>
+      <c r="J18" s="26"/>
+      <c r="N18" s="26"/>
       <c r="O18" t="s">
         <v>127</v>
       </c>
-      <c r="R18" s="26"/>
+      <c r="R18" s="25"/>
       <c r="S18" t="s">
         <v>160</v>
       </c>
-      <c r="V18" s="20"/>
+      <c r="V18" s="25"/>
       <c r="W18" t="s">
         <v>91</v>
       </c>
@@ -3150,33 +3159,33 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="27" t="s">
         <v>24</v>
       </c>
       <c r="C19" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="28" t="s">
+      <c r="F19" s="27" t="s">
         <v>24</v>
       </c>
       <c r="G19" t="s">
         <v>64</v>
       </c>
-      <c r="J19" s="27"/>
+      <c r="J19" s="26"/>
       <c r="K19" t="s">
         <v>98</v>
       </c>
-      <c r="N19" s="28" t="s">
+      <c r="N19" s="27" t="s">
         <v>24</v>
       </c>
       <c r="O19" t="s">
         <v>128</v>
       </c>
-      <c r="R19" s="26"/>
+      <c r="R19" s="25"/>
       <c r="S19" t="s">
         <v>161</v>
       </c>
-      <c r="V19" s="20"/>
+      <c r="V19" s="25"/>
       <c r="W19" t="s">
         <v>261</v>
       </c>
@@ -3185,31 +3194,31 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="28"/>
+      <c r="B20" s="27"/>
       <c r="C20" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="28"/>
+      <c r="F20" s="27"/>
       <c r="G20" t="s">
         <v>65</v>
       </c>
-      <c r="J20" s="28" t="s">
+      <c r="J20" s="27" t="s">
         <v>24</v>
       </c>
       <c r="K20" t="s">
         <v>99</v>
       </c>
-      <c r="N20" s="28"/>
+      <c r="N20" s="27"/>
       <c r="O20" t="s">
         <v>129</v>
       </c>
-      <c r="R20" s="27" t="s">
+      <c r="R20" s="26" t="s">
         <v>18</v>
       </c>
       <c r="S20" t="s">
         <v>162</v>
       </c>
-      <c r="V20" s="20"/>
+      <c r="V20" s="25"/>
       <c r="W20" t="s">
         <v>94</v>
       </c>
@@ -3218,27 +3227,27 @@
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="28"/>
+      <c r="B21" s="27"/>
       <c r="C21" t="s">
         <v>27</v>
       </c>
-      <c r="F21" s="28"/>
+      <c r="F21" s="27"/>
       <c r="G21" t="s">
         <v>66</v>
       </c>
-      <c r="J21" s="28"/>
+      <c r="J21" s="27"/>
       <c r="K21" t="s">
         <v>28</v>
       </c>
-      <c r="N21" s="28"/>
+      <c r="N21" s="27"/>
       <c r="O21" t="s">
         <v>130</v>
       </c>
-      <c r="R21" s="27"/>
+      <c r="R21" s="26"/>
       <c r="S21" t="s">
         <v>163</v>
       </c>
-      <c r="V21" s="20"/>
+      <c r="V21" s="25"/>
       <c r="W21" t="s">
         <v>192</v>
       </c>
@@ -3247,29 +3256,29 @@
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="28"/>
+      <c r="B22" s="27"/>
       <c r="C22" t="s">
         <v>100</v>
       </c>
-      <c r="F22" s="28"/>
+      <c r="F22" s="27"/>
       <c r="G22" t="s">
         <v>67</v>
       </c>
-      <c r="J22" s="28"/>
+      <c r="J22" s="27"/>
       <c r="K22" t="s">
         <v>29</v>
       </c>
-      <c r="N22" s="28"/>
+      <c r="N22" s="27"/>
       <c r="O22" t="s">
         <v>131</v>
       </c>
-      <c r="R22" s="28" t="s">
+      <c r="R22" s="27" t="s">
         <v>24</v>
       </c>
       <c r="S22" t="s">
         <v>164</v>
       </c>
-      <c r="V22" s="20"/>
+      <c r="V22" s="25"/>
       <c r="W22" t="s">
         <v>193</v>
       </c>
@@ -3278,33 +3287,33 @@
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="20" t="s">
         <v>30</v>
       </c>
       <c r="C23" t="s">
         <v>31</v>
       </c>
-      <c r="F23" s="21" t="s">
+      <c r="F23" s="20" t="s">
         <v>30</v>
       </c>
       <c r="G23" t="s">
         <v>69</v>
       </c>
-      <c r="J23" s="21" t="s">
+      <c r="J23" s="20" t="s">
         <v>30</v>
       </c>
       <c r="K23" t="s">
         <v>103</v>
       </c>
-      <c r="N23" s="28"/>
+      <c r="N23" s="27"/>
       <c r="O23" t="s">
         <v>132</v>
       </c>
-      <c r="R23" s="28"/>
+      <c r="R23" s="27"/>
       <c r="S23" t="s">
         <v>165</v>
       </c>
-      <c r="V23" s="20"/>
+      <c r="V23" s="25"/>
       <c r="W23" t="s">
         <v>195</v>
       </c>
@@ -3313,29 +3322,29 @@
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="21"/>
+      <c r="B24" s="20"/>
       <c r="C24" t="s">
         <v>32</v>
       </c>
-      <c r="F24" s="21"/>
+      <c r="F24" s="20"/>
       <c r="G24" t="s">
         <v>70</v>
       </c>
-      <c r="J24" s="21"/>
+      <c r="J24" s="20"/>
       <c r="K24" t="s">
         <v>104</v>
       </c>
-      <c r="N24" s="21" t="s">
+      <c r="N24" s="20" t="s">
         <v>30</v>
       </c>
       <c r="O24" t="s">
         <v>133</v>
       </c>
-      <c r="R24" s="28"/>
+      <c r="R24" s="27"/>
       <c r="S24" t="s">
         <v>166</v>
       </c>
-      <c r="V24" s="20"/>
+      <c r="V24" s="25"/>
       <c r="W24" t="s">
         <v>196</v>
       </c>
@@ -3344,27 +3353,27 @@
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="21"/>
+      <c r="B25" s="20"/>
       <c r="C25" t="s">
         <v>33</v>
       </c>
-      <c r="F25" s="21"/>
+      <c r="F25" s="20"/>
       <c r="G25" t="s">
         <v>71</v>
       </c>
-      <c r="J25" s="21"/>
+      <c r="J25" s="20"/>
       <c r="K25" t="s">
         <v>105</v>
       </c>
-      <c r="N25" s="21"/>
+      <c r="N25" s="20"/>
       <c r="O25" t="s">
         <v>134</v>
       </c>
-      <c r="R25" s="28"/>
+      <c r="R25" s="27"/>
       <c r="S25" t="s">
         <v>167</v>
       </c>
-      <c r="V25" s="27" t="s">
+      <c r="V25" s="26" t="s">
         <v>18</v>
       </c>
       <c r="W25" t="s">
@@ -3375,31 +3384,31 @@
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="21" t="s">
         <v>36</v>
       </c>
       <c r="C26" t="s">
         <v>37</v>
       </c>
-      <c r="F26" s="21"/>
+      <c r="F26" s="20"/>
       <c r="G26" t="s">
         <v>68</v>
       </c>
-      <c r="J26" s="21"/>
+      <c r="J26" s="20"/>
       <c r="K26" t="s">
         <v>106</v>
       </c>
-      <c r="N26" s="21"/>
+      <c r="N26" s="20"/>
       <c r="O26" t="s">
         <v>135</v>
       </c>
-      <c r="R26" s="21" t="s">
+      <c r="R26" s="20" t="s">
         <v>30</v>
       </c>
       <c r="S26" t="s">
         <v>168</v>
       </c>
-      <c r="V26" s="27"/>
+      <c r="V26" s="26"/>
       <c r="W26" t="s">
         <v>198</v>
       </c>
@@ -3408,31 +3417,31 @@
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="22"/>
+      <c r="B27" s="21"/>
       <c r="C27" t="s">
         <v>38</v>
       </c>
-      <c r="F27" s="22" t="s">
+      <c r="F27" s="21" t="s">
         <v>36</v>
       </c>
       <c r="G27" t="s">
         <v>72</v>
       </c>
-      <c r="J27" s="22" t="s">
+      <c r="J27" s="21" t="s">
         <v>36</v>
       </c>
       <c r="K27" t="s">
         <v>40</v>
       </c>
-      <c r="N27" s="21"/>
+      <c r="N27" s="20"/>
       <c r="O27" t="s">
         <v>136</v>
       </c>
-      <c r="R27" s="21"/>
+      <c r="R27" s="20"/>
       <c r="S27" t="s">
         <v>169</v>
       </c>
-      <c r="V27" s="27"/>
+      <c r="V27" s="26"/>
       <c r="W27" t="s">
         <v>199</v>
       </c>
@@ -3441,27 +3450,27 @@
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="22"/>
+      <c r="B28" s="21"/>
       <c r="C28" t="s">
         <v>39</v>
       </c>
-      <c r="F28" s="22"/>
+      <c r="F28" s="21"/>
       <c r="G28" t="s">
         <v>73</v>
       </c>
-      <c r="J28" s="22"/>
+      <c r="J28" s="21"/>
       <c r="K28" t="s">
         <v>108</v>
       </c>
-      <c r="N28" s="21"/>
+      <c r="N28" s="20"/>
       <c r="O28" t="s">
         <v>137</v>
       </c>
-      <c r="R28" s="21"/>
+      <c r="R28" s="20"/>
       <c r="S28" t="s">
         <v>170</v>
       </c>
-      <c r="V28" s="28" t="s">
+      <c r="V28" s="27" t="s">
         <v>24</v>
       </c>
       <c r="W28" t="s">
@@ -3472,27 +3481,27 @@
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="22"/>
+      <c r="B29" s="21"/>
       <c r="C29" t="s">
         <v>107</v>
       </c>
-      <c r="F29" s="22"/>
+      <c r="F29" s="21"/>
       <c r="G29" t="s">
         <v>74</v>
       </c>
-      <c r="J29" s="22"/>
+      <c r="J29" s="21"/>
       <c r="K29" t="s">
         <v>110</v>
       </c>
-      <c r="N29" s="21"/>
+      <c r="N29" s="20"/>
       <c r="O29" t="s">
         <v>138</v>
       </c>
-      <c r="R29" s="21"/>
+      <c r="R29" s="20"/>
       <c r="S29" t="s">
         <v>171</v>
       </c>
-      <c r="V29" s="28"/>
+      <c r="V29" s="27"/>
       <c r="W29" t="s">
         <v>201</v>
       </c>
@@ -3501,25 +3510,25 @@
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="F30" s="22"/>
+      <c r="F30" s="21"/>
       <c r="G30" t="s">
         <v>75</v>
       </c>
-      <c r="J30" s="22"/>
+      <c r="J30" s="21"/>
       <c r="K30" t="s">
         <v>41</v>
       </c>
-      <c r="N30" s="22" t="s">
+      <c r="N30" s="21" t="s">
         <v>36</v>
       </c>
       <c r="O30" t="s">
         <v>139</v>
       </c>
-      <c r="R30" s="21"/>
+      <c r="R30" s="20"/>
       <c r="S30" t="s">
         <v>172</v>
       </c>
-      <c r="V30" s="28"/>
+      <c r="V30" s="27"/>
       <c r="W30" t="s">
         <v>202</v>
       </c>
@@ -3528,35 +3537,35 @@
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="F31" s="22"/>
+      <c r="F31" s="21"/>
       <c r="G31" t="s">
         <v>275</v>
       </c>
-      <c r="N31" s="22"/>
+      <c r="N31" s="21"/>
       <c r="O31" t="s">
         <v>140</v>
       </c>
-      <c r="R31" s="22" t="s">
+      <c r="R31" s="21" t="s">
         <v>36</v>
       </c>
       <c r="S31" t="s">
         <v>173</v>
       </c>
-      <c r="V31" s="28"/>
+      <c r="V31" s="27"/>
       <c r="W31" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="N32" s="22"/>
+      <c r="N32" s="21"/>
       <c r="O32" t="s">
         <v>141</v>
       </c>
-      <c r="R32" s="22"/>
+      <c r="R32" s="21"/>
       <c r="S32" t="s">
         <v>174</v>
       </c>
-      <c r="V32" s="21" t="s">
+      <c r="V32" s="20" t="s">
         <v>30</v>
       </c>
       <c r="W32" t="s">
@@ -3564,43 +3573,43 @@
       </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="N33" s="22"/>
+      <c r="N33" s="21"/>
       <c r="O33" t="s">
         <v>142</v>
       </c>
-      <c r="R33" s="22"/>
+      <c r="R33" s="21"/>
       <c r="S33" t="s">
         <v>175</v>
       </c>
-      <c r="V33" s="21"/>
+      <c r="V33" s="20"/>
       <c r="W33" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="R34" s="22"/>
+      <c r="R34" s="21"/>
       <c r="S34" t="s">
         <v>176</v>
       </c>
-      <c r="V34" s="21"/>
+      <c r="V34" s="20"/>
       <c r="W34" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="V35" s="21"/>
+      <c r="V35" s="20"/>
       <c r="W35" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="V36" s="21"/>
+      <c r="V36" s="20"/>
       <c r="W36" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="V37" s="22" t="s">
+      <c r="V37" s="21" t="s">
         <v>36</v>
       </c>
       <c r="W37" t="s">
@@ -3608,19 +3617,19 @@
       </c>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="V38" s="22"/>
+      <c r="V38" s="21"/>
       <c r="W38" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="V39" s="22"/>
+      <c r="V39" s="21"/>
       <c r="W39" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="V40" s="22"/>
+      <c r="V40" s="21"/>
       <c r="W40" t="s">
         <v>211</v>
       </c>
@@ -3641,48 +3650,48 @@
       <c r="R43" t="s">
         <v>315</v>
       </c>
-      <c r="V43" s="23" t="s">
+      <c r="V43" s="22" t="s">
         <v>316</v>
       </c>
-      <c r="W43" s="23"/>
-      <c r="X43" s="23"/>
-      <c r="Y43" s="23"/>
+      <c r="W43" s="22"/>
+      <c r="X43" s="22"/>
+      <c r="Y43" s="22"/>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>1</v>
       </c>
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="23" t="s">
         <v>1</v>
       </c>
       <c r="C44" t="s">
         <v>44</v>
       </c>
-      <c r="F44" s="24" t="s">
+      <c r="F44" s="23" t="s">
         <v>1</v>
       </c>
       <c r="G44" t="s">
         <v>246</v>
       </c>
-      <c r="J44" s="24" t="s">
+      <c r="J44" s="23" t="s">
         <v>1</v>
       </c>
       <c r="K44" t="s">
         <v>280</v>
       </c>
-      <c r="N44" s="24" t="s">
+      <c r="N44" s="23" t="s">
         <v>1</v>
       </c>
       <c r="O44" t="s">
         <v>317</v>
       </c>
-      <c r="R44" s="24" t="s">
+      <c r="R44" s="23" t="s">
         <v>1</v>
       </c>
       <c r="S44" t="s">
         <v>348</v>
       </c>
-      <c r="V44" s="24" t="s">
+      <c r="V44" s="23" t="s">
         <v>1</v>
       </c>
       <c r="W44" t="s">
@@ -3693,27 +3702,27 @@
       <c r="A45" s="1">
         <v>2</v>
       </c>
-      <c r="B45" s="24"/>
+      <c r="B45" s="23"/>
       <c r="C45" t="s">
         <v>214</v>
       </c>
-      <c r="F45" s="24"/>
+      <c r="F45" s="23"/>
       <c r="G45" t="s">
         <v>247</v>
       </c>
-      <c r="J45" s="24"/>
+      <c r="J45" s="23"/>
       <c r="K45" t="s">
         <v>281</v>
       </c>
-      <c r="N45" s="24"/>
+      <c r="N45" s="23"/>
       <c r="O45" t="s">
         <v>318</v>
       </c>
-      <c r="R45" s="24"/>
+      <c r="R45" s="23"/>
       <c r="S45" t="s">
         <v>349</v>
       </c>
-      <c r="V45" s="24"/>
+      <c r="V45" s="23"/>
       <c r="W45" t="s">
         <v>379</v>
       </c>
@@ -3722,27 +3731,27 @@
       <c r="A46" s="1">
         <v>3</v>
       </c>
-      <c r="B46" s="24"/>
+      <c r="B46" s="23"/>
       <c r="C46" t="s">
         <v>213</v>
       </c>
-      <c r="F46" s="24"/>
+      <c r="F46" s="23"/>
       <c r="G46" t="s">
         <v>79</v>
       </c>
-      <c r="J46" s="24"/>
+      <c r="J46" s="23"/>
       <c r="K46" t="s">
         <v>282</v>
       </c>
-      <c r="N46" s="24"/>
+      <c r="N46" s="23"/>
       <c r="O46" t="s">
         <v>319</v>
       </c>
-      <c r="R46" s="24"/>
+      <c r="R46" s="23"/>
       <c r="S46" t="s">
         <v>78</v>
       </c>
-      <c r="V46" s="24"/>
+      <c r="V46" s="23"/>
       <c r="W46" t="s">
         <v>380</v>
       </c>
@@ -3751,35 +3760,35 @@
       <c r="A47" s="1">
         <v>4</v>
       </c>
-      <c r="B47" s="25" t="s">
+      <c r="B47" s="24" t="s">
         <v>5</v>
       </c>
       <c r="C47" t="s">
         <v>216</v>
       </c>
-      <c r="F47" s="25" t="s">
+      <c r="F47" s="24" t="s">
         <v>5</v>
       </c>
       <c r="G47" t="s">
         <v>183</v>
       </c>
-      <c r="J47" s="25" t="s">
+      <c r="J47" s="24" t="s">
         <v>5</v>
       </c>
       <c r="K47" t="s">
         <v>283</v>
       </c>
-      <c r="N47" s="25" t="s">
+      <c r="N47" s="24" t="s">
         <v>5</v>
       </c>
       <c r="O47" t="s">
         <v>320</v>
       </c>
-      <c r="R47" s="24"/>
+      <c r="R47" s="23"/>
       <c r="S47" t="s">
         <v>350</v>
       </c>
-      <c r="V47" s="25" t="s">
+      <c r="V47" s="24" t="s">
         <v>5</v>
       </c>
       <c r="W47" t="s">
@@ -3790,29 +3799,29 @@
       <c r="A48" s="1">
         <v>5</v>
       </c>
-      <c r="B48" s="25"/>
+      <c r="B48" s="24"/>
       <c r="C48" t="s">
         <v>217</v>
       </c>
-      <c r="F48" s="25"/>
+      <c r="F48" s="24"/>
       <c r="G48" t="s">
         <v>321</v>
       </c>
-      <c r="J48" s="25"/>
+      <c r="J48" s="24"/>
       <c r="K48" t="s">
         <v>284</v>
       </c>
-      <c r="N48" s="25"/>
+      <c r="N48" s="24"/>
       <c r="O48" t="s">
         <v>251</v>
       </c>
-      <c r="R48" s="25" t="s">
+      <c r="R48" s="24" t="s">
         <v>5</v>
       </c>
       <c r="S48" t="s">
         <v>351</v>
       </c>
-      <c r="V48" s="25"/>
+      <c r="V48" s="24"/>
       <c r="W48" t="s">
         <v>382</v>
       </c>
@@ -3821,27 +3830,27 @@
       <c r="A49" s="1">
         <v>6</v>
       </c>
-      <c r="B49" s="25"/>
+      <c r="B49" s="24"/>
       <c r="C49" t="s">
         <v>221</v>
       </c>
-      <c r="F49" s="25"/>
+      <c r="F49" s="24"/>
       <c r="G49" t="s">
         <v>185</v>
       </c>
-      <c r="J49" s="25"/>
+      <c r="J49" s="24"/>
       <c r="K49" t="s">
         <v>285</v>
       </c>
-      <c r="N49" s="25"/>
+      <c r="N49" s="24"/>
       <c r="O49" t="s">
         <v>322</v>
       </c>
-      <c r="R49" s="25"/>
+      <c r="R49" s="24"/>
       <c r="S49" t="s">
         <v>352</v>
       </c>
-      <c r="V49" s="25"/>
+      <c r="V49" s="24"/>
       <c r="W49" t="s">
         <v>383</v>
       </c>
@@ -3850,31 +3859,31 @@
       <c r="A50" s="1">
         <v>7</v>
       </c>
-      <c r="B50" s="25"/>
+      <c r="B50" s="24"/>
       <c r="C50" t="s">
         <v>222</v>
       </c>
-      <c r="F50" s="25"/>
+      <c r="F50" s="24"/>
       <c r="G50" t="s">
         <v>249</v>
       </c>
-      <c r="J50" s="26" t="s">
+      <c r="J50" s="25" t="s">
         <v>12</v>
       </c>
       <c r="K50" t="s">
         <v>286</v>
       </c>
-      <c r="N50" s="26" t="s">
+      <c r="N50" s="25" t="s">
         <v>12</v>
       </c>
       <c r="O50" t="s">
         <v>323</v>
       </c>
-      <c r="R50" s="25"/>
+      <c r="R50" s="24"/>
       <c r="S50" t="s">
         <v>353</v>
       </c>
-      <c r="V50" s="25"/>
+      <c r="V50" s="24"/>
       <c r="W50" t="s">
         <v>384</v>
       </c>
@@ -3883,29 +3892,29 @@
       <c r="A51" s="1">
         <v>8</v>
       </c>
-      <c r="B51" s="26" t="s">
+      <c r="B51" s="25" t="s">
         <v>12</v>
       </c>
       <c r="C51" t="s">
         <v>57</v>
       </c>
-      <c r="F51" s="25"/>
+      <c r="F51" s="24"/>
       <c r="G51" t="s">
         <v>253</v>
       </c>
-      <c r="J51" s="26"/>
+      <c r="J51" s="25"/>
       <c r="K51" t="s">
         <v>287</v>
       </c>
-      <c r="N51" s="26"/>
+      <c r="N51" s="25"/>
       <c r="O51" t="s">
         <v>324</v>
       </c>
-      <c r="R51" s="25"/>
+      <c r="R51" s="24"/>
       <c r="S51" t="s">
         <v>354</v>
       </c>
-      <c r="V51" s="25"/>
+      <c r="V51" s="24"/>
       <c r="W51" t="s">
         <v>385</v>
       </c>
@@ -3914,27 +3923,27 @@
       <c r="A52" s="1">
         <v>9</v>
       </c>
-      <c r="B52" s="26"/>
+      <c r="B52" s="25"/>
       <c r="C52" t="s">
         <v>218</v>
       </c>
-      <c r="F52" s="25"/>
+      <c r="F52" s="24"/>
       <c r="G52" t="s">
         <v>254</v>
       </c>
-      <c r="J52" s="26"/>
+      <c r="J52" s="25"/>
       <c r="K52" t="s">
         <v>288</v>
       </c>
-      <c r="N52" s="26"/>
+      <c r="N52" s="25"/>
       <c r="O52" t="s">
         <v>325</v>
       </c>
-      <c r="R52" s="25"/>
+      <c r="R52" s="24"/>
       <c r="S52" t="s">
         <v>355</v>
       </c>
-      <c r="V52" s="26" t="s">
+      <c r="V52" s="25" t="s">
         <v>12</v>
       </c>
       <c r="W52" t="s">
@@ -3945,29 +3954,29 @@
       <c r="A53" s="1">
         <v>10</v>
       </c>
-      <c r="B53" s="26"/>
+      <c r="B53" s="25"/>
       <c r="C53" t="s">
         <v>219</v>
       </c>
-      <c r="F53" s="25"/>
+      <c r="F53" s="24"/>
       <c r="G53" t="s">
         <v>255</v>
       </c>
-      <c r="J53" s="26"/>
+      <c r="J53" s="25"/>
       <c r="K53" t="s">
         <v>289</v>
       </c>
-      <c r="N53" s="26"/>
+      <c r="N53" s="25"/>
       <c r="O53" t="s">
         <v>326</v>
       </c>
-      <c r="R53" s="26" t="s">
+      <c r="R53" s="25" t="s">
         <v>12</v>
       </c>
       <c r="S53" t="s">
         <v>356</v>
       </c>
-      <c r="V53" s="26"/>
+      <c r="V53" s="25"/>
       <c r="W53" t="s">
         <v>387</v>
       </c>
@@ -3976,27 +3985,27 @@
       <c r="A54" s="1">
         <v>11</v>
       </c>
-      <c r="B54" s="26"/>
+      <c r="B54" s="25"/>
       <c r="C54" t="s">
         <v>93</v>
       </c>
-      <c r="F54" s="25"/>
+      <c r="F54" s="24"/>
       <c r="G54" t="s">
         <v>83</v>
       </c>
-      <c r="J54" s="26"/>
+      <c r="J54" s="25"/>
       <c r="K54" t="s">
         <v>290</v>
       </c>
-      <c r="N54" s="26"/>
+      <c r="N54" s="25"/>
       <c r="O54" t="s">
         <v>327</v>
       </c>
-      <c r="R54" s="26"/>
+      <c r="R54" s="25"/>
       <c r="S54" t="s">
         <v>357</v>
       </c>
-      <c r="V54" s="26"/>
+      <c r="V54" s="25"/>
       <c r="W54" t="s">
         <v>388</v>
       </c>
@@ -4005,27 +4014,27 @@
       <c r="A55" s="1">
         <v>12</v>
       </c>
-      <c r="B55" s="26"/>
+      <c r="B55" s="25"/>
       <c r="C55" t="s">
         <v>220</v>
       </c>
-      <c r="F55" s="25"/>
+      <c r="F55" s="24"/>
       <c r="G55" t="s">
         <v>51</v>
       </c>
-      <c r="J55" s="26"/>
+      <c r="J55" s="25"/>
       <c r="K55" t="s">
         <v>291</v>
       </c>
-      <c r="N55" s="26"/>
+      <c r="N55" s="25"/>
       <c r="O55" t="s">
         <v>328</v>
       </c>
-      <c r="R55" s="26"/>
+      <c r="R55" s="25"/>
       <c r="S55" t="s">
         <v>358</v>
       </c>
-      <c r="V55" s="26"/>
+      <c r="V55" s="25"/>
       <c r="W55" t="s">
         <v>389</v>
       </c>
@@ -4034,29 +4043,29 @@
       <c r="A56" s="1">
         <v>13</v>
       </c>
-      <c r="B56" s="26"/>
+      <c r="B56" s="25"/>
       <c r="C56" t="s">
         <v>223</v>
       </c>
-      <c r="F56" s="26" t="s">
+      <c r="F56" s="25" t="s">
         <v>12</v>
       </c>
       <c r="G56" t="s">
         <v>194</v>
       </c>
-      <c r="J56" s="26"/>
+      <c r="J56" s="25"/>
       <c r="K56" t="s">
         <v>292</v>
       </c>
-      <c r="N56" s="26"/>
+      <c r="N56" s="25"/>
       <c r="O56" t="s">
         <v>329</v>
       </c>
-      <c r="R56" s="26"/>
+      <c r="R56" s="25"/>
       <c r="S56" t="s">
         <v>359</v>
       </c>
-      <c r="V56" s="26"/>
+      <c r="V56" s="25"/>
       <c r="W56" t="s">
         <v>390</v>
       </c>
@@ -4065,27 +4074,27 @@
       <c r="A57" s="1">
         <v>14</v>
       </c>
-      <c r="B57" s="26"/>
+      <c r="B57" s="25"/>
       <c r="C57" t="s">
         <v>224</v>
       </c>
-      <c r="F57" s="26"/>
+      <c r="F57" s="25"/>
       <c r="G57" t="s">
         <v>258</v>
       </c>
-      <c r="J57" s="26"/>
+      <c r="J57" s="25"/>
       <c r="K57" t="s">
         <v>293</v>
       </c>
-      <c r="N57" s="26"/>
+      <c r="N57" s="25"/>
       <c r="O57" t="s">
         <v>257</v>
       </c>
-      <c r="R57" s="26"/>
+      <c r="R57" s="25"/>
       <c r="S57" t="s">
         <v>360</v>
       </c>
-      <c r="V57" s="26"/>
+      <c r="V57" s="25"/>
       <c r="W57" t="s">
         <v>391</v>
       </c>
@@ -4094,27 +4103,27 @@
       <c r="A58" s="1">
         <v>15</v>
       </c>
-      <c r="B58" s="26"/>
+      <c r="B58" s="25"/>
       <c r="C58" t="s">
         <v>227</v>
       </c>
-      <c r="F58" s="26"/>
+      <c r="F58" s="25"/>
       <c r="G58" t="s">
-        <v>90</v>
-      </c>
-      <c r="J58" s="26"/>
+        <v>22</v>
+      </c>
+      <c r="J58" s="25"/>
       <c r="K58" t="s">
         <v>294</v>
       </c>
-      <c r="N58" s="26"/>
+      <c r="N58" s="25"/>
       <c r="O58" t="s">
         <v>263</v>
       </c>
-      <c r="R58" s="26"/>
+      <c r="R58" s="25"/>
       <c r="S58" t="s">
         <v>361</v>
       </c>
-      <c r="V58" s="26"/>
+      <c r="V58" s="25"/>
       <c r="W58" t="s">
         <v>392</v>
       </c>
@@ -4123,27 +4132,27 @@
       <c r="A59" s="1">
         <v>16</v>
       </c>
-      <c r="B59" s="26"/>
+      <c r="B59" s="25"/>
       <c r="C59" t="s">
         <v>228</v>
       </c>
-      <c r="F59" s="26"/>
+      <c r="F59" s="25"/>
       <c r="G59" t="s">
-        <v>260</v>
-      </c>
-      <c r="J59" s="26"/>
+        <v>90</v>
+      </c>
+      <c r="J59" s="25"/>
       <c r="K59" t="s">
         <v>295</v>
       </c>
-      <c r="N59" s="26"/>
+      <c r="N59" s="25"/>
       <c r="O59" t="s">
         <v>330</v>
       </c>
-      <c r="R59" s="26"/>
+      <c r="R59" s="25"/>
       <c r="S59" t="s">
         <v>362</v>
       </c>
-      <c r="V59" s="26"/>
+      <c r="V59" s="25"/>
       <c r="W59" t="s">
         <v>393</v>
       </c>
@@ -4152,21 +4161,21 @@
       <c r="A60" s="1">
         <v>17</v>
       </c>
-      <c r="B60" s="26"/>
+      <c r="B60" s="25"/>
       <c r="C60" t="s">
         <v>229</v>
       </c>
-      <c r="F60" s="26"/>
+      <c r="F60" s="25"/>
       <c r="G60" t="s">
-        <v>262</v>
-      </c>
-      <c r="J60" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="J60" s="26" t="s">
         <v>18</v>
       </c>
       <c r="K60" t="s">
         <v>296</v>
       </c>
-      <c r="N60" s="27" t="s">
+      <c r="N60" s="26" t="s">
         <v>18</v>
       </c>
       <c r="O60" t="s">
@@ -4178,7 +4187,7 @@
       <c r="S60" t="s">
         <v>363</v>
       </c>
-      <c r="V60" s="27" t="s">
+      <c r="V60" s="26" t="s">
         <v>18</v>
       </c>
       <c r="W60" t="s">
@@ -4189,29 +4198,29 @@
       <c r="A61" s="1">
         <v>18</v>
       </c>
-      <c r="B61" s="26"/>
+      <c r="B61" s="25"/>
       <c r="C61" t="s">
         <v>55</v>
       </c>
-      <c r="F61" s="26"/>
+      <c r="F61" s="25"/>
       <c r="G61" t="s">
-        <v>259</v>
-      </c>
-      <c r="J61" s="27"/>
+        <v>262</v>
+      </c>
+      <c r="J61" s="26"/>
       <c r="K61" t="s">
         <v>297</v>
       </c>
-      <c r="N61" s="27"/>
+      <c r="N61" s="26"/>
       <c r="O61" t="s">
         <v>332</v>
       </c>
-      <c r="R61" s="28" t="s">
+      <c r="R61" s="27" t="s">
         <v>24</v>
       </c>
       <c r="S61" t="s">
         <v>364</v>
       </c>
-      <c r="V61" s="27"/>
+      <c r="V61" s="26"/>
       <c r="W61" t="s">
         <v>395</v>
       </c>
@@ -4220,29 +4229,29 @@
       <c r="A62" s="1">
         <v>19</v>
       </c>
-      <c r="B62" s="27" t="s">
+      <c r="B62" s="26" t="s">
         <v>18</v>
       </c>
       <c r="C62" t="s">
         <v>233</v>
       </c>
-      <c r="F62" s="26"/>
+      <c r="F62" s="25"/>
       <c r="G62" t="s">
         <v>92</v>
       </c>
-      <c r="J62" s="27"/>
+      <c r="J62" s="26"/>
       <c r="K62" t="s">
         <v>298</v>
       </c>
-      <c r="N62" s="27"/>
+      <c r="N62" s="26"/>
       <c r="O62" t="s">
         <v>333</v>
       </c>
-      <c r="R62" s="28"/>
+      <c r="R62" s="27"/>
       <c r="S62" t="s">
         <v>365</v>
       </c>
-      <c r="V62" s="27"/>
+      <c r="V62" s="26"/>
       <c r="W62" t="s">
         <v>396</v>
       </c>
@@ -4251,31 +4260,31 @@
       <c r="A63" s="1">
         <v>20</v>
       </c>
-      <c r="B63" s="27"/>
+      <c r="B63" s="26"/>
       <c r="C63" t="s">
         <v>230</v>
       </c>
-      <c r="F63" s="27" t="s">
+      <c r="F63" s="26" t="s">
         <v>18</v>
       </c>
       <c r="G63" t="s">
         <v>264</v>
       </c>
-      <c r="J63" s="28" t="s">
+      <c r="J63" s="27" t="s">
         <v>24</v>
       </c>
       <c r="K63" t="s">
         <v>299</v>
       </c>
-      <c r="N63" s="27"/>
+      <c r="N63" s="26"/>
       <c r="O63" t="s">
         <v>334</v>
       </c>
-      <c r="R63" s="28"/>
+      <c r="R63" s="27"/>
       <c r="S63" t="s">
         <v>366</v>
       </c>
-      <c r="V63" s="27"/>
+      <c r="V63" s="26"/>
       <c r="W63" t="s">
         <v>397</v>
       </c>
@@ -4284,27 +4293,27 @@
       <c r="A64" s="1">
         <v>21</v>
       </c>
-      <c r="B64" s="27"/>
+      <c r="B64" s="26"/>
       <c r="C64" t="s">
         <v>231</v>
       </c>
-      <c r="F64" s="27"/>
+      <c r="F64" s="26"/>
       <c r="G64" t="s">
         <v>265</v>
       </c>
-      <c r="J64" s="28"/>
+      <c r="J64" s="27"/>
       <c r="K64" t="s">
         <v>300</v>
       </c>
-      <c r="N64" s="27"/>
+      <c r="N64" s="26"/>
       <c r="O64" t="s">
         <v>335</v>
       </c>
-      <c r="R64" s="28"/>
+      <c r="R64" s="27"/>
       <c r="S64" t="s">
         <v>367</v>
       </c>
-      <c r="V64" s="28" t="s">
+      <c r="V64" s="27" t="s">
         <v>24</v>
       </c>
       <c r="W64" t="s">
@@ -4315,29 +4324,29 @@
       <c r="A65" s="1">
         <v>22</v>
       </c>
-      <c r="B65" s="27"/>
+      <c r="B65" s="26"/>
       <c r="C65" t="s">
         <v>232</v>
       </c>
-      <c r="F65" s="27"/>
+      <c r="F65" s="26"/>
       <c r="G65" t="s">
-        <v>266</v>
-      </c>
-      <c r="J65" s="28"/>
+        <v>97</v>
+      </c>
+      <c r="J65" s="27"/>
       <c r="K65" t="s">
         <v>301</v>
       </c>
-      <c r="N65" s="28" t="s">
+      <c r="N65" s="27" t="s">
         <v>24</v>
       </c>
       <c r="O65" t="s">
         <v>336</v>
       </c>
-      <c r="R65" s="28"/>
+      <c r="R65" s="27"/>
       <c r="S65" t="s">
         <v>368</v>
       </c>
-      <c r="V65" s="28"/>
+      <c r="V65" s="27"/>
       <c r="W65" t="s">
         <v>399</v>
       </c>
@@ -4346,29 +4355,29 @@
       <c r="A66" s="1">
         <v>23</v>
       </c>
-      <c r="B66" s="27"/>
+      <c r="B66" s="26"/>
       <c r="C66" t="s">
         <v>61</v>
       </c>
-      <c r="F66" s="27"/>
+      <c r="F66" s="26"/>
       <c r="G66" t="s">
-        <v>267</v>
-      </c>
-      <c r="J66" s="28"/>
+        <v>266</v>
+      </c>
+      <c r="J66" s="27"/>
       <c r="K66" t="s">
         <v>302</v>
       </c>
-      <c r="N66" s="28"/>
+      <c r="N66" s="27"/>
       <c r="O66" t="s">
         <v>337</v>
       </c>
-      <c r="R66" s="21" t="s">
+      <c r="R66" s="20" t="s">
         <v>30</v>
       </c>
       <c r="S66" t="s">
         <v>369</v>
       </c>
-      <c r="V66" s="28"/>
+      <c r="V66" s="27"/>
       <c r="W66" t="s">
         <v>400</v>
       </c>
@@ -4377,31 +4386,29 @@
       <c r="A67" s="1">
         <v>24</v>
       </c>
-      <c r="B67" s="28" t="s">
+      <c r="B67" s="27" t="s">
         <v>24</v>
       </c>
       <c r="C67" t="s">
         <v>102</v>
       </c>
-      <c r="F67" s="28" t="s">
-        <v>24</v>
-      </c>
+      <c r="F67" s="26"/>
       <c r="G67" t="s">
-        <v>268</v>
-      </c>
-      <c r="J67" s="28"/>
+        <v>267</v>
+      </c>
+      <c r="J67" s="27"/>
       <c r="K67" t="s">
         <v>303</v>
       </c>
-      <c r="N67" s="28"/>
+      <c r="N67" s="27"/>
       <c r="O67" t="s">
         <v>338</v>
       </c>
-      <c r="R67" s="21"/>
+      <c r="R67" s="20"/>
       <c r="S67" t="s">
         <v>370</v>
       </c>
-      <c r="V67" s="28"/>
+      <c r="V67" s="27"/>
       <c r="W67" t="s">
         <v>401</v>
       </c>
@@ -4410,27 +4417,29 @@
       <c r="A68" s="1">
         <v>25</v>
       </c>
-      <c r="B68" s="28"/>
+      <c r="B68" s="27"/>
       <c r="C68" t="s">
         <v>234</v>
       </c>
-      <c r="F68" s="28"/>
+      <c r="F68" s="27" t="s">
+        <v>24</v>
+      </c>
       <c r="G68" t="s">
-        <v>269</v>
-      </c>
-      <c r="J68" s="28"/>
+        <v>268</v>
+      </c>
+      <c r="J68" s="27"/>
       <c r="K68" t="s">
         <v>304</v>
       </c>
-      <c r="N68" s="28"/>
+      <c r="N68" s="27"/>
       <c r="O68" t="s">
         <v>342</v>
       </c>
-      <c r="R68" s="21"/>
+      <c r="R68" s="20"/>
       <c r="S68" t="s">
         <v>371</v>
       </c>
-      <c r="V68" s="21" t="s">
+      <c r="V68" s="20" t="s">
         <v>30</v>
       </c>
       <c r="W68" t="s">
@@ -4441,29 +4450,29 @@
       <c r="A69" s="1">
         <v>26</v>
       </c>
-      <c r="B69" s="28"/>
+      <c r="B69" s="27"/>
       <c r="C69" t="s">
         <v>235</v>
       </c>
-      <c r="F69" s="28"/>
+      <c r="F69" s="27"/>
       <c r="G69" t="s">
-        <v>270</v>
-      </c>
-      <c r="J69" s="28"/>
+        <v>269</v>
+      </c>
+      <c r="J69" s="27"/>
       <c r="K69" t="s">
         <v>305</v>
       </c>
-      <c r="N69" s="21" t="s">
+      <c r="N69" s="20" t="s">
         <v>30</v>
       </c>
       <c r="O69" t="s">
         <v>339</v>
       </c>
-      <c r="R69" s="21"/>
+      <c r="R69" s="20"/>
       <c r="S69" t="s">
         <v>372</v>
       </c>
-      <c r="V69" s="21"/>
+      <c r="V69" s="20"/>
       <c r="W69" t="s">
         <v>403</v>
       </c>
@@ -4472,31 +4481,31 @@
       <c r="A70" s="1">
         <v>27</v>
       </c>
-      <c r="B70" s="28"/>
+      <c r="B70" s="27"/>
       <c r="C70" t="s">
         <v>236</v>
       </c>
-      <c r="F70" s="28"/>
+      <c r="F70" s="27"/>
       <c r="G70" t="s">
-        <v>101</v>
-      </c>
-      <c r="J70" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="J70" s="20" t="s">
         <v>30</v>
       </c>
       <c r="K70" t="s">
         <v>306</v>
       </c>
-      <c r="N70" s="21"/>
+      <c r="N70" s="20"/>
       <c r="O70" t="s">
         <v>340</v>
       </c>
-      <c r="R70" s="22" t="s">
+      <c r="R70" s="21" t="s">
         <v>36</v>
       </c>
       <c r="S70" t="s">
         <v>373</v>
       </c>
-      <c r="V70" s="21"/>
+      <c r="V70" s="20"/>
       <c r="W70" t="s">
         <v>404</v>
       </c>
@@ -4505,29 +4514,27 @@
       <c r="A71" s="1">
         <v>28</v>
       </c>
-      <c r="B71" s="28"/>
+      <c r="B71" s="27"/>
       <c r="C71" t="s">
         <v>237</v>
       </c>
-      <c r="F71" s="21" t="s">
-        <v>30</v>
-      </c>
+      <c r="F71" s="27"/>
       <c r="G71" t="s">
-        <v>271</v>
-      </c>
-      <c r="J71" s="21"/>
+        <v>101</v>
+      </c>
+      <c r="J71" s="20"/>
       <c r="K71" t="s">
         <v>307</v>
       </c>
-      <c r="N71" s="21"/>
+      <c r="N71" s="20"/>
       <c r="O71" t="s">
         <v>341</v>
       </c>
-      <c r="R71" s="22"/>
+      <c r="R71" s="21"/>
       <c r="S71" t="s">
         <v>374</v>
       </c>
-      <c r="V71" s="21"/>
+      <c r="V71" s="20"/>
       <c r="W71" t="s">
         <v>405</v>
       </c>
@@ -4536,27 +4543,29 @@
       <c r="A72" s="1">
         <v>29</v>
       </c>
-      <c r="B72" s="28"/>
+      <c r="B72" s="27"/>
       <c r="C72" t="s">
         <v>238</v>
       </c>
-      <c r="F72" s="21"/>
+      <c r="F72" s="20" t="s">
+        <v>30</v>
+      </c>
       <c r="G72" t="s">
-        <v>272</v>
-      </c>
-      <c r="J72" s="21"/>
+        <v>271</v>
+      </c>
+      <c r="J72" s="20"/>
       <c r="K72" t="s">
         <v>308</v>
       </c>
-      <c r="N72" s="21"/>
+      <c r="N72" s="20"/>
       <c r="O72" t="s">
         <v>343</v>
       </c>
-      <c r="R72" s="22"/>
+      <c r="R72" s="21"/>
       <c r="S72" t="s">
         <v>375</v>
       </c>
-      <c r="V72" s="21"/>
+      <c r="V72" s="20"/>
       <c r="W72" t="s">
         <v>406</v>
       </c>
@@ -4565,31 +4574,31 @@
       <c r="A73" s="1">
         <v>30</v>
       </c>
-      <c r="B73" s="21" t="s">
+      <c r="B73" s="20" t="s">
         <v>30</v>
       </c>
       <c r="C73" t="s">
         <v>34</v>
       </c>
-      <c r="F73" s="21"/>
+      <c r="F73" s="20"/>
       <c r="G73" t="s">
-        <v>273</v>
-      </c>
-      <c r="J73" s="21"/>
+        <v>272</v>
+      </c>
+      <c r="J73" s="20"/>
       <c r="K73" t="s">
         <v>309</v>
       </c>
-      <c r="N73" s="22" t="s">
+      <c r="N73" s="21" t="s">
         <v>36</v>
       </c>
       <c r="O73" t="s">
         <v>344</v>
       </c>
-      <c r="R73" s="22"/>
+      <c r="R73" s="21"/>
       <c r="S73" t="s">
         <v>376</v>
       </c>
-      <c r="V73" s="22" t="s">
+      <c r="V73" s="21" t="s">
         <v>36</v>
       </c>
       <c r="W73" t="s">
@@ -4597,125 +4606,128 @@
       </c>
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B74" s="21"/>
+      <c r="B74" s="20"/>
       <c r="C74" t="s">
         <v>239</v>
       </c>
-      <c r="F74" s="21"/>
+      <c r="F74" s="20"/>
       <c r="G74" t="s">
-        <v>274</v>
-      </c>
-      <c r="J74" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="J74" s="21" t="s">
         <v>36</v>
       </c>
       <c r="K74" t="s">
         <v>310</v>
       </c>
-      <c r="N74" s="22"/>
+      <c r="N74" s="21"/>
       <c r="O74" t="s">
         <v>345</v>
       </c>
-      <c r="R74" s="22"/>
+      <c r="R74" s="21"/>
       <c r="S74" t="s">
         <v>377</v>
       </c>
-      <c r="V74" s="22"/>
+      <c r="V74" s="21"/>
       <c r="W74" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B75" s="21"/>
+      <c r="B75" s="20"/>
       <c r="C75" t="s">
         <v>240</v>
       </c>
-      <c r="F75" s="22" t="s">
-        <v>36</v>
-      </c>
+      <c r="F75" s="20"/>
       <c r="G75" t="s">
-        <v>276</v>
-      </c>
-      <c r="J75" s="22"/>
+        <v>274</v>
+      </c>
+      <c r="J75" s="21"/>
       <c r="K75" t="s">
         <v>311</v>
       </c>
-      <c r="N75" s="22"/>
+      <c r="N75" s="21"/>
       <c r="O75" t="s">
         <v>346</v>
       </c>
-      <c r="V75" s="22"/>
+      <c r="V75" s="21"/>
       <c r="W75" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B76" s="21"/>
+      <c r="B76" s="20"/>
       <c r="C76" t="s">
         <v>241</v>
       </c>
-      <c r="F76" s="22"/>
+      <c r="F76" s="21" t="s">
+        <v>36</v>
+      </c>
       <c r="G76" t="s">
-        <v>277</v>
-      </c>
-      <c r="J76" s="22"/>
+        <v>276</v>
+      </c>
+      <c r="J76" s="21"/>
       <c r="K76" t="s">
         <v>312</v>
       </c>
-      <c r="N76" s="22"/>
+      <c r="N76" s="21"/>
       <c r="O76" t="s">
         <v>347</v>
       </c>
-      <c r="V76" s="22"/>
+      <c r="V76" s="21"/>
       <c r="W76" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B77" s="22" t="s">
+      <c r="B77" s="21" t="s">
         <v>36</v>
       </c>
       <c r="C77" t="s">
         <v>109</v>
       </c>
-      <c r="F77" s="22"/>
+      <c r="F77" s="21"/>
       <c r="G77" t="s">
-        <v>278</v>
-      </c>
-      <c r="J77" s="22"/>
+        <v>277</v>
+      </c>
+      <c r="J77" s="21"/>
       <c r="K77" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B78" s="22"/>
+      <c r="B78" s="21"/>
       <c r="C78" t="s">
         <v>242</v>
       </c>
-      <c r="F78" s="22"/>
+      <c r="F78" s="21"/>
       <c r="G78" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B79" s="22"/>
+      <c r="B79" s="21"/>
       <c r="C79" t="s">
         <v>243</v>
       </c>
+      <c r="F79" s="21"/>
+      <c r="G79" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B80" s="22"/>
+      <c r="B80" s="21"/>
       <c r="C80" t="s">
         <v>244</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="84">
+  <mergeCells count="85">
     <mergeCell ref="V25:V27"/>
     <mergeCell ref="V28:V31"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="R4:R9"/>
     <mergeCell ref="R10:R19"/>
-    <mergeCell ref="J16:J19"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="F10:F15"/>
     <mergeCell ref="J20:J22"/>
@@ -4725,6 +4737,12 @@
     <mergeCell ref="J10:J15"/>
     <mergeCell ref="J4:J9"/>
     <mergeCell ref="F2:F5"/>
+    <mergeCell ref="R20:R21"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="N4:N10"/>
+    <mergeCell ref="N11:N16"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="V14:V24"/>
     <mergeCell ref="B44:B46"/>
     <mergeCell ref="B62:B66"/>
     <mergeCell ref="F16:F18"/>
@@ -4737,9 +4755,9 @@
     <mergeCell ref="F44:F46"/>
     <mergeCell ref="F56:F62"/>
     <mergeCell ref="B51:B61"/>
-    <mergeCell ref="F63:F66"/>
     <mergeCell ref="F47:F55"/>
     <mergeCell ref="F27:F31"/>
+    <mergeCell ref="F63:F67"/>
     <mergeCell ref="J70:J73"/>
     <mergeCell ref="J74:J77"/>
     <mergeCell ref="N44:N46"/>
@@ -4752,12 +4770,12 @@
     <mergeCell ref="J60:J62"/>
     <mergeCell ref="J50:J59"/>
     <mergeCell ref="J63:J69"/>
-    <mergeCell ref="F71:F74"/>
-    <mergeCell ref="F67:F70"/>
+    <mergeCell ref="F72:F75"/>
+    <mergeCell ref="F68:F71"/>
     <mergeCell ref="B67:B72"/>
     <mergeCell ref="B73:B76"/>
     <mergeCell ref="B77:B80"/>
-    <mergeCell ref="F75:F78"/>
+    <mergeCell ref="F76:F79"/>
     <mergeCell ref="R44:R47"/>
     <mergeCell ref="J27:J30"/>
     <mergeCell ref="N24:N29"/>
@@ -4766,13 +4784,9 @@
     <mergeCell ref="J44:J46"/>
     <mergeCell ref="J47:J49"/>
     <mergeCell ref="J23:J26"/>
-    <mergeCell ref="R20:R21"/>
     <mergeCell ref="R22:R25"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="N4:N10"/>
-    <mergeCell ref="N11:N16"/>
-    <mergeCell ref="N17:N18"/>
     <mergeCell ref="N19:N23"/>
+    <mergeCell ref="J16:J19"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B4:B9"/>
     <mergeCell ref="B16:B18"/>
@@ -4803,8 +4817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z50"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4825,36 +4839,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="E1" s="23" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="E1" s="22" t="s">
         <v>412</v>
       </c>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
       <c r="J1" t="s">
         <v>411</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="O1" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="T1" s="23" t="s">
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="T1" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="X1" s="23" t="s">
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="X1" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -4978,7 +4992,7 @@
         <v>417</v>
       </c>
       <c r="K5" t="s">
-        <v>503</v>
+        <v>537</v>
       </c>
       <c r="O5" t="s">
         <v>643</v>
@@ -5004,7 +5018,7 @@
         <v>606</v>
       </c>
       <c r="K6" t="s">
-        <v>528</v>
+        <v>503</v>
       </c>
       <c r="P6" t="s">
         <v>521</v>
@@ -5027,7 +5041,7 @@
         <v>622</v>
       </c>
       <c r="K7" t="s">
-        <v>493</v>
+        <v>528</v>
       </c>
       <c r="T7" t="s">
         <v>616</v>
@@ -5038,7 +5052,7 @@
         <v>419</v>
       </c>
       <c r="K8" t="s">
-        <v>539</v>
+        <v>493</v>
       </c>
       <c r="T8" t="s">
         <v>627</v>
@@ -5046,7 +5060,7 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="K9" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="T9" t="s">
         <v>612</v>
@@ -5054,51 +5068,46 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="K10" t="s">
-        <v>509</v>
+        <v>539</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="K11" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.35">
       <c r="K12" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="K13" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
       <c r="E17" t="s">
         <v>420</v>
       </c>
-      <c r="I17" s="23" t="s">
+      <c r="I17" s="22" t="s">
         <v>421</v>
       </c>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="N17" s="23" t="s">
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="N17" s="22" t="s">
         <v>314</v>
       </c>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="S17" s="23" t="s">
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+      <c r="S17" s="22" t="s">
         <v>315</v>
       </c>
-      <c r="T17" s="23"/>
-      <c r="U17" s="23"/>
-      <c r="V17" s="23"/>
+      <c r="T17" s="22"/>
+      <c r="U17" s="22"/>
+      <c r="V17" s="22"/>
       <c r="X17" t="s">
         <v>316</v>
       </c>
@@ -5114,7 +5123,7 @@
         <v>601</v>
       </c>
       <c r="F18" t="s">
-        <v>537</v>
+        <v>509</v>
       </c>
       <c r="J18" t="s">
         <v>597</v>
@@ -5152,7 +5161,7 @@
         <v>629</v>
       </c>
       <c r="F19" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="J19" t="s">
         <v>630</v>
@@ -5187,7 +5196,7 @@
         <v>598</v>
       </c>
       <c r="F20" t="s">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="J20" t="s">
         <v>603</v>
@@ -5225,7 +5234,7 @@
         <v>429</v>
       </c>
       <c r="F21" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="J21" t="s">
         <v>426</v>
@@ -5258,6 +5267,9 @@
       </c>
       <c r="E22" t="s">
         <v>594</v>
+      </c>
+      <c r="F22" t="s">
+        <v>501</v>
       </c>
       <c r="K22" t="s">
         <v>516</v>
@@ -5622,10 +5634,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K122"/>
+  <dimension ref="A1:K131"/>
   <sheetViews>
-    <sheetView topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="A118" sqref="A118:B122"/>
+    <sheetView topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="C125" sqref="C125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6318,6 +6330,59 @@
         <v>666</v>
       </c>
     </row>
+    <row r="123" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A124" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A125" s="10"/>
+      <c r="B125" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A126" s="10"/>
+      <c r="B126" s="11" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A127" s="10"/>
+      <c r="B127" s="11" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A128" s="10"/>
+      <c r="B128" s="11" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A129" s="10" t="s">
+        <v>588</v>
+      </c>
+      <c r="B129" s="11" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A130" s="10"/>
+      <c r="B130" s="11" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A131" s="7"/>
+      <c r="B131" s="8" t="s">
+        <v>671</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/OffSeason.xlsx
+++ b/OffSeason.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="682">
   <si>
     <t>Chubber for Chubb - John Olson</t>
   </si>
@@ -2043,6 +2043,36 @@
   </si>
   <si>
     <t>2021 3rd(MikeR)</t>
+  </si>
+  <si>
+    <t>2020 4th(MikeW) Lottery</t>
+  </si>
+  <si>
+    <t>2021 5th (Vanja)</t>
+  </si>
+  <si>
+    <t>2021 1st Adam</t>
+  </si>
+  <si>
+    <t>2021 1st John</t>
+  </si>
+  <si>
+    <t>2021 1 John</t>
+  </si>
+  <si>
+    <t>2021 1 Ben</t>
+  </si>
+  <si>
+    <t>2021 2 Alan</t>
+  </si>
+  <si>
+    <t>2021 2 Vanja</t>
+  </si>
+  <si>
+    <t>2021 2 MikeR</t>
+  </si>
+  <si>
+    <t>2021 2 John</t>
   </si>
 </sst>
 </file>
@@ -2584,8 +2614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y80"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2897,7 +2927,7 @@
         <v>12</v>
       </c>
       <c r="K10" t="s">
-        <v>188</v>
+        <v>15</v>
       </c>
       <c r="N10" s="24"/>
       <c r="O10" t="s">
@@ -2928,7 +2958,7 @@
       </c>
       <c r="J11" s="25"/>
       <c r="K11" t="s">
-        <v>17</v>
+        <v>188</v>
       </c>
       <c r="N11" s="25" t="s">
         <v>12</v>
@@ -2951,7 +2981,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="F12" s="25"/>
       <c r="G12" t="s">
@@ -2959,7 +2989,7 @@
       </c>
       <c r="J12" s="25"/>
       <c r="K12" t="s">
-        <v>88</v>
+        <v>17</v>
       </c>
       <c r="N12" s="25"/>
       <c r="O12" t="s">
@@ -2980,7 +3010,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F13" s="25"/>
       <c r="G13" t="s">
@@ -2988,7 +3018,7 @@
       </c>
       <c r="J13" s="25"/>
       <c r="K13" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="N13" s="25"/>
       <c r="O13" t="s">
@@ -3009,7 +3039,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F14" s="25"/>
       <c r="G14" t="s">
@@ -3017,7 +3047,7 @@
       </c>
       <c r="J14" s="25"/>
       <c r="K14" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="N14" s="25"/>
       <c r="O14" t="s">
@@ -3038,9 +3068,11 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="25"/>
+      <c r="B15" s="26" t="s">
+        <v>18</v>
+      </c>
       <c r="C15" t="s">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="F15" s="25"/>
       <c r="G15" t="s">
@@ -3048,7 +3080,7 @@
       </c>
       <c r="J15" s="25"/>
       <c r="K15" t="s">
-        <v>259</v>
+        <v>23</v>
       </c>
       <c r="N15" s="25"/>
       <c r="O15" t="s">
@@ -3067,11 +3099,9 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="26" t="s">
-        <v>18</v>
-      </c>
+      <c r="B16" s="26"/>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F16" s="26" t="s">
         <v>18</v>
@@ -3079,11 +3109,9 @@
       <c r="G16" t="s">
         <v>60</v>
       </c>
-      <c r="J16" s="26" t="s">
-        <v>18</v>
-      </c>
+      <c r="J16" s="25"/>
       <c r="K16" t="s">
-        <v>95</v>
+        <v>259</v>
       </c>
       <c r="N16" s="25"/>
       <c r="O16" t="s">
@@ -3104,15 +3132,17 @@
       </c>
       <c r="B17" s="26"/>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="F17" s="26"/>
       <c r="G17" t="s">
         <v>62</v>
       </c>
-      <c r="J17" s="26"/>
+      <c r="J17" s="26" t="s">
+        <v>18</v>
+      </c>
       <c r="K17" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="N17" s="26" t="s">
         <v>18</v>
@@ -3133,15 +3163,20 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="26"/>
+      <c r="B18" s="27" t="s">
+        <v>24</v>
+      </c>
       <c r="C18" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="F18" s="26"/>
       <c r="G18" t="s">
         <v>63</v>
       </c>
       <c r="J18" s="26"/>
+      <c r="K18" t="s">
+        <v>21</v>
+      </c>
       <c r="N18" s="26"/>
       <c r="O18" t="s">
         <v>127</v>
@@ -3159,11 +3194,9 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="27" t="s">
-        <v>24</v>
-      </c>
+      <c r="B19" s="27"/>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F19" s="27" t="s">
         <v>24</v>
@@ -3196,7 +3229,7 @@
       </c>
       <c r="B20" s="27"/>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F20" s="27"/>
       <c r="G20" t="s">
@@ -3229,7 +3262,7 @@
       </c>
       <c r="B21" s="27"/>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="F21" s="27"/>
       <c r="G21" t="s">
@@ -3256,9 +3289,11 @@
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="27"/>
+      <c r="B22" s="20" t="s">
+        <v>30</v>
+      </c>
       <c r="C22" t="s">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="F22" s="27"/>
       <c r="G22" t="s">
@@ -3287,11 +3322,9 @@
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="20" t="s">
-        <v>30</v>
-      </c>
+      <c r="B23" s="20"/>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F23" s="20" t="s">
         <v>30</v>
@@ -3324,7 +3357,7 @@
       </c>
       <c r="B24" s="20"/>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F24" s="20"/>
       <c r="G24" t="s">
@@ -3353,9 +3386,11 @@
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="20"/>
+      <c r="B25" s="21" t="s">
+        <v>36</v>
+      </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F25" s="20"/>
       <c r="G25" t="s">
@@ -3384,11 +3419,9 @@
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="21" t="s">
-        <v>36</v>
-      </c>
+      <c r="B26" s="21"/>
       <c r="C26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F26" s="20"/>
       <c r="G26" t="s">
@@ -3419,7 +3452,7 @@
       </c>
       <c r="B27" s="21"/>
       <c r="C27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F27" s="21" t="s">
         <v>36</v>
@@ -3452,7 +3485,7 @@
       </c>
       <c r="B28" s="21"/>
       <c r="C28" t="s">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="F28" s="21"/>
       <c r="G28" t="s">
@@ -3480,10 +3513,6 @@
     <row r="29" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>28</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" t="s">
-        <v>107</v>
       </c>
       <c r="F29" s="21"/>
       <c r="G29" t="s">
@@ -4728,36 +4757,24 @@
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="R4:R9"/>
     <mergeCell ref="R10:R19"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="F10:F15"/>
-    <mergeCell ref="J20:J22"/>
     <mergeCell ref="V2:V5"/>
-    <mergeCell ref="F6:F9"/>
     <mergeCell ref="V6:V13"/>
-    <mergeCell ref="J10:J15"/>
-    <mergeCell ref="J4:J9"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="R20:R21"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="N4:N10"/>
     <mergeCell ref="N11:N16"/>
     <mergeCell ref="N17:N18"/>
     <mergeCell ref="V14:V24"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B62:B66"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="F44:F46"/>
-    <mergeCell ref="F56:F62"/>
-    <mergeCell ref="B51:B61"/>
-    <mergeCell ref="F47:F55"/>
-    <mergeCell ref="F27:F31"/>
     <mergeCell ref="F63:F67"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="F10:F15"/>
+    <mergeCell ref="J20:J22"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="J4:J9"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="J10:J16"/>
+    <mergeCell ref="B77:B80"/>
+    <mergeCell ref="F76:F79"/>
     <mergeCell ref="J70:J73"/>
     <mergeCell ref="J74:J77"/>
     <mergeCell ref="N44:N46"/>
@@ -4770,12 +4787,24 @@
     <mergeCell ref="J60:J62"/>
     <mergeCell ref="J50:J59"/>
     <mergeCell ref="J63:J69"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B62:B66"/>
     <mergeCell ref="F72:F75"/>
     <mergeCell ref="F68:F71"/>
     <mergeCell ref="B67:B72"/>
     <mergeCell ref="B73:B76"/>
-    <mergeCell ref="B77:B80"/>
-    <mergeCell ref="F76:F79"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="F56:F62"/>
+    <mergeCell ref="B51:B61"/>
+    <mergeCell ref="F47:F55"/>
+    <mergeCell ref="F27:F31"/>
     <mergeCell ref="R44:R47"/>
     <mergeCell ref="J27:J30"/>
     <mergeCell ref="N24:N29"/>
@@ -4786,12 +4815,12 @@
     <mergeCell ref="J23:J26"/>
     <mergeCell ref="R22:R25"/>
     <mergeCell ref="N19:N23"/>
-    <mergeCell ref="J16:J19"/>
+    <mergeCell ref="R20:R21"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B4:B9"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="B15:B17"/>
     <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B10:B14"/>
     <mergeCell ref="V68:V72"/>
     <mergeCell ref="V73:V76"/>
     <mergeCell ref="R66:R69"/>
@@ -4817,8 +4846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4878,13 +4907,13 @@
         <v>497</v>
       </c>
       <c r="E2" t="s">
-        <v>590</v>
+        <v>555</v>
       </c>
       <c r="F2" t="s">
         <v>508</v>
       </c>
       <c r="J2" t="s">
-        <v>556</v>
+        <v>413</v>
       </c>
       <c r="K2" t="s">
         <v>507</v>
@@ -4907,10 +4936,10 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="B3" t="s">
-        <v>487</v>
+        <v>502</v>
       </c>
       <c r="E3" t="s">
         <v>414</v>
@@ -4919,10 +4948,10 @@
         <v>538</v>
       </c>
       <c r="J3" t="s">
-        <v>555</v>
+        <v>596</v>
       </c>
       <c r="K3" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="O3" t="s">
         <v>641</v>
@@ -4942,10 +4971,7 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>592</v>
-      </c>
-      <c r="B4" t="s">
-        <v>498</v>
+        <v>556</v>
       </c>
       <c r="E4" t="s">
         <v>591</v>
@@ -4954,10 +4980,10 @@
         <v>496</v>
       </c>
       <c r="J4" t="s">
-        <v>413</v>
+        <v>611</v>
       </c>
       <c r="K4" t="s">
-        <v>492</v>
+        <v>537</v>
       </c>
       <c r="O4" t="s">
         <v>642</v>
@@ -4977,22 +5003,19 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>573</v>
-      </c>
-      <c r="B5" t="s">
-        <v>488</v>
+        <v>592</v>
       </c>
       <c r="E5" t="s">
         <v>621</v>
       </c>
+      <c r="F5" t="s">
+        <v>499</v>
+      </c>
       <c r="G5" t="s">
         <v>568</v>
       </c>
-      <c r="J5" t="s">
-        <v>417</v>
-      </c>
       <c r="K5" t="s">
-        <v>537</v>
+        <v>487</v>
       </c>
       <c r="O5" t="s">
         <v>643</v>
@@ -5011,6 +5034,9 @@
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>573</v>
+      </c>
       <c r="B6" t="s">
         <v>489</v>
       </c>
@@ -5019,6 +5045,9 @@
       </c>
       <c r="K6" t="s">
         <v>503</v>
+      </c>
+      <c r="L6" t="s">
+        <v>498</v>
       </c>
       <c r="P6" t="s">
         <v>521</v>
@@ -5043,6 +5072,9 @@
       <c r="K7" t="s">
         <v>528</v>
       </c>
+      <c r="L7" t="s">
+        <v>488</v>
+      </c>
       <c r="T7" t="s">
         <v>616</v>
       </c>
@@ -5059,9 +5091,6 @@
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="K9" t="s">
-        <v>499</v>
-      </c>
       <c r="T9" t="s">
         <v>612</v>
       </c>
@@ -5069,16 +5098,6 @@
     <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="K10" t="s">
         <v>539</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="K11" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="K12" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.35">
@@ -5114,7 +5133,7 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>611</v>
+        <v>417</v>
       </c>
       <c r="B18" t="s">
         <v>504</v>
@@ -5265,6 +5284,9 @@
       <c r="A22" t="s">
         <v>608</v>
       </c>
+      <c r="B22" t="s">
+        <v>494</v>
+      </c>
       <c r="E22" t="s">
         <v>594</v>
       </c>
@@ -5293,6 +5315,9 @@
     <row r="23" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>619</v>
+      </c>
+      <c r="B23" t="s">
+        <v>511</v>
       </c>
       <c r="E23" t="s">
         <v>600</v>
@@ -5472,7 +5497,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5634,10 +5659,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K131"/>
+  <dimension ref="A1:K154"/>
   <sheetViews>
-    <sheetView topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="C125" sqref="C125"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C146" sqref="C146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6383,6 +6408,140 @@
         <v>671</v>
       </c>
     </row>
+    <row r="132" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A133" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A134" s="10"/>
+      <c r="B134" s="11" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A135" s="10"/>
+      <c r="B135" s="11" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A136" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A138" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A139" s="10" t="s">
+        <v>664</v>
+      </c>
+      <c r="B139" s="11" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A140" s="7"/>
+      <c r="B140" s="8" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A142" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A143" s="10"/>
+      <c r="B143" s="11" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A144" s="10"/>
+      <c r="B144" s="11" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A145" s="10"/>
+      <c r="B145" s="11" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A146" s="10" t="s">
+        <v>651</v>
+      </c>
+      <c r="B146" s="11" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A147" s="10"/>
+      <c r="B147" s="11" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A148" s="7"/>
+      <c r="B148" s="8" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A150" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="B150" s="6" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A151" s="10"/>
+      <c r="B151" s="11" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A152" s="10" t="s">
+        <v>664</v>
+      </c>
+      <c r="B152" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A153" s="10"/>
+      <c r="B153" s="11" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A154" s="7"/>
+      <c r="B154" s="8" t="s">
+        <v>681</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/OffSeason.xlsx
+++ b/OffSeason.xlsx
@@ -2304,14 +2304,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2322,14 +2319,17 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2615,7 +2615,7 @@
   <dimension ref="A1:Y80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="C10" sqref="C10:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2630,11 +2630,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
       <c r="F1" t="s">
         <v>42</v>
       </c>
@@ -2655,37 +2655,37 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="22" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="22" t="s">
         <v>1</v>
       </c>
       <c r="G2" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="J2" s="22" t="s">
         <v>1</v>
       </c>
       <c r="K2" t="s">
         <v>77</v>
       </c>
-      <c r="N2" s="23" t="s">
+      <c r="N2" s="22" t="s">
         <v>1</v>
       </c>
       <c r="O2" t="s">
         <v>112</v>
       </c>
-      <c r="R2" s="23" t="s">
+      <c r="R2" s="22" t="s">
         <v>1</v>
       </c>
       <c r="S2" t="s">
         <v>144</v>
       </c>
-      <c r="V2" s="23" t="s">
+      <c r="V2" s="22" t="s">
         <v>1</v>
       </c>
       <c r="W2" t="s">
@@ -2696,27 +2696,27 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="23"/>
+      <c r="B3" s="22"/>
       <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="23"/>
+      <c r="F3" s="22"/>
       <c r="G3" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="23"/>
+      <c r="J3" s="22"/>
       <c r="K3" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="23"/>
+      <c r="N3" s="22"/>
       <c r="O3" t="s">
         <v>104</v>
       </c>
-      <c r="R3" s="23"/>
+      <c r="R3" s="22"/>
       <c r="S3" t="s">
         <v>145</v>
       </c>
-      <c r="V3" s="23"/>
+      <c r="V3" s="22"/>
       <c r="W3" t="s">
         <v>179</v>
       </c>
@@ -2725,35 +2725,35 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="23" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="23"/>
+      <c r="F4" s="22"/>
       <c r="G4" t="s">
         <v>46</v>
       </c>
-      <c r="J4" s="24" t="s">
+      <c r="J4" s="23" t="s">
         <v>5</v>
       </c>
       <c r="K4" t="s">
         <v>248</v>
       </c>
-      <c r="N4" s="24" t="s">
+      <c r="N4" s="23" t="s">
         <v>5</v>
       </c>
       <c r="O4" t="s">
         <v>113</v>
       </c>
-      <c r="R4" s="24" t="s">
+      <c r="R4" s="23" t="s">
         <v>5</v>
       </c>
       <c r="S4" t="s">
         <v>146</v>
       </c>
-      <c r="V4" s="23"/>
+      <c r="V4" s="22"/>
       <c r="W4" t="s">
         <v>180</v>
       </c>
@@ -2762,27 +2762,27 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="24"/>
+      <c r="B5" s="23"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="23"/>
+      <c r="F5" s="22"/>
       <c r="G5" t="s">
         <v>47</v>
       </c>
-      <c r="J5" s="24"/>
+      <c r="J5" s="23"/>
       <c r="K5" t="s">
         <v>81</v>
       </c>
-      <c r="N5" s="24"/>
+      <c r="N5" s="23"/>
       <c r="O5" t="s">
         <v>114</v>
       </c>
-      <c r="R5" s="24"/>
+      <c r="R5" s="23"/>
       <c r="S5" t="s">
         <v>147</v>
       </c>
-      <c r="V5" s="23"/>
+      <c r="V5" s="22"/>
       <c r="W5" t="s">
         <v>181</v>
       </c>
@@ -2791,29 +2791,29 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="24"/>
+      <c r="B6" s="23"/>
       <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="23" t="s">
         <v>5</v>
       </c>
       <c r="G6" t="s">
         <v>215</v>
       </c>
-      <c r="J6" s="24"/>
+      <c r="J6" s="23"/>
       <c r="K6" t="s">
         <v>82</v>
       </c>
-      <c r="N6" s="24"/>
+      <c r="N6" s="23"/>
       <c r="O6" t="s">
         <v>115</v>
       </c>
-      <c r="R6" s="24"/>
+      <c r="R6" s="23"/>
       <c r="S6" t="s">
         <v>148</v>
       </c>
-      <c r="V6" s="24" t="s">
+      <c r="V6" s="23" t="s">
         <v>5</v>
       </c>
       <c r="W6" t="s">
@@ -2824,27 +2824,27 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="24"/>
+      <c r="B7" s="23"/>
       <c r="C7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="24"/>
+      <c r="F7" s="23"/>
       <c r="G7" t="s">
         <v>52</v>
       </c>
-      <c r="J7" s="24"/>
+      <c r="J7" s="23"/>
       <c r="K7" t="s">
         <v>84</v>
       </c>
-      <c r="N7" s="24"/>
+      <c r="N7" s="23"/>
       <c r="O7" t="s">
         <v>116</v>
       </c>
-      <c r="R7" s="24"/>
+      <c r="R7" s="23"/>
       <c r="S7" t="s">
         <v>149</v>
       </c>
-      <c r="V7" s="24"/>
+      <c r="V7" s="23"/>
       <c r="W7" t="s">
         <v>250</v>
       </c>
@@ -2853,27 +2853,27 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="24"/>
+      <c r="B8" s="23"/>
       <c r="C8" t="s">
         <v>80</v>
       </c>
-      <c r="F8" s="24"/>
+      <c r="F8" s="23"/>
       <c r="G8" t="s">
         <v>50</v>
       </c>
-      <c r="J8" s="24"/>
+      <c r="J8" s="23"/>
       <c r="K8" t="s">
         <v>48</v>
       </c>
-      <c r="N8" s="24"/>
+      <c r="N8" s="23"/>
       <c r="O8" t="s">
         <v>117</v>
       </c>
-      <c r="R8" s="24"/>
+      <c r="R8" s="23"/>
       <c r="S8" t="s">
         <v>150</v>
       </c>
-      <c r="V8" s="24"/>
+      <c r="V8" s="23"/>
       <c r="W8" t="s">
         <v>184</v>
       </c>
@@ -2882,27 +2882,27 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="24"/>
+      <c r="B9" s="23"/>
       <c r="C9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="24"/>
+      <c r="F9" s="23"/>
       <c r="G9" t="s">
         <v>49</v>
       </c>
-      <c r="J9" s="24"/>
+      <c r="J9" s="23"/>
       <c r="K9" t="s">
         <v>85</v>
       </c>
-      <c r="N9" s="24"/>
+      <c r="N9" s="23"/>
       <c r="O9" t="s">
         <v>118</v>
       </c>
-      <c r="R9" s="24"/>
+      <c r="R9" s="23"/>
       <c r="S9" t="s">
         <v>151</v>
       </c>
-      <c r="V9" s="24"/>
+      <c r="V9" s="23"/>
       <c r="W9" t="s">
         <v>252</v>
       </c>
@@ -2911,35 +2911,35 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="24" t="s">
         <v>12</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="F10" s="24" t="s">
         <v>12</v>
       </c>
       <c r="G10" t="s">
         <v>54</v>
       </c>
-      <c r="J10" s="25" t="s">
+      <c r="J10" s="24" t="s">
         <v>12</v>
       </c>
       <c r="K10" t="s">
         <v>15</v>
       </c>
-      <c r="N10" s="24"/>
+      <c r="N10" s="23"/>
       <c r="O10" t="s">
         <v>119</v>
       </c>
-      <c r="R10" s="25" t="s">
+      <c r="R10" s="24" t="s">
         <v>12</v>
       </c>
       <c r="S10" t="s">
         <v>152</v>
       </c>
-      <c r="V10" s="24"/>
+      <c r="V10" s="23"/>
       <c r="W10" t="s">
         <v>186</v>
       </c>
@@ -2948,29 +2948,29 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="25"/>
+      <c r="B11" s="24"/>
       <c r="C11" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="25"/>
+      <c r="F11" s="24"/>
       <c r="G11" t="s">
         <v>56</v>
       </c>
-      <c r="J11" s="25"/>
+      <c r="J11" s="24"/>
       <c r="K11" t="s">
         <v>188</v>
       </c>
-      <c r="N11" s="25" t="s">
+      <c r="N11" s="24" t="s">
         <v>12</v>
       </c>
       <c r="O11" t="s">
         <v>120</v>
       </c>
-      <c r="R11" s="25"/>
+      <c r="R11" s="24"/>
       <c r="S11" t="s">
         <v>153</v>
       </c>
-      <c r="V11" s="24"/>
+      <c r="V11" s="23"/>
       <c r="W11" t="s">
         <v>187</v>
       </c>
@@ -2979,27 +2979,27 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="25"/>
+      <c r="B12" s="24"/>
       <c r="C12" t="s">
         <v>86</v>
       </c>
-      <c r="F12" s="25"/>
+      <c r="F12" s="24"/>
       <c r="G12" t="s">
         <v>58</v>
       </c>
-      <c r="J12" s="25"/>
+      <c r="J12" s="24"/>
       <c r="K12" t="s">
         <v>17</v>
       </c>
-      <c r="N12" s="25"/>
+      <c r="N12" s="24"/>
       <c r="O12" t="s">
         <v>121</v>
       </c>
-      <c r="R12" s="25"/>
+      <c r="R12" s="24"/>
       <c r="S12" t="s">
         <v>154</v>
       </c>
-      <c r="V12" s="24"/>
+      <c r="V12" s="23"/>
       <c r="W12" t="s">
         <v>53</v>
       </c>
@@ -3008,27 +3008,27 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="25"/>
+      <c r="B13" s="24"/>
       <c r="C13" t="s">
         <v>89</v>
       </c>
-      <c r="F13" s="25"/>
+      <c r="F13" s="24"/>
       <c r="G13" t="s">
         <v>59</v>
       </c>
-      <c r="J13" s="25"/>
+      <c r="J13" s="24"/>
       <c r="K13" t="s">
         <v>88</v>
       </c>
-      <c r="N13" s="25"/>
+      <c r="N13" s="24"/>
       <c r="O13" t="s">
         <v>122</v>
       </c>
-      <c r="R13" s="25"/>
+      <c r="R13" s="24"/>
       <c r="S13" t="s">
         <v>155</v>
       </c>
-      <c r="V13" s="24"/>
+      <c r="V13" s="23"/>
       <c r="W13" t="s">
         <v>10</v>
       </c>
@@ -3037,27 +3037,27 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="25"/>
+      <c r="B14" s="24"/>
       <c r="C14" t="s">
         <v>87</v>
       </c>
-      <c r="F14" s="25"/>
+      <c r="F14" s="24"/>
       <c r="G14" t="s">
         <v>226</v>
       </c>
-      <c r="J14" s="25"/>
+      <c r="J14" s="24"/>
       <c r="K14" t="s">
         <v>16</v>
       </c>
-      <c r="N14" s="25"/>
+      <c r="N14" s="24"/>
       <c r="O14" t="s">
         <v>123</v>
       </c>
-      <c r="R14" s="25"/>
+      <c r="R14" s="24"/>
       <c r="S14" t="s">
         <v>156</v>
       </c>
-      <c r="V14" s="25" t="s">
+      <c r="V14" s="24" t="s">
         <v>12</v>
       </c>
       <c r="W14" t="s">
@@ -3068,29 +3068,29 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="20" t="s">
         <v>18</v>
       </c>
       <c r="C15" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="25"/>
+      <c r="F15" s="24"/>
       <c r="G15" t="s">
         <v>225</v>
       </c>
-      <c r="J15" s="25"/>
+      <c r="J15" s="24"/>
       <c r="K15" t="s">
         <v>23</v>
       </c>
-      <c r="N15" s="25"/>
+      <c r="N15" s="24"/>
       <c r="O15" t="s">
         <v>124</v>
       </c>
-      <c r="R15" s="25"/>
+      <c r="R15" s="24"/>
       <c r="S15" t="s">
         <v>157</v>
       </c>
-      <c r="V15" s="25"/>
+      <c r="V15" s="24"/>
       <c r="W15" t="s">
         <v>189</v>
       </c>
@@ -3099,29 +3099,29 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="26"/>
+      <c r="B16" s="20"/>
       <c r="C16" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="26" t="s">
+      <c r="F16" s="20" t="s">
         <v>18</v>
       </c>
       <c r="G16" t="s">
         <v>60</v>
       </c>
-      <c r="J16" s="25"/>
+      <c r="J16" s="24"/>
       <c r="K16" t="s">
         <v>259</v>
       </c>
-      <c r="N16" s="25"/>
+      <c r="N16" s="24"/>
       <c r="O16" t="s">
         <v>125</v>
       </c>
-      <c r="R16" s="25"/>
+      <c r="R16" s="24"/>
       <c r="S16" t="s">
         <v>158</v>
       </c>
-      <c r="V16" s="25"/>
+      <c r="V16" s="24"/>
       <c r="W16" t="s">
         <v>190</v>
       </c>
@@ -3130,31 +3130,31 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="26"/>
+      <c r="B17" s="20"/>
       <c r="C17" t="s">
         <v>96</v>
       </c>
-      <c r="F17" s="26"/>
+      <c r="F17" s="20"/>
       <c r="G17" t="s">
         <v>62</v>
       </c>
-      <c r="J17" s="26" t="s">
+      <c r="J17" s="20" t="s">
         <v>18</v>
       </c>
       <c r="K17" t="s">
         <v>95</v>
       </c>
-      <c r="N17" s="26" t="s">
+      <c r="N17" s="20" t="s">
         <v>18</v>
       </c>
       <c r="O17" t="s">
         <v>126</v>
       </c>
-      <c r="R17" s="25"/>
+      <c r="R17" s="24"/>
       <c r="S17" t="s">
         <v>159</v>
       </c>
-      <c r="V17" s="25"/>
+      <c r="V17" s="24"/>
       <c r="W17" t="s">
         <v>191</v>
       </c>
@@ -3163,29 +3163,29 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="21" t="s">
         <v>24</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="26"/>
+      <c r="F18" s="20"/>
       <c r="G18" t="s">
         <v>63</v>
       </c>
-      <c r="J18" s="26"/>
+      <c r="J18" s="20"/>
       <c r="K18" t="s">
         <v>21</v>
       </c>
-      <c r="N18" s="26"/>
+      <c r="N18" s="20"/>
       <c r="O18" t="s">
         <v>127</v>
       </c>
-      <c r="R18" s="25"/>
+      <c r="R18" s="24"/>
       <c r="S18" t="s">
         <v>160</v>
       </c>
-      <c r="V18" s="25"/>
+      <c r="V18" s="24"/>
       <c r="W18" t="s">
         <v>91</v>
       </c>
@@ -3194,31 +3194,31 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="27"/>
+      <c r="B19" s="21"/>
       <c r="C19" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="27" t="s">
+      <c r="F19" s="21" t="s">
         <v>24</v>
       </c>
       <c r="G19" t="s">
         <v>64</v>
       </c>
-      <c r="J19" s="26"/>
+      <c r="J19" s="20"/>
       <c r="K19" t="s">
         <v>98</v>
       </c>
-      <c r="N19" s="27" t="s">
+      <c r="N19" s="21" t="s">
         <v>24</v>
       </c>
       <c r="O19" t="s">
         <v>128</v>
       </c>
-      <c r="R19" s="25"/>
+      <c r="R19" s="24"/>
       <c r="S19" t="s">
         <v>161</v>
       </c>
-      <c r="V19" s="25"/>
+      <c r="V19" s="24"/>
       <c r="W19" t="s">
         <v>261</v>
       </c>
@@ -3227,31 +3227,31 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="27"/>
+      <c r="B20" s="21"/>
       <c r="C20" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="27"/>
+      <c r="F20" s="21"/>
       <c r="G20" t="s">
         <v>65</v>
       </c>
-      <c r="J20" s="27" t="s">
+      <c r="J20" s="21" t="s">
         <v>24</v>
       </c>
       <c r="K20" t="s">
         <v>99</v>
       </c>
-      <c r="N20" s="27"/>
+      <c r="N20" s="21"/>
       <c r="O20" t="s">
         <v>129</v>
       </c>
-      <c r="R20" s="26" t="s">
+      <c r="R20" s="20" t="s">
         <v>18</v>
       </c>
       <c r="S20" t="s">
         <v>162</v>
       </c>
-      <c r="V20" s="25"/>
+      <c r="V20" s="24"/>
       <c r="W20" t="s">
         <v>94</v>
       </c>
@@ -3260,27 +3260,27 @@
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="27"/>
+      <c r="B21" s="21"/>
       <c r="C21" t="s">
         <v>100</v>
       </c>
-      <c r="F21" s="27"/>
+      <c r="F21" s="21"/>
       <c r="G21" t="s">
         <v>66</v>
       </c>
-      <c r="J21" s="27"/>
+      <c r="J21" s="21"/>
       <c r="K21" t="s">
         <v>28</v>
       </c>
-      <c r="N21" s="27"/>
+      <c r="N21" s="21"/>
       <c r="O21" t="s">
         <v>130</v>
       </c>
-      <c r="R21" s="26"/>
+      <c r="R21" s="20"/>
       <c r="S21" t="s">
         <v>163</v>
       </c>
-      <c r="V21" s="25"/>
+      <c r="V21" s="24"/>
       <c r="W21" t="s">
         <v>192</v>
       </c>
@@ -3289,31 +3289,31 @@
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="26" t="s">
         <v>30</v>
       </c>
       <c r="C22" t="s">
         <v>31</v>
       </c>
-      <c r="F22" s="27"/>
+      <c r="F22" s="21"/>
       <c r="G22" t="s">
         <v>67</v>
       </c>
-      <c r="J22" s="27"/>
+      <c r="J22" s="21"/>
       <c r="K22" t="s">
         <v>29</v>
       </c>
-      <c r="N22" s="27"/>
+      <c r="N22" s="21"/>
       <c r="O22" t="s">
         <v>131</v>
       </c>
-      <c r="R22" s="27" t="s">
+      <c r="R22" s="21" t="s">
         <v>24</v>
       </c>
       <c r="S22" t="s">
         <v>164</v>
       </c>
-      <c r="V22" s="25"/>
+      <c r="V22" s="24"/>
       <c r="W22" t="s">
         <v>193</v>
       </c>
@@ -3322,31 +3322,31 @@
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="20"/>
+      <c r="B23" s="26"/>
       <c r="C23" t="s">
         <v>32</v>
       </c>
-      <c r="F23" s="20" t="s">
+      <c r="F23" s="26" t="s">
         <v>30</v>
       </c>
       <c r="G23" t="s">
         <v>69</v>
       </c>
-      <c r="J23" s="20" t="s">
+      <c r="J23" s="26" t="s">
         <v>30</v>
       </c>
       <c r="K23" t="s">
         <v>103</v>
       </c>
-      <c r="N23" s="27"/>
+      <c r="N23" s="21"/>
       <c r="O23" t="s">
         <v>132</v>
       </c>
-      <c r="R23" s="27"/>
+      <c r="R23" s="21"/>
       <c r="S23" t="s">
         <v>165</v>
       </c>
-      <c r="V23" s="25"/>
+      <c r="V23" s="24"/>
       <c r="W23" t="s">
         <v>195</v>
       </c>
@@ -3355,29 +3355,29 @@
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="20"/>
+      <c r="B24" s="26"/>
       <c r="C24" t="s">
         <v>33</v>
       </c>
-      <c r="F24" s="20"/>
+      <c r="F24" s="26"/>
       <c r="G24" t="s">
         <v>70</v>
       </c>
-      <c r="J24" s="20"/>
+      <c r="J24" s="26"/>
       <c r="K24" t="s">
         <v>104</v>
       </c>
-      <c r="N24" s="20" t="s">
+      <c r="N24" s="26" t="s">
         <v>30</v>
       </c>
       <c r="O24" t="s">
         <v>133</v>
       </c>
-      <c r="R24" s="27"/>
+      <c r="R24" s="21"/>
       <c r="S24" t="s">
         <v>166</v>
       </c>
-      <c r="V24" s="25"/>
+      <c r="V24" s="24"/>
       <c r="W24" t="s">
         <v>196</v>
       </c>
@@ -3386,29 +3386,29 @@
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="25" t="s">
         <v>36</v>
       </c>
       <c r="C25" t="s">
         <v>37</v>
       </c>
-      <c r="F25" s="20"/>
+      <c r="F25" s="26"/>
       <c r="G25" t="s">
         <v>71</v>
       </c>
-      <c r="J25" s="20"/>
+      <c r="J25" s="26"/>
       <c r="K25" t="s">
         <v>105</v>
       </c>
-      <c r="N25" s="20"/>
+      <c r="N25" s="26"/>
       <c r="O25" t="s">
         <v>134</v>
       </c>
-      <c r="R25" s="27"/>
+      <c r="R25" s="21"/>
       <c r="S25" t="s">
         <v>167</v>
       </c>
-      <c r="V25" s="26" t="s">
+      <c r="V25" s="20" t="s">
         <v>18</v>
       </c>
       <c r="W25" t="s">
@@ -3419,29 +3419,29 @@
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="21"/>
+      <c r="B26" s="25"/>
       <c r="C26" t="s">
         <v>38</v>
       </c>
-      <c r="F26" s="20"/>
+      <c r="F26" s="26"/>
       <c r="G26" t="s">
         <v>68</v>
       </c>
-      <c r="J26" s="20"/>
+      <c r="J26" s="26"/>
       <c r="K26" t="s">
         <v>106</v>
       </c>
-      <c r="N26" s="20"/>
+      <c r="N26" s="26"/>
       <c r="O26" t="s">
         <v>135</v>
       </c>
-      <c r="R26" s="20" t="s">
+      <c r="R26" s="26" t="s">
         <v>30</v>
       </c>
       <c r="S26" t="s">
         <v>168</v>
       </c>
-      <c r="V26" s="26"/>
+      <c r="V26" s="20"/>
       <c r="W26" t="s">
         <v>198</v>
       </c>
@@ -3450,31 +3450,31 @@
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="21"/>
+      <c r="B27" s="25"/>
       <c r="C27" t="s">
         <v>39</v>
       </c>
-      <c r="F27" s="21" t="s">
+      <c r="F27" s="25" t="s">
         <v>36</v>
       </c>
       <c r="G27" t="s">
         <v>72</v>
       </c>
-      <c r="J27" s="21" t="s">
+      <c r="J27" s="25" t="s">
         <v>36</v>
       </c>
       <c r="K27" t="s">
         <v>40</v>
       </c>
-      <c r="N27" s="20"/>
+      <c r="N27" s="26"/>
       <c r="O27" t="s">
         <v>136</v>
       </c>
-      <c r="R27" s="20"/>
+      <c r="R27" s="26"/>
       <c r="S27" t="s">
         <v>169</v>
       </c>
-      <c r="V27" s="26"/>
+      <c r="V27" s="20"/>
       <c r="W27" t="s">
         <v>199</v>
       </c>
@@ -3483,27 +3483,27 @@
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="21"/>
+      <c r="B28" s="25"/>
       <c r="C28" t="s">
         <v>107</v>
       </c>
-      <c r="F28" s="21"/>
+      <c r="F28" s="25"/>
       <c r="G28" t="s">
         <v>73</v>
       </c>
-      <c r="J28" s="21"/>
+      <c r="J28" s="25"/>
       <c r="K28" t="s">
         <v>108</v>
       </c>
-      <c r="N28" s="20"/>
+      <c r="N28" s="26"/>
       <c r="O28" t="s">
         <v>137</v>
       </c>
-      <c r="R28" s="20"/>
+      <c r="R28" s="26"/>
       <c r="S28" t="s">
         <v>170</v>
       </c>
-      <c r="V28" s="27" t="s">
+      <c r="V28" s="21" t="s">
         <v>24</v>
       </c>
       <c r="W28" t="s">
@@ -3514,23 +3514,23 @@
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="F29" s="21"/>
+      <c r="F29" s="25"/>
       <c r="G29" t="s">
         <v>74</v>
       </c>
-      <c r="J29" s="21"/>
+      <c r="J29" s="25"/>
       <c r="K29" t="s">
         <v>110</v>
       </c>
-      <c r="N29" s="20"/>
+      <c r="N29" s="26"/>
       <c r="O29" t="s">
         <v>138</v>
       </c>
-      <c r="R29" s="20"/>
+      <c r="R29" s="26"/>
       <c r="S29" t="s">
         <v>171</v>
       </c>
-      <c r="V29" s="27"/>
+      <c r="V29" s="21"/>
       <c r="W29" t="s">
         <v>201</v>
       </c>
@@ -3539,25 +3539,25 @@
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="F30" s="21"/>
+      <c r="F30" s="25"/>
       <c r="G30" t="s">
         <v>75</v>
       </c>
-      <c r="J30" s="21"/>
+      <c r="J30" s="25"/>
       <c r="K30" t="s">
         <v>41</v>
       </c>
-      <c r="N30" s="21" t="s">
+      <c r="N30" s="25" t="s">
         <v>36</v>
       </c>
       <c r="O30" t="s">
         <v>139</v>
       </c>
-      <c r="R30" s="20"/>
+      <c r="R30" s="26"/>
       <c r="S30" t="s">
         <v>172</v>
       </c>
-      <c r="V30" s="27"/>
+      <c r="V30" s="21"/>
       <c r="W30" t="s">
         <v>202</v>
       </c>
@@ -3566,35 +3566,35 @@
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="F31" s="21"/>
+      <c r="F31" s="25"/>
       <c r="G31" t="s">
         <v>275</v>
       </c>
-      <c r="N31" s="21"/>
+      <c r="N31" s="25"/>
       <c r="O31" t="s">
         <v>140</v>
       </c>
-      <c r="R31" s="21" t="s">
+      <c r="R31" s="25" t="s">
         <v>36</v>
       </c>
       <c r="S31" t="s">
         <v>173</v>
       </c>
-      <c r="V31" s="27"/>
+      <c r="V31" s="21"/>
       <c r="W31" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="N32" s="21"/>
+      <c r="N32" s="25"/>
       <c r="O32" t="s">
         <v>141</v>
       </c>
-      <c r="R32" s="21"/>
+      <c r="R32" s="25"/>
       <c r="S32" t="s">
         <v>174</v>
       </c>
-      <c r="V32" s="20" t="s">
+      <c r="V32" s="26" t="s">
         <v>30</v>
       </c>
       <c r="W32" t="s">
@@ -3602,43 +3602,43 @@
       </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="N33" s="21"/>
+      <c r="N33" s="25"/>
       <c r="O33" t="s">
         <v>142</v>
       </c>
-      <c r="R33" s="21"/>
+      <c r="R33" s="25"/>
       <c r="S33" t="s">
         <v>175</v>
       </c>
-      <c r="V33" s="20"/>
+      <c r="V33" s="26"/>
       <c r="W33" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="R34" s="21"/>
+      <c r="R34" s="25"/>
       <c r="S34" t="s">
         <v>176</v>
       </c>
-      <c r="V34" s="20"/>
+      <c r="V34" s="26"/>
       <c r="W34" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="V35" s="20"/>
+      <c r="V35" s="26"/>
       <c r="W35" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="V36" s="20"/>
+      <c r="V36" s="26"/>
       <c r="W36" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="V37" s="21" t="s">
+      <c r="V37" s="25" t="s">
         <v>36</v>
       </c>
       <c r="W37" t="s">
@@ -3646,19 +3646,19 @@
       </c>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="V38" s="21"/>
+      <c r="V38" s="25"/>
       <c r="W38" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="V39" s="21"/>
+      <c r="V39" s="25"/>
       <c r="W39" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="V40" s="21"/>
+      <c r="V40" s="25"/>
       <c r="W40" t="s">
         <v>211</v>
       </c>
@@ -3679,48 +3679,48 @@
       <c r="R43" t="s">
         <v>315</v>
       </c>
-      <c r="V43" s="22" t="s">
+      <c r="V43" s="28" t="s">
         <v>316</v>
       </c>
-      <c r="W43" s="22"/>
-      <c r="X43" s="22"/>
-      <c r="Y43" s="22"/>
+      <c r="W43" s="28"/>
+      <c r="X43" s="28"/>
+      <c r="Y43" s="28"/>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>1</v>
       </c>
-      <c r="B44" s="23" t="s">
+      <c r="B44" s="22" t="s">
         <v>1</v>
       </c>
       <c r="C44" t="s">
         <v>44</v>
       </c>
-      <c r="F44" s="23" t="s">
+      <c r="F44" s="22" t="s">
         <v>1</v>
       </c>
       <c r="G44" t="s">
         <v>246</v>
       </c>
-      <c r="J44" s="23" t="s">
+      <c r="J44" s="22" t="s">
         <v>1</v>
       </c>
       <c r="K44" t="s">
         <v>280</v>
       </c>
-      <c r="N44" s="23" t="s">
+      <c r="N44" s="22" t="s">
         <v>1</v>
       </c>
       <c r="O44" t="s">
         <v>317</v>
       </c>
-      <c r="R44" s="23" t="s">
+      <c r="R44" s="22" t="s">
         <v>1</v>
       </c>
       <c r="S44" t="s">
         <v>348</v>
       </c>
-      <c r="V44" s="23" t="s">
+      <c r="V44" s="22" t="s">
         <v>1</v>
       </c>
       <c r="W44" t="s">
@@ -3731,27 +3731,27 @@
       <c r="A45" s="1">
         <v>2</v>
       </c>
-      <c r="B45" s="23"/>
+      <c r="B45" s="22"/>
       <c r="C45" t="s">
         <v>214</v>
       </c>
-      <c r="F45" s="23"/>
+      <c r="F45" s="22"/>
       <c r="G45" t="s">
         <v>247</v>
       </c>
-      <c r="J45" s="23"/>
+      <c r="J45" s="22"/>
       <c r="K45" t="s">
         <v>281</v>
       </c>
-      <c r="N45" s="23"/>
+      <c r="N45" s="22"/>
       <c r="O45" t="s">
         <v>318</v>
       </c>
-      <c r="R45" s="23"/>
+      <c r="R45" s="22"/>
       <c r="S45" t="s">
         <v>349</v>
       </c>
-      <c r="V45" s="23"/>
+      <c r="V45" s="22"/>
       <c r="W45" t="s">
         <v>379</v>
       </c>
@@ -3760,27 +3760,27 @@
       <c r="A46" s="1">
         <v>3</v>
       </c>
-      <c r="B46" s="23"/>
+      <c r="B46" s="22"/>
       <c r="C46" t="s">
         <v>213</v>
       </c>
-      <c r="F46" s="23"/>
+      <c r="F46" s="22"/>
       <c r="G46" t="s">
         <v>79</v>
       </c>
-      <c r="J46" s="23"/>
+      <c r="J46" s="22"/>
       <c r="K46" t="s">
         <v>282</v>
       </c>
-      <c r="N46" s="23"/>
+      <c r="N46" s="22"/>
       <c r="O46" t="s">
         <v>319</v>
       </c>
-      <c r="R46" s="23"/>
+      <c r="R46" s="22"/>
       <c r="S46" t="s">
         <v>78</v>
       </c>
-      <c r="V46" s="23"/>
+      <c r="V46" s="22"/>
       <c r="W46" t="s">
         <v>380</v>
       </c>
@@ -3789,35 +3789,35 @@
       <c r="A47" s="1">
         <v>4</v>
       </c>
-      <c r="B47" s="24" t="s">
+      <c r="B47" s="23" t="s">
         <v>5</v>
       </c>
       <c r="C47" t="s">
         <v>216</v>
       </c>
-      <c r="F47" s="24" t="s">
+      <c r="F47" s="23" t="s">
         <v>5</v>
       </c>
       <c r="G47" t="s">
         <v>183</v>
       </c>
-      <c r="J47" s="24" t="s">
+      <c r="J47" s="23" t="s">
         <v>5</v>
       </c>
       <c r="K47" t="s">
         <v>283</v>
       </c>
-      <c r="N47" s="24" t="s">
+      <c r="N47" s="23" t="s">
         <v>5</v>
       </c>
       <c r="O47" t="s">
         <v>320</v>
       </c>
-      <c r="R47" s="23"/>
+      <c r="R47" s="22"/>
       <c r="S47" t="s">
         <v>350</v>
       </c>
-      <c r="V47" s="24" t="s">
+      <c r="V47" s="23" t="s">
         <v>5</v>
       </c>
       <c r="W47" t="s">
@@ -3828,29 +3828,29 @@
       <c r="A48" s="1">
         <v>5</v>
       </c>
-      <c r="B48" s="24"/>
+      <c r="B48" s="23"/>
       <c r="C48" t="s">
         <v>217</v>
       </c>
-      <c r="F48" s="24"/>
+      <c r="F48" s="23"/>
       <c r="G48" t="s">
         <v>321</v>
       </c>
-      <c r="J48" s="24"/>
+      <c r="J48" s="23"/>
       <c r="K48" t="s">
         <v>284</v>
       </c>
-      <c r="N48" s="24"/>
+      <c r="N48" s="23"/>
       <c r="O48" t="s">
         <v>251</v>
       </c>
-      <c r="R48" s="24" t="s">
+      <c r="R48" s="23" t="s">
         <v>5</v>
       </c>
       <c r="S48" t="s">
         <v>351</v>
       </c>
-      <c r="V48" s="24"/>
+      <c r="V48" s="23"/>
       <c r="W48" t="s">
         <v>382</v>
       </c>
@@ -3859,27 +3859,27 @@
       <c r="A49" s="1">
         <v>6</v>
       </c>
-      <c r="B49" s="24"/>
+      <c r="B49" s="23"/>
       <c r="C49" t="s">
         <v>221</v>
       </c>
-      <c r="F49" s="24"/>
+      <c r="F49" s="23"/>
       <c r="G49" t="s">
         <v>185</v>
       </c>
-      <c r="J49" s="24"/>
+      <c r="J49" s="23"/>
       <c r="K49" t="s">
         <v>285</v>
       </c>
-      <c r="N49" s="24"/>
+      <c r="N49" s="23"/>
       <c r="O49" t="s">
         <v>322</v>
       </c>
-      <c r="R49" s="24"/>
+      <c r="R49" s="23"/>
       <c r="S49" t="s">
         <v>352</v>
       </c>
-      <c r="V49" s="24"/>
+      <c r="V49" s="23"/>
       <c r="W49" t="s">
         <v>383</v>
       </c>
@@ -3888,31 +3888,31 @@
       <c r="A50" s="1">
         <v>7</v>
       </c>
-      <c r="B50" s="24"/>
+      <c r="B50" s="23"/>
       <c r="C50" t="s">
         <v>222</v>
       </c>
-      <c r="F50" s="24"/>
+      <c r="F50" s="23"/>
       <c r="G50" t="s">
         <v>249</v>
       </c>
-      <c r="J50" s="25" t="s">
+      <c r="J50" s="24" t="s">
         <v>12</v>
       </c>
       <c r="K50" t="s">
         <v>286</v>
       </c>
-      <c r="N50" s="25" t="s">
+      <c r="N50" s="24" t="s">
         <v>12</v>
       </c>
       <c r="O50" t="s">
         <v>323</v>
       </c>
-      <c r="R50" s="24"/>
+      <c r="R50" s="23"/>
       <c r="S50" t="s">
         <v>353</v>
       </c>
-      <c r="V50" s="24"/>
+      <c r="V50" s="23"/>
       <c r="W50" t="s">
         <v>384</v>
       </c>
@@ -3921,29 +3921,29 @@
       <c r="A51" s="1">
         <v>8</v>
       </c>
-      <c r="B51" s="25" t="s">
+      <c r="B51" s="24" t="s">
         <v>12</v>
       </c>
       <c r="C51" t="s">
         <v>57</v>
       </c>
-      <c r="F51" s="24"/>
+      <c r="F51" s="23"/>
       <c r="G51" t="s">
         <v>253</v>
       </c>
-      <c r="J51" s="25"/>
+      <c r="J51" s="24"/>
       <c r="K51" t="s">
         <v>287</v>
       </c>
-      <c r="N51" s="25"/>
+      <c r="N51" s="24"/>
       <c r="O51" t="s">
         <v>324</v>
       </c>
-      <c r="R51" s="24"/>
+      <c r="R51" s="23"/>
       <c r="S51" t="s">
         <v>354</v>
       </c>
-      <c r="V51" s="24"/>
+      <c r="V51" s="23"/>
       <c r="W51" t="s">
         <v>385</v>
       </c>
@@ -3952,27 +3952,27 @@
       <c r="A52" s="1">
         <v>9</v>
       </c>
-      <c r="B52" s="25"/>
+      <c r="B52" s="24"/>
       <c r="C52" t="s">
         <v>218</v>
       </c>
-      <c r="F52" s="24"/>
+      <c r="F52" s="23"/>
       <c r="G52" t="s">
         <v>254</v>
       </c>
-      <c r="J52" s="25"/>
+      <c r="J52" s="24"/>
       <c r="K52" t="s">
         <v>288</v>
       </c>
-      <c r="N52" s="25"/>
+      <c r="N52" s="24"/>
       <c r="O52" t="s">
         <v>325</v>
       </c>
-      <c r="R52" s="24"/>
+      <c r="R52" s="23"/>
       <c r="S52" t="s">
         <v>355</v>
       </c>
-      <c r="V52" s="25" t="s">
+      <c r="V52" s="24" t="s">
         <v>12</v>
       </c>
       <c r="W52" t="s">
@@ -3983,29 +3983,29 @@
       <c r="A53" s="1">
         <v>10</v>
       </c>
-      <c r="B53" s="25"/>
+      <c r="B53" s="24"/>
       <c r="C53" t="s">
         <v>219</v>
       </c>
-      <c r="F53" s="24"/>
+      <c r="F53" s="23"/>
       <c r="G53" t="s">
         <v>255</v>
       </c>
-      <c r="J53" s="25"/>
+      <c r="J53" s="24"/>
       <c r="K53" t="s">
         <v>289</v>
       </c>
-      <c r="N53" s="25"/>
+      <c r="N53" s="24"/>
       <c r="O53" t="s">
         <v>326</v>
       </c>
-      <c r="R53" s="25" t="s">
+      <c r="R53" s="24" t="s">
         <v>12</v>
       </c>
       <c r="S53" t="s">
         <v>356</v>
       </c>
-      <c r="V53" s="25"/>
+      <c r="V53" s="24"/>
       <c r="W53" t="s">
         <v>387</v>
       </c>
@@ -4014,27 +4014,27 @@
       <c r="A54" s="1">
         <v>11</v>
       </c>
-      <c r="B54" s="25"/>
+      <c r="B54" s="24"/>
       <c r="C54" t="s">
         <v>93</v>
       </c>
-      <c r="F54" s="24"/>
+      <c r="F54" s="23"/>
       <c r="G54" t="s">
         <v>83</v>
       </c>
-      <c r="J54" s="25"/>
+      <c r="J54" s="24"/>
       <c r="K54" t="s">
         <v>290</v>
       </c>
-      <c r="N54" s="25"/>
+      <c r="N54" s="24"/>
       <c r="O54" t="s">
         <v>327</v>
       </c>
-      <c r="R54" s="25"/>
+      <c r="R54" s="24"/>
       <c r="S54" t="s">
         <v>357</v>
       </c>
-      <c r="V54" s="25"/>
+      <c r="V54" s="24"/>
       <c r="W54" t="s">
         <v>388</v>
       </c>
@@ -4043,27 +4043,27 @@
       <c r="A55" s="1">
         <v>12</v>
       </c>
-      <c r="B55" s="25"/>
+      <c r="B55" s="24"/>
       <c r="C55" t="s">
         <v>220</v>
       </c>
-      <c r="F55" s="24"/>
+      <c r="F55" s="23"/>
       <c r="G55" t="s">
         <v>51</v>
       </c>
-      <c r="J55" s="25"/>
+      <c r="J55" s="24"/>
       <c r="K55" t="s">
         <v>291</v>
       </c>
-      <c r="N55" s="25"/>
+      <c r="N55" s="24"/>
       <c r="O55" t="s">
         <v>328</v>
       </c>
-      <c r="R55" s="25"/>
+      <c r="R55" s="24"/>
       <c r="S55" t="s">
         <v>358</v>
       </c>
-      <c r="V55" s="25"/>
+      <c r="V55" s="24"/>
       <c r="W55" t="s">
         <v>389</v>
       </c>
@@ -4072,29 +4072,29 @@
       <c r="A56" s="1">
         <v>13</v>
       </c>
-      <c r="B56" s="25"/>
+      <c r="B56" s="24"/>
       <c r="C56" t="s">
         <v>223</v>
       </c>
-      <c r="F56" s="25" t="s">
+      <c r="F56" s="24" t="s">
         <v>12</v>
       </c>
       <c r="G56" t="s">
         <v>194</v>
       </c>
-      <c r="J56" s="25"/>
+      <c r="J56" s="24"/>
       <c r="K56" t="s">
         <v>292</v>
       </c>
-      <c r="N56" s="25"/>
+      <c r="N56" s="24"/>
       <c r="O56" t="s">
         <v>329</v>
       </c>
-      <c r="R56" s="25"/>
+      <c r="R56" s="24"/>
       <c r="S56" t="s">
         <v>359</v>
       </c>
-      <c r="V56" s="25"/>
+      <c r="V56" s="24"/>
       <c r="W56" t="s">
         <v>390</v>
       </c>
@@ -4103,27 +4103,27 @@
       <c r="A57" s="1">
         <v>14</v>
       </c>
-      <c r="B57" s="25"/>
+      <c r="B57" s="24"/>
       <c r="C57" t="s">
         <v>224</v>
       </c>
-      <c r="F57" s="25"/>
+      <c r="F57" s="24"/>
       <c r="G57" t="s">
         <v>258</v>
       </c>
-      <c r="J57" s="25"/>
+      <c r="J57" s="24"/>
       <c r="K57" t="s">
         <v>293</v>
       </c>
-      <c r="N57" s="25"/>
+      <c r="N57" s="24"/>
       <c r="O57" t="s">
         <v>257</v>
       </c>
-      <c r="R57" s="25"/>
+      <c r="R57" s="24"/>
       <c r="S57" t="s">
         <v>360</v>
       </c>
-      <c r="V57" s="25"/>
+      <c r="V57" s="24"/>
       <c r="W57" t="s">
         <v>391</v>
       </c>
@@ -4132,27 +4132,27 @@
       <c r="A58" s="1">
         <v>15</v>
       </c>
-      <c r="B58" s="25"/>
+      <c r="B58" s="24"/>
       <c r="C58" t="s">
         <v>227</v>
       </c>
-      <c r="F58" s="25"/>
+      <c r="F58" s="24"/>
       <c r="G58" t="s">
         <v>22</v>
       </c>
-      <c r="J58" s="25"/>
+      <c r="J58" s="24"/>
       <c r="K58" t="s">
         <v>294</v>
       </c>
-      <c r="N58" s="25"/>
+      <c r="N58" s="24"/>
       <c r="O58" t="s">
         <v>263</v>
       </c>
-      <c r="R58" s="25"/>
+      <c r="R58" s="24"/>
       <c r="S58" t="s">
         <v>361</v>
       </c>
-      <c r="V58" s="25"/>
+      <c r="V58" s="24"/>
       <c r="W58" t="s">
         <v>392</v>
       </c>
@@ -4161,27 +4161,27 @@
       <c r="A59" s="1">
         <v>16</v>
       </c>
-      <c r="B59" s="25"/>
+      <c r="B59" s="24"/>
       <c r="C59" t="s">
         <v>228</v>
       </c>
-      <c r="F59" s="25"/>
+      <c r="F59" s="24"/>
       <c r="G59" t="s">
         <v>90</v>
       </c>
-      <c r="J59" s="25"/>
+      <c r="J59" s="24"/>
       <c r="K59" t="s">
         <v>295</v>
       </c>
-      <c r="N59" s="25"/>
+      <c r="N59" s="24"/>
       <c r="O59" t="s">
         <v>330</v>
       </c>
-      <c r="R59" s="25"/>
+      <c r="R59" s="24"/>
       <c r="S59" t="s">
         <v>362</v>
       </c>
-      <c r="V59" s="25"/>
+      <c r="V59" s="24"/>
       <c r="W59" t="s">
         <v>393</v>
       </c>
@@ -4190,21 +4190,21 @@
       <c r="A60" s="1">
         <v>17</v>
       </c>
-      <c r="B60" s="25"/>
+      <c r="B60" s="24"/>
       <c r="C60" t="s">
         <v>229</v>
       </c>
-      <c r="F60" s="25"/>
+      <c r="F60" s="24"/>
       <c r="G60" t="s">
         <v>260</v>
       </c>
-      <c r="J60" s="26" t="s">
+      <c r="J60" s="20" t="s">
         <v>18</v>
       </c>
       <c r="K60" t="s">
         <v>296</v>
       </c>
-      <c r="N60" s="26" t="s">
+      <c r="N60" s="20" t="s">
         <v>18</v>
       </c>
       <c r="O60" t="s">
@@ -4216,7 +4216,7 @@
       <c r="S60" t="s">
         <v>363</v>
       </c>
-      <c r="V60" s="26" t="s">
+      <c r="V60" s="20" t="s">
         <v>18</v>
       </c>
       <c r="W60" t="s">
@@ -4227,29 +4227,29 @@
       <c r="A61" s="1">
         <v>18</v>
       </c>
-      <c r="B61" s="25"/>
+      <c r="B61" s="24"/>
       <c r="C61" t="s">
         <v>55</v>
       </c>
-      <c r="F61" s="25"/>
+      <c r="F61" s="24"/>
       <c r="G61" t="s">
         <v>262</v>
       </c>
-      <c r="J61" s="26"/>
+      <c r="J61" s="20"/>
       <c r="K61" t="s">
         <v>297</v>
       </c>
-      <c r="N61" s="26"/>
+      <c r="N61" s="20"/>
       <c r="O61" t="s">
         <v>332</v>
       </c>
-      <c r="R61" s="27" t="s">
+      <c r="R61" s="21" t="s">
         <v>24</v>
       </c>
       <c r="S61" t="s">
         <v>364</v>
       </c>
-      <c r="V61" s="26"/>
+      <c r="V61" s="20"/>
       <c r="W61" t="s">
         <v>395</v>
       </c>
@@ -4258,29 +4258,29 @@
       <c r="A62" s="1">
         <v>19</v>
       </c>
-      <c r="B62" s="26" t="s">
+      <c r="B62" s="20" t="s">
         <v>18</v>
       </c>
       <c r="C62" t="s">
         <v>233</v>
       </c>
-      <c r="F62" s="25"/>
+      <c r="F62" s="24"/>
       <c r="G62" t="s">
         <v>92</v>
       </c>
-      <c r="J62" s="26"/>
+      <c r="J62" s="20"/>
       <c r="K62" t="s">
         <v>298</v>
       </c>
-      <c r="N62" s="26"/>
+      <c r="N62" s="20"/>
       <c r="O62" t="s">
         <v>333</v>
       </c>
-      <c r="R62" s="27"/>
+      <c r="R62" s="21"/>
       <c r="S62" t="s">
         <v>365</v>
       </c>
-      <c r="V62" s="26"/>
+      <c r="V62" s="20"/>
       <c r="W62" t="s">
         <v>396</v>
       </c>
@@ -4289,31 +4289,31 @@
       <c r="A63" s="1">
         <v>20</v>
       </c>
-      <c r="B63" s="26"/>
+      <c r="B63" s="20"/>
       <c r="C63" t="s">
         <v>230</v>
       </c>
-      <c r="F63" s="26" t="s">
+      <c r="F63" s="20" t="s">
         <v>18</v>
       </c>
       <c r="G63" t="s">
         <v>264</v>
       </c>
-      <c r="J63" s="27" t="s">
+      <c r="J63" s="21" t="s">
         <v>24</v>
       </c>
       <c r="K63" t="s">
         <v>299</v>
       </c>
-      <c r="N63" s="26"/>
+      <c r="N63" s="20"/>
       <c r="O63" t="s">
         <v>334</v>
       </c>
-      <c r="R63" s="27"/>
+      <c r="R63" s="21"/>
       <c r="S63" t="s">
         <v>366</v>
       </c>
-      <c r="V63" s="26"/>
+      <c r="V63" s="20"/>
       <c r="W63" t="s">
         <v>397</v>
       </c>
@@ -4322,27 +4322,27 @@
       <c r="A64" s="1">
         <v>21</v>
       </c>
-      <c r="B64" s="26"/>
+      <c r="B64" s="20"/>
       <c r="C64" t="s">
         <v>231</v>
       </c>
-      <c r="F64" s="26"/>
+      <c r="F64" s="20"/>
       <c r="G64" t="s">
         <v>265</v>
       </c>
-      <c r="J64" s="27"/>
+      <c r="J64" s="21"/>
       <c r="K64" t="s">
         <v>300</v>
       </c>
-      <c r="N64" s="26"/>
+      <c r="N64" s="20"/>
       <c r="O64" t="s">
         <v>335</v>
       </c>
-      <c r="R64" s="27"/>
+      <c r="R64" s="21"/>
       <c r="S64" t="s">
         <v>367</v>
       </c>
-      <c r="V64" s="27" t="s">
+      <c r="V64" s="21" t="s">
         <v>24</v>
       </c>
       <c r="W64" t="s">
@@ -4353,29 +4353,29 @@
       <c r="A65" s="1">
         <v>22</v>
       </c>
-      <c r="B65" s="26"/>
+      <c r="B65" s="20"/>
       <c r="C65" t="s">
         <v>232</v>
       </c>
-      <c r="F65" s="26"/>
+      <c r="F65" s="20"/>
       <c r="G65" t="s">
         <v>97</v>
       </c>
-      <c r="J65" s="27"/>
+      <c r="J65" s="21"/>
       <c r="K65" t="s">
         <v>301</v>
       </c>
-      <c r="N65" s="27" t="s">
+      <c r="N65" s="21" t="s">
         <v>24</v>
       </c>
       <c r="O65" t="s">
         <v>336</v>
       </c>
-      <c r="R65" s="27"/>
+      <c r="R65" s="21"/>
       <c r="S65" t="s">
         <v>368</v>
       </c>
-      <c r="V65" s="27"/>
+      <c r="V65" s="21"/>
       <c r="W65" t="s">
         <v>399</v>
       </c>
@@ -4384,29 +4384,29 @@
       <c r="A66" s="1">
         <v>23</v>
       </c>
-      <c r="B66" s="26"/>
+      <c r="B66" s="20"/>
       <c r="C66" t="s">
         <v>61</v>
       </c>
-      <c r="F66" s="26"/>
+      <c r="F66" s="20"/>
       <c r="G66" t="s">
         <v>266</v>
       </c>
-      <c r="J66" s="27"/>
+      <c r="J66" s="21"/>
       <c r="K66" t="s">
         <v>302</v>
       </c>
-      <c r="N66" s="27"/>
+      <c r="N66" s="21"/>
       <c r="O66" t="s">
         <v>337</v>
       </c>
-      <c r="R66" s="20" t="s">
+      <c r="R66" s="26" t="s">
         <v>30</v>
       </c>
       <c r="S66" t="s">
         <v>369</v>
       </c>
-      <c r="V66" s="27"/>
+      <c r="V66" s="21"/>
       <c r="W66" t="s">
         <v>400</v>
       </c>
@@ -4415,29 +4415,29 @@
       <c r="A67" s="1">
         <v>24</v>
       </c>
-      <c r="B67" s="27" t="s">
+      <c r="B67" s="21" t="s">
         <v>24</v>
       </c>
       <c r="C67" t="s">
         <v>102</v>
       </c>
-      <c r="F67" s="26"/>
+      <c r="F67" s="20"/>
       <c r="G67" t="s">
         <v>267</v>
       </c>
-      <c r="J67" s="27"/>
+      <c r="J67" s="21"/>
       <c r="K67" t="s">
         <v>303</v>
       </c>
-      <c r="N67" s="27"/>
+      <c r="N67" s="21"/>
       <c r="O67" t="s">
         <v>338</v>
       </c>
-      <c r="R67" s="20"/>
+      <c r="R67" s="26"/>
       <c r="S67" t="s">
         <v>370</v>
       </c>
-      <c r="V67" s="27"/>
+      <c r="V67" s="21"/>
       <c r="W67" t="s">
         <v>401</v>
       </c>
@@ -4446,29 +4446,29 @@
       <c r="A68" s="1">
         <v>25</v>
       </c>
-      <c r="B68" s="27"/>
+      <c r="B68" s="21"/>
       <c r="C68" t="s">
         <v>234</v>
       </c>
-      <c r="F68" s="27" t="s">
+      <c r="F68" s="21" t="s">
         <v>24</v>
       </c>
       <c r="G68" t="s">
         <v>268</v>
       </c>
-      <c r="J68" s="27"/>
+      <c r="J68" s="21"/>
       <c r="K68" t="s">
         <v>304</v>
       </c>
-      <c r="N68" s="27"/>
+      <c r="N68" s="21"/>
       <c r="O68" t="s">
         <v>342</v>
       </c>
-      <c r="R68" s="20"/>
+      <c r="R68" s="26"/>
       <c r="S68" t="s">
         <v>371</v>
       </c>
-      <c r="V68" s="20" t="s">
+      <c r="V68" s="26" t="s">
         <v>30</v>
       </c>
       <c r="W68" t="s">
@@ -4479,29 +4479,29 @@
       <c r="A69" s="1">
         <v>26</v>
       </c>
-      <c r="B69" s="27"/>
+      <c r="B69" s="21"/>
       <c r="C69" t="s">
         <v>235</v>
       </c>
-      <c r="F69" s="27"/>
+      <c r="F69" s="21"/>
       <c r="G69" t="s">
         <v>269</v>
       </c>
-      <c r="J69" s="27"/>
+      <c r="J69" s="21"/>
       <c r="K69" t="s">
         <v>305</v>
       </c>
-      <c r="N69" s="20" t="s">
+      <c r="N69" s="26" t="s">
         <v>30</v>
       </c>
       <c r="O69" t="s">
         <v>339</v>
       </c>
-      <c r="R69" s="20"/>
+      <c r="R69" s="26"/>
       <c r="S69" t="s">
         <v>372</v>
       </c>
-      <c r="V69" s="20"/>
+      <c r="V69" s="26"/>
       <c r="W69" t="s">
         <v>403</v>
       </c>
@@ -4510,31 +4510,31 @@
       <c r="A70" s="1">
         <v>27</v>
       </c>
-      <c r="B70" s="27"/>
+      <c r="B70" s="21"/>
       <c r="C70" t="s">
         <v>236</v>
       </c>
-      <c r="F70" s="27"/>
+      <c r="F70" s="21"/>
       <c r="G70" t="s">
         <v>270</v>
       </c>
-      <c r="J70" s="20" t="s">
+      <c r="J70" s="26" t="s">
         <v>30</v>
       </c>
       <c r="K70" t="s">
         <v>306</v>
       </c>
-      <c r="N70" s="20"/>
+      <c r="N70" s="26"/>
       <c r="O70" t="s">
         <v>340</v>
       </c>
-      <c r="R70" s="21" t="s">
+      <c r="R70" s="25" t="s">
         <v>36</v>
       </c>
       <c r="S70" t="s">
         <v>373</v>
       </c>
-      <c r="V70" s="20"/>
+      <c r="V70" s="26"/>
       <c r="W70" t="s">
         <v>404</v>
       </c>
@@ -4543,27 +4543,27 @@
       <c r="A71" s="1">
         <v>28</v>
       </c>
-      <c r="B71" s="27"/>
+      <c r="B71" s="21"/>
       <c r="C71" t="s">
         <v>237</v>
       </c>
-      <c r="F71" s="27"/>
+      <c r="F71" s="21"/>
       <c r="G71" t="s">
         <v>101</v>
       </c>
-      <c r="J71" s="20"/>
+      <c r="J71" s="26"/>
       <c r="K71" t="s">
         <v>307</v>
       </c>
-      <c r="N71" s="20"/>
+      <c r="N71" s="26"/>
       <c r="O71" t="s">
         <v>341</v>
       </c>
-      <c r="R71" s="21"/>
+      <c r="R71" s="25"/>
       <c r="S71" t="s">
         <v>374</v>
       </c>
-      <c r="V71" s="20"/>
+      <c r="V71" s="26"/>
       <c r="W71" t="s">
         <v>405</v>
       </c>
@@ -4572,29 +4572,29 @@
       <c r="A72" s="1">
         <v>29</v>
       </c>
-      <c r="B72" s="27"/>
+      <c r="B72" s="21"/>
       <c r="C72" t="s">
         <v>238</v>
       </c>
-      <c r="F72" s="20" t="s">
+      <c r="F72" s="26" t="s">
         <v>30</v>
       </c>
       <c r="G72" t="s">
         <v>271</v>
       </c>
-      <c r="J72" s="20"/>
+      <c r="J72" s="26"/>
       <c r="K72" t="s">
         <v>308</v>
       </c>
-      <c r="N72" s="20"/>
+      <c r="N72" s="26"/>
       <c r="O72" t="s">
         <v>343</v>
       </c>
-      <c r="R72" s="21"/>
+      <c r="R72" s="25"/>
       <c r="S72" t="s">
         <v>375</v>
       </c>
-      <c r="V72" s="20"/>
+      <c r="V72" s="26"/>
       <c r="W72" t="s">
         <v>406</v>
       </c>
@@ -4603,31 +4603,31 @@
       <c r="A73" s="1">
         <v>30</v>
       </c>
-      <c r="B73" s="20" t="s">
+      <c r="B73" s="26" t="s">
         <v>30</v>
       </c>
       <c r="C73" t="s">
         <v>34</v>
       </c>
-      <c r="F73" s="20"/>
+      <c r="F73" s="26"/>
       <c r="G73" t="s">
         <v>272</v>
       </c>
-      <c r="J73" s="20"/>
+      <c r="J73" s="26"/>
       <c r="K73" t="s">
         <v>309</v>
       </c>
-      <c r="N73" s="21" t="s">
+      <c r="N73" s="25" t="s">
         <v>36</v>
       </c>
       <c r="O73" t="s">
         <v>344</v>
       </c>
-      <c r="R73" s="21"/>
+      <c r="R73" s="25"/>
       <c r="S73" t="s">
         <v>376</v>
       </c>
-      <c r="V73" s="21" t="s">
+      <c r="V73" s="25" t="s">
         <v>36</v>
       </c>
       <c r="W73" t="s">
@@ -4635,144 +4635,171 @@
       </c>
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B74" s="20"/>
+      <c r="B74" s="26"/>
       <c r="C74" t="s">
         <v>239</v>
       </c>
-      <c r="F74" s="20"/>
+      <c r="F74" s="26"/>
       <c r="G74" t="s">
         <v>273</v>
       </c>
-      <c r="J74" s="21" t="s">
+      <c r="J74" s="25" t="s">
         <v>36</v>
       </c>
       <c r="K74" t="s">
         <v>310</v>
       </c>
-      <c r="N74" s="21"/>
+      <c r="N74" s="25"/>
       <c r="O74" t="s">
         <v>345</v>
       </c>
-      <c r="R74" s="21"/>
+      <c r="R74" s="25"/>
       <c r="S74" t="s">
         <v>377</v>
       </c>
-      <c r="V74" s="21"/>
+      <c r="V74" s="25"/>
       <c r="W74" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B75" s="20"/>
+      <c r="B75" s="26"/>
       <c r="C75" t="s">
         <v>240</v>
       </c>
-      <c r="F75" s="20"/>
+      <c r="F75" s="26"/>
       <c r="G75" t="s">
         <v>274</v>
       </c>
-      <c r="J75" s="21"/>
+      <c r="J75" s="25"/>
       <c r="K75" t="s">
         <v>311</v>
       </c>
-      <c r="N75" s="21"/>
+      <c r="N75" s="25"/>
       <c r="O75" t="s">
         <v>346</v>
       </c>
-      <c r="V75" s="21"/>
+      <c r="V75" s="25"/>
       <c r="W75" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B76" s="20"/>
+      <c r="B76" s="26"/>
       <c r="C76" t="s">
         <v>241</v>
       </c>
-      <c r="F76" s="21" t="s">
+      <c r="F76" s="25" t="s">
         <v>36</v>
       </c>
       <c r="G76" t="s">
         <v>276</v>
       </c>
-      <c r="J76" s="21"/>
+      <c r="J76" s="25"/>
       <c r="K76" t="s">
         <v>312</v>
       </c>
-      <c r="N76" s="21"/>
+      <c r="N76" s="25"/>
       <c r="O76" t="s">
         <v>347</v>
       </c>
-      <c r="V76" s="21"/>
+      <c r="V76" s="25"/>
       <c r="W76" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B77" s="21" t="s">
+      <c r="B77" s="25" t="s">
         <v>36</v>
       </c>
       <c r="C77" t="s">
         <v>109</v>
       </c>
-      <c r="F77" s="21"/>
+      <c r="F77" s="25"/>
       <c r="G77" t="s">
         <v>277</v>
       </c>
-      <c r="J77" s="21"/>
+      <c r="J77" s="25"/>
       <c r="K77" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B78" s="21"/>
+      <c r="B78" s="25"/>
       <c r="C78" t="s">
         <v>242</v>
       </c>
-      <c r="F78" s="21"/>
+      <c r="F78" s="25"/>
       <c r="G78" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B79" s="21"/>
+      <c r="B79" s="25"/>
       <c r="C79" t="s">
         <v>243</v>
       </c>
-      <c r="F79" s="21"/>
+      <c r="F79" s="25"/>
       <c r="G79" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B80" s="21"/>
+      <c r="B80" s="25"/>
       <c r="C80" t="s">
         <v>244</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="85">
-    <mergeCell ref="V25:V27"/>
-    <mergeCell ref="V28:V31"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="R4:R9"/>
-    <mergeCell ref="R10:R19"/>
-    <mergeCell ref="V2:V5"/>
-    <mergeCell ref="V6:V13"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="N4:N10"/>
-    <mergeCell ref="N11:N16"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="V14:V24"/>
-    <mergeCell ref="F63:F67"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="F10:F15"/>
-    <mergeCell ref="J20:J22"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="J4:J9"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="J10:J16"/>
+    <mergeCell ref="V68:V72"/>
+    <mergeCell ref="V73:V76"/>
+    <mergeCell ref="R66:R69"/>
+    <mergeCell ref="R70:R74"/>
+    <mergeCell ref="R31:R34"/>
+    <mergeCell ref="V43:Y43"/>
+    <mergeCell ref="V44:V46"/>
+    <mergeCell ref="V47:V51"/>
+    <mergeCell ref="V52:V59"/>
+    <mergeCell ref="V60:V63"/>
+    <mergeCell ref="V64:V67"/>
+    <mergeCell ref="V37:V40"/>
+    <mergeCell ref="R61:R65"/>
+    <mergeCell ref="V32:V36"/>
+    <mergeCell ref="R48:R52"/>
+    <mergeCell ref="R53:R59"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="R44:R47"/>
+    <mergeCell ref="J27:J30"/>
+    <mergeCell ref="N24:N29"/>
+    <mergeCell ref="N30:N33"/>
+    <mergeCell ref="R26:R30"/>
+    <mergeCell ref="J44:J46"/>
+    <mergeCell ref="J47:J49"/>
+    <mergeCell ref="J23:J26"/>
+    <mergeCell ref="R22:R25"/>
+    <mergeCell ref="N19:N23"/>
+    <mergeCell ref="R20:R21"/>
+    <mergeCell ref="F72:F75"/>
+    <mergeCell ref="F68:F71"/>
+    <mergeCell ref="B67:B72"/>
+    <mergeCell ref="B73:B76"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="F56:F62"/>
+    <mergeCell ref="B51:B61"/>
+    <mergeCell ref="F47:F55"/>
+    <mergeCell ref="F27:F31"/>
     <mergeCell ref="B77:B80"/>
     <mergeCell ref="F76:F79"/>
     <mergeCell ref="J70:J73"/>
@@ -4789,54 +4816,27 @@
     <mergeCell ref="J63:J69"/>
     <mergeCell ref="B44:B46"/>
     <mergeCell ref="B62:B66"/>
-    <mergeCell ref="F72:F75"/>
-    <mergeCell ref="F68:F71"/>
-    <mergeCell ref="B67:B72"/>
-    <mergeCell ref="B73:B76"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="F44:F46"/>
-    <mergeCell ref="F56:F62"/>
-    <mergeCell ref="B51:B61"/>
-    <mergeCell ref="F47:F55"/>
-    <mergeCell ref="F27:F31"/>
-    <mergeCell ref="R44:R47"/>
-    <mergeCell ref="J27:J30"/>
-    <mergeCell ref="N24:N29"/>
-    <mergeCell ref="N30:N33"/>
-    <mergeCell ref="R26:R30"/>
-    <mergeCell ref="J44:J46"/>
-    <mergeCell ref="J47:J49"/>
-    <mergeCell ref="J23:J26"/>
-    <mergeCell ref="R22:R25"/>
-    <mergeCell ref="N19:N23"/>
-    <mergeCell ref="R20:R21"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="V68:V72"/>
-    <mergeCell ref="V73:V76"/>
-    <mergeCell ref="R66:R69"/>
-    <mergeCell ref="R70:R74"/>
-    <mergeCell ref="R31:R34"/>
-    <mergeCell ref="V43:Y43"/>
-    <mergeCell ref="V44:V46"/>
-    <mergeCell ref="V47:V51"/>
-    <mergeCell ref="V52:V59"/>
-    <mergeCell ref="V60:V63"/>
-    <mergeCell ref="V64:V67"/>
-    <mergeCell ref="V37:V40"/>
-    <mergeCell ref="R61:R65"/>
-    <mergeCell ref="V32:V36"/>
-    <mergeCell ref="R48:R52"/>
-    <mergeCell ref="R53:R59"/>
+    <mergeCell ref="F63:F67"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="F10:F15"/>
+    <mergeCell ref="J20:J22"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="J4:J9"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="J10:J16"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="N4:N10"/>
+    <mergeCell ref="N11:N16"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="V14:V24"/>
+    <mergeCell ref="V25:V27"/>
+    <mergeCell ref="V28:V31"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="R4:R9"/>
+    <mergeCell ref="R10:R19"/>
+    <mergeCell ref="V2:V5"/>
+    <mergeCell ref="V6:V13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4846,8 +4846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4868,36 +4868,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="E1" s="22" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="E1" s="28" t="s">
         <v>412</v>
       </c>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
       <c r="J1" t="s">
         <v>411</v>
       </c>
-      <c r="O1" s="22" t="s">
+      <c r="O1" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="T1" s="22" t="s">
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="T1" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="X1" s="22" t="s">
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="X1" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -4910,7 +4910,7 @@
         <v>555</v>
       </c>
       <c r="F2" t="s">
-        <v>508</v>
+        <v>492</v>
       </c>
       <c r="J2" t="s">
         <v>413</v>
@@ -4945,13 +4945,13 @@
         <v>414</v>
       </c>
       <c r="F3" t="s">
-        <v>538</v>
+        <v>487</v>
       </c>
       <c r="J3" t="s">
         <v>596</v>
       </c>
       <c r="K3" t="s">
-        <v>492</v>
+        <v>537</v>
       </c>
       <c r="O3" t="s">
         <v>641</v>
@@ -4973,6 +4973,9 @@
       <c r="A4" t="s">
         <v>556</v>
       </c>
+      <c r="B4" t="s">
+        <v>489</v>
+      </c>
       <c r="E4" t="s">
         <v>591</v>
       </c>
@@ -4983,7 +4986,7 @@
         <v>611</v>
       </c>
       <c r="K4" t="s">
-        <v>537</v>
+        <v>508</v>
       </c>
       <c r="O4" t="s">
         <v>642</v>
@@ -5005,6 +5008,9 @@
       <c r="A5" t="s">
         <v>592</v>
       </c>
+      <c r="B5" t="s">
+        <v>490</v>
+      </c>
       <c r="E5" t="s">
         <v>621</v>
       </c>
@@ -5015,7 +5021,7 @@
         <v>568</v>
       </c>
       <c r="K5" t="s">
-        <v>487</v>
+        <v>538</v>
       </c>
       <c r="O5" t="s">
         <v>643</v>
@@ -5037,18 +5043,12 @@
       <c r="A6" t="s">
         <v>573</v>
       </c>
-      <c r="B6" t="s">
-        <v>489</v>
-      </c>
       <c r="E6" t="s">
         <v>606</v>
       </c>
       <c r="K6" t="s">
         <v>503</v>
       </c>
-      <c r="L6" t="s">
-        <v>498</v>
-      </c>
       <c r="P6" t="s">
         <v>521</v>
       </c>
@@ -5063,17 +5063,11 @@
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="B7" t="s">
-        <v>490</v>
-      </c>
       <c r="E7" t="s">
         <v>622</v>
       </c>
       <c r="K7" t="s">
         <v>528</v>
-      </c>
-      <c r="L7" t="s">
-        <v>488</v>
       </c>
       <c r="T7" t="s">
         <v>616</v>
@@ -5091,42 +5085,50 @@
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="K9" t="s">
+        <v>498</v>
+      </c>
       <c r="T9" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="K10" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="K11" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="28" t="s">
         <v>212</v>
       </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
       <c r="E17" t="s">
         <v>420</v>
       </c>
-      <c r="I17" s="22" t="s">
+      <c r="I17" s="28" t="s">
         <v>421</v>
       </c>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="N17" s="22" t="s">
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="N17" s="28" t="s">
         <v>314</v>
       </c>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="22"/>
-      <c r="S17" s="22" t="s">
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="28"/>
+      <c r="S17" s="28" t="s">
         <v>315</v>
       </c>
-      <c r="T17" s="22"/>
-      <c r="U17" s="22"/>
-      <c r="V17" s="22"/>
+      <c r="T17" s="28"/>
+      <c r="U17" s="28"/>
+      <c r="V17" s="28"/>
       <c r="X17" t="s">
         <v>316</v>
       </c>
@@ -5661,7 +5663,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K154"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A138" workbookViewId="0">
       <selection activeCell="C146" sqref="C146"/>
     </sheetView>
   </sheetViews>

--- a/OffSeason.xlsx
+++ b/OffSeason.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Rosters" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="691">
   <si>
     <t>Chubber for Chubb - John Olson</t>
   </si>
@@ -1934,18 +1934,9 @@
     <t>Ben via Andrew</t>
   </si>
   <si>
-    <t>Ben via Patrick</t>
-  </si>
-  <si>
     <t>Patrick via MikeR</t>
   </si>
   <si>
-    <t>Vanja via John via AdamW</t>
-  </si>
-  <si>
-    <t>Vanja via John via Alan</t>
-  </si>
-  <si>
     <t>Cameron via Vanja via Zach</t>
   </si>
   <si>
@@ -2073,6 +2064,42 @@
   </si>
   <si>
     <t>2021 2 John</t>
+  </si>
+  <si>
+    <t>2021 4th</t>
+  </si>
+  <si>
+    <t>2021 1 (Alan)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020 2.8 </t>
+  </si>
+  <si>
+    <t>John via Vanja via Ben via Patrick</t>
+  </si>
+  <si>
+    <t>Vanja via John via Vanja via John via AdamW</t>
+  </si>
+  <si>
+    <t>Ben via Vanja via John via Alan</t>
+  </si>
+  <si>
+    <t>2021 1(John)</t>
+  </si>
+  <si>
+    <t>2021 1 (MikeW)</t>
+  </si>
+  <si>
+    <t>2021 2nd John</t>
+  </si>
+  <si>
+    <t>2021 3rd (Mike)</t>
+  </si>
+  <si>
+    <t>Start 2021 6</t>
+  </si>
+  <si>
+    <t>start 2021 6</t>
   </si>
 </sst>
 </file>
@@ -2304,11 +2331,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2316,20 +2349,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2614,8 +2641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:C14"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2630,11 +2657,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
       <c r="F1" t="s">
         <v>42</v>
       </c>
@@ -2655,37 +2682,37 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="24" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="24" t="s">
         <v>1</v>
       </c>
       <c r="G2" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="24" t="s">
         <v>1</v>
       </c>
       <c r="K2" t="s">
         <v>77</v>
       </c>
-      <c r="N2" s="22" t="s">
+      <c r="N2" s="24" t="s">
         <v>1</v>
       </c>
       <c r="O2" t="s">
         <v>112</v>
       </c>
-      <c r="R2" s="22" t="s">
+      <c r="R2" s="24" t="s">
         <v>1</v>
       </c>
       <c r="S2" t="s">
         <v>144</v>
       </c>
-      <c r="V2" s="22" t="s">
+      <c r="V2" s="24" t="s">
         <v>1</v>
       </c>
       <c r="W2" t="s">
@@ -2696,27 +2723,27 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="22"/>
+      <c r="B3" s="24"/>
       <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="22"/>
+      <c r="F3" s="24"/>
       <c r="G3" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="22"/>
+      <c r="J3" s="24"/>
       <c r="K3" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="22"/>
+      <c r="N3" s="24"/>
       <c r="O3" t="s">
         <v>104</v>
       </c>
-      <c r="R3" s="22"/>
+      <c r="R3" s="24"/>
       <c r="S3" t="s">
         <v>145</v>
       </c>
-      <c r="V3" s="22"/>
+      <c r="V3" s="24"/>
       <c r="W3" t="s">
         <v>179</v>
       </c>
@@ -2725,35 +2752,35 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="25" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="22"/>
+      <c r="F4" s="24"/>
       <c r="G4" t="s">
         <v>46</v>
       </c>
-      <c r="J4" s="23" t="s">
+      <c r="J4" s="25" t="s">
         <v>5</v>
       </c>
       <c r="K4" t="s">
         <v>248</v>
       </c>
-      <c r="N4" s="23" t="s">
+      <c r="N4" s="25" t="s">
         <v>5</v>
       </c>
       <c r="O4" t="s">
         <v>113</v>
       </c>
-      <c r="R4" s="23" t="s">
+      <c r="R4" s="25" t="s">
         <v>5</v>
       </c>
       <c r="S4" t="s">
         <v>146</v>
       </c>
-      <c r="V4" s="22"/>
+      <c r="V4" s="24"/>
       <c r="W4" t="s">
         <v>180</v>
       </c>
@@ -2762,27 +2789,27 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="23"/>
+      <c r="B5" s="25"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="22"/>
+      <c r="F5" s="24"/>
       <c r="G5" t="s">
         <v>47</v>
       </c>
-      <c r="J5" s="23"/>
+      <c r="J5" s="25"/>
       <c r="K5" t="s">
         <v>81</v>
       </c>
-      <c r="N5" s="23"/>
+      <c r="N5" s="25"/>
       <c r="O5" t="s">
         <v>114</v>
       </c>
-      <c r="R5" s="23"/>
+      <c r="R5" s="25"/>
       <c r="S5" t="s">
         <v>147</v>
       </c>
-      <c r="V5" s="22"/>
+      <c r="V5" s="24"/>
       <c r="W5" t="s">
         <v>181</v>
       </c>
@@ -2791,29 +2818,29 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="23"/>
+      <c r="B6" s="25"/>
       <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="25" t="s">
         <v>5</v>
       </c>
       <c r="G6" t="s">
         <v>215</v>
       </c>
-      <c r="J6" s="23"/>
+      <c r="J6" s="25"/>
       <c r="K6" t="s">
         <v>82</v>
       </c>
-      <c r="N6" s="23"/>
+      <c r="N6" s="25"/>
       <c r="O6" t="s">
         <v>115</v>
       </c>
-      <c r="R6" s="23"/>
+      <c r="R6" s="25"/>
       <c r="S6" t="s">
         <v>148</v>
       </c>
-      <c r="V6" s="23" t="s">
+      <c r="V6" s="25" t="s">
         <v>5</v>
       </c>
       <c r="W6" t="s">
@@ -2824,27 +2851,27 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="23"/>
+      <c r="B7" s="25"/>
       <c r="C7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="23"/>
+      <c r="F7" s="25"/>
       <c r="G7" t="s">
         <v>52</v>
       </c>
-      <c r="J7" s="23"/>
+      <c r="J7" s="25"/>
       <c r="K7" t="s">
         <v>84</v>
       </c>
-      <c r="N7" s="23"/>
+      <c r="N7" s="25"/>
       <c r="O7" t="s">
         <v>116</v>
       </c>
-      <c r="R7" s="23"/>
+      <c r="R7" s="25"/>
       <c r="S7" t="s">
         <v>149</v>
       </c>
-      <c r="V7" s="23"/>
+      <c r="V7" s="25"/>
       <c r="W7" t="s">
         <v>250</v>
       </c>
@@ -2853,27 +2880,27 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="23"/>
+      <c r="B8" s="25"/>
       <c r="C8" t="s">
         <v>80</v>
       </c>
-      <c r="F8" s="23"/>
+      <c r="F8" s="25"/>
       <c r="G8" t="s">
         <v>50</v>
       </c>
-      <c r="J8" s="23"/>
+      <c r="J8" s="25"/>
       <c r="K8" t="s">
-        <v>48</v>
-      </c>
-      <c r="N8" s="23"/>
+        <v>352</v>
+      </c>
+      <c r="N8" s="25"/>
       <c r="O8" t="s">
         <v>117</v>
       </c>
-      <c r="R8" s="23"/>
+      <c r="R8" s="25"/>
       <c r="S8" t="s">
         <v>150</v>
       </c>
-      <c r="V8" s="23"/>
+      <c r="V8" s="25"/>
       <c r="W8" t="s">
         <v>184</v>
       </c>
@@ -2882,27 +2909,27 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="23"/>
+      <c r="B9" s="25"/>
       <c r="C9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="23"/>
+      <c r="F9" s="25"/>
       <c r="G9" t="s">
         <v>49</v>
       </c>
-      <c r="J9" s="23"/>
+      <c r="J9" s="25"/>
       <c r="K9" t="s">
         <v>85</v>
       </c>
-      <c r="N9" s="23"/>
+      <c r="N9" s="25"/>
       <c r="O9" t="s">
         <v>118</v>
       </c>
-      <c r="R9" s="23"/>
+      <c r="R9" s="25"/>
       <c r="S9" t="s">
         <v>151</v>
       </c>
-      <c r="V9" s="23"/>
+      <c r="V9" s="25"/>
       <c r="W9" t="s">
         <v>252</v>
       </c>
@@ -2911,35 +2938,35 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="20" t="s">
         <v>12</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="20" t="s">
         <v>12</v>
       </c>
       <c r="G10" t="s">
         <v>54</v>
       </c>
-      <c r="J10" s="24" t="s">
+      <c r="J10" s="20" t="s">
         <v>12</v>
       </c>
       <c r="K10" t="s">
         <v>15</v>
       </c>
-      <c r="N10" s="23"/>
+      <c r="N10" s="25"/>
       <c r="O10" t="s">
         <v>119</v>
       </c>
-      <c r="R10" s="24" t="s">
+      <c r="R10" s="20" t="s">
         <v>12</v>
       </c>
       <c r="S10" t="s">
         <v>152</v>
       </c>
-      <c r="V10" s="23"/>
+      <c r="V10" s="25"/>
       <c r="W10" t="s">
         <v>186</v>
       </c>
@@ -2948,29 +2975,29 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="24"/>
+      <c r="B11" s="20"/>
       <c r="C11" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="24"/>
+      <c r="F11" s="20"/>
       <c r="G11" t="s">
         <v>56</v>
       </c>
-      <c r="J11" s="24"/>
+      <c r="J11" s="20"/>
       <c r="K11" t="s">
         <v>188</v>
       </c>
-      <c r="N11" s="24" t="s">
+      <c r="N11" s="20" t="s">
         <v>12</v>
       </c>
       <c r="O11" t="s">
         <v>120</v>
       </c>
-      <c r="R11" s="24"/>
+      <c r="R11" s="20"/>
       <c r="S11" t="s">
         <v>153</v>
       </c>
-      <c r="V11" s="23"/>
+      <c r="V11" s="25"/>
       <c r="W11" t="s">
         <v>187</v>
       </c>
@@ -2979,27 +3006,27 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="24"/>
+      <c r="B12" s="20"/>
       <c r="C12" t="s">
         <v>86</v>
       </c>
-      <c r="F12" s="24"/>
+      <c r="F12" s="20"/>
       <c r="G12" t="s">
         <v>58</v>
       </c>
-      <c r="J12" s="24"/>
+      <c r="J12" s="20"/>
       <c r="K12" t="s">
         <v>17</v>
       </c>
-      <c r="N12" s="24"/>
+      <c r="N12" s="20"/>
       <c r="O12" t="s">
         <v>121</v>
       </c>
-      <c r="R12" s="24"/>
+      <c r="R12" s="20"/>
       <c r="S12" t="s">
         <v>154</v>
       </c>
-      <c r="V12" s="23"/>
+      <c r="V12" s="25"/>
       <c r="W12" t="s">
         <v>53</v>
       </c>
@@ -3008,27 +3035,27 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="24"/>
+      <c r="B13" s="20"/>
       <c r="C13" t="s">
         <v>89</v>
       </c>
-      <c r="F13" s="24"/>
+      <c r="F13" s="20"/>
       <c r="G13" t="s">
         <v>59</v>
       </c>
-      <c r="J13" s="24"/>
+      <c r="J13" s="20"/>
       <c r="K13" t="s">
         <v>88</v>
       </c>
-      <c r="N13" s="24"/>
+      <c r="N13" s="20"/>
       <c r="O13" t="s">
         <v>122</v>
       </c>
-      <c r="R13" s="24"/>
+      <c r="R13" s="20"/>
       <c r="S13" t="s">
         <v>155</v>
       </c>
-      <c r="V13" s="23"/>
+      <c r="V13" s="25"/>
       <c r="W13" t="s">
         <v>10</v>
       </c>
@@ -3037,27 +3064,27 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="24"/>
+      <c r="B14" s="20"/>
       <c r="C14" t="s">
         <v>87</v>
       </c>
-      <c r="F14" s="24"/>
+      <c r="F14" s="20"/>
       <c r="G14" t="s">
         <v>226</v>
       </c>
-      <c r="J14" s="24"/>
+      <c r="J14" s="20"/>
       <c r="K14" t="s">
         <v>16</v>
       </c>
-      <c r="N14" s="24"/>
+      <c r="N14" s="20"/>
       <c r="O14" t="s">
         <v>123</v>
       </c>
-      <c r="R14" s="24"/>
+      <c r="R14" s="20"/>
       <c r="S14" t="s">
         <v>156</v>
       </c>
-      <c r="V14" s="24" t="s">
+      <c r="V14" s="20" t="s">
         <v>12</v>
       </c>
       <c r="W14" t="s">
@@ -3068,29 +3095,29 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="26" t="s">
         <v>18</v>
       </c>
       <c r="C15" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="24"/>
+      <c r="F15" s="20"/>
       <c r="G15" t="s">
         <v>225</v>
       </c>
-      <c r="J15" s="24"/>
+      <c r="J15" s="20"/>
       <c r="K15" t="s">
         <v>23</v>
       </c>
-      <c r="N15" s="24"/>
+      <c r="N15" s="20"/>
       <c r="O15" t="s">
         <v>124</v>
       </c>
-      <c r="R15" s="24"/>
+      <c r="R15" s="20"/>
       <c r="S15" t="s">
         <v>157</v>
       </c>
-      <c r="V15" s="24"/>
+      <c r="V15" s="20"/>
       <c r="W15" t="s">
         <v>189</v>
       </c>
@@ -3099,29 +3126,29 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="20"/>
+      <c r="B16" s="26"/>
       <c r="C16" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="F16" s="26" t="s">
         <v>18</v>
       </c>
       <c r="G16" t="s">
         <v>60</v>
       </c>
-      <c r="J16" s="24"/>
+      <c r="J16" s="20"/>
       <c r="K16" t="s">
         <v>259</v>
       </c>
-      <c r="N16" s="24"/>
+      <c r="N16" s="20"/>
       <c r="O16" t="s">
         <v>125</v>
       </c>
-      <c r="R16" s="24"/>
+      <c r="R16" s="20"/>
       <c r="S16" t="s">
         <v>158</v>
       </c>
-      <c r="V16" s="24"/>
+      <c r="V16" s="20"/>
       <c r="W16" t="s">
         <v>190</v>
       </c>
@@ -3130,31 +3157,31 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="20"/>
+      <c r="B17" s="26"/>
       <c r="C17" t="s">
         <v>96</v>
       </c>
-      <c r="F17" s="20"/>
+      <c r="F17" s="26"/>
       <c r="G17" t="s">
         <v>62</v>
       </c>
-      <c r="J17" s="20" t="s">
+      <c r="J17" s="26" t="s">
         <v>18</v>
       </c>
       <c r="K17" t="s">
         <v>95</v>
       </c>
-      <c r="N17" s="20" t="s">
+      <c r="N17" s="26" t="s">
         <v>18</v>
       </c>
       <c r="O17" t="s">
         <v>126</v>
       </c>
-      <c r="R17" s="24"/>
+      <c r="R17" s="20"/>
       <c r="S17" t="s">
         <v>159</v>
       </c>
-      <c r="V17" s="24"/>
+      <c r="V17" s="20"/>
       <c r="W17" t="s">
         <v>191</v>
       </c>
@@ -3163,29 +3190,29 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="27" t="s">
         <v>24</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="20"/>
+      <c r="F18" s="26"/>
       <c r="G18" t="s">
         <v>63</v>
       </c>
-      <c r="J18" s="20"/>
+      <c r="J18" s="26"/>
       <c r="K18" t="s">
         <v>21</v>
       </c>
-      <c r="N18" s="20"/>
+      <c r="N18" s="26"/>
       <c r="O18" t="s">
         <v>127</v>
       </c>
-      <c r="R18" s="24"/>
+      <c r="R18" s="20"/>
       <c r="S18" t="s">
         <v>160</v>
       </c>
-      <c r="V18" s="24"/>
+      <c r="V18" s="20"/>
       <c r="W18" t="s">
         <v>91</v>
       </c>
@@ -3194,31 +3221,31 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="21"/>
+      <c r="B19" s="27"/>
       <c r="C19" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="21" t="s">
+      <c r="F19" s="27" t="s">
         <v>24</v>
       </c>
       <c r="G19" t="s">
         <v>64</v>
       </c>
-      <c r="J19" s="20"/>
+      <c r="J19" s="26"/>
       <c r="K19" t="s">
         <v>98</v>
       </c>
-      <c r="N19" s="21" t="s">
+      <c r="N19" s="27" t="s">
         <v>24</v>
       </c>
       <c r="O19" t="s">
         <v>128</v>
       </c>
-      <c r="R19" s="24"/>
+      <c r="R19" s="20"/>
       <c r="S19" t="s">
         <v>161</v>
       </c>
-      <c r="V19" s="24"/>
+      <c r="V19" s="20"/>
       <c r="W19" t="s">
         <v>261</v>
       </c>
@@ -3227,31 +3254,31 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="21"/>
+      <c r="B20" s="27"/>
       <c r="C20" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="21"/>
+      <c r="F20" s="27"/>
       <c r="G20" t="s">
         <v>65</v>
       </c>
-      <c r="J20" s="21" t="s">
+      <c r="J20" s="27" t="s">
         <v>24</v>
       </c>
       <c r="K20" t="s">
         <v>99</v>
       </c>
-      <c r="N20" s="21"/>
+      <c r="N20" s="27"/>
       <c r="O20" t="s">
         <v>129</v>
       </c>
-      <c r="R20" s="20" t="s">
+      <c r="R20" s="26" t="s">
         <v>18</v>
       </c>
       <c r="S20" t="s">
         <v>162</v>
       </c>
-      <c r="V20" s="24"/>
+      <c r="V20" s="20"/>
       <c r="W20" t="s">
         <v>94</v>
       </c>
@@ -3260,406 +3287,400 @@
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="21"/>
+      <c r="B21" s="27"/>
       <c r="C21" t="s">
         <v>100</v>
       </c>
-      <c r="F21" s="21"/>
+      <c r="F21" s="27"/>
       <c r="G21" t="s">
         <v>66</v>
       </c>
-      <c r="J21" s="21"/>
+      <c r="J21" s="27"/>
       <c r="K21" t="s">
         <v>28</v>
       </c>
-      <c r="N21" s="21"/>
+      <c r="N21" s="27"/>
       <c r="O21" t="s">
         <v>130</v>
       </c>
-      <c r="R21" s="20"/>
+      <c r="R21" s="26"/>
       <c r="S21" t="s">
         <v>163</v>
       </c>
-      <c r="V21" s="24"/>
+      <c r="V21" s="20"/>
       <c r="W21" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="21" t="s">
         <v>30</v>
       </c>
       <c r="C22" t="s">
         <v>31</v>
       </c>
-      <c r="F22" s="21"/>
+      <c r="F22" s="27"/>
       <c r="G22" t="s">
         <v>67</v>
       </c>
-      <c r="J22" s="21"/>
+      <c r="J22" s="27"/>
       <c r="K22" t="s">
         <v>29</v>
       </c>
-      <c r="N22" s="21"/>
+      <c r="N22" s="27"/>
       <c r="O22" t="s">
         <v>131</v>
       </c>
-      <c r="R22" s="21" t="s">
+      <c r="R22" s="27" t="s">
         <v>24</v>
       </c>
       <c r="S22" t="s">
         <v>164</v>
       </c>
-      <c r="V22" s="24"/>
+      <c r="V22" s="20"/>
       <c r="W22" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="26"/>
+      <c r="B23" s="21"/>
       <c r="C23" t="s">
         <v>32</v>
       </c>
-      <c r="F23" s="26" t="s">
+      <c r="F23" s="21" t="s">
         <v>30</v>
       </c>
       <c r="G23" t="s">
         <v>69</v>
       </c>
-      <c r="J23" s="26" t="s">
+      <c r="J23" s="21" t="s">
         <v>30</v>
       </c>
       <c r="K23" t="s">
         <v>103</v>
       </c>
-      <c r="N23" s="21"/>
+      <c r="N23" s="27"/>
       <c r="O23" t="s">
         <v>132</v>
       </c>
-      <c r="R23" s="21"/>
+      <c r="R23" s="27"/>
       <c r="S23" t="s">
         <v>165</v>
       </c>
-      <c r="V23" s="24"/>
+      <c r="V23" s="20"/>
       <c r="W23" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="26"/>
+      <c r="B24" s="21"/>
       <c r="C24" t="s">
         <v>33</v>
       </c>
-      <c r="F24" s="26"/>
+      <c r="F24" s="21"/>
       <c r="G24" t="s">
         <v>70</v>
       </c>
-      <c r="J24" s="26"/>
+      <c r="J24" s="21"/>
       <c r="K24" t="s">
         <v>104</v>
       </c>
-      <c r="N24" s="26" t="s">
+      <c r="N24" s="21" t="s">
         <v>30</v>
       </c>
       <c r="O24" t="s">
         <v>133</v>
       </c>
-      <c r="R24" s="21"/>
+      <c r="R24" s="27"/>
       <c r="S24" t="s">
         <v>166</v>
       </c>
-      <c r="V24" s="24"/>
+      <c r="V24" s="26" t="s">
+        <v>18</v>
+      </c>
       <c r="W24" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="25" t="s">
-        <v>36</v>
-      </c>
+      <c r="B25" s="21"/>
       <c r="C25" t="s">
-        <v>37</v>
-      </c>
-      <c r="F25" s="26"/>
+        <v>106</v>
+      </c>
+      <c r="F25" s="21"/>
       <c r="G25" t="s">
         <v>71</v>
       </c>
-      <c r="J25" s="26"/>
+      <c r="J25" s="21"/>
       <c r="K25" t="s">
         <v>105</v>
       </c>
-      <c r="N25" s="26"/>
+      <c r="N25" s="21"/>
       <c r="O25" t="s">
         <v>134</v>
       </c>
-      <c r="R25" s="21"/>
+      <c r="R25" s="27"/>
       <c r="S25" t="s">
         <v>167</v>
       </c>
-      <c r="V25" s="20" t="s">
-        <v>18</v>
-      </c>
+      <c r="V25" s="26"/>
       <c r="W25" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="25"/>
+      <c r="B26" s="22" t="s">
+        <v>36</v>
+      </c>
       <c r="C26" t="s">
-        <v>38</v>
-      </c>
-      <c r="F26" s="26"/>
+        <v>37</v>
+      </c>
+      <c r="F26" s="21"/>
       <c r="G26" t="s">
         <v>68</v>
       </c>
-      <c r="J26" s="26"/>
+      <c r="J26" s="22" t="s">
+        <v>36</v>
+      </c>
       <c r="K26" t="s">
-        <v>106</v>
-      </c>
-      <c r="N26" s="26"/>
+        <v>40</v>
+      </c>
+      <c r="N26" s="21"/>
       <c r="O26" t="s">
         <v>135</v>
       </c>
-      <c r="R26" s="26" t="s">
+      <c r="R26" s="21" t="s">
         <v>30</v>
       </c>
       <c r="S26" t="s">
         <v>168</v>
       </c>
-      <c r="V26" s="20"/>
+      <c r="V26" s="26"/>
       <c r="W26" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="25"/>
+      <c r="B27" s="22"/>
       <c r="C27" t="s">
-        <v>39</v>
-      </c>
-      <c r="F27" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" s="22" t="s">
         <v>36</v>
       </c>
       <c r="G27" t="s">
         <v>72</v>
       </c>
-      <c r="J27" s="25" t="s">
-        <v>36</v>
-      </c>
+      <c r="J27" s="22"/>
       <c r="K27" t="s">
-        <v>40</v>
-      </c>
-      <c r="N27" s="26"/>
+        <v>108</v>
+      </c>
+      <c r="N27" s="21"/>
       <c r="O27" t="s">
         <v>136</v>
       </c>
-      <c r="R27" s="26"/>
+      <c r="R27" s="21"/>
       <c r="S27" t="s">
         <v>169</v>
       </c>
-      <c r="V27" s="20"/>
+      <c r="V27" s="27" t="s">
+        <v>24</v>
+      </c>
       <c r="W27" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="25"/>
+      <c r="B28" s="22"/>
       <c r="C28" t="s">
-        <v>107</v>
-      </c>
-      <c r="F28" s="25"/>
+        <v>39</v>
+      </c>
+      <c r="F28" s="22"/>
       <c r="G28" t="s">
         <v>73</v>
       </c>
-      <c r="J28" s="25"/>
+      <c r="J28" s="22"/>
       <c r="K28" t="s">
-        <v>108</v>
-      </c>
-      <c r="N28" s="26"/>
+        <v>110</v>
+      </c>
+      <c r="N28" s="21"/>
       <c r="O28" t="s">
         <v>137</v>
       </c>
-      <c r="R28" s="26"/>
+      <c r="R28" s="21"/>
       <c r="S28" t="s">
         <v>170</v>
       </c>
-      <c r="V28" s="21" t="s">
-        <v>24</v>
-      </c>
+      <c r="V28" s="27"/>
       <c r="W28" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="F29" s="25"/>
+      <c r="B29" s="22"/>
+      <c r="C29" t="s">
+        <v>107</v>
+      </c>
+      <c r="F29" s="22"/>
       <c r="G29" t="s">
         <v>74</v>
       </c>
-      <c r="J29" s="25"/>
+      <c r="J29" s="22"/>
       <c r="K29" t="s">
-        <v>110</v>
-      </c>
-      <c r="N29" s="26"/>
+        <v>41</v>
+      </c>
+      <c r="N29" s="21"/>
       <c r="O29" t="s">
         <v>138</v>
       </c>
-      <c r="R29" s="26"/>
+      <c r="R29" s="21"/>
       <c r="S29" t="s">
         <v>171</v>
       </c>
-      <c r="V29" s="21"/>
+      <c r="V29" s="27"/>
       <c r="W29" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="F30" s="25"/>
+      <c r="F30" s="22"/>
       <c r="G30" t="s">
         <v>75</v>
       </c>
-      <c r="J30" s="25"/>
-      <c r="K30" t="s">
-        <v>41</v>
-      </c>
-      <c r="N30" s="25" t="s">
+      <c r="N30" s="22" t="s">
         <v>36</v>
       </c>
       <c r="O30" t="s">
         <v>139</v>
       </c>
-      <c r="R30" s="26"/>
+      <c r="R30" s="21"/>
       <c r="S30" t="s">
         <v>172</v>
       </c>
-      <c r="V30" s="21"/>
+      <c r="V30" s="27"/>
       <c r="W30" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="F31" s="25"/>
+      <c r="F31" s="22"/>
       <c r="G31" t="s">
         <v>275</v>
       </c>
-      <c r="N31" s="25"/>
+      <c r="N31" s="22"/>
       <c r="O31" t="s">
         <v>140</v>
       </c>
-      <c r="R31" s="25" t="s">
+      <c r="R31" s="22" t="s">
         <v>36</v>
       </c>
       <c r="S31" t="s">
         <v>173</v>
       </c>
-      <c r="V31" s="21"/>
+      <c r="V31" s="21" t="s">
+        <v>30</v>
+      </c>
       <c r="W31" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="N32" s="25"/>
+      <c r="N32" s="22"/>
       <c r="O32" t="s">
         <v>141</v>
       </c>
-      <c r="R32" s="25"/>
+      <c r="R32" s="22"/>
       <c r="S32" t="s">
         <v>174</v>
       </c>
-      <c r="V32" s="26" t="s">
-        <v>30</v>
-      </c>
+      <c r="V32" s="21"/>
       <c r="W32" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="N33" s="25"/>
+      <c r="N33" s="22"/>
       <c r="O33" t="s">
         <v>142</v>
       </c>
-      <c r="R33" s="25"/>
+      <c r="R33" s="22"/>
       <c r="S33" t="s">
         <v>175</v>
       </c>
-      <c r="V33" s="26"/>
+      <c r="V33" s="21"/>
       <c r="W33" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="R34" s="25"/>
+      <c r="R34" s="22"/>
       <c r="S34" t="s">
         <v>176</v>
       </c>
-      <c r="V34" s="26"/>
+      <c r="V34" s="21"/>
       <c r="W34" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="V35" s="26"/>
+      <c r="V35" s="21"/>
       <c r="W35" t="s">
-        <v>207</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="V36" s="26"/>
+      <c r="V36" s="22" t="s">
+        <v>36</v>
+      </c>
       <c r="W36" t="s">
-        <v>35</v>
+        <v>208</v>
       </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="V37" s="25" t="s">
-        <v>36</v>
-      </c>
+      <c r="V37" s="22"/>
       <c r="W37" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="V38" s="25"/>
+      <c r="V38" s="22"/>
       <c r="W38" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="V39" s="25"/>
+      <c r="V39" s="22"/>
       <c r="W39" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="V40" s="25"/>
-      <c r="W40" t="s">
         <v>211</v>
       </c>
     </row>
@@ -3679,48 +3700,48 @@
       <c r="R43" t="s">
         <v>315</v>
       </c>
-      <c r="V43" s="28" t="s">
+      <c r="V43" s="23" t="s">
         <v>316</v>
       </c>
-      <c r="W43" s="28"/>
-      <c r="X43" s="28"/>
-      <c r="Y43" s="28"/>
+      <c r="W43" s="23"/>
+      <c r="X43" s="23"/>
+      <c r="Y43" s="23"/>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>1</v>
       </c>
-      <c r="B44" s="22" t="s">
+      <c r="B44" s="24" t="s">
         <v>1</v>
       </c>
       <c r="C44" t="s">
         <v>44</v>
       </c>
-      <c r="F44" s="22" t="s">
+      <c r="F44" s="24" t="s">
         <v>1</v>
       </c>
       <c r="G44" t="s">
         <v>246</v>
       </c>
-      <c r="J44" s="22" t="s">
+      <c r="J44" s="24" t="s">
         <v>1</v>
       </c>
       <c r="K44" t="s">
         <v>280</v>
       </c>
-      <c r="N44" s="22" t="s">
+      <c r="N44" s="24" t="s">
         <v>1</v>
       </c>
       <c r="O44" t="s">
         <v>317</v>
       </c>
-      <c r="R44" s="22" t="s">
+      <c r="R44" s="24" t="s">
         <v>1</v>
       </c>
       <c r="S44" t="s">
         <v>348</v>
       </c>
-      <c r="V44" s="22" t="s">
+      <c r="V44" s="24" t="s">
         <v>1</v>
       </c>
       <c r="W44" t="s">
@@ -3731,27 +3752,27 @@
       <c r="A45" s="1">
         <v>2</v>
       </c>
-      <c r="B45" s="22"/>
+      <c r="B45" s="24"/>
       <c r="C45" t="s">
         <v>214</v>
       </c>
-      <c r="F45" s="22"/>
+      <c r="F45" s="24"/>
       <c r="G45" t="s">
         <v>247</v>
       </c>
-      <c r="J45" s="22"/>
+      <c r="J45" s="24"/>
       <c r="K45" t="s">
         <v>281</v>
       </c>
-      <c r="N45" s="22"/>
+      <c r="N45" s="24"/>
       <c r="O45" t="s">
         <v>318</v>
       </c>
-      <c r="R45" s="22"/>
+      <c r="R45" s="24"/>
       <c r="S45" t="s">
         <v>349</v>
       </c>
-      <c r="V45" s="22"/>
+      <c r="V45" s="24"/>
       <c r="W45" t="s">
         <v>379</v>
       </c>
@@ -3760,27 +3781,27 @@
       <c r="A46" s="1">
         <v>3</v>
       </c>
-      <c r="B46" s="22"/>
+      <c r="B46" s="24"/>
       <c r="C46" t="s">
         <v>213</v>
       </c>
-      <c r="F46" s="22"/>
+      <c r="F46" s="24"/>
       <c r="G46" t="s">
         <v>79</v>
       </c>
-      <c r="J46" s="22"/>
+      <c r="J46" s="24"/>
       <c r="K46" t="s">
         <v>282</v>
       </c>
-      <c r="N46" s="22"/>
+      <c r="N46" s="24"/>
       <c r="O46" t="s">
         <v>319</v>
       </c>
-      <c r="R46" s="22"/>
+      <c r="R46" s="24"/>
       <c r="S46" t="s">
         <v>78</v>
       </c>
-      <c r="V46" s="22"/>
+      <c r="V46" s="24"/>
       <c r="W46" t="s">
         <v>380</v>
       </c>
@@ -3789,35 +3810,35 @@
       <c r="A47" s="1">
         <v>4</v>
       </c>
-      <c r="B47" s="23" t="s">
+      <c r="B47" s="25" t="s">
         <v>5</v>
       </c>
       <c r="C47" t="s">
         <v>216</v>
       </c>
-      <c r="F47" s="23" t="s">
+      <c r="F47" s="25" t="s">
         <v>5</v>
       </c>
       <c r="G47" t="s">
         <v>183</v>
       </c>
-      <c r="J47" s="23" t="s">
+      <c r="J47" s="25" t="s">
         <v>5</v>
       </c>
       <c r="K47" t="s">
         <v>283</v>
       </c>
-      <c r="N47" s="23" t="s">
+      <c r="N47" s="25" t="s">
         <v>5</v>
       </c>
       <c r="O47" t="s">
         <v>320</v>
       </c>
-      <c r="R47" s="22"/>
+      <c r="R47" s="24"/>
       <c r="S47" t="s">
         <v>350</v>
       </c>
-      <c r="V47" s="23" t="s">
+      <c r="V47" s="25" t="s">
         <v>5</v>
       </c>
       <c r="W47" t="s">
@@ -3828,29 +3849,29 @@
       <c r="A48" s="1">
         <v>5</v>
       </c>
-      <c r="B48" s="23"/>
+      <c r="B48" s="25"/>
       <c r="C48" t="s">
         <v>217</v>
       </c>
-      <c r="F48" s="23"/>
+      <c r="F48" s="25"/>
       <c r="G48" t="s">
         <v>321</v>
       </c>
-      <c r="J48" s="23"/>
+      <c r="J48" s="25"/>
       <c r="K48" t="s">
         <v>284</v>
       </c>
-      <c r="N48" s="23"/>
+      <c r="N48" s="25"/>
       <c r="O48" t="s">
         <v>251</v>
       </c>
-      <c r="R48" s="23" t="s">
+      <c r="R48" s="25" t="s">
         <v>5</v>
       </c>
       <c r="S48" t="s">
         <v>351</v>
       </c>
-      <c r="V48" s="23"/>
+      <c r="V48" s="25"/>
       <c r="W48" t="s">
         <v>382</v>
       </c>
@@ -3859,27 +3880,27 @@
       <c r="A49" s="1">
         <v>6</v>
       </c>
-      <c r="B49" s="23"/>
+      <c r="B49" s="25"/>
       <c r="C49" t="s">
         <v>221</v>
       </c>
-      <c r="F49" s="23"/>
+      <c r="F49" s="25"/>
       <c r="G49" t="s">
         <v>185</v>
       </c>
-      <c r="J49" s="23"/>
+      <c r="J49" s="25"/>
       <c r="K49" t="s">
         <v>285</v>
       </c>
-      <c r="N49" s="23"/>
+      <c r="N49" s="25"/>
       <c r="O49" t="s">
         <v>322</v>
       </c>
-      <c r="R49" s="23"/>
+      <c r="R49" s="25"/>
       <c r="S49" t="s">
-        <v>352</v>
-      </c>
-      <c r="V49" s="23"/>
+        <v>48</v>
+      </c>
+      <c r="V49" s="25"/>
       <c r="W49" t="s">
         <v>383</v>
       </c>
@@ -3888,31 +3909,31 @@
       <c r="A50" s="1">
         <v>7</v>
       </c>
-      <c r="B50" s="23"/>
+      <c r="B50" s="25"/>
       <c r="C50" t="s">
         <v>222</v>
       </c>
-      <c r="F50" s="23"/>
+      <c r="F50" s="25"/>
       <c r="G50" t="s">
         <v>249</v>
       </c>
-      <c r="J50" s="24" t="s">
+      <c r="J50" s="20" t="s">
         <v>12</v>
       </c>
       <c r="K50" t="s">
         <v>286</v>
       </c>
-      <c r="N50" s="24" t="s">
+      <c r="N50" s="20" t="s">
         <v>12</v>
       </c>
       <c r="O50" t="s">
         <v>323</v>
       </c>
-      <c r="R50" s="23"/>
+      <c r="R50" s="25"/>
       <c r="S50" t="s">
         <v>353</v>
       </c>
-      <c r="V50" s="23"/>
+      <c r="V50" s="25"/>
       <c r="W50" t="s">
         <v>384</v>
       </c>
@@ -3921,29 +3942,29 @@
       <c r="A51" s="1">
         <v>8</v>
       </c>
-      <c r="B51" s="24" t="s">
+      <c r="B51" s="20" t="s">
         <v>12</v>
       </c>
       <c r="C51" t="s">
         <v>57</v>
       </c>
-      <c r="F51" s="23"/>
+      <c r="F51" s="25"/>
       <c r="G51" t="s">
         <v>253</v>
       </c>
-      <c r="J51" s="24"/>
+      <c r="J51" s="20"/>
       <c r="K51" t="s">
         <v>287</v>
       </c>
-      <c r="N51" s="24"/>
+      <c r="N51" s="20"/>
       <c r="O51" t="s">
         <v>324</v>
       </c>
-      <c r="R51" s="23"/>
+      <c r="R51" s="25"/>
       <c r="S51" t="s">
         <v>354</v>
       </c>
-      <c r="V51" s="23"/>
+      <c r="V51" s="25"/>
       <c r="W51" t="s">
         <v>385</v>
       </c>
@@ -3952,27 +3973,27 @@
       <c r="A52" s="1">
         <v>9</v>
       </c>
-      <c r="B52" s="24"/>
+      <c r="B52" s="20"/>
       <c r="C52" t="s">
         <v>218</v>
       </c>
-      <c r="F52" s="23"/>
+      <c r="F52" s="25"/>
       <c r="G52" t="s">
         <v>254</v>
       </c>
-      <c r="J52" s="24"/>
+      <c r="J52" s="20"/>
       <c r="K52" t="s">
         <v>288</v>
       </c>
-      <c r="N52" s="24"/>
+      <c r="N52" s="20"/>
       <c r="O52" t="s">
         <v>325</v>
       </c>
-      <c r="R52" s="23"/>
+      <c r="R52" s="25"/>
       <c r="S52" t="s">
         <v>355</v>
       </c>
-      <c r="V52" s="24" t="s">
+      <c r="V52" s="20" t="s">
         <v>12</v>
       </c>
       <c r="W52" t="s">
@@ -3983,29 +4004,29 @@
       <c r="A53" s="1">
         <v>10</v>
       </c>
-      <c r="B53" s="24"/>
+      <c r="B53" s="20"/>
       <c r="C53" t="s">
         <v>219</v>
       </c>
-      <c r="F53" s="23"/>
+      <c r="F53" s="25"/>
       <c r="G53" t="s">
         <v>255</v>
       </c>
-      <c r="J53" s="24"/>
+      <c r="J53" s="20"/>
       <c r="K53" t="s">
         <v>289</v>
       </c>
-      <c r="N53" s="24"/>
+      <c r="N53" s="20"/>
       <c r="O53" t="s">
         <v>326</v>
       </c>
-      <c r="R53" s="24" t="s">
+      <c r="R53" s="20" t="s">
         <v>12</v>
       </c>
       <c r="S53" t="s">
         <v>356</v>
       </c>
-      <c r="V53" s="24"/>
+      <c r="V53" s="20"/>
       <c r="W53" t="s">
         <v>387</v>
       </c>
@@ -4014,27 +4035,27 @@
       <c r="A54" s="1">
         <v>11</v>
       </c>
-      <c r="B54" s="24"/>
+      <c r="B54" s="20"/>
       <c r="C54" t="s">
         <v>93</v>
       </c>
-      <c r="F54" s="23"/>
+      <c r="F54" s="25"/>
       <c r="G54" t="s">
         <v>83</v>
       </c>
-      <c r="J54" s="24"/>
+      <c r="J54" s="20"/>
       <c r="K54" t="s">
         <v>290</v>
       </c>
-      <c r="N54" s="24"/>
+      <c r="N54" s="20"/>
       <c r="O54" t="s">
         <v>327</v>
       </c>
-      <c r="R54" s="24"/>
+      <c r="R54" s="20"/>
       <c r="S54" t="s">
         <v>357</v>
       </c>
-      <c r="V54" s="24"/>
+      <c r="V54" s="20"/>
       <c r="W54" t="s">
         <v>388</v>
       </c>
@@ -4043,27 +4064,27 @@
       <c r="A55" s="1">
         <v>12</v>
       </c>
-      <c r="B55" s="24"/>
+      <c r="B55" s="20"/>
       <c r="C55" t="s">
         <v>220</v>
       </c>
-      <c r="F55" s="23"/>
+      <c r="F55" s="25"/>
       <c r="G55" t="s">
         <v>51</v>
       </c>
-      <c r="J55" s="24"/>
+      <c r="J55" s="20"/>
       <c r="K55" t="s">
         <v>291</v>
       </c>
-      <c r="N55" s="24"/>
+      <c r="N55" s="20"/>
       <c r="O55" t="s">
         <v>328</v>
       </c>
-      <c r="R55" s="24"/>
+      <c r="R55" s="20"/>
       <c r="S55" t="s">
         <v>358</v>
       </c>
-      <c r="V55" s="24"/>
+      <c r="V55" s="20"/>
       <c r="W55" t="s">
         <v>389</v>
       </c>
@@ -4072,29 +4093,29 @@
       <c r="A56" s="1">
         <v>13</v>
       </c>
-      <c r="B56" s="24"/>
+      <c r="B56" s="20"/>
       <c r="C56" t="s">
         <v>223</v>
       </c>
-      <c r="F56" s="24" t="s">
+      <c r="F56" s="20" t="s">
         <v>12</v>
       </c>
       <c r="G56" t="s">
         <v>194</v>
       </c>
-      <c r="J56" s="24"/>
+      <c r="J56" s="20"/>
       <c r="K56" t="s">
         <v>292</v>
       </c>
-      <c r="N56" s="24"/>
+      <c r="N56" s="20"/>
       <c r="O56" t="s">
         <v>329</v>
       </c>
-      <c r="R56" s="24"/>
+      <c r="R56" s="20"/>
       <c r="S56" t="s">
         <v>359</v>
       </c>
-      <c r="V56" s="24"/>
+      <c r="V56" s="20"/>
       <c r="W56" t="s">
         <v>390</v>
       </c>
@@ -4103,27 +4124,27 @@
       <c r="A57" s="1">
         <v>14</v>
       </c>
-      <c r="B57" s="24"/>
+      <c r="B57" s="20"/>
       <c r="C57" t="s">
         <v>224</v>
       </c>
-      <c r="F57" s="24"/>
+      <c r="F57" s="20"/>
       <c r="G57" t="s">
         <v>258</v>
       </c>
-      <c r="J57" s="24"/>
+      <c r="J57" s="20"/>
       <c r="K57" t="s">
         <v>293</v>
       </c>
-      <c r="N57" s="24"/>
+      <c r="N57" s="20"/>
       <c r="O57" t="s">
         <v>257</v>
       </c>
-      <c r="R57" s="24"/>
+      <c r="R57" s="20"/>
       <c r="S57" t="s">
         <v>360</v>
       </c>
-      <c r="V57" s="24"/>
+      <c r="V57" s="20"/>
       <c r="W57" t="s">
         <v>391</v>
       </c>
@@ -4132,27 +4153,27 @@
       <c r="A58" s="1">
         <v>15</v>
       </c>
-      <c r="B58" s="24"/>
+      <c r="B58" s="20"/>
       <c r="C58" t="s">
         <v>227</v>
       </c>
-      <c r="F58" s="24"/>
+      <c r="F58" s="20"/>
       <c r="G58" t="s">
         <v>22</v>
       </c>
-      <c r="J58" s="24"/>
+      <c r="J58" s="20"/>
       <c r="K58" t="s">
         <v>294</v>
       </c>
-      <c r="N58" s="24"/>
+      <c r="N58" s="20"/>
       <c r="O58" t="s">
         <v>263</v>
       </c>
-      <c r="R58" s="24"/>
+      <c r="R58" s="20"/>
       <c r="S58" t="s">
         <v>361</v>
       </c>
-      <c r="V58" s="24"/>
+      <c r="V58" s="20"/>
       <c r="W58" t="s">
         <v>392</v>
       </c>
@@ -4161,27 +4182,27 @@
       <c r="A59" s="1">
         <v>16</v>
       </c>
-      <c r="B59" s="24"/>
+      <c r="B59" s="20"/>
       <c r="C59" t="s">
         <v>228</v>
       </c>
-      <c r="F59" s="24"/>
+      <c r="F59" s="20"/>
       <c r="G59" t="s">
         <v>90</v>
       </c>
-      <c r="J59" s="24"/>
+      <c r="J59" s="20"/>
       <c r="K59" t="s">
         <v>295</v>
       </c>
-      <c r="N59" s="24"/>
+      <c r="N59" s="20"/>
       <c r="O59" t="s">
         <v>330</v>
       </c>
-      <c r="R59" s="24"/>
+      <c r="R59" s="20"/>
       <c r="S59" t="s">
         <v>362</v>
       </c>
-      <c r="V59" s="24"/>
+      <c r="V59" s="20"/>
       <c r="W59" t="s">
         <v>393</v>
       </c>
@@ -4190,33 +4211,31 @@
       <c r="A60" s="1">
         <v>17</v>
       </c>
-      <c r="B60" s="24"/>
+      <c r="B60" s="20"/>
       <c r="C60" t="s">
         <v>229</v>
       </c>
-      <c r="F60" s="24"/>
+      <c r="F60" s="20"/>
       <c r="G60" t="s">
         <v>260</v>
       </c>
-      <c r="J60" s="20" t="s">
+      <c r="J60" s="26" t="s">
         <v>18</v>
       </c>
       <c r="K60" t="s">
         <v>296</v>
       </c>
-      <c r="N60" s="20" t="s">
+      <c r="N60" s="26" t="s">
         <v>18</v>
       </c>
       <c r="O60" t="s">
         <v>331</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="R60" s="20"/>
       <c r="S60" t="s">
-        <v>363</v>
-      </c>
-      <c r="V60" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="V60" s="26" t="s">
         <v>18</v>
       </c>
       <c r="W60" t="s">
@@ -4227,29 +4246,29 @@
       <c r="A61" s="1">
         <v>18</v>
       </c>
-      <c r="B61" s="24"/>
+      <c r="B61" s="20"/>
       <c r="C61" t="s">
         <v>55</v>
       </c>
-      <c r="F61" s="24"/>
+      <c r="F61" s="20"/>
       <c r="G61" t="s">
         <v>262</v>
       </c>
-      <c r="J61" s="20"/>
+      <c r="J61" s="26"/>
       <c r="K61" t="s">
         <v>297</v>
       </c>
-      <c r="N61" s="20"/>
+      <c r="N61" s="26"/>
       <c r="O61" t="s">
         <v>332</v>
       </c>
-      <c r="R61" s="21" t="s">
-        <v>24</v>
+      <c r="R61" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="S61" t="s">
-        <v>364</v>
-      </c>
-      <c r="V61" s="20"/>
+        <v>363</v>
+      </c>
+      <c r="V61" s="26"/>
       <c r="W61" t="s">
         <v>395</v>
       </c>
@@ -4258,29 +4277,31 @@
       <c r="A62" s="1">
         <v>19</v>
       </c>
-      <c r="B62" s="20" t="s">
+      <c r="B62" s="26" t="s">
         <v>18</v>
       </c>
       <c r="C62" t="s">
         <v>233</v>
       </c>
-      <c r="F62" s="24"/>
+      <c r="F62" s="20"/>
       <c r="G62" t="s">
         <v>92</v>
       </c>
-      <c r="J62" s="20"/>
+      <c r="J62" s="26"/>
       <c r="K62" t="s">
         <v>298</v>
       </c>
-      <c r="N62" s="20"/>
+      <c r="N62" s="26"/>
       <c r="O62" t="s">
         <v>333</v>
       </c>
-      <c r="R62" s="21"/>
+      <c r="R62" s="27" t="s">
+        <v>24</v>
+      </c>
       <c r="S62" t="s">
-        <v>365</v>
-      </c>
-      <c r="V62" s="20"/>
+        <v>364</v>
+      </c>
+      <c r="V62" s="26"/>
       <c r="W62" t="s">
         <v>396</v>
       </c>
@@ -4289,31 +4310,31 @@
       <c r="A63" s="1">
         <v>20</v>
       </c>
-      <c r="B63" s="20"/>
+      <c r="B63" s="26"/>
       <c r="C63" t="s">
         <v>230</v>
       </c>
-      <c r="F63" s="20" t="s">
+      <c r="F63" s="26" t="s">
         <v>18</v>
       </c>
       <c r="G63" t="s">
         <v>264</v>
       </c>
-      <c r="J63" s="21" t="s">
+      <c r="J63" s="27" t="s">
         <v>24</v>
       </c>
       <c r="K63" t="s">
         <v>299</v>
       </c>
-      <c r="N63" s="20"/>
+      <c r="N63" s="26"/>
       <c r="O63" t="s">
         <v>334</v>
       </c>
-      <c r="R63" s="21"/>
+      <c r="R63" s="27"/>
       <c r="S63" t="s">
-        <v>366</v>
-      </c>
-      <c r="V63" s="20"/>
+        <v>365</v>
+      </c>
+      <c r="V63" s="26"/>
       <c r="W63" t="s">
         <v>397</v>
       </c>
@@ -4322,27 +4343,27 @@
       <c r="A64" s="1">
         <v>21</v>
       </c>
-      <c r="B64" s="20"/>
+      <c r="B64" s="26"/>
       <c r="C64" t="s">
         <v>231</v>
       </c>
-      <c r="F64" s="20"/>
+      <c r="F64" s="26"/>
       <c r="G64" t="s">
         <v>265</v>
       </c>
-      <c r="J64" s="21"/>
+      <c r="J64" s="27"/>
       <c r="K64" t="s">
         <v>300</v>
       </c>
-      <c r="N64" s="20"/>
+      <c r="N64" s="26"/>
       <c r="O64" t="s">
         <v>335</v>
       </c>
-      <c r="R64" s="21"/>
+      <c r="R64" s="27"/>
       <c r="S64" t="s">
-        <v>367</v>
-      </c>
-      <c r="V64" s="21" t="s">
+        <v>366</v>
+      </c>
+      <c r="V64" s="27" t="s">
         <v>24</v>
       </c>
       <c r="W64" t="s">
@@ -4353,29 +4374,29 @@
       <c r="A65" s="1">
         <v>22</v>
       </c>
-      <c r="B65" s="20"/>
+      <c r="B65" s="26"/>
       <c r="C65" t="s">
         <v>232</v>
       </c>
-      <c r="F65" s="20"/>
+      <c r="F65" s="26"/>
       <c r="G65" t="s">
         <v>97</v>
       </c>
-      <c r="J65" s="21"/>
+      <c r="J65" s="27"/>
       <c r="K65" t="s">
         <v>301</v>
       </c>
-      <c r="N65" s="21" t="s">
+      <c r="N65" s="27" t="s">
         <v>24</v>
       </c>
       <c r="O65" t="s">
         <v>336</v>
       </c>
-      <c r="R65" s="21"/>
+      <c r="R65" s="27"/>
       <c r="S65" t="s">
-        <v>368</v>
-      </c>
-      <c r="V65" s="21"/>
+        <v>367</v>
+      </c>
+      <c r="V65" s="27"/>
       <c r="W65" t="s">
         <v>399</v>
       </c>
@@ -4384,29 +4405,27 @@
       <c r="A66" s="1">
         <v>23</v>
       </c>
-      <c r="B66" s="20"/>
+      <c r="B66" s="26"/>
       <c r="C66" t="s">
         <v>61</v>
       </c>
-      <c r="F66" s="20"/>
+      <c r="F66" s="26"/>
       <c r="G66" t="s">
         <v>266</v>
       </c>
-      <c r="J66" s="21"/>
+      <c r="J66" s="27"/>
       <c r="K66" t="s">
         <v>302</v>
       </c>
-      <c r="N66" s="21"/>
+      <c r="N66" s="27"/>
       <c r="O66" t="s">
         <v>337</v>
       </c>
-      <c r="R66" s="26" t="s">
-        <v>30</v>
-      </c>
+      <c r="R66" s="27"/>
       <c r="S66" t="s">
-        <v>369</v>
-      </c>
-      <c r="V66" s="21"/>
+        <v>368</v>
+      </c>
+      <c r="V66" s="27"/>
       <c r="W66" t="s">
         <v>400</v>
       </c>
@@ -4415,29 +4434,31 @@
       <c r="A67" s="1">
         <v>24</v>
       </c>
-      <c r="B67" s="21" t="s">
+      <c r="B67" s="27" t="s">
         <v>24</v>
       </c>
       <c r="C67" t="s">
         <v>102</v>
       </c>
-      <c r="F67" s="20"/>
+      <c r="F67" s="26"/>
       <c r="G67" t="s">
         <v>267</v>
       </c>
-      <c r="J67" s="21"/>
+      <c r="J67" s="27"/>
       <c r="K67" t="s">
         <v>303</v>
       </c>
-      <c r="N67" s="21"/>
+      <c r="N67" s="27"/>
       <c r="O67" t="s">
         <v>338</v>
       </c>
-      <c r="R67" s="26"/>
+      <c r="R67" s="21" t="s">
+        <v>30</v>
+      </c>
       <c r="S67" t="s">
-        <v>370</v>
-      </c>
-      <c r="V67" s="21"/>
+        <v>369</v>
+      </c>
+      <c r="V67" s="27"/>
       <c r="W67" t="s">
         <v>401</v>
       </c>
@@ -4446,29 +4467,29 @@
       <c r="A68" s="1">
         <v>25</v>
       </c>
-      <c r="B68" s="21"/>
+      <c r="B68" s="27"/>
       <c r="C68" t="s">
         <v>234</v>
       </c>
-      <c r="F68" s="21" t="s">
+      <c r="F68" s="27" t="s">
         <v>24</v>
       </c>
       <c r="G68" t="s">
         <v>268</v>
       </c>
-      <c r="J68" s="21"/>
+      <c r="J68" s="27"/>
       <c r="K68" t="s">
         <v>304</v>
       </c>
-      <c r="N68" s="21"/>
+      <c r="N68" s="27"/>
       <c r="O68" t="s">
         <v>342</v>
       </c>
-      <c r="R68" s="26"/>
+      <c r="R68" s="21"/>
       <c r="S68" t="s">
-        <v>371</v>
-      </c>
-      <c r="V68" s="26" t="s">
+        <v>370</v>
+      </c>
+      <c r="V68" s="21" t="s">
         <v>30</v>
       </c>
       <c r="W68" t="s">
@@ -4479,29 +4500,29 @@
       <c r="A69" s="1">
         <v>26</v>
       </c>
-      <c r="B69" s="21"/>
+      <c r="B69" s="27"/>
       <c r="C69" t="s">
         <v>235</v>
       </c>
-      <c r="F69" s="21"/>
+      <c r="F69" s="27"/>
       <c r="G69" t="s">
         <v>269</v>
       </c>
-      <c r="J69" s="21"/>
+      <c r="J69" s="27"/>
       <c r="K69" t="s">
         <v>305</v>
       </c>
-      <c r="N69" s="26" t="s">
+      <c r="N69" s="21" t="s">
         <v>30</v>
       </c>
       <c r="O69" t="s">
         <v>339</v>
       </c>
-      <c r="R69" s="26"/>
+      <c r="R69" s="21"/>
       <c r="S69" t="s">
-        <v>372</v>
-      </c>
-      <c r="V69" s="26"/>
+        <v>371</v>
+      </c>
+      <c r="V69" s="21"/>
       <c r="W69" t="s">
         <v>403</v>
       </c>
@@ -4510,31 +4531,29 @@
       <c r="A70" s="1">
         <v>27</v>
       </c>
-      <c r="B70" s="21"/>
+      <c r="B70" s="27"/>
       <c r="C70" t="s">
         <v>236</v>
       </c>
-      <c r="F70" s="21"/>
+      <c r="F70" s="27"/>
       <c r="G70" t="s">
         <v>270</v>
       </c>
-      <c r="J70" s="26" t="s">
+      <c r="J70" s="21" t="s">
         <v>30</v>
       </c>
       <c r="K70" t="s">
         <v>306</v>
       </c>
-      <c r="N70" s="26"/>
+      <c r="N70" s="21"/>
       <c r="O70" t="s">
         <v>340</v>
       </c>
-      <c r="R70" s="25" t="s">
-        <v>36</v>
-      </c>
+      <c r="R70" s="21"/>
       <c r="S70" t="s">
-        <v>373</v>
-      </c>
-      <c r="V70" s="26"/>
+        <v>372</v>
+      </c>
+      <c r="V70" s="21"/>
       <c r="W70" t="s">
         <v>404</v>
       </c>
@@ -4543,27 +4562,29 @@
       <c r="A71" s="1">
         <v>28</v>
       </c>
-      <c r="B71" s="21"/>
+      <c r="B71" s="27"/>
       <c r="C71" t="s">
         <v>237</v>
       </c>
-      <c r="F71" s="21"/>
+      <c r="F71" s="27"/>
       <c r="G71" t="s">
         <v>101</v>
       </c>
-      <c r="J71" s="26"/>
+      <c r="J71" s="21"/>
       <c r="K71" t="s">
         <v>307</v>
       </c>
-      <c r="N71" s="26"/>
+      <c r="N71" s="21"/>
       <c r="O71" t="s">
         <v>341</v>
       </c>
-      <c r="R71" s="25"/>
+      <c r="R71" s="22" t="s">
+        <v>36</v>
+      </c>
       <c r="S71" t="s">
-        <v>374</v>
-      </c>
-      <c r="V71" s="26"/>
+        <v>373</v>
+      </c>
+      <c r="V71" s="21"/>
       <c r="W71" t="s">
         <v>405</v>
       </c>
@@ -4572,29 +4593,29 @@
       <c r="A72" s="1">
         <v>29</v>
       </c>
-      <c r="B72" s="21"/>
+      <c r="B72" s="27"/>
       <c r="C72" t="s">
         <v>238</v>
       </c>
-      <c r="F72" s="26" t="s">
+      <c r="F72" s="21" t="s">
         <v>30</v>
       </c>
       <c r="G72" t="s">
         <v>271</v>
       </c>
-      <c r="J72" s="26"/>
+      <c r="J72" s="21"/>
       <c r="K72" t="s">
         <v>308</v>
       </c>
-      <c r="N72" s="26"/>
+      <c r="N72" s="21"/>
       <c r="O72" t="s">
         <v>343</v>
       </c>
-      <c r="R72" s="25"/>
+      <c r="R72" s="22"/>
       <c r="S72" t="s">
-        <v>375</v>
-      </c>
-      <c r="V72" s="26"/>
+        <v>374</v>
+      </c>
+      <c r="V72" s="21"/>
       <c r="W72" t="s">
         <v>406</v>
       </c>
@@ -4603,31 +4624,31 @@
       <c r="A73" s="1">
         <v>30</v>
       </c>
-      <c r="B73" s="26" t="s">
+      <c r="B73" s="21" t="s">
         <v>30</v>
       </c>
       <c r="C73" t="s">
         <v>34</v>
       </c>
-      <c r="F73" s="26"/>
+      <c r="F73" s="21"/>
       <c r="G73" t="s">
         <v>272</v>
       </c>
-      <c r="J73" s="26"/>
+      <c r="J73" s="21"/>
       <c r="K73" t="s">
         <v>309</v>
       </c>
-      <c r="N73" s="25" t="s">
+      <c r="N73" s="22" t="s">
         <v>36</v>
       </c>
       <c r="O73" t="s">
         <v>344</v>
       </c>
-      <c r="R73" s="25"/>
+      <c r="R73" s="22"/>
       <c r="S73" t="s">
-        <v>376</v>
-      </c>
-      <c r="V73" s="25" t="s">
+        <v>375</v>
+      </c>
+      <c r="V73" s="22" t="s">
         <v>36</v>
       </c>
       <c r="W73" t="s">
@@ -4635,171 +4656,148 @@
       </c>
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B74" s="26"/>
+      <c r="B74" s="21"/>
       <c r="C74" t="s">
         <v>239</v>
       </c>
-      <c r="F74" s="26"/>
+      <c r="F74" s="21"/>
       <c r="G74" t="s">
         <v>273</v>
       </c>
-      <c r="J74" s="25" t="s">
+      <c r="J74" s="22" t="s">
         <v>36</v>
       </c>
       <c r="K74" t="s">
         <v>310</v>
       </c>
-      <c r="N74" s="25"/>
+      <c r="N74" s="22"/>
       <c r="O74" t="s">
         <v>345</v>
       </c>
-      <c r="R74" s="25"/>
+      <c r="R74" s="22"/>
       <c r="S74" t="s">
-        <v>377</v>
-      </c>
-      <c r="V74" s="25"/>
+        <v>376</v>
+      </c>
+      <c r="V74" s="22"/>
       <c r="W74" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B75" s="26"/>
+      <c r="B75" s="21"/>
       <c r="C75" t="s">
         <v>240</v>
       </c>
-      <c r="F75" s="26"/>
+      <c r="F75" s="21"/>
       <c r="G75" t="s">
         <v>274</v>
       </c>
-      <c r="J75" s="25"/>
+      <c r="J75" s="22"/>
       <c r="K75" t="s">
         <v>311</v>
       </c>
-      <c r="N75" s="25"/>
+      <c r="N75" s="22"/>
       <c r="O75" t="s">
         <v>346</v>
       </c>
-      <c r="V75" s="25"/>
+      <c r="R75" s="22"/>
+      <c r="S75" t="s">
+        <v>377</v>
+      </c>
+      <c r="V75" s="22"/>
       <c r="W75" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B76" s="26"/>
+      <c r="B76" s="21"/>
       <c r="C76" t="s">
         <v>241</v>
       </c>
-      <c r="F76" s="25" t="s">
+      <c r="F76" s="22" t="s">
         <v>36</v>
       </c>
       <c r="G76" t="s">
         <v>276</v>
       </c>
-      <c r="J76" s="25"/>
+      <c r="J76" s="22"/>
       <c r="K76" t="s">
         <v>312</v>
       </c>
-      <c r="N76" s="25"/>
+      <c r="N76" s="22"/>
       <c r="O76" t="s">
         <v>347</v>
       </c>
-      <c r="V76" s="25"/>
+      <c r="V76" s="22"/>
       <c r="W76" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B77" s="25" t="s">
+      <c r="B77" s="22" t="s">
         <v>36</v>
       </c>
       <c r="C77" t="s">
         <v>109</v>
       </c>
-      <c r="F77" s="25"/>
+      <c r="F77" s="22"/>
       <c r="G77" t="s">
         <v>277</v>
       </c>
-      <c r="J77" s="25"/>
+      <c r="J77" s="22"/>
       <c r="K77" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B78" s="25"/>
+      <c r="B78" s="22"/>
       <c r="C78" t="s">
         <v>242</v>
       </c>
-      <c r="F78" s="25"/>
+      <c r="F78" s="22"/>
       <c r="G78" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B79" s="25"/>
+      <c r="B79" s="22"/>
       <c r="C79" t="s">
         <v>243</v>
       </c>
-      <c r="F79" s="25"/>
+      <c r="F79" s="22"/>
       <c r="G79" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B80" s="25"/>
+      <c r="B80" s="22"/>
       <c r="C80" t="s">
         <v>244</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="85">
-    <mergeCell ref="V68:V72"/>
-    <mergeCell ref="V73:V76"/>
-    <mergeCell ref="R66:R69"/>
-    <mergeCell ref="R70:R74"/>
-    <mergeCell ref="R31:R34"/>
-    <mergeCell ref="V43:Y43"/>
-    <mergeCell ref="V44:V46"/>
-    <mergeCell ref="V47:V51"/>
-    <mergeCell ref="V52:V59"/>
-    <mergeCell ref="V60:V63"/>
-    <mergeCell ref="V64:V67"/>
-    <mergeCell ref="V37:V40"/>
-    <mergeCell ref="R61:R65"/>
-    <mergeCell ref="V32:V36"/>
-    <mergeCell ref="R48:R52"/>
-    <mergeCell ref="R53:R59"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="R44:R47"/>
-    <mergeCell ref="J27:J30"/>
-    <mergeCell ref="N24:N29"/>
-    <mergeCell ref="N30:N33"/>
-    <mergeCell ref="R26:R30"/>
-    <mergeCell ref="J44:J46"/>
-    <mergeCell ref="J47:J49"/>
-    <mergeCell ref="J23:J26"/>
-    <mergeCell ref="R22:R25"/>
-    <mergeCell ref="N19:N23"/>
+    <mergeCell ref="V27:V30"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="R4:R9"/>
+    <mergeCell ref="R10:R19"/>
+    <mergeCell ref="V2:V5"/>
+    <mergeCell ref="V6:V13"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="N4:N10"/>
+    <mergeCell ref="N11:N16"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="V24:V26"/>
     <mergeCell ref="R20:R21"/>
-    <mergeCell ref="F72:F75"/>
-    <mergeCell ref="F68:F71"/>
-    <mergeCell ref="B67:B72"/>
-    <mergeCell ref="B73:B76"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="F10:F15"/>
+    <mergeCell ref="J20:J22"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="J4:J9"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="J10:J16"/>
     <mergeCell ref="F16:F18"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="F44:F46"/>
-    <mergeCell ref="F56:F62"/>
-    <mergeCell ref="B51:B61"/>
-    <mergeCell ref="F47:F55"/>
-    <mergeCell ref="F27:F31"/>
     <mergeCell ref="B77:B80"/>
     <mergeCell ref="F76:F79"/>
     <mergeCell ref="J70:J73"/>
@@ -4816,27 +4814,54 @@
     <mergeCell ref="J63:J69"/>
     <mergeCell ref="B44:B46"/>
     <mergeCell ref="B62:B66"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="F27:F31"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="F72:F75"/>
+    <mergeCell ref="F68:F71"/>
+    <mergeCell ref="B67:B72"/>
+    <mergeCell ref="B73:B76"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="F56:F62"/>
+    <mergeCell ref="B51:B61"/>
+    <mergeCell ref="F47:F55"/>
     <mergeCell ref="F63:F67"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="F10:F15"/>
-    <mergeCell ref="J20:J22"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="J4:J9"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="J10:J16"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="N4:N10"/>
-    <mergeCell ref="N11:N16"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="V14:V24"/>
-    <mergeCell ref="V25:V27"/>
-    <mergeCell ref="V28:V31"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="R4:R9"/>
-    <mergeCell ref="R10:R19"/>
-    <mergeCell ref="V2:V5"/>
-    <mergeCell ref="V6:V13"/>
+    <mergeCell ref="J23:J25"/>
+    <mergeCell ref="R48:R52"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="R44:R47"/>
+    <mergeCell ref="J26:J29"/>
+    <mergeCell ref="N24:N29"/>
+    <mergeCell ref="N30:N33"/>
+    <mergeCell ref="R26:R30"/>
+    <mergeCell ref="J44:J46"/>
+    <mergeCell ref="J47:J49"/>
+    <mergeCell ref="R22:R25"/>
+    <mergeCell ref="N19:N23"/>
+    <mergeCell ref="R53:R60"/>
+    <mergeCell ref="V14:V23"/>
+    <mergeCell ref="V68:V72"/>
+    <mergeCell ref="V73:V76"/>
+    <mergeCell ref="R67:R70"/>
+    <mergeCell ref="R71:R75"/>
+    <mergeCell ref="R31:R34"/>
+    <mergeCell ref="V43:Y43"/>
+    <mergeCell ref="V44:V46"/>
+    <mergeCell ref="V47:V51"/>
+    <mergeCell ref="V52:V59"/>
+    <mergeCell ref="V60:V63"/>
+    <mergeCell ref="V64:V67"/>
+    <mergeCell ref="V36:V39"/>
+    <mergeCell ref="R62:R66"/>
+    <mergeCell ref="V31:V35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4846,8 +4871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4868,36 +4893,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="E1" s="28" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="E1" s="23" t="s">
         <v>412</v>
       </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
       <c r="J1" t="s">
         <v>411</v>
       </c>
-      <c r="O1" s="28" t="s">
+      <c r="O1" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="T1" s="28" t="s">
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="T1" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="X1" s="28" t="s">
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="X1" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -4913,13 +4938,13 @@
         <v>492</v>
       </c>
       <c r="J2" t="s">
-        <v>413</v>
+        <v>556</v>
       </c>
       <c r="K2" t="s">
         <v>507</v>
       </c>
       <c r="O2" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="P2" t="s">
         <v>517</v>
@@ -4945,16 +4970,16 @@
         <v>414</v>
       </c>
       <c r="F3" t="s">
-        <v>487</v>
+        <v>527</v>
       </c>
       <c r="J3" t="s">
-        <v>596</v>
+        <v>413</v>
       </c>
       <c r="K3" t="s">
-        <v>537</v>
+        <v>508</v>
       </c>
       <c r="O3" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="P3" t="s">
         <v>518</v>
@@ -4971,25 +4996,25 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>556</v>
+        <v>611</v>
       </c>
       <c r="B4" t="s">
-        <v>489</v>
+        <v>537</v>
       </c>
       <c r="E4" t="s">
         <v>591</v>
       </c>
       <c r="F4" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="J4" t="s">
-        <v>611</v>
+        <v>596</v>
       </c>
       <c r="K4" t="s">
-        <v>508</v>
+        <v>538</v>
       </c>
       <c r="O4" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="P4" t="s">
         <v>519</v>
@@ -5002,6 +5027,9 @@
       </c>
       <c r="X4" t="s">
         <v>416</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.35">
@@ -5009,22 +5037,19 @@
         <v>592</v>
       </c>
       <c r="B5" t="s">
-        <v>490</v>
-      </c>
-      <c r="E5" t="s">
-        <v>621</v>
+        <v>489</v>
       </c>
       <c r="F5" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="G5" t="s">
         <v>568</v>
       </c>
       <c r="K5" t="s">
-        <v>538</v>
+        <v>503</v>
       </c>
       <c r="O5" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="P5" t="s">
         <v>520</v>
@@ -5043,11 +5068,14 @@
       <c r="A6" t="s">
         <v>573</v>
       </c>
-      <c r="E6" t="s">
-        <v>606</v>
+      <c r="B6" t="s">
+        <v>490</v>
+      </c>
+      <c r="F6" t="s">
+        <v>531</v>
       </c>
       <c r="K6" t="s">
-        <v>503</v>
+        <v>528</v>
       </c>
       <c r="P6" t="s">
         <v>521</v>
@@ -5066,8 +5094,11 @@
       <c r="E7" t="s">
         <v>622</v>
       </c>
+      <c r="F7" t="s">
+        <v>690</v>
+      </c>
       <c r="K7" t="s">
-        <v>528</v>
+        <v>493</v>
       </c>
       <c r="T7" t="s">
         <v>616</v>
@@ -5078,7 +5109,7 @@
         <v>419</v>
       </c>
       <c r="K8" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="T8" t="s">
         <v>627</v>
@@ -5086,7 +5117,7 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="K9" t="s">
-        <v>498</v>
+        <v>539</v>
       </c>
       <c r="T9" t="s">
         <v>612</v>
@@ -5094,41 +5125,36 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="K10" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="K11" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="23" t="s">
         <v>212</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
       <c r="E17" t="s">
         <v>420</v>
       </c>
-      <c r="I17" s="28" t="s">
+      <c r="I17" s="23" t="s">
         <v>421</v>
       </c>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="N17" s="28" t="s">
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="N17" s="23" t="s">
         <v>314</v>
       </c>
-      <c r="O17" s="28"/>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="28"/>
-      <c r="S17" s="28" t="s">
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="S17" s="23" t="s">
         <v>315</v>
       </c>
-      <c r="T17" s="28"/>
-      <c r="U17" s="28"/>
-      <c r="V17" s="28"/>
+      <c r="T17" s="23"/>
+      <c r="U17" s="23"/>
+      <c r="V17" s="23"/>
       <c r="X17" t="s">
         <v>316</v>
       </c>
@@ -5162,7 +5188,7 @@
         <v>422</v>
       </c>
       <c r="U18" t="s">
-        <v>527</v>
+        <v>487</v>
       </c>
       <c r="X18" t="s">
         <v>623</v>
@@ -5197,7 +5223,10 @@
         <v>524</v>
       </c>
       <c r="T19" t="s">
-        <v>631</v>
+        <v>606</v>
+      </c>
+      <c r="U19" t="s">
+        <v>488</v>
       </c>
       <c r="X19" t="s">
         <v>423</v>
@@ -5232,10 +5261,7 @@
         <v>523</v>
       </c>
       <c r="T20" t="s">
-        <v>425</v>
-      </c>
-      <c r="U20" t="s">
-        <v>529</v>
+        <v>621</v>
       </c>
       <c r="X20" t="s">
         <v>593</v>
@@ -5270,10 +5296,7 @@
         <v>525</v>
       </c>
       <c r="T21" t="s">
-        <v>427</v>
-      </c>
-      <c r="U21" t="s">
-        <v>530</v>
+        <v>631</v>
       </c>
       <c r="X21" t="s">
         <v>428</v>
@@ -5304,8 +5327,8 @@
       <c r="P22" t="s">
         <v>526</v>
       </c>
-      <c r="U22" t="s">
-        <v>531</v>
+      <c r="T22" t="s">
+        <v>425</v>
       </c>
       <c r="X22" t="s">
         <v>430</v>
@@ -5327,6 +5350,12 @@
       <c r="O23" t="s">
         <v>609</v>
       </c>
+      <c r="T23" t="s">
+        <v>427</v>
+      </c>
+      <c r="U23" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
@@ -5414,7 +5443,7 @@
         <v>633</v>
       </c>
       <c r="K39" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="40" spans="3:11" x14ac:dyDescent="0.35">
@@ -5422,7 +5451,7 @@
         <v>634</v>
       </c>
       <c r="K40" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="41" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5430,32 +5459,32 @@
         <v>572</v>
       </c>
       <c r="K41" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="42" spans="3:11" x14ac:dyDescent="0.35">
       <c r="J42" t="s">
-        <v>635</v>
+        <v>682</v>
       </c>
     </row>
     <row r="43" spans="3:11" x14ac:dyDescent="0.35">
       <c r="J43" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="44" spans="3:11" x14ac:dyDescent="0.35">
       <c r="J44" t="s">
-        <v>637</v>
+        <v>683</v>
       </c>
     </row>
     <row r="45" spans="3:11" x14ac:dyDescent="0.35">
       <c r="J45" t="s">
-        <v>638</v>
+        <v>684</v>
       </c>
     </row>
     <row r="46" spans="3:11" x14ac:dyDescent="0.35">
       <c r="J46" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
     </row>
     <row r="47" spans="3:11" x14ac:dyDescent="0.35">
@@ -5465,17 +5494,17 @@
     </row>
     <row r="48" spans="3:11" x14ac:dyDescent="0.35">
       <c r="J48" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="49" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J49" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="50" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J50" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
   </sheetData>
@@ -5499,7 +5528,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5661,10 +5690,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K154"/>
+  <dimension ref="A1:K173"/>
   <sheetViews>
-    <sheetView topLeftCell="A138" workbookViewId="0">
-      <selection activeCell="C146" sqref="C146"/>
+    <sheetView tabSelected="1" topLeftCell="A158" workbookViewId="0">
+      <selection activeCell="D169" sqref="D169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6159,16 +6188,16 @@
     </row>
     <row r="84" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84" s="7" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="5" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="B87" s="6" t="s">
         <v>215</v>
@@ -6176,7 +6205,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="10" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="B88" s="11" t="s">
         <v>57</v>
@@ -6185,7 +6214,7 @@
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="10"/>
       <c r="B89" s="11" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
@@ -6218,7 +6247,7 @@
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="10"/>
       <c r="B95" s="11" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
@@ -6229,37 +6258,37 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="10" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="10"/>
       <c r="B98" s="11" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" s="10"/>
       <c r="B99" s="11" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A100" s="7"/>
       <c r="B100" s="8" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="5" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -6273,16 +6302,16 @@
     <row r="106" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" s="5" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" s="10"/>
       <c r="B108" s="11" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
@@ -6290,7 +6319,7 @@
         <v>588</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -6319,7 +6348,7 @@
     <row r="115" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A115" s="7"/>
       <c r="B115" s="8" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -6339,10 +6368,10 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="B120" s="11" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
@@ -6354,7 +6383,7 @@
     <row r="122" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A122" s="7"/>
       <c r="B122" s="8" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -6363,7 +6392,7 @@
         <v>578</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
@@ -6387,7 +6416,7 @@
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" s="10"/>
       <c r="B128" s="11" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
@@ -6395,19 +6424,19 @@
         <v>588</v>
       </c>
       <c r="B129" s="11" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" s="10"/>
       <c r="B130" s="11" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A131" s="7"/>
       <c r="B131" s="8" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -6422,18 +6451,18 @@
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" s="10"/>
       <c r="B134" s="11" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" s="10"/>
       <c r="B135" s="11" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A136" s="7" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="B136" s="8" t="s">
         <v>611</v>
@@ -6445,15 +6474,15 @@
         <v>578</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="B139" s="11" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -6474,13 +6503,13 @@
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" s="10"/>
       <c r="B143" s="11" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" s="10"/>
       <c r="B144" s="11" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
@@ -6491,7 +6520,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" s="10" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="B146" s="11" t="s">
         <v>590</v>
@@ -6500,13 +6529,13 @@
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" s="10"/>
       <c r="B147" s="11" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A148" s="7"/>
       <c r="B148" s="8" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -6526,7 +6555,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="B152" s="11" t="s">
         <v>15</v>
@@ -6535,13 +6564,123 @@
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" s="10"/>
       <c r="B153" s="11" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A154" s="7"/>
       <c r="B154" s="8" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A156" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="B156" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A157" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="B157" s="8" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A159" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="B159" s="6" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A160" s="10"/>
+      <c r="B160" s="11" t="s">
         <v>681</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A161" s="10"/>
+      <c r="B161" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A162" s="7" t="s">
+        <v>661</v>
+      </c>
+      <c r="B162" s="8" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A164" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="B164" s="6" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A165" s="10"/>
+      <c r="B165" s="11" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A166" s="10"/>
+      <c r="B166" s="11" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A167" s="10" t="s">
+        <v>645</v>
+      </c>
+      <c r="B167" s="11" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A168" s="7"/>
+      <c r="B168" s="8" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A170" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="B170" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A171" s="10"/>
+      <c r="B171" s="11" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A172" s="10" t="s">
+        <v>645</v>
+      </c>
+      <c r="B172" s="11" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A173" s="7"/>
+      <c r="B173" s="8" t="s">
+        <v>688</v>
       </c>
     </row>
   </sheetData>

--- a/OffSeason.xlsx
+++ b/OffSeason.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="691">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="699">
   <si>
     <t>Chubber for Chubb - John Olson</t>
   </si>
@@ -2100,6 +2100,30 @@
   </si>
   <si>
     <t>start 2021 6</t>
+  </si>
+  <si>
+    <t>John Sends</t>
+  </si>
+  <si>
+    <t>Vanja sends</t>
+  </si>
+  <si>
+    <t>Cam newton</t>
+  </si>
+  <si>
+    <t>2021 3rd(MikeW)</t>
+  </si>
+  <si>
+    <t>Le'veon Bell</t>
+  </si>
+  <si>
+    <t>Miles boykins</t>
+  </si>
+  <si>
+    <t>Mike R sends</t>
+  </si>
+  <si>
+    <t>Ju-Ju SmithSchuster</t>
   </si>
 </sst>
 </file>
@@ -2298,7 +2322,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2331,6 +2355,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2342,12 +2375,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2641,8 +2668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y80"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="H56" sqref="H56"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2657,11 +2684,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
       <c r="F1" t="s">
         <v>42</v>
       </c>
@@ -2682,37 +2709,37 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="21" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="21" t="s">
         <v>1</v>
       </c>
       <c r="G2" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="J2" s="20" t="s">
         <v>1</v>
       </c>
       <c r="K2" t="s">
         <v>77</v>
       </c>
-      <c r="N2" s="24" t="s">
+      <c r="N2" s="21" t="s">
         <v>1</v>
       </c>
       <c r="O2" t="s">
         <v>112</v>
       </c>
-      <c r="R2" s="24" t="s">
+      <c r="R2" s="21" t="s">
         <v>1</v>
       </c>
       <c r="S2" t="s">
         <v>144</v>
       </c>
-      <c r="V2" s="24" t="s">
+      <c r="V2" s="21" t="s">
         <v>1</v>
       </c>
       <c r="W2" t="s">
@@ -2723,27 +2750,29 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="24"/>
+      <c r="B3" s="21"/>
       <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="24"/>
+      <c r="F3" s="21"/>
       <c r="G3" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="24"/>
+      <c r="J3" s="22" t="s">
+        <v>5</v>
+      </c>
       <c r="K3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N3" s="24"/>
+        <v>248</v>
+      </c>
+      <c r="N3" s="21"/>
       <c r="O3" t="s">
         <v>104</v>
       </c>
-      <c r="R3" s="24"/>
+      <c r="R3" s="21"/>
       <c r="S3" t="s">
         <v>145</v>
       </c>
-      <c r="V3" s="24"/>
+      <c r="V3" s="21"/>
       <c r="W3" t="s">
         <v>179</v>
       </c>
@@ -2752,35 +2781,31 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="25" t="s">
-        <v>5</v>
-      </c>
+      <c r="B4" s="21"/>
       <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="24"/>
+        <v>4</v>
+      </c>
+      <c r="F4" s="21"/>
       <c r="G4" t="s">
         <v>46</v>
       </c>
-      <c r="J4" s="25" t="s">
-        <v>5</v>
-      </c>
+      <c r="J4" s="22"/>
       <c r="K4" t="s">
-        <v>248</v>
-      </c>
-      <c r="N4" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
       <c r="O4" t="s">
         <v>113</v>
       </c>
-      <c r="R4" s="25" t="s">
+      <c r="R4" s="22" t="s">
         <v>5</v>
       </c>
       <c r="S4" t="s">
         <v>146</v>
       </c>
-      <c r="V4" s="24"/>
+      <c r="V4" s="21"/>
       <c r="W4" t="s">
         <v>180</v>
       </c>
@@ -2789,27 +2814,29 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="25"/>
+      <c r="B5" s="22" t="s">
+        <v>5</v>
+      </c>
       <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="24"/>
+        <v>6</v>
+      </c>
+      <c r="F5" s="21"/>
       <c r="G5" t="s">
         <v>47</v>
       </c>
-      <c r="J5" s="25"/>
+      <c r="J5" s="22"/>
       <c r="K5" t="s">
-        <v>81</v>
-      </c>
-      <c r="N5" s="25"/>
+        <v>82</v>
+      </c>
+      <c r="N5" s="22"/>
       <c r="O5" t="s">
         <v>114</v>
       </c>
-      <c r="R5" s="25"/>
+      <c r="R5" s="22"/>
       <c r="S5" t="s">
         <v>147</v>
       </c>
-      <c r="V5" s="24"/>
+      <c r="V5" s="21"/>
       <c r="W5" t="s">
         <v>181</v>
       </c>
@@ -2818,29 +2845,29 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="25"/>
+      <c r="B6" s="22"/>
       <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="22" t="s">
         <v>5</v>
       </c>
       <c r="G6" t="s">
         <v>215</v>
       </c>
-      <c r="J6" s="25"/>
+      <c r="J6" s="22"/>
       <c r="K6" t="s">
-        <v>82</v>
-      </c>
-      <c r="N6" s="25"/>
+        <v>352</v>
+      </c>
+      <c r="N6" s="22"/>
       <c r="O6" t="s">
         <v>115</v>
       </c>
-      <c r="R6" s="25"/>
+      <c r="R6" s="22"/>
       <c r="S6" t="s">
         <v>148</v>
       </c>
-      <c r="V6" s="25" t="s">
+      <c r="V6" s="22" t="s">
         <v>5</v>
       </c>
       <c r="W6" t="s">
@@ -2851,27 +2878,27 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="25"/>
+      <c r="B7" s="22"/>
       <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="25"/>
+        <v>8</v>
+      </c>
+      <c r="F7" s="22"/>
       <c r="G7" t="s">
         <v>52</v>
       </c>
-      <c r="J7" s="25"/>
+      <c r="J7" s="22"/>
       <c r="K7" t="s">
-        <v>84</v>
-      </c>
-      <c r="N7" s="25"/>
+        <v>85</v>
+      </c>
+      <c r="N7" s="22"/>
       <c r="O7" t="s">
         <v>116</v>
       </c>
-      <c r="R7" s="25"/>
+      <c r="R7" s="22"/>
       <c r="S7" t="s">
         <v>149</v>
       </c>
-      <c r="V7" s="25"/>
+      <c r="V7" s="22"/>
       <c r="W7" t="s">
         <v>250</v>
       </c>
@@ -2880,27 +2907,29 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="25"/>
+      <c r="B8" s="22"/>
       <c r="C8" t="s">
-        <v>80</v>
-      </c>
-      <c r="F8" s="25"/>
+        <v>9</v>
+      </c>
+      <c r="F8" s="22"/>
       <c r="G8" t="s">
         <v>50</v>
       </c>
-      <c r="J8" s="25"/>
+      <c r="J8" s="23" t="s">
+        <v>12</v>
+      </c>
       <c r="K8" t="s">
-        <v>352</v>
-      </c>
-      <c r="N8" s="25"/>
+        <v>15</v>
+      </c>
+      <c r="N8" s="22"/>
       <c r="O8" t="s">
         <v>117</v>
       </c>
-      <c r="R8" s="25"/>
+      <c r="R8" s="22"/>
       <c r="S8" t="s">
         <v>150</v>
       </c>
-      <c r="V8" s="25"/>
+      <c r="V8" s="22"/>
       <c r="W8" t="s">
         <v>184</v>
       </c>
@@ -2909,27 +2938,27 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="25"/>
+      <c r="B9" s="22"/>
       <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="25"/>
+        <v>80</v>
+      </c>
+      <c r="F9" s="22"/>
       <c r="G9" t="s">
         <v>49</v>
       </c>
-      <c r="J9" s="25"/>
+      <c r="J9" s="23"/>
       <c r="K9" t="s">
-        <v>85</v>
-      </c>
-      <c r="N9" s="25"/>
+        <v>188</v>
+      </c>
+      <c r="N9" s="22"/>
       <c r="O9" t="s">
         <v>118</v>
       </c>
-      <c r="R9" s="25"/>
+      <c r="R9" s="22"/>
       <c r="S9" t="s">
         <v>151</v>
       </c>
-      <c r="V9" s="25"/>
+      <c r="V9" s="22"/>
       <c r="W9" t="s">
         <v>252</v>
       </c>
@@ -2938,35 +2967,31 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="20" t="s">
-        <v>12</v>
-      </c>
+      <c r="B10" s="22"/>
       <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="23" t="s">
         <v>12</v>
       </c>
       <c r="G10" t="s">
         <v>54</v>
       </c>
-      <c r="J10" s="20" t="s">
-        <v>12</v>
-      </c>
+      <c r="J10" s="23"/>
       <c r="K10" t="s">
-        <v>15</v>
-      </c>
-      <c r="N10" s="25"/>
+        <v>17</v>
+      </c>
+      <c r="N10" s="22"/>
       <c r="O10" t="s">
         <v>119</v>
       </c>
-      <c r="R10" s="20" t="s">
+      <c r="R10" s="23" t="s">
         <v>12</v>
       </c>
       <c r="S10" t="s">
         <v>152</v>
       </c>
-      <c r="V10" s="25"/>
+      <c r="V10" s="22"/>
       <c r="W10" t="s">
         <v>186</v>
       </c>
@@ -2975,29 +3000,31 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="20"/>
+      <c r="B11" s="23" t="s">
+        <v>12</v>
+      </c>
       <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="20"/>
+        <v>13</v>
+      </c>
+      <c r="F11" s="23"/>
       <c r="G11" t="s">
         <v>56</v>
       </c>
-      <c r="J11" s="20"/>
+      <c r="J11" s="23"/>
       <c r="K11" t="s">
-        <v>188</v>
-      </c>
-      <c r="N11" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="N11" s="23" t="s">
         <v>12</v>
       </c>
       <c r="O11" t="s">
         <v>120</v>
       </c>
-      <c r="R11" s="20"/>
+      <c r="R11" s="23"/>
       <c r="S11" t="s">
         <v>153</v>
       </c>
-      <c r="V11" s="25"/>
+      <c r="V11" s="22"/>
       <c r="W11" t="s">
         <v>187</v>
       </c>
@@ -3006,27 +3033,27 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="20"/>
+      <c r="B12" s="23"/>
       <c r="C12" t="s">
-        <v>86</v>
-      </c>
-      <c r="F12" s="20"/>
+        <v>14</v>
+      </c>
+      <c r="F12" s="23"/>
       <c r="G12" t="s">
         <v>58</v>
       </c>
-      <c r="J12" s="20"/>
+      <c r="J12" s="23"/>
       <c r="K12" t="s">
-        <v>17</v>
-      </c>
-      <c r="N12" s="20"/>
+        <v>16</v>
+      </c>
+      <c r="N12" s="23"/>
       <c r="O12" t="s">
         <v>121</v>
       </c>
-      <c r="R12" s="20"/>
+      <c r="R12" s="23"/>
       <c r="S12" t="s">
         <v>154</v>
       </c>
-      <c r="V12" s="25"/>
+      <c r="V12" s="22"/>
       <c r="W12" t="s">
         <v>53</v>
       </c>
@@ -3035,27 +3062,27 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="20"/>
+      <c r="B13" s="23"/>
       <c r="C13" t="s">
-        <v>89</v>
-      </c>
-      <c r="F13" s="20"/>
+        <v>86</v>
+      </c>
+      <c r="F13" s="23"/>
       <c r="G13" t="s">
         <v>59</v>
       </c>
-      <c r="J13" s="20"/>
+      <c r="J13" s="23"/>
       <c r="K13" t="s">
-        <v>88</v>
-      </c>
-      <c r="N13" s="20"/>
+        <v>22</v>
+      </c>
+      <c r="N13" s="23"/>
       <c r="O13" t="s">
         <v>122</v>
       </c>
-      <c r="R13" s="20"/>
+      <c r="R13" s="23"/>
       <c r="S13" t="s">
         <v>155</v>
       </c>
-      <c r="V13" s="25"/>
+      <c r="V13" s="22"/>
       <c r="W13" t="s">
         <v>10</v>
       </c>
@@ -3064,27 +3091,27 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="20"/>
+      <c r="B14" s="23"/>
       <c r="C14" t="s">
-        <v>87</v>
-      </c>
-      <c r="F14" s="20"/>
+        <v>89</v>
+      </c>
+      <c r="F14" s="23"/>
       <c r="G14" t="s">
         <v>226</v>
       </c>
-      <c r="J14" s="20"/>
+      <c r="J14" s="23"/>
       <c r="K14" t="s">
-        <v>16</v>
-      </c>
-      <c r="N14" s="20"/>
+        <v>194</v>
+      </c>
+      <c r="N14" s="23"/>
       <c r="O14" t="s">
         <v>123</v>
       </c>
-      <c r="R14" s="20"/>
+      <c r="R14" s="23"/>
       <c r="S14" t="s">
         <v>156</v>
       </c>
-      <c r="V14" s="20" t="s">
+      <c r="V14" s="23" t="s">
         <v>12</v>
       </c>
       <c r="W14" t="s">
@@ -3095,29 +3122,27 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="26" t="s">
-        <v>18</v>
-      </c>
+      <c r="B15" s="23"/>
       <c r="C15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="20"/>
+        <v>87</v>
+      </c>
+      <c r="F15" s="23"/>
       <c r="G15" t="s">
         <v>225</v>
       </c>
-      <c r="J15" s="20"/>
+      <c r="J15" s="23"/>
       <c r="K15" t="s">
         <v>23</v>
       </c>
-      <c r="N15" s="20"/>
+      <c r="N15" s="23"/>
       <c r="O15" t="s">
         <v>124</v>
       </c>
-      <c r="R15" s="20"/>
+      <c r="R15" s="23"/>
       <c r="S15" t="s">
         <v>157</v>
       </c>
-      <c r="V15" s="20"/>
+      <c r="V15" s="23"/>
       <c r="W15" t="s">
         <v>189</v>
       </c>
@@ -3126,29 +3151,33 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="26"/>
+      <c r="B16" s="27" t="s">
+        <v>18</v>
+      </c>
       <c r="C16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G16" t="s">
         <v>60</v>
       </c>
-      <c r="J16" s="20"/>
+      <c r="J16" s="27" t="s">
+        <v>18</v>
+      </c>
       <c r="K16" t="s">
-        <v>259</v>
-      </c>
-      <c r="N16" s="20"/>
+        <v>95</v>
+      </c>
+      <c r="N16" s="23"/>
       <c r="O16" t="s">
         <v>125</v>
       </c>
-      <c r="R16" s="20"/>
+      <c r="R16" s="23"/>
       <c r="S16" t="s">
         <v>158</v>
       </c>
-      <c r="V16" s="20"/>
+      <c r="V16" s="23"/>
       <c r="W16" t="s">
         <v>190</v>
       </c>
@@ -3157,31 +3186,29 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="26"/>
+      <c r="B17" s="27"/>
       <c r="C17" t="s">
-        <v>96</v>
-      </c>
-      <c r="F17" s="26"/>
+        <v>20</v>
+      </c>
+      <c r="F17" s="27"/>
       <c r="G17" t="s">
         <v>62</v>
       </c>
-      <c r="J17" s="26" t="s">
-        <v>18</v>
-      </c>
+      <c r="J17" s="27"/>
       <c r="K17" t="s">
-        <v>95</v>
-      </c>
-      <c r="N17" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="N17" s="27" t="s">
         <v>18</v>
       </c>
       <c r="O17" t="s">
         <v>126</v>
       </c>
-      <c r="R17" s="20"/>
+      <c r="R17" s="23"/>
       <c r="S17" t="s">
         <v>159</v>
       </c>
-      <c r="V17" s="20"/>
+      <c r="V17" s="23"/>
       <c r="W17" t="s">
         <v>191</v>
       </c>
@@ -3190,29 +3217,27 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="27" t="s">
-        <v>24</v>
-      </c>
+      <c r="B18" s="27"/>
       <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="26"/>
+        <v>96</v>
+      </c>
+      <c r="F18" s="27"/>
       <c r="G18" t="s">
         <v>63</v>
       </c>
-      <c r="J18" s="26"/>
+      <c r="J18" s="27"/>
       <c r="K18" t="s">
-        <v>21</v>
-      </c>
-      <c r="N18" s="26"/>
+        <v>98</v>
+      </c>
+      <c r="N18" s="27"/>
       <c r="O18" t="s">
         <v>127</v>
       </c>
-      <c r="R18" s="20"/>
+      <c r="R18" s="23"/>
       <c r="S18" t="s">
         <v>160</v>
       </c>
-      <c r="V18" s="20"/>
+      <c r="V18" s="23"/>
       <c r="W18" t="s">
         <v>91</v>
       </c>
@@ -3221,31 +3246,35 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="27"/>
+      <c r="B19" s="28" t="s">
+        <v>24</v>
+      </c>
       <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="28" t="s">
         <v>24</v>
       </c>
       <c r="G19" t="s">
         <v>64</v>
       </c>
-      <c r="J19" s="26"/>
+      <c r="J19" s="28" t="s">
+        <v>24</v>
+      </c>
       <c r="K19" t="s">
-        <v>98</v>
-      </c>
-      <c r="N19" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="N19" s="28" t="s">
         <v>24</v>
       </c>
       <c r="O19" t="s">
         <v>128</v>
       </c>
-      <c r="R19" s="20"/>
+      <c r="R19" s="23"/>
       <c r="S19" t="s">
         <v>161</v>
       </c>
-      <c r="V19" s="20"/>
+      <c r="V19" s="23"/>
       <c r="W19" t="s">
         <v>261</v>
       </c>
@@ -3254,31 +3283,29 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="27"/>
+      <c r="B20" s="28"/>
       <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" s="27"/>
+        <v>26</v>
+      </c>
+      <c r="F20" s="28"/>
       <c r="G20" t="s">
         <v>65</v>
       </c>
-      <c r="J20" s="27" t="s">
-        <v>24</v>
-      </c>
+      <c r="J20" s="28"/>
       <c r="K20" t="s">
-        <v>99</v>
-      </c>
-      <c r="N20" s="27"/>
+        <v>28</v>
+      </c>
+      <c r="N20" s="28"/>
       <c r="O20" t="s">
         <v>129</v>
       </c>
-      <c r="R20" s="26" t="s">
+      <c r="R20" s="27" t="s">
         <v>18</v>
       </c>
       <c r="S20" t="s">
         <v>162</v>
       </c>
-      <c r="V20" s="20"/>
+      <c r="V20" s="23"/>
       <c r="W20" t="s">
         <v>94</v>
       </c>
@@ -3287,27 +3314,27 @@
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="27"/>
+      <c r="B21" s="28"/>
       <c r="C21" t="s">
-        <v>100</v>
-      </c>
-      <c r="F21" s="27"/>
+        <v>27</v>
+      </c>
+      <c r="F21" s="28"/>
       <c r="G21" t="s">
         <v>66</v>
       </c>
-      <c r="J21" s="27"/>
+      <c r="J21" s="28"/>
       <c r="K21" t="s">
-        <v>28</v>
-      </c>
-      <c r="N21" s="27"/>
+        <v>29</v>
+      </c>
+      <c r="N21" s="28"/>
       <c r="O21" t="s">
         <v>130</v>
       </c>
-      <c r="R21" s="26"/>
+      <c r="R21" s="27"/>
       <c r="S21" t="s">
         <v>163</v>
       </c>
-      <c r="V21" s="20"/>
+      <c r="V21" s="23"/>
       <c r="W21" t="s">
         <v>193</v>
       </c>
@@ -3316,31 +3343,31 @@
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="21" t="s">
-        <v>30</v>
-      </c>
+      <c r="B22" s="28"/>
       <c r="C22" t="s">
-        <v>31</v>
-      </c>
-      <c r="F22" s="27"/>
+        <v>100</v>
+      </c>
+      <c r="F22" s="28"/>
       <c r="G22" t="s">
         <v>67</v>
       </c>
-      <c r="J22" s="27"/>
+      <c r="J22" s="24" t="s">
+        <v>30</v>
+      </c>
       <c r="K22" t="s">
-        <v>29</v>
-      </c>
-      <c r="N22" s="27"/>
+        <v>103</v>
+      </c>
+      <c r="N22" s="28"/>
       <c r="O22" t="s">
         <v>131</v>
       </c>
-      <c r="R22" s="27" t="s">
+      <c r="R22" s="28" t="s">
         <v>24</v>
       </c>
       <c r="S22" t="s">
         <v>164</v>
       </c>
-      <c r="V22" s="20"/>
+      <c r="V22" s="23"/>
       <c r="W22" t="s">
         <v>195</v>
       </c>
@@ -3349,31 +3376,31 @@
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="21"/>
+      <c r="B23" s="24" t="s">
+        <v>30</v>
+      </c>
       <c r="C23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F23" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="24" t="s">
         <v>30</v>
       </c>
       <c r="G23" t="s">
         <v>69</v>
       </c>
-      <c r="J23" s="21" t="s">
-        <v>30</v>
-      </c>
+      <c r="J23" s="24"/>
       <c r="K23" t="s">
-        <v>103</v>
-      </c>
-      <c r="N23" s="27"/>
+        <v>104</v>
+      </c>
+      <c r="N23" s="28"/>
       <c r="O23" t="s">
         <v>132</v>
       </c>
-      <c r="R23" s="27"/>
+      <c r="R23" s="28"/>
       <c r="S23" t="s">
         <v>165</v>
       </c>
-      <c r="V23" s="20"/>
+      <c r="V23" s="23"/>
       <c r="W23" t="s">
         <v>196</v>
       </c>
@@ -3382,29 +3409,29 @@
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="21"/>
+      <c r="B24" s="24"/>
       <c r="C24" t="s">
-        <v>33</v>
-      </c>
-      <c r="F24" s="21"/>
+        <v>32</v>
+      </c>
+      <c r="F24" s="24"/>
       <c r="G24" t="s">
         <v>70</v>
       </c>
-      <c r="J24" s="21"/>
+      <c r="J24" s="24"/>
       <c r="K24" t="s">
-        <v>104</v>
-      </c>
-      <c r="N24" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="N24" s="24" t="s">
         <v>30</v>
       </c>
       <c r="O24" t="s">
         <v>133</v>
       </c>
-      <c r="R24" s="27"/>
+      <c r="R24" s="28"/>
       <c r="S24" t="s">
         <v>166</v>
       </c>
-      <c r="V24" s="26" t="s">
+      <c r="V24" s="27" t="s">
         <v>18</v>
       </c>
       <c r="W24" t="s">
@@ -3415,27 +3442,29 @@
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="21"/>
+      <c r="B25" s="24"/>
       <c r="C25" t="s">
-        <v>106</v>
-      </c>
-      <c r="F25" s="21"/>
+        <v>33</v>
+      </c>
+      <c r="F25" s="24"/>
       <c r="G25" t="s">
         <v>71</v>
       </c>
-      <c r="J25" s="21"/>
+      <c r="J25" s="25" t="s">
+        <v>36</v>
+      </c>
       <c r="K25" t="s">
-        <v>105</v>
-      </c>
-      <c r="N25" s="21"/>
+        <v>40</v>
+      </c>
+      <c r="N25" s="24"/>
       <c r="O25" t="s">
         <v>134</v>
       </c>
-      <c r="R25" s="27"/>
+      <c r="R25" s="28"/>
       <c r="S25" t="s">
         <v>167</v>
       </c>
-      <c r="V25" s="26"/>
+      <c r="V25" s="27"/>
       <c r="W25" t="s">
         <v>198</v>
       </c>
@@ -3444,33 +3473,29 @@
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="22" t="s">
-        <v>36</v>
-      </c>
+      <c r="B26" s="24"/>
       <c r="C26" t="s">
-        <v>37</v>
-      </c>
-      <c r="F26" s="21"/>
+        <v>106</v>
+      </c>
+      <c r="F26" s="24"/>
       <c r="G26" t="s">
         <v>68</v>
       </c>
-      <c r="J26" s="22" t="s">
-        <v>36</v>
-      </c>
+      <c r="J26" s="25"/>
       <c r="K26" t="s">
-        <v>40</v>
-      </c>
-      <c r="N26" s="21"/>
+        <v>108</v>
+      </c>
+      <c r="N26" s="24"/>
       <c r="O26" t="s">
         <v>135</v>
       </c>
-      <c r="R26" s="21" t="s">
+      <c r="R26" s="24" t="s">
         <v>30</v>
       </c>
       <c r="S26" t="s">
         <v>168</v>
       </c>
-      <c r="V26" s="26"/>
+      <c r="V26" s="27"/>
       <c r="W26" t="s">
         <v>199</v>
       </c>
@@ -3479,29 +3504,31 @@
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="22"/>
+      <c r="B27" s="25" t="s">
+        <v>36</v>
+      </c>
       <c r="C27" t="s">
-        <v>38</v>
-      </c>
-      <c r="F27" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" s="25" t="s">
         <v>36</v>
       </c>
       <c r="G27" t="s">
         <v>72</v>
       </c>
-      <c r="J27" s="22"/>
+      <c r="J27" s="25"/>
       <c r="K27" t="s">
-        <v>108</v>
-      </c>
-      <c r="N27" s="21"/>
+        <v>110</v>
+      </c>
+      <c r="N27" s="24"/>
       <c r="O27" t="s">
         <v>136</v>
       </c>
-      <c r="R27" s="21"/>
+      <c r="R27" s="24"/>
       <c r="S27" t="s">
         <v>169</v>
       </c>
-      <c r="V27" s="27" t="s">
+      <c r="V27" s="28" t="s">
         <v>24</v>
       </c>
       <c r="W27" t="s">
@@ -3512,27 +3539,27 @@
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="22"/>
+      <c r="B28" s="25"/>
       <c r="C28" t="s">
-        <v>39</v>
-      </c>
-      <c r="F28" s="22"/>
+        <v>38</v>
+      </c>
+      <c r="F28" s="25"/>
       <c r="G28" t="s">
         <v>73</v>
       </c>
-      <c r="J28" s="22"/>
+      <c r="J28" s="25"/>
       <c r="K28" t="s">
-        <v>110</v>
-      </c>
-      <c r="N28" s="21"/>
+        <v>41</v>
+      </c>
+      <c r="N28" s="24"/>
       <c r="O28" t="s">
         <v>137</v>
       </c>
-      <c r="R28" s="21"/>
+      <c r="R28" s="24"/>
       <c r="S28" t="s">
         <v>170</v>
       </c>
-      <c r="V28" s="27"/>
+      <c r="V28" s="28"/>
       <c r="W28" t="s">
         <v>201</v>
       </c>
@@ -3541,27 +3568,23 @@
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="22"/>
+      <c r="B29" s="25"/>
       <c r="C29" t="s">
-        <v>107</v>
-      </c>
-      <c r="F29" s="22"/>
+        <v>39</v>
+      </c>
+      <c r="F29" s="25"/>
       <c r="G29" t="s">
         <v>74</v>
       </c>
-      <c r="J29" s="22"/>
-      <c r="K29" t="s">
-        <v>41</v>
-      </c>
-      <c r="N29" s="21"/>
+      <c r="N29" s="24"/>
       <c r="O29" t="s">
         <v>138</v>
       </c>
-      <c r="R29" s="21"/>
+      <c r="R29" s="24"/>
       <c r="S29" t="s">
         <v>171</v>
       </c>
-      <c r="V29" s="27"/>
+      <c r="V29" s="28"/>
       <c r="W29" t="s">
         <v>202</v>
       </c>
@@ -3570,21 +3593,25 @@
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="F30" s="22"/>
+      <c r="B30" s="25"/>
+      <c r="C30" t="s">
+        <v>107</v>
+      </c>
+      <c r="F30" s="25"/>
       <c r="G30" t="s">
         <v>75</v>
       </c>
-      <c r="N30" s="22" t="s">
+      <c r="N30" s="25" t="s">
         <v>36</v>
       </c>
       <c r="O30" t="s">
         <v>139</v>
       </c>
-      <c r="R30" s="21"/>
+      <c r="R30" s="24"/>
       <c r="S30" t="s">
         <v>172</v>
       </c>
-      <c r="V30" s="27"/>
+      <c r="V30" s="28"/>
       <c r="W30" t="s">
         <v>203</v>
       </c>
@@ -3593,21 +3620,21 @@
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="F31" s="22"/>
+      <c r="F31" s="25"/>
       <c r="G31" t="s">
         <v>275</v>
       </c>
-      <c r="N31" s="22"/>
+      <c r="N31" s="25"/>
       <c r="O31" t="s">
         <v>140</v>
       </c>
-      <c r="R31" s="22" t="s">
+      <c r="R31" s="25" t="s">
         <v>36</v>
       </c>
       <c r="S31" t="s">
         <v>173</v>
       </c>
-      <c r="V31" s="21" t="s">
+      <c r="V31" s="24" t="s">
         <v>30</v>
       </c>
       <c r="W31" t="s">
@@ -3615,51 +3642,51 @@
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="N32" s="22"/>
+      <c r="N32" s="25"/>
       <c r="O32" t="s">
         <v>141</v>
       </c>
-      <c r="R32" s="22"/>
+      <c r="R32" s="25"/>
       <c r="S32" t="s">
         <v>174</v>
       </c>
-      <c r="V32" s="21"/>
+      <c r="V32" s="24"/>
       <c r="W32" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="N33" s="22"/>
+      <c r="N33" s="25"/>
       <c r="O33" t="s">
         <v>142</v>
       </c>
-      <c r="R33" s="22"/>
+      <c r="R33" s="25"/>
       <c r="S33" t="s">
         <v>175</v>
       </c>
-      <c r="V33" s="21"/>
+      <c r="V33" s="24"/>
       <c r="W33" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="R34" s="22"/>
+      <c r="R34" s="25"/>
       <c r="S34" t="s">
         <v>176</v>
       </c>
-      <c r="V34" s="21"/>
+      <c r="V34" s="24"/>
       <c r="W34" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="V35" s="21"/>
+      <c r="V35" s="24"/>
       <c r="W35" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="V36" s="22" t="s">
+      <c r="V36" s="25" t="s">
         <v>36</v>
       </c>
       <c r="W36" t="s">
@@ -3667,19 +3694,19 @@
       </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="V37" s="22"/>
+      <c r="V37" s="25"/>
       <c r="W37" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="V38" s="22"/>
+      <c r="V38" s="25"/>
       <c r="W38" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="V39" s="22"/>
+      <c r="V39" s="25"/>
       <c r="W39" t="s">
         <v>211</v>
       </c>
@@ -3700,48 +3727,48 @@
       <c r="R43" t="s">
         <v>315</v>
       </c>
-      <c r="V43" s="23" t="s">
+      <c r="V43" s="26" t="s">
         <v>316</v>
       </c>
-      <c r="W43" s="23"/>
-      <c r="X43" s="23"/>
-      <c r="Y43" s="23"/>
+      <c r="W43" s="26"/>
+      <c r="X43" s="26"/>
+      <c r="Y43" s="26"/>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>1</v>
       </c>
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="21" t="s">
         <v>1</v>
       </c>
       <c r="C44" t="s">
         <v>44</v>
       </c>
-      <c r="F44" s="24" t="s">
+      <c r="F44" s="21" t="s">
         <v>1</v>
       </c>
       <c r="G44" t="s">
         <v>246</v>
       </c>
-      <c r="J44" s="24" t="s">
+      <c r="J44" s="21" t="s">
         <v>1</v>
       </c>
       <c r="K44" t="s">
         <v>280</v>
       </c>
-      <c r="N44" s="24" t="s">
+      <c r="N44" s="21" t="s">
         <v>1</v>
       </c>
       <c r="O44" t="s">
         <v>317</v>
       </c>
-      <c r="R44" s="24" t="s">
+      <c r="R44" s="21" t="s">
         <v>1</v>
       </c>
       <c r="S44" t="s">
         <v>348</v>
       </c>
-      <c r="V44" s="24" t="s">
+      <c r="V44" s="21" t="s">
         <v>1</v>
       </c>
       <c r="W44" t="s">
@@ -3752,27 +3779,27 @@
       <c r="A45" s="1">
         <v>2</v>
       </c>
-      <c r="B45" s="24"/>
+      <c r="B45" s="21"/>
       <c r="C45" t="s">
         <v>214</v>
       </c>
-      <c r="F45" s="24"/>
+      <c r="F45" s="21"/>
       <c r="G45" t="s">
         <v>247</v>
       </c>
-      <c r="J45" s="24"/>
+      <c r="J45" s="21"/>
       <c r="K45" t="s">
         <v>281</v>
       </c>
-      <c r="N45" s="24"/>
+      <c r="N45" s="21"/>
       <c r="O45" t="s">
         <v>318</v>
       </c>
-      <c r="R45" s="24"/>
+      <c r="R45" s="21"/>
       <c r="S45" t="s">
         <v>349</v>
       </c>
-      <c r="V45" s="24"/>
+      <c r="V45" s="21"/>
       <c r="W45" t="s">
         <v>379</v>
       </c>
@@ -3781,27 +3808,27 @@
       <c r="A46" s="1">
         <v>3</v>
       </c>
-      <c r="B46" s="24"/>
+      <c r="B46" s="21"/>
       <c r="C46" t="s">
         <v>213</v>
       </c>
-      <c r="F46" s="24"/>
+      <c r="F46" s="21"/>
       <c r="G46" t="s">
         <v>79</v>
       </c>
-      <c r="J46" s="24"/>
+      <c r="J46" s="21"/>
       <c r="K46" t="s">
         <v>282</v>
       </c>
-      <c r="N46" s="24"/>
+      <c r="N46" s="21"/>
       <c r="O46" t="s">
         <v>319</v>
       </c>
-      <c r="R46" s="24"/>
+      <c r="R46" s="21"/>
       <c r="S46" t="s">
         <v>78</v>
       </c>
-      <c r="V46" s="24"/>
+      <c r="V46" s="21"/>
       <c r="W46" t="s">
         <v>380</v>
       </c>
@@ -3810,35 +3837,35 @@
       <c r="A47" s="1">
         <v>4</v>
       </c>
-      <c r="B47" s="25" t="s">
+      <c r="B47" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C47" t="s">
         <v>216</v>
       </c>
-      <c r="F47" s="25" t="s">
+      <c r="F47" s="22" t="s">
         <v>5</v>
       </c>
       <c r="G47" t="s">
         <v>183</v>
       </c>
-      <c r="J47" s="25" t="s">
+      <c r="J47" s="22" t="s">
         <v>5</v>
       </c>
       <c r="K47" t="s">
         <v>283</v>
       </c>
-      <c r="N47" s="25" t="s">
+      <c r="N47" s="22" t="s">
         <v>5</v>
       </c>
       <c r="O47" t="s">
         <v>320</v>
       </c>
-      <c r="R47" s="24"/>
+      <c r="R47" s="21"/>
       <c r="S47" t="s">
         <v>350</v>
       </c>
-      <c r="V47" s="25" t="s">
+      <c r="V47" s="22" t="s">
         <v>5</v>
       </c>
       <c r="W47" t="s">
@@ -3849,29 +3876,29 @@
       <c r="A48" s="1">
         <v>5</v>
       </c>
-      <c r="B48" s="25"/>
+      <c r="B48" s="22"/>
       <c r="C48" t="s">
         <v>217</v>
       </c>
-      <c r="F48" s="25"/>
+      <c r="F48" s="22"/>
       <c r="G48" t="s">
-        <v>321</v>
-      </c>
-      <c r="J48" s="25"/>
+        <v>84</v>
+      </c>
+      <c r="J48" s="22"/>
       <c r="K48" t="s">
         <v>284</v>
       </c>
-      <c r="N48" s="25"/>
+      <c r="N48" s="22"/>
       <c r="O48" t="s">
         <v>251</v>
       </c>
-      <c r="R48" s="25" t="s">
+      <c r="R48" s="22" t="s">
         <v>5</v>
       </c>
       <c r="S48" t="s">
         <v>351</v>
       </c>
-      <c r="V48" s="25"/>
+      <c r="V48" s="22"/>
       <c r="W48" t="s">
         <v>382</v>
       </c>
@@ -3880,27 +3907,27 @@
       <c r="A49" s="1">
         <v>6</v>
       </c>
-      <c r="B49" s="25"/>
+      <c r="B49" s="22"/>
       <c r="C49" t="s">
         <v>221</v>
       </c>
-      <c r="F49" s="25"/>
+      <c r="F49" s="22"/>
       <c r="G49" t="s">
-        <v>185</v>
-      </c>
-      <c r="J49" s="25"/>
+        <v>51</v>
+      </c>
+      <c r="J49" s="22"/>
       <c r="K49" t="s">
         <v>285</v>
       </c>
-      <c r="N49" s="25"/>
+      <c r="N49" s="22"/>
       <c r="O49" t="s">
         <v>322</v>
       </c>
-      <c r="R49" s="25"/>
+      <c r="R49" s="22"/>
       <c r="S49" t="s">
         <v>48</v>
       </c>
-      <c r="V49" s="25"/>
+      <c r="V49" s="22"/>
       <c r="W49" t="s">
         <v>383</v>
       </c>
@@ -3909,31 +3936,31 @@
       <c r="A50" s="1">
         <v>7</v>
       </c>
-      <c r="B50" s="25"/>
+      <c r="B50" s="22"/>
       <c r="C50" t="s">
         <v>222</v>
       </c>
-      <c r="F50" s="25"/>
+      <c r="F50" s="22"/>
       <c r="G50" t="s">
-        <v>249</v>
-      </c>
-      <c r="J50" s="20" t="s">
+        <v>321</v>
+      </c>
+      <c r="J50" s="23" t="s">
         <v>12</v>
       </c>
       <c r="K50" t="s">
         <v>286</v>
       </c>
-      <c r="N50" s="20" t="s">
+      <c r="N50" s="23" t="s">
         <v>12</v>
       </c>
       <c r="O50" t="s">
         <v>323</v>
       </c>
-      <c r="R50" s="25"/>
+      <c r="R50" s="22"/>
       <c r="S50" t="s">
         <v>353</v>
       </c>
-      <c r="V50" s="25"/>
+      <c r="V50" s="22"/>
       <c r="W50" t="s">
         <v>384</v>
       </c>
@@ -3942,29 +3969,29 @@
       <c r="A51" s="1">
         <v>8</v>
       </c>
-      <c r="B51" s="20" t="s">
+      <c r="B51" s="23" t="s">
         <v>12</v>
       </c>
       <c r="C51" t="s">
         <v>57</v>
       </c>
-      <c r="F51" s="25"/>
+      <c r="F51" s="22"/>
       <c r="G51" t="s">
-        <v>253</v>
-      </c>
-      <c r="J51" s="20"/>
+        <v>83</v>
+      </c>
+      <c r="J51" s="23"/>
       <c r="K51" t="s">
         <v>287</v>
       </c>
-      <c r="N51" s="20"/>
+      <c r="N51" s="23"/>
       <c r="O51" t="s">
         <v>324</v>
       </c>
-      <c r="R51" s="25"/>
+      <c r="R51" s="22"/>
       <c r="S51" t="s">
         <v>354</v>
       </c>
-      <c r="V51" s="25"/>
+      <c r="V51" s="22"/>
       <c r="W51" t="s">
         <v>385</v>
       </c>
@@ -3973,27 +4000,27 @@
       <c r="A52" s="1">
         <v>9</v>
       </c>
-      <c r="B52" s="20"/>
+      <c r="B52" s="23"/>
       <c r="C52" t="s">
         <v>218</v>
       </c>
-      <c r="F52" s="25"/>
+      <c r="F52" s="22"/>
       <c r="G52" t="s">
-        <v>254</v>
-      </c>
-      <c r="J52" s="20"/>
+        <v>249</v>
+      </c>
+      <c r="J52" s="23"/>
       <c r="K52" t="s">
         <v>288</v>
       </c>
-      <c r="N52" s="20"/>
+      <c r="N52" s="23"/>
       <c r="O52" t="s">
         <v>325</v>
       </c>
-      <c r="R52" s="25"/>
+      <c r="R52" s="22"/>
       <c r="S52" t="s">
         <v>355</v>
       </c>
-      <c r="V52" s="20" t="s">
+      <c r="V52" s="23" t="s">
         <v>12</v>
       </c>
       <c r="W52" t="s">
@@ -4004,29 +4031,29 @@
       <c r="A53" s="1">
         <v>10</v>
       </c>
-      <c r="B53" s="20"/>
+      <c r="B53" s="23"/>
       <c r="C53" t="s">
         <v>219</v>
       </c>
-      <c r="F53" s="25"/>
+      <c r="F53" s="22"/>
       <c r="G53" t="s">
-        <v>255</v>
-      </c>
-      <c r="J53" s="20"/>
+        <v>253</v>
+      </c>
+      <c r="J53" s="23"/>
       <c r="K53" t="s">
         <v>289</v>
       </c>
-      <c r="N53" s="20"/>
+      <c r="N53" s="23"/>
       <c r="O53" t="s">
         <v>326</v>
       </c>
-      <c r="R53" s="20" t="s">
+      <c r="R53" s="23" t="s">
         <v>12</v>
       </c>
       <c r="S53" t="s">
         <v>356</v>
       </c>
-      <c r="V53" s="20"/>
+      <c r="V53" s="23"/>
       <c r="W53" t="s">
         <v>387</v>
       </c>
@@ -4035,27 +4062,27 @@
       <c r="A54" s="1">
         <v>11</v>
       </c>
-      <c r="B54" s="20"/>
+      <c r="B54" s="23"/>
       <c r="C54" t="s">
         <v>93</v>
       </c>
-      <c r="F54" s="25"/>
+      <c r="F54" s="22"/>
       <c r="G54" t="s">
-        <v>83</v>
-      </c>
-      <c r="J54" s="20"/>
+        <v>254</v>
+      </c>
+      <c r="J54" s="23"/>
       <c r="K54" t="s">
         <v>290</v>
       </c>
-      <c r="N54" s="20"/>
+      <c r="N54" s="23"/>
       <c r="O54" t="s">
         <v>327</v>
       </c>
-      <c r="R54" s="20"/>
+      <c r="R54" s="23"/>
       <c r="S54" t="s">
         <v>357</v>
       </c>
-      <c r="V54" s="20"/>
+      <c r="V54" s="23"/>
       <c r="W54" t="s">
         <v>388</v>
       </c>
@@ -4064,27 +4091,27 @@
       <c r="A55" s="1">
         <v>12</v>
       </c>
-      <c r="B55" s="20"/>
+      <c r="B55" s="23"/>
       <c r="C55" t="s">
         <v>220</v>
       </c>
-      <c r="F55" s="25"/>
+      <c r="F55" s="22"/>
       <c r="G55" t="s">
-        <v>51</v>
-      </c>
-      <c r="J55" s="20"/>
+        <v>255</v>
+      </c>
+      <c r="J55" s="23"/>
       <c r="K55" t="s">
         <v>291</v>
       </c>
-      <c r="N55" s="20"/>
+      <c r="N55" s="23"/>
       <c r="O55" t="s">
         <v>328</v>
       </c>
-      <c r="R55" s="20"/>
+      <c r="R55" s="23"/>
       <c r="S55" t="s">
         <v>358</v>
       </c>
-      <c r="V55" s="20"/>
+      <c r="V55" s="23"/>
       <c r="W55" t="s">
         <v>389</v>
       </c>
@@ -4093,29 +4120,27 @@
       <c r="A56" s="1">
         <v>13</v>
       </c>
-      <c r="B56" s="20"/>
+      <c r="B56" s="23"/>
       <c r="C56" t="s">
         <v>223</v>
       </c>
-      <c r="F56" s="20" t="s">
-        <v>12</v>
-      </c>
+      <c r="F56" s="22"/>
       <c r="G56" t="s">
-        <v>194</v>
-      </c>
-      <c r="J56" s="20"/>
+        <v>185</v>
+      </c>
+      <c r="J56" s="23"/>
       <c r="K56" t="s">
         <v>292</v>
       </c>
-      <c r="N56" s="20"/>
+      <c r="N56" s="23"/>
       <c r="O56" t="s">
         <v>329</v>
       </c>
-      <c r="R56" s="20"/>
+      <c r="R56" s="23"/>
       <c r="S56" t="s">
         <v>359</v>
       </c>
-      <c r="V56" s="20"/>
+      <c r="V56" s="23"/>
       <c r="W56" t="s">
         <v>390</v>
       </c>
@@ -4124,27 +4149,29 @@
       <c r="A57" s="1">
         <v>14</v>
       </c>
-      <c r="B57" s="20"/>
+      <c r="B57" s="23"/>
       <c r="C57" t="s">
         <v>224</v>
       </c>
-      <c r="F57" s="20"/>
+      <c r="F57" s="23" t="s">
+        <v>12</v>
+      </c>
       <c r="G57" t="s">
         <v>258</v>
       </c>
-      <c r="J57" s="20"/>
+      <c r="J57" s="23"/>
       <c r="K57" t="s">
         <v>293</v>
       </c>
-      <c r="N57" s="20"/>
+      <c r="N57" s="23"/>
       <c r="O57" t="s">
         <v>257</v>
       </c>
-      <c r="R57" s="20"/>
+      <c r="R57" s="23"/>
       <c r="S57" t="s">
         <v>360</v>
       </c>
-      <c r="V57" s="20"/>
+      <c r="V57" s="23"/>
       <c r="W57" t="s">
         <v>391</v>
       </c>
@@ -4153,27 +4180,27 @@
       <c r="A58" s="1">
         <v>15</v>
       </c>
-      <c r="B58" s="20"/>
+      <c r="B58" s="23"/>
       <c r="C58" t="s">
         <v>227</v>
       </c>
-      <c r="F58" s="20"/>
+      <c r="F58" s="23"/>
       <c r="G58" t="s">
-        <v>22</v>
-      </c>
-      <c r="J58" s="20"/>
+        <v>90</v>
+      </c>
+      <c r="J58" s="23"/>
       <c r="K58" t="s">
         <v>294</v>
       </c>
-      <c r="N58" s="20"/>
+      <c r="N58" s="23"/>
       <c r="O58" t="s">
         <v>263</v>
       </c>
-      <c r="R58" s="20"/>
+      <c r="R58" s="23"/>
       <c r="S58" t="s">
         <v>361</v>
       </c>
-      <c r="V58" s="20"/>
+      <c r="V58" s="23"/>
       <c r="W58" t="s">
         <v>392</v>
       </c>
@@ -4182,27 +4209,27 @@
       <c r="A59" s="1">
         <v>16</v>
       </c>
-      <c r="B59" s="20"/>
+      <c r="B59" s="23"/>
       <c r="C59" t="s">
         <v>228</v>
       </c>
-      <c r="F59" s="20"/>
+      <c r="F59" s="23"/>
       <c r="G59" t="s">
-        <v>90</v>
-      </c>
-      <c r="J59" s="20"/>
+        <v>262</v>
+      </c>
+      <c r="J59" s="23"/>
       <c r="K59" t="s">
         <v>295</v>
       </c>
-      <c r="N59" s="20"/>
+      <c r="N59" s="23"/>
       <c r="O59" t="s">
         <v>330</v>
       </c>
-      <c r="R59" s="20"/>
+      <c r="R59" s="23"/>
       <c r="S59" t="s">
         <v>362</v>
       </c>
-      <c r="V59" s="20"/>
+      <c r="V59" s="23"/>
       <c r="W59" t="s">
         <v>393</v>
       </c>
@@ -4211,31 +4238,31 @@
       <c r="A60" s="1">
         <v>17</v>
       </c>
-      <c r="B60" s="20"/>
+      <c r="B60" s="23"/>
       <c r="C60" t="s">
         <v>229</v>
       </c>
-      <c r="F60" s="20"/>
+      <c r="F60" s="23"/>
       <c r="G60" t="s">
         <v>260</v>
       </c>
-      <c r="J60" s="26" t="s">
+      <c r="J60" s="27" t="s">
         <v>18</v>
       </c>
       <c r="K60" t="s">
         <v>296</v>
       </c>
-      <c r="N60" s="26" t="s">
+      <c r="N60" s="27" t="s">
         <v>18</v>
       </c>
       <c r="O60" t="s">
         <v>331</v>
       </c>
-      <c r="R60" s="20"/>
+      <c r="R60" s="23"/>
       <c r="S60" t="s">
         <v>192</v>
       </c>
-      <c r="V60" s="26" t="s">
+      <c r="V60" s="27" t="s">
         <v>18</v>
       </c>
       <c r="W60" t="s">
@@ -4246,19 +4273,19 @@
       <c r="A61" s="1">
         <v>18</v>
       </c>
-      <c r="B61" s="20"/>
+      <c r="B61" s="23"/>
       <c r="C61" t="s">
         <v>55</v>
       </c>
-      <c r="F61" s="20"/>
+      <c r="F61" s="23"/>
       <c r="G61" t="s">
-        <v>262</v>
-      </c>
-      <c r="J61" s="26"/>
+        <v>92</v>
+      </c>
+      <c r="J61" s="27"/>
       <c r="K61" t="s">
         <v>297</v>
       </c>
-      <c r="N61" s="26"/>
+      <c r="N61" s="27"/>
       <c r="O61" t="s">
         <v>332</v>
       </c>
@@ -4268,7 +4295,7 @@
       <c r="S61" t="s">
         <v>363</v>
       </c>
-      <c r="V61" s="26"/>
+      <c r="V61" s="27"/>
       <c r="W61" t="s">
         <v>395</v>
       </c>
@@ -4277,31 +4304,31 @@
       <c r="A62" s="1">
         <v>19</v>
       </c>
-      <c r="B62" s="26" t="s">
+      <c r="B62" s="27" t="s">
         <v>18</v>
       </c>
       <c r="C62" t="s">
         <v>233</v>
       </c>
-      <c r="F62" s="20"/>
+      <c r="F62" s="23"/>
       <c r="G62" t="s">
-        <v>92</v>
-      </c>
-      <c r="J62" s="26"/>
+        <v>259</v>
+      </c>
+      <c r="J62" s="27"/>
       <c r="K62" t="s">
         <v>298</v>
       </c>
-      <c r="N62" s="26"/>
+      <c r="N62" s="27"/>
       <c r="O62" t="s">
         <v>333</v>
       </c>
-      <c r="R62" s="27" t="s">
+      <c r="R62" s="28" t="s">
         <v>24</v>
       </c>
       <c r="S62" t="s">
         <v>364</v>
       </c>
-      <c r="V62" s="26"/>
+      <c r="V62" s="27"/>
       <c r="W62" t="s">
         <v>396</v>
       </c>
@@ -4310,31 +4337,31 @@
       <c r="A63" s="1">
         <v>20</v>
       </c>
-      <c r="B63" s="26"/>
+      <c r="B63" s="27"/>
       <c r="C63" t="s">
         <v>230</v>
       </c>
-      <c r="F63" s="26" t="s">
+      <c r="F63" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G63" t="s">
         <v>264</v>
       </c>
-      <c r="J63" s="27" t="s">
+      <c r="J63" s="28" t="s">
         <v>24</v>
       </c>
       <c r="K63" t="s">
         <v>299</v>
       </c>
-      <c r="N63" s="26"/>
+      <c r="N63" s="27"/>
       <c r="O63" t="s">
         <v>334</v>
       </c>
-      <c r="R63" s="27"/>
+      <c r="R63" s="28"/>
       <c r="S63" t="s">
         <v>365</v>
       </c>
-      <c r="V63" s="26"/>
+      <c r="V63" s="27"/>
       <c r="W63" t="s">
         <v>397</v>
       </c>
@@ -4343,27 +4370,27 @@
       <c r="A64" s="1">
         <v>21</v>
       </c>
-      <c r="B64" s="26"/>
+      <c r="B64" s="27"/>
       <c r="C64" t="s">
         <v>231</v>
       </c>
-      <c r="F64" s="26"/>
+      <c r="F64" s="27"/>
       <c r="G64" t="s">
         <v>265</v>
       </c>
-      <c r="J64" s="27"/>
+      <c r="J64" s="28"/>
       <c r="K64" t="s">
         <v>300</v>
       </c>
-      <c r="N64" s="26"/>
+      <c r="N64" s="27"/>
       <c r="O64" t="s">
         <v>335</v>
       </c>
-      <c r="R64" s="27"/>
+      <c r="R64" s="28"/>
       <c r="S64" t="s">
         <v>366</v>
       </c>
-      <c r="V64" s="27" t="s">
+      <c r="V64" s="28" t="s">
         <v>24</v>
       </c>
       <c r="W64" t="s">
@@ -4374,29 +4401,29 @@
       <c r="A65" s="1">
         <v>22</v>
       </c>
-      <c r="B65" s="26"/>
+      <c r="B65" s="27"/>
       <c r="C65" t="s">
         <v>232</v>
       </c>
-      <c r="F65" s="26"/>
+      <c r="F65" s="27"/>
       <c r="G65" t="s">
         <v>97</v>
       </c>
-      <c r="J65" s="27"/>
+      <c r="J65" s="28"/>
       <c r="K65" t="s">
         <v>301</v>
       </c>
-      <c r="N65" s="27" t="s">
+      <c r="N65" s="28" t="s">
         <v>24</v>
       </c>
       <c r="O65" t="s">
         <v>336</v>
       </c>
-      <c r="R65" s="27"/>
+      <c r="R65" s="28"/>
       <c r="S65" t="s">
         <v>367</v>
       </c>
-      <c r="V65" s="27"/>
+      <c r="V65" s="28"/>
       <c r="W65" t="s">
         <v>399</v>
       </c>
@@ -4405,27 +4432,27 @@
       <c r="A66" s="1">
         <v>23</v>
       </c>
-      <c r="B66" s="26"/>
+      <c r="B66" s="27"/>
       <c r="C66" t="s">
         <v>61</v>
       </c>
-      <c r="F66" s="26"/>
+      <c r="F66" s="27"/>
       <c r="G66" t="s">
         <v>266</v>
       </c>
-      <c r="J66" s="27"/>
+      <c r="J66" s="28"/>
       <c r="K66" t="s">
         <v>302</v>
       </c>
-      <c r="N66" s="27"/>
+      <c r="N66" s="28"/>
       <c r="O66" t="s">
         <v>337</v>
       </c>
-      <c r="R66" s="27"/>
+      <c r="R66" s="28"/>
       <c r="S66" t="s">
         <v>368</v>
       </c>
-      <c r="V66" s="27"/>
+      <c r="V66" s="28"/>
       <c r="W66" t="s">
         <v>400</v>
       </c>
@@ -4434,31 +4461,31 @@
       <c r="A67" s="1">
         <v>24</v>
       </c>
-      <c r="B67" s="27" t="s">
+      <c r="B67" s="28" t="s">
         <v>24</v>
       </c>
       <c r="C67" t="s">
         <v>102</v>
       </c>
-      <c r="F67" s="26"/>
+      <c r="F67" s="27"/>
       <c r="G67" t="s">
         <v>267</v>
       </c>
-      <c r="J67" s="27"/>
+      <c r="J67" s="28"/>
       <c r="K67" t="s">
         <v>303</v>
       </c>
-      <c r="N67" s="27"/>
+      <c r="N67" s="28"/>
       <c r="O67" t="s">
         <v>338</v>
       </c>
-      <c r="R67" s="21" t="s">
+      <c r="R67" s="24" t="s">
         <v>30</v>
       </c>
       <c r="S67" t="s">
         <v>369</v>
       </c>
-      <c r="V67" s="27"/>
+      <c r="V67" s="28"/>
       <c r="W67" t="s">
         <v>401</v>
       </c>
@@ -4467,29 +4494,29 @@
       <c r="A68" s="1">
         <v>25</v>
       </c>
-      <c r="B68" s="27"/>
+      <c r="B68" s="28"/>
       <c r="C68" t="s">
         <v>234</v>
       </c>
-      <c r="F68" s="27" t="s">
+      <c r="F68" s="28" t="s">
         <v>24</v>
       </c>
       <c r="G68" t="s">
         <v>268</v>
       </c>
-      <c r="J68" s="27"/>
+      <c r="J68" s="28"/>
       <c r="K68" t="s">
         <v>304</v>
       </c>
-      <c r="N68" s="27"/>
+      <c r="N68" s="28"/>
       <c r="O68" t="s">
         <v>342</v>
       </c>
-      <c r="R68" s="21"/>
+      <c r="R68" s="24"/>
       <c r="S68" t="s">
         <v>370</v>
       </c>
-      <c r="V68" s="21" t="s">
+      <c r="V68" s="24" t="s">
         <v>30</v>
       </c>
       <c r="W68" t="s">
@@ -4500,29 +4527,29 @@
       <c r="A69" s="1">
         <v>26</v>
       </c>
-      <c r="B69" s="27"/>
+      <c r="B69" s="28"/>
       <c r="C69" t="s">
         <v>235</v>
       </c>
-      <c r="F69" s="27"/>
+      <c r="F69" s="28"/>
       <c r="G69" t="s">
         <v>269</v>
       </c>
-      <c r="J69" s="27"/>
+      <c r="J69" s="28"/>
       <c r="K69" t="s">
         <v>305</v>
       </c>
-      <c r="N69" s="21" t="s">
+      <c r="N69" s="24" t="s">
         <v>30</v>
       </c>
       <c r="O69" t="s">
         <v>339</v>
       </c>
-      <c r="R69" s="21"/>
+      <c r="R69" s="24"/>
       <c r="S69" t="s">
         <v>371</v>
       </c>
-      <c r="V69" s="21"/>
+      <c r="V69" s="24"/>
       <c r="W69" t="s">
         <v>403</v>
       </c>
@@ -4531,29 +4558,29 @@
       <c r="A70" s="1">
         <v>27</v>
       </c>
-      <c r="B70" s="27"/>
+      <c r="B70" s="28"/>
       <c r="C70" t="s">
         <v>236</v>
       </c>
-      <c r="F70" s="27"/>
+      <c r="F70" s="28"/>
       <c r="G70" t="s">
         <v>270</v>
       </c>
-      <c r="J70" s="21" t="s">
+      <c r="J70" s="24" t="s">
         <v>30</v>
       </c>
       <c r="K70" t="s">
         <v>306</v>
       </c>
-      <c r="N70" s="21"/>
+      <c r="N70" s="24"/>
       <c r="O70" t="s">
         <v>340</v>
       </c>
-      <c r="R70" s="21"/>
+      <c r="R70" s="24"/>
       <c r="S70" t="s">
         <v>372</v>
       </c>
-      <c r="V70" s="21"/>
+      <c r="V70" s="24"/>
       <c r="W70" t="s">
         <v>404</v>
       </c>
@@ -4562,29 +4589,29 @@
       <c r="A71" s="1">
         <v>28</v>
       </c>
-      <c r="B71" s="27"/>
+      <c r="B71" s="28"/>
       <c r="C71" t="s">
         <v>237</v>
       </c>
-      <c r="F71" s="27"/>
+      <c r="F71" s="28"/>
       <c r="G71" t="s">
         <v>101</v>
       </c>
-      <c r="J71" s="21"/>
+      <c r="J71" s="24"/>
       <c r="K71" t="s">
         <v>307</v>
       </c>
-      <c r="N71" s="21"/>
+      <c r="N71" s="24"/>
       <c r="O71" t="s">
         <v>341</v>
       </c>
-      <c r="R71" s="22" t="s">
+      <c r="R71" s="25" t="s">
         <v>36</v>
       </c>
       <c r="S71" t="s">
         <v>373</v>
       </c>
-      <c r="V71" s="21"/>
+      <c r="V71" s="24"/>
       <c r="W71" t="s">
         <v>405</v>
       </c>
@@ -4593,29 +4620,29 @@
       <c r="A72" s="1">
         <v>29</v>
       </c>
-      <c r="B72" s="27"/>
+      <c r="B72" s="28"/>
       <c r="C72" t="s">
         <v>238</v>
       </c>
-      <c r="F72" s="21" t="s">
+      <c r="F72" s="24" t="s">
         <v>30</v>
       </c>
       <c r="G72" t="s">
         <v>271</v>
       </c>
-      <c r="J72" s="21"/>
+      <c r="J72" s="24"/>
       <c r="K72" t="s">
         <v>308</v>
       </c>
-      <c r="N72" s="21"/>
+      <c r="N72" s="24"/>
       <c r="O72" t="s">
         <v>343</v>
       </c>
-      <c r="R72" s="22"/>
+      <c r="R72" s="25"/>
       <c r="S72" t="s">
         <v>374</v>
       </c>
-      <c r="V72" s="21"/>
+      <c r="V72" s="24"/>
       <c r="W72" t="s">
         <v>406</v>
       </c>
@@ -4624,31 +4651,31 @@
       <c r="A73" s="1">
         <v>30</v>
       </c>
-      <c r="B73" s="21" t="s">
+      <c r="B73" s="24" t="s">
         <v>30</v>
       </c>
       <c r="C73" t="s">
         <v>34</v>
       </c>
-      <c r="F73" s="21"/>
+      <c r="F73" s="24"/>
       <c r="G73" t="s">
         <v>272</v>
       </c>
-      <c r="J73" s="21"/>
+      <c r="J73" s="24"/>
       <c r="K73" t="s">
         <v>309</v>
       </c>
-      <c r="N73" s="22" t="s">
+      <c r="N73" s="25" t="s">
         <v>36</v>
       </c>
       <c r="O73" t="s">
         <v>344</v>
       </c>
-      <c r="R73" s="22"/>
+      <c r="R73" s="25"/>
       <c r="S73" t="s">
         <v>375</v>
       </c>
-      <c r="V73" s="22" t="s">
+      <c r="V73" s="25" t="s">
         <v>36</v>
       </c>
       <c r="W73" t="s">
@@ -4656,148 +4683,142 @@
       </c>
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B74" s="21"/>
+      <c r="B74" s="24"/>
       <c r="C74" t="s">
         <v>239</v>
       </c>
-      <c r="F74" s="21"/>
+      <c r="F74" s="24"/>
       <c r="G74" t="s">
         <v>273</v>
       </c>
-      <c r="J74" s="22" t="s">
+      <c r="J74" s="25" t="s">
         <v>36</v>
       </c>
       <c r="K74" t="s">
         <v>310</v>
       </c>
-      <c r="N74" s="22"/>
+      <c r="N74" s="25"/>
       <c r="O74" t="s">
         <v>345</v>
       </c>
-      <c r="R74" s="22"/>
+      <c r="R74" s="25"/>
       <c r="S74" t="s">
         <v>376</v>
       </c>
-      <c r="V74" s="22"/>
+      <c r="V74" s="25"/>
       <c r="W74" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B75" s="21"/>
+      <c r="B75" s="24"/>
       <c r="C75" t="s">
         <v>240</v>
       </c>
-      <c r="F75" s="21"/>
+      <c r="F75" s="24"/>
       <c r="G75" t="s">
         <v>274</v>
       </c>
-      <c r="J75" s="22"/>
+      <c r="J75" s="25"/>
       <c r="K75" t="s">
         <v>311</v>
       </c>
-      <c r="N75" s="22"/>
+      <c r="N75" s="25"/>
       <c r="O75" t="s">
         <v>346</v>
       </c>
-      <c r="R75" s="22"/>
+      <c r="R75" s="25"/>
       <c r="S75" t="s">
         <v>377</v>
       </c>
-      <c r="V75" s="22"/>
+      <c r="V75" s="25"/>
       <c r="W75" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B76" s="21"/>
+      <c r="B76" s="24"/>
       <c r="C76" t="s">
         <v>241</v>
       </c>
-      <c r="F76" s="22" t="s">
+      <c r="F76" s="25" t="s">
         <v>36</v>
       </c>
       <c r="G76" t="s">
         <v>276</v>
       </c>
-      <c r="J76" s="22"/>
+      <c r="J76" s="25"/>
       <c r="K76" t="s">
         <v>312</v>
       </c>
-      <c r="N76" s="22"/>
+      <c r="N76" s="25"/>
       <c r="O76" t="s">
         <v>347</v>
       </c>
-      <c r="V76" s="22"/>
+      <c r="V76" s="25"/>
       <c r="W76" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B77" s="22" t="s">
+      <c r="B77" s="25" t="s">
         <v>36</v>
       </c>
       <c r="C77" t="s">
         <v>109</v>
       </c>
-      <c r="F77" s="22"/>
+      <c r="F77" s="25"/>
       <c r="G77" t="s">
         <v>277</v>
       </c>
-      <c r="J77" s="22"/>
+      <c r="J77" s="25"/>
       <c r="K77" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B78" s="22"/>
+      <c r="B78" s="25"/>
       <c r="C78" t="s">
         <v>242</v>
       </c>
-      <c r="F78" s="22"/>
+      <c r="F78" s="25"/>
       <c r="G78" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B79" s="22"/>
+      <c r="B79" s="25"/>
       <c r="C79" t="s">
         <v>243</v>
       </c>
-      <c r="F79" s="22"/>
+      <c r="F79" s="25"/>
       <c r="G79" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B80" s="22"/>
+      <c r="B80" s="25"/>
       <c r="C80" t="s">
         <v>244</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="85">
+  <mergeCells count="84">
+    <mergeCell ref="V24:V26"/>
+    <mergeCell ref="R20:R21"/>
     <mergeCell ref="V27:V30"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="R4:R9"/>
     <mergeCell ref="R10:R19"/>
     <mergeCell ref="V2:V5"/>
     <mergeCell ref="V6:V13"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="F16:F18"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="N4:N10"/>
     <mergeCell ref="N11:N16"/>
     <mergeCell ref="N17:N18"/>
-    <mergeCell ref="V24:V26"/>
-    <mergeCell ref="R20:R21"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="F10:F15"/>
-    <mergeCell ref="J20:J22"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="J4:J9"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="J10:J16"/>
-    <mergeCell ref="F16:F18"/>
     <mergeCell ref="B77:B80"/>
     <mergeCell ref="F76:F79"/>
     <mergeCell ref="J70:J73"/>
@@ -4814,31 +4835,18 @@
     <mergeCell ref="J63:J69"/>
     <mergeCell ref="B44:B46"/>
     <mergeCell ref="B62:B66"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="F27:F31"/>
-    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="F63:F67"/>
     <mergeCell ref="F72:F75"/>
     <mergeCell ref="F68:F71"/>
     <mergeCell ref="B67:B72"/>
     <mergeCell ref="B73:B76"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="F44:F46"/>
-    <mergeCell ref="F56:F62"/>
-    <mergeCell ref="B51:B61"/>
-    <mergeCell ref="F47:F55"/>
-    <mergeCell ref="F63:F67"/>
-    <mergeCell ref="J23:J25"/>
     <mergeCell ref="R48:R52"/>
     <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B11:B15"/>
     <mergeCell ref="R44:R47"/>
-    <mergeCell ref="J26:J29"/>
+    <mergeCell ref="J25:J28"/>
     <mergeCell ref="N24:N29"/>
     <mergeCell ref="N30:N33"/>
     <mergeCell ref="R26:R30"/>
@@ -4846,6 +4854,8 @@
     <mergeCell ref="J47:J49"/>
     <mergeCell ref="R22:R25"/>
     <mergeCell ref="N19:N23"/>
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="B51:B61"/>
     <mergeCell ref="R53:R60"/>
     <mergeCell ref="V14:V23"/>
     <mergeCell ref="V68:V72"/>
@@ -4862,6 +4872,22 @@
     <mergeCell ref="V36:V39"/>
     <mergeCell ref="R62:R66"/>
     <mergeCell ref="V31:V35"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="F47:F56"/>
+    <mergeCell ref="F57:F62"/>
+    <mergeCell ref="J3:J7"/>
+    <mergeCell ref="J8:J15"/>
+    <mergeCell ref="J22:J24"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="F27:F31"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="F10:F15"/>
+    <mergeCell ref="J19:J21"/>
+    <mergeCell ref="J16:J18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4871,8 +4897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z50"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4893,36 +4919,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="E1" s="23" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="E1" s="26" t="s">
         <v>412</v>
       </c>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
       <c r="J1" t="s">
         <v>411</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="O1" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="T1" s="23" t="s">
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="T1" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="X1" s="23" t="s">
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="X1" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -4995,9 +5021,6 @@
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>611</v>
-      </c>
       <c r="B4" t="s">
         <v>537</v>
       </c>
@@ -5006,9 +5029,6 @@
       </c>
       <c r="F4" t="s">
         <v>499</v>
-      </c>
-      <c r="J4" t="s">
-        <v>596</v>
       </c>
       <c r="K4" t="s">
         <v>538</v>
@@ -5037,7 +5057,7 @@
         <v>592</v>
       </c>
       <c r="B5" t="s">
-        <v>489</v>
+        <v>529</v>
       </c>
       <c r="F5" t="s">
         <v>496</v>
@@ -5069,7 +5089,7 @@
         <v>573</v>
       </c>
       <c r="B6" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F6" t="s">
         <v>531</v>
@@ -5091,6 +5111,9 @@
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>490</v>
+      </c>
       <c r="E7" t="s">
         <v>622</v>
       </c>
@@ -5123,38 +5146,33 @@
         <v>612</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="K10" t="s">
-        <v>529</v>
-      </c>
-    </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
       <c r="E17" t="s">
         <v>420</v>
       </c>
-      <c r="I17" s="23" t="s">
+      <c r="I17" s="26" t="s">
         <v>421</v>
       </c>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="N17" s="23" t="s">
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="N17" s="26" t="s">
         <v>314</v>
       </c>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="S17" s="23" t="s">
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
+      <c r="S17" s="26" t="s">
         <v>315</v>
       </c>
-      <c r="T17" s="23"/>
-      <c r="U17" s="23"/>
-      <c r="V17" s="23"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="26"/>
+      <c r="V17" s="26"/>
       <c r="X17" t="s">
         <v>316</v>
       </c>
@@ -5167,7 +5185,7 @@
         <v>504</v>
       </c>
       <c r="E18" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="F18" t="s">
         <v>509</v>
@@ -5205,7 +5223,7 @@
         <v>505</v>
       </c>
       <c r="E19" t="s">
-        <v>629</v>
+        <v>611</v>
       </c>
       <c r="F19" t="s">
         <v>491</v>
@@ -5243,7 +5261,7 @@
         <v>495</v>
       </c>
       <c r="E20" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="F20" t="s">
         <v>510</v>
@@ -5278,7 +5296,7 @@
         <v>506</v>
       </c>
       <c r="E21" t="s">
-        <v>429</v>
+        <v>629</v>
       </c>
       <c r="F21" t="s">
         <v>500</v>
@@ -5313,7 +5331,7 @@
         <v>494</v>
       </c>
       <c r="E22" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="F22" t="s">
         <v>501</v>
@@ -5345,7 +5363,7 @@
         <v>511</v>
       </c>
       <c r="E23" t="s">
-        <v>600</v>
+        <v>429</v>
       </c>
       <c r="O23" t="s">
         <v>609</v>
@@ -5362,7 +5380,7 @@
         <v>632</v>
       </c>
       <c r="E24" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="O24" t="s">
         <v>431</v>
@@ -5373,7 +5391,7 @@
         <v>432</v>
       </c>
       <c r="E25" t="s">
-        <v>624</v>
+        <v>600</v>
       </c>
       <c r="O25" t="s">
         <v>433</v>
@@ -5381,11 +5399,21 @@
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.35">
       <c r="E26" t="s">
-        <v>620</v>
+        <v>604</v>
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.35">
       <c r="E27" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="E28" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="E29" t="s">
         <v>434</v>
       </c>
     </row>
@@ -5690,10 +5718,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K173"/>
+  <dimension ref="A1:K184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A158" workbookViewId="0">
-      <selection activeCell="D169" sqref="D169"/>
+    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
+      <selection activeCell="C179" sqref="C179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6683,6 +6711,70 @@
         <v>688</v>
       </c>
     </row>
+    <row r="174" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A175" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="B175" s="6" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A176" s="10" t="s">
+        <v>692</v>
+      </c>
+      <c r="B176" s="11" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A177" s="7"/>
+      <c r="B177" s="8" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A179" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="B179" s="6" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A180" s="10"/>
+      <c r="B180" s="11" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A181" s="10"/>
+      <c r="B181" s="11" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A182" s="10"/>
+      <c r="B182" s="11" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A183" s="10" t="s">
+        <v>697</v>
+      </c>
+      <c r="B183" s="11" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A184" s="7"/>
+      <c r="B184" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/OffSeason.xlsx
+++ b/OffSeason.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="699">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="712">
   <si>
     <t>Chubber for Chubb - John Olson</t>
   </si>
@@ -1325,9 +1325,6 @@
     <t>2020 3rd Snow Happens</t>
   </si>
   <si>
-    <t>own rest</t>
-  </si>
-  <si>
     <t>start 6th</t>
   </si>
   <si>
@@ -2124,13 +2121,55 @@
   </si>
   <si>
     <t>Ju-Ju SmithSchuster</t>
+  </si>
+  <si>
+    <t>Vanja Sends</t>
+  </si>
+  <si>
+    <t>Alan Sends</t>
+  </si>
+  <si>
+    <t>2021 3rd (Alan)</t>
+  </si>
+  <si>
+    <t>2021 4(Alan)</t>
+  </si>
+  <si>
+    <t>Start own 6</t>
+  </si>
+  <si>
+    <t>start own 6</t>
+  </si>
+  <si>
+    <t>Mike Sends</t>
+  </si>
+  <si>
+    <t>Will Dissley</t>
+  </si>
+  <si>
+    <t>Adam Sends</t>
+  </si>
+  <si>
+    <t>Desean jackson</t>
+  </si>
+  <si>
+    <t>2021 3rd (Ben)</t>
+  </si>
+  <si>
+    <t>2021 3rd (Adam)</t>
+  </si>
+  <si>
+    <t>2021 4th (Adam)</t>
+  </si>
+  <si>
+    <t>2021 4th (Ben)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2155,6 +2194,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2355,7 +2402,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2367,24 +2417,19 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2666,10 +2711,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y80"/>
+  <dimension ref="A1:Y79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+      <selection activeCell="G78" sqref="G78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2684,11 +2729,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
       <c r="F1" t="s">
         <v>42</v>
       </c>
@@ -2709,37 +2754,37 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="22" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="22" t="s">
         <v>1</v>
       </c>
       <c r="G2" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="J2" s="22" t="s">
         <v>1</v>
       </c>
       <c r="K2" t="s">
         <v>77</v>
       </c>
-      <c r="N2" s="21" t="s">
+      <c r="N2" s="22" t="s">
         <v>1</v>
       </c>
       <c r="O2" t="s">
         <v>112</v>
       </c>
-      <c r="R2" s="21" t="s">
+      <c r="R2" s="22" t="s">
         <v>1</v>
       </c>
       <c r="S2" t="s">
         <v>144</v>
       </c>
-      <c r="V2" s="21" t="s">
+      <c r="V2" s="22" t="s">
         <v>1</v>
       </c>
       <c r="W2" t="s">
@@ -2750,62 +2795,59 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="21"/>
+      <c r="B3" s="22"/>
       <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="21"/>
+      <c r="F3" s="22"/>
       <c r="G3" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="22" t="s">
-        <v>5</v>
-      </c>
+      <c r="J3" s="22"/>
       <c r="K3" t="s">
-        <v>248</v>
-      </c>
-      <c r="N3" s="21"/>
+        <v>179</v>
+      </c>
+      <c r="N3" s="22"/>
       <c r="O3" t="s">
         <v>104</v>
       </c>
-      <c r="R3" s="21"/>
+      <c r="R3" s="22"/>
       <c r="S3" t="s">
         <v>145</v>
       </c>
-      <c r="V3" s="21"/>
-      <c r="W3" t="s">
-        <v>179</v>
-      </c>
+      <c r="V3" s="22"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="21"/>
+      <c r="B4" s="22"/>
       <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="21"/>
+      <c r="F4" s="22"/>
       <c r="G4" t="s">
         <v>46</v>
       </c>
-      <c r="J4" s="22"/>
+      <c r="J4" s="23" t="s">
+        <v>5</v>
+      </c>
       <c r="K4" t="s">
-        <v>81</v>
-      </c>
-      <c r="N4" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="N4" s="23" t="s">
         <v>5</v>
       </c>
       <c r="O4" t="s">
         <v>113</v>
       </c>
-      <c r="R4" s="22" t="s">
+      <c r="R4" s="23" t="s">
         <v>5</v>
       </c>
       <c r="S4" t="s">
         <v>146</v>
       </c>
-      <c r="V4" s="21"/>
+      <c r="V4" s="22"/>
       <c r="W4" t="s">
         <v>180</v>
       </c>
@@ -2814,29 +2856,29 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="23" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="21"/>
+      <c r="F5" s="22"/>
       <c r="G5" t="s">
         <v>47</v>
       </c>
-      <c r="J5" s="22"/>
+      <c r="J5" s="23"/>
       <c r="K5" t="s">
-        <v>82</v>
-      </c>
-      <c r="N5" s="22"/>
+        <v>81</v>
+      </c>
+      <c r="N5" s="23"/>
       <c r="O5" t="s">
         <v>114</v>
       </c>
-      <c r="R5" s="22"/>
+      <c r="R5" s="23"/>
       <c r="S5" t="s">
         <v>147</v>
       </c>
-      <c r="V5" s="21"/>
+      <c r="V5" s="22"/>
       <c r="W5" t="s">
         <v>181</v>
       </c>
@@ -2845,29 +2887,29 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="22"/>
+      <c r="B6" s="23"/>
       <c r="C6" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="23" t="s">
         <v>5</v>
       </c>
       <c r="G6" t="s">
         <v>215</v>
       </c>
-      <c r="J6" s="22"/>
+      <c r="J6" s="23"/>
       <c r="K6" t="s">
-        <v>352</v>
-      </c>
-      <c r="N6" s="22"/>
+        <v>82</v>
+      </c>
+      <c r="N6" s="23"/>
       <c r="O6" t="s">
         <v>115</v>
       </c>
-      <c r="R6" s="22"/>
+      <c r="R6" s="23"/>
       <c r="S6" t="s">
         <v>148</v>
       </c>
-      <c r="V6" s="22" t="s">
+      <c r="V6" s="23" t="s">
         <v>5</v>
       </c>
       <c r="W6" t="s">
@@ -2878,27 +2920,27 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="22"/>
+      <c r="B7" s="23"/>
       <c r="C7" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="22"/>
+      <c r="F7" s="23"/>
       <c r="G7" t="s">
         <v>52</v>
       </c>
-      <c r="J7" s="22"/>
+      <c r="J7" s="23"/>
       <c r="K7" t="s">
-        <v>85</v>
-      </c>
-      <c r="N7" s="22"/>
+        <v>352</v>
+      </c>
+      <c r="N7" s="23"/>
       <c r="O7" t="s">
         <v>116</v>
       </c>
-      <c r="R7" s="22"/>
+      <c r="R7" s="23"/>
       <c r="S7" t="s">
         <v>149</v>
       </c>
-      <c r="V7" s="22"/>
+      <c r="V7" s="23"/>
       <c r="W7" t="s">
         <v>250</v>
       </c>
@@ -2907,29 +2949,27 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="22"/>
+      <c r="B8" s="23"/>
       <c r="C8" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="22"/>
+      <c r="F8" s="23"/>
       <c r="G8" t="s">
         <v>50</v>
       </c>
-      <c r="J8" s="23" t="s">
-        <v>12</v>
-      </c>
+      <c r="J8" s="23"/>
       <c r="K8" t="s">
-        <v>15</v>
-      </c>
-      <c r="N8" s="22"/>
+        <v>85</v>
+      </c>
+      <c r="N8" s="23"/>
       <c r="O8" t="s">
         <v>117</v>
       </c>
-      <c r="R8" s="22"/>
+      <c r="R8" s="23"/>
       <c r="S8" t="s">
         <v>150</v>
       </c>
-      <c r="V8" s="22"/>
+      <c r="V8" s="23"/>
       <c r="W8" t="s">
         <v>184</v>
       </c>
@@ -2938,27 +2978,29 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="22"/>
+      <c r="B9" s="23"/>
       <c r="C9" t="s">
         <v>80</v>
       </c>
-      <c r="F9" s="22"/>
+      <c r="F9" s="23"/>
       <c r="G9" t="s">
         <v>49</v>
       </c>
-      <c r="J9" s="23"/>
+      <c r="J9" s="24" t="s">
+        <v>12</v>
+      </c>
       <c r="K9" t="s">
-        <v>188</v>
-      </c>
-      <c r="N9" s="22"/>
+        <v>15</v>
+      </c>
+      <c r="N9" s="23"/>
       <c r="O9" t="s">
         <v>118</v>
       </c>
-      <c r="R9" s="22"/>
+      <c r="R9" s="23"/>
       <c r="S9" t="s">
         <v>151</v>
       </c>
-      <c r="V9" s="22"/>
+      <c r="V9" s="23"/>
       <c r="W9" t="s">
         <v>252</v>
       </c>
@@ -2967,31 +3009,31 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="22"/>
+      <c r="B10" s="23"/>
       <c r="C10" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="24" t="s">
         <v>12</v>
       </c>
       <c r="G10" t="s">
         <v>54</v>
       </c>
-      <c r="J10" s="23"/>
+      <c r="J10" s="24"/>
       <c r="K10" t="s">
-        <v>17</v>
-      </c>
-      <c r="N10" s="22"/>
+        <v>188</v>
+      </c>
+      <c r="N10" s="23"/>
       <c r="O10" t="s">
         <v>119</v>
       </c>
-      <c r="R10" s="23" t="s">
+      <c r="R10" s="24" t="s">
         <v>12</v>
       </c>
       <c r="S10" t="s">
         <v>152</v>
       </c>
-      <c r="V10" s="22"/>
+      <c r="V10" s="23"/>
       <c r="W10" t="s">
         <v>186</v>
       </c>
@@ -3000,31 +3042,31 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="24" t="s">
         <v>12</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="23"/>
+      <c r="F11" s="24"/>
       <c r="G11" t="s">
         <v>56</v>
       </c>
-      <c r="J11" s="23"/>
+      <c r="J11" s="24"/>
       <c r="K11" t="s">
-        <v>88</v>
-      </c>
-      <c r="N11" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="N11" s="24" t="s">
         <v>12</v>
       </c>
       <c r="O11" t="s">
         <v>120</v>
       </c>
-      <c r="R11" s="23"/>
+      <c r="R11" s="24"/>
       <c r="S11" t="s">
         <v>153</v>
       </c>
-      <c r="V11" s="22"/>
+      <c r="V11" s="23"/>
       <c r="W11" t="s">
         <v>187</v>
       </c>
@@ -3033,27 +3075,27 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="23"/>
+      <c r="B12" s="24"/>
       <c r="C12" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="23"/>
+      <c r="F12" s="24"/>
       <c r="G12" t="s">
         <v>58</v>
       </c>
-      <c r="J12" s="23"/>
+      <c r="J12" s="24"/>
       <c r="K12" t="s">
-        <v>16</v>
-      </c>
-      <c r="N12" s="23"/>
+        <v>88</v>
+      </c>
+      <c r="N12" s="24"/>
       <c r="O12" t="s">
         <v>121</v>
       </c>
-      <c r="R12" s="23"/>
+      <c r="R12" s="24"/>
       <c r="S12" t="s">
         <v>154</v>
       </c>
-      <c r="V12" s="22"/>
+      <c r="V12" s="23"/>
       <c r="W12" t="s">
         <v>53</v>
       </c>
@@ -3062,27 +3104,27 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="23"/>
+      <c r="B13" s="24"/>
       <c r="C13" t="s">
         <v>86</v>
       </c>
-      <c r="F13" s="23"/>
+      <c r="F13" s="24"/>
       <c r="G13" t="s">
         <v>59</v>
       </c>
-      <c r="J13" s="23"/>
+      <c r="J13" s="24"/>
       <c r="K13" t="s">
-        <v>22</v>
-      </c>
-      <c r="N13" s="23"/>
+        <v>16</v>
+      </c>
+      <c r="N13" s="24"/>
       <c r="O13" t="s">
         <v>122</v>
       </c>
-      <c r="R13" s="23"/>
+      <c r="R13" s="24"/>
       <c r="S13" t="s">
         <v>155</v>
       </c>
-      <c r="V13" s="22"/>
+      <c r="V13" s="23"/>
       <c r="W13" t="s">
         <v>10</v>
       </c>
@@ -3091,27 +3133,27 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="23"/>
+      <c r="B14" s="24"/>
       <c r="C14" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="23"/>
+      <c r="F14" s="24"/>
       <c r="G14" t="s">
         <v>226</v>
       </c>
-      <c r="J14" s="23"/>
+      <c r="J14" s="24"/>
       <c r="K14" t="s">
-        <v>194</v>
-      </c>
-      <c r="N14" s="23"/>
+        <v>22</v>
+      </c>
+      <c r="N14" s="24"/>
       <c r="O14" t="s">
         <v>123</v>
       </c>
-      <c r="R14" s="23"/>
+      <c r="R14" s="24"/>
       <c r="S14" t="s">
         <v>156</v>
       </c>
-      <c r="V14" s="23" t="s">
+      <c r="V14" s="24" t="s">
         <v>12</v>
       </c>
       <c r="W14" t="s">
@@ -3122,27 +3164,27 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="23"/>
+      <c r="B15" s="24"/>
       <c r="C15" t="s">
         <v>87</v>
       </c>
-      <c r="F15" s="23"/>
+      <c r="F15" s="24"/>
       <c r="G15" t="s">
         <v>225</v>
       </c>
-      <c r="J15" s="23"/>
+      <c r="J15" s="24"/>
       <c r="K15" t="s">
-        <v>23</v>
-      </c>
-      <c r="N15" s="23"/>
+        <v>194</v>
+      </c>
+      <c r="N15" s="24"/>
       <c r="O15" t="s">
         <v>124</v>
       </c>
-      <c r="R15" s="23"/>
+      <c r="R15" s="24"/>
       <c r="S15" t="s">
         <v>157</v>
       </c>
-      <c r="V15" s="23"/>
+      <c r="V15" s="24"/>
       <c r="W15" t="s">
         <v>189</v>
       </c>
@@ -3151,33 +3193,31 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="20" t="s">
         <v>18</v>
       </c>
       <c r="C16" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="27" t="s">
+      <c r="F16" s="20" t="s">
         <v>18</v>
       </c>
       <c r="G16" t="s">
         <v>60</v>
       </c>
-      <c r="J16" s="27" t="s">
-        <v>18</v>
-      </c>
+      <c r="J16" s="24"/>
       <c r="K16" t="s">
-        <v>95</v>
-      </c>
-      <c r="N16" s="23"/>
+        <v>23</v>
+      </c>
+      <c r="N16" s="24"/>
       <c r="O16" t="s">
         <v>125</v>
       </c>
-      <c r="R16" s="23"/>
+      <c r="R16" s="24"/>
       <c r="S16" t="s">
         <v>158</v>
       </c>
-      <c r="V16" s="23"/>
+      <c r="V16" s="24"/>
       <c r="W16" t="s">
         <v>190</v>
       </c>
@@ -3186,29 +3226,31 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="27"/>
+      <c r="B17" s="20"/>
       <c r="C17" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="27"/>
+      <c r="F17" s="20"/>
       <c r="G17" t="s">
         <v>62</v>
       </c>
-      <c r="J17" s="27"/>
+      <c r="J17" s="20" t="s">
+        <v>18</v>
+      </c>
       <c r="K17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N17" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="N17" s="20" t="s">
         <v>18</v>
       </c>
       <c r="O17" t="s">
         <v>126</v>
       </c>
-      <c r="R17" s="23"/>
+      <c r="R17" s="24"/>
       <c r="S17" t="s">
         <v>159</v>
       </c>
-      <c r="V17" s="23"/>
+      <c r="V17" s="24"/>
       <c r="W17" t="s">
         <v>191</v>
       </c>
@@ -3217,27 +3259,27 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="27"/>
+      <c r="B18" s="20"/>
       <c r="C18" t="s">
         <v>96</v>
       </c>
-      <c r="F18" s="27"/>
+      <c r="F18" s="20"/>
       <c r="G18" t="s">
         <v>63</v>
       </c>
-      <c r="J18" s="27"/>
+      <c r="J18" s="20"/>
       <c r="K18" t="s">
-        <v>98</v>
-      </c>
-      <c r="N18" s="27"/>
+        <v>21</v>
+      </c>
+      <c r="N18" s="20"/>
       <c r="O18" t="s">
         <v>127</v>
       </c>
-      <c r="R18" s="23"/>
+      <c r="R18" s="24"/>
       <c r="S18" t="s">
         <v>160</v>
       </c>
-      <c r="V18" s="23"/>
+      <c r="V18" s="24"/>
       <c r="W18" t="s">
         <v>91</v>
       </c>
@@ -3246,35 +3288,33 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="21" t="s">
         <v>24</v>
       </c>
       <c r="C19" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="28" t="s">
+      <c r="F19" s="21" t="s">
         <v>24</v>
       </c>
       <c r="G19" t="s">
         <v>64</v>
       </c>
-      <c r="J19" s="28" t="s">
-        <v>24</v>
-      </c>
+      <c r="J19" s="20"/>
       <c r="K19" t="s">
-        <v>99</v>
-      </c>
-      <c r="N19" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="N19" s="21" t="s">
         <v>24</v>
       </c>
       <c r="O19" t="s">
         <v>128</v>
       </c>
-      <c r="R19" s="23"/>
+      <c r="R19" s="24"/>
       <c r="S19" t="s">
         <v>161</v>
       </c>
-      <c r="V19" s="23"/>
+      <c r="V19" s="24"/>
       <c r="W19" t="s">
         <v>261</v>
       </c>
@@ -3283,29 +3323,31 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="28"/>
+      <c r="B20" s="21"/>
       <c r="C20" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="28"/>
+      <c r="F20" s="21"/>
       <c r="G20" t="s">
         <v>65</v>
       </c>
-      <c r="J20" s="28"/>
+      <c r="J20" s="21" t="s">
+        <v>24</v>
+      </c>
       <c r="K20" t="s">
-        <v>28</v>
-      </c>
-      <c r="N20" s="28"/>
+        <v>99</v>
+      </c>
+      <c r="N20" s="21"/>
       <c r="O20" t="s">
         <v>129</v>
       </c>
-      <c r="R20" s="27" t="s">
+      <c r="R20" s="20" t="s">
         <v>18</v>
       </c>
       <c r="S20" t="s">
         <v>162</v>
       </c>
-      <c r="V20" s="23"/>
+      <c r="V20" s="24"/>
       <c r="W20" t="s">
         <v>94</v>
       </c>
@@ -3314,27 +3356,27 @@
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="28"/>
+      <c r="B21" s="21"/>
       <c r="C21" t="s">
         <v>27</v>
       </c>
-      <c r="F21" s="28"/>
+      <c r="F21" s="21"/>
       <c r="G21" t="s">
         <v>66</v>
       </c>
-      <c r="J21" s="28"/>
+      <c r="J21" s="21"/>
       <c r="K21" t="s">
-        <v>29</v>
-      </c>
-      <c r="N21" s="28"/>
+        <v>28</v>
+      </c>
+      <c r="N21" s="21"/>
       <c r="O21" t="s">
         <v>130</v>
       </c>
-      <c r="R21" s="27"/>
+      <c r="R21" s="20"/>
       <c r="S21" t="s">
         <v>163</v>
       </c>
-      <c r="V21" s="23"/>
+      <c r="V21" s="24"/>
       <c r="W21" t="s">
         <v>193</v>
       </c>
@@ -3343,31 +3385,29 @@
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="28"/>
+      <c r="B22" s="21"/>
       <c r="C22" t="s">
         <v>100</v>
       </c>
-      <c r="F22" s="28"/>
+      <c r="F22" s="21"/>
       <c r="G22" t="s">
         <v>67</v>
       </c>
-      <c r="J22" s="24" t="s">
-        <v>30</v>
-      </c>
+      <c r="J22" s="21"/>
       <c r="K22" t="s">
-        <v>103</v>
-      </c>
-      <c r="N22" s="28"/>
+        <v>29</v>
+      </c>
+      <c r="N22" s="21"/>
       <c r="O22" t="s">
         <v>131</v>
       </c>
-      <c r="R22" s="28" t="s">
+      <c r="R22" s="21" t="s">
         <v>24</v>
       </c>
       <c r="S22" t="s">
         <v>164</v>
       </c>
-      <c r="V22" s="23"/>
+      <c r="V22" s="24"/>
       <c r="W22" t="s">
         <v>195</v>
       </c>
@@ -3376,31 +3416,33 @@
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="26" t="s">
         <v>30</v>
       </c>
       <c r="C23" t="s">
         <v>31</v>
       </c>
-      <c r="F23" s="24" t="s">
+      <c r="F23" s="26" t="s">
         <v>30</v>
       </c>
       <c r="G23" t="s">
         <v>69</v>
       </c>
-      <c r="J23" s="24"/>
+      <c r="J23" s="26" t="s">
+        <v>30</v>
+      </c>
       <c r="K23" t="s">
-        <v>104</v>
-      </c>
-      <c r="N23" s="28"/>
+        <v>103</v>
+      </c>
+      <c r="N23" s="21"/>
       <c r="O23" t="s">
         <v>132</v>
       </c>
-      <c r="R23" s="28"/>
+      <c r="R23" s="21"/>
       <c r="S23" t="s">
         <v>165</v>
       </c>
-      <c r="V23" s="23"/>
+      <c r="V23" s="24"/>
       <c r="W23" t="s">
         <v>196</v>
       </c>
@@ -3409,29 +3451,29 @@
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="24"/>
+      <c r="B24" s="26"/>
       <c r="C24" t="s">
         <v>32</v>
       </c>
-      <c r="F24" s="24"/>
+      <c r="F24" s="26"/>
       <c r="G24" t="s">
         <v>70</v>
       </c>
-      <c r="J24" s="24"/>
+      <c r="J24" s="26"/>
       <c r="K24" t="s">
-        <v>105</v>
-      </c>
-      <c r="N24" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="N24" s="26" t="s">
         <v>30</v>
       </c>
       <c r="O24" t="s">
         <v>133</v>
       </c>
-      <c r="R24" s="28"/>
+      <c r="R24" s="21"/>
       <c r="S24" t="s">
         <v>166</v>
       </c>
-      <c r="V24" s="27" t="s">
+      <c r="V24" s="20" t="s">
         <v>18</v>
       </c>
       <c r="W24" t="s">
@@ -3442,29 +3484,27 @@
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="24"/>
+      <c r="B25" s="26"/>
       <c r="C25" t="s">
         <v>33</v>
       </c>
-      <c r="F25" s="24"/>
+      <c r="F25" s="26"/>
       <c r="G25" t="s">
         <v>71</v>
       </c>
-      <c r="J25" s="25" t="s">
-        <v>36</v>
-      </c>
+      <c r="J25" s="26"/>
       <c r="K25" t="s">
-        <v>40</v>
-      </c>
-      <c r="N25" s="24"/>
+        <v>105</v>
+      </c>
+      <c r="N25" s="26"/>
       <c r="O25" t="s">
         <v>134</v>
       </c>
-      <c r="R25" s="28"/>
+      <c r="R25" s="21"/>
       <c r="S25" t="s">
         <v>167</v>
       </c>
-      <c r="V25" s="27"/>
+      <c r="V25" s="20"/>
       <c r="W25" t="s">
         <v>198</v>
       </c>
@@ -3473,29 +3513,31 @@
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="24"/>
+      <c r="B26" s="26"/>
       <c r="C26" t="s">
         <v>106</v>
       </c>
-      <c r="F26" s="24"/>
+      <c r="F26" s="26"/>
       <c r="G26" t="s">
         <v>68</v>
       </c>
-      <c r="J26" s="25"/>
+      <c r="J26" s="25" t="s">
+        <v>36</v>
+      </c>
       <c r="K26" t="s">
-        <v>108</v>
-      </c>
-      <c r="N26" s="24"/>
+        <v>40</v>
+      </c>
+      <c r="N26" s="26"/>
       <c r="O26" t="s">
         <v>135</v>
       </c>
-      <c r="R26" s="24" t="s">
+      <c r="R26" s="26" t="s">
         <v>30</v>
       </c>
       <c r="S26" t="s">
         <v>168</v>
       </c>
-      <c r="V26" s="27"/>
+      <c r="V26" s="20"/>
       <c r="W26" t="s">
         <v>199</v>
       </c>
@@ -3518,17 +3560,17 @@
       </c>
       <c r="J27" s="25"/>
       <c r="K27" t="s">
-        <v>110</v>
-      </c>
-      <c r="N27" s="24"/>
+        <v>108</v>
+      </c>
+      <c r="N27" s="26"/>
       <c r="O27" t="s">
         <v>136</v>
       </c>
-      <c r="R27" s="24"/>
+      <c r="R27" s="26"/>
       <c r="S27" t="s">
         <v>169</v>
       </c>
-      <c r="V27" s="28" t="s">
+      <c r="V27" s="21" t="s">
         <v>24</v>
       </c>
       <c r="W27" t="s">
@@ -3549,17 +3591,17 @@
       </c>
       <c r="J28" s="25"/>
       <c r="K28" t="s">
-        <v>41</v>
-      </c>
-      <c r="N28" s="24"/>
+        <v>110</v>
+      </c>
+      <c r="N28" s="26"/>
       <c r="O28" t="s">
         <v>137</v>
       </c>
-      <c r="R28" s="24"/>
+      <c r="R28" s="26"/>
       <c r="S28" t="s">
         <v>170</v>
       </c>
-      <c r="V28" s="28"/>
+      <c r="V28" s="21"/>
       <c r="W28" t="s">
         <v>201</v>
       </c>
@@ -3576,15 +3618,19 @@
       <c r="G29" t="s">
         <v>74</v>
       </c>
-      <c r="N29" s="24"/>
+      <c r="J29" s="25"/>
+      <c r="K29" t="s">
+        <v>41</v>
+      </c>
+      <c r="N29" s="26"/>
       <c r="O29" t="s">
         <v>138</v>
       </c>
-      <c r="R29" s="24"/>
+      <c r="R29" s="26"/>
       <c r="S29" t="s">
         <v>171</v>
       </c>
-      <c r="V29" s="28"/>
+      <c r="V29" s="21"/>
       <c r="W29" t="s">
         <v>202</v>
       </c>
@@ -3607,11 +3653,11 @@
       <c r="O30" t="s">
         <v>139</v>
       </c>
-      <c r="R30" s="24"/>
+      <c r="R30" s="26"/>
       <c r="S30" t="s">
         <v>172</v>
       </c>
-      <c r="V30" s="28"/>
+      <c r="V30" s="21"/>
       <c r="W30" t="s">
         <v>203</v>
       </c>
@@ -3634,7 +3680,7 @@
       <c r="S31" t="s">
         <v>173</v>
       </c>
-      <c r="V31" s="24" t="s">
+      <c r="V31" s="26" t="s">
         <v>30</v>
       </c>
       <c r="W31" t="s">
@@ -3650,7 +3696,7 @@
       <c r="S32" t="s">
         <v>174</v>
       </c>
-      <c r="V32" s="24"/>
+      <c r="V32" s="26"/>
       <c r="W32" t="s">
         <v>205</v>
       </c>
@@ -3664,7 +3710,7 @@
       <c r="S33" t="s">
         <v>175</v>
       </c>
-      <c r="V33" s="24"/>
+      <c r="V33" s="26"/>
       <c r="W33" t="s">
         <v>206</v>
       </c>
@@ -3674,13 +3720,13 @@
       <c r="S34" t="s">
         <v>176</v>
       </c>
-      <c r="V34" s="24"/>
+      <c r="V34" s="26"/>
       <c r="W34" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="V35" s="24"/>
+      <c r="V35" s="26"/>
       <c r="W35" t="s">
         <v>35</v>
       </c>
@@ -3719,7 +3765,7 @@
         <v>245</v>
       </c>
       <c r="J43" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="N43" t="s">
         <v>314</v>
@@ -3727,48 +3773,48 @@
       <c r="R43" t="s">
         <v>315</v>
       </c>
-      <c r="V43" s="26" t="s">
+      <c r="V43" s="28" t="s">
         <v>316</v>
       </c>
-      <c r="W43" s="26"/>
-      <c r="X43" s="26"/>
-      <c r="Y43" s="26"/>
+      <c r="W43" s="28"/>
+      <c r="X43" s="28"/>
+      <c r="Y43" s="28"/>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>1</v>
       </c>
-      <c r="B44" s="21" t="s">
+      <c r="B44" s="22" t="s">
         <v>1</v>
       </c>
       <c r="C44" t="s">
         <v>44</v>
       </c>
-      <c r="F44" s="21" t="s">
+      <c r="F44" s="22" t="s">
         <v>1</v>
       </c>
       <c r="G44" t="s">
         <v>246</v>
       </c>
-      <c r="J44" s="21" t="s">
+      <c r="J44" s="22" t="s">
         <v>1</v>
       </c>
       <c r="K44" t="s">
         <v>280</v>
       </c>
-      <c r="N44" s="21" t="s">
+      <c r="N44" s="22" t="s">
         <v>1</v>
       </c>
       <c r="O44" t="s">
         <v>317</v>
       </c>
-      <c r="R44" s="21" t="s">
+      <c r="R44" s="22" t="s">
         <v>1</v>
       </c>
       <c r="S44" t="s">
         <v>348</v>
       </c>
-      <c r="V44" s="21" t="s">
+      <c r="V44" s="22" t="s">
         <v>1</v>
       </c>
       <c r="W44" t="s">
@@ -3779,27 +3825,27 @@
       <c r="A45" s="1">
         <v>2</v>
       </c>
-      <c r="B45" s="21"/>
+      <c r="B45" s="22"/>
       <c r="C45" t="s">
         <v>214</v>
       </c>
-      <c r="F45" s="21"/>
+      <c r="F45" s="22"/>
       <c r="G45" t="s">
         <v>247</v>
       </c>
-      <c r="J45" s="21"/>
+      <c r="J45" s="22"/>
       <c r="K45" t="s">
         <v>281</v>
       </c>
-      <c r="N45" s="21"/>
+      <c r="N45" s="22"/>
       <c r="O45" t="s">
         <v>318</v>
       </c>
-      <c r="R45" s="21"/>
+      <c r="R45" s="22"/>
       <c r="S45" t="s">
         <v>349</v>
       </c>
-      <c r="V45" s="21"/>
+      <c r="V45" s="22"/>
       <c r="W45" t="s">
         <v>379</v>
       </c>
@@ -3808,27 +3854,27 @@
       <c r="A46" s="1">
         <v>3</v>
       </c>
-      <c r="B46" s="21"/>
+      <c r="B46" s="22"/>
       <c r="C46" t="s">
         <v>213</v>
       </c>
-      <c r="F46" s="21"/>
+      <c r="F46" s="22"/>
       <c r="G46" t="s">
         <v>79</v>
       </c>
-      <c r="J46" s="21"/>
+      <c r="J46" s="22"/>
       <c r="K46" t="s">
         <v>282</v>
       </c>
-      <c r="N46" s="21"/>
+      <c r="N46" s="22"/>
       <c r="O46" t="s">
         <v>319</v>
       </c>
-      <c r="R46" s="21"/>
+      <c r="R46" s="22"/>
       <c r="S46" t="s">
         <v>78</v>
       </c>
-      <c r="V46" s="21"/>
+      <c r="V46" s="22"/>
       <c r="W46" t="s">
         <v>380</v>
       </c>
@@ -3837,35 +3883,35 @@
       <c r="A47" s="1">
         <v>4</v>
       </c>
-      <c r="B47" s="22" t="s">
+      <c r="B47" s="23" t="s">
         <v>5</v>
       </c>
       <c r="C47" t="s">
         <v>216</v>
       </c>
-      <c r="F47" s="22" t="s">
+      <c r="F47" s="23" t="s">
         <v>5</v>
       </c>
       <c r="G47" t="s">
         <v>183</v>
       </c>
-      <c r="J47" s="22" t="s">
+      <c r="J47" s="23" t="s">
         <v>5</v>
       </c>
       <c r="K47" t="s">
         <v>283</v>
       </c>
-      <c r="N47" s="22" t="s">
+      <c r="N47" s="23" t="s">
         <v>5</v>
       </c>
       <c r="O47" t="s">
         <v>320</v>
       </c>
-      <c r="R47" s="21"/>
+      <c r="R47" s="22"/>
       <c r="S47" t="s">
         <v>350</v>
       </c>
-      <c r="V47" s="22" t="s">
+      <c r="V47" s="23" t="s">
         <v>5</v>
       </c>
       <c r="W47" t="s">
@@ -3876,29 +3922,29 @@
       <c r="A48" s="1">
         <v>5</v>
       </c>
-      <c r="B48" s="22"/>
+      <c r="B48" s="23"/>
       <c r="C48" t="s">
         <v>217</v>
       </c>
-      <c r="F48" s="22"/>
+      <c r="F48" s="23"/>
       <c r="G48" t="s">
         <v>84</v>
       </c>
-      <c r="J48" s="22"/>
+      <c r="J48" s="23"/>
       <c r="K48" t="s">
         <v>284</v>
       </c>
-      <c r="N48" s="22"/>
+      <c r="N48" s="23"/>
       <c r="O48" t="s">
         <v>251</v>
       </c>
-      <c r="R48" s="22" t="s">
+      <c r="R48" s="23" t="s">
         <v>5</v>
       </c>
       <c r="S48" t="s">
         <v>351</v>
       </c>
-      <c r="V48" s="22"/>
+      <c r="V48" s="23"/>
       <c r="W48" t="s">
         <v>382</v>
       </c>
@@ -3907,27 +3953,28 @@
       <c r="A49" s="1">
         <v>6</v>
       </c>
-      <c r="B49" s="22"/>
+      <c r="B49" s="23"/>
       <c r="C49" t="s">
         <v>221</v>
       </c>
-      <c r="F49" s="22"/>
+      <c r="D49" s="29"/>
+      <c r="F49" s="23"/>
       <c r="G49" t="s">
         <v>51</v>
       </c>
-      <c r="J49" s="22"/>
+      <c r="J49" s="23"/>
       <c r="K49" t="s">
         <v>285</v>
       </c>
-      <c r="N49" s="22"/>
+      <c r="N49" s="23"/>
       <c r="O49" t="s">
         <v>322</v>
       </c>
-      <c r="R49" s="22"/>
+      <c r="R49" s="23"/>
       <c r="S49" t="s">
         <v>48</v>
       </c>
-      <c r="V49" s="22"/>
+      <c r="V49" s="23"/>
       <c r="W49" t="s">
         <v>383</v>
       </c>
@@ -3936,31 +3983,34 @@
       <c r="A50" s="1">
         <v>7</v>
       </c>
-      <c r="B50" s="22"/>
+      <c r="B50" s="23"/>
       <c r="C50" t="s">
         <v>222</v>
       </c>
-      <c r="F50" s="22"/>
+      <c r="D50" t="s">
+        <v>253</v>
+      </c>
+      <c r="F50" s="23"/>
       <c r="G50" t="s">
         <v>321</v>
       </c>
-      <c r="J50" s="23" t="s">
+      <c r="J50" s="24" t="s">
         <v>12</v>
       </c>
       <c r="K50" t="s">
         <v>286</v>
       </c>
-      <c r="N50" s="23" t="s">
+      <c r="N50" s="24" t="s">
         <v>12</v>
       </c>
       <c r="O50" t="s">
         <v>323</v>
       </c>
-      <c r="R50" s="22"/>
+      <c r="R50" s="23"/>
       <c r="S50" t="s">
         <v>353</v>
       </c>
-      <c r="V50" s="22"/>
+      <c r="V50" s="23"/>
       <c r="W50" t="s">
         <v>384</v>
       </c>
@@ -3969,29 +4019,32 @@
       <c r="A51" s="1">
         <v>8</v>
       </c>
-      <c r="B51" s="23" t="s">
+      <c r="B51" s="24" t="s">
         <v>12</v>
       </c>
       <c r="C51" t="s">
         <v>57</v>
       </c>
-      <c r="F51" s="22"/>
+      <c r="D51" t="s">
+        <v>83</v>
+      </c>
+      <c r="F51" s="23"/>
       <c r="G51" t="s">
-        <v>83</v>
-      </c>
-      <c r="J51" s="23"/>
+        <v>254</v>
+      </c>
+      <c r="J51" s="24"/>
       <c r="K51" t="s">
         <v>287</v>
       </c>
-      <c r="N51" s="23"/>
+      <c r="N51" s="24"/>
       <c r="O51" t="s">
         <v>324</v>
       </c>
-      <c r="R51" s="22"/>
+      <c r="R51" s="23"/>
       <c r="S51" t="s">
         <v>354</v>
       </c>
-      <c r="V51" s="22"/>
+      <c r="V51" s="23"/>
       <c r="W51" t="s">
         <v>385</v>
       </c>
@@ -4000,27 +4053,27 @@
       <c r="A52" s="1">
         <v>9</v>
       </c>
-      <c r="B52" s="23"/>
+      <c r="B52" s="24"/>
       <c r="C52" t="s">
-        <v>218</v>
-      </c>
-      <c r="F52" s="22"/>
+        <v>93</v>
+      </c>
+      <c r="F52" s="23"/>
       <c r="G52" t="s">
         <v>249</v>
       </c>
-      <c r="J52" s="23"/>
+      <c r="J52" s="24"/>
       <c r="K52" t="s">
         <v>288</v>
       </c>
-      <c r="N52" s="23"/>
+      <c r="N52" s="24"/>
       <c r="O52" t="s">
         <v>325</v>
       </c>
-      <c r="R52" s="22"/>
+      <c r="R52" s="23"/>
       <c r="S52" t="s">
         <v>355</v>
       </c>
-      <c r="V52" s="23" t="s">
+      <c r="V52" s="24" t="s">
         <v>12</v>
       </c>
       <c r="W52" t="s">
@@ -4031,29 +4084,29 @@
       <c r="A53" s="1">
         <v>10</v>
       </c>
-      <c r="B53" s="23"/>
+      <c r="B53" s="24"/>
       <c r="C53" t="s">
-        <v>219</v>
-      </c>
-      <c r="F53" s="22"/>
+        <v>218</v>
+      </c>
+      <c r="F53" s="23"/>
       <c r="G53" t="s">
-        <v>253</v>
-      </c>
-      <c r="J53" s="23"/>
+        <v>255</v>
+      </c>
+      <c r="J53" s="24"/>
       <c r="K53" t="s">
         <v>289</v>
       </c>
-      <c r="N53" s="23"/>
+      <c r="N53" s="24"/>
       <c r="O53" t="s">
         <v>326</v>
       </c>
-      <c r="R53" s="23" t="s">
+      <c r="R53" s="24" t="s">
         <v>12</v>
       </c>
       <c r="S53" t="s">
         <v>356</v>
       </c>
-      <c r="V53" s="23"/>
+      <c r="V53" s="24"/>
       <c r="W53" t="s">
         <v>387</v>
       </c>
@@ -4062,27 +4115,27 @@
       <c r="A54" s="1">
         <v>11</v>
       </c>
-      <c r="B54" s="23"/>
+      <c r="B54" s="24"/>
       <c r="C54" t="s">
-        <v>93</v>
-      </c>
-      <c r="F54" s="22"/>
+        <v>220</v>
+      </c>
+      <c r="F54" s="23"/>
       <c r="G54" t="s">
-        <v>254</v>
-      </c>
-      <c r="J54" s="23"/>
+        <v>185</v>
+      </c>
+      <c r="J54" s="24"/>
       <c r="K54" t="s">
         <v>290</v>
       </c>
-      <c r="N54" s="23"/>
+      <c r="N54" s="24"/>
       <c r="O54" t="s">
         <v>327</v>
       </c>
-      <c r="R54" s="23"/>
+      <c r="R54" s="24"/>
       <c r="S54" t="s">
         <v>357</v>
       </c>
-      <c r="V54" s="23"/>
+      <c r="V54" s="24"/>
       <c r="W54" t="s">
         <v>388</v>
       </c>
@@ -4091,27 +4144,29 @@
       <c r="A55" s="1">
         <v>12</v>
       </c>
-      <c r="B55" s="23"/>
+      <c r="B55" s="24"/>
       <c r="C55" t="s">
-        <v>220</v>
-      </c>
-      <c r="F55" s="22"/>
+        <v>223</v>
+      </c>
+      <c r="F55" s="24" t="s">
+        <v>12</v>
+      </c>
       <c r="G55" t="s">
-        <v>255</v>
-      </c>
-      <c r="J55" s="23"/>
+        <v>219</v>
+      </c>
+      <c r="J55" s="24"/>
       <c r="K55" t="s">
         <v>291</v>
       </c>
-      <c r="N55" s="23"/>
+      <c r="N55" s="24"/>
       <c r="O55" t="s">
         <v>328</v>
       </c>
-      <c r="R55" s="23"/>
+      <c r="R55" s="24"/>
       <c r="S55" t="s">
         <v>358</v>
       </c>
-      <c r="V55" s="23"/>
+      <c r="V55" s="24"/>
       <c r="W55" t="s">
         <v>389</v>
       </c>
@@ -4120,27 +4175,27 @@
       <c r="A56" s="1">
         <v>13</v>
       </c>
-      <c r="B56" s="23"/>
+      <c r="B56" s="24"/>
       <c r="C56" t="s">
-        <v>223</v>
-      </c>
-      <c r="F56" s="22"/>
+        <v>224</v>
+      </c>
+      <c r="F56" s="24"/>
       <c r="G56" t="s">
-        <v>185</v>
-      </c>
-      <c r="J56" s="23"/>
+        <v>228</v>
+      </c>
+      <c r="J56" s="24"/>
       <c r="K56" t="s">
         <v>292</v>
       </c>
-      <c r="N56" s="23"/>
+      <c r="N56" s="24"/>
       <c r="O56" t="s">
         <v>329</v>
       </c>
-      <c r="R56" s="23"/>
+      <c r="R56" s="24"/>
       <c r="S56" t="s">
         <v>359</v>
       </c>
-      <c r="V56" s="23"/>
+      <c r="V56" s="24"/>
       <c r="W56" t="s">
         <v>390</v>
       </c>
@@ -4149,29 +4204,27 @@
       <c r="A57" s="1">
         <v>14</v>
       </c>
-      <c r="B57" s="23"/>
+      <c r="B57" s="24"/>
       <c r="C57" t="s">
-        <v>224</v>
-      </c>
-      <c r="F57" s="23" t="s">
-        <v>12</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="F57" s="24"/>
       <c r="G57" t="s">
         <v>258</v>
       </c>
-      <c r="J57" s="23"/>
+      <c r="J57" s="24"/>
       <c r="K57" t="s">
         <v>293</v>
       </c>
-      <c r="N57" s="23"/>
+      <c r="N57" s="24"/>
       <c r="O57" t="s">
         <v>257</v>
       </c>
-      <c r="R57" s="23"/>
+      <c r="R57" s="24"/>
       <c r="S57" t="s">
         <v>360</v>
       </c>
-      <c r="V57" s="23"/>
+      <c r="V57" s="24"/>
       <c r="W57" t="s">
         <v>391</v>
       </c>
@@ -4180,27 +4233,27 @@
       <c r="A58" s="1">
         <v>15</v>
       </c>
-      <c r="B58" s="23"/>
+      <c r="B58" s="24"/>
       <c r="C58" t="s">
-        <v>227</v>
-      </c>
-      <c r="F58" s="23"/>
+        <v>229</v>
+      </c>
+      <c r="F58" s="24"/>
       <c r="G58" t="s">
         <v>90</v>
       </c>
-      <c r="J58" s="23"/>
+      <c r="J58" s="24"/>
       <c r="K58" t="s">
         <v>294</v>
       </c>
-      <c r="N58" s="23"/>
+      <c r="N58" s="24"/>
       <c r="O58" t="s">
         <v>263</v>
       </c>
-      <c r="R58" s="23"/>
+      <c r="R58" s="24"/>
       <c r="S58" t="s">
         <v>361</v>
       </c>
-      <c r="V58" s="23"/>
+      <c r="V58" s="24"/>
       <c r="W58" t="s">
         <v>392</v>
       </c>
@@ -4209,27 +4262,27 @@
       <c r="A59" s="1">
         <v>16</v>
       </c>
-      <c r="B59" s="23"/>
+      <c r="B59" s="24"/>
       <c r="C59" t="s">
-        <v>228</v>
-      </c>
-      <c r="F59" s="23"/>
+        <v>55</v>
+      </c>
+      <c r="F59" s="24"/>
       <c r="G59" t="s">
         <v>262</v>
       </c>
-      <c r="J59" s="23"/>
+      <c r="J59" s="24"/>
       <c r="K59" t="s">
         <v>295</v>
       </c>
-      <c r="N59" s="23"/>
+      <c r="N59" s="24"/>
       <c r="O59" t="s">
         <v>330</v>
       </c>
-      <c r="R59" s="23"/>
+      <c r="R59" s="24"/>
       <c r="S59" t="s">
         <v>362</v>
       </c>
-      <c r="V59" s="23"/>
+      <c r="V59" s="24"/>
       <c r="W59" t="s">
         <v>393</v>
       </c>
@@ -4238,31 +4291,33 @@
       <c r="A60" s="1">
         <v>17</v>
       </c>
-      <c r="B60" s="23"/>
+      <c r="B60" s="20" t="s">
+        <v>18</v>
+      </c>
       <c r="C60" t="s">
-        <v>229</v>
-      </c>
-      <c r="F60" s="23"/>
+        <v>233</v>
+      </c>
+      <c r="F60" s="24"/>
       <c r="G60" t="s">
         <v>260</v>
       </c>
-      <c r="J60" s="27" t="s">
+      <c r="J60" s="20" t="s">
         <v>18</v>
       </c>
       <c r="K60" t="s">
         <v>296</v>
       </c>
-      <c r="N60" s="27" t="s">
+      <c r="N60" s="20" t="s">
         <v>18</v>
       </c>
       <c r="O60" t="s">
         <v>331</v>
       </c>
-      <c r="R60" s="23"/>
+      <c r="R60" s="24"/>
       <c r="S60" t="s">
         <v>192</v>
       </c>
-      <c r="V60" s="27" t="s">
+      <c r="V60" s="20" t="s">
         <v>18</v>
       </c>
       <c r="W60" t="s">
@@ -4273,19 +4328,19 @@
       <c r="A61" s="1">
         <v>18</v>
       </c>
-      <c r="B61" s="23"/>
+      <c r="B61" s="20"/>
       <c r="C61" t="s">
-        <v>55</v>
-      </c>
-      <c r="F61" s="23"/>
+        <v>230</v>
+      </c>
+      <c r="F61" s="24"/>
       <c r="G61" t="s">
         <v>92</v>
       </c>
-      <c r="J61" s="27"/>
+      <c r="J61" s="20"/>
       <c r="K61" t="s">
         <v>297</v>
       </c>
-      <c r="N61" s="27"/>
+      <c r="N61" s="20"/>
       <c r="O61" t="s">
         <v>332</v>
       </c>
@@ -4295,7 +4350,7 @@
       <c r="S61" t="s">
         <v>363</v>
       </c>
-      <c r="V61" s="27"/>
+      <c r="V61" s="20"/>
       <c r="W61" t="s">
         <v>395</v>
       </c>
@@ -4304,31 +4359,29 @@
       <c r="A62" s="1">
         <v>19</v>
       </c>
-      <c r="B62" s="27" t="s">
-        <v>18</v>
-      </c>
+      <c r="B62" s="20"/>
       <c r="C62" t="s">
-        <v>233</v>
-      </c>
-      <c r="F62" s="23"/>
+        <v>231</v>
+      </c>
+      <c r="F62" s="24"/>
       <c r="G62" t="s">
         <v>259</v>
       </c>
-      <c r="J62" s="27"/>
+      <c r="J62" s="20"/>
       <c r="K62" t="s">
         <v>298</v>
       </c>
-      <c r="N62" s="27"/>
+      <c r="N62" s="20"/>
       <c r="O62" t="s">
         <v>333</v>
       </c>
-      <c r="R62" s="28" t="s">
+      <c r="R62" s="21" t="s">
         <v>24</v>
       </c>
       <c r="S62" t="s">
         <v>364</v>
       </c>
-      <c r="V62" s="27"/>
+      <c r="V62" s="20"/>
       <c r="W62" t="s">
         <v>396</v>
       </c>
@@ -4337,31 +4390,31 @@
       <c r="A63" s="1">
         <v>20</v>
       </c>
-      <c r="B63" s="27"/>
+      <c r="B63" s="20"/>
       <c r="C63" t="s">
-        <v>230</v>
-      </c>
-      <c r="F63" s="27" t="s">
+        <v>232</v>
+      </c>
+      <c r="F63" s="20" t="s">
         <v>18</v>
       </c>
       <c r="G63" t="s">
         <v>264</v>
       </c>
-      <c r="J63" s="28" t="s">
+      <c r="J63" s="21" t="s">
         <v>24</v>
       </c>
       <c r="K63" t="s">
         <v>299</v>
       </c>
-      <c r="N63" s="27"/>
+      <c r="N63" s="20"/>
       <c r="O63" t="s">
         <v>334</v>
       </c>
-      <c r="R63" s="28"/>
+      <c r="R63" s="21"/>
       <c r="S63" t="s">
         <v>365</v>
       </c>
-      <c r="V63" s="27"/>
+      <c r="V63" s="20"/>
       <c r="W63" t="s">
         <v>397</v>
       </c>
@@ -4370,27 +4423,27 @@
       <c r="A64" s="1">
         <v>21</v>
       </c>
-      <c r="B64" s="27"/>
+      <c r="B64" s="20"/>
       <c r="C64" t="s">
-        <v>231</v>
-      </c>
-      <c r="F64" s="27"/>
+        <v>61</v>
+      </c>
+      <c r="F64" s="20"/>
       <c r="G64" t="s">
         <v>265</v>
       </c>
-      <c r="J64" s="28"/>
+      <c r="J64" s="21"/>
       <c r="K64" t="s">
         <v>300</v>
       </c>
-      <c r="N64" s="27"/>
+      <c r="N64" s="20"/>
       <c r="O64" t="s">
         <v>335</v>
       </c>
-      <c r="R64" s="28"/>
+      <c r="R64" s="21"/>
       <c r="S64" t="s">
         <v>366</v>
       </c>
-      <c r="V64" s="28" t="s">
+      <c r="V64" s="21" t="s">
         <v>24</v>
       </c>
       <c r="W64" t="s">
@@ -4401,29 +4454,29 @@
       <c r="A65" s="1">
         <v>22</v>
       </c>
-      <c r="B65" s="27"/>
+      <c r="B65" s="20"/>
       <c r="C65" t="s">
-        <v>232</v>
-      </c>
-      <c r="F65" s="27"/>
+        <v>267</v>
+      </c>
+      <c r="F65" s="20"/>
       <c r="G65" t="s">
         <v>97</v>
       </c>
-      <c r="J65" s="28"/>
+      <c r="J65" s="21"/>
       <c r="K65" t="s">
         <v>301</v>
       </c>
-      <c r="N65" s="28" t="s">
+      <c r="N65" s="21" t="s">
         <v>24</v>
       </c>
       <c r="O65" t="s">
         <v>336</v>
       </c>
-      <c r="R65" s="28"/>
+      <c r="R65" s="21"/>
       <c r="S65" t="s">
         <v>367</v>
       </c>
-      <c r="V65" s="28"/>
+      <c r="V65" s="21"/>
       <c r="W65" t="s">
         <v>399</v>
       </c>
@@ -4432,27 +4485,29 @@
       <c r="A66" s="1">
         <v>23</v>
       </c>
-      <c r="B66" s="27"/>
+      <c r="B66" s="21" t="s">
+        <v>24</v>
+      </c>
       <c r="C66" t="s">
-        <v>61</v>
-      </c>
-      <c r="F66" s="27"/>
+        <v>102</v>
+      </c>
+      <c r="F66" s="20"/>
       <c r="G66" t="s">
         <v>266</v>
       </c>
-      <c r="J66" s="28"/>
+      <c r="J66" s="21"/>
       <c r="K66" t="s">
         <v>302</v>
       </c>
-      <c r="N66" s="28"/>
+      <c r="N66" s="21"/>
       <c r="O66" t="s">
         <v>337</v>
       </c>
-      <c r="R66" s="28"/>
+      <c r="R66" s="21"/>
       <c r="S66" t="s">
         <v>368</v>
       </c>
-      <c r="V66" s="28"/>
+      <c r="V66" s="21"/>
       <c r="W66" t="s">
         <v>400</v>
       </c>
@@ -4461,31 +4516,31 @@
       <c r="A67" s="1">
         <v>24</v>
       </c>
-      <c r="B67" s="28" t="s">
+      <c r="B67" s="21"/>
+      <c r="C67" t="s">
+        <v>234</v>
+      </c>
+      <c r="F67" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C67" t="s">
-        <v>102</v>
-      </c>
-      <c r="F67" s="27"/>
       <c r="G67" t="s">
-        <v>267</v>
-      </c>
-      <c r="J67" s="28"/>
+        <v>268</v>
+      </c>
+      <c r="J67" s="21"/>
       <c r="K67" t="s">
         <v>303</v>
       </c>
-      <c r="N67" s="28"/>
+      <c r="N67" s="21"/>
       <c r="O67" t="s">
         <v>338</v>
       </c>
-      <c r="R67" s="24" t="s">
+      <c r="R67" s="26" t="s">
         <v>30</v>
       </c>
       <c r="S67" t="s">
         <v>369</v>
       </c>
-      <c r="V67" s="28"/>
+      <c r="V67" s="21"/>
       <c r="W67" t="s">
         <v>401</v>
       </c>
@@ -4494,29 +4549,27 @@
       <c r="A68" s="1">
         <v>25</v>
       </c>
-      <c r="B68" s="28"/>
+      <c r="B68" s="21"/>
       <c r="C68" t="s">
-        <v>234</v>
-      </c>
-      <c r="F68" s="28" t="s">
-        <v>24</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="F68" s="21"/>
       <c r="G68" t="s">
-        <v>268</v>
-      </c>
-      <c r="J68" s="28"/>
+        <v>269</v>
+      </c>
+      <c r="J68" s="21"/>
       <c r="K68" t="s">
         <v>304</v>
       </c>
-      <c r="N68" s="28"/>
+      <c r="N68" s="21"/>
       <c r="O68" t="s">
         <v>342</v>
       </c>
-      <c r="R68" s="24"/>
+      <c r="R68" s="26"/>
       <c r="S68" t="s">
         <v>370</v>
       </c>
-      <c r="V68" s="24" t="s">
+      <c r="V68" s="26" t="s">
         <v>30</v>
       </c>
       <c r="W68" t="s">
@@ -4527,29 +4580,29 @@
       <c r="A69" s="1">
         <v>26</v>
       </c>
-      <c r="B69" s="28"/>
+      <c r="B69" s="21"/>
       <c r="C69" t="s">
-        <v>235</v>
-      </c>
-      <c r="F69" s="28"/>
+        <v>236</v>
+      </c>
+      <c r="F69" s="21"/>
       <c r="G69" t="s">
-        <v>269</v>
-      </c>
-      <c r="J69" s="28"/>
+        <v>270</v>
+      </c>
+      <c r="J69" s="21"/>
       <c r="K69" t="s">
         <v>305</v>
       </c>
-      <c r="N69" s="24" t="s">
+      <c r="N69" s="26" t="s">
         <v>30</v>
       </c>
       <c r="O69" t="s">
         <v>339</v>
       </c>
-      <c r="R69" s="24"/>
+      <c r="R69" s="26"/>
       <c r="S69" t="s">
         <v>371</v>
       </c>
-      <c r="V69" s="24"/>
+      <c r="V69" s="26"/>
       <c r="W69" t="s">
         <v>403</v>
       </c>
@@ -4558,29 +4611,29 @@
       <c r="A70" s="1">
         <v>27</v>
       </c>
-      <c r="B70" s="28"/>
+      <c r="B70" s="21"/>
       <c r="C70" t="s">
-        <v>236</v>
-      </c>
-      <c r="F70" s="28"/>
+        <v>237</v>
+      </c>
+      <c r="F70" s="21"/>
       <c r="G70" t="s">
-        <v>270</v>
-      </c>
-      <c r="J70" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="J70" s="26" t="s">
         <v>30</v>
       </c>
       <c r="K70" t="s">
         <v>306</v>
       </c>
-      <c r="N70" s="24"/>
+      <c r="N70" s="26"/>
       <c r="O70" t="s">
         <v>340</v>
       </c>
-      <c r="R70" s="24"/>
+      <c r="R70" s="26"/>
       <c r="S70" t="s">
         <v>372</v>
       </c>
-      <c r="V70" s="24"/>
+      <c r="V70" s="26"/>
       <c r="W70" t="s">
         <v>404</v>
       </c>
@@ -4589,19 +4642,21 @@
       <c r="A71" s="1">
         <v>28</v>
       </c>
-      <c r="B71" s="28"/>
+      <c r="B71" s="21"/>
       <c r="C71" t="s">
-        <v>237</v>
-      </c>
-      <c r="F71" s="28"/>
+        <v>238</v>
+      </c>
+      <c r="F71" s="26" t="s">
+        <v>30</v>
+      </c>
       <c r="G71" t="s">
-        <v>101</v>
-      </c>
-      <c r="J71" s="24"/>
+        <v>271</v>
+      </c>
+      <c r="J71" s="26"/>
       <c r="K71" t="s">
         <v>307</v>
       </c>
-      <c r="N71" s="24"/>
+      <c r="N71" s="26"/>
       <c r="O71" t="s">
         <v>341</v>
       </c>
@@ -4611,7 +4666,7 @@
       <c r="S71" t="s">
         <v>373</v>
       </c>
-      <c r="V71" s="24"/>
+      <c r="V71" s="26"/>
       <c r="W71" t="s">
         <v>405</v>
       </c>
@@ -4620,21 +4675,21 @@
       <c r="A72" s="1">
         <v>29</v>
       </c>
-      <c r="B72" s="28"/>
+      <c r="B72" s="26" t="s">
+        <v>30</v>
+      </c>
       <c r="C72" t="s">
-        <v>238</v>
-      </c>
-      <c r="F72" s="24" t="s">
-        <v>30</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="F72" s="26"/>
       <c r="G72" t="s">
-        <v>271</v>
-      </c>
-      <c r="J72" s="24"/>
+        <v>272</v>
+      </c>
+      <c r="J72" s="26"/>
       <c r="K72" t="s">
         <v>308</v>
       </c>
-      <c r="N72" s="24"/>
+      <c r="N72" s="26"/>
       <c r="O72" t="s">
         <v>343</v>
       </c>
@@ -4642,7 +4697,7 @@
       <c r="S72" t="s">
         <v>374</v>
       </c>
-      <c r="V72" s="24"/>
+      <c r="V72" s="26"/>
       <c r="W72" t="s">
         <v>406</v>
       </c>
@@ -4651,17 +4706,15 @@
       <c r="A73" s="1">
         <v>30</v>
       </c>
-      <c r="B73" s="24" t="s">
-        <v>30</v>
-      </c>
+      <c r="B73" s="26"/>
       <c r="C73" t="s">
-        <v>34</v>
-      </c>
-      <c r="F73" s="24"/>
+        <v>239</v>
+      </c>
+      <c r="F73" s="26"/>
       <c r="G73" t="s">
-        <v>272</v>
-      </c>
-      <c r="J73" s="24"/>
+        <v>273</v>
+      </c>
+      <c r="J73" s="26"/>
       <c r="K73" t="s">
         <v>309</v>
       </c>
@@ -4683,13 +4736,13 @@
       </c>
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B74" s="24"/>
+      <c r="B74" s="26"/>
       <c r="C74" t="s">
-        <v>239</v>
-      </c>
-      <c r="F74" s="24"/>
+        <v>240</v>
+      </c>
+      <c r="F74" s="26"/>
       <c r="G74" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="J74" s="25" t="s">
         <v>36</v>
@@ -4711,13 +4764,15 @@
       </c>
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B75" s="24"/>
+      <c r="B75" s="26"/>
       <c r="C75" t="s">
-        <v>240</v>
-      </c>
-      <c r="F75" s="24"/>
+        <v>241</v>
+      </c>
+      <c r="F75" s="25" t="s">
+        <v>36</v>
+      </c>
       <c r="G75" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="J75" s="25"/>
       <c r="K75" t="s">
@@ -4737,15 +4792,15 @@
       </c>
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B76" s="24"/>
+      <c r="B76" s="25" t="s">
+        <v>36</v>
+      </c>
       <c r="C76" t="s">
-        <v>241</v>
-      </c>
-      <c r="F76" s="25" t="s">
-        <v>36</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="F76" s="25"/>
       <c r="G76" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="J76" s="25"/>
       <c r="K76" t="s">
@@ -4761,15 +4816,13 @@
       </c>
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B77" s="25" t="s">
-        <v>36</v>
-      </c>
+      <c r="B77" s="25"/>
       <c r="C77" t="s">
-        <v>109</v>
+        <v>242</v>
       </c>
       <c r="F77" s="25"/>
       <c r="G77" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J77" s="25"/>
       <c r="K77" t="s">
@@ -4779,83 +4832,40 @@
     <row r="78" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B78" s="25"/>
       <c r="C78" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F78" s="25"/>
       <c r="G78" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B79" s="25"/>
       <c r="C79" t="s">
-        <v>243</v>
-      </c>
-      <c r="F79" s="25"/>
-      <c r="G79" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B80" s="25"/>
-      <c r="C80" t="s">
         <v>244</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="84">
-    <mergeCell ref="V24:V26"/>
-    <mergeCell ref="R20:R21"/>
-    <mergeCell ref="V27:V30"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="R4:R9"/>
-    <mergeCell ref="R10:R19"/>
-    <mergeCell ref="V2:V5"/>
-    <mergeCell ref="V6:V13"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="N4:N10"/>
-    <mergeCell ref="N11:N16"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="B77:B80"/>
-    <mergeCell ref="F76:F79"/>
-    <mergeCell ref="J70:J73"/>
-    <mergeCell ref="J74:J77"/>
-    <mergeCell ref="N44:N46"/>
-    <mergeCell ref="N47:N49"/>
-    <mergeCell ref="N60:N64"/>
-    <mergeCell ref="N65:N68"/>
-    <mergeCell ref="N69:N72"/>
-    <mergeCell ref="N73:N76"/>
-    <mergeCell ref="N50:N59"/>
-    <mergeCell ref="J60:J62"/>
-    <mergeCell ref="J50:J59"/>
-    <mergeCell ref="J63:J69"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B62:B66"/>
-    <mergeCell ref="F63:F67"/>
-    <mergeCell ref="F72:F75"/>
-    <mergeCell ref="F68:F71"/>
-    <mergeCell ref="B67:B72"/>
-    <mergeCell ref="B73:B76"/>
-    <mergeCell ref="R48:R52"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B5:B10"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="B11:B15"/>
-    <mergeCell ref="R44:R47"/>
-    <mergeCell ref="J25:J28"/>
-    <mergeCell ref="N24:N29"/>
-    <mergeCell ref="N30:N33"/>
-    <mergeCell ref="R26:R30"/>
-    <mergeCell ref="J44:J46"/>
-    <mergeCell ref="J47:J49"/>
-    <mergeCell ref="R22:R25"/>
-    <mergeCell ref="N19:N23"/>
-    <mergeCell ref="F44:F46"/>
-    <mergeCell ref="B51:B61"/>
+  <mergeCells count="85">
+    <mergeCell ref="B51:B59"/>
+    <mergeCell ref="B60:B65"/>
+    <mergeCell ref="F63:F66"/>
+    <mergeCell ref="F47:F54"/>
+    <mergeCell ref="F55:F62"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="J4:J8"/>
+    <mergeCell ref="J9:J16"/>
+    <mergeCell ref="J23:J25"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="F27:F31"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="F10:F15"/>
+    <mergeCell ref="J20:J22"/>
+    <mergeCell ref="J17:J19"/>
     <mergeCell ref="R53:R60"/>
     <mergeCell ref="V14:V23"/>
     <mergeCell ref="V68:V72"/>
@@ -4872,24 +4882,59 @@
     <mergeCell ref="V36:V39"/>
     <mergeCell ref="R62:R66"/>
     <mergeCell ref="V31:V35"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="F47:F56"/>
-    <mergeCell ref="F57:F62"/>
-    <mergeCell ref="J3:J7"/>
-    <mergeCell ref="J8:J15"/>
-    <mergeCell ref="J22:J24"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="F27:F31"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="F10:F15"/>
-    <mergeCell ref="J19:J21"/>
-    <mergeCell ref="J16:J18"/>
+    <mergeCell ref="R48:R52"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="R44:R47"/>
+    <mergeCell ref="J26:J29"/>
+    <mergeCell ref="N24:N29"/>
+    <mergeCell ref="N30:N33"/>
+    <mergeCell ref="R26:R30"/>
+    <mergeCell ref="J44:J46"/>
+    <mergeCell ref="J47:J49"/>
+    <mergeCell ref="R22:R25"/>
+    <mergeCell ref="N19:N23"/>
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="F71:F74"/>
+    <mergeCell ref="F67:F70"/>
+    <mergeCell ref="B66:B71"/>
+    <mergeCell ref="B72:B75"/>
+    <mergeCell ref="B76:B79"/>
+    <mergeCell ref="F75:F78"/>
+    <mergeCell ref="J70:J73"/>
+    <mergeCell ref="J74:J77"/>
+    <mergeCell ref="N44:N46"/>
+    <mergeCell ref="N47:N49"/>
+    <mergeCell ref="N60:N64"/>
+    <mergeCell ref="N65:N68"/>
+    <mergeCell ref="N69:N72"/>
+    <mergeCell ref="N73:N76"/>
+    <mergeCell ref="N50:N59"/>
+    <mergeCell ref="J60:J62"/>
+    <mergeCell ref="J50:J59"/>
+    <mergeCell ref="J63:J69"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="N4:N10"/>
+    <mergeCell ref="N11:N16"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="V24:V26"/>
+    <mergeCell ref="R20:R21"/>
+    <mergeCell ref="V27:V30"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="R4:R9"/>
+    <mergeCell ref="R10:R19"/>
+    <mergeCell ref="V2:V5"/>
+    <mergeCell ref="V6:V13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4897,8 +4942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z50"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4919,212 +4964,215 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="E1" s="26" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="E1" s="28" t="s">
         <v>412</v>
       </c>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
       <c r="J1" t="s">
         <v>411</v>
       </c>
-      <c r="O1" s="26" t="s">
+      <c r="O1" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="T1" s="26" t="s">
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="T1" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
-      <c r="X1" s="26" t="s">
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="X1" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>415</v>
       </c>
       <c r="B2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E2" t="s">
+        <v>554</v>
+      </c>
+      <c r="F2" t="s">
+        <v>491</v>
+      </c>
+      <c r="J2" t="s">
         <v>555</v>
       </c>
-      <c r="F2" t="s">
-        <v>492</v>
-      </c>
-      <c r="J2" t="s">
-        <v>556</v>
-      </c>
       <c r="K2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="P2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="T2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="U2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="X2" t="s">
-        <v>595</v>
+        <v>594</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E3" t="s">
         <v>414</v>
       </c>
       <c r="F3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="J3" t="s">
         <v>413</v>
       </c>
       <c r="K3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="O3" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="P3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="T3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="U3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="X3" t="s">
-        <v>605</v>
+        <v>604</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
+        <v>536</v>
+      </c>
+      <c r="E4" t="s">
+        <v>590</v>
+      </c>
+      <c r="F4" t="s">
+        <v>498</v>
+      </c>
+      <c r="K4" t="s">
         <v>537</v>
       </c>
-      <c r="E4" t="s">
-        <v>591</v>
-      </c>
-      <c r="F4" t="s">
-        <v>499</v>
-      </c>
-      <c r="K4" t="s">
-        <v>538</v>
-      </c>
       <c r="O4" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="P4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="T4" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="U4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="X4" t="s">
         <v>416</v>
       </c>
       <c r="Y4" t="s">
-        <v>530</v>
+        <v>540</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B5" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="K5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="O5" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="P5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="T5" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="U5" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="Y5" t="s">
-        <v>540</v>
+        <v>702</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F6" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="K6" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="P6" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="T6" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="U6" t="s">
-        <v>536</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E7" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="F7" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="K7" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="T7" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.35">
@@ -5132,10 +5180,10 @@
         <v>419</v>
       </c>
       <c r="K8" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="T8" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.35">
@@ -5143,36 +5191,36 @@
         <v>539</v>
       </c>
       <c r="T9" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="28" t="s">
         <v>212</v>
       </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
       <c r="E17" t="s">
         <v>420</v>
       </c>
-      <c r="I17" s="26" t="s">
+      <c r="I17" s="28" t="s">
         <v>421</v>
       </c>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="N17" s="26" t="s">
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="N17" s="28" t="s">
         <v>314</v>
       </c>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="26"/>
-      <c r="S17" s="26" t="s">
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="28"/>
+      <c r="S17" s="28" t="s">
         <v>315</v>
       </c>
-      <c r="T17" s="26"/>
-      <c r="U17" s="26"/>
-      <c r="V17" s="26"/>
+      <c r="T17" s="28"/>
+      <c r="U17" s="28"/>
+      <c r="V17" s="28"/>
       <c r="X17" t="s">
         <v>316</v>
       </c>
@@ -5182,168 +5230,162 @@
         <v>417</v>
       </c>
       <c r="B18" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="E18" t="s">
+        <v>595</v>
+      </c>
+      <c r="F18" t="s">
+        <v>503</v>
+      </c>
+      <c r="J18" t="s">
         <v>596</v>
       </c>
-      <c r="F18" t="s">
-        <v>509</v>
-      </c>
-      <c r="J18" t="s">
-        <v>597</v>
-      </c>
       <c r="K18" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="O18" t="s">
         <v>424</v>
       </c>
       <c r="P18" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="T18" t="s">
         <v>422</v>
       </c>
       <c r="U18" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="X18" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="Y18" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>613</v>
+        <v>597</v>
       </c>
       <c r="B19" t="s">
         <v>505</v>
       </c>
       <c r="E19" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F19" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="J19" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="K19" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="O19" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="P19" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="T19" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="U19" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="X19" t="s">
         <v>423</v>
       </c>
       <c r="Y19" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>628</v>
+        <v>599</v>
       </c>
       <c r="B20" t="s">
-        <v>495</v>
+        <v>703</v>
       </c>
       <c r="E20" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F20" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="J20" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="K20" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="O20" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="P20" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="T20" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="X20" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="Y20" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>602</v>
-      </c>
-      <c r="B21" t="s">
-        <v>506</v>
+        <v>612</v>
       </c>
       <c r="E21" t="s">
-        <v>629</v>
+        <v>429</v>
       </c>
       <c r="F21" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="J21" t="s">
         <v>426</v>
       </c>
       <c r="K21" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="O21" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="P21" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="T21" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="X21" t="s">
         <v>428</v>
       </c>
       <c r="Y21" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>608</v>
-      </c>
-      <c r="B22" t="s">
-        <v>494</v>
+        <v>628</v>
       </c>
       <c r="E22" t="s">
+        <v>593</v>
+      </c>
+      <c r="F22" t="s">
+        <v>509</v>
+      </c>
+      <c r="K22" t="s">
+        <v>515</v>
+      </c>
+      <c r="O22" t="s">
         <v>598</v>
       </c>
-      <c r="F22" t="s">
-        <v>501</v>
-      </c>
-      <c r="K22" t="s">
-        <v>516</v>
-      </c>
-      <c r="O22" t="s">
-        <v>599</v>
-      </c>
       <c r="P22" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="T22" t="s">
         <v>425</v>
@@ -5352,35 +5394,38 @@
         <v>430</v>
       </c>
       <c r="Y22" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>619</v>
-      </c>
-      <c r="B23" t="s">
-        <v>511</v>
+        <v>627</v>
       </c>
       <c r="E23" t="s">
-        <v>429</v>
+        <v>603</v>
+      </c>
+      <c r="F23" t="s">
+        <v>499</v>
       </c>
       <c r="O23" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="T23" t="s">
         <v>427</v>
       </c>
       <c r="U23" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>632</v>
+        <v>601</v>
       </c>
       <c r="E24" t="s">
-        <v>594</v>
+        <v>623</v>
+      </c>
+      <c r="F24" t="s">
+        <v>504</v>
       </c>
       <c r="O24" t="s">
         <v>431</v>
@@ -5388,151 +5433,150 @@
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
+        <v>607</v>
+      </c>
+      <c r="E25" t="s">
+        <v>619</v>
+      </c>
+      <c r="F25" t="s">
+        <v>494</v>
+      </c>
+      <c r="O25" t="s">
         <v>432</v>
       </c>
-      <c r="E25" t="s">
-        <v>600</v>
-      </c>
-      <c r="O25" t="s">
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>618</v>
+      </c>
+      <c r="E26" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="E26" t="s">
-        <v>604</v>
+      <c r="F26" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="E27" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="E28" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="E29" t="s">
-        <v>434</v>
+      <c r="A27" t="s">
+        <v>631</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.35">
       <c r="C30" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.35">
       <c r="C31" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.35">
       <c r="C32" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="33" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C33" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="34" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C34" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="35" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C35" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="36" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C36" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H36" s="2"/>
     </row>
     <row r="37" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C37" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="38" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C38" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="39" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C39" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="J39" s="17" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="K39" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="40" spans="3:11" x14ac:dyDescent="0.35">
       <c r="J40" s="18" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="K40" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="41" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="J41" s="19" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="K41" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="42" spans="3:11" x14ac:dyDescent="0.35">
       <c r="J42" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="43" spans="3:11" x14ac:dyDescent="0.35">
       <c r="J43" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="44" spans="3:11" x14ac:dyDescent="0.35">
       <c r="J44" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="45" spans="3:11" x14ac:dyDescent="0.35">
       <c r="J45" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="46" spans="3:11" x14ac:dyDescent="0.35">
       <c r="J46" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="47" spans="3:11" x14ac:dyDescent="0.35">
       <c r="J47" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="48" spans="3:11" x14ac:dyDescent="0.35">
       <c r="J48" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="49" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J49" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="50" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J50" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
   </sheetData>
@@ -5568,134 +5612,134 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>440</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>441</v>
+      </c>
+      <c r="B2" t="s">
         <v>442</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="4" t="s">
         <v>443</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B3" t="s">
+        <v>444</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>445</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>446</v>
+      </c>
+      <c r="B4" t="s">
         <v>447</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="4" t="s">
         <v>448</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>449</v>
+      </c>
+      <c r="B5" t="s">
         <v>450</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="4" t="s">
         <v>451</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B6" t="s">
+        <v>452</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>453</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B7" t="s">
+        <v>454</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>455</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B8" t="s">
+        <v>456</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>457</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>458</v>
+      </c>
+      <c r="B9" t="s">
         <v>459</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" s="4" t="s">
         <v>460</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B10" t="s">
+        <v>461</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>462</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>463</v>
+      </c>
+      <c r="B11" t="s">
         <v>464</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" s="4" t="s">
         <v>465</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>466</v>
+      </c>
+      <c r="B12" t="s">
         <v>467</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" s="4" t="s">
         <v>468</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>469</v>
       </c>
     </row>
   </sheetData>
@@ -5718,10 +5762,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K184"/>
+  <dimension ref="A1:K201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
-      <selection activeCell="C179" sqref="C179"/>
+    <sheetView tabSelected="1" topLeftCell="A185" workbookViewId="0">
+      <selection activeCell="E192" sqref="E192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5741,7 +5785,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>226</v>
@@ -5749,7 +5793,7 @@
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>44</v>
@@ -5758,10 +5802,10 @@
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
@@ -5774,13 +5818,13 @@
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="10"/>
       <c r="B5" s="11" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="10"/>
       <c r="B6" s="11" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
@@ -5789,7 +5833,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>90</v>
@@ -5798,19 +5842,19 @@
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="10"/>
       <c r="B9" s="11" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="10"/>
       <c r="B10" s="11" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="10"/>
       <c r="B11" s="11" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
@@ -5822,37 +5866,37 @@
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="10"/>
       <c r="B13" s="11" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="10"/>
       <c r="B14" s="11" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="10"/>
       <c r="B15" s="11" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="10"/>
       <c r="B16" s="11" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="7"/>
       <c r="B17" s="8" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>86</v>
@@ -5867,7 +5911,7 @@
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="10"/>
       <c r="B21" s="11" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -5879,7 +5923,7 @@
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="10"/>
       <c r="B23" s="11" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -5891,19 +5935,19 @@
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="10"/>
       <c r="B25" s="12" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="10"/>
       <c r="B26" s="11" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="10"/>
       <c r="B27" s="11" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
@@ -5912,7 +5956,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>17</v>
@@ -5927,31 +5971,31 @@
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="10"/>
       <c r="B31" s="11" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="10"/>
       <c r="B32" s="11" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="10"/>
       <c r="B33" s="12" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="10"/>
       <c r="B34" s="12" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="10"/>
       <c r="B35" s="12" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
@@ -5963,13 +6007,13 @@
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="10"/>
       <c r="B37" s="12" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="10"/>
       <c r="B38" s="11" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
@@ -5981,13 +6025,13 @@
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="10"/>
       <c r="B40" s="11" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="10"/>
       <c r="B41" s="11" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
@@ -6005,7 +6049,7 @@
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="10"/>
       <c r="B44" s="12" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -6017,27 +6061,27 @@
     <row r="46" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="B47" s="6" t="s">
         <v>563</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="10"/>
       <c r="B48" s="11" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="10"/>
       <c r="B49" s="11" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="7" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>225</v>
@@ -6046,28 +6090,28 @@
     <row r="52" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="10"/>
       <c r="B54" s="15" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="10"/>
       <c r="B55" s="15" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="10"/>
       <c r="B56" s="15" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
@@ -6076,7 +6120,7 @@
     </row>
     <row r="58" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="7" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B58" s="16" t="s">
         <v>321</v>
@@ -6085,24 +6129,24 @@
     <row r="60" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="B61" s="6" t="s">
         <v>574</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="7" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>48</v>
@@ -6111,33 +6155,33 @@
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="10"/>
       <c r="B65" s="11" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="10" t="s">
+        <v>577</v>
+      </c>
+      <c r="B66" s="11" t="s">
         <v>578</v>
-      </c>
-      <c r="B66" s="11" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="10"/>
       <c r="B67" s="11" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="7"/>
       <c r="B68" s="8" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>183</v>
@@ -6146,27 +6190,27 @@
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="10"/>
       <c r="B71" s="11" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="10"/>
       <c r="B72" s="11" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="10"/>
       <c r="B73" s="11" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="10" t="s">
+        <v>587</v>
+      </c>
+      <c r="B74" s="11" t="s">
         <v>588</v>
-      </c>
-      <c r="B74" s="11" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
@@ -6202,13 +6246,13 @@
     <row r="80" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="7"/>
       <c r="B80" s="8" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="5" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B83" s="6" t="s">
         <v>78</v>
@@ -6216,16 +6260,16 @@
     </row>
     <row r="84" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="B84" s="8" t="s">
         <v>645</v>
-      </c>
-      <c r="B84" s="8" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="5" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B87" s="6" t="s">
         <v>215</v>
@@ -6233,7 +6277,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="10" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B88" s="11" t="s">
         <v>57</v>
@@ -6242,13 +6286,13 @@
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="10"/>
       <c r="B89" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="10"/>
       <c r="B90" s="11" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -6260,7 +6304,7 @@
     <row r="92" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" s="5" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B93" s="6" t="s">
         <v>93</v>
@@ -6275,7 +6319,7 @@
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="10"/>
       <c r="B95" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
@@ -6286,42 +6330,42 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="10" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="10"/>
       <c r="B98" s="11" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" s="10"/>
       <c r="B99" s="11" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A100" s="7"/>
       <c r="B100" s="8" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="B103" s="6" t="s">
         <v>655</v>
-      </c>
-      <c r="B103" s="6" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A104" s="7" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B104" s="8" t="s">
         <v>35</v>
@@ -6330,24 +6374,24 @@
     <row r="106" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" s="5" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" s="10"/>
       <c r="B108" s="11" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" s="10" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -6359,7 +6403,7 @@
     <row r="112" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" s="5" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B113" s="6" t="s">
         <v>10</v>
@@ -6367,7 +6411,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" s="10" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B114" s="11" t="s">
         <v>188</v>
@@ -6376,16 +6420,16 @@
     <row r="115" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A115" s="7"/>
       <c r="B115" s="8" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" s="5" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
@@ -6396,10 +6440,10 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" s="10" t="s">
+        <v>660</v>
+      </c>
+      <c r="B120" s="11" t="s">
         <v>661</v>
-      </c>
-      <c r="B120" s="11" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
@@ -6411,16 +6455,16 @@
     <row r="122" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A122" s="7"/>
       <c r="B122" s="8" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" s="5" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
@@ -6432,158 +6476,158 @@
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" s="10"/>
       <c r="B126" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" s="10"/>
       <c r="B127" s="11" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" s="10"/>
       <c r="B128" s="11" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" s="10" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B129" s="11" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" s="10"/>
       <c r="B130" s="11" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A131" s="7"/>
       <c r="B131" s="8" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" s="5" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" s="10"/>
       <c r="B134" s="11" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" s="10"/>
       <c r="B135" s="11" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A136" s="7" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" s="5" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" s="10" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B139" s="11" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A140" s="7"/>
       <c r="B140" s="8" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" s="5" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" s="10"/>
       <c r="B143" s="11" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" s="10"/>
       <c r="B144" s="11" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" s="10"/>
       <c r="B145" s="11" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" s="10" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B146" s="11" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" s="10"/>
       <c r="B147" s="11" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A148" s="7"/>
       <c r="B148" s="8" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" s="5" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" s="10"/>
       <c r="B151" s="11" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" s="10" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B152" s="11" t="s">
         <v>15</v>
@@ -6592,19 +6636,19 @@
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" s="10"/>
       <c r="B153" s="11" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A154" s="7"/>
       <c r="B154" s="8" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B156" s="6" t="s">
         <v>192</v>
@@ -6612,25 +6656,25 @@
     </row>
     <row r="157" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A157" s="7" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" s="5" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" s="10"/>
       <c r="B160" s="11" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
@@ -6641,51 +6685,51 @@
     </row>
     <row r="162" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A162" s="7" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" s="5" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" s="10"/>
       <c r="B165" s="11" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" s="10"/>
       <c r="B166" s="11" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" s="10" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B167" s="11" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A168" s="7"/>
       <c r="B168" s="8" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" s="5" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B170" s="6" t="s">
         <v>48</v>
@@ -6694,12 +6738,12 @@
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" s="10"/>
       <c r="B171" s="11" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" s="10" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B172" s="11" t="s">
         <v>352</v>
@@ -6708,71 +6752,171 @@
     <row r="173" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A173" s="7"/>
       <c r="B173" s="8" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" s="5" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" s="10" t="s">
+        <v>691</v>
+      </c>
+      <c r="B176" s="11" t="s">
         <v>692</v>
-      </c>
-      <c r="B176" s="11" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A177" s="7"/>
       <c r="B177" s="8" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" s="5" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" s="10"/>
       <c r="B180" s="11" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" s="10"/>
       <c r="B181" s="11" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" s="10"/>
       <c r="B182" s="11" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" s="10" t="s">
+        <v>696</v>
+      </c>
+      <c r="B183" s="11" t="s">
         <v>697</v>
-      </c>
-      <c r="B183" s="11" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A184" s="7"/>
       <c r="B184" s="8" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A186" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="B186" s="6" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A187" s="10" t="s">
+        <v>699</v>
+      </c>
+      <c r="B187" s="11" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A188" s="7"/>
+      <c r="B188" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A190" s="5" t="s">
+        <v>704</v>
+      </c>
+      <c r="B190" s="6" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A191" s="10"/>
+      <c r="B191" s="11" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A192" s="10"/>
+      <c r="B192" s="11" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A193" s="10"/>
+      <c r="B193" s="11" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A194" s="10"/>
+      <c r="B194" s="11" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A195" s="10"/>
+      <c r="B195" s="11" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A196" s="10" t="s">
+        <v>706</v>
+      </c>
+      <c r="B196" s="11" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A197" s="10"/>
+      <c r="B197" s="11" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A198" s="10"/>
+      <c r="B198" s="11" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A199" s="10"/>
+      <c r="B199" s="11" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A200" s="10"/>
+      <c r="B200" s="11" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A201" s="7"/>
+      <c r="B201" s="8" t="s">
+        <v>711</v>
       </c>
     </row>
   </sheetData>

--- a/OffSeason.xlsx
+++ b/OffSeason.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310"/>
   </bookViews>
   <sheets>
     <sheet name="Rosters" sheetId="1" r:id="rId1"/>
@@ -2711,10 +2711,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y79"/>
+  <dimension ref="A1:Y81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G78" sqref="G78"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3987,9 +3987,6 @@
       <c r="C50" t="s">
         <v>222</v>
       </c>
-      <c r="D50" t="s">
-        <v>253</v>
-      </c>
       <c r="F50" s="23"/>
       <c r="G50" t="s">
         <v>321</v>
@@ -4019,14 +4016,9 @@
       <c r="A51" s="1">
         <v>8</v>
       </c>
-      <c r="B51" s="24" t="s">
-        <v>12</v>
-      </c>
+      <c r="B51" s="23"/>
       <c r="C51" t="s">
-        <v>57</v>
-      </c>
-      <c r="D51" t="s">
-        <v>83</v>
+        <v>253</v>
       </c>
       <c r="F51" s="23"/>
       <c r="G51" t="s">
@@ -4053,9 +4045,9 @@
       <c r="A52" s="1">
         <v>9</v>
       </c>
-      <c r="B52" s="24"/>
+      <c r="B52" s="23"/>
       <c r="C52" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="F52" s="23"/>
       <c r="G52" t="s">
@@ -4084,9 +4076,11 @@
       <c r="A53" s="1">
         <v>10</v>
       </c>
-      <c r="B53" s="24"/>
+      <c r="B53" s="24" t="s">
+        <v>12</v>
+      </c>
       <c r="C53" t="s">
-        <v>218</v>
+        <v>57</v>
       </c>
       <c r="F53" s="23"/>
       <c r="G53" t="s">
@@ -4117,7 +4111,7 @@
       </c>
       <c r="B54" s="24"/>
       <c r="C54" t="s">
-        <v>220</v>
+        <v>93</v>
       </c>
       <c r="F54" s="23"/>
       <c r="G54" t="s">
@@ -4146,7 +4140,7 @@
       </c>
       <c r="B55" s="24"/>
       <c r="C55" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F55" s="24" t="s">
         <v>12</v>
@@ -4177,7 +4171,7 @@
       </c>
       <c r="B56" s="24"/>
       <c r="C56" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F56" s="24"/>
       <c r="G56" t="s">
@@ -4206,7 +4200,7 @@
       </c>
       <c r="B57" s="24"/>
       <c r="C57" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F57" s="24"/>
       <c r="G57" t="s">
@@ -4235,7 +4229,7 @@
       </c>
       <c r="B58" s="24"/>
       <c r="C58" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F58" s="24"/>
       <c r="G58" t="s">
@@ -4264,7 +4258,7 @@
       </c>
       <c r="B59" s="24"/>
       <c r="C59" t="s">
-        <v>55</v>
+        <v>227</v>
       </c>
       <c r="F59" s="24"/>
       <c r="G59" t="s">
@@ -4291,11 +4285,9 @@
       <c r="A60" s="1">
         <v>17</v>
       </c>
-      <c r="B60" s="20" t="s">
-        <v>18</v>
-      </c>
+      <c r="B60" s="24"/>
       <c r="C60" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F60" s="24"/>
       <c r="G60" t="s">
@@ -4328,9 +4320,9 @@
       <c r="A61" s="1">
         <v>18</v>
       </c>
-      <c r="B61" s="20"/>
+      <c r="B61" s="24"/>
       <c r="C61" t="s">
-        <v>230</v>
+        <v>55</v>
       </c>
       <c r="F61" s="24"/>
       <c r="G61" t="s">
@@ -4359,9 +4351,11 @@
       <c r="A62" s="1">
         <v>19</v>
       </c>
-      <c r="B62" s="20"/>
+      <c r="B62" s="20" t="s">
+        <v>18</v>
+      </c>
       <c r="C62" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F62" s="24"/>
       <c r="G62" t="s">
@@ -4392,7 +4386,7 @@
       </c>
       <c r="B63" s="20"/>
       <c r="C63" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F63" s="20" t="s">
         <v>18</v>
@@ -4425,7 +4419,7 @@
       </c>
       <c r="B64" s="20"/>
       <c r="C64" t="s">
-        <v>61</v>
+        <v>231</v>
       </c>
       <c r="F64" s="20"/>
       <c r="G64" t="s">
@@ -4456,7 +4450,7 @@
       </c>
       <c r="B65" s="20"/>
       <c r="C65" t="s">
-        <v>267</v>
+        <v>232</v>
       </c>
       <c r="F65" s="20"/>
       <c r="G65" t="s">
@@ -4485,11 +4479,9 @@
       <c r="A66" s="1">
         <v>23</v>
       </c>
-      <c r="B66" s="21" t="s">
-        <v>24</v>
-      </c>
+      <c r="B66" s="20"/>
       <c r="C66" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="F66" s="20"/>
       <c r="G66" t="s">
@@ -4516,9 +4508,9 @@
       <c r="A67" s="1">
         <v>24</v>
       </c>
-      <c r="B67" s="21"/>
+      <c r="B67" s="20"/>
       <c r="C67" t="s">
-        <v>234</v>
+        <v>267</v>
       </c>
       <c r="F67" s="21" t="s">
         <v>24</v>
@@ -4549,9 +4541,11 @@
       <c r="A68" s="1">
         <v>25</v>
       </c>
-      <c r="B68" s="21"/>
+      <c r="B68" s="21" t="s">
+        <v>24</v>
+      </c>
       <c r="C68" t="s">
-        <v>235</v>
+        <v>102</v>
       </c>
       <c r="F68" s="21"/>
       <c r="G68" t="s">
@@ -4582,7 +4576,7 @@
       </c>
       <c r="B69" s="21"/>
       <c r="C69" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F69" s="21"/>
       <c r="G69" t="s">
@@ -4613,7 +4607,7 @@
       </c>
       <c r="B70" s="21"/>
       <c r="C70" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F70" s="21"/>
       <c r="G70" t="s">
@@ -4644,7 +4638,7 @@
       </c>
       <c r="B71" s="21"/>
       <c r="C71" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F71" s="26" t="s">
         <v>30</v>
@@ -4675,11 +4669,9 @@
       <c r="A72" s="1">
         <v>29</v>
       </c>
-      <c r="B72" s="26" t="s">
-        <v>30</v>
-      </c>
+      <c r="B72" s="21"/>
       <c r="C72" t="s">
-        <v>34</v>
+        <v>237</v>
       </c>
       <c r="F72" s="26"/>
       <c r="G72" t="s">
@@ -4706,9 +4698,9 @@
       <c r="A73" s="1">
         <v>30</v>
       </c>
-      <c r="B73" s="26"/>
+      <c r="B73" s="21"/>
       <c r="C73" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F73" s="26"/>
       <c r="G73" t="s">
@@ -4736,9 +4728,11 @@
       </c>
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B74" s="26"/>
+      <c r="B74" s="26" t="s">
+        <v>30</v>
+      </c>
       <c r="C74" t="s">
-        <v>240</v>
+        <v>34</v>
       </c>
       <c r="F74" s="26"/>
       <c r="G74" t="s">
@@ -4766,7 +4760,7 @@
     <row r="75" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B75" s="26"/>
       <c r="C75" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F75" s="25" t="s">
         <v>36</v>
@@ -4792,11 +4786,9 @@
       </c>
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B76" s="25" t="s">
-        <v>36</v>
-      </c>
+      <c r="B76" s="26"/>
       <c r="C76" t="s">
-        <v>109</v>
+        <v>240</v>
       </c>
       <c r="F76" s="25"/>
       <c r="G76" t="s">
@@ -4816,9 +4808,9 @@
       </c>
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B77" s="25"/>
+      <c r="B77" s="26"/>
       <c r="C77" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F77" s="25"/>
       <c r="G77" t="s">
@@ -4830,9 +4822,11 @@
       </c>
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B78" s="25"/>
+      <c r="B78" s="25" t="s">
+        <v>36</v>
+      </c>
       <c r="C78" t="s">
-        <v>243</v>
+        <v>109</v>
       </c>
       <c r="F78" s="25"/>
       <c r="G78" t="s">
@@ -4842,13 +4836,26 @@
     <row r="79" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B79" s="25"/>
       <c r="C79" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="B80" s="25"/>
+      <c r="C80" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B81" s="25"/>
+      <c r="C81" t="s">
         <v>244</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="85">
-    <mergeCell ref="B51:B59"/>
-    <mergeCell ref="B60:B65"/>
+    <mergeCell ref="B47:B52"/>
+    <mergeCell ref="B53:B61"/>
+    <mergeCell ref="B62:B67"/>
     <mergeCell ref="F63:F66"/>
     <mergeCell ref="F47:F54"/>
     <mergeCell ref="F55:F62"/>
@@ -4856,7 +4863,6 @@
     <mergeCell ref="J4:J8"/>
     <mergeCell ref="J9:J16"/>
     <mergeCell ref="J23:J25"/>
-    <mergeCell ref="B47:B50"/>
     <mergeCell ref="B19:B22"/>
     <mergeCell ref="B27:B30"/>
     <mergeCell ref="F19:F22"/>
@@ -4899,9 +4905,9 @@
     <mergeCell ref="F44:F46"/>
     <mergeCell ref="F71:F74"/>
     <mergeCell ref="F67:F70"/>
-    <mergeCell ref="B66:B71"/>
-    <mergeCell ref="B72:B75"/>
-    <mergeCell ref="B76:B79"/>
+    <mergeCell ref="B68:B73"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="B78:B81"/>
     <mergeCell ref="F75:F78"/>
     <mergeCell ref="J70:J73"/>
     <mergeCell ref="J74:J77"/>
@@ -4942,8 +4948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z50"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5535,46 +5541,73 @@
       </c>
     </row>
     <row r="42" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="I42">
+        <v>4</v>
+      </c>
       <c r="J42" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="43" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="I43">
+        <v>5</v>
+      </c>
       <c r="J43" t="s">
         <v>634</v>
       </c>
     </row>
     <row r="44" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="I44">
+        <v>6</v>
+      </c>
       <c r="J44" t="s">
         <v>682</v>
       </c>
     </row>
     <row r="45" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="I45">
+        <v>7</v>
+      </c>
       <c r="J45" t="s">
         <v>683</v>
       </c>
     </row>
     <row r="46" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="I46">
+        <v>8</v>
+      </c>
       <c r="J46" t="s">
         <v>635</v>
       </c>
     </row>
     <row r="47" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="I47">
+        <v>9</v>
+      </c>
       <c r="J47" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="48" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="I48">
+        <v>10</v>
+      </c>
       <c r="J48" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="49" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I49">
+        <v>11</v>
+      </c>
       <c r="J49" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="50" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I50">
+        <v>12</v>
+      </c>
       <c r="J50" t="s">
         <v>642</v>
       </c>
@@ -5764,7 +5797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A185" workbookViewId="0">
+    <sheetView topLeftCell="A185" workbookViewId="0">
       <selection activeCell="E192" sqref="E192"/>
     </sheetView>
   </sheetViews>

--- a/OffSeason.xlsx
+++ b/OffSeason.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jolson27\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jolson27\Desktop\Football\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="712">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="720">
   <si>
     <t>Chubber for Chubb - John Olson</t>
   </si>
@@ -2163,6 +2163,30 @@
   </si>
   <si>
     <t>2021 4th (Ben)</t>
+  </si>
+  <si>
+    <t>start own 7</t>
+  </si>
+  <si>
+    <t>Adam sends</t>
+  </si>
+  <si>
+    <t>Mike sends</t>
+  </si>
+  <si>
+    <t>2021 3 (JohnO)</t>
+  </si>
+  <si>
+    <t>2021 3 (BenL)</t>
+  </si>
+  <si>
+    <t>John sends</t>
+  </si>
+  <si>
+    <t>Clellin Ferrell</t>
+  </si>
+  <si>
+    <t>Cam sends</t>
   </si>
 </sst>
 </file>
@@ -2402,34 +2426,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2713,27 +2737,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="6.26953125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.26953125" customWidth="1"/>
+    <col min="3" max="3" width="18.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="7" max="7" width="20.1796875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="18.54296875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
       <c r="F1" t="s">
         <v>42</v>
       </c>
@@ -2754,37 +2779,37 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="24" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="24" t="s">
         <v>1</v>
       </c>
       <c r="G2" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="24" t="s">
         <v>1</v>
       </c>
       <c r="K2" t="s">
         <v>77</v>
       </c>
-      <c r="N2" s="22" t="s">
+      <c r="N2" s="24" t="s">
         <v>1</v>
       </c>
       <c r="O2" t="s">
         <v>112</v>
       </c>
-      <c r="R2" s="22" t="s">
+      <c r="R2" s="24" t="s">
         <v>1</v>
       </c>
       <c r="S2" t="s">
         <v>144</v>
       </c>
-      <c r="V2" s="22" t="s">
+      <c r="V2" s="24" t="s">
         <v>1</v>
       </c>
       <c r="W2" t="s">
@@ -2795,632 +2820,635 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="22"/>
+      <c r="B3" s="24"/>
       <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="22"/>
+      <c r="F3" s="24"/>
       <c r="G3" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="22"/>
+      <c r="J3" s="24"/>
       <c r="K3" t="s">
-        <v>179</v>
-      </c>
-      <c r="N3" s="22"/>
+        <v>214</v>
+      </c>
+      <c r="N3" s="24"/>
       <c r="O3" t="s">
         <v>104</v>
       </c>
-      <c r="R3" s="22"/>
+      <c r="R3" s="24"/>
       <c r="S3" t="s">
         <v>145</v>
       </c>
-      <c r="V3" s="22"/>
+      <c r="V3" s="24"/>
+      <c r="W3" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="22"/>
+      <c r="B4" s="24"/>
       <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="22"/>
+      <c r="F4" s="24"/>
       <c r="G4" t="s">
         <v>46</v>
       </c>
-      <c r="J4" s="23" t="s">
+      <c r="J4" s="21" t="s">
         <v>5</v>
       </c>
       <c r="K4" t="s">
         <v>248</v>
       </c>
-      <c r="N4" s="23" t="s">
+      <c r="N4" s="21" t="s">
         <v>5</v>
       </c>
       <c r="O4" t="s">
         <v>113</v>
       </c>
-      <c r="R4" s="23" t="s">
+      <c r="R4" s="21" t="s">
         <v>5</v>
       </c>
       <c r="S4" t="s">
         <v>146</v>
       </c>
-      <c r="V4" s="22"/>
+      <c r="V4" s="24"/>
       <c r="W4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="21" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="22"/>
+      <c r="F5" s="24"/>
       <c r="G5" t="s">
         <v>47</v>
       </c>
-      <c r="J5" s="23"/>
+      <c r="J5" s="21"/>
       <c r="K5" t="s">
         <v>81</v>
       </c>
-      <c r="N5" s="23"/>
+      <c r="N5" s="21"/>
       <c r="O5" t="s">
         <v>114</v>
       </c>
-      <c r="R5" s="23"/>
+      <c r="R5" s="21"/>
       <c r="S5" t="s">
         <v>147</v>
       </c>
-      <c r="V5" s="22"/>
+      <c r="V5" s="21" t="s">
+        <v>5</v>
+      </c>
       <c r="W5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="23"/>
+      <c r="B6" s="21"/>
       <c r="C6" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="21" t="s">
         <v>5</v>
       </c>
       <c r="G6" t="s">
         <v>215</v>
       </c>
-      <c r="J6" s="23"/>
+      <c r="J6" s="21"/>
       <c r="K6" t="s">
         <v>82</v>
       </c>
-      <c r="N6" s="23"/>
+      <c r="N6" s="21"/>
       <c r="O6" t="s">
         <v>115</v>
       </c>
-      <c r="R6" s="23"/>
+      <c r="R6" s="21"/>
       <c r="S6" t="s">
         <v>148</v>
       </c>
-      <c r="V6" s="23" t="s">
-        <v>5</v>
-      </c>
+      <c r="V6" s="21"/>
       <c r="W6" t="s">
-        <v>182</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="23"/>
+      <c r="B7" s="21"/>
       <c r="C7" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="23"/>
+      <c r="F7" s="21"/>
       <c r="G7" t="s">
         <v>52</v>
       </c>
-      <c r="J7" s="23"/>
+      <c r="J7" s="21"/>
       <c r="K7" t="s">
         <v>352</v>
       </c>
-      <c r="N7" s="23"/>
+      <c r="N7" s="21"/>
       <c r="O7" t="s">
         <v>116</v>
       </c>
-      <c r="R7" s="23"/>
+      <c r="R7" s="21"/>
       <c r="S7" t="s">
         <v>149</v>
       </c>
-      <c r="V7" s="23"/>
+      <c r="V7" s="21"/>
       <c r="W7" t="s">
-        <v>250</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="23"/>
+      <c r="B8" s="21"/>
       <c r="C8" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="23"/>
+      <c r="F8" s="21"/>
       <c r="G8" t="s">
         <v>50</v>
       </c>
-      <c r="J8" s="23"/>
+      <c r="J8" s="21"/>
       <c r="K8" t="s">
         <v>85</v>
       </c>
-      <c r="N8" s="23"/>
+      <c r="N8" s="21"/>
       <c r="O8" t="s">
         <v>117</v>
       </c>
-      <c r="R8" s="23"/>
+      <c r="R8" s="21"/>
       <c r="S8" t="s">
         <v>150</v>
       </c>
-      <c r="V8" s="23"/>
+      <c r="V8" s="21"/>
       <c r="W8" t="s">
-        <v>184</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="23"/>
+      <c r="B9" s="21"/>
       <c r="C9" t="s">
         <v>80</v>
       </c>
-      <c r="F9" s="23"/>
+      <c r="F9" s="21"/>
       <c r="G9" t="s">
         <v>49</v>
       </c>
-      <c r="J9" s="24" t="s">
+      <c r="J9" s="22" t="s">
         <v>12</v>
       </c>
       <c r="K9" t="s">
         <v>15</v>
       </c>
-      <c r="N9" s="23"/>
+      <c r="N9" s="21"/>
       <c r="O9" t="s">
         <v>118</v>
       </c>
-      <c r="R9" s="23"/>
+      <c r="R9" s="21"/>
       <c r="S9" t="s">
         <v>151</v>
       </c>
-      <c r="V9" s="23"/>
+      <c r="V9" s="21"/>
       <c r="W9" t="s">
-        <v>252</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="23"/>
+      <c r="B10" s="21"/>
       <c r="C10" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="22" t="s">
         <v>12</v>
       </c>
       <c r="G10" t="s">
         <v>54</v>
       </c>
-      <c r="J10" s="24"/>
+      <c r="J10" s="22"/>
       <c r="K10" t="s">
         <v>188</v>
       </c>
-      <c r="N10" s="23"/>
+      <c r="N10" s="21"/>
       <c r="O10" t="s">
         <v>119</v>
       </c>
-      <c r="R10" s="24" t="s">
+      <c r="R10" s="22" t="s">
         <v>12</v>
       </c>
       <c r="S10" t="s">
         <v>152</v>
       </c>
-      <c r="V10" s="23"/>
+      <c r="V10" s="21"/>
       <c r="W10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="22" t="s">
         <v>12</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="24"/>
+      <c r="F11" s="22"/>
       <c r="G11" t="s">
         <v>56</v>
       </c>
-      <c r="J11" s="24"/>
+      <c r="J11" s="22"/>
       <c r="K11" t="s">
         <v>17</v>
       </c>
-      <c r="N11" s="24" t="s">
+      <c r="N11" s="22" t="s">
         <v>12</v>
       </c>
       <c r="O11" t="s">
         <v>120</v>
       </c>
-      <c r="R11" s="24"/>
+      <c r="R11" s="22"/>
       <c r="S11" t="s">
         <v>153</v>
       </c>
-      <c r="V11" s="23"/>
+      <c r="V11" s="21"/>
       <c r="W11" t="s">
-        <v>187</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="24"/>
+      <c r="B12" s="22"/>
       <c r="C12" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="24"/>
+      <c r="F12" s="22"/>
       <c r="G12" t="s">
         <v>58</v>
       </c>
-      <c r="J12" s="24"/>
+      <c r="J12" s="22"/>
       <c r="K12" t="s">
         <v>88</v>
       </c>
-      <c r="N12" s="24"/>
+      <c r="N12" s="22"/>
       <c r="O12" t="s">
         <v>121</v>
       </c>
-      <c r="R12" s="24"/>
+      <c r="R12" s="22"/>
       <c r="S12" t="s">
         <v>154</v>
       </c>
-      <c r="V12" s="23"/>
+      <c r="V12" s="21"/>
       <c r="W12" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="24"/>
+      <c r="B13" s="22"/>
       <c r="C13" t="s">
         <v>86</v>
       </c>
-      <c r="F13" s="24"/>
+      <c r="F13" s="22"/>
       <c r="G13" t="s">
         <v>59</v>
       </c>
-      <c r="J13" s="24"/>
+      <c r="J13" s="22"/>
       <c r="K13" t="s">
         <v>16</v>
       </c>
-      <c r="N13" s="24"/>
+      <c r="N13" s="22"/>
       <c r="O13" t="s">
         <v>122</v>
       </c>
-      <c r="R13" s="24"/>
+      <c r="R13" s="22"/>
       <c r="S13" t="s">
         <v>155</v>
       </c>
-      <c r="V13" s="23"/>
+      <c r="V13" s="22" t="s">
+        <v>12</v>
+      </c>
       <c r="W13" t="s">
-        <v>10</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="24"/>
+      <c r="B14" s="22"/>
       <c r="C14" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="24"/>
+      <c r="F14" s="22"/>
       <c r="G14" t="s">
         <v>226</v>
       </c>
-      <c r="J14" s="24"/>
+      <c r="J14" s="22"/>
       <c r="K14" t="s">
         <v>22</v>
       </c>
-      <c r="N14" s="24"/>
+      <c r="N14" s="22"/>
       <c r="O14" t="s">
         <v>123</v>
       </c>
-      <c r="R14" s="24"/>
+      <c r="R14" s="22"/>
       <c r="S14" t="s">
         <v>156</v>
       </c>
-      <c r="V14" s="24" t="s">
-        <v>12</v>
-      </c>
+      <c r="V14" s="22"/>
       <c r="W14" t="s">
-        <v>256</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="24"/>
+      <c r="B15" s="22"/>
       <c r="C15" t="s">
         <v>87</v>
       </c>
-      <c r="F15" s="24"/>
+      <c r="F15" s="22"/>
       <c r="G15" t="s">
         <v>225</v>
       </c>
-      <c r="J15" s="24"/>
+      <c r="J15" s="22"/>
       <c r="K15" t="s">
         <v>194</v>
       </c>
-      <c r="N15" s="24"/>
+      <c r="N15" s="22"/>
       <c r="O15" t="s">
         <v>124</v>
       </c>
-      <c r="R15" s="24"/>
+      <c r="R15" s="22"/>
       <c r="S15" t="s">
         <v>157</v>
       </c>
-      <c r="V15" s="24"/>
+      <c r="V15" s="22"/>
       <c r="W15" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="23" t="s">
         <v>18</v>
       </c>
       <c r="C16" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="F16" s="23" t="s">
         <v>18</v>
       </c>
       <c r="G16" t="s">
         <v>60</v>
       </c>
-      <c r="J16" s="24"/>
+      <c r="J16" s="22"/>
       <c r="K16" t="s">
         <v>23</v>
       </c>
-      <c r="N16" s="24"/>
+      <c r="N16" s="22"/>
       <c r="O16" t="s">
         <v>125</v>
       </c>
-      <c r="R16" s="24"/>
+      <c r="R16" s="22"/>
       <c r="S16" t="s">
         <v>158</v>
       </c>
-      <c r="V16" s="24"/>
+      <c r="V16" s="22"/>
       <c r="W16" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="20"/>
+      <c r="B17" s="23"/>
       <c r="C17" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="20"/>
+      <c r="F17" s="23"/>
       <c r="G17" t="s">
         <v>62</v>
       </c>
-      <c r="J17" s="20" t="s">
+      <c r="J17" s="23" t="s">
         <v>18</v>
       </c>
       <c r="K17" t="s">
         <v>95</v>
       </c>
-      <c r="N17" s="20" t="s">
+      <c r="N17" s="23" t="s">
         <v>18</v>
       </c>
       <c r="O17" t="s">
         <v>126</v>
       </c>
-      <c r="R17" s="24"/>
+      <c r="R17" s="22"/>
       <c r="S17" t="s">
         <v>159</v>
       </c>
-      <c r="V17" s="24"/>
+      <c r="V17" s="22"/>
       <c r="W17" t="s">
-        <v>191</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="20"/>
+      <c r="B18" s="23"/>
       <c r="C18" t="s">
         <v>96</v>
       </c>
-      <c r="F18" s="20"/>
+      <c r="F18" s="23"/>
       <c r="G18" t="s">
         <v>63</v>
       </c>
-      <c r="J18" s="20"/>
+      <c r="J18" s="23"/>
       <c r="K18" t="s">
-        <v>21</v>
-      </c>
-      <c r="N18" s="20"/>
+        <v>98</v>
+      </c>
+      <c r="N18" s="23"/>
       <c r="O18" t="s">
         <v>127</v>
       </c>
-      <c r="R18" s="24"/>
+      <c r="R18" s="22"/>
       <c r="S18" t="s">
         <v>160</v>
       </c>
-      <c r="V18" s="24"/>
+      <c r="V18" s="22"/>
       <c r="W18" t="s">
-        <v>91</v>
+        <v>261</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="25" t="s">
         <v>24</v>
       </c>
       <c r="C19" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="21" t="s">
+      <c r="F19" s="25" t="s">
         <v>24</v>
       </c>
       <c r="G19" t="s">
         <v>64</v>
       </c>
-      <c r="J19" s="20"/>
+      <c r="J19" s="23"/>
       <c r="K19" t="s">
-        <v>98</v>
-      </c>
-      <c r="N19" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="N19" s="25" t="s">
         <v>24</v>
       </c>
       <c r="O19" t="s">
         <v>128</v>
       </c>
-      <c r="R19" s="24"/>
+      <c r="R19" s="22"/>
       <c r="S19" t="s">
         <v>161</v>
       </c>
-      <c r="V19" s="24"/>
+      <c r="V19" s="22"/>
       <c r="W19" t="s">
-        <v>261</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="21"/>
+      <c r="B20" s="25"/>
       <c r="C20" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="21"/>
+      <c r="F20" s="25"/>
       <c r="G20" t="s">
         <v>65</v>
       </c>
-      <c r="J20" s="21" t="s">
+      <c r="J20" s="25" t="s">
         <v>24</v>
       </c>
       <c r="K20" t="s">
         <v>99</v>
       </c>
-      <c r="N20" s="21"/>
+      <c r="N20" s="25"/>
       <c r="O20" t="s">
         <v>129</v>
       </c>
-      <c r="R20" s="20" t="s">
+      <c r="R20" s="23" t="s">
         <v>18</v>
       </c>
       <c r="S20" t="s">
         <v>162</v>
       </c>
-      <c r="V20" s="24"/>
+      <c r="V20" s="22"/>
       <c r="W20" t="s">
-        <v>94</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="21"/>
+      <c r="B21" s="25"/>
       <c r="C21" t="s">
-        <v>27</v>
-      </c>
-      <c r="F21" s="21"/>
+        <v>100</v>
+      </c>
+      <c r="F21" s="25"/>
       <c r="G21" t="s">
         <v>66</v>
       </c>
-      <c r="J21" s="21"/>
+      <c r="J21" s="25"/>
       <c r="K21" t="s">
         <v>28</v>
       </c>
-      <c r="N21" s="21"/>
+      <c r="N21" s="25"/>
       <c r="O21" t="s">
         <v>130</v>
       </c>
-      <c r="R21" s="20"/>
+      <c r="R21" s="23"/>
       <c r="S21" t="s">
         <v>163</v>
       </c>
-      <c r="V21" s="24"/>
+      <c r="V21" s="22"/>
       <c r="W21" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="21"/>
+      <c r="B22" s="26" t="s">
+        <v>30</v>
+      </c>
       <c r="C22" t="s">
-        <v>100</v>
-      </c>
-      <c r="F22" s="21"/>
+        <v>31</v>
+      </c>
+      <c r="F22" s="25"/>
       <c r="G22" t="s">
         <v>67</v>
       </c>
-      <c r="J22" s="21"/>
+      <c r="J22" s="25"/>
       <c r="K22" t="s">
         <v>29</v>
       </c>
-      <c r="N22" s="21"/>
+      <c r="N22" s="25"/>
       <c r="O22" t="s">
         <v>131</v>
       </c>
-      <c r="R22" s="21" t="s">
+      <c r="R22" s="25" t="s">
         <v>24</v>
       </c>
       <c r="S22" t="s">
         <v>164</v>
       </c>
-      <c r="V22" s="24"/>
+      <c r="V22" s="22"/>
       <c r="W22" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="26" t="s">
-        <v>30</v>
-      </c>
+      <c r="B23" s="26"/>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F23" s="26" t="s">
         <v>30</v>
@@ -3428,23 +3456,23 @@
       <c r="G23" t="s">
         <v>69</v>
       </c>
-      <c r="J23" s="26" t="s">
-        <v>30</v>
-      </c>
+      <c r="J23" s="25"/>
       <c r="K23" t="s">
-        <v>103</v>
-      </c>
-      <c r="N23" s="21"/>
+        <v>27</v>
+      </c>
+      <c r="N23" s="25"/>
       <c r="O23" t="s">
         <v>132</v>
       </c>
-      <c r="R23" s="21"/>
+      <c r="R23" s="25"/>
       <c r="S23" t="s">
         <v>165</v>
       </c>
-      <c r="V23" s="24"/>
+      <c r="V23" s="23" t="s">
+        <v>18</v>
+      </c>
       <c r="W23" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.35">
@@ -3453,15 +3481,17 @@
       </c>
       <c r="B24" s="26"/>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F24" s="26"/>
       <c r="G24" t="s">
         <v>70</v>
       </c>
-      <c r="J24" s="26"/>
+      <c r="J24" s="26" t="s">
+        <v>30</v>
+      </c>
       <c r="K24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N24" s="26" t="s">
         <v>30</v>
@@ -3469,24 +3499,24 @@
       <c r="O24" t="s">
         <v>133</v>
       </c>
-      <c r="R24" s="21"/>
+      <c r="R24" s="25"/>
       <c r="S24" t="s">
         <v>166</v>
       </c>
-      <c r="V24" s="20" t="s">
-        <v>18</v>
-      </c>
+      <c r="V24" s="23"/>
       <c r="W24" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="26"/>
+      <c r="B25" s="27" t="s">
+        <v>36</v>
+      </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F25" s="26"/>
       <c r="G25" t="s">
@@ -3494,38 +3524,36 @@
       </c>
       <c r="J25" s="26"/>
       <c r="K25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N25" s="26"/>
       <c r="O25" t="s">
         <v>134</v>
       </c>
-      <c r="R25" s="21"/>
+      <c r="R25" s="25"/>
       <c r="S25" t="s">
         <v>167</v>
       </c>
-      <c r="V25" s="20"/>
+      <c r="V25" s="23"/>
       <c r="W25" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="26"/>
+      <c r="B26" s="27"/>
       <c r="C26" t="s">
-        <v>106</v>
+        <v>38</v>
       </c>
       <c r="F26" s="26"/>
       <c r="G26" t="s">
         <v>68</v>
       </c>
-      <c r="J26" s="25" t="s">
-        <v>36</v>
-      </c>
+      <c r="J26" s="26"/>
       <c r="K26" t="s">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="N26" s="26"/>
       <c r="O26" t="s">
@@ -3537,30 +3565,30 @@
       <c r="S26" t="s">
         <v>168</v>
       </c>
-      <c r="V26" s="20"/>
+      <c r="V26" s="25" t="s">
+        <v>24</v>
+      </c>
       <c r="W26" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="25" t="s">
-        <v>36</v>
-      </c>
+      <c r="B27" s="27"/>
       <c r="C27" t="s">
-        <v>37</v>
-      </c>
-      <c r="F27" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27" s="27" t="s">
         <v>36</v>
       </c>
       <c r="G27" t="s">
         <v>72</v>
       </c>
-      <c r="J27" s="25"/>
+      <c r="J27" s="26"/>
       <c r="K27" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="N27" s="26"/>
       <c r="O27" t="s">
@@ -3570,28 +3598,28 @@
       <c r="S27" t="s">
         <v>169</v>
       </c>
-      <c r="V27" s="21" t="s">
-        <v>24</v>
-      </c>
+      <c r="V27" s="25"/>
       <c r="W27" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="25"/>
+      <c r="B28" s="27"/>
       <c r="C28" t="s">
-        <v>38</v>
-      </c>
-      <c r="F28" s="25"/>
+        <v>107</v>
+      </c>
+      <c r="F28" s="27"/>
       <c r="G28" t="s">
         <v>73</v>
       </c>
-      <c r="J28" s="25"/>
+      <c r="J28" s="27" t="s">
+        <v>36</v>
+      </c>
       <c r="K28" t="s">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="N28" s="26"/>
       <c r="O28" t="s">
@@ -3601,26 +3629,22 @@
       <c r="S28" t="s">
         <v>170</v>
       </c>
-      <c r="V28" s="21"/>
+      <c r="V28" s="25"/>
       <c r="W28" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="25"/>
-      <c r="C29" t="s">
-        <v>39</v>
-      </c>
-      <c r="F29" s="25"/>
+      <c r="F29" s="27"/>
       <c r="G29" t="s">
         <v>74</v>
       </c>
-      <c r="J29" s="25"/>
+      <c r="J29" s="27"/>
       <c r="K29" t="s">
-        <v>41</v>
+        <v>108</v>
       </c>
       <c r="N29" s="26"/>
       <c r="O29" t="s">
@@ -3630,24 +3654,24 @@
       <c r="S29" t="s">
         <v>171</v>
       </c>
-      <c r="V29" s="21"/>
+      <c r="V29" s="25"/>
       <c r="W29" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="25"/>
-      <c r="C30" t="s">
-        <v>107</v>
-      </c>
-      <c r="F30" s="25"/>
+      <c r="F30" s="27"/>
       <c r="G30" t="s">
         <v>75</v>
       </c>
-      <c r="N30" s="25" t="s">
+      <c r="J30" s="27"/>
+      <c r="K30" t="s">
+        <v>110</v>
+      </c>
+      <c r="N30" s="27" t="s">
         <v>36</v>
       </c>
       <c r="O30" t="s">
@@ -3657,103 +3681,101 @@
       <c r="S30" t="s">
         <v>172</v>
       </c>
-      <c r="V30" s="21"/>
+      <c r="V30" s="26" t="s">
+        <v>30</v>
+      </c>
       <c r="W30" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="F31" s="25"/>
+      <c r="F31" s="27"/>
       <c r="G31" t="s">
         <v>275</v>
       </c>
-      <c r="N31" s="25"/>
+      <c r="J31" s="27"/>
+      <c r="K31" t="s">
+        <v>41</v>
+      </c>
+      <c r="N31" s="27"/>
       <c r="O31" t="s">
         <v>140</v>
       </c>
-      <c r="R31" s="25" t="s">
+      <c r="R31" s="27" t="s">
         <v>36</v>
       </c>
       <c r="S31" t="s">
         <v>173</v>
       </c>
-      <c r="V31" s="26" t="s">
-        <v>30</v>
-      </c>
+      <c r="V31" s="26"/>
       <c r="W31" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="N32" s="25"/>
+      <c r="N32" s="27"/>
       <c r="O32" t="s">
         <v>141</v>
       </c>
-      <c r="R32" s="25"/>
+      <c r="R32" s="27"/>
       <c r="S32" t="s">
         <v>174</v>
       </c>
       <c r="V32" s="26"/>
       <c r="W32" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="N33" s="25"/>
+      <c r="N33" s="27"/>
       <c r="O33" t="s">
         <v>142</v>
       </c>
-      <c r="R33" s="25"/>
+      <c r="R33" s="27"/>
       <c r="S33" t="s">
         <v>175</v>
       </c>
       <c r="V33" s="26"/>
       <c r="W33" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="R34" s="25"/>
+      <c r="R34" s="27"/>
       <c r="S34" t="s">
         <v>176</v>
       </c>
       <c r="V34" s="26"/>
       <c r="W34" t="s">
-        <v>207</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="V35" s="26"/>
+      <c r="V35" s="27" t="s">
+        <v>36</v>
+      </c>
       <c r="W35" t="s">
-        <v>35</v>
+        <v>208</v>
       </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="V36" s="25" t="s">
-        <v>36</v>
-      </c>
+      <c r="V36" s="27"/>
       <c r="W36" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="V37" s="25"/>
+      <c r="V37" s="27"/>
       <c r="W37" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="V38" s="25"/>
+      <c r="V38" s="27"/>
       <c r="W38" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="V39" s="25"/>
-      <c r="W39" t="s">
         <v>211</v>
       </c>
     </row>
@@ -3784,37 +3806,37 @@
       <c r="A44" s="1">
         <v>1</v>
       </c>
-      <c r="B44" s="22" t="s">
+      <c r="B44" s="24" t="s">
         <v>1</v>
       </c>
       <c r="C44" t="s">
         <v>44</v>
       </c>
-      <c r="F44" s="22" t="s">
+      <c r="F44" s="24" t="s">
         <v>1</v>
       </c>
       <c r="G44" t="s">
         <v>246</v>
       </c>
-      <c r="J44" s="22" t="s">
+      <c r="J44" s="24" t="s">
         <v>1</v>
       </c>
       <c r="K44" t="s">
         <v>280</v>
       </c>
-      <c r="N44" s="22" t="s">
+      <c r="N44" s="24" t="s">
         <v>1</v>
       </c>
       <c r="O44" t="s">
         <v>317</v>
       </c>
-      <c r="R44" s="22" t="s">
+      <c r="R44" s="24" t="s">
         <v>1</v>
       </c>
       <c r="S44" t="s">
         <v>348</v>
       </c>
-      <c r="V44" s="22" t="s">
+      <c r="V44" s="24" t="s">
         <v>1</v>
       </c>
       <c r="W44" t="s">
@@ -3825,27 +3847,27 @@
       <c r="A45" s="1">
         <v>2</v>
       </c>
-      <c r="B45" s="22"/>
+      <c r="B45" s="24"/>
       <c r="C45" t="s">
-        <v>214</v>
-      </c>
-      <c r="F45" s="22"/>
+        <v>179</v>
+      </c>
+      <c r="F45" s="24"/>
       <c r="G45" t="s">
         <v>247</v>
       </c>
-      <c r="J45" s="22"/>
+      <c r="J45" s="24"/>
       <c r="K45" t="s">
         <v>281</v>
       </c>
-      <c r="N45" s="22"/>
+      <c r="N45" s="24"/>
       <c r="O45" t="s">
         <v>318</v>
       </c>
-      <c r="R45" s="22"/>
+      <c r="R45" s="24"/>
       <c r="S45" t="s">
         <v>349</v>
       </c>
-      <c r="V45" s="22"/>
+      <c r="V45" s="24"/>
       <c r="W45" t="s">
         <v>379</v>
       </c>
@@ -3854,27 +3876,27 @@
       <c r="A46" s="1">
         <v>3</v>
       </c>
-      <c r="B46" s="22"/>
+      <c r="B46" s="24"/>
       <c r="C46" t="s">
         <v>213</v>
       </c>
-      <c r="F46" s="22"/>
+      <c r="F46" s="24"/>
       <c r="G46" t="s">
         <v>79</v>
       </c>
-      <c r="J46" s="22"/>
+      <c r="J46" s="24"/>
       <c r="K46" t="s">
         <v>282</v>
       </c>
-      <c r="N46" s="22"/>
+      <c r="N46" s="24"/>
       <c r="O46" t="s">
         <v>319</v>
       </c>
-      <c r="R46" s="22"/>
+      <c r="R46" s="24"/>
       <c r="S46" t="s">
         <v>78</v>
       </c>
-      <c r="V46" s="22"/>
+      <c r="V46" s="24"/>
       <c r="W46" t="s">
         <v>380</v>
       </c>
@@ -3883,35 +3905,35 @@
       <c r="A47" s="1">
         <v>4</v>
       </c>
-      <c r="B47" s="23" t="s">
+      <c r="B47" s="21" t="s">
         <v>5</v>
       </c>
       <c r="C47" t="s">
         <v>216</v>
       </c>
-      <c r="F47" s="23" t="s">
+      <c r="F47" s="21" t="s">
         <v>5</v>
       </c>
       <c r="G47" t="s">
         <v>183</v>
       </c>
-      <c r="J47" s="23" t="s">
+      <c r="J47" s="21" t="s">
         <v>5</v>
       </c>
       <c r="K47" t="s">
         <v>283</v>
       </c>
-      <c r="N47" s="23" t="s">
+      <c r="N47" s="21" t="s">
         <v>5</v>
       </c>
       <c r="O47" t="s">
         <v>320</v>
       </c>
-      <c r="R47" s="22"/>
+      <c r="R47" s="24"/>
       <c r="S47" t="s">
         <v>350</v>
       </c>
-      <c r="V47" s="23" t="s">
+      <c r="V47" s="21" t="s">
         <v>5</v>
       </c>
       <c r="W47" t="s">
@@ -3922,29 +3944,29 @@
       <c r="A48" s="1">
         <v>5</v>
       </c>
-      <c r="B48" s="23"/>
+      <c r="B48" s="21"/>
       <c r="C48" t="s">
         <v>217</v>
       </c>
-      <c r="F48" s="23"/>
+      <c r="F48" s="21"/>
       <c r="G48" t="s">
         <v>84</v>
       </c>
-      <c r="J48" s="23"/>
+      <c r="J48" s="21"/>
       <c r="K48" t="s">
         <v>284</v>
       </c>
-      <c r="N48" s="23"/>
+      <c r="N48" s="21"/>
       <c r="O48" t="s">
         <v>251</v>
       </c>
-      <c r="R48" s="23" t="s">
+      <c r="R48" s="21" t="s">
         <v>5</v>
       </c>
       <c r="S48" t="s">
         <v>351</v>
       </c>
-      <c r="V48" s="23"/>
+      <c r="V48" s="21"/>
       <c r="W48" t="s">
         <v>382</v>
       </c>
@@ -3953,28 +3975,28 @@
       <c r="A49" s="1">
         <v>6</v>
       </c>
-      <c r="B49" s="23"/>
+      <c r="B49" s="21"/>
       <c r="C49" t="s">
         <v>221</v>
       </c>
-      <c r="D49" s="29"/>
-      <c r="F49" s="23"/>
+      <c r="D49" s="20"/>
+      <c r="F49" s="21"/>
       <c r="G49" t="s">
         <v>51</v>
       </c>
-      <c r="J49" s="23"/>
+      <c r="J49" s="21"/>
       <c r="K49" t="s">
         <v>285</v>
       </c>
-      <c r="N49" s="23"/>
+      <c r="N49" s="21"/>
       <c r="O49" t="s">
         <v>322</v>
       </c>
-      <c r="R49" s="23"/>
+      <c r="R49" s="21"/>
       <c r="S49" t="s">
         <v>48</v>
       </c>
-      <c r="V49" s="23"/>
+      <c r="V49" s="21"/>
       <c r="W49" t="s">
         <v>383</v>
       </c>
@@ -3983,31 +4005,31 @@
       <c r="A50" s="1">
         <v>7</v>
       </c>
-      <c r="B50" s="23"/>
+      <c r="B50" s="21"/>
       <c r="C50" t="s">
         <v>222</v>
       </c>
-      <c r="F50" s="23"/>
+      <c r="F50" s="21"/>
       <c r="G50" t="s">
         <v>321</v>
       </c>
-      <c r="J50" s="24" t="s">
+      <c r="J50" s="22" t="s">
         <v>12</v>
       </c>
       <c r="K50" t="s">
         <v>286</v>
       </c>
-      <c r="N50" s="24" t="s">
+      <c r="N50" s="22" t="s">
         <v>12</v>
       </c>
       <c r="O50" t="s">
         <v>323</v>
       </c>
-      <c r="R50" s="23"/>
+      <c r="R50" s="21"/>
       <c r="S50" t="s">
         <v>353</v>
       </c>
-      <c r="V50" s="23"/>
+      <c r="V50" s="21"/>
       <c r="W50" t="s">
         <v>384</v>
       </c>
@@ -4016,27 +4038,27 @@
       <c r="A51" s="1">
         <v>8</v>
       </c>
-      <c r="B51" s="23"/>
+      <c r="B51" s="21"/>
       <c r="C51" t="s">
         <v>253</v>
       </c>
-      <c r="F51" s="23"/>
+      <c r="F51" s="21"/>
       <c r="G51" t="s">
         <v>254</v>
       </c>
-      <c r="J51" s="24"/>
+      <c r="J51" s="22"/>
       <c r="K51" t="s">
         <v>287</v>
       </c>
-      <c r="N51" s="24"/>
+      <c r="N51" s="22"/>
       <c r="O51" t="s">
         <v>324</v>
       </c>
-      <c r="R51" s="23"/>
+      <c r="R51" s="21"/>
       <c r="S51" t="s">
         <v>354</v>
       </c>
-      <c r="V51" s="23"/>
+      <c r="V51" s="21"/>
       <c r="W51" t="s">
         <v>385</v>
       </c>
@@ -4045,27 +4067,27 @@
       <c r="A52" s="1">
         <v>9</v>
       </c>
-      <c r="B52" s="23"/>
+      <c r="B52" s="21"/>
       <c r="C52" t="s">
         <v>83</v>
       </c>
-      <c r="F52" s="23"/>
+      <c r="F52" s="21"/>
       <c r="G52" t="s">
         <v>249</v>
       </c>
-      <c r="J52" s="24"/>
+      <c r="J52" s="22"/>
       <c r="K52" t="s">
         <v>288</v>
       </c>
-      <c r="N52" s="24"/>
+      <c r="N52" s="22"/>
       <c r="O52" t="s">
         <v>325</v>
       </c>
-      <c r="R52" s="23"/>
+      <c r="R52" s="21"/>
       <c r="S52" t="s">
         <v>355</v>
       </c>
-      <c r="V52" s="24" t="s">
+      <c r="V52" s="22" t="s">
         <v>12</v>
       </c>
       <c r="W52" t="s">
@@ -4076,31 +4098,31 @@
       <c r="A53" s="1">
         <v>10</v>
       </c>
-      <c r="B53" s="24" t="s">
+      <c r="B53" s="22" t="s">
         <v>12</v>
       </c>
       <c r="C53" t="s">
         <v>57</v>
       </c>
-      <c r="F53" s="23"/>
+      <c r="F53" s="21"/>
       <c r="G53" t="s">
         <v>255</v>
       </c>
-      <c r="J53" s="24"/>
+      <c r="J53" s="22"/>
       <c r="K53" t="s">
         <v>289</v>
       </c>
-      <c r="N53" s="24"/>
+      <c r="N53" s="22"/>
       <c r="O53" t="s">
         <v>326</v>
       </c>
-      <c r="R53" s="24" t="s">
+      <c r="R53" s="22" t="s">
         <v>12</v>
       </c>
       <c r="S53" t="s">
         <v>356</v>
       </c>
-      <c r="V53" s="24"/>
+      <c r="V53" s="22"/>
       <c r="W53" t="s">
         <v>387</v>
       </c>
@@ -4109,27 +4131,27 @@
       <c r="A54" s="1">
         <v>11</v>
       </c>
-      <c r="B54" s="24"/>
+      <c r="B54" s="22"/>
       <c r="C54" t="s">
         <v>93</v>
       </c>
-      <c r="F54" s="23"/>
+      <c r="F54" s="21"/>
       <c r="G54" t="s">
         <v>185</v>
       </c>
-      <c r="J54" s="24"/>
+      <c r="J54" s="22"/>
       <c r="K54" t="s">
         <v>290</v>
       </c>
-      <c r="N54" s="24"/>
+      <c r="N54" s="22"/>
       <c r="O54" t="s">
         <v>327</v>
       </c>
-      <c r="R54" s="24"/>
+      <c r="R54" s="22"/>
       <c r="S54" t="s">
         <v>357</v>
       </c>
-      <c r="V54" s="24"/>
+      <c r="V54" s="22"/>
       <c r="W54" t="s">
         <v>388</v>
       </c>
@@ -4138,29 +4160,29 @@
       <c r="A55" s="1">
         <v>12</v>
       </c>
-      <c r="B55" s="24"/>
+      <c r="B55" s="22"/>
       <c r="C55" t="s">
         <v>218</v>
       </c>
-      <c r="F55" s="24" t="s">
+      <c r="F55" s="22" t="s">
         <v>12</v>
       </c>
       <c r="G55" t="s">
         <v>219</v>
       </c>
-      <c r="J55" s="24"/>
+      <c r="J55" s="22"/>
       <c r="K55" t="s">
         <v>291</v>
       </c>
-      <c r="N55" s="24"/>
+      <c r="N55" s="22"/>
       <c r="O55" t="s">
         <v>328</v>
       </c>
-      <c r="R55" s="24"/>
+      <c r="R55" s="22"/>
       <c r="S55" t="s">
         <v>358</v>
       </c>
-      <c r="V55" s="24"/>
+      <c r="V55" s="22"/>
       <c r="W55" t="s">
         <v>389</v>
       </c>
@@ -4169,27 +4191,27 @@
       <c r="A56" s="1">
         <v>13</v>
       </c>
-      <c r="B56" s="24"/>
+      <c r="B56" s="22"/>
       <c r="C56" t="s">
         <v>220</v>
       </c>
-      <c r="F56" s="24"/>
+      <c r="F56" s="22"/>
       <c r="G56" t="s">
         <v>228</v>
       </c>
-      <c r="J56" s="24"/>
+      <c r="J56" s="22"/>
       <c r="K56" t="s">
         <v>292</v>
       </c>
-      <c r="N56" s="24"/>
+      <c r="N56" s="22"/>
       <c r="O56" t="s">
         <v>329</v>
       </c>
-      <c r="R56" s="24"/>
+      <c r="R56" s="22"/>
       <c r="S56" t="s">
         <v>359</v>
       </c>
-      <c r="V56" s="24"/>
+      <c r="V56" s="22"/>
       <c r="W56" t="s">
         <v>390</v>
       </c>
@@ -4198,27 +4220,27 @@
       <c r="A57" s="1">
         <v>14</v>
       </c>
-      <c r="B57" s="24"/>
+      <c r="B57" s="22"/>
       <c r="C57" t="s">
         <v>223</v>
       </c>
-      <c r="F57" s="24"/>
+      <c r="F57" s="22"/>
       <c r="G57" t="s">
         <v>258</v>
       </c>
-      <c r="J57" s="24"/>
+      <c r="J57" s="22"/>
       <c r="K57" t="s">
         <v>293</v>
       </c>
-      <c r="N57" s="24"/>
+      <c r="N57" s="22"/>
       <c r="O57" t="s">
         <v>257</v>
       </c>
-      <c r="R57" s="24"/>
+      <c r="R57" s="22"/>
       <c r="S57" t="s">
         <v>360</v>
       </c>
-      <c r="V57" s="24"/>
+      <c r="V57" s="22"/>
       <c r="W57" t="s">
         <v>391</v>
       </c>
@@ -4227,27 +4249,27 @@
       <c r="A58" s="1">
         <v>15</v>
       </c>
-      <c r="B58" s="24"/>
+      <c r="B58" s="22"/>
       <c r="C58" t="s">
         <v>224</v>
       </c>
-      <c r="F58" s="24"/>
+      <c r="F58" s="22"/>
       <c r="G58" t="s">
         <v>90</v>
       </c>
-      <c r="J58" s="24"/>
+      <c r="J58" s="22"/>
       <c r="K58" t="s">
         <v>294</v>
       </c>
-      <c r="N58" s="24"/>
+      <c r="N58" s="22"/>
       <c r="O58" t="s">
         <v>263</v>
       </c>
-      <c r="R58" s="24"/>
+      <c r="R58" s="22"/>
       <c r="S58" t="s">
         <v>361</v>
       </c>
-      <c r="V58" s="24"/>
+      <c r="V58" s="22"/>
       <c r="W58" t="s">
         <v>392</v>
       </c>
@@ -4256,27 +4278,27 @@
       <c r="A59" s="1">
         <v>16</v>
       </c>
-      <c r="B59" s="24"/>
+      <c r="B59" s="22"/>
       <c r="C59" t="s">
         <v>227</v>
       </c>
-      <c r="F59" s="24"/>
+      <c r="F59" s="22"/>
       <c r="G59" t="s">
         <v>262</v>
       </c>
-      <c r="J59" s="24"/>
+      <c r="J59" s="22"/>
       <c r="K59" t="s">
         <v>295</v>
       </c>
-      <c r="N59" s="24"/>
+      <c r="N59" s="22"/>
       <c r="O59" t="s">
         <v>330</v>
       </c>
-      <c r="R59" s="24"/>
+      <c r="R59" s="22"/>
       <c r="S59" t="s">
         <v>362</v>
       </c>
-      <c r="V59" s="24"/>
+      <c r="V59" s="22"/>
       <c r="W59" t="s">
         <v>393</v>
       </c>
@@ -4285,31 +4307,31 @@
       <c r="A60" s="1">
         <v>17</v>
       </c>
-      <c r="B60" s="24"/>
+      <c r="B60" s="22"/>
       <c r="C60" t="s">
         <v>229</v>
       </c>
-      <c r="F60" s="24"/>
+      <c r="F60" s="22"/>
       <c r="G60" t="s">
         <v>260</v>
       </c>
-      <c r="J60" s="20" t="s">
+      <c r="J60" s="23" t="s">
         <v>18</v>
       </c>
       <c r="K60" t="s">
         <v>296</v>
       </c>
-      <c r="N60" s="20" t="s">
+      <c r="N60" s="23" t="s">
         <v>18</v>
       </c>
       <c r="O60" t="s">
         <v>331</v>
       </c>
-      <c r="R60" s="24"/>
+      <c r="R60" s="22"/>
       <c r="S60" t="s">
         <v>192</v>
       </c>
-      <c r="V60" s="20" t="s">
+      <c r="V60" s="23" t="s">
         <v>18</v>
       </c>
       <c r="W60" t="s">
@@ -4320,19 +4342,19 @@
       <c r="A61" s="1">
         <v>18</v>
       </c>
-      <c r="B61" s="24"/>
+      <c r="B61" s="22"/>
       <c r="C61" t="s">
         <v>55</v>
       </c>
-      <c r="F61" s="24"/>
+      <c r="F61" s="22"/>
       <c r="G61" t="s">
         <v>92</v>
       </c>
-      <c r="J61" s="20"/>
+      <c r="J61" s="23"/>
       <c r="K61" t="s">
         <v>297</v>
       </c>
-      <c r="N61" s="20"/>
+      <c r="N61" s="23"/>
       <c r="O61" t="s">
         <v>332</v>
       </c>
@@ -4342,7 +4364,7 @@
       <c r="S61" t="s">
         <v>363</v>
       </c>
-      <c r="V61" s="20"/>
+      <c r="V61" s="23"/>
       <c r="W61" t="s">
         <v>395</v>
       </c>
@@ -4351,31 +4373,31 @@
       <c r="A62" s="1">
         <v>19</v>
       </c>
-      <c r="B62" s="20" t="s">
+      <c r="B62" s="23" t="s">
         <v>18</v>
       </c>
       <c r="C62" t="s">
         <v>233</v>
       </c>
-      <c r="F62" s="24"/>
+      <c r="F62" s="22"/>
       <c r="G62" t="s">
         <v>259</v>
       </c>
-      <c r="J62" s="20"/>
+      <c r="J62" s="23"/>
       <c r="K62" t="s">
         <v>298</v>
       </c>
-      <c r="N62" s="20"/>
+      <c r="N62" s="23"/>
       <c r="O62" t="s">
-        <v>333</v>
-      </c>
-      <c r="R62" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="R62" s="25" t="s">
         <v>24</v>
       </c>
       <c r="S62" t="s">
         <v>364</v>
       </c>
-      <c r="V62" s="20"/>
+      <c r="V62" s="23"/>
       <c r="W62" t="s">
         <v>396</v>
       </c>
@@ -4384,31 +4406,31 @@
       <c r="A63" s="1">
         <v>20</v>
       </c>
-      <c r="B63" s="20"/>
+      <c r="B63" s="23"/>
       <c r="C63" t="s">
         <v>230</v>
       </c>
-      <c r="F63" s="20" t="s">
+      <c r="F63" s="23" t="s">
         <v>18</v>
       </c>
       <c r="G63" t="s">
         <v>264</v>
       </c>
-      <c r="J63" s="21" t="s">
+      <c r="J63" s="25" t="s">
         <v>24</v>
       </c>
       <c r="K63" t="s">
         <v>299</v>
       </c>
-      <c r="N63" s="20"/>
+      <c r="N63" s="23"/>
       <c r="O63" t="s">
-        <v>334</v>
-      </c>
-      <c r="R63" s="21"/>
+        <v>335</v>
+      </c>
+      <c r="R63" s="25"/>
       <c r="S63" t="s">
         <v>365</v>
       </c>
-      <c r="V63" s="20"/>
+      <c r="V63" s="23"/>
       <c r="W63" t="s">
         <v>397</v>
       </c>
@@ -4417,27 +4439,29 @@
       <c r="A64" s="1">
         <v>21</v>
       </c>
-      <c r="B64" s="20"/>
+      <c r="B64" s="23"/>
       <c r="C64" t="s">
         <v>231</v>
       </c>
-      <c r="F64" s="20"/>
+      <c r="F64" s="23"/>
       <c r="G64" t="s">
         <v>265</v>
       </c>
-      <c r="J64" s="21"/>
+      <c r="J64" s="25"/>
       <c r="K64" t="s">
         <v>300</v>
       </c>
-      <c r="N64" s="20"/>
+      <c r="N64" s="25" t="s">
+        <v>24</v>
+      </c>
       <c r="O64" t="s">
-        <v>335</v>
-      </c>
-      <c r="R64" s="21"/>
+        <v>336</v>
+      </c>
+      <c r="R64" s="25"/>
       <c r="S64" t="s">
         <v>366</v>
       </c>
-      <c r="V64" s="21" t="s">
+      <c r="V64" s="25" t="s">
         <v>24</v>
       </c>
       <c r="W64" t="s">
@@ -4448,29 +4472,27 @@
       <c r="A65" s="1">
         <v>22</v>
       </c>
-      <c r="B65" s="20"/>
+      <c r="B65" s="23"/>
       <c r="C65" t="s">
         <v>232</v>
       </c>
-      <c r="F65" s="20"/>
+      <c r="F65" s="23"/>
       <c r="G65" t="s">
         <v>97</v>
       </c>
-      <c r="J65" s="21"/>
+      <c r="J65" s="25"/>
       <c r="K65" t="s">
         <v>301</v>
       </c>
-      <c r="N65" s="21" t="s">
-        <v>24</v>
-      </c>
+      <c r="N65" s="25"/>
       <c r="O65" t="s">
-        <v>336</v>
-      </c>
-      <c r="R65" s="21"/>
+        <v>337</v>
+      </c>
+      <c r="R65" s="25"/>
       <c r="S65" t="s">
         <v>367</v>
       </c>
-      <c r="V65" s="21"/>
+      <c r="V65" s="25"/>
       <c r="W65" t="s">
         <v>399</v>
       </c>
@@ -4479,27 +4501,27 @@
       <c r="A66" s="1">
         <v>23</v>
       </c>
-      <c r="B66" s="20"/>
+      <c r="B66" s="23"/>
       <c r="C66" t="s">
         <v>61</v>
       </c>
-      <c r="F66" s="20"/>
+      <c r="F66" s="23"/>
       <c r="G66" t="s">
         <v>266</v>
       </c>
-      <c r="J66" s="21"/>
+      <c r="J66" s="25"/>
       <c r="K66" t="s">
         <v>302</v>
       </c>
-      <c r="N66" s="21"/>
+      <c r="N66" s="25"/>
       <c r="O66" t="s">
-        <v>337</v>
-      </c>
-      <c r="R66" s="21"/>
+        <v>338</v>
+      </c>
+      <c r="R66" s="25"/>
       <c r="S66" t="s">
         <v>368</v>
       </c>
-      <c r="V66" s="21"/>
+      <c r="V66" s="25"/>
       <c r="W66" t="s">
         <v>400</v>
       </c>
@@ -4508,23 +4530,21 @@
       <c r="A67" s="1">
         <v>24</v>
       </c>
-      <c r="B67" s="20"/>
+      <c r="B67" s="23"/>
       <c r="C67" t="s">
         <v>267</v>
       </c>
-      <c r="F67" s="21" t="s">
-        <v>24</v>
-      </c>
+      <c r="F67" s="23"/>
       <c r="G67" t="s">
-        <v>268</v>
-      </c>
-      <c r="J67" s="21"/>
+        <v>21</v>
+      </c>
+      <c r="J67" s="25"/>
       <c r="K67" t="s">
         <v>303</v>
       </c>
-      <c r="N67" s="21"/>
+      <c r="N67" s="25"/>
       <c r="O67" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="R67" s="26" t="s">
         <v>30</v>
@@ -4532,7 +4552,7 @@
       <c r="S67" t="s">
         <v>369</v>
       </c>
-      <c r="V67" s="21"/>
+      <c r="V67" s="25"/>
       <c r="W67" t="s">
         <v>401</v>
       </c>
@@ -4541,23 +4561,27 @@
       <c r="A68" s="1">
         <v>25</v>
       </c>
-      <c r="B68" s="21" t="s">
+      <c r="B68" s="25" t="s">
         <v>24</v>
       </c>
       <c r="C68" t="s">
         <v>102</v>
       </c>
-      <c r="F68" s="21"/>
+      <c r="F68" s="25" t="s">
+        <v>24</v>
+      </c>
       <c r="G68" t="s">
-        <v>269</v>
-      </c>
-      <c r="J68" s="21"/>
+        <v>268</v>
+      </c>
+      <c r="J68" s="25"/>
       <c r="K68" t="s">
         <v>304</v>
       </c>
-      <c r="N68" s="21"/>
+      <c r="N68" s="26" t="s">
+        <v>30</v>
+      </c>
       <c r="O68" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="R68" s="26"/>
       <c r="S68" t="s">
@@ -4574,23 +4598,21 @@
       <c r="A69" s="1">
         <v>26</v>
       </c>
-      <c r="B69" s="21"/>
+      <c r="B69" s="25"/>
       <c r="C69" t="s">
         <v>234</v>
       </c>
-      <c r="F69" s="21"/>
+      <c r="F69" s="25"/>
       <c r="G69" t="s">
-        <v>270</v>
-      </c>
-      <c r="J69" s="21"/>
+        <v>269</v>
+      </c>
+      <c r="J69" s="25"/>
       <c r="K69" t="s">
         <v>305</v>
       </c>
-      <c r="N69" s="26" t="s">
-        <v>30</v>
-      </c>
+      <c r="N69" s="26"/>
       <c r="O69" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="R69" s="26"/>
       <c r="S69" t="s">
@@ -4605,13 +4627,13 @@
       <c r="A70" s="1">
         <v>27</v>
       </c>
-      <c r="B70" s="21"/>
+      <c r="B70" s="25"/>
       <c r="C70" t="s">
         <v>235</v>
       </c>
-      <c r="F70" s="21"/>
+      <c r="F70" s="25"/>
       <c r="G70" t="s">
-        <v>101</v>
+        <v>270</v>
       </c>
       <c r="J70" s="26" t="s">
         <v>30</v>
@@ -4621,7 +4643,7 @@
       </c>
       <c r="N70" s="26"/>
       <c r="O70" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="R70" s="26"/>
       <c r="S70" t="s">
@@ -4636,15 +4658,13 @@
       <c r="A71" s="1">
         <v>28</v>
       </c>
-      <c r="B71" s="21"/>
+      <c r="B71" s="25"/>
       <c r="C71" t="s">
         <v>236</v>
       </c>
-      <c r="F71" s="26" t="s">
-        <v>30</v>
-      </c>
+      <c r="F71" s="25"/>
       <c r="G71" t="s">
-        <v>271</v>
+        <v>101</v>
       </c>
       <c r="J71" s="26"/>
       <c r="K71" t="s">
@@ -4652,9 +4672,9 @@
       </c>
       <c r="N71" s="26"/>
       <c r="O71" t="s">
-        <v>341</v>
-      </c>
-      <c r="R71" s="25" t="s">
+        <v>343</v>
+      </c>
+      <c r="R71" s="27" t="s">
         <v>36</v>
       </c>
       <c r="S71" t="s">
@@ -4669,23 +4689,27 @@
       <c r="A72" s="1">
         <v>29</v>
       </c>
-      <c r="B72" s="21"/>
+      <c r="B72" s="25"/>
       <c r="C72" t="s">
         <v>237</v>
       </c>
-      <c r="F72" s="26"/>
+      <c r="F72" s="26" t="s">
+        <v>30</v>
+      </c>
       <c r="G72" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J72" s="26"/>
       <c r="K72" t="s">
         <v>308</v>
       </c>
-      <c r="N72" s="26"/>
+      <c r="N72" s="27" t="s">
+        <v>36</v>
+      </c>
       <c r="O72" t="s">
-        <v>343</v>
-      </c>
-      <c r="R72" s="25"/>
+        <v>344</v>
+      </c>
+      <c r="R72" s="27"/>
       <c r="S72" t="s">
         <v>374</v>
       </c>
@@ -4698,29 +4722,27 @@
       <c r="A73" s="1">
         <v>30</v>
       </c>
-      <c r="B73" s="21"/>
+      <c r="B73" s="25"/>
       <c r="C73" t="s">
         <v>238</v>
       </c>
       <c r="F73" s="26"/>
       <c r="G73" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J73" s="26"/>
       <c r="K73" t="s">
         <v>309</v>
       </c>
-      <c r="N73" s="25" t="s">
-        <v>36</v>
-      </c>
+      <c r="N73" s="27"/>
       <c r="O73" t="s">
-        <v>344</v>
-      </c>
-      <c r="R73" s="25"/>
+        <v>345</v>
+      </c>
+      <c r="R73" s="27"/>
       <c r="S73" t="s">
         <v>375</v>
       </c>
-      <c r="V73" s="25" t="s">
+      <c r="V73" s="27" t="s">
         <v>36</v>
       </c>
       <c r="W73" t="s">
@@ -4736,23 +4758,23 @@
       </c>
       <c r="F74" s="26"/>
       <c r="G74" t="s">
-        <v>274</v>
-      </c>
-      <c r="J74" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="J74" s="27" t="s">
         <v>36</v>
       </c>
       <c r="K74" t="s">
         <v>310</v>
       </c>
-      <c r="N74" s="25"/>
+      <c r="N74" s="27"/>
       <c r="O74" t="s">
-        <v>345</v>
-      </c>
-      <c r="R74" s="25"/>
+        <v>346</v>
+      </c>
+      <c r="R74" s="27"/>
       <c r="S74" t="s">
         <v>376</v>
       </c>
-      <c r="V74" s="25"/>
+      <c r="V74" s="27"/>
       <c r="W74" t="s">
         <v>408</v>
       </c>
@@ -4762,25 +4784,23 @@
       <c r="C75" t="s">
         <v>239</v>
       </c>
-      <c r="F75" s="25" t="s">
-        <v>36</v>
-      </c>
+      <c r="F75" s="26"/>
       <c r="G75" t="s">
-        <v>276</v>
-      </c>
-      <c r="J75" s="25"/>
+        <v>274</v>
+      </c>
+      <c r="J75" s="27"/>
       <c r="K75" t="s">
         <v>311</v>
       </c>
-      <c r="N75" s="25"/>
+      <c r="N75" s="27"/>
       <c r="O75" t="s">
-        <v>346</v>
-      </c>
-      <c r="R75" s="25"/>
+        <v>347</v>
+      </c>
+      <c r="R75" s="27"/>
       <c r="S75" t="s">
         <v>377</v>
       </c>
-      <c r="V75" s="25"/>
+      <c r="V75" s="27"/>
       <c r="W75" t="s">
         <v>409</v>
       </c>
@@ -4790,19 +4810,17 @@
       <c r="C76" t="s">
         <v>240</v>
       </c>
-      <c r="F76" s="25"/>
+      <c r="F76" s="27" t="s">
+        <v>36</v>
+      </c>
       <c r="G76" t="s">
-        <v>277</v>
-      </c>
-      <c r="J76" s="25"/>
+        <v>276</v>
+      </c>
+      <c r="J76" s="27"/>
       <c r="K76" t="s">
         <v>312</v>
       </c>
-      <c r="N76" s="25"/>
-      <c r="O76" t="s">
-        <v>347</v>
-      </c>
-      <c r="V76" s="25"/>
+      <c r="V76" s="27"/>
       <c r="W76" t="s">
         <v>410</v>
       </c>
@@ -4812,68 +4830,100 @@
       <c r="C77" t="s">
         <v>241</v>
       </c>
-      <c r="F77" s="25"/>
+      <c r="F77" s="27"/>
       <c r="G77" t="s">
-        <v>278</v>
-      </c>
-      <c r="J77" s="25"/>
+        <v>277</v>
+      </c>
+      <c r="J77" s="27"/>
       <c r="K77" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B78" s="25" t="s">
+      <c r="B78" s="27" t="s">
         <v>36</v>
       </c>
       <c r="C78" t="s">
         <v>109</v>
       </c>
-      <c r="F78" s="25"/>
+      <c r="F78" s="27"/>
       <c r="G78" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B79" s="25"/>
+      <c r="B79" s="27"/>
       <c r="C79" t="s">
         <v>242</v>
       </c>
+      <c r="F79" s="27"/>
+      <c r="G79" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B80" s="25"/>
+      <c r="B80" s="27"/>
       <c r="C80" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B81" s="25"/>
+      <c r="B81" s="27"/>
       <c r="C81" t="s">
         <v>244</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="85">
-    <mergeCell ref="B47:B52"/>
-    <mergeCell ref="B53:B61"/>
-    <mergeCell ref="B62:B67"/>
-    <mergeCell ref="F63:F66"/>
-    <mergeCell ref="F47:F54"/>
-    <mergeCell ref="F55:F62"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="J4:J8"/>
-    <mergeCell ref="J9:J16"/>
-    <mergeCell ref="J23:J25"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="F27:F31"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="F10:F15"/>
-    <mergeCell ref="J20:J22"/>
-    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="V23:V25"/>
+    <mergeCell ref="R20:R21"/>
+    <mergeCell ref="V26:V29"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="R4:R9"/>
+    <mergeCell ref="R10:R19"/>
+    <mergeCell ref="V5:V12"/>
+    <mergeCell ref="V2:V4"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="N4:N10"/>
+    <mergeCell ref="N11:N16"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="J70:J73"/>
+    <mergeCell ref="J74:J77"/>
+    <mergeCell ref="N44:N46"/>
+    <mergeCell ref="N47:N49"/>
+    <mergeCell ref="N64:N67"/>
+    <mergeCell ref="N68:N71"/>
+    <mergeCell ref="N72:N75"/>
+    <mergeCell ref="N50:N59"/>
+    <mergeCell ref="J60:J62"/>
+    <mergeCell ref="J50:J59"/>
+    <mergeCell ref="J63:J69"/>
+    <mergeCell ref="N60:N63"/>
+    <mergeCell ref="F72:F75"/>
+    <mergeCell ref="F68:F71"/>
+    <mergeCell ref="B68:B73"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="F76:F79"/>
+    <mergeCell ref="R48:R52"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="R44:R47"/>
+    <mergeCell ref="J28:J31"/>
+    <mergeCell ref="N24:N29"/>
+    <mergeCell ref="N30:N33"/>
+    <mergeCell ref="R26:R30"/>
+    <mergeCell ref="J44:J46"/>
+    <mergeCell ref="J47:J49"/>
+    <mergeCell ref="R22:R25"/>
+    <mergeCell ref="N19:N23"/>
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="B44:B46"/>
     <mergeCell ref="R53:R60"/>
-    <mergeCell ref="V14:V23"/>
+    <mergeCell ref="V13:V22"/>
     <mergeCell ref="V68:V72"/>
     <mergeCell ref="V73:V76"/>
     <mergeCell ref="R67:R70"/>
@@ -4885,59 +4935,31 @@
     <mergeCell ref="V52:V59"/>
     <mergeCell ref="V60:V63"/>
     <mergeCell ref="V64:V67"/>
-    <mergeCell ref="V36:V39"/>
+    <mergeCell ref="V35:V38"/>
     <mergeCell ref="R62:R66"/>
-    <mergeCell ref="V31:V35"/>
-    <mergeCell ref="R48:R52"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B5:B10"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="B11:B15"/>
-    <mergeCell ref="R44:R47"/>
-    <mergeCell ref="J26:J29"/>
-    <mergeCell ref="N24:N29"/>
-    <mergeCell ref="N30:N33"/>
-    <mergeCell ref="R26:R30"/>
-    <mergeCell ref="J44:J46"/>
-    <mergeCell ref="J47:J49"/>
-    <mergeCell ref="R22:R25"/>
-    <mergeCell ref="N19:N23"/>
-    <mergeCell ref="F44:F46"/>
-    <mergeCell ref="F71:F74"/>
-    <mergeCell ref="F67:F70"/>
-    <mergeCell ref="B68:B73"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="F75:F78"/>
-    <mergeCell ref="J70:J73"/>
-    <mergeCell ref="J74:J77"/>
-    <mergeCell ref="N44:N46"/>
-    <mergeCell ref="N47:N49"/>
-    <mergeCell ref="N60:N64"/>
-    <mergeCell ref="N65:N68"/>
-    <mergeCell ref="N69:N72"/>
-    <mergeCell ref="N73:N76"/>
-    <mergeCell ref="N50:N59"/>
-    <mergeCell ref="J60:J62"/>
-    <mergeCell ref="J50:J59"/>
-    <mergeCell ref="J63:J69"/>
-    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="V30:V34"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="J20:J23"/>
+    <mergeCell ref="J24:J27"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="F27:F31"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="J4:J8"/>
+    <mergeCell ref="J9:J16"/>
+    <mergeCell ref="F10:F15"/>
+    <mergeCell ref="J17:J19"/>
     <mergeCell ref="F6:F9"/>
     <mergeCell ref="F2:F5"/>
     <mergeCell ref="F16:F18"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="N4:N10"/>
-    <mergeCell ref="N11:N16"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="V24:V26"/>
-    <mergeCell ref="R20:R21"/>
-    <mergeCell ref="V27:V30"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="R4:R9"/>
-    <mergeCell ref="R10:R19"/>
-    <mergeCell ref="V2:V5"/>
-    <mergeCell ref="V6:V13"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B47:B52"/>
+    <mergeCell ref="B53:B61"/>
+    <mergeCell ref="B62:B67"/>
+    <mergeCell ref="F47:F54"/>
+    <mergeCell ref="F55:F62"/>
+    <mergeCell ref="F63:F67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -4948,8 +4970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z50"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5087,6 +5109,9 @@
       <c r="F4" t="s">
         <v>498</v>
       </c>
+      <c r="J4" t="s">
+        <v>600</v>
+      </c>
       <c r="K4" t="s">
         <v>537</v>
       </c>
@@ -5122,6 +5147,9 @@
       <c r="G5" t="s">
         <v>567</v>
       </c>
+      <c r="J5" t="s">
+        <v>712</v>
+      </c>
       <c r="K5" t="s">
         <v>502</v>
       </c>
@@ -5194,10 +5222,15 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="K9" t="s">
-        <v>539</v>
+        <v>493</v>
       </c>
       <c r="T9" t="s">
         <v>611</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="K11" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.35">
@@ -5280,7 +5313,7 @@
         <v>610</v>
       </c>
       <c r="F19" t="s">
-        <v>493</v>
+        <v>508</v>
       </c>
       <c r="J19" t="s">
         <v>629</v>
@@ -5318,7 +5351,7 @@
         <v>600</v>
       </c>
       <c r="F20" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J20" t="s">
         <v>602</v>
@@ -5350,7 +5383,7 @@
         <v>429</v>
       </c>
       <c r="F21" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="J21" t="s">
         <v>426</v>
@@ -5362,7 +5395,7 @@
         <v>617</v>
       </c>
       <c r="P21" t="s">
-        <v>524</v>
+        <v>490</v>
       </c>
       <c r="T21" t="s">
         <v>630</v>
@@ -5382,7 +5415,7 @@
         <v>593</v>
       </c>
       <c r="F22" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="K22" t="s">
         <v>515</v>
@@ -5391,7 +5424,7 @@
         <v>598</v>
       </c>
       <c r="P22" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="T22" t="s">
         <v>425</v>
@@ -5411,10 +5444,13 @@
         <v>603</v>
       </c>
       <c r="F23" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="O23" t="s">
         <v>608</v>
+      </c>
+      <c r="P23" t="s">
+        <v>525</v>
       </c>
       <c r="T23" t="s">
         <v>427</v>
@@ -5431,7 +5467,7 @@
         <v>623</v>
       </c>
       <c r="F24" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="O24" t="s">
         <v>431</v>
@@ -5444,9 +5480,6 @@
       <c r="E25" t="s">
         <v>619</v>
       </c>
-      <c r="F25" t="s">
-        <v>494</v>
-      </c>
       <c r="O25" t="s">
         <v>432</v>
       </c>
@@ -5457,9 +5490,6 @@
       </c>
       <c r="E26" t="s">
         <v>433</v>
-      </c>
-      <c r="F26" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.35">
@@ -5795,10 +5825,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K201"/>
+  <dimension ref="A1:K216"/>
   <sheetViews>
-    <sheetView topLeftCell="A185" workbookViewId="0">
-      <selection activeCell="E192" sqref="E192"/>
+    <sheetView topLeftCell="A203" workbookViewId="0">
+      <selection activeCell="B213" sqref="B213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6952,6 +6982,92 @@
         <v>711</v>
       </c>
     </row>
+    <row r="202" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A203" s="5" t="s">
+        <v>713</v>
+      </c>
+      <c r="B203" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A204" s="7" t="s">
+        <v>691</v>
+      </c>
+      <c r="B204" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A206" s="5" t="s">
+        <v>714</v>
+      </c>
+      <c r="B206" s="6" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A207" s="10"/>
+      <c r="B207" s="11" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A208" s="10"/>
+      <c r="B208" s="11" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A209" s="7" t="s">
+        <v>691</v>
+      </c>
+      <c r="B209" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A211" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="B211" s="6" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A212" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="B212" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A213" s="7"/>
+      <c r="B213" s="8" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A215" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="B215" s="6" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A216" s="7" t="s">
+        <v>719</v>
+      </c>
+      <c r="B216" s="8" t="s">
+        <v>333</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/OffSeason.xlsx
+++ b/OffSeason.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="720">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="724">
   <si>
     <t>Chubber for Chubb - John Olson</t>
   </si>
@@ -1319,9 +1319,6 @@
     <t>2020 4th Snow Happens</t>
   </si>
   <si>
-    <t>start 4th own</t>
-  </si>
-  <si>
     <t>2020 3rd Snow Happens</t>
   </si>
   <si>
@@ -2187,6 +2184,21 @@
   </si>
   <si>
     <t>Cam sends</t>
+  </si>
+  <si>
+    <t>Alan sends</t>
+  </si>
+  <si>
+    <t>Andrew Sends</t>
+  </si>
+  <si>
+    <t>2020 4th (andrew)</t>
+  </si>
+  <si>
+    <t>2020 4th Slick Daddy Club</t>
+  </si>
+  <si>
+    <t>2020 5th Slick Daddy Club</t>
   </si>
 </sst>
 </file>
@@ -2427,19 +2439,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2449,10 +2461,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2737,8 +2749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="G63" sqref="G63"/>
+    <sheetView tabSelected="1" topLeftCell="G15" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2754,11 +2766,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
       <c r="F1" t="s">
         <v>42</v>
       </c>
@@ -2779,37 +2791,37 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="23" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="23" t="s">
         <v>1</v>
       </c>
       <c r="G2" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="J2" s="23" t="s">
         <v>1</v>
       </c>
       <c r="K2" t="s">
         <v>77</v>
       </c>
-      <c r="N2" s="24" t="s">
+      <c r="N2" s="23" t="s">
         <v>1</v>
       </c>
       <c r="O2" t="s">
         <v>112</v>
       </c>
-      <c r="R2" s="24" t="s">
+      <c r="R2" s="23" t="s">
         <v>1</v>
       </c>
       <c r="S2" t="s">
         <v>144</v>
       </c>
-      <c r="V2" s="24" t="s">
+      <c r="V2" s="23" t="s">
         <v>1</v>
       </c>
       <c r="W2" t="s">
@@ -2820,27 +2832,27 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="24"/>
+      <c r="B3" s="23"/>
       <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="24"/>
+      <c r="F3" s="23"/>
       <c r="G3" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="24"/>
+      <c r="J3" s="23"/>
       <c r="K3" t="s">
         <v>214</v>
       </c>
-      <c r="N3" s="24"/>
+      <c r="N3" s="23"/>
       <c r="O3" t="s">
         <v>104</v>
       </c>
-      <c r="R3" s="24"/>
+      <c r="R3" s="23"/>
       <c r="S3" t="s">
         <v>145</v>
       </c>
-      <c r="V3" s="24"/>
+      <c r="V3" s="23"/>
       <c r="W3" t="s">
         <v>180</v>
       </c>
@@ -2849,33 +2861,33 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="24"/>
+      <c r="B4" s="23"/>
       <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="24"/>
+      <c r="F4" s="23"/>
       <c r="G4" t="s">
         <v>46</v>
       </c>
-      <c r="J4" s="21" t="s">
+      <c r="J4" s="24" t="s">
         <v>5</v>
       </c>
       <c r="K4" t="s">
         <v>248</v>
       </c>
-      <c r="N4" s="21" t="s">
+      <c r="N4" s="24" t="s">
         <v>5</v>
       </c>
       <c r="O4" t="s">
         <v>113</v>
       </c>
-      <c r="R4" s="21" t="s">
+      <c r="R4" s="24" t="s">
         <v>5</v>
       </c>
       <c r="S4" t="s">
         <v>146</v>
       </c>
-      <c r="V4" s="24"/>
+      <c r="V4" s="23"/>
       <c r="W4" t="s">
         <v>181</v>
       </c>
@@ -2884,29 +2896,29 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="24" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="24"/>
+      <c r="F5" s="23"/>
       <c r="G5" t="s">
         <v>47</v>
       </c>
-      <c r="J5" s="21"/>
+      <c r="J5" s="24"/>
       <c r="K5" t="s">
         <v>81</v>
       </c>
-      <c r="N5" s="21"/>
+      <c r="N5" s="24"/>
       <c r="O5" t="s">
         <v>114</v>
       </c>
-      <c r="R5" s="21"/>
+      <c r="R5" s="24"/>
       <c r="S5" t="s">
         <v>147</v>
       </c>
-      <c r="V5" s="21" t="s">
+      <c r="V5" s="24" t="s">
         <v>5</v>
       </c>
       <c r="W5" t="s">
@@ -2917,29 +2929,29 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="21"/>
+      <c r="B6" s="24"/>
       <c r="C6" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="24" t="s">
         <v>5</v>
       </c>
       <c r="G6" t="s">
         <v>215</v>
       </c>
-      <c r="J6" s="21"/>
+      <c r="J6" s="24"/>
       <c r="K6" t="s">
         <v>82</v>
       </c>
-      <c r="N6" s="21"/>
+      <c r="N6" s="24"/>
       <c r="O6" t="s">
         <v>115</v>
       </c>
-      <c r="R6" s="21"/>
+      <c r="R6" s="24"/>
       <c r="S6" t="s">
         <v>148</v>
       </c>
-      <c r="V6" s="21"/>
+      <c r="V6" s="24"/>
       <c r="W6" t="s">
         <v>250</v>
       </c>
@@ -2948,27 +2960,27 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="21"/>
+      <c r="B7" s="24"/>
       <c r="C7" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="21"/>
+      <c r="F7" s="24"/>
       <c r="G7" t="s">
         <v>52</v>
       </c>
-      <c r="J7" s="21"/>
+      <c r="J7" s="24"/>
       <c r="K7" t="s">
         <v>352</v>
       </c>
-      <c r="N7" s="21"/>
+      <c r="N7" s="24"/>
       <c r="O7" t="s">
         <v>116</v>
       </c>
-      <c r="R7" s="21"/>
+      <c r="R7" s="24"/>
       <c r="S7" t="s">
         <v>149</v>
       </c>
-      <c r="V7" s="21"/>
+      <c r="V7" s="24"/>
       <c r="W7" t="s">
         <v>184</v>
       </c>
@@ -2977,27 +2989,27 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="21"/>
+      <c r="B8" s="24"/>
       <c r="C8" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="21"/>
+      <c r="F8" s="24"/>
       <c r="G8" t="s">
         <v>50</v>
       </c>
-      <c r="J8" s="21"/>
+      <c r="J8" s="24"/>
       <c r="K8" t="s">
         <v>85</v>
       </c>
-      <c r="N8" s="21"/>
+      <c r="N8" s="24"/>
       <c r="O8" t="s">
         <v>117</v>
       </c>
-      <c r="R8" s="21"/>
+      <c r="R8" s="24"/>
       <c r="S8" t="s">
         <v>150</v>
       </c>
-      <c r="V8" s="21"/>
+      <c r="V8" s="24"/>
       <c r="W8" t="s">
         <v>252</v>
       </c>
@@ -3006,62 +3018,62 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="21"/>
+      <c r="B9" s="24"/>
       <c r="C9" t="s">
         <v>80</v>
       </c>
-      <c r="F9" s="21"/>
+      <c r="F9" s="24"/>
       <c r="G9" t="s">
         <v>49</v>
       </c>
-      <c r="J9" s="22" t="s">
+      <c r="J9" s="25" t="s">
         <v>12</v>
       </c>
       <c r="K9" t="s">
         <v>15</v>
       </c>
-      <c r="N9" s="21"/>
+      <c r="N9" s="24"/>
       <c r="O9" t="s">
         <v>118</v>
       </c>
-      <c r="R9" s="21"/>
+      <c r="R9" s="24"/>
       <c r="S9" t="s">
         <v>151</v>
       </c>
-      <c r="V9" s="21"/>
+      <c r="V9" s="24"/>
       <c r="W9" t="s">
-        <v>186</v>
+        <v>385</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="21"/>
+      <c r="B10" s="24"/>
       <c r="C10" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="F10" s="25" t="s">
         <v>12</v>
       </c>
       <c r="G10" t="s">
         <v>54</v>
       </c>
-      <c r="J10" s="22"/>
+      <c r="J10" s="25"/>
       <c r="K10" t="s">
         <v>188</v>
       </c>
-      <c r="N10" s="21"/>
+      <c r="N10" s="24"/>
       <c r="O10" t="s">
         <v>119</v>
       </c>
-      <c r="R10" s="22" t="s">
+      <c r="R10" s="25" t="s">
         <v>12</v>
       </c>
       <c r="S10" t="s">
         <v>152</v>
       </c>
-      <c r="V10" s="21"/>
+      <c r="V10" s="24"/>
       <c r="W10" t="s">
         <v>187</v>
       </c>
@@ -3070,31 +3082,31 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="25" t="s">
         <v>12</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="22"/>
+      <c r="F11" s="25"/>
       <c r="G11" t="s">
         <v>56</v>
       </c>
-      <c r="J11" s="22"/>
+      <c r="J11" s="25"/>
       <c r="K11" t="s">
         <v>17</v>
       </c>
-      <c r="N11" s="22" t="s">
+      <c r="N11" s="25" t="s">
         <v>12</v>
       </c>
       <c r="O11" t="s">
         <v>120</v>
       </c>
-      <c r="R11" s="22"/>
+      <c r="R11" s="25"/>
       <c r="S11" t="s">
         <v>153</v>
       </c>
-      <c r="V11" s="21"/>
+      <c r="V11" s="24"/>
       <c r="W11" t="s">
         <v>53</v>
       </c>
@@ -3103,27 +3115,27 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="22"/>
+      <c r="B12" s="25"/>
       <c r="C12" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="22"/>
+      <c r="F12" s="25"/>
       <c r="G12" t="s">
         <v>58</v>
       </c>
-      <c r="J12" s="22"/>
+      <c r="J12" s="25"/>
       <c r="K12" t="s">
         <v>88</v>
       </c>
-      <c r="N12" s="22"/>
+      <c r="N12" s="25"/>
       <c r="O12" t="s">
         <v>121</v>
       </c>
-      <c r="R12" s="22"/>
+      <c r="R12" s="25"/>
       <c r="S12" t="s">
         <v>154</v>
       </c>
-      <c r="V12" s="21"/>
+      <c r="V12" s="24"/>
       <c r="W12" t="s">
         <v>10</v>
       </c>
@@ -3132,27 +3144,27 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="22"/>
+      <c r="B13" s="25"/>
       <c r="C13" t="s">
         <v>86</v>
       </c>
-      <c r="F13" s="22"/>
+      <c r="F13" s="25"/>
       <c r="G13" t="s">
         <v>59</v>
       </c>
-      <c r="J13" s="22"/>
+      <c r="J13" s="25"/>
       <c r="K13" t="s">
         <v>16</v>
       </c>
-      <c r="N13" s="22"/>
+      <c r="N13" s="25"/>
       <c r="O13" t="s">
         <v>122</v>
       </c>
-      <c r="R13" s="22"/>
+      <c r="R13" s="25"/>
       <c r="S13" t="s">
         <v>155</v>
       </c>
-      <c r="V13" s="22" t="s">
+      <c r="V13" s="25" t="s">
         <v>12</v>
       </c>
       <c r="W13" t="s">
@@ -3163,27 +3175,27 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="22"/>
+      <c r="B14" s="25"/>
       <c r="C14" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="22"/>
+      <c r="F14" s="25"/>
       <c r="G14" t="s">
         <v>226</v>
       </c>
-      <c r="J14" s="22"/>
+      <c r="J14" s="25"/>
       <c r="K14" t="s">
         <v>22</v>
       </c>
-      <c r="N14" s="22"/>
+      <c r="N14" s="25"/>
       <c r="O14" t="s">
         <v>123</v>
       </c>
-      <c r="R14" s="22"/>
+      <c r="R14" s="25"/>
       <c r="S14" t="s">
         <v>156</v>
       </c>
-      <c r="V14" s="22"/>
+      <c r="V14" s="25"/>
       <c r="W14" t="s">
         <v>189</v>
       </c>
@@ -3192,27 +3204,27 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="22"/>
+      <c r="B15" s="25"/>
       <c r="C15" t="s">
         <v>87</v>
       </c>
-      <c r="F15" s="22"/>
+      <c r="F15" s="25"/>
       <c r="G15" t="s">
         <v>225</v>
       </c>
-      <c r="J15" s="22"/>
+      <c r="J15" s="25"/>
       <c r="K15" t="s">
         <v>194</v>
       </c>
-      <c r="N15" s="22"/>
+      <c r="N15" s="25"/>
       <c r="O15" t="s">
         <v>124</v>
       </c>
-      <c r="R15" s="22"/>
+      <c r="R15" s="25"/>
       <c r="S15" t="s">
         <v>157</v>
       </c>
-      <c r="V15" s="22"/>
+      <c r="V15" s="25"/>
       <c r="W15" t="s">
         <v>190</v>
       </c>
@@ -3221,31 +3233,31 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="21" t="s">
         <v>18</v>
       </c>
       <c r="C16" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="23" t="s">
+      <c r="F16" s="21" t="s">
         <v>18</v>
       </c>
       <c r="G16" t="s">
         <v>60</v>
       </c>
-      <c r="J16" s="22"/>
+      <c r="J16" s="25"/>
       <c r="K16" t="s">
         <v>23</v>
       </c>
-      <c r="N16" s="22"/>
+      <c r="N16" s="25"/>
       <c r="O16" t="s">
         <v>125</v>
       </c>
-      <c r="R16" s="22"/>
+      <c r="R16" s="25"/>
       <c r="S16" t="s">
         <v>158</v>
       </c>
-      <c r="V16" s="22"/>
+      <c r="V16" s="25"/>
       <c r="W16" t="s">
         <v>191</v>
       </c>
@@ -3254,31 +3266,31 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="23"/>
+      <c r="B17" s="21"/>
       <c r="C17" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="23"/>
+      <c r="F17" s="21"/>
       <c r="G17" t="s">
         <v>62</v>
       </c>
-      <c r="J17" s="23" t="s">
+      <c r="J17" s="21" t="s">
         <v>18</v>
       </c>
       <c r="K17" t="s">
         <v>95</v>
       </c>
-      <c r="N17" s="23" t="s">
+      <c r="N17" s="21" t="s">
         <v>18</v>
       </c>
       <c r="O17" t="s">
         <v>126</v>
       </c>
-      <c r="R17" s="22"/>
+      <c r="R17" s="25"/>
       <c r="S17" t="s">
         <v>159</v>
       </c>
-      <c r="V17" s="22"/>
+      <c r="V17" s="25"/>
       <c r="W17" t="s">
         <v>91</v>
       </c>
@@ -3287,27 +3299,27 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="23"/>
+      <c r="B18" s="21"/>
       <c r="C18" t="s">
         <v>96</v>
       </c>
-      <c r="F18" s="23"/>
+      <c r="F18" s="21"/>
       <c r="G18" t="s">
         <v>63</v>
       </c>
-      <c r="J18" s="23"/>
+      <c r="J18" s="21"/>
       <c r="K18" t="s">
         <v>98</v>
       </c>
-      <c r="N18" s="23"/>
+      <c r="N18" s="21"/>
       <c r="O18" t="s">
         <v>127</v>
       </c>
-      <c r="R18" s="22"/>
+      <c r="R18" s="25"/>
       <c r="S18" t="s">
         <v>160</v>
       </c>
-      <c r="V18" s="22"/>
+      <c r="V18" s="25"/>
       <c r="W18" t="s">
         <v>261</v>
       </c>
@@ -3316,33 +3328,33 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="22" t="s">
         <v>24</v>
       </c>
       <c r="C19" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="25" t="s">
+      <c r="F19" s="22" t="s">
         <v>24</v>
       </c>
       <c r="G19" t="s">
         <v>64</v>
       </c>
-      <c r="J19" s="23"/>
+      <c r="J19" s="21"/>
       <c r="K19" t="s">
         <v>333</v>
       </c>
-      <c r="N19" s="25" t="s">
+      <c r="N19" s="22" t="s">
         <v>24</v>
       </c>
       <c r="O19" t="s">
         <v>128</v>
       </c>
-      <c r="R19" s="22"/>
+      <c r="R19" s="25"/>
       <c r="S19" t="s">
         <v>161</v>
       </c>
-      <c r="V19" s="22"/>
+      <c r="V19" s="25"/>
       <c r="W19" t="s">
         <v>94</v>
       </c>
@@ -3351,31 +3363,31 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="25"/>
+      <c r="B20" s="22"/>
       <c r="C20" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="25"/>
+      <c r="F20" s="22"/>
       <c r="G20" t="s">
         <v>65</v>
       </c>
-      <c r="J20" s="25" t="s">
+      <c r="J20" s="22" t="s">
         <v>24</v>
       </c>
       <c r="K20" t="s">
         <v>99</v>
       </c>
-      <c r="N20" s="25"/>
+      <c r="N20" s="22"/>
       <c r="O20" t="s">
         <v>129</v>
       </c>
-      <c r="R20" s="23" t="s">
+      <c r="R20" s="21" t="s">
         <v>18</v>
       </c>
       <c r="S20" t="s">
         <v>162</v>
       </c>
-      <c r="V20" s="22"/>
+      <c r="V20" s="25"/>
       <c r="W20" t="s">
         <v>193</v>
       </c>
@@ -3384,27 +3396,27 @@
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="25"/>
+      <c r="B21" s="22"/>
       <c r="C21" t="s">
         <v>100</v>
       </c>
-      <c r="F21" s="25"/>
+      <c r="F21" s="22"/>
       <c r="G21" t="s">
         <v>66</v>
       </c>
-      <c r="J21" s="25"/>
+      <c r="J21" s="22"/>
       <c r="K21" t="s">
         <v>28</v>
       </c>
-      <c r="N21" s="25"/>
+      <c r="N21" s="22"/>
       <c r="O21" t="s">
         <v>130</v>
       </c>
-      <c r="R21" s="23"/>
+      <c r="R21" s="21"/>
       <c r="S21" t="s">
         <v>163</v>
       </c>
-      <c r="V21" s="22"/>
+      <c r="V21" s="25"/>
       <c r="W21" t="s">
         <v>195</v>
       </c>
@@ -3419,25 +3431,25 @@
       <c r="C22" t="s">
         <v>31</v>
       </c>
-      <c r="F22" s="25"/>
+      <c r="F22" s="22"/>
       <c r="G22" t="s">
         <v>67</v>
       </c>
-      <c r="J22" s="25"/>
+      <c r="J22" s="22"/>
       <c r="K22" t="s">
         <v>29</v>
       </c>
-      <c r="N22" s="25"/>
+      <c r="N22" s="22"/>
       <c r="O22" t="s">
         <v>131</v>
       </c>
-      <c r="R22" s="25" t="s">
+      <c r="R22" s="22" t="s">
         <v>24</v>
       </c>
       <c r="S22" t="s">
         <v>164</v>
       </c>
-      <c r="V22" s="22"/>
+      <c r="V22" s="25"/>
       <c r="W22" t="s">
         <v>196</v>
       </c>
@@ -3456,19 +3468,19 @@
       <c r="G23" t="s">
         <v>69</v>
       </c>
-      <c r="J23" s="25"/>
+      <c r="J23" s="22"/>
       <c r="K23" t="s">
         <v>27</v>
       </c>
-      <c r="N23" s="25"/>
+      <c r="N23" s="22"/>
       <c r="O23" t="s">
         <v>132</v>
       </c>
-      <c r="R23" s="25"/>
+      <c r="R23" s="22"/>
       <c r="S23" t="s">
         <v>165</v>
       </c>
-      <c r="V23" s="23" t="s">
+      <c r="V23" s="21" t="s">
         <v>18</v>
       </c>
       <c r="W23" t="s">
@@ -3499,11 +3511,11 @@
       <c r="O24" t="s">
         <v>133</v>
       </c>
-      <c r="R24" s="25"/>
+      <c r="R24" s="22"/>
       <c r="S24" t="s">
         <v>166</v>
       </c>
-      <c r="V24" s="23"/>
+      <c r="V24" s="21"/>
       <c r="W24" t="s">
         <v>198</v>
       </c>
@@ -3530,11 +3542,11 @@
       <c r="O25" t="s">
         <v>134</v>
       </c>
-      <c r="R25" s="25"/>
+      <c r="R25" s="22"/>
       <c r="S25" t="s">
         <v>167</v>
       </c>
-      <c r="V25" s="23"/>
+      <c r="V25" s="21"/>
       <c r="W25" t="s">
         <v>199</v>
       </c>
@@ -3565,7 +3577,7 @@
       <c r="S26" t="s">
         <v>168</v>
       </c>
-      <c r="V26" s="25" t="s">
+      <c r="V26" s="22" t="s">
         <v>24</v>
       </c>
       <c r="W26" t="s">
@@ -3598,7 +3610,7 @@
       <c r="S27" t="s">
         <v>169</v>
       </c>
-      <c r="V27" s="25"/>
+      <c r="V27" s="22"/>
       <c r="W27" t="s">
         <v>201</v>
       </c>
@@ -3629,7 +3641,7 @@
       <c r="S28" t="s">
         <v>170</v>
       </c>
-      <c r="V28" s="25"/>
+      <c r="V28" s="22"/>
       <c r="W28" t="s">
         <v>202</v>
       </c>
@@ -3654,7 +3666,7 @@
       <c r="S29" t="s">
         <v>171</v>
       </c>
-      <c r="V29" s="25"/>
+      <c r="V29" s="22"/>
       <c r="W29" t="s">
         <v>203</v>
       </c>
@@ -3764,18 +3776,12 @@
     <row r="36" spans="1:25" x14ac:dyDescent="0.35">
       <c r="V36" s="27"/>
       <c r="W36" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.35">
       <c r="V37" s="27"/>
       <c r="W37" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="V38" s="27"/>
-      <c r="W38" t="s">
         <v>211</v>
       </c>
     </row>
@@ -3787,7 +3793,7 @@
         <v>245</v>
       </c>
       <c r="J43" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N43" t="s">
         <v>314</v>
@@ -3795,48 +3801,48 @@
       <c r="R43" t="s">
         <v>315</v>
       </c>
-      <c r="V43" s="28" t="s">
+      <c r="V43" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="W43" s="28"/>
-      <c r="X43" s="28"/>
-      <c r="Y43" s="28"/>
+      <c r="W43" s="29"/>
+      <c r="X43" s="29"/>
+      <c r="Y43" s="29"/>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>1</v>
       </c>
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="23" t="s">
         <v>1</v>
       </c>
       <c r="C44" t="s">
         <v>44</v>
       </c>
-      <c r="F44" s="24" t="s">
+      <c r="F44" s="23" t="s">
         <v>1</v>
       </c>
       <c r="G44" t="s">
         <v>246</v>
       </c>
-      <c r="J44" s="24" t="s">
+      <c r="J44" s="23" t="s">
         <v>1</v>
       </c>
       <c r="K44" t="s">
         <v>280</v>
       </c>
-      <c r="N44" s="24" t="s">
+      <c r="N44" s="23" t="s">
         <v>1</v>
       </c>
       <c r="O44" t="s">
         <v>317</v>
       </c>
-      <c r="R44" s="24" t="s">
+      <c r="R44" s="23" t="s">
         <v>1</v>
       </c>
       <c r="S44" t="s">
         <v>348</v>
       </c>
-      <c r="V44" s="24" t="s">
+      <c r="V44" s="23" t="s">
         <v>1</v>
       </c>
       <c r="W44" t="s">
@@ -3847,27 +3853,27 @@
       <c r="A45" s="1">
         <v>2</v>
       </c>
-      <c r="B45" s="24"/>
+      <c r="B45" s="23"/>
       <c r="C45" t="s">
         <v>179</v>
       </c>
-      <c r="F45" s="24"/>
+      <c r="F45" s="23"/>
       <c r="G45" t="s">
         <v>247</v>
       </c>
-      <c r="J45" s="24"/>
+      <c r="J45" s="23"/>
       <c r="K45" t="s">
         <v>281</v>
       </c>
-      <c r="N45" s="24"/>
+      <c r="N45" s="23"/>
       <c r="O45" t="s">
         <v>318</v>
       </c>
-      <c r="R45" s="24"/>
+      <c r="R45" s="23"/>
       <c r="S45" t="s">
         <v>349</v>
       </c>
-      <c r="V45" s="24"/>
+      <c r="V45" s="23"/>
       <c r="W45" t="s">
         <v>379</v>
       </c>
@@ -3876,27 +3882,27 @@
       <c r="A46" s="1">
         <v>3</v>
       </c>
-      <c r="B46" s="24"/>
+      <c r="B46" s="23"/>
       <c r="C46" t="s">
         <v>213</v>
       </c>
-      <c r="F46" s="24"/>
+      <c r="F46" s="23"/>
       <c r="G46" t="s">
         <v>79</v>
       </c>
-      <c r="J46" s="24"/>
+      <c r="J46" s="23"/>
       <c r="K46" t="s">
         <v>282</v>
       </c>
-      <c r="N46" s="24"/>
+      <c r="N46" s="23"/>
       <c r="O46" t="s">
         <v>319</v>
       </c>
-      <c r="R46" s="24"/>
+      <c r="R46" s="23"/>
       <c r="S46" t="s">
         <v>78</v>
       </c>
-      <c r="V46" s="24"/>
+      <c r="V46" s="23"/>
       <c r="W46" t="s">
         <v>380</v>
       </c>
@@ -3905,35 +3911,35 @@
       <c r="A47" s="1">
         <v>4</v>
       </c>
-      <c r="B47" s="21" t="s">
+      <c r="B47" s="24" t="s">
         <v>5</v>
       </c>
       <c r="C47" t="s">
         <v>216</v>
       </c>
-      <c r="F47" s="21" t="s">
+      <c r="F47" s="24" t="s">
         <v>5</v>
       </c>
       <c r="G47" t="s">
         <v>183</v>
       </c>
-      <c r="J47" s="21" t="s">
+      <c r="J47" s="24" t="s">
         <v>5</v>
       </c>
       <c r="K47" t="s">
         <v>283</v>
       </c>
-      <c r="N47" s="21" t="s">
+      <c r="N47" s="24" t="s">
         <v>5</v>
       </c>
       <c r="O47" t="s">
         <v>320</v>
       </c>
-      <c r="R47" s="24"/>
+      <c r="R47" s="23"/>
       <c r="S47" t="s">
         <v>350</v>
       </c>
-      <c r="V47" s="21" t="s">
+      <c r="V47" s="24" t="s">
         <v>5</v>
       </c>
       <c r="W47" t="s">
@@ -3944,29 +3950,29 @@
       <c r="A48" s="1">
         <v>5</v>
       </c>
-      <c r="B48" s="21"/>
+      <c r="B48" s="24"/>
       <c r="C48" t="s">
         <v>217</v>
       </c>
-      <c r="F48" s="21"/>
+      <c r="F48" s="24"/>
       <c r="G48" t="s">
         <v>84</v>
       </c>
-      <c r="J48" s="21"/>
+      <c r="J48" s="24"/>
       <c r="K48" t="s">
         <v>284</v>
       </c>
-      <c r="N48" s="21"/>
+      <c r="N48" s="24"/>
       <c r="O48" t="s">
         <v>251</v>
       </c>
-      <c r="R48" s="21" t="s">
+      <c r="R48" s="24" t="s">
         <v>5</v>
       </c>
       <c r="S48" t="s">
         <v>351</v>
       </c>
-      <c r="V48" s="21"/>
+      <c r="V48" s="24"/>
       <c r="W48" t="s">
         <v>382</v>
       </c>
@@ -3975,28 +3981,28 @@
       <c r="A49" s="1">
         <v>6</v>
       </c>
-      <c r="B49" s="21"/>
+      <c r="B49" s="24"/>
       <c r="C49" t="s">
         <v>221</v>
       </c>
       <c r="D49" s="20"/>
-      <c r="F49" s="21"/>
+      <c r="F49" s="24"/>
       <c r="G49" t="s">
         <v>51</v>
       </c>
-      <c r="J49" s="21"/>
+      <c r="J49" s="24"/>
       <c r="K49" t="s">
         <v>285</v>
       </c>
-      <c r="N49" s="21"/>
+      <c r="N49" s="24"/>
       <c r="O49" t="s">
         <v>322</v>
       </c>
-      <c r="R49" s="21"/>
+      <c r="R49" s="24"/>
       <c r="S49" t="s">
         <v>48</v>
       </c>
-      <c r="V49" s="21"/>
+      <c r="V49" s="24"/>
       <c r="W49" t="s">
         <v>383</v>
       </c>
@@ -4005,31 +4011,31 @@
       <c r="A50" s="1">
         <v>7</v>
       </c>
-      <c r="B50" s="21"/>
+      <c r="B50" s="24"/>
       <c r="C50" t="s">
         <v>222</v>
       </c>
-      <c r="F50" s="21"/>
+      <c r="F50" s="24"/>
       <c r="G50" t="s">
         <v>321</v>
       </c>
-      <c r="J50" s="22" t="s">
+      <c r="J50" s="25" t="s">
         <v>12</v>
       </c>
       <c r="K50" t="s">
         <v>286</v>
       </c>
-      <c r="N50" s="22" t="s">
+      <c r="N50" s="25" t="s">
         <v>12</v>
       </c>
       <c r="O50" t="s">
         <v>323</v>
       </c>
-      <c r="R50" s="21"/>
+      <c r="R50" s="24"/>
       <c r="S50" t="s">
         <v>353</v>
       </c>
-      <c r="V50" s="21"/>
+      <c r="V50" s="24"/>
       <c r="W50" t="s">
         <v>384</v>
       </c>
@@ -4038,56 +4044,56 @@
       <c r="A51" s="1">
         <v>8</v>
       </c>
-      <c r="B51" s="21"/>
+      <c r="B51" s="24"/>
       <c r="C51" t="s">
         <v>253</v>
       </c>
-      <c r="F51" s="21"/>
+      <c r="F51" s="24"/>
       <c r="G51" t="s">
         <v>254</v>
       </c>
-      <c r="J51" s="22"/>
+      <c r="J51" s="25"/>
       <c r="K51" t="s">
         <v>287</v>
       </c>
-      <c r="N51" s="22"/>
+      <c r="N51" s="25"/>
       <c r="O51" t="s">
         <v>324</v>
       </c>
-      <c r="R51" s="21"/>
+      <c r="R51" s="24"/>
       <c r="S51" t="s">
         <v>354</v>
       </c>
-      <c r="V51" s="21"/>
+      <c r="V51" s="24"/>
       <c r="W51" t="s">
-        <v>385</v>
+        <v>186</v>
       </c>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>9</v>
       </c>
-      <c r="B52" s="21"/>
+      <c r="B52" s="24"/>
       <c r="C52" t="s">
         <v>83</v>
       </c>
-      <c r="F52" s="21"/>
+      <c r="F52" s="24"/>
       <c r="G52" t="s">
         <v>249</v>
       </c>
-      <c r="J52" s="22"/>
+      <c r="J52" s="25"/>
       <c r="K52" t="s">
         <v>288</v>
       </c>
-      <c r="N52" s="22"/>
+      <c r="N52" s="25"/>
       <c r="O52" t="s">
         <v>325</v>
       </c>
-      <c r="R52" s="21"/>
+      <c r="R52" s="24"/>
       <c r="S52" t="s">
         <v>355</v>
       </c>
-      <c r="V52" s="22" t="s">
+      <c r="V52" s="25" t="s">
         <v>12</v>
       </c>
       <c r="W52" t="s">
@@ -4098,31 +4104,31 @@
       <c r="A53" s="1">
         <v>10</v>
       </c>
-      <c r="B53" s="22" t="s">
+      <c r="B53" s="25" t="s">
         <v>12</v>
       </c>
       <c r="C53" t="s">
         <v>57</v>
       </c>
-      <c r="F53" s="21"/>
+      <c r="F53" s="24"/>
       <c r="G53" t="s">
         <v>255</v>
       </c>
-      <c r="J53" s="22"/>
+      <c r="J53" s="25"/>
       <c r="K53" t="s">
         <v>289</v>
       </c>
-      <c r="N53" s="22"/>
+      <c r="N53" s="25"/>
       <c r="O53" t="s">
         <v>326</v>
       </c>
-      <c r="R53" s="22" t="s">
+      <c r="R53" s="25" t="s">
         <v>12</v>
       </c>
       <c r="S53" t="s">
         <v>356</v>
       </c>
-      <c r="V53" s="22"/>
+      <c r="V53" s="25"/>
       <c r="W53" t="s">
         <v>387</v>
       </c>
@@ -4131,27 +4137,27 @@
       <c r="A54" s="1">
         <v>11</v>
       </c>
-      <c r="B54" s="22"/>
+      <c r="B54" s="25"/>
       <c r="C54" t="s">
         <v>93</v>
       </c>
-      <c r="F54" s="21"/>
+      <c r="F54" s="24"/>
       <c r="G54" t="s">
         <v>185</v>
       </c>
-      <c r="J54" s="22"/>
+      <c r="J54" s="25"/>
       <c r="K54" t="s">
         <v>290</v>
       </c>
-      <c r="N54" s="22"/>
+      <c r="N54" s="25"/>
       <c r="O54" t="s">
         <v>327</v>
       </c>
-      <c r="R54" s="22"/>
+      <c r="R54" s="25"/>
       <c r="S54" t="s">
         <v>357</v>
       </c>
-      <c r="V54" s="22"/>
+      <c r="V54" s="25"/>
       <c r="W54" t="s">
         <v>388</v>
       </c>
@@ -4160,29 +4166,29 @@
       <c r="A55" s="1">
         <v>12</v>
       </c>
-      <c r="B55" s="22"/>
+      <c r="B55" s="25"/>
       <c r="C55" t="s">
         <v>218</v>
       </c>
-      <c r="F55" s="22" t="s">
+      <c r="F55" s="25" t="s">
         <v>12</v>
       </c>
       <c r="G55" t="s">
         <v>219</v>
       </c>
-      <c r="J55" s="22"/>
+      <c r="J55" s="25"/>
       <c r="K55" t="s">
         <v>291</v>
       </c>
-      <c r="N55" s="22"/>
+      <c r="N55" s="25"/>
       <c r="O55" t="s">
         <v>328</v>
       </c>
-      <c r="R55" s="22"/>
+      <c r="R55" s="25"/>
       <c r="S55" t="s">
         <v>358</v>
       </c>
-      <c r="V55" s="22"/>
+      <c r="V55" s="25"/>
       <c r="W55" t="s">
         <v>389</v>
       </c>
@@ -4191,27 +4197,27 @@
       <c r="A56" s="1">
         <v>13</v>
       </c>
-      <c r="B56" s="22"/>
+      <c r="B56" s="25"/>
       <c r="C56" t="s">
         <v>220</v>
       </c>
-      <c r="F56" s="22"/>
+      <c r="F56" s="25"/>
       <c r="G56" t="s">
         <v>228</v>
       </c>
-      <c r="J56" s="22"/>
+      <c r="J56" s="25"/>
       <c r="K56" t="s">
         <v>292</v>
       </c>
-      <c r="N56" s="22"/>
+      <c r="N56" s="25"/>
       <c r="O56" t="s">
         <v>329</v>
       </c>
-      <c r="R56" s="22"/>
+      <c r="R56" s="25"/>
       <c r="S56" t="s">
         <v>359</v>
       </c>
-      <c r="V56" s="22"/>
+      <c r="V56" s="25"/>
       <c r="W56" t="s">
         <v>390</v>
       </c>
@@ -4220,27 +4226,27 @@
       <c r="A57" s="1">
         <v>14</v>
       </c>
-      <c r="B57" s="22"/>
+      <c r="B57" s="25"/>
       <c r="C57" t="s">
         <v>223</v>
       </c>
-      <c r="F57" s="22"/>
+      <c r="F57" s="25"/>
       <c r="G57" t="s">
         <v>258</v>
       </c>
-      <c r="J57" s="22"/>
+      <c r="J57" s="25"/>
       <c r="K57" t="s">
         <v>293</v>
       </c>
-      <c r="N57" s="22"/>
+      <c r="N57" s="25"/>
       <c r="O57" t="s">
         <v>257</v>
       </c>
-      <c r="R57" s="22"/>
+      <c r="R57" s="25"/>
       <c r="S57" t="s">
         <v>360</v>
       </c>
-      <c r="V57" s="22"/>
+      <c r="V57" s="25"/>
       <c r="W57" t="s">
         <v>391</v>
       </c>
@@ -4249,27 +4255,27 @@
       <c r="A58" s="1">
         <v>15</v>
       </c>
-      <c r="B58" s="22"/>
+      <c r="B58" s="25"/>
       <c r="C58" t="s">
         <v>224</v>
       </c>
-      <c r="F58" s="22"/>
+      <c r="F58" s="25"/>
       <c r="G58" t="s">
         <v>90</v>
       </c>
-      <c r="J58" s="22"/>
+      <c r="J58" s="25"/>
       <c r="K58" t="s">
         <v>294</v>
       </c>
-      <c r="N58" s="22"/>
+      <c r="N58" s="25"/>
       <c r="O58" t="s">
         <v>263</v>
       </c>
-      <c r="R58" s="22"/>
+      <c r="R58" s="25"/>
       <c r="S58" t="s">
         <v>361</v>
       </c>
-      <c r="V58" s="22"/>
+      <c r="V58" s="25"/>
       <c r="W58" t="s">
         <v>392</v>
       </c>
@@ -4278,27 +4284,27 @@
       <c r="A59" s="1">
         <v>16</v>
       </c>
-      <c r="B59" s="22"/>
+      <c r="B59" s="25"/>
       <c r="C59" t="s">
         <v>227</v>
       </c>
-      <c r="F59" s="22"/>
+      <c r="F59" s="25"/>
       <c r="G59" t="s">
         <v>262</v>
       </c>
-      <c r="J59" s="22"/>
+      <c r="J59" s="25"/>
       <c r="K59" t="s">
         <v>295</v>
       </c>
-      <c r="N59" s="22"/>
+      <c r="N59" s="25"/>
       <c r="O59" t="s">
         <v>330</v>
       </c>
-      <c r="R59" s="22"/>
+      <c r="R59" s="25"/>
       <c r="S59" t="s">
         <v>362</v>
       </c>
-      <c r="V59" s="22"/>
+      <c r="V59" s="25"/>
       <c r="W59" t="s">
         <v>393</v>
       </c>
@@ -4307,31 +4313,31 @@
       <c r="A60" s="1">
         <v>17</v>
       </c>
-      <c r="B60" s="22"/>
+      <c r="B60" s="25"/>
       <c r="C60" t="s">
         <v>229</v>
       </c>
-      <c r="F60" s="22"/>
+      <c r="F60" s="25"/>
       <c r="G60" t="s">
         <v>260</v>
       </c>
-      <c r="J60" s="23" t="s">
+      <c r="J60" s="21" t="s">
         <v>18</v>
       </c>
       <c r="K60" t="s">
         <v>296</v>
       </c>
-      <c r="N60" s="23" t="s">
+      <c r="N60" s="21" t="s">
         <v>18</v>
       </c>
       <c r="O60" t="s">
         <v>331</v>
       </c>
-      <c r="R60" s="22"/>
+      <c r="R60" s="25"/>
       <c r="S60" t="s">
         <v>192</v>
       </c>
-      <c r="V60" s="23" t="s">
+      <c r="V60" s="21" t="s">
         <v>18</v>
       </c>
       <c r="W60" t="s">
@@ -4342,19 +4348,19 @@
       <c r="A61" s="1">
         <v>18</v>
       </c>
-      <c r="B61" s="22"/>
+      <c r="B61" s="25"/>
       <c r="C61" t="s">
         <v>55</v>
       </c>
-      <c r="F61" s="22"/>
+      <c r="F61" s="25"/>
       <c r="G61" t="s">
         <v>92</v>
       </c>
-      <c r="J61" s="23"/>
+      <c r="J61" s="21"/>
       <c r="K61" t="s">
         <v>297</v>
       </c>
-      <c r="N61" s="23"/>
+      <c r="N61" s="21"/>
       <c r="O61" t="s">
         <v>332</v>
       </c>
@@ -4364,7 +4370,7 @@
       <c r="S61" t="s">
         <v>363</v>
       </c>
-      <c r="V61" s="23"/>
+      <c r="V61" s="21"/>
       <c r="W61" t="s">
         <v>395</v>
       </c>
@@ -4373,31 +4379,31 @@
       <c r="A62" s="1">
         <v>19</v>
       </c>
-      <c r="B62" s="23" t="s">
+      <c r="B62" s="21" t="s">
         <v>18</v>
       </c>
       <c r="C62" t="s">
         <v>233</v>
       </c>
-      <c r="F62" s="22"/>
+      <c r="F62" s="25"/>
       <c r="G62" t="s">
         <v>259</v>
       </c>
-      <c r="J62" s="23"/>
+      <c r="J62" s="21"/>
       <c r="K62" t="s">
         <v>298</v>
       </c>
-      <c r="N62" s="23"/>
+      <c r="N62" s="21"/>
       <c r="O62" t="s">
         <v>334</v>
       </c>
-      <c r="R62" s="25" t="s">
+      <c r="R62" s="22" t="s">
         <v>24</v>
       </c>
       <c r="S62" t="s">
         <v>364</v>
       </c>
-      <c r="V62" s="23"/>
+      <c r="V62" s="21"/>
       <c r="W62" t="s">
         <v>396</v>
       </c>
@@ -4406,31 +4412,31 @@
       <c r="A63" s="1">
         <v>20</v>
       </c>
-      <c r="B63" s="23"/>
+      <c r="B63" s="21"/>
       <c r="C63" t="s">
         <v>230</v>
       </c>
-      <c r="F63" s="23" t="s">
+      <c r="F63" s="21" t="s">
         <v>18</v>
       </c>
       <c r="G63" t="s">
         <v>264</v>
       </c>
-      <c r="J63" s="25" t="s">
+      <c r="J63" s="22" t="s">
         <v>24</v>
       </c>
       <c r="K63" t="s">
         <v>299</v>
       </c>
-      <c r="N63" s="23"/>
+      <c r="N63" s="21"/>
       <c r="O63" t="s">
         <v>335</v>
       </c>
-      <c r="R63" s="25"/>
+      <c r="R63" s="22"/>
       <c r="S63" t="s">
         <v>365</v>
       </c>
-      <c r="V63" s="23"/>
+      <c r="V63" s="21"/>
       <c r="W63" t="s">
         <v>397</v>
       </c>
@@ -4439,29 +4445,29 @@
       <c r="A64" s="1">
         <v>21</v>
       </c>
-      <c r="B64" s="23"/>
+      <c r="B64" s="21"/>
       <c r="C64" t="s">
         <v>231</v>
       </c>
-      <c r="F64" s="23"/>
+      <c r="F64" s="21"/>
       <c r="G64" t="s">
         <v>265</v>
       </c>
-      <c r="J64" s="25"/>
+      <c r="J64" s="22"/>
       <c r="K64" t="s">
         <v>300</v>
       </c>
-      <c r="N64" s="25" t="s">
+      <c r="N64" s="22" t="s">
         <v>24</v>
       </c>
       <c r="O64" t="s">
         <v>336</v>
       </c>
-      <c r="R64" s="25"/>
+      <c r="R64" s="22"/>
       <c r="S64" t="s">
         <v>366</v>
       </c>
-      <c r="V64" s="25" t="s">
+      <c r="V64" s="22" t="s">
         <v>24</v>
       </c>
       <c r="W64" t="s">
@@ -4472,27 +4478,27 @@
       <c r="A65" s="1">
         <v>22</v>
       </c>
-      <c r="B65" s="23"/>
+      <c r="B65" s="21"/>
       <c r="C65" t="s">
         <v>232</v>
       </c>
-      <c r="F65" s="23"/>
+      <c r="F65" s="21"/>
       <c r="G65" t="s">
         <v>97</v>
       </c>
-      <c r="J65" s="25"/>
+      <c r="J65" s="22"/>
       <c r="K65" t="s">
         <v>301</v>
       </c>
-      <c r="N65" s="25"/>
+      <c r="N65" s="22"/>
       <c r="O65" t="s">
         <v>337</v>
       </c>
-      <c r="R65" s="25"/>
+      <c r="R65" s="22"/>
       <c r="S65" t="s">
         <v>367</v>
       </c>
-      <c r="V65" s="25"/>
+      <c r="V65" s="22"/>
       <c r="W65" t="s">
         <v>399</v>
       </c>
@@ -4501,27 +4507,27 @@
       <c r="A66" s="1">
         <v>23</v>
       </c>
-      <c r="B66" s="23"/>
+      <c r="B66" s="21"/>
       <c r="C66" t="s">
         <v>61</v>
       </c>
-      <c r="F66" s="23"/>
+      <c r="F66" s="21"/>
       <c r="G66" t="s">
         <v>266</v>
       </c>
-      <c r="J66" s="25"/>
+      <c r="J66" s="22"/>
       <c r="K66" t="s">
         <v>302</v>
       </c>
-      <c r="N66" s="25"/>
+      <c r="N66" s="22"/>
       <c r="O66" t="s">
         <v>338</v>
       </c>
-      <c r="R66" s="25"/>
+      <c r="R66" s="22"/>
       <c r="S66" t="s">
         <v>368</v>
       </c>
-      <c r="V66" s="25"/>
+      <c r="V66" s="22"/>
       <c r="W66" t="s">
         <v>400</v>
       </c>
@@ -4530,19 +4536,19 @@
       <c r="A67" s="1">
         <v>24</v>
       </c>
-      <c r="B67" s="23"/>
+      <c r="B67" s="21"/>
       <c r="C67" t="s">
         <v>267</v>
       </c>
-      <c r="F67" s="23"/>
+      <c r="F67" s="21"/>
       <c r="G67" t="s">
         <v>21</v>
       </c>
-      <c r="J67" s="25"/>
+      <c r="J67" s="22"/>
       <c r="K67" t="s">
         <v>303</v>
       </c>
-      <c r="N67" s="25"/>
+      <c r="N67" s="22"/>
       <c r="O67" t="s">
         <v>342</v>
       </c>
@@ -4552,7 +4558,7 @@
       <c r="S67" t="s">
         <v>369</v>
       </c>
-      <c r="V67" s="25"/>
+      <c r="V67" s="22"/>
       <c r="W67" t="s">
         <v>401</v>
       </c>
@@ -4561,19 +4567,19 @@
       <c r="A68" s="1">
         <v>25</v>
       </c>
-      <c r="B68" s="25" t="s">
+      <c r="B68" s="22" t="s">
         <v>24</v>
       </c>
       <c r="C68" t="s">
         <v>102</v>
       </c>
-      <c r="F68" s="25" t="s">
+      <c r="F68" s="22" t="s">
         <v>24</v>
       </c>
       <c r="G68" t="s">
         <v>268</v>
       </c>
-      <c r="J68" s="25"/>
+      <c r="J68" s="22"/>
       <c r="K68" t="s">
         <v>304</v>
       </c>
@@ -4598,15 +4604,15 @@
       <c r="A69" s="1">
         <v>26</v>
       </c>
-      <c r="B69" s="25"/>
+      <c r="B69" s="22"/>
       <c r="C69" t="s">
         <v>234</v>
       </c>
-      <c r="F69" s="25"/>
+      <c r="F69" s="22"/>
       <c r="G69" t="s">
         <v>269</v>
       </c>
-      <c r="J69" s="25"/>
+      <c r="J69" s="22"/>
       <c r="K69" t="s">
         <v>305</v>
       </c>
@@ -4627,11 +4633,11 @@
       <c r="A70" s="1">
         <v>27</v>
       </c>
-      <c r="B70" s="25"/>
+      <c r="B70" s="22"/>
       <c r="C70" t="s">
         <v>235</v>
       </c>
-      <c r="F70" s="25"/>
+      <c r="F70" s="22"/>
       <c r="G70" t="s">
         <v>270</v>
       </c>
@@ -4658,11 +4664,11 @@
       <c r="A71" s="1">
         <v>28</v>
       </c>
-      <c r="B71" s="25"/>
+      <c r="B71" s="22"/>
       <c r="C71" t="s">
         <v>236</v>
       </c>
-      <c r="F71" s="25"/>
+      <c r="F71" s="22"/>
       <c r="G71" t="s">
         <v>101</v>
       </c>
@@ -4689,7 +4695,7 @@
       <c r="A72" s="1">
         <v>29</v>
       </c>
-      <c r="B72" s="25"/>
+      <c r="B72" s="22"/>
       <c r="C72" t="s">
         <v>237</v>
       </c>
@@ -4722,7 +4728,7 @@
       <c r="A73" s="1">
         <v>30</v>
       </c>
-      <c r="B73" s="25"/>
+      <c r="B73" s="22"/>
       <c r="C73" t="s">
         <v>238</v>
       </c>
@@ -4838,6 +4844,10 @@
       <c r="K77" t="s">
         <v>313</v>
       </c>
+      <c r="V77" s="27"/>
+      <c r="W77" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B78" s="27" t="s">
@@ -4875,37 +4885,44 @@
     </row>
   </sheetData>
   <mergeCells count="85">
-    <mergeCell ref="V23:V25"/>
-    <mergeCell ref="R20:R21"/>
-    <mergeCell ref="V26:V29"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="R4:R9"/>
-    <mergeCell ref="R10:R19"/>
-    <mergeCell ref="V5:V12"/>
-    <mergeCell ref="V2:V4"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="N4:N10"/>
-    <mergeCell ref="N11:N16"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="J70:J73"/>
-    <mergeCell ref="J74:J77"/>
-    <mergeCell ref="N44:N46"/>
-    <mergeCell ref="N47:N49"/>
-    <mergeCell ref="N64:N67"/>
-    <mergeCell ref="N68:N71"/>
-    <mergeCell ref="N72:N75"/>
-    <mergeCell ref="N50:N59"/>
-    <mergeCell ref="J60:J62"/>
-    <mergeCell ref="J50:J59"/>
-    <mergeCell ref="J63:J69"/>
-    <mergeCell ref="N60:N63"/>
-    <mergeCell ref="F72:F75"/>
-    <mergeCell ref="F68:F71"/>
-    <mergeCell ref="B68:B73"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="F76:F79"/>
+    <mergeCell ref="V73:V77"/>
+    <mergeCell ref="V35:V37"/>
+    <mergeCell ref="B47:B52"/>
+    <mergeCell ref="B53:B61"/>
+    <mergeCell ref="B62:B67"/>
+    <mergeCell ref="F47:F54"/>
+    <mergeCell ref="F55:F62"/>
+    <mergeCell ref="F63:F67"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="J4:J8"/>
+    <mergeCell ref="J9:J16"/>
+    <mergeCell ref="F10:F15"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="J20:J23"/>
+    <mergeCell ref="J24:J27"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="F27:F31"/>
+    <mergeCell ref="R53:R60"/>
+    <mergeCell ref="V13:V22"/>
+    <mergeCell ref="V68:V72"/>
+    <mergeCell ref="R67:R70"/>
+    <mergeCell ref="R71:R75"/>
+    <mergeCell ref="R31:R34"/>
+    <mergeCell ref="V43:Y43"/>
+    <mergeCell ref="V44:V46"/>
+    <mergeCell ref="V47:V51"/>
+    <mergeCell ref="V52:V59"/>
+    <mergeCell ref="V60:V63"/>
+    <mergeCell ref="V64:V67"/>
+    <mergeCell ref="R62:R66"/>
+    <mergeCell ref="V30:V34"/>
     <mergeCell ref="R48:R52"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B5:B10"/>
@@ -4922,44 +4939,37 @@
     <mergeCell ref="N19:N23"/>
     <mergeCell ref="F44:F46"/>
     <mergeCell ref="B44:B46"/>
-    <mergeCell ref="R53:R60"/>
-    <mergeCell ref="V13:V22"/>
-    <mergeCell ref="V68:V72"/>
-    <mergeCell ref="V73:V76"/>
-    <mergeCell ref="R67:R70"/>
-    <mergeCell ref="R71:R75"/>
-    <mergeCell ref="R31:R34"/>
-    <mergeCell ref="V43:Y43"/>
-    <mergeCell ref="V44:V46"/>
-    <mergeCell ref="V47:V51"/>
-    <mergeCell ref="V52:V59"/>
-    <mergeCell ref="V60:V63"/>
-    <mergeCell ref="V64:V67"/>
-    <mergeCell ref="V35:V38"/>
-    <mergeCell ref="R62:R66"/>
-    <mergeCell ref="V30:V34"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="J20:J23"/>
-    <mergeCell ref="J24:J27"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="F27:F31"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="J4:J8"/>
-    <mergeCell ref="J9:J16"/>
-    <mergeCell ref="F10:F15"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B47:B52"/>
-    <mergeCell ref="B53:B61"/>
-    <mergeCell ref="B62:B67"/>
-    <mergeCell ref="F47:F54"/>
-    <mergeCell ref="F55:F62"/>
-    <mergeCell ref="F63:F67"/>
+    <mergeCell ref="F72:F75"/>
+    <mergeCell ref="F68:F71"/>
+    <mergeCell ref="B68:B73"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="F76:F79"/>
+    <mergeCell ref="J70:J73"/>
+    <mergeCell ref="J74:J77"/>
+    <mergeCell ref="N44:N46"/>
+    <mergeCell ref="N47:N49"/>
+    <mergeCell ref="N64:N67"/>
+    <mergeCell ref="N68:N71"/>
+    <mergeCell ref="N72:N75"/>
+    <mergeCell ref="N50:N59"/>
+    <mergeCell ref="J60:J62"/>
+    <mergeCell ref="J50:J59"/>
+    <mergeCell ref="J63:J69"/>
+    <mergeCell ref="N60:N63"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="N4:N10"/>
+    <mergeCell ref="N11:N16"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="V23:V25"/>
+    <mergeCell ref="R20:R21"/>
+    <mergeCell ref="V26:V29"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="R4:R9"/>
+    <mergeCell ref="R10:R19"/>
+    <mergeCell ref="V5:V12"/>
+    <mergeCell ref="V2:V4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -4970,8 +4980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z50"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+    <sheetView topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4992,221 +5002,224 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="E1" s="28" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="E1" s="29" t="s">
         <v>412</v>
       </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
       <c r="J1" t="s">
         <v>411</v>
       </c>
-      <c r="O1" s="28" t="s">
+      <c r="O1" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="T1" s="28" t="s">
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="T1" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="X1" s="28" t="s">
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="X1" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>415</v>
       </c>
       <c r="B2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E2" t="s">
+        <v>553</v>
+      </c>
+      <c r="F2" t="s">
+        <v>490</v>
+      </c>
+      <c r="J2" t="s">
         <v>554</v>
       </c>
-      <c r="F2" t="s">
-        <v>491</v>
-      </c>
-      <c r="J2" t="s">
-        <v>555</v>
-      </c>
       <c r="K2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="O2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="P2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="T2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="U2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="X2" t="s">
-        <v>594</v>
+        <v>722</v>
       </c>
       <c r="Y2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E3" t="s">
         <v>414</v>
       </c>
       <c r="F3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="J3" t="s">
         <v>413</v>
       </c>
       <c r="K3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O3" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="P3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="T3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="U3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="X3" t="s">
-        <v>604</v>
+        <v>593</v>
       </c>
       <c r="Y3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
+        <v>535</v>
+      </c>
+      <c r="E4" t="s">
+        <v>589</v>
+      </c>
+      <c r="F4" t="s">
+        <v>497</v>
+      </c>
+      <c r="J4" t="s">
+        <v>599</v>
+      </c>
+      <c r="K4" t="s">
         <v>536</v>
       </c>
-      <c r="E4" t="s">
-        <v>590</v>
-      </c>
-      <c r="F4" t="s">
-        <v>498</v>
-      </c>
-      <c r="J4" t="s">
-        <v>600</v>
-      </c>
-      <c r="K4" t="s">
-        <v>537</v>
-      </c>
       <c r="O4" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="P4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="T4" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="U4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="X4" t="s">
-        <v>416</v>
+        <v>603</v>
       </c>
       <c r="Y4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F5" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="J5" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="O5" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="P5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="T5" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="U5" t="s">
-        <v>534</v>
+        <v>533</v>
+      </c>
+      <c r="X5" t="s">
+        <v>416</v>
       </c>
       <c r="Y5" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="K6" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="P6" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="T6" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="U6" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E7" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F7" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="K7" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="T7" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.35">
@@ -5214,52 +5227,52 @@
         <v>419</v>
       </c>
       <c r="K8" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="T8" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="K9" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="T9" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="K11" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="29" t="s">
         <v>212</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
       <c r="E17" t="s">
         <v>420</v>
       </c>
-      <c r="I17" s="28" t="s">
+      <c r="I17" s="29" t="s">
         <v>421</v>
       </c>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="N17" s="28" t="s">
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="N17" s="29" t="s">
         <v>314</v>
       </c>
-      <c r="O17" s="28"/>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="28"/>
-      <c r="S17" s="28" t="s">
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
+      <c r="S17" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="T17" s="28"/>
-      <c r="U17" s="28"/>
-      <c r="V17" s="28"/>
+      <c r="T17" s="29"/>
+      <c r="U17" s="29"/>
+      <c r="V17" s="29"/>
       <c r="X17" t="s">
         <v>316</v>
       </c>
@@ -5269,305 +5282,308 @@
         <v>417</v>
       </c>
       <c r="B18" t="s">
+        <v>509</v>
+      </c>
+      <c r="E18" t="s">
+        <v>594</v>
+      </c>
+      <c r="F18" t="s">
+        <v>502</v>
+      </c>
+      <c r="J18" t="s">
+        <v>595</v>
+      </c>
+      <c r="K18" t="s">
         <v>510</v>
-      </c>
-      <c r="E18" t="s">
-        <v>595</v>
-      </c>
-      <c r="F18" t="s">
-        <v>503</v>
-      </c>
-      <c r="J18" t="s">
-        <v>596</v>
-      </c>
-      <c r="K18" t="s">
-        <v>511</v>
       </c>
       <c r="O18" t="s">
         <v>424</v>
       </c>
       <c r="P18" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="T18" t="s">
         <v>422</v>
       </c>
       <c r="U18" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="X18" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="Y18" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B19" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E19" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F19" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J19" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K19" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="O19" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="P19" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="T19" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="U19" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="X19" t="s">
         <v>423</v>
       </c>
       <c r="Y19" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
+        <v>598</v>
+      </c>
+      <c r="B20" t="s">
+        <v>702</v>
+      </c>
+      <c r="E20" t="s">
         <v>599</v>
       </c>
-      <c r="B20" t="s">
-        <v>703</v>
-      </c>
-      <c r="E20" t="s">
-        <v>600</v>
-      </c>
       <c r="F20" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J20" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="K20" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="O20" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="P20" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="T20" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="X20" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="Y20" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E21" t="s">
         <v>429</v>
       </c>
       <c r="F21" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J21" t="s">
         <v>426</v>
       </c>
       <c r="K21" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="O21" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="P21" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="T21" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="X21" t="s">
         <v>428</v>
       </c>
       <c r="Y21" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E22" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F22" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="K22" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="O22" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="P22" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="T22" t="s">
         <v>425</v>
       </c>
-      <c r="X22" t="s">
-        <v>430</v>
-      </c>
       <c r="Y22" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E23" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F23" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="O23" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="P23" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="T23" t="s">
         <v>427</v>
       </c>
       <c r="U23" t="s">
-        <v>688</v>
+        <v>687</v>
+      </c>
+      <c r="X23" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E24" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F24" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="O24" t="s">
-        <v>431</v>
+        <v>430</v>
+      </c>
+      <c r="X24" t="s">
+        <v>702</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E25" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="O25" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E26" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.35">
       <c r="C30" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.35">
       <c r="C31" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.35">
       <c r="C32" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="33" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C33" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="34" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C34" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="35" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C35" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="36" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C36" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H36" s="2"/>
     </row>
     <row r="37" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C37" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="38" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C38" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="39" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C39" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J39" s="17" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="K39" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="40" spans="3:11" x14ac:dyDescent="0.35">
       <c r="J40" s="18" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="K40" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="41" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="J41" s="19" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="K41" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="42" spans="3:11" x14ac:dyDescent="0.35">
@@ -5575,7 +5591,7 @@
         <v>4</v>
       </c>
       <c r="J42" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="43" spans="3:11" x14ac:dyDescent="0.35">
@@ -5583,7 +5599,7 @@
         <v>5</v>
       </c>
       <c r="J43" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="44" spans="3:11" x14ac:dyDescent="0.35">
@@ -5591,7 +5607,7 @@
         <v>6</v>
       </c>
       <c r="J44" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="45" spans="3:11" x14ac:dyDescent="0.35">
@@ -5599,7 +5615,7 @@
         <v>7</v>
       </c>
       <c r="J45" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="46" spans="3:11" x14ac:dyDescent="0.35">
@@ -5607,7 +5623,7 @@
         <v>8</v>
       </c>
       <c r="J46" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="47" spans="3:11" x14ac:dyDescent="0.35">
@@ -5615,7 +5631,7 @@
         <v>9</v>
       </c>
       <c r="J47" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="48" spans="3:11" x14ac:dyDescent="0.35">
@@ -5623,7 +5639,7 @@
         <v>10</v>
       </c>
       <c r="J48" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="49" spans="9:10" x14ac:dyDescent="0.35">
@@ -5631,7 +5647,7 @@
         <v>11</v>
       </c>
       <c r="J49" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="50" spans="9:10" x14ac:dyDescent="0.35">
@@ -5639,7 +5655,7 @@
         <v>12</v>
       </c>
       <c r="J50" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
   </sheetData>
@@ -5655,6 +5671,7 @@
     <mergeCell ref="T1:V1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5675,134 +5692,134 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>439</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>440</v>
+      </c>
+      <c r="B2" t="s">
         <v>441</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="4" t="s">
         <v>442</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B3" t="s">
+        <v>443</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>444</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>445</v>
+      </c>
+      <c r="B4" t="s">
         <v>446</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="4" t="s">
         <v>447</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>448</v>
+      </c>
+      <c r="B5" t="s">
         <v>449</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="4" t="s">
         <v>450</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B6" t="s">
+        <v>451</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>452</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B7" t="s">
+        <v>453</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>454</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B8" t="s">
+        <v>455</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>456</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>457</v>
+      </c>
+      <c r="B9" t="s">
         <v>458</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" s="4" t="s">
         <v>459</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B10" t="s">
+        <v>460</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>461</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>462</v>
+      </c>
+      <c r="B11" t="s">
         <v>463</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" s="4" t="s">
         <v>464</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>465</v>
+      </c>
+      <c r="B12" t="s">
         <v>466</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" s="4" t="s">
         <v>467</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>468</v>
       </c>
     </row>
   </sheetData>
@@ -5825,10 +5842,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K216"/>
+  <dimension ref="A1:K221"/>
   <sheetViews>
-    <sheetView topLeftCell="A203" workbookViewId="0">
-      <selection activeCell="B213" sqref="B213"/>
+    <sheetView topLeftCell="A202" workbookViewId="0">
+      <selection activeCell="C219" sqref="C219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5848,7 +5865,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>226</v>
@@ -5856,7 +5873,7 @@
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>44</v>
@@ -5865,10 +5882,10 @@
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
@@ -5881,13 +5898,13 @@
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="10"/>
       <c r="B5" s="11" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="10"/>
       <c r="B6" s="11" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
@@ -5896,7 +5913,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>90</v>
@@ -5905,19 +5922,19 @@
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="10"/>
       <c r="B9" s="11" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="10"/>
       <c r="B10" s="11" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="10"/>
       <c r="B11" s="11" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
@@ -5929,37 +5946,37 @@
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="10"/>
       <c r="B13" s="11" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="10"/>
       <c r="B14" s="11" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="10"/>
       <c r="B15" s="11" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="10"/>
       <c r="B16" s="11" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="7"/>
       <c r="B17" s="8" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>86</v>
@@ -5974,7 +5991,7 @@
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="10"/>
       <c r="B21" s="11" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -5986,7 +6003,7 @@
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="10"/>
       <c r="B23" s="11" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -5998,19 +6015,19 @@
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="10"/>
       <c r="B25" s="12" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="10"/>
       <c r="B26" s="11" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="10"/>
       <c r="B27" s="11" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
@@ -6019,7 +6036,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>17</v>
@@ -6034,31 +6051,31 @@
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="10"/>
       <c r="B31" s="11" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="10"/>
       <c r="B32" s="11" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="10"/>
       <c r="B33" s="12" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="10"/>
       <c r="B34" s="12" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="10"/>
       <c r="B35" s="12" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
@@ -6070,13 +6087,13 @@
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="10"/>
       <c r="B37" s="12" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="10"/>
       <c r="B38" s="11" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
@@ -6088,13 +6105,13 @@
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="10"/>
       <c r="B40" s="11" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="10"/>
       <c r="B41" s="11" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
@@ -6112,7 +6129,7 @@
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="10"/>
       <c r="B44" s="12" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -6124,27 +6141,27 @@
     <row r="46" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="B47" s="6" t="s">
         <v>562</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="10"/>
       <c r="B48" s="11" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="10"/>
       <c r="B49" s="11" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="7" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>225</v>
@@ -6153,28 +6170,28 @@
     <row r="52" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="10"/>
       <c r="B54" s="15" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="10"/>
       <c r="B55" s="15" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="10"/>
       <c r="B56" s="15" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
@@ -6183,7 +6200,7 @@
     </row>
     <row r="58" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="7" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B58" s="16" t="s">
         <v>321</v>
@@ -6192,24 +6209,24 @@
     <row r="60" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="B61" s="6" t="s">
         <v>573</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="7" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>48</v>
@@ -6218,33 +6235,33 @@
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="10"/>
       <c r="B65" s="11" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="10" t="s">
+        <v>576</v>
+      </c>
+      <c r="B66" s="11" t="s">
         <v>577</v>
-      </c>
-      <c r="B66" s="11" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="10"/>
       <c r="B67" s="11" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="7"/>
       <c r="B68" s="8" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>183</v>
@@ -6253,27 +6270,27 @@
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="10"/>
       <c r="B71" s="11" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="10"/>
       <c r="B72" s="11" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="10"/>
       <c r="B73" s="11" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="10" t="s">
+        <v>586</v>
+      </c>
+      <c r="B74" s="11" t="s">
         <v>587</v>
-      </c>
-      <c r="B74" s="11" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
@@ -6309,13 +6326,13 @@
     <row r="80" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="7"/>
       <c r="B80" s="8" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="5" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B83" s="6" t="s">
         <v>78</v>
@@ -6323,16 +6340,16 @@
     </row>
     <row r="84" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="B84" s="8" t="s">
         <v>644</v>
-      </c>
-      <c r="B84" s="8" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="5" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B87" s="6" t="s">
         <v>215</v>
@@ -6340,7 +6357,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="10" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B88" s="11" t="s">
         <v>57</v>
@@ -6349,13 +6366,13 @@
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="10"/>
       <c r="B89" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="10"/>
       <c r="B90" s="11" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -6367,7 +6384,7 @@
     <row r="92" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" s="5" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B93" s="6" t="s">
         <v>93</v>
@@ -6382,7 +6399,7 @@
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="10"/>
       <c r="B95" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
@@ -6393,42 +6410,42 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="10" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="10"/>
       <c r="B98" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" s="10"/>
       <c r="B99" s="11" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A100" s="7"/>
       <c r="B100" s="8" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="B103" s="6" t="s">
         <v>654</v>
-      </c>
-      <c r="B103" s="6" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A104" s="7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B104" s="8" t="s">
         <v>35</v>
@@ -6437,24 +6454,24 @@
     <row r="106" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" s="5" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" s="10"/>
       <c r="B108" s="11" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" s="10" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -6466,7 +6483,7 @@
     <row r="112" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" s="5" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B113" s="6" t="s">
         <v>10</v>
@@ -6474,7 +6491,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" s="10" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B114" s="11" t="s">
         <v>188</v>
@@ -6483,16 +6500,16 @@
     <row r="115" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A115" s="7"/>
       <c r="B115" s="8" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" s="5" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
@@ -6503,10 +6520,10 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" s="10" t="s">
+        <v>659</v>
+      </c>
+      <c r="B120" s="11" t="s">
         <v>660</v>
-      </c>
-      <c r="B120" s="11" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
@@ -6518,16 +6535,16 @@
     <row r="122" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A122" s="7"/>
       <c r="B122" s="8" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" s="5" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
@@ -6539,158 +6556,158 @@
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" s="10"/>
       <c r="B126" s="11" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" s="10"/>
       <c r="B127" s="11" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" s="10"/>
       <c r="B128" s="11" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" s="10" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B129" s="11" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" s="10"/>
       <c r="B130" s="11" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A131" s="7"/>
       <c r="B131" s="8" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" s="5" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" s="10"/>
       <c r="B134" s="11" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" s="10"/>
       <c r="B135" s="11" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A136" s="7" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" s="5" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" s="10" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B139" s="11" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A140" s="7"/>
       <c r="B140" s="8" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" s="5" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" s="10"/>
       <c r="B143" s="11" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" s="10"/>
       <c r="B144" s="11" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" s="10"/>
       <c r="B145" s="11" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" s="10" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B146" s="11" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" s="10"/>
       <c r="B147" s="11" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A148" s="7"/>
       <c r="B148" s="8" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" s="5" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" s="10"/>
       <c r="B151" s="11" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" s="10" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B152" s="11" t="s">
         <v>15</v>
@@ -6699,19 +6716,19 @@
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" s="10"/>
       <c r="B153" s="11" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A154" s="7"/>
       <c r="B154" s="8" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" s="5" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B156" s="6" t="s">
         <v>192</v>
@@ -6719,25 +6736,25 @@
     </row>
     <row r="157" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A157" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" s="5" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" s="10"/>
       <c r="B160" s="11" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
@@ -6748,51 +6765,51 @@
     </row>
     <row r="162" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A162" s="7" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" s="5" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" s="10"/>
       <c r="B165" s="11" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" s="10"/>
       <c r="B166" s="11" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B167" s="11" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A168" s="7"/>
       <c r="B168" s="8" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" s="5" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B170" s="6" t="s">
         <v>48</v>
@@ -6801,12 +6818,12 @@
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" s="10"/>
       <c r="B171" s="11" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B172" s="11" t="s">
         <v>352</v>
@@ -6815,65 +6832,65 @@
     <row r="173" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A173" s="7"/>
       <c r="B173" s="8" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" s="5" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" s="10" t="s">
+        <v>690</v>
+      </c>
+      <c r="B176" s="11" t="s">
         <v>691</v>
-      </c>
-      <c r="B176" s="11" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A177" s="7"/>
       <c r="B177" s="8" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" s="5" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" s="10"/>
       <c r="B180" s="11" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" s="10"/>
       <c r="B181" s="11" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" s="10"/>
       <c r="B182" s="11" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" s="10" t="s">
+        <v>695</v>
+      </c>
+      <c r="B183" s="11" t="s">
         <v>696</v>
-      </c>
-      <c r="B183" s="11" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -6885,18 +6902,18 @@
     <row r="185" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" s="5" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" s="10" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B187" s="11" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -6908,10 +6925,10 @@
     <row r="189" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" s="5" t="s">
+        <v>703</v>
+      </c>
+      <c r="B190" s="6" t="s">
         <v>704</v>
-      </c>
-      <c r="B190" s="6" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.35">
@@ -6923,30 +6940,30 @@
     <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" s="10"/>
       <c r="B192" s="11" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" s="10"/>
       <c r="B193" s="11" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" s="10"/>
       <c r="B194" s="11" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" s="10"/>
       <c r="B195" s="11" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" s="10" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B196" s="11" t="s">
         <v>219</v>
@@ -6955,37 +6972,37 @@
     <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" s="10"/>
       <c r="B197" s="11" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" s="10"/>
       <c r="B198" s="11" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" s="10"/>
       <c r="B199" s="11" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" s="10"/>
       <c r="B200" s="11" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="201" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A201" s="7"/>
       <c r="B201" s="8" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203" s="5" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B203" s="6" t="s">
         <v>214</v>
@@ -6993,7 +7010,7 @@
     </row>
     <row r="204" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A204" s="7" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B204" s="8" t="s">
         <v>179</v>
@@ -7002,27 +7019,27 @@
     <row r="205" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206" s="5" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207" s="10"/>
       <c r="B207" s="11" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208" s="10"/>
       <c r="B208" s="11" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="209" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A209" s="7" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B209" s="8" t="s">
         <v>21</v>
@@ -7031,15 +7048,15 @@
     <row r="210" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211" s="5" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212" s="10" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B212" s="11" t="s">
         <v>27</v>
@@ -7048,24 +7065,53 @@
     <row r="213" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A213" s="7"/>
       <c r="B213" s="8" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="214" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215" s="5" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="216" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A216" s="7" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B216" s="8" t="s">
         <v>333</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A218" s="5" t="s">
+        <v>719</v>
+      </c>
+      <c r="B218" s="6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A219" s="10"/>
+      <c r="B219" s="11" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A220" s="10" t="s">
+        <v>720</v>
+      </c>
+      <c r="B220" s="11" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A221" s="7"/>
+      <c r="B221" s="8" t="s">
+        <v>721</v>
       </c>
     </row>
   </sheetData>

--- a/OffSeason.xlsx
+++ b/OffSeason.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="724">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="741">
   <si>
     <t>Chubber for Chubb - John Olson</t>
   </si>
@@ -2069,15 +2069,9 @@
     <t xml:space="preserve">2020 2.8 </t>
   </si>
   <si>
-    <t>John via Vanja via Ben via Patrick</t>
-  </si>
-  <si>
     <t>Vanja via John via Vanja via John via AdamW</t>
   </si>
   <si>
-    <t>Ben via Vanja via John via Alan</t>
-  </si>
-  <si>
     <t>2021 1(John)</t>
   </si>
   <si>
@@ -2199,6 +2193,63 @@
   </si>
   <si>
     <t>2020 5th Slick Daddy Club</t>
+  </si>
+  <si>
+    <t>2020 2 lottery</t>
+  </si>
+  <si>
+    <t>2021 1 Vanja</t>
+  </si>
+  <si>
+    <t>2021 2 (Ben)</t>
+  </si>
+  <si>
+    <t>2021 1 MikeW</t>
+  </si>
+  <si>
+    <t>John receives</t>
+  </si>
+  <si>
+    <t>Ben sends</t>
+  </si>
+  <si>
+    <t>2021 1 BenL</t>
+  </si>
+  <si>
+    <t>Ben recives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021 2 early (MikeR) </t>
+  </si>
+  <si>
+    <t>Vanja Receives</t>
+  </si>
+  <si>
+    <t>Josh Allen (DE)</t>
+  </si>
+  <si>
+    <t>Ben via John via Vanja via Ben via Patrick</t>
+  </si>
+  <si>
+    <t>Vanja via Ben via Vanja via John via Alan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cameron </t>
+  </si>
+  <si>
+    <t>2021 1 (cameron)</t>
+  </si>
+  <si>
+    <t>2020 1.07</t>
+  </si>
+  <si>
+    <t>2021 2 (Alan)</t>
+  </si>
+  <si>
+    <t>2021 2 (AdamW)</t>
+  </si>
+  <si>
+    <t>2021 4th Cam</t>
   </si>
 </sst>
 </file>
@@ -2405,7 +2456,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2439,10 +2490,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2457,14 +2506,17 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2749,8 +2801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G15" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I67" sqref="I67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2766,11 +2818,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
       <c r="F1" t="s">
         <v>42</v>
       </c>
@@ -2941,7 +2993,7 @@
       </c>
       <c r="J6" s="24"/>
       <c r="K6" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="N6" s="24"/>
       <c r="O6" t="s">
@@ -2991,7 +3043,7 @@
       </c>
       <c r="B8" s="24"/>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="F8" s="24"/>
       <c r="G8" t="s">
@@ -3020,17 +3072,15 @@
       </c>
       <c r="B9" s="24"/>
       <c r="C9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F9" s="24"/>
       <c r="G9" t="s">
         <v>49</v>
       </c>
-      <c r="J9" s="25" t="s">
-        <v>12</v>
-      </c>
+      <c r="J9" s="24"/>
       <c r="K9" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N9" s="24"/>
       <c r="O9" t="s">
@@ -3049,19 +3099,23 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="24"/>
+      <c r="B10" s="25" t="s">
+        <v>12</v>
+      </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F10" s="25" t="s">
         <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J10" s="25"/>
+        <v>194</v>
+      </c>
+      <c r="J10" s="25" t="s">
+        <v>12</v>
+      </c>
       <c r="K10" t="s">
-        <v>188</v>
+        <v>15</v>
       </c>
       <c r="N10" s="24"/>
       <c r="O10" t="s">
@@ -3082,11 +3136,9 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="25" t="s">
-        <v>12</v>
-      </c>
+      <c r="B11" s="25"/>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F11" s="25"/>
       <c r="G11" t="s">
@@ -3094,7 +3146,7 @@
       </c>
       <c r="J11" s="25"/>
       <c r="K11" t="s">
-        <v>17</v>
+        <v>188</v>
       </c>
       <c r="N11" s="25" t="s">
         <v>12</v>
@@ -3117,7 +3169,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="F12" s="25"/>
       <c r="G12" t="s">
@@ -3125,7 +3177,7 @@
       </c>
       <c r="J12" s="25"/>
       <c r="K12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="N12" s="25"/>
       <c r="O12" t="s">
@@ -3146,7 +3198,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F13" s="25"/>
       <c r="G13" t="s">
@@ -3154,7 +3206,7 @@
       </c>
       <c r="J13" s="25"/>
       <c r="K13" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="N13" s="25"/>
       <c r="O13" t="s">
@@ -3177,7 +3229,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F14" s="25"/>
       <c r="G14" t="s">
@@ -3185,7 +3237,7 @@
       </c>
       <c r="J14" s="25"/>
       <c r="K14" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="N14" s="25"/>
       <c r="O14" t="s">
@@ -3206,7 +3258,7 @@
       </c>
       <c r="B15" s="25"/>
       <c r="C15" t="s">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="F15" s="25"/>
       <c r="G15" t="s">
@@ -3214,7 +3266,7 @@
       </c>
       <c r="J15" s="25"/>
       <c r="K15" t="s">
-        <v>194</v>
+        <v>22</v>
       </c>
       <c r="N15" s="25"/>
       <c r="O15" t="s">
@@ -3233,13 +3285,13 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="22" t="s">
         <v>18</v>
       </c>
       <c r="C16" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="21" t="s">
+      <c r="F16" s="22" t="s">
         <v>18</v>
       </c>
       <c r="G16" t="s">
@@ -3266,21 +3318,21 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="21"/>
+      <c r="B17" s="22"/>
       <c r="C17" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="21"/>
+      <c r="F17" s="22"/>
       <c r="G17" t="s">
         <v>62</v>
       </c>
-      <c r="J17" s="21" t="s">
+      <c r="J17" s="22" t="s">
         <v>18</v>
       </c>
       <c r="K17" t="s">
         <v>95</v>
       </c>
-      <c r="N17" s="21" t="s">
+      <c r="N17" s="22" t="s">
         <v>18</v>
       </c>
       <c r="O17" t="s">
@@ -3299,19 +3351,19 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="21"/>
+      <c r="B18" s="22"/>
       <c r="C18" t="s">
         <v>96</v>
       </c>
-      <c r="F18" s="21"/>
+      <c r="F18" s="22"/>
       <c r="G18" t="s">
         <v>63</v>
       </c>
-      <c r="J18" s="21"/>
+      <c r="J18" s="22"/>
       <c r="K18" t="s">
         <v>98</v>
       </c>
-      <c r="N18" s="21"/>
+      <c r="N18" s="22"/>
       <c r="O18" t="s">
         <v>127</v>
       </c>
@@ -3328,23 +3380,23 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="27" t="s">
         <v>24</v>
       </c>
       <c r="C19" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="22" t="s">
+      <c r="F19" s="27" t="s">
         <v>24</v>
       </c>
       <c r="G19" t="s">
         <v>64</v>
       </c>
-      <c r="J19" s="21"/>
+      <c r="J19" s="22"/>
       <c r="K19" t="s">
         <v>333</v>
       </c>
-      <c r="N19" s="22" t="s">
+      <c r="N19" s="27" t="s">
         <v>24</v>
       </c>
       <c r="O19" t="s">
@@ -3363,25 +3415,25 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="22"/>
+      <c r="B20" s="27"/>
       <c r="C20" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="22"/>
+      <c r="F20" s="27"/>
       <c r="G20" t="s">
         <v>65</v>
       </c>
-      <c r="J20" s="22" t="s">
+      <c r="J20" s="27" t="s">
         <v>24</v>
       </c>
       <c r="K20" t="s">
         <v>99</v>
       </c>
-      <c r="N20" s="22"/>
+      <c r="N20" s="27"/>
       <c r="O20" t="s">
         <v>129</v>
       </c>
-      <c r="R20" s="21" t="s">
+      <c r="R20" s="22" t="s">
         <v>18</v>
       </c>
       <c r="S20" t="s">
@@ -3396,23 +3448,23 @@
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="22"/>
+      <c r="B21" s="27"/>
       <c r="C21" t="s">
         <v>100</v>
       </c>
-      <c r="F21" s="22"/>
+      <c r="F21" s="27"/>
       <c r="G21" t="s">
         <v>66</v>
       </c>
-      <c r="J21" s="22"/>
+      <c r="J21" s="27"/>
       <c r="K21" t="s">
         <v>28</v>
       </c>
-      <c r="N21" s="22"/>
+      <c r="N21" s="27"/>
       <c r="O21" t="s">
         <v>130</v>
       </c>
-      <c r="R21" s="21"/>
+      <c r="R21" s="22"/>
       <c r="S21" t="s">
         <v>163</v>
       </c>
@@ -3431,19 +3483,19 @@
       <c r="C22" t="s">
         <v>31</v>
       </c>
-      <c r="F22" s="22"/>
+      <c r="F22" s="27"/>
       <c r="G22" t="s">
         <v>67</v>
       </c>
-      <c r="J22" s="22"/>
+      <c r="J22" s="27"/>
       <c r="K22" t="s">
         <v>29</v>
       </c>
-      <c r="N22" s="22"/>
+      <c r="N22" s="27"/>
       <c r="O22" t="s">
         <v>131</v>
       </c>
-      <c r="R22" s="22" t="s">
+      <c r="R22" s="27" t="s">
         <v>24</v>
       </c>
       <c r="S22" t="s">
@@ -3468,19 +3520,19 @@
       <c r="G23" t="s">
         <v>69</v>
       </c>
-      <c r="J23" s="22"/>
+      <c r="J23" s="27"/>
       <c r="K23" t="s">
         <v>27</v>
       </c>
-      <c r="N23" s="22"/>
+      <c r="N23" s="27"/>
       <c r="O23" t="s">
         <v>132</v>
       </c>
-      <c r="R23" s="22"/>
+      <c r="R23" s="27"/>
       <c r="S23" t="s">
         <v>165</v>
       </c>
-      <c r="V23" s="21" t="s">
+      <c r="V23" s="22" t="s">
         <v>18</v>
       </c>
       <c r="W23" t="s">
@@ -3511,11 +3563,11 @@
       <c r="O24" t="s">
         <v>133</v>
       </c>
-      <c r="R24" s="22"/>
+      <c r="R24" s="27"/>
       <c r="S24" t="s">
         <v>166</v>
       </c>
-      <c r="V24" s="21"/>
+      <c r="V24" s="22"/>
       <c r="W24" t="s">
         <v>198</v>
       </c>
@@ -3524,11 +3576,9 @@
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="27" t="s">
-        <v>36</v>
-      </c>
+      <c r="B25" s="26"/>
       <c r="C25" t="s">
-        <v>37</v>
+        <v>104</v>
       </c>
       <c r="F25" s="26"/>
       <c r="G25" t="s">
@@ -3536,17 +3586,17 @@
       </c>
       <c r="J25" s="26"/>
       <c r="K25" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N25" s="26"/>
       <c r="O25" t="s">
         <v>134</v>
       </c>
-      <c r="R25" s="22"/>
+      <c r="R25" s="27"/>
       <c r="S25" t="s">
         <v>167</v>
       </c>
-      <c r="V25" s="21"/>
+      <c r="V25" s="22"/>
       <c r="W25" t="s">
         <v>199</v>
       </c>
@@ -3555,9 +3605,11 @@
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="27"/>
+      <c r="B26" s="28" t="s">
+        <v>36</v>
+      </c>
       <c r="C26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F26" s="26"/>
       <c r="G26" t="s">
@@ -3565,7 +3617,7 @@
       </c>
       <c r="J26" s="26"/>
       <c r="K26" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N26" s="26"/>
       <c r="O26" t="s">
@@ -3577,7 +3629,7 @@
       <c r="S26" t="s">
         <v>168</v>
       </c>
-      <c r="V26" s="22" t="s">
+      <c r="V26" s="27" t="s">
         <v>24</v>
       </c>
       <c r="W26" t="s">
@@ -3588,19 +3640,21 @@
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="27"/>
+      <c r="B27" s="28"/>
       <c r="C27" t="s">
-        <v>39</v>
-      </c>
-      <c r="F27" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" s="28" t="s">
         <v>36</v>
       </c>
       <c r="G27" t="s">
         <v>72</v>
       </c>
-      <c r="J27" s="26"/>
+      <c r="J27" s="28" t="s">
+        <v>36</v>
+      </c>
       <c r="K27" t="s">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c r="N27" s="26"/>
       <c r="O27" t="s">
@@ -3610,7 +3664,7 @@
       <c r="S27" t="s">
         <v>169</v>
       </c>
-      <c r="V27" s="22"/>
+      <c r="V27" s="27"/>
       <c r="W27" t="s">
         <v>201</v>
       </c>
@@ -3619,19 +3673,17 @@
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="27"/>
+      <c r="B28" s="28"/>
       <c r="C28" t="s">
-        <v>107</v>
-      </c>
-      <c r="F28" s="27"/>
+        <v>39</v>
+      </c>
+      <c r="F28" s="28"/>
       <c r="G28" t="s">
         <v>73</v>
       </c>
-      <c r="J28" s="27" t="s">
-        <v>36</v>
-      </c>
+      <c r="J28" s="28"/>
       <c r="K28" t="s">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="N28" s="26"/>
       <c r="O28" t="s">
@@ -3641,7 +3693,7 @@
       <c r="S28" t="s">
         <v>170</v>
       </c>
-      <c r="V28" s="22"/>
+      <c r="V28" s="27"/>
       <c r="W28" t="s">
         <v>202</v>
       </c>
@@ -3650,13 +3702,17 @@
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="F29" s="27"/>
+      <c r="B29" s="28"/>
+      <c r="C29" t="s">
+        <v>107</v>
+      </c>
+      <c r="F29" s="28"/>
       <c r="G29" t="s">
         <v>74</v>
       </c>
-      <c r="J29" s="27"/>
+      <c r="J29" s="28"/>
       <c r="K29" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="N29" s="26"/>
       <c r="O29" t="s">
@@ -3666,7 +3722,7 @@
       <c r="S29" t="s">
         <v>171</v>
       </c>
-      <c r="V29" s="22"/>
+      <c r="V29" s="27"/>
       <c r="W29" t="s">
         <v>203</v>
       </c>
@@ -3675,15 +3731,15 @@
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="F30" s="27"/>
+      <c r="F30" s="28"/>
       <c r="G30" t="s">
         <v>75</v>
       </c>
-      <c r="J30" s="27"/>
+      <c r="J30" s="28"/>
       <c r="K30" t="s">
-        <v>110</v>
-      </c>
-      <c r="N30" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="N30" s="28" t="s">
         <v>36</v>
       </c>
       <c r="O30" t="s">
@@ -3704,19 +3760,15 @@
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="F31" s="27"/>
+      <c r="F31" s="28"/>
       <c r="G31" t="s">
         <v>275</v>
       </c>
-      <c r="J31" s="27"/>
-      <c r="K31" t="s">
-        <v>41</v>
-      </c>
-      <c r="N31" s="27"/>
+      <c r="N31" s="28"/>
       <c r="O31" t="s">
         <v>140</v>
       </c>
-      <c r="R31" s="27" t="s">
+      <c r="R31" s="28" t="s">
         <v>36</v>
       </c>
       <c r="S31" t="s">
@@ -3728,11 +3780,11 @@
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="N32" s="27"/>
+      <c r="N32" s="28"/>
       <c r="O32" t="s">
         <v>141</v>
       </c>
-      <c r="R32" s="27"/>
+      <c r="R32" s="28"/>
       <c r="S32" t="s">
         <v>174</v>
       </c>
@@ -3742,11 +3794,11 @@
       </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="N33" s="27"/>
+      <c r="N33" s="28"/>
       <c r="O33" t="s">
         <v>142</v>
       </c>
-      <c r="R33" s="27"/>
+      <c r="R33" s="28"/>
       <c r="S33" t="s">
         <v>175</v>
       </c>
@@ -3756,7 +3808,7 @@
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="R34" s="27"/>
+      <c r="R34" s="28"/>
       <c r="S34" t="s">
         <v>176</v>
       </c>
@@ -3766,7 +3818,7 @@
       </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="V35" s="27" t="s">
+      <c r="V35" s="28" t="s">
         <v>36</v>
       </c>
       <c r="W35" t="s">
@@ -3774,13 +3826,13 @@
       </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="V36" s="27"/>
+      <c r="V36" s="28"/>
       <c r="W36" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="V37" s="27"/>
+      <c r="V37" s="28"/>
       <c r="W37" t="s">
         <v>211</v>
       </c>
@@ -4321,13 +4373,13 @@
       <c r="G60" t="s">
         <v>260</v>
       </c>
-      <c r="J60" s="21" t="s">
+      <c r="J60" s="22" t="s">
         <v>18</v>
       </c>
       <c r="K60" t="s">
         <v>296</v>
       </c>
-      <c r="N60" s="21" t="s">
+      <c r="N60" s="22" t="s">
         <v>18</v>
       </c>
       <c r="O60" t="s">
@@ -4337,7 +4389,7 @@
       <c r="S60" t="s">
         <v>192</v>
       </c>
-      <c r="V60" s="21" t="s">
+      <c r="V60" s="22" t="s">
         <v>18</v>
       </c>
       <c r="W60" t="s">
@@ -4356,11 +4408,11 @@
       <c r="G61" t="s">
         <v>92</v>
       </c>
-      <c r="J61" s="21"/>
+      <c r="J61" s="22"/>
       <c r="K61" t="s">
         <v>297</v>
       </c>
-      <c r="N61" s="21"/>
+      <c r="N61" s="22"/>
       <c r="O61" t="s">
         <v>332</v>
       </c>
@@ -4370,7 +4422,7 @@
       <c r="S61" t="s">
         <v>363</v>
       </c>
-      <c r="V61" s="21"/>
+      <c r="V61" s="22"/>
       <c r="W61" t="s">
         <v>395</v>
       </c>
@@ -4379,7 +4431,7 @@
       <c r="A62" s="1">
         <v>19</v>
       </c>
-      <c r="B62" s="21" t="s">
+      <c r="B62" s="22" t="s">
         <v>18</v>
       </c>
       <c r="C62" t="s">
@@ -4389,21 +4441,21 @@
       <c r="G62" t="s">
         <v>259</v>
       </c>
-      <c r="J62" s="21"/>
+      <c r="J62" s="22"/>
       <c r="K62" t="s">
         <v>298</v>
       </c>
-      <c r="N62" s="21"/>
+      <c r="N62" s="22"/>
       <c r="O62" t="s">
         <v>334</v>
       </c>
-      <c r="R62" s="22" t="s">
+      <c r="R62" s="27" t="s">
         <v>24</v>
       </c>
       <c r="S62" t="s">
         <v>364</v>
       </c>
-      <c r="V62" s="21"/>
+      <c r="V62" s="22"/>
       <c r="W62" t="s">
         <v>396</v>
       </c>
@@ -4412,31 +4464,31 @@
       <c r="A63" s="1">
         <v>20</v>
       </c>
-      <c r="B63" s="21"/>
+      <c r="B63" s="22"/>
       <c r="C63" t="s">
         <v>230</v>
       </c>
-      <c r="F63" s="21" t="s">
+      <c r="F63" s="22" t="s">
         <v>18</v>
       </c>
       <c r="G63" t="s">
         <v>264</v>
       </c>
-      <c r="J63" s="22" t="s">
+      <c r="J63" s="27" t="s">
         <v>24</v>
       </c>
       <c r="K63" t="s">
         <v>299</v>
       </c>
-      <c r="N63" s="21"/>
+      <c r="N63" s="22"/>
       <c r="O63" t="s">
         <v>335</v>
       </c>
-      <c r="R63" s="22"/>
+      <c r="R63" s="27"/>
       <c r="S63" t="s">
         <v>365</v>
       </c>
-      <c r="V63" s="21"/>
+      <c r="V63" s="22"/>
       <c r="W63" t="s">
         <v>397</v>
       </c>
@@ -4445,29 +4497,29 @@
       <c r="A64" s="1">
         <v>21</v>
       </c>
-      <c r="B64" s="21"/>
+      <c r="B64" s="22"/>
       <c r="C64" t="s">
         <v>231</v>
       </c>
-      <c r="F64" s="21"/>
+      <c r="F64" s="22"/>
       <c r="G64" t="s">
         <v>265</v>
       </c>
-      <c r="J64" s="22"/>
+      <c r="J64" s="27"/>
       <c r="K64" t="s">
         <v>300</v>
       </c>
-      <c r="N64" s="22" t="s">
+      <c r="N64" s="27" t="s">
         <v>24</v>
       </c>
       <c r="O64" t="s">
         <v>336</v>
       </c>
-      <c r="R64" s="22"/>
+      <c r="R64" s="27"/>
       <c r="S64" t="s">
         <v>366</v>
       </c>
-      <c r="V64" s="22" t="s">
+      <c r="V64" s="27" t="s">
         <v>24</v>
       </c>
       <c r="W64" t="s">
@@ -4478,27 +4530,27 @@
       <c r="A65" s="1">
         <v>22</v>
       </c>
-      <c r="B65" s="21"/>
+      <c r="B65" s="22"/>
       <c r="C65" t="s">
         <v>232</v>
       </c>
-      <c r="F65" s="21"/>
+      <c r="F65" s="22"/>
       <c r="G65" t="s">
         <v>97</v>
       </c>
-      <c r="J65" s="22"/>
+      <c r="J65" s="27"/>
       <c r="K65" t="s">
         <v>301</v>
       </c>
-      <c r="N65" s="22"/>
+      <c r="N65" s="27"/>
       <c r="O65" t="s">
         <v>337</v>
       </c>
-      <c r="R65" s="22"/>
+      <c r="R65" s="27"/>
       <c r="S65" t="s">
         <v>367</v>
       </c>
-      <c r="V65" s="22"/>
+      <c r="V65" s="27"/>
       <c r="W65" t="s">
         <v>399</v>
       </c>
@@ -4507,27 +4559,27 @@
       <c r="A66" s="1">
         <v>23</v>
       </c>
-      <c r="B66" s="21"/>
+      <c r="B66" s="22"/>
       <c r="C66" t="s">
         <v>61</v>
       </c>
-      <c r="F66" s="21"/>
+      <c r="F66" s="22"/>
       <c r="G66" t="s">
         <v>266</v>
       </c>
-      <c r="J66" s="22"/>
+      <c r="J66" s="27"/>
       <c r="K66" t="s">
         <v>302</v>
       </c>
-      <c r="N66" s="22"/>
+      <c r="N66" s="27"/>
       <c r="O66" t="s">
         <v>338</v>
       </c>
-      <c r="R66" s="22"/>
+      <c r="R66" s="27"/>
       <c r="S66" t="s">
         <v>368</v>
       </c>
-      <c r="V66" s="22"/>
+      <c r="V66" s="27"/>
       <c r="W66" t="s">
         <v>400</v>
       </c>
@@ -4536,19 +4588,19 @@
       <c r="A67" s="1">
         <v>24</v>
       </c>
-      <c r="B67" s="21"/>
+      <c r="B67" s="22"/>
       <c r="C67" t="s">
         <v>267</v>
       </c>
-      <c r="F67" s="21"/>
+      <c r="F67" s="22"/>
       <c r="G67" t="s">
         <v>21</v>
       </c>
-      <c r="J67" s="22"/>
+      <c r="J67" s="27"/>
       <c r="K67" t="s">
         <v>303</v>
       </c>
-      <c r="N67" s="22"/>
+      <c r="N67" s="27"/>
       <c r="O67" t="s">
         <v>342</v>
       </c>
@@ -4558,7 +4610,7 @@
       <c r="S67" t="s">
         <v>369</v>
       </c>
-      <c r="V67" s="22"/>
+      <c r="V67" s="27"/>
       <c r="W67" t="s">
         <v>401</v>
       </c>
@@ -4567,19 +4619,19 @@
       <c r="A68" s="1">
         <v>25</v>
       </c>
-      <c r="B68" s="22" t="s">
+      <c r="B68" s="27" t="s">
         <v>24</v>
       </c>
       <c r="C68" t="s">
         <v>102</v>
       </c>
-      <c r="F68" s="22" t="s">
+      <c r="F68" s="27" t="s">
         <v>24</v>
       </c>
       <c r="G68" t="s">
         <v>268</v>
       </c>
-      <c r="J68" s="22"/>
+      <c r="J68" s="27"/>
       <c r="K68" t="s">
         <v>304</v>
       </c>
@@ -4604,15 +4656,15 @@
       <c r="A69" s="1">
         <v>26</v>
       </c>
-      <c r="B69" s="22"/>
+      <c r="B69" s="27"/>
       <c r="C69" t="s">
         <v>234</v>
       </c>
-      <c r="F69" s="22"/>
+      <c r="F69" s="27"/>
       <c r="G69" t="s">
         <v>269</v>
       </c>
-      <c r="J69" s="22"/>
+      <c r="J69" s="27"/>
       <c r="K69" t="s">
         <v>305</v>
       </c>
@@ -4633,11 +4685,11 @@
       <c r="A70" s="1">
         <v>27</v>
       </c>
-      <c r="B70" s="22"/>
+      <c r="B70" s="27"/>
       <c r="C70" t="s">
         <v>235</v>
       </c>
-      <c r="F70" s="22"/>
+      <c r="F70" s="27"/>
       <c r="G70" t="s">
         <v>270</v>
       </c>
@@ -4664,11 +4716,11 @@
       <c r="A71" s="1">
         <v>28</v>
       </c>
-      <c r="B71" s="22"/>
+      <c r="B71" s="27"/>
       <c r="C71" t="s">
         <v>236</v>
       </c>
-      <c r="F71" s="22"/>
+      <c r="F71" s="27"/>
       <c r="G71" t="s">
         <v>101</v>
       </c>
@@ -4680,7 +4732,7 @@
       <c r="O71" t="s">
         <v>343</v>
       </c>
-      <c r="R71" s="27" t="s">
+      <c r="R71" s="28" t="s">
         <v>36</v>
       </c>
       <c r="S71" t="s">
@@ -4695,7 +4747,7 @@
       <c r="A72" s="1">
         <v>29</v>
       </c>
-      <c r="B72" s="22"/>
+      <c r="B72" s="27"/>
       <c r="C72" t="s">
         <v>237</v>
       </c>
@@ -4703,19 +4755,17 @@
         <v>30</v>
       </c>
       <c r="G72" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="J72" s="26"/>
       <c r="K72" t="s">
         <v>308</v>
       </c>
-      <c r="N72" s="27" t="s">
-        <v>36</v>
-      </c>
+      <c r="N72" s="26"/>
       <c r="O72" t="s">
-        <v>344</v>
-      </c>
-      <c r="R72" s="27"/>
+        <v>271</v>
+      </c>
+      <c r="R72" s="28"/>
       <c r="S72" t="s">
         <v>374</v>
       </c>
@@ -4728,27 +4778,29 @@
       <c r="A73" s="1">
         <v>30</v>
       </c>
-      <c r="B73" s="22"/>
+      <c r="B73" s="27"/>
       <c r="C73" t="s">
         <v>238</v>
       </c>
       <c r="F73" s="26"/>
       <c r="G73" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="J73" s="26"/>
       <c r="K73" t="s">
         <v>309</v>
       </c>
-      <c r="N73" s="27"/>
+      <c r="N73" s="28" t="s">
+        <v>36</v>
+      </c>
       <c r="O73" t="s">
-        <v>345</v>
-      </c>
-      <c r="R73" s="27"/>
+        <v>344</v>
+      </c>
+      <c r="R73" s="28"/>
       <c r="S73" t="s">
         <v>375</v>
       </c>
-      <c r="V73" s="27" t="s">
+      <c r="V73" s="28" t="s">
         <v>36</v>
       </c>
       <c r="W73" t="s">
@@ -4764,23 +4816,23 @@
       </c>
       <c r="F74" s="26"/>
       <c r="G74" t="s">
-        <v>273</v>
-      </c>
-      <c r="J74" s="27" t="s">
+        <v>274</v>
+      </c>
+      <c r="J74" s="28" t="s">
         <v>36</v>
       </c>
       <c r="K74" t="s">
         <v>310</v>
       </c>
-      <c r="N74" s="27"/>
+      <c r="N74" s="28"/>
       <c r="O74" t="s">
-        <v>346</v>
-      </c>
-      <c r="R74" s="27"/>
+        <v>345</v>
+      </c>
+      <c r="R74" s="28"/>
       <c r="S74" t="s">
         <v>376</v>
       </c>
-      <c r="V74" s="27"/>
+      <c r="V74" s="28"/>
       <c r="W74" t="s">
         <v>408</v>
       </c>
@@ -4790,23 +4842,25 @@
       <c r="C75" t="s">
         <v>239</v>
       </c>
-      <c r="F75" s="26"/>
+      <c r="F75" s="28" t="s">
+        <v>36</v>
+      </c>
       <c r="G75" t="s">
-        <v>274</v>
-      </c>
-      <c r="J75" s="27"/>
+        <v>276</v>
+      </c>
+      <c r="J75" s="28"/>
       <c r="K75" t="s">
         <v>311</v>
       </c>
-      <c r="N75" s="27"/>
+      <c r="N75" s="28"/>
       <c r="O75" t="s">
-        <v>347</v>
-      </c>
-      <c r="R75" s="27"/>
+        <v>346</v>
+      </c>
+      <c r="R75" s="28"/>
       <c r="S75" t="s">
         <v>377</v>
       </c>
-      <c r="V75" s="27"/>
+      <c r="V75" s="28"/>
       <c r="W75" t="s">
         <v>409</v>
       </c>
@@ -4816,17 +4870,19 @@
       <c r="C76" t="s">
         <v>240</v>
       </c>
-      <c r="F76" s="27" t="s">
-        <v>36</v>
-      </c>
+      <c r="F76" s="28"/>
       <c r="G76" t="s">
-        <v>276</v>
-      </c>
-      <c r="J76" s="27"/>
+        <v>277</v>
+      </c>
+      <c r="J76" s="28"/>
       <c r="K76" t="s">
         <v>312</v>
       </c>
-      <c r="V76" s="27"/>
+      <c r="N76" s="28"/>
+      <c r="O76" t="s">
+        <v>347</v>
+      </c>
+      <c r="V76" s="28"/>
       <c r="W76" t="s">
         <v>410</v>
       </c>
@@ -4836,81 +4892,92 @@
       <c r="C77" t="s">
         <v>241</v>
       </c>
-      <c r="F77" s="27"/>
+      <c r="F77" s="28"/>
       <c r="G77" t="s">
-        <v>277</v>
-      </c>
-      <c r="J77" s="27"/>
+        <v>278</v>
+      </c>
+      <c r="J77" s="28"/>
       <c r="K77" t="s">
         <v>313</v>
       </c>
-      <c r="V77" s="27"/>
+      <c r="V77" s="28"/>
       <c r="W77" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B78" s="27" t="s">
+      <c r="B78" s="28" t="s">
         <v>36</v>
       </c>
       <c r="C78" t="s">
         <v>109</v>
       </c>
-      <c r="F78" s="27"/>
+      <c r="F78" s="28"/>
       <c r="G78" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B79" s="27"/>
+      <c r="B79" s="28"/>
       <c r="C79" t="s">
         <v>242</v>
       </c>
-      <c r="F79" s="27"/>
-      <c r="G79" t="s">
-        <v>279</v>
-      </c>
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B80" s="27"/>
+      <c r="B80" s="28"/>
       <c r="C80" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B81" s="27"/>
+      <c r="B81" s="28"/>
       <c r="C81" t="s">
         <v>244</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="85">
-    <mergeCell ref="V73:V77"/>
-    <mergeCell ref="V35:V37"/>
+    <mergeCell ref="F72:F74"/>
+    <mergeCell ref="N68:N72"/>
+    <mergeCell ref="V2:V4"/>
+    <mergeCell ref="V13:V22"/>
+    <mergeCell ref="J10:J16"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="F75:F78"/>
+    <mergeCell ref="J70:J73"/>
+    <mergeCell ref="J74:J77"/>
+    <mergeCell ref="N44:N46"/>
+    <mergeCell ref="N47:N49"/>
+    <mergeCell ref="N64:N67"/>
+    <mergeCell ref="N73:N76"/>
+    <mergeCell ref="N50:N59"/>
+    <mergeCell ref="J60:J62"/>
+    <mergeCell ref="J50:J59"/>
+    <mergeCell ref="J63:J69"/>
+    <mergeCell ref="N60:N63"/>
     <mergeCell ref="B47:B52"/>
     <mergeCell ref="B53:B61"/>
-    <mergeCell ref="B62:B67"/>
-    <mergeCell ref="F47:F54"/>
-    <mergeCell ref="F55:F62"/>
-    <mergeCell ref="F63:F67"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="J2:J3"/>
     <mergeCell ref="B2:B4"/>
-    <mergeCell ref="J4:J8"/>
-    <mergeCell ref="J9:J16"/>
-    <mergeCell ref="F10:F15"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="F6:F9"/>
     <mergeCell ref="F2:F5"/>
     <mergeCell ref="F16:F18"/>
     <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="J20:J23"/>
-    <mergeCell ref="J24:J27"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="F27:F31"/>
-    <mergeCell ref="R53:R60"/>
-    <mergeCell ref="V13:V22"/>
+    <mergeCell ref="N4:N10"/>
+    <mergeCell ref="N11:N16"/>
+    <mergeCell ref="R44:R47"/>
+    <mergeCell ref="J27:J30"/>
+    <mergeCell ref="N24:N29"/>
+    <mergeCell ref="N30:N33"/>
+    <mergeCell ref="R26:R30"/>
+    <mergeCell ref="J44:J46"/>
+    <mergeCell ref="J47:J49"/>
+    <mergeCell ref="R22:R25"/>
+    <mergeCell ref="N19:N23"/>
     <mergeCell ref="V68:V72"/>
     <mergeCell ref="R67:R70"/>
     <mergeCell ref="R71:R75"/>
@@ -4924,52 +4991,37 @@
     <mergeCell ref="R62:R66"/>
     <mergeCell ref="V30:V34"/>
     <mergeCell ref="R48:R52"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B5:B10"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="B11:B15"/>
-    <mergeCell ref="R44:R47"/>
-    <mergeCell ref="J28:J31"/>
-    <mergeCell ref="N24:N29"/>
-    <mergeCell ref="N30:N33"/>
-    <mergeCell ref="R26:R30"/>
-    <mergeCell ref="J44:J46"/>
-    <mergeCell ref="J47:J49"/>
-    <mergeCell ref="R22:R25"/>
-    <mergeCell ref="N19:N23"/>
-    <mergeCell ref="F44:F46"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="F72:F75"/>
+    <mergeCell ref="V73:V77"/>
+    <mergeCell ref="V35:V37"/>
+    <mergeCell ref="R53:R60"/>
+    <mergeCell ref="V26:V29"/>
+    <mergeCell ref="J20:J23"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="F27:F31"/>
+    <mergeCell ref="V23:V25"/>
+    <mergeCell ref="R20:R21"/>
+    <mergeCell ref="R10:R19"/>
+    <mergeCell ref="V5:V12"/>
+    <mergeCell ref="F10:F15"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="R4:R9"/>
+    <mergeCell ref="B10:B15"/>
     <mergeCell ref="F68:F71"/>
     <mergeCell ref="B68:B73"/>
     <mergeCell ref="B74:B77"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="F76:F79"/>
-    <mergeCell ref="J70:J73"/>
-    <mergeCell ref="J74:J77"/>
-    <mergeCell ref="N44:N46"/>
-    <mergeCell ref="N47:N49"/>
-    <mergeCell ref="N64:N67"/>
-    <mergeCell ref="N68:N71"/>
-    <mergeCell ref="N72:N75"/>
-    <mergeCell ref="N50:N59"/>
-    <mergeCell ref="J60:J62"/>
-    <mergeCell ref="J50:J59"/>
-    <mergeCell ref="J63:J69"/>
-    <mergeCell ref="N60:N63"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="N4:N10"/>
-    <mergeCell ref="N11:N16"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="V23:V25"/>
-    <mergeCell ref="R20:R21"/>
-    <mergeCell ref="V26:V29"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="R4:R9"/>
-    <mergeCell ref="R10:R19"/>
-    <mergeCell ref="V5:V12"/>
-    <mergeCell ref="V2:V4"/>
+    <mergeCell ref="B62:B67"/>
+    <mergeCell ref="F47:F54"/>
+    <mergeCell ref="F55:F62"/>
+    <mergeCell ref="F63:F67"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="J4:J9"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="J24:J26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -4980,8 +5032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z50"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5038,19 +5090,19 @@
         <v>415</v>
       </c>
       <c r="B2" t="s">
-        <v>495</v>
+        <v>525</v>
       </c>
       <c r="E2" t="s">
-        <v>553</v>
+        <v>414</v>
       </c>
       <c r="F2" t="s">
-        <v>490</v>
+        <v>505</v>
       </c>
       <c r="J2" t="s">
         <v>554</v>
       </c>
       <c r="K2" t="s">
-        <v>505</v>
+        <v>520</v>
       </c>
       <c r="O2" t="s">
         <v>635</v>
@@ -5065,30 +5117,27 @@
         <v>530</v>
       </c>
       <c r="X2" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="Y2" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>588</v>
-      </c>
       <c r="B3" t="s">
         <v>500</v>
       </c>
       <c r="E3" t="s">
-        <v>414</v>
+        <v>588</v>
       </c>
       <c r="F3" t="s">
-        <v>525</v>
+        <v>496</v>
       </c>
       <c r="J3" t="s">
-        <v>413</v>
+        <v>615</v>
       </c>
       <c r="K3" t="s">
-        <v>506</v>
+        <v>526</v>
       </c>
       <c r="O3" t="s">
         <v>636</v>
@@ -5111,19 +5160,19 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>535</v>
+        <v>495</v>
       </c>
       <c r="E4" t="s">
-        <v>589</v>
+        <v>413</v>
       </c>
       <c r="F4" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="J4" t="s">
         <v>599</v>
       </c>
       <c r="K4" t="s">
-        <v>536</v>
+        <v>491</v>
       </c>
       <c r="O4" t="s">
         <v>637</v>
@@ -5149,19 +5198,22 @@
         <v>590</v>
       </c>
       <c r="B5" t="s">
-        <v>527</v>
+        <v>535</v>
+      </c>
+      <c r="E5" t="s">
+        <v>589</v>
       </c>
       <c r="F5" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="G5" t="s">
         <v>566</v>
       </c>
       <c r="J5" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="K5" t="s">
-        <v>501</v>
+        <v>538</v>
       </c>
       <c r="O5" t="s">
         <v>638</v>
@@ -5179,7 +5231,7 @@
         <v>416</v>
       </c>
       <c r="Y5" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.35">
@@ -5187,13 +5239,10 @@
         <v>571</v>
       </c>
       <c r="B6" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="F6" t="s">
-        <v>529</v>
-      </c>
-      <c r="K6" t="s">
-        <v>526</v>
+        <v>494</v>
       </c>
       <c r="P6" t="s">
         <v>519</v>
@@ -5207,43 +5256,43 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>488</v>
+        <v>506</v>
       </c>
       <c r="E7" t="s">
         <v>620</v>
       </c>
       <c r="F7" t="s">
-        <v>688</v>
-      </c>
-      <c r="K7" t="s">
-        <v>491</v>
+        <v>529</v>
       </c>
       <c r="T7" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>527</v>
+      </c>
       <c r="E8" t="s">
         <v>419</v>
       </c>
-      <c r="K8" t="s">
-        <v>496</v>
+      <c r="F8" t="s">
+        <v>686</v>
       </c>
       <c r="T8" t="s">
         <v>625</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="K9" t="s">
-        <v>492</v>
+      <c r="B9" t="s">
+        <v>487</v>
       </c>
       <c r="T9" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="K11" t="s">
-        <v>538</v>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.35">
@@ -5300,7 +5349,7 @@
         <v>424</v>
       </c>
       <c r="P18" t="s">
-        <v>520</v>
+        <v>536</v>
       </c>
       <c r="T18" t="s">
         <v>422</v>
@@ -5335,10 +5384,10 @@
         <v>511</v>
       </c>
       <c r="O19" t="s">
-        <v>612</v>
+        <v>553</v>
       </c>
       <c r="P19" t="s">
-        <v>522</v>
+        <v>501</v>
       </c>
       <c r="T19" t="s">
         <v>604</v>
@@ -5358,13 +5407,13 @@
         <v>598</v>
       </c>
       <c r="B20" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E20" t="s">
-        <v>599</v>
+        <v>429</v>
       </c>
       <c r="F20" t="s">
-        <v>508</v>
+        <v>523</v>
       </c>
       <c r="J20" t="s">
         <v>601</v>
@@ -5373,10 +5422,10 @@
         <v>512</v>
       </c>
       <c r="O20" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="P20" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="T20" t="s">
         <v>619</v>
@@ -5393,10 +5442,10 @@
         <v>611</v>
       </c>
       <c r="E21" t="s">
-        <v>429</v>
+        <v>592</v>
       </c>
       <c r="F21" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="J21" t="s">
         <v>426</v>
@@ -5408,7 +5457,7 @@
         <v>616</v>
       </c>
       <c r="P21" t="s">
-        <v>489</v>
+        <v>521</v>
       </c>
       <c r="T21" t="s">
         <v>629</v>
@@ -5425,10 +5474,10 @@
         <v>627</v>
       </c>
       <c r="E22" t="s">
-        <v>592</v>
+        <v>602</v>
       </c>
       <c r="F22" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="K22" t="s">
         <v>514</v>
@@ -5437,7 +5486,7 @@
         <v>597</v>
       </c>
       <c r="P22" t="s">
-        <v>523</v>
+        <v>489</v>
       </c>
       <c r="T22" t="s">
         <v>425</v>
@@ -5451,25 +5500,22 @@
         <v>626</v>
       </c>
       <c r="E23" t="s">
-        <v>602</v>
+        <v>622</v>
       </c>
       <c r="F23" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="O23" t="s">
         <v>607</v>
       </c>
-      <c r="P23" t="s">
-        <v>524</v>
-      </c>
       <c r="T23" t="s">
         <v>427</v>
       </c>
       <c r="U23" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="X23" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.35">
@@ -5477,16 +5523,19 @@
         <v>600</v>
       </c>
       <c r="E24" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="F24" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="O24" t="s">
         <v>430</v>
       </c>
+      <c r="P24" t="s">
+        <v>524</v>
+      </c>
       <c r="X24" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.35">
@@ -5494,7 +5543,10 @@
         <v>606</v>
       </c>
       <c r="E25" t="s">
-        <v>618</v>
+        <v>432</v>
+      </c>
+      <c r="F25" t="s">
+        <v>499</v>
       </c>
       <c r="O25" t="s">
         <v>431</v>
@@ -5504,9 +5556,6 @@
       <c r="A26" t="s">
         <v>617</v>
       </c>
-      <c r="E26" t="s">
-        <v>432</v>
-      </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
@@ -5591,7 +5640,7 @@
         <v>4</v>
       </c>
       <c r="J42" t="s">
-        <v>680</v>
+        <v>733</v>
       </c>
     </row>
     <row r="43" spans="3:11" x14ac:dyDescent="0.35">
@@ -5607,7 +5656,7 @@
         <v>6</v>
       </c>
       <c r="J44" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="45" spans="3:11" x14ac:dyDescent="0.35">
@@ -5615,7 +5664,7 @@
         <v>7</v>
       </c>
       <c r="J45" t="s">
-        <v>682</v>
+        <v>734</v>
       </c>
     </row>
     <row r="46" spans="3:11" x14ac:dyDescent="0.35">
@@ -5680,7 +5729,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5842,10 +5891,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K221"/>
+  <dimension ref="A1:K262"/>
   <sheetViews>
-    <sheetView topLeftCell="A202" workbookViewId="0">
-      <selection activeCell="C219" sqref="C219"/>
+    <sheetView topLeftCell="A249" workbookViewId="0">
+      <selection activeCell="C261" sqref="C261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6789,7 +6838,7 @@
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" s="10"/>
       <c r="B166" s="11" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
@@ -6797,7 +6846,7 @@
         <v>643</v>
       </c>
       <c r="B167" s="11" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -6818,7 +6867,7 @@
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" s="10"/>
       <c r="B171" s="11" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
@@ -6832,13 +6881,13 @@
     <row r="173" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A173" s="7"/>
       <c r="B173" s="8" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" s="5" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B175" s="6" t="s">
         <v>609</v>
@@ -6846,25 +6895,25 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" s="10" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B176" s="11" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A177" s="7"/>
       <c r="B177" s="8" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" s="5" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
@@ -6882,15 +6931,15 @@
     <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" s="10"/>
       <c r="B182" s="11" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" s="10" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B183" s="11" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -6902,18 +6951,18 @@
     <row r="185" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="B186" s="6" t="s">
         <v>697</v>
-      </c>
-      <c r="B186" s="6" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" s="10" t="s">
+        <v>696</v>
+      </c>
+      <c r="B187" s="11" t="s">
         <v>698</v>
-      </c>
-      <c r="B187" s="11" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -6925,10 +6974,10 @@
     <row r="189" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" s="5" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.35">
@@ -6963,7 +7012,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" s="10" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B196" s="11" t="s">
         <v>219</v>
@@ -6972,37 +7021,37 @@
     <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" s="10"/>
       <c r="B197" s="11" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" s="10"/>
       <c r="B198" s="11" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" s="10"/>
       <c r="B199" s="11" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" s="10"/>
       <c r="B200" s="11" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="201" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A201" s="7"/>
       <c r="B201" s="8" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203" s="5" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B203" s="6" t="s">
         <v>214</v>
@@ -7010,7 +7059,7 @@
     </row>
     <row r="204" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A204" s="7" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B204" s="8" t="s">
         <v>179</v>
@@ -7019,7 +7068,7 @@
     <row r="205" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206" s="5" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B206" s="6" t="s">
         <v>599</v>
@@ -7028,18 +7077,18 @@
     <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207" s="10"/>
       <c r="B207" s="11" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208" s="10"/>
       <c r="B208" s="11" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="209" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A209" s="7" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B209" s="8" t="s">
         <v>21</v>
@@ -7048,7 +7097,7 @@
     <row r="210" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211" s="5" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B211" s="6" t="s">
         <v>657</v>
@@ -7056,7 +7105,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212" s="10" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B212" s="11" t="s">
         <v>27</v>
@@ -7065,21 +7114,21 @@
     <row r="213" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A213" s="7"/>
       <c r="B213" s="8" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="214" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215" s="5" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="216" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A216" s="7" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B216" s="8" t="s">
         <v>333</v>
@@ -7088,7 +7137,7 @@
     <row r="217" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="218" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A218" s="5" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B218" s="6" t="s">
         <v>186</v>
@@ -7102,7 +7151,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A220" s="10" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B220" s="11" t="s">
         <v>385</v>
@@ -7111,7 +7160,257 @@
     <row r="221" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A221" s="7"/>
       <c r="B221" s="8" t="s">
-        <v>721</v>
+        <v>719</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A223" s="5" t="s">
+        <v>687</v>
+      </c>
+      <c r="B223" s="21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A224" s="10"/>
+      <c r="B224" s="12" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A225" s="10" t="s">
+        <v>726</v>
+      </c>
+      <c r="B225" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A226" s="10"/>
+      <c r="B226" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A227" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="B227" s="11" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A228" s="10"/>
+      <c r="B228" s="11" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A229" s="10"/>
+      <c r="B229" s="11" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A230" s="10"/>
+      <c r="B230" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A231" s="10" t="s">
+        <v>729</v>
+      </c>
+      <c r="B231" s="11" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A232" s="10"/>
+      <c r="B232" s="11" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A233" s="10"/>
+      <c r="B233" s="11" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A234" s="10"/>
+      <c r="B234" s="11" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A235" s="10"/>
+      <c r="B235" s="11" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A236" s="10"/>
+      <c r="B236" s="11" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A237" s="10" t="s">
+        <v>695</v>
+      </c>
+      <c r="B237" s="11" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A238" s="10"/>
+      <c r="B238" s="11" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A239" s="10"/>
+      <c r="B239" s="11" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A240" s="10"/>
+      <c r="B240" s="11" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A241" s="10"/>
+      <c r="B241" s="11" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A242" s="10"/>
+      <c r="B242" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A243" s="10" t="s">
+        <v>731</v>
+      </c>
+      <c r="B243" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A244" s="10"/>
+      <c r="B244" s="11" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A245" s="10"/>
+      <c r="B245" s="11" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A246" s="7"/>
+      <c r="B246" s="8" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A248" s="5" t="s">
+        <v>714</v>
+      </c>
+      <c r="B248" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A249" s="10"/>
+      <c r="B249" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A250" s="10" t="s">
+        <v>695</v>
+      </c>
+      <c r="B250" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A251" s="10"/>
+      <c r="B251" s="11" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A252" s="10"/>
+      <c r="B252" s="11" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A253" s="7"/>
+      <c r="B253" s="8" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A255" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="B255" s="6" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A256" s="10"/>
+      <c r="B256" s="11" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A257" s="10" t="s">
+        <v>576</v>
+      </c>
+      <c r="B257" s="11" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A258" s="10"/>
+      <c r="B258" s="11" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A259" s="7"/>
+      <c r="B259" s="8" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A261" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="B261" s="6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A262" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="B262" s="8" t="s">
+        <v>740</v>
       </c>
     </row>
   </sheetData>

--- a/OffSeason.xlsx
+++ b/OffSeason.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Rosters" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="741">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="747">
   <si>
     <t>Chubber for Chubb - John Olson</t>
   </si>
@@ -2250,6 +2250,24 @@
   </si>
   <si>
     <t>2021 4th Cam</t>
+  </si>
+  <si>
+    <t>Alan trades</t>
+  </si>
+  <si>
+    <t>Adam trades</t>
+  </si>
+  <si>
+    <t>Garner Minshaw</t>
+  </si>
+  <si>
+    <t>2020 4th (MikeW)</t>
+  </si>
+  <si>
+    <t>John trades</t>
+  </si>
+  <si>
+    <t>2021 3 (MikeW)</t>
   </si>
 </sst>
 </file>
@@ -2491,13 +2509,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2514,6 +2526,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2801,8 +2819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I67" sqref="I67"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2843,68 +2861,68 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="22" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="22" t="s">
         <v>1</v>
       </c>
       <c r="G2" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="J2" s="22" t="s">
         <v>1</v>
       </c>
       <c r="K2" t="s">
         <v>77</v>
       </c>
-      <c r="N2" s="23" t="s">
+      <c r="N2" s="22" t="s">
         <v>1</v>
       </c>
       <c r="O2" t="s">
         <v>112</v>
       </c>
-      <c r="R2" s="23" t="s">
+      <c r="R2" s="22" t="s">
         <v>1</v>
       </c>
       <c r="S2" t="s">
         <v>144</v>
       </c>
-      <c r="V2" s="23" t="s">
+      <c r="V2" s="22" t="s">
         <v>1</v>
       </c>
       <c r="W2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="23"/>
+      <c r="B3" s="22"/>
       <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="23"/>
+      <c r="F3" s="22"/>
       <c r="G3" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="23"/>
+      <c r="J3" s="22"/>
       <c r="K3" t="s">
         <v>214</v>
       </c>
-      <c r="N3" s="23"/>
+      <c r="N3" s="22"/>
       <c r="O3" t="s">
         <v>104</v>
       </c>
-      <c r="R3" s="23"/>
+      <c r="R3" s="22"/>
       <c r="S3" t="s">
         <v>145</v>
       </c>
-      <c r="V3" s="23"/>
+      <c r="V3" s="22"/>
       <c r="W3" t="s">
         <v>180</v>
       </c>
@@ -2913,33 +2931,33 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="23"/>
+      <c r="B4" s="22"/>
       <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="23"/>
+      <c r="F4" s="22"/>
       <c r="G4" t="s">
         <v>46</v>
       </c>
-      <c r="J4" s="24" t="s">
+      <c r="J4" s="28" t="s">
         <v>5</v>
       </c>
       <c r="K4" t="s">
         <v>248</v>
       </c>
-      <c r="N4" s="24" t="s">
+      <c r="N4" s="28" t="s">
         <v>5</v>
       </c>
       <c r="O4" t="s">
         <v>113</v>
       </c>
-      <c r="R4" s="24" t="s">
+      <c r="R4" s="28" t="s">
         <v>5</v>
       </c>
       <c r="S4" t="s">
         <v>146</v>
       </c>
-      <c r="V4" s="23"/>
+      <c r="V4" s="22"/>
       <c r="W4" t="s">
         <v>181</v>
       </c>
@@ -2948,29 +2966,29 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="28" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="23"/>
+      <c r="F5" s="22"/>
       <c r="G5" t="s">
         <v>47</v>
       </c>
-      <c r="J5" s="24"/>
+      <c r="J5" s="28"/>
       <c r="K5" t="s">
         <v>81</v>
       </c>
-      <c r="N5" s="24"/>
+      <c r="N5" s="28"/>
       <c r="O5" t="s">
         <v>114</v>
       </c>
-      <c r="R5" s="24"/>
+      <c r="R5" s="28"/>
       <c r="S5" t="s">
         <v>147</v>
       </c>
-      <c r="V5" s="24" t="s">
+      <c r="V5" s="28" t="s">
         <v>5</v>
       </c>
       <c r="W5" t="s">
@@ -2981,29 +2999,29 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="24"/>
+      <c r="B6" s="28"/>
       <c r="C6" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="28" t="s">
         <v>5</v>
       </c>
       <c r="G6" t="s">
         <v>215</v>
       </c>
-      <c r="J6" s="24"/>
+      <c r="J6" s="28"/>
       <c r="K6" t="s">
         <v>9</v>
       </c>
-      <c r="N6" s="24"/>
+      <c r="N6" s="28"/>
       <c r="O6" t="s">
         <v>115</v>
       </c>
-      <c r="R6" s="24"/>
+      <c r="R6" s="28"/>
       <c r="S6" t="s">
         <v>148</v>
       </c>
-      <c r="V6" s="24"/>
+      <c r="V6" s="28"/>
       <c r="W6" t="s">
         <v>250</v>
       </c>
@@ -3012,27 +3030,27 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="24"/>
+      <c r="B7" s="28"/>
       <c r="C7" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="24"/>
+      <c r="F7" s="28"/>
       <c r="G7" t="s">
         <v>52</v>
       </c>
-      <c r="J7" s="24"/>
+      <c r="J7" s="28"/>
       <c r="K7" t="s">
         <v>352</v>
       </c>
-      <c r="N7" s="24"/>
+      <c r="N7" s="28"/>
       <c r="O7" t="s">
         <v>116</v>
       </c>
-      <c r="R7" s="24"/>
+      <c r="R7" s="28"/>
       <c r="S7" t="s">
         <v>149</v>
       </c>
-      <c r="V7" s="24"/>
+      <c r="V7" s="28"/>
       <c r="W7" t="s">
         <v>184</v>
       </c>
@@ -3041,27 +3059,27 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="24"/>
+      <c r="B8" s="28"/>
       <c r="C8" t="s">
         <v>80</v>
       </c>
-      <c r="F8" s="24"/>
+      <c r="F8" s="28"/>
       <c r="G8" t="s">
         <v>50</v>
       </c>
-      <c r="J8" s="24"/>
+      <c r="J8" s="28"/>
       <c r="K8" t="s">
         <v>85</v>
       </c>
-      <c r="N8" s="24"/>
+      <c r="N8" s="28"/>
       <c r="O8" t="s">
         <v>117</v>
       </c>
-      <c r="R8" s="24"/>
+      <c r="R8" s="28"/>
       <c r="S8" t="s">
         <v>150</v>
       </c>
-      <c r="V8" s="24"/>
+      <c r="V8" s="28"/>
       <c r="W8" t="s">
         <v>252</v>
       </c>
@@ -3070,27 +3088,27 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="24"/>
+      <c r="B9" s="28"/>
       <c r="C9" t="s">
         <v>82</v>
       </c>
-      <c r="F9" s="24"/>
+      <c r="F9" s="28"/>
       <c r="G9" t="s">
         <v>49</v>
       </c>
-      <c r="J9" s="24"/>
+      <c r="J9" s="28"/>
       <c r="K9" t="s">
         <v>11</v>
       </c>
-      <c r="N9" s="24"/>
+      <c r="N9" s="28"/>
       <c r="O9" t="s">
         <v>118</v>
       </c>
-      <c r="R9" s="24"/>
+      <c r="R9" s="28"/>
       <c r="S9" t="s">
         <v>151</v>
       </c>
-      <c r="V9" s="24"/>
+      <c r="V9" s="28"/>
       <c r="W9" t="s">
         <v>385</v>
       </c>
@@ -3099,35 +3117,35 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="23" t="s">
         <v>12</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="F10" s="23" t="s">
         <v>12</v>
       </c>
       <c r="G10" t="s">
         <v>194</v>
       </c>
-      <c r="J10" s="25" t="s">
+      <c r="J10" s="23" t="s">
         <v>12</v>
       </c>
       <c r="K10" t="s">
         <v>15</v>
       </c>
-      <c r="N10" s="24"/>
+      <c r="N10" s="28"/>
       <c r="O10" t="s">
         <v>119</v>
       </c>
-      <c r="R10" s="25" t="s">
+      <c r="R10" s="23" t="s">
         <v>12</v>
       </c>
       <c r="S10" t="s">
         <v>152</v>
       </c>
-      <c r="V10" s="24"/>
+      <c r="V10" s="28"/>
       <c r="W10" t="s">
         <v>187</v>
       </c>
@@ -3136,29 +3154,29 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="25"/>
+      <c r="B11" s="23"/>
       <c r="C11" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="25"/>
+      <c r="F11" s="23"/>
       <c r="G11" t="s">
         <v>56</v>
       </c>
-      <c r="J11" s="25"/>
+      <c r="J11" s="23"/>
       <c r="K11" t="s">
         <v>188</v>
       </c>
-      <c r="N11" s="25" t="s">
+      <c r="N11" s="23" t="s">
         <v>12</v>
       </c>
       <c r="O11" t="s">
         <v>120</v>
       </c>
-      <c r="R11" s="25"/>
+      <c r="R11" s="23"/>
       <c r="S11" t="s">
         <v>153</v>
       </c>
-      <c r="V11" s="24"/>
+      <c r="V11" s="28"/>
       <c r="W11" t="s">
         <v>53</v>
       </c>
@@ -3167,27 +3185,27 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="25"/>
+      <c r="B12" s="23"/>
       <c r="C12" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="25"/>
+      <c r="F12" s="23"/>
       <c r="G12" t="s">
         <v>58</v>
       </c>
-      <c r="J12" s="25"/>
+      <c r="J12" s="23"/>
       <c r="K12" t="s">
         <v>86</v>
       </c>
-      <c r="N12" s="25"/>
+      <c r="N12" s="23"/>
       <c r="O12" t="s">
         <v>121</v>
       </c>
-      <c r="R12" s="25"/>
+      <c r="R12" s="23"/>
       <c r="S12" t="s">
         <v>154</v>
       </c>
-      <c r="V12" s="24"/>
+      <c r="V12" s="28"/>
       <c r="W12" t="s">
         <v>10</v>
       </c>
@@ -3196,27 +3214,27 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="25"/>
+      <c r="B13" s="23"/>
       <c r="C13" t="s">
         <v>89</v>
       </c>
-      <c r="F13" s="25"/>
+      <c r="F13" s="23"/>
       <c r="G13" t="s">
         <v>59</v>
       </c>
-      <c r="J13" s="25"/>
+      <c r="J13" s="23"/>
       <c r="K13" t="s">
         <v>88</v>
       </c>
-      <c r="N13" s="25"/>
+      <c r="N13" s="23"/>
       <c r="O13" t="s">
         <v>122</v>
       </c>
-      <c r="R13" s="25"/>
+      <c r="R13" s="23"/>
       <c r="S13" t="s">
         <v>155</v>
       </c>
-      <c r="V13" s="25" t="s">
+      <c r="V13" s="23" t="s">
         <v>12</v>
       </c>
       <c r="W13" t="s">
@@ -3227,27 +3245,27 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="25"/>
+      <c r="B14" s="23"/>
       <c r="C14" t="s">
         <v>87</v>
       </c>
-      <c r="F14" s="25"/>
+      <c r="F14" s="23"/>
       <c r="G14" t="s">
         <v>226</v>
       </c>
-      <c r="J14" s="25"/>
+      <c r="J14" s="23"/>
       <c r="K14" t="s">
         <v>16</v>
       </c>
-      <c r="N14" s="25"/>
+      <c r="N14" s="23"/>
       <c r="O14" t="s">
         <v>123</v>
       </c>
-      <c r="R14" s="25"/>
+      <c r="R14" s="23"/>
       <c r="S14" t="s">
         <v>156</v>
       </c>
-      <c r="V14" s="25"/>
+      <c r="V14" s="23"/>
       <c r="W14" t="s">
         <v>189</v>
       </c>
@@ -3256,27 +3274,27 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="25"/>
+      <c r="B15" s="23"/>
       <c r="C15" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="25"/>
+      <c r="F15" s="23"/>
       <c r="G15" t="s">
         <v>225</v>
       </c>
-      <c r="J15" s="25"/>
+      <c r="J15" s="23"/>
       <c r="K15" t="s">
         <v>22</v>
       </c>
-      <c r="N15" s="25"/>
+      <c r="N15" s="23"/>
       <c r="O15" t="s">
         <v>124</v>
       </c>
-      <c r="R15" s="25"/>
+      <c r="R15" s="23"/>
       <c r="S15" t="s">
         <v>157</v>
       </c>
-      <c r="V15" s="25"/>
+      <c r="V15" s="23"/>
       <c r="W15" t="s">
         <v>190</v>
       </c>
@@ -3285,31 +3303,31 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="29" t="s">
         <v>18</v>
       </c>
       <c r="C16" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="22" t="s">
+      <c r="F16" s="29" t="s">
         <v>18</v>
       </c>
       <c r="G16" t="s">
         <v>60</v>
       </c>
-      <c r="J16" s="25"/>
+      <c r="J16" s="23"/>
       <c r="K16" t="s">
         <v>23</v>
       </c>
-      <c r="N16" s="25"/>
+      <c r="N16" s="23"/>
       <c r="O16" t="s">
         <v>125</v>
       </c>
-      <c r="R16" s="25"/>
+      <c r="R16" s="23"/>
       <c r="S16" t="s">
         <v>158</v>
       </c>
-      <c r="V16" s="25"/>
+      <c r="V16" s="23"/>
       <c r="W16" t="s">
         <v>191</v>
       </c>
@@ -3318,31 +3336,31 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="22"/>
+      <c r="B17" s="29"/>
       <c r="C17" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="22"/>
+      <c r="F17" s="29"/>
       <c r="G17" t="s">
         <v>62</v>
       </c>
-      <c r="J17" s="22" t="s">
+      <c r="J17" s="29" t="s">
         <v>18</v>
       </c>
       <c r="K17" t="s">
         <v>95</v>
       </c>
-      <c r="N17" s="22" t="s">
+      <c r="N17" s="29" t="s">
         <v>18</v>
       </c>
       <c r="O17" t="s">
         <v>126</v>
       </c>
-      <c r="R17" s="25"/>
+      <c r="R17" s="23"/>
       <c r="S17" t="s">
         <v>159</v>
       </c>
-      <c r="V17" s="25"/>
+      <c r="V17" s="23"/>
       <c r="W17" t="s">
         <v>91</v>
       </c>
@@ -3351,27 +3369,27 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="22"/>
+      <c r="B18" s="29"/>
       <c r="C18" t="s">
         <v>96</v>
       </c>
-      <c r="F18" s="22"/>
+      <c r="F18" s="29"/>
       <c r="G18" t="s">
         <v>63</v>
       </c>
-      <c r="J18" s="22"/>
+      <c r="J18" s="29"/>
       <c r="K18" t="s">
         <v>98</v>
       </c>
-      <c r="N18" s="22"/>
+      <c r="N18" s="29"/>
       <c r="O18" t="s">
         <v>127</v>
       </c>
-      <c r="R18" s="25"/>
+      <c r="R18" s="23"/>
       <c r="S18" t="s">
         <v>160</v>
       </c>
-      <c r="V18" s="25"/>
+      <c r="V18" s="23"/>
       <c r="W18" t="s">
         <v>261</v>
       </c>
@@ -3380,33 +3398,33 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="25" t="s">
         <v>24</v>
       </c>
       <c r="C19" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="27" t="s">
+      <c r="F19" s="25" t="s">
         <v>24</v>
       </c>
       <c r="G19" t="s">
         <v>64</v>
       </c>
-      <c r="J19" s="22"/>
+      <c r="J19" s="29"/>
       <c r="K19" t="s">
         <v>333</v>
       </c>
-      <c r="N19" s="27" t="s">
+      <c r="N19" s="25" t="s">
         <v>24</v>
       </c>
       <c r="O19" t="s">
         <v>128</v>
       </c>
-      <c r="R19" s="25"/>
+      <c r="R19" s="23"/>
       <c r="S19" t="s">
         <v>161</v>
       </c>
-      <c r="V19" s="25"/>
+      <c r="V19" s="23"/>
       <c r="W19" t="s">
         <v>94</v>
       </c>
@@ -3415,31 +3433,31 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="27"/>
+      <c r="B20" s="25"/>
       <c r="C20" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="27"/>
+      <c r="F20" s="25"/>
       <c r="G20" t="s">
         <v>65</v>
       </c>
-      <c r="J20" s="27" t="s">
+      <c r="J20" s="25" t="s">
         <v>24</v>
       </c>
       <c r="K20" t="s">
         <v>99</v>
       </c>
-      <c r="N20" s="27"/>
+      <c r="N20" s="25"/>
       <c r="O20" t="s">
         <v>129</v>
       </c>
-      <c r="R20" s="22" t="s">
+      <c r="R20" s="29" t="s">
         <v>18</v>
       </c>
       <c r="S20" t="s">
         <v>162</v>
       </c>
-      <c r="V20" s="25"/>
+      <c r="V20" s="23"/>
       <c r="W20" t="s">
         <v>193</v>
       </c>
@@ -3448,27 +3466,27 @@
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="27"/>
+      <c r="B21" s="25"/>
       <c r="C21" t="s">
         <v>100</v>
       </c>
-      <c r="F21" s="27"/>
+      <c r="F21" s="25"/>
       <c r="G21" t="s">
         <v>66</v>
       </c>
-      <c r="J21" s="27"/>
+      <c r="J21" s="25"/>
       <c r="K21" t="s">
         <v>28</v>
       </c>
-      <c r="N21" s="27"/>
+      <c r="N21" s="25"/>
       <c r="O21" t="s">
         <v>130</v>
       </c>
-      <c r="R21" s="22"/>
+      <c r="R21" s="29"/>
       <c r="S21" t="s">
         <v>163</v>
       </c>
-      <c r="V21" s="25"/>
+      <c r="V21" s="23"/>
       <c r="W21" t="s">
         <v>195</v>
       </c>
@@ -3477,31 +3495,31 @@
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="24" t="s">
         <v>30</v>
       </c>
       <c r="C22" t="s">
         <v>31</v>
       </c>
-      <c r="F22" s="27"/>
+      <c r="F22" s="25"/>
       <c r="G22" t="s">
         <v>67</v>
       </c>
-      <c r="J22" s="27"/>
+      <c r="J22" s="25"/>
       <c r="K22" t="s">
         <v>29</v>
       </c>
-      <c r="N22" s="27"/>
+      <c r="N22" s="25"/>
       <c r="O22" t="s">
         <v>131</v>
       </c>
-      <c r="R22" s="27" t="s">
+      <c r="R22" s="25" t="s">
         <v>24</v>
       </c>
       <c r="S22" t="s">
         <v>164</v>
       </c>
-      <c r="V22" s="25"/>
+      <c r="V22" s="23"/>
       <c r="W22" t="s">
         <v>196</v>
       </c>
@@ -3510,29 +3528,29 @@
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="26"/>
+      <c r="B23" s="24"/>
       <c r="C23" t="s">
         <v>32</v>
       </c>
-      <c r="F23" s="26" t="s">
+      <c r="F23" s="24" t="s">
         <v>30</v>
       </c>
       <c r="G23" t="s">
         <v>69</v>
       </c>
-      <c r="J23" s="27"/>
+      <c r="J23" s="25"/>
       <c r="K23" t="s">
         <v>27</v>
       </c>
-      <c r="N23" s="27"/>
+      <c r="N23" s="25"/>
       <c r="O23" t="s">
         <v>132</v>
       </c>
-      <c r="R23" s="27"/>
+      <c r="R23" s="25"/>
       <c r="S23" t="s">
         <v>165</v>
       </c>
-      <c r="V23" s="22" t="s">
+      <c r="V23" s="29" t="s">
         <v>18</v>
       </c>
       <c r="W23" t="s">
@@ -3543,31 +3561,31 @@
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="26"/>
+      <c r="B24" s="24"/>
       <c r="C24" t="s">
         <v>33</v>
       </c>
-      <c r="F24" s="26"/>
+      <c r="F24" s="24"/>
       <c r="G24" t="s">
         <v>70</v>
       </c>
-      <c r="J24" s="26" t="s">
+      <c r="J24" s="24" t="s">
         <v>30</v>
       </c>
       <c r="K24" t="s">
         <v>103</v>
       </c>
-      <c r="N24" s="26" t="s">
+      <c r="N24" s="24" t="s">
         <v>30</v>
       </c>
       <c r="O24" t="s">
         <v>133</v>
       </c>
-      <c r="R24" s="27"/>
+      <c r="R24" s="25"/>
       <c r="S24" t="s">
         <v>166</v>
       </c>
-      <c r="V24" s="22"/>
+      <c r="V24" s="29"/>
       <c r="W24" t="s">
         <v>198</v>
       </c>
@@ -3576,27 +3594,27 @@
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="26"/>
+      <c r="B25" s="24"/>
       <c r="C25" t="s">
         <v>104</v>
       </c>
-      <c r="F25" s="26"/>
+      <c r="F25" s="24"/>
       <c r="G25" t="s">
         <v>71</v>
       </c>
-      <c r="J25" s="26"/>
+      <c r="J25" s="24"/>
       <c r="K25" t="s">
         <v>105</v>
       </c>
-      <c r="N25" s="26"/>
+      <c r="N25" s="24"/>
       <c r="O25" t="s">
         <v>134</v>
       </c>
-      <c r="R25" s="27"/>
+      <c r="R25" s="25"/>
       <c r="S25" t="s">
         <v>167</v>
       </c>
-      <c r="V25" s="22"/>
+      <c r="V25" s="29"/>
       <c r="W25" t="s">
         <v>199</v>
       </c>
@@ -3605,31 +3623,31 @@
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="26" t="s">
         <v>36</v>
       </c>
       <c r="C26" t="s">
         <v>37</v>
       </c>
-      <c r="F26" s="26"/>
+      <c r="F26" s="24"/>
       <c r="G26" t="s">
         <v>68</v>
       </c>
-      <c r="J26" s="26"/>
+      <c r="J26" s="24"/>
       <c r="K26" t="s">
         <v>106</v>
       </c>
-      <c r="N26" s="26"/>
+      <c r="N26" s="24"/>
       <c r="O26" t="s">
         <v>135</v>
       </c>
-      <c r="R26" s="26" t="s">
+      <c r="R26" s="24" t="s">
         <v>30</v>
       </c>
       <c r="S26" t="s">
         <v>168</v>
       </c>
-      <c r="V26" s="27" t="s">
+      <c r="V26" s="25" t="s">
         <v>24</v>
       </c>
       <c r="W26" t="s">
@@ -3640,31 +3658,31 @@
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="28"/>
+      <c r="B27" s="26"/>
       <c r="C27" t="s">
         <v>38</v>
       </c>
-      <c r="F27" s="28" t="s">
+      <c r="F27" s="26" t="s">
         <v>36</v>
       </c>
       <c r="G27" t="s">
         <v>72</v>
       </c>
-      <c r="J27" s="28" t="s">
+      <c r="J27" s="26" t="s">
         <v>36</v>
       </c>
       <c r="K27" t="s">
         <v>40</v>
       </c>
-      <c r="N27" s="26"/>
+      <c r="N27" s="24"/>
       <c r="O27" t="s">
         <v>136</v>
       </c>
-      <c r="R27" s="26"/>
+      <c r="R27" s="24"/>
       <c r="S27" t="s">
         <v>169</v>
       </c>
-      <c r="V27" s="27"/>
+      <c r="V27" s="25"/>
       <c r="W27" t="s">
         <v>201</v>
       </c>
@@ -3673,27 +3691,27 @@
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="28"/>
+      <c r="B28" s="26"/>
       <c r="C28" t="s">
         <v>39</v>
       </c>
-      <c r="F28" s="28"/>
+      <c r="F28" s="26"/>
       <c r="G28" t="s">
         <v>73</v>
       </c>
-      <c r="J28" s="28"/>
+      <c r="J28" s="26"/>
       <c r="K28" t="s">
         <v>108</v>
       </c>
-      <c r="N28" s="26"/>
+      <c r="N28" s="24"/>
       <c r="O28" t="s">
         <v>137</v>
       </c>
-      <c r="R28" s="26"/>
+      <c r="R28" s="24"/>
       <c r="S28" t="s">
         <v>170</v>
       </c>
-      <c r="V28" s="27"/>
+      <c r="V28" s="25"/>
       <c r="W28" t="s">
         <v>202</v>
       </c>
@@ -3702,27 +3720,27 @@
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="28"/>
+      <c r="B29" s="26"/>
       <c r="C29" t="s">
         <v>107</v>
       </c>
-      <c r="F29" s="28"/>
+      <c r="F29" s="26"/>
       <c r="G29" t="s">
         <v>74</v>
       </c>
-      <c r="J29" s="28"/>
+      <c r="J29" s="26"/>
       <c r="K29" t="s">
         <v>110</v>
       </c>
-      <c r="N29" s="26"/>
+      <c r="N29" s="24"/>
       <c r="O29" t="s">
         <v>138</v>
       </c>
-      <c r="R29" s="26"/>
+      <c r="R29" s="24"/>
       <c r="S29" t="s">
         <v>171</v>
       </c>
-      <c r="V29" s="27"/>
+      <c r="V29" s="25"/>
       <c r="W29" t="s">
         <v>203</v>
       </c>
@@ -3731,25 +3749,25 @@
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="F30" s="28"/>
+      <c r="F30" s="26"/>
       <c r="G30" t="s">
         <v>75</v>
       </c>
-      <c r="J30" s="28"/>
+      <c r="J30" s="26"/>
       <c r="K30" t="s">
         <v>41</v>
       </c>
-      <c r="N30" s="28" t="s">
+      <c r="N30" s="26" t="s">
         <v>36</v>
       </c>
       <c r="O30" t="s">
         <v>139</v>
       </c>
-      <c r="R30" s="26"/>
+      <c r="R30" s="24"/>
       <c r="S30" t="s">
         <v>172</v>
       </c>
-      <c r="V30" s="26" t="s">
+      <c r="V30" s="24" t="s">
         <v>30</v>
       </c>
       <c r="W30" t="s">
@@ -3760,65 +3778,65 @@
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="F31" s="28"/>
+      <c r="F31" s="26"/>
       <c r="G31" t="s">
         <v>275</v>
       </c>
-      <c r="N31" s="28"/>
+      <c r="N31" s="26"/>
       <c r="O31" t="s">
         <v>140</v>
       </c>
-      <c r="R31" s="28" t="s">
+      <c r="R31" s="26" t="s">
         <v>36</v>
       </c>
       <c r="S31" t="s">
         <v>173</v>
       </c>
-      <c r="V31" s="26"/>
+      <c r="V31" s="24"/>
       <c r="W31" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="N32" s="28"/>
+      <c r="N32" s="26"/>
       <c r="O32" t="s">
         <v>141</v>
       </c>
-      <c r="R32" s="28"/>
+      <c r="R32" s="26"/>
       <c r="S32" t="s">
         <v>174</v>
       </c>
-      <c r="V32" s="26"/>
+      <c r="V32" s="24"/>
       <c r="W32" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="N33" s="28"/>
+      <c r="N33" s="26"/>
       <c r="O33" t="s">
         <v>142</v>
       </c>
-      <c r="R33" s="28"/>
+      <c r="R33" s="26"/>
       <c r="S33" t="s">
         <v>175</v>
       </c>
-      <c r="V33" s="26"/>
+      <c r="V33" s="24"/>
       <c r="W33" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="R34" s="28"/>
+      <c r="R34" s="26"/>
       <c r="S34" t="s">
         <v>176</v>
       </c>
-      <c r="V34" s="26"/>
+      <c r="V34" s="24"/>
       <c r="W34" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="V35" s="28" t="s">
+      <c r="V35" s="26" t="s">
         <v>36</v>
       </c>
       <c r="W35" t="s">
@@ -3826,13 +3844,13 @@
       </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="V36" s="28"/>
+      <c r="V36" s="26"/>
       <c r="W36" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="V37" s="28"/>
+      <c r="V37" s="26"/>
       <c r="W37" t="s">
         <v>211</v>
       </c>
@@ -3853,48 +3871,48 @@
       <c r="R43" t="s">
         <v>315</v>
       </c>
-      <c r="V43" s="29" t="s">
+      <c r="V43" s="27" t="s">
         <v>316</v>
       </c>
-      <c r="W43" s="29"/>
-      <c r="X43" s="29"/>
-      <c r="Y43" s="29"/>
+      <c r="W43" s="27"/>
+      <c r="X43" s="27"/>
+      <c r="Y43" s="27"/>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>1</v>
       </c>
-      <c r="B44" s="23" t="s">
+      <c r="B44" s="22" t="s">
         <v>1</v>
       </c>
       <c r="C44" t="s">
         <v>44</v>
       </c>
-      <c r="F44" s="23" t="s">
+      <c r="F44" s="22" t="s">
         <v>1</v>
       </c>
       <c r="G44" t="s">
         <v>246</v>
       </c>
-      <c r="J44" s="23" t="s">
+      <c r="J44" s="22" t="s">
         <v>1</v>
       </c>
       <c r="K44" t="s">
         <v>280</v>
       </c>
-      <c r="N44" s="23" t="s">
+      <c r="N44" s="22" t="s">
         <v>1</v>
       </c>
       <c r="O44" t="s">
         <v>317</v>
       </c>
-      <c r="R44" s="23" t="s">
+      <c r="R44" s="22" t="s">
         <v>1</v>
       </c>
       <c r="S44" t="s">
         <v>348</v>
       </c>
-      <c r="V44" s="23" t="s">
+      <c r="V44" s="22" t="s">
         <v>1</v>
       </c>
       <c r="W44" t="s">
@@ -3905,27 +3923,27 @@
       <c r="A45" s="1">
         <v>2</v>
       </c>
-      <c r="B45" s="23"/>
+      <c r="B45" s="22"/>
       <c r="C45" t="s">
-        <v>179</v>
-      </c>
-      <c r="F45" s="23"/>
+        <v>178</v>
+      </c>
+      <c r="F45" s="22"/>
       <c r="G45" t="s">
         <v>247</v>
       </c>
-      <c r="J45" s="23"/>
+      <c r="J45" s="22"/>
       <c r="K45" t="s">
         <v>281</v>
       </c>
-      <c r="N45" s="23"/>
+      <c r="N45" s="22"/>
       <c r="O45" t="s">
         <v>318</v>
       </c>
-      <c r="R45" s="23"/>
+      <c r="R45" s="22"/>
       <c r="S45" t="s">
         <v>349</v>
       </c>
-      <c r="V45" s="23"/>
+      <c r="V45" s="22"/>
       <c r="W45" t="s">
         <v>379</v>
       </c>
@@ -3934,27 +3952,27 @@
       <c r="A46" s="1">
         <v>3</v>
       </c>
-      <c r="B46" s="23"/>
+      <c r="B46" s="22"/>
       <c r="C46" t="s">
         <v>213</v>
       </c>
-      <c r="F46" s="23"/>
+      <c r="F46" s="22"/>
       <c r="G46" t="s">
         <v>79</v>
       </c>
-      <c r="J46" s="23"/>
+      <c r="J46" s="22"/>
       <c r="K46" t="s">
         <v>282</v>
       </c>
-      <c r="N46" s="23"/>
+      <c r="N46" s="22"/>
       <c r="O46" t="s">
         <v>319</v>
       </c>
-      <c r="R46" s="23"/>
+      <c r="R46" s="22"/>
       <c r="S46" t="s">
         <v>78</v>
       </c>
-      <c r="V46" s="23"/>
+      <c r="V46" s="22"/>
       <c r="W46" t="s">
         <v>380</v>
       </c>
@@ -3963,35 +3981,35 @@
       <c r="A47" s="1">
         <v>4</v>
       </c>
-      <c r="B47" s="24" t="s">
+      <c r="B47" s="28" t="s">
         <v>5</v>
       </c>
       <c r="C47" t="s">
         <v>216</v>
       </c>
-      <c r="F47" s="24" t="s">
+      <c r="F47" s="28" t="s">
         <v>5</v>
       </c>
       <c r="G47" t="s">
         <v>183</v>
       </c>
-      <c r="J47" s="24" t="s">
+      <c r="J47" s="28" t="s">
         <v>5</v>
       </c>
       <c r="K47" t="s">
         <v>283</v>
       </c>
-      <c r="N47" s="24" t="s">
+      <c r="N47" s="28" t="s">
         <v>5</v>
       </c>
       <c r="O47" t="s">
         <v>320</v>
       </c>
-      <c r="R47" s="23"/>
+      <c r="R47" s="22"/>
       <c r="S47" t="s">
         <v>350</v>
       </c>
-      <c r="V47" s="24" t="s">
+      <c r="V47" s="28" t="s">
         <v>5</v>
       </c>
       <c r="W47" t="s">
@@ -4002,29 +4020,29 @@
       <c r="A48" s="1">
         <v>5</v>
       </c>
-      <c r="B48" s="24"/>
+      <c r="B48" s="28"/>
       <c r="C48" t="s">
         <v>217</v>
       </c>
-      <c r="F48" s="24"/>
+      <c r="F48" s="28"/>
       <c r="G48" t="s">
         <v>84</v>
       </c>
-      <c r="J48" s="24"/>
+      <c r="J48" s="28"/>
       <c r="K48" t="s">
         <v>284</v>
       </c>
-      <c r="N48" s="24"/>
+      <c r="N48" s="28"/>
       <c r="O48" t="s">
         <v>251</v>
       </c>
-      <c r="R48" s="24" t="s">
+      <c r="R48" s="28" t="s">
         <v>5</v>
       </c>
       <c r="S48" t="s">
         <v>351</v>
       </c>
-      <c r="V48" s="24"/>
+      <c r="V48" s="28"/>
       <c r="W48" t="s">
         <v>382</v>
       </c>
@@ -4033,28 +4051,28 @@
       <c r="A49" s="1">
         <v>6</v>
       </c>
-      <c r="B49" s="24"/>
+      <c r="B49" s="28"/>
       <c r="C49" t="s">
         <v>221</v>
       </c>
       <c r="D49" s="20"/>
-      <c r="F49" s="24"/>
+      <c r="F49" s="28"/>
       <c r="G49" t="s">
         <v>51</v>
       </c>
-      <c r="J49" s="24"/>
+      <c r="J49" s="28"/>
       <c r="K49" t="s">
         <v>285</v>
       </c>
-      <c r="N49" s="24"/>
+      <c r="N49" s="28"/>
       <c r="O49" t="s">
         <v>322</v>
       </c>
-      <c r="R49" s="24"/>
+      <c r="R49" s="28"/>
       <c r="S49" t="s">
         <v>48</v>
       </c>
-      <c r="V49" s="24"/>
+      <c r="V49" s="28"/>
       <c r="W49" t="s">
         <v>383</v>
       </c>
@@ -4063,31 +4081,31 @@
       <c r="A50" s="1">
         <v>7</v>
       </c>
-      <c r="B50" s="24"/>
+      <c r="B50" s="28"/>
       <c r="C50" t="s">
         <v>222</v>
       </c>
-      <c r="F50" s="24"/>
+      <c r="F50" s="28"/>
       <c r="G50" t="s">
         <v>321</v>
       </c>
-      <c r="J50" s="25" t="s">
+      <c r="J50" s="23" t="s">
         <v>12</v>
       </c>
       <c r="K50" t="s">
         <v>286</v>
       </c>
-      <c r="N50" s="25" t="s">
+      <c r="N50" s="23" t="s">
         <v>12</v>
       </c>
       <c r="O50" t="s">
         <v>323</v>
       </c>
-      <c r="R50" s="24"/>
+      <c r="R50" s="28"/>
       <c r="S50" t="s">
         <v>353</v>
       </c>
-      <c r="V50" s="24"/>
+      <c r="V50" s="28"/>
       <c r="W50" t="s">
         <v>384</v>
       </c>
@@ -4096,27 +4114,27 @@
       <c r="A51" s="1">
         <v>8</v>
       </c>
-      <c r="B51" s="24"/>
+      <c r="B51" s="28"/>
       <c r="C51" t="s">
         <v>253</v>
       </c>
-      <c r="F51" s="24"/>
+      <c r="F51" s="28"/>
       <c r="G51" t="s">
         <v>254</v>
       </c>
-      <c r="J51" s="25"/>
+      <c r="J51" s="23"/>
       <c r="K51" t="s">
         <v>287</v>
       </c>
-      <c r="N51" s="25"/>
+      <c r="N51" s="23"/>
       <c r="O51" t="s">
         <v>324</v>
       </c>
-      <c r="R51" s="24"/>
+      <c r="R51" s="28"/>
       <c r="S51" t="s">
         <v>354</v>
       </c>
-      <c r="V51" s="24"/>
+      <c r="V51" s="28"/>
       <c r="W51" t="s">
         <v>186</v>
       </c>
@@ -4125,27 +4143,27 @@
       <c r="A52" s="1">
         <v>9</v>
       </c>
-      <c r="B52" s="24"/>
+      <c r="B52" s="28"/>
       <c r="C52" t="s">
         <v>83</v>
       </c>
-      <c r="F52" s="24"/>
+      <c r="F52" s="28"/>
       <c r="G52" t="s">
         <v>249</v>
       </c>
-      <c r="J52" s="25"/>
+      <c r="J52" s="23"/>
       <c r="K52" t="s">
         <v>288</v>
       </c>
-      <c r="N52" s="25"/>
+      <c r="N52" s="23"/>
       <c r="O52" t="s">
         <v>325</v>
       </c>
-      <c r="R52" s="24"/>
+      <c r="R52" s="28"/>
       <c r="S52" t="s">
         <v>355</v>
       </c>
-      <c r="V52" s="25" t="s">
+      <c r="V52" s="23" t="s">
         <v>12</v>
       </c>
       <c r="W52" t="s">
@@ -4156,31 +4174,31 @@
       <c r="A53" s="1">
         <v>10</v>
       </c>
-      <c r="B53" s="25" t="s">
+      <c r="B53" s="23" t="s">
         <v>12</v>
       </c>
       <c r="C53" t="s">
         <v>57</v>
       </c>
-      <c r="F53" s="24"/>
+      <c r="F53" s="28"/>
       <c r="G53" t="s">
         <v>255</v>
       </c>
-      <c r="J53" s="25"/>
+      <c r="J53" s="23"/>
       <c r="K53" t="s">
         <v>289</v>
       </c>
-      <c r="N53" s="25"/>
+      <c r="N53" s="23"/>
       <c r="O53" t="s">
         <v>326</v>
       </c>
-      <c r="R53" s="25" t="s">
+      <c r="R53" s="23" t="s">
         <v>12</v>
       </c>
       <c r="S53" t="s">
         <v>356</v>
       </c>
-      <c r="V53" s="25"/>
+      <c r="V53" s="23"/>
       <c r="W53" t="s">
         <v>387</v>
       </c>
@@ -4189,27 +4207,27 @@
       <c r="A54" s="1">
         <v>11</v>
       </c>
-      <c r="B54" s="25"/>
+      <c r="B54" s="23"/>
       <c r="C54" t="s">
         <v>93</v>
       </c>
-      <c r="F54" s="24"/>
+      <c r="F54" s="28"/>
       <c r="G54" t="s">
         <v>185</v>
       </c>
-      <c r="J54" s="25"/>
+      <c r="J54" s="23"/>
       <c r="K54" t="s">
         <v>290</v>
       </c>
-      <c r="N54" s="25"/>
+      <c r="N54" s="23"/>
       <c r="O54" t="s">
         <v>327</v>
       </c>
-      <c r="R54" s="25"/>
+      <c r="R54" s="23"/>
       <c r="S54" t="s">
         <v>357</v>
       </c>
-      <c r="V54" s="25"/>
+      <c r="V54" s="23"/>
       <c r="W54" t="s">
         <v>388</v>
       </c>
@@ -4218,29 +4236,29 @@
       <c r="A55" s="1">
         <v>12</v>
       </c>
-      <c r="B55" s="25"/>
+      <c r="B55" s="23"/>
       <c r="C55" t="s">
         <v>218</v>
       </c>
-      <c r="F55" s="25" t="s">
+      <c r="F55" s="23" t="s">
         <v>12</v>
       </c>
       <c r="G55" t="s">
         <v>219</v>
       </c>
-      <c r="J55" s="25"/>
+      <c r="J55" s="23"/>
       <c r="K55" t="s">
         <v>291</v>
       </c>
-      <c r="N55" s="25"/>
+      <c r="N55" s="23"/>
       <c r="O55" t="s">
         <v>328</v>
       </c>
-      <c r="R55" s="25"/>
+      <c r="R55" s="23"/>
       <c r="S55" t="s">
         <v>358</v>
       </c>
-      <c r="V55" s="25"/>
+      <c r="V55" s="23"/>
       <c r="W55" t="s">
         <v>389</v>
       </c>
@@ -4249,27 +4267,27 @@
       <c r="A56" s="1">
         <v>13</v>
       </c>
-      <c r="B56" s="25"/>
+      <c r="B56" s="23"/>
       <c r="C56" t="s">
         <v>220</v>
       </c>
-      <c r="F56" s="25"/>
+      <c r="F56" s="23"/>
       <c r="G56" t="s">
         <v>228</v>
       </c>
-      <c r="J56" s="25"/>
+      <c r="J56" s="23"/>
       <c r="K56" t="s">
         <v>292</v>
       </c>
-      <c r="N56" s="25"/>
+      <c r="N56" s="23"/>
       <c r="O56" t="s">
         <v>329</v>
       </c>
-      <c r="R56" s="25"/>
+      <c r="R56" s="23"/>
       <c r="S56" t="s">
         <v>359</v>
       </c>
-      <c r="V56" s="25"/>
+      <c r="V56" s="23"/>
       <c r="W56" t="s">
         <v>390</v>
       </c>
@@ -4278,27 +4296,27 @@
       <c r="A57" s="1">
         <v>14</v>
       </c>
-      <c r="B57" s="25"/>
+      <c r="B57" s="23"/>
       <c r="C57" t="s">
         <v>223</v>
       </c>
-      <c r="F57" s="25"/>
+      <c r="F57" s="23"/>
       <c r="G57" t="s">
         <v>258</v>
       </c>
-      <c r="J57" s="25"/>
+      <c r="J57" s="23"/>
       <c r="K57" t="s">
         <v>293</v>
       </c>
-      <c r="N57" s="25"/>
+      <c r="N57" s="23"/>
       <c r="O57" t="s">
         <v>257</v>
       </c>
-      <c r="R57" s="25"/>
+      <c r="R57" s="23"/>
       <c r="S57" t="s">
         <v>360</v>
       </c>
-      <c r="V57" s="25"/>
+      <c r="V57" s="23"/>
       <c r="W57" t="s">
         <v>391</v>
       </c>
@@ -4307,27 +4325,27 @@
       <c r="A58" s="1">
         <v>15</v>
       </c>
-      <c r="B58" s="25"/>
+      <c r="B58" s="23"/>
       <c r="C58" t="s">
         <v>224</v>
       </c>
-      <c r="F58" s="25"/>
+      <c r="F58" s="23"/>
       <c r="G58" t="s">
         <v>90</v>
       </c>
-      <c r="J58" s="25"/>
+      <c r="J58" s="23"/>
       <c r="K58" t="s">
         <v>294</v>
       </c>
-      <c r="N58" s="25"/>
+      <c r="N58" s="23"/>
       <c r="O58" t="s">
         <v>263</v>
       </c>
-      <c r="R58" s="25"/>
+      <c r="R58" s="23"/>
       <c r="S58" t="s">
         <v>361</v>
       </c>
-      <c r="V58" s="25"/>
+      <c r="V58" s="23"/>
       <c r="W58" t="s">
         <v>392</v>
       </c>
@@ -4336,27 +4354,27 @@
       <c r="A59" s="1">
         <v>16</v>
       </c>
-      <c r="B59" s="25"/>
+      <c r="B59" s="23"/>
       <c r="C59" t="s">
         <v>227</v>
       </c>
-      <c r="F59" s="25"/>
+      <c r="F59" s="23"/>
       <c r="G59" t="s">
         <v>262</v>
       </c>
-      <c r="J59" s="25"/>
+      <c r="J59" s="23"/>
       <c r="K59" t="s">
         <v>295</v>
       </c>
-      <c r="N59" s="25"/>
+      <c r="N59" s="23"/>
       <c r="O59" t="s">
         <v>330</v>
       </c>
-      <c r="R59" s="25"/>
+      <c r="R59" s="23"/>
       <c r="S59" t="s">
         <v>362</v>
       </c>
-      <c r="V59" s="25"/>
+      <c r="V59" s="23"/>
       <c r="W59" t="s">
         <v>393</v>
       </c>
@@ -4365,31 +4383,31 @@
       <c r="A60" s="1">
         <v>17</v>
       </c>
-      <c r="B60" s="25"/>
+      <c r="B60" s="23"/>
       <c r="C60" t="s">
         <v>229</v>
       </c>
-      <c r="F60" s="25"/>
+      <c r="F60" s="23"/>
       <c r="G60" t="s">
         <v>260</v>
       </c>
-      <c r="J60" s="22" t="s">
+      <c r="J60" s="29" t="s">
         <v>18</v>
       </c>
       <c r="K60" t="s">
         <v>296</v>
       </c>
-      <c r="N60" s="22" t="s">
+      <c r="N60" s="29" t="s">
         <v>18</v>
       </c>
       <c r="O60" t="s">
         <v>331</v>
       </c>
-      <c r="R60" s="25"/>
+      <c r="R60" s="23"/>
       <c r="S60" t="s">
         <v>192</v>
       </c>
-      <c r="V60" s="22" t="s">
+      <c r="V60" s="29" t="s">
         <v>18</v>
       </c>
       <c r="W60" t="s">
@@ -4400,19 +4418,19 @@
       <c r="A61" s="1">
         <v>18</v>
       </c>
-      <c r="B61" s="25"/>
+      <c r="B61" s="23"/>
       <c r="C61" t="s">
         <v>55</v>
       </c>
-      <c r="F61" s="25"/>
+      <c r="F61" s="23"/>
       <c r="G61" t="s">
         <v>92</v>
       </c>
-      <c r="J61" s="22"/>
+      <c r="J61" s="29"/>
       <c r="K61" t="s">
         <v>297</v>
       </c>
-      <c r="N61" s="22"/>
+      <c r="N61" s="29"/>
       <c r="O61" t="s">
         <v>332</v>
       </c>
@@ -4422,7 +4440,7 @@
       <c r="S61" t="s">
         <v>363</v>
       </c>
-      <c r="V61" s="22"/>
+      <c r="V61" s="29"/>
       <c r="W61" t="s">
         <v>395</v>
       </c>
@@ -4431,31 +4449,31 @@
       <c r="A62" s="1">
         <v>19</v>
       </c>
-      <c r="B62" s="22" t="s">
+      <c r="B62" s="29" t="s">
         <v>18</v>
       </c>
       <c r="C62" t="s">
         <v>233</v>
       </c>
-      <c r="F62" s="25"/>
+      <c r="F62" s="23"/>
       <c r="G62" t="s">
         <v>259</v>
       </c>
-      <c r="J62" s="22"/>
+      <c r="J62" s="29"/>
       <c r="K62" t="s">
         <v>298</v>
       </c>
-      <c r="N62" s="22"/>
+      <c r="N62" s="29"/>
       <c r="O62" t="s">
         <v>334</v>
       </c>
-      <c r="R62" s="27" t="s">
+      <c r="R62" s="25" t="s">
         <v>24</v>
       </c>
       <c r="S62" t="s">
         <v>364</v>
       </c>
-      <c r="V62" s="22"/>
+      <c r="V62" s="29"/>
       <c r="W62" t="s">
         <v>396</v>
       </c>
@@ -4464,31 +4482,31 @@
       <c r="A63" s="1">
         <v>20</v>
       </c>
-      <c r="B63" s="22"/>
+      <c r="B63" s="29"/>
       <c r="C63" t="s">
         <v>230</v>
       </c>
-      <c r="F63" s="22" t="s">
+      <c r="F63" s="29" t="s">
         <v>18</v>
       </c>
       <c r="G63" t="s">
         <v>264</v>
       </c>
-      <c r="J63" s="27" t="s">
+      <c r="J63" s="25" t="s">
         <v>24</v>
       </c>
       <c r="K63" t="s">
         <v>299</v>
       </c>
-      <c r="N63" s="22"/>
+      <c r="N63" s="29"/>
       <c r="O63" t="s">
         <v>335</v>
       </c>
-      <c r="R63" s="27"/>
+      <c r="R63" s="25"/>
       <c r="S63" t="s">
         <v>365</v>
       </c>
-      <c r="V63" s="22"/>
+      <c r="V63" s="29"/>
       <c r="W63" t="s">
         <v>397</v>
       </c>
@@ -4497,29 +4515,29 @@
       <c r="A64" s="1">
         <v>21</v>
       </c>
-      <c r="B64" s="22"/>
+      <c r="B64" s="29"/>
       <c r="C64" t="s">
         <v>231</v>
       </c>
-      <c r="F64" s="22"/>
+      <c r="F64" s="29"/>
       <c r="G64" t="s">
         <v>265</v>
       </c>
-      <c r="J64" s="27"/>
+      <c r="J64" s="25"/>
       <c r="K64" t="s">
         <v>300</v>
       </c>
-      <c r="N64" s="27" t="s">
+      <c r="N64" s="25" t="s">
         <v>24</v>
       </c>
       <c r="O64" t="s">
         <v>336</v>
       </c>
-      <c r="R64" s="27"/>
+      <c r="R64" s="25"/>
       <c r="S64" t="s">
         <v>366</v>
       </c>
-      <c r="V64" s="27" t="s">
+      <c r="V64" s="25" t="s">
         <v>24</v>
       </c>
       <c r="W64" t="s">
@@ -4530,27 +4548,27 @@
       <c r="A65" s="1">
         <v>22</v>
       </c>
-      <c r="B65" s="22"/>
+      <c r="B65" s="29"/>
       <c r="C65" t="s">
         <v>232</v>
       </c>
-      <c r="F65" s="22"/>
+      <c r="F65" s="29"/>
       <c r="G65" t="s">
         <v>97</v>
       </c>
-      <c r="J65" s="27"/>
+      <c r="J65" s="25"/>
       <c r="K65" t="s">
         <v>301</v>
       </c>
-      <c r="N65" s="27"/>
+      <c r="N65" s="25"/>
       <c r="O65" t="s">
         <v>337</v>
       </c>
-      <c r="R65" s="27"/>
+      <c r="R65" s="25"/>
       <c r="S65" t="s">
         <v>367</v>
       </c>
-      <c r="V65" s="27"/>
+      <c r="V65" s="25"/>
       <c r="W65" t="s">
         <v>399</v>
       </c>
@@ -4559,27 +4577,27 @@
       <c r="A66" s="1">
         <v>23</v>
       </c>
-      <c r="B66" s="22"/>
+      <c r="B66" s="29"/>
       <c r="C66" t="s">
         <v>61</v>
       </c>
-      <c r="F66" s="22"/>
+      <c r="F66" s="29"/>
       <c r="G66" t="s">
         <v>266</v>
       </c>
-      <c r="J66" s="27"/>
+      <c r="J66" s="25"/>
       <c r="K66" t="s">
         <v>302</v>
       </c>
-      <c r="N66" s="27"/>
+      <c r="N66" s="25"/>
       <c r="O66" t="s">
         <v>338</v>
       </c>
-      <c r="R66" s="27"/>
+      <c r="R66" s="25"/>
       <c r="S66" t="s">
         <v>368</v>
       </c>
-      <c r="V66" s="27"/>
+      <c r="V66" s="25"/>
       <c r="W66" t="s">
         <v>400</v>
       </c>
@@ -4588,29 +4606,29 @@
       <c r="A67" s="1">
         <v>24</v>
       </c>
-      <c r="B67" s="22"/>
+      <c r="B67" s="29"/>
       <c r="C67" t="s">
         <v>267</v>
       </c>
-      <c r="F67" s="22"/>
+      <c r="F67" s="29"/>
       <c r="G67" t="s">
         <v>21</v>
       </c>
-      <c r="J67" s="27"/>
+      <c r="J67" s="25"/>
       <c r="K67" t="s">
         <v>303</v>
       </c>
-      <c r="N67" s="27"/>
+      <c r="N67" s="25"/>
       <c r="O67" t="s">
         <v>342</v>
       </c>
-      <c r="R67" s="26" t="s">
+      <c r="R67" s="24" t="s">
         <v>30</v>
       </c>
       <c r="S67" t="s">
         <v>369</v>
       </c>
-      <c r="V67" s="27"/>
+      <c r="V67" s="25"/>
       <c r="W67" t="s">
         <v>401</v>
       </c>
@@ -4619,33 +4637,33 @@
       <c r="A68" s="1">
         <v>25</v>
       </c>
-      <c r="B68" s="27" t="s">
+      <c r="B68" s="25" t="s">
         <v>24</v>
       </c>
       <c r="C68" t="s">
         <v>102</v>
       </c>
-      <c r="F68" s="27" t="s">
+      <c r="F68" s="25" t="s">
         <v>24</v>
       </c>
       <c r="G68" t="s">
         <v>268</v>
       </c>
-      <c r="J68" s="27"/>
+      <c r="J68" s="25"/>
       <c r="K68" t="s">
         <v>304</v>
       </c>
-      <c r="N68" s="26" t="s">
+      <c r="N68" s="24" t="s">
         <v>30</v>
       </c>
       <c r="O68" t="s">
         <v>339</v>
       </c>
-      <c r="R68" s="26"/>
+      <c r="R68" s="24"/>
       <c r="S68" t="s">
         <v>370</v>
       </c>
-      <c r="V68" s="26" t="s">
+      <c r="V68" s="24" t="s">
         <v>30</v>
       </c>
       <c r="W68" t="s">
@@ -4656,27 +4674,27 @@
       <c r="A69" s="1">
         <v>26</v>
       </c>
-      <c r="B69" s="27"/>
+      <c r="B69" s="25"/>
       <c r="C69" t="s">
         <v>234</v>
       </c>
-      <c r="F69" s="27"/>
+      <c r="F69" s="25"/>
       <c r="G69" t="s">
         <v>269</v>
       </c>
-      <c r="J69" s="27"/>
+      <c r="J69" s="25"/>
       <c r="K69" t="s">
         <v>305</v>
       </c>
-      <c r="N69" s="26"/>
+      <c r="N69" s="24"/>
       <c r="O69" t="s">
         <v>340</v>
       </c>
-      <c r="R69" s="26"/>
+      <c r="R69" s="24"/>
       <c r="S69" t="s">
         <v>371</v>
       </c>
-      <c r="V69" s="26"/>
+      <c r="V69" s="24"/>
       <c r="W69" t="s">
         <v>403</v>
       </c>
@@ -4685,29 +4703,29 @@
       <c r="A70" s="1">
         <v>27</v>
       </c>
-      <c r="B70" s="27"/>
+      <c r="B70" s="25"/>
       <c r="C70" t="s">
         <v>235</v>
       </c>
-      <c r="F70" s="27"/>
+      <c r="F70" s="25"/>
       <c r="G70" t="s">
         <v>270</v>
       </c>
-      <c r="J70" s="26" t="s">
+      <c r="J70" s="24" t="s">
         <v>30</v>
       </c>
       <c r="K70" t="s">
         <v>306</v>
       </c>
-      <c r="N70" s="26"/>
+      <c r="N70" s="24"/>
       <c r="O70" t="s">
         <v>341</v>
       </c>
-      <c r="R70" s="26"/>
+      <c r="R70" s="24"/>
       <c r="S70" t="s">
         <v>372</v>
       </c>
-      <c r="V70" s="26"/>
+      <c r="V70" s="24"/>
       <c r="W70" t="s">
         <v>404</v>
       </c>
@@ -4716,29 +4734,29 @@
       <c r="A71" s="1">
         <v>28</v>
       </c>
-      <c r="B71" s="27"/>
+      <c r="B71" s="25"/>
       <c r="C71" t="s">
         <v>236</v>
       </c>
-      <c r="F71" s="27"/>
+      <c r="F71" s="25"/>
       <c r="G71" t="s">
         <v>101</v>
       </c>
-      <c r="J71" s="26"/>
+      <c r="J71" s="24"/>
       <c r="K71" t="s">
         <v>307</v>
       </c>
-      <c r="N71" s="26"/>
+      <c r="N71" s="24"/>
       <c r="O71" t="s">
         <v>343</v>
       </c>
-      <c r="R71" s="28" t="s">
+      <c r="R71" s="26" t="s">
         <v>36</v>
       </c>
       <c r="S71" t="s">
         <v>373</v>
       </c>
-      <c r="V71" s="26"/>
+      <c r="V71" s="24"/>
       <c r="W71" t="s">
         <v>405</v>
       </c>
@@ -4747,29 +4765,29 @@
       <c r="A72" s="1">
         <v>29</v>
       </c>
-      <c r="B72" s="27"/>
+      <c r="B72" s="25"/>
       <c r="C72" t="s">
         <v>237</v>
       </c>
-      <c r="F72" s="26" t="s">
+      <c r="F72" s="24" t="s">
         <v>30</v>
       </c>
       <c r="G72" t="s">
         <v>272</v>
       </c>
-      <c r="J72" s="26"/>
+      <c r="J72" s="24"/>
       <c r="K72" t="s">
         <v>308</v>
       </c>
-      <c r="N72" s="26"/>
+      <c r="N72" s="24"/>
       <c r="O72" t="s">
         <v>271</v>
       </c>
-      <c r="R72" s="28"/>
+      <c r="R72" s="26"/>
       <c r="S72" t="s">
         <v>374</v>
       </c>
-      <c r="V72" s="26"/>
+      <c r="V72" s="24"/>
       <c r="W72" t="s">
         <v>406</v>
       </c>
@@ -4778,29 +4796,29 @@
       <c r="A73" s="1">
         <v>30</v>
       </c>
-      <c r="B73" s="27"/>
+      <c r="B73" s="25"/>
       <c r="C73" t="s">
         <v>238</v>
       </c>
-      <c r="F73" s="26"/>
+      <c r="F73" s="24"/>
       <c r="G73" t="s">
         <v>273</v>
       </c>
-      <c r="J73" s="26"/>
+      <c r="J73" s="24"/>
       <c r="K73" t="s">
         <v>309</v>
       </c>
-      <c r="N73" s="28" t="s">
+      <c r="N73" s="26" t="s">
         <v>36</v>
       </c>
       <c r="O73" t="s">
         <v>344</v>
       </c>
-      <c r="R73" s="28"/>
+      <c r="R73" s="26"/>
       <c r="S73" t="s">
         <v>375</v>
       </c>
-      <c r="V73" s="28" t="s">
+      <c r="V73" s="26" t="s">
         <v>36</v>
       </c>
       <c r="W73" t="s">
@@ -4808,140 +4826,190 @@
       </c>
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B74" s="26" t="s">
+      <c r="B74" s="24" t="s">
         <v>30</v>
       </c>
       <c r="C74" t="s">
         <v>34</v>
       </c>
-      <c r="F74" s="26"/>
+      <c r="F74" s="24"/>
       <c r="G74" t="s">
         <v>274</v>
       </c>
-      <c r="J74" s="28" t="s">
+      <c r="J74" s="26" t="s">
         <v>36</v>
       </c>
       <c r="K74" t="s">
         <v>310</v>
       </c>
-      <c r="N74" s="28"/>
+      <c r="N74" s="26"/>
       <c r="O74" t="s">
         <v>345</v>
       </c>
-      <c r="R74" s="28"/>
+      <c r="R74" s="26"/>
       <c r="S74" t="s">
         <v>376</v>
       </c>
-      <c r="V74" s="28"/>
+      <c r="V74" s="26"/>
       <c r="W74" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B75" s="26"/>
+      <c r="B75" s="24"/>
       <c r="C75" t="s">
         <v>239</v>
       </c>
-      <c r="F75" s="28" t="s">
+      <c r="F75" s="26" t="s">
         <v>36</v>
       </c>
       <c r="G75" t="s">
         <v>276</v>
       </c>
-      <c r="J75" s="28"/>
+      <c r="J75" s="26"/>
       <c r="K75" t="s">
         <v>311</v>
       </c>
-      <c r="N75" s="28"/>
+      <c r="N75" s="26"/>
       <c r="O75" t="s">
         <v>346</v>
       </c>
-      <c r="R75" s="28"/>
+      <c r="R75" s="26"/>
       <c r="S75" t="s">
         <v>377</v>
       </c>
-      <c r="V75" s="28"/>
+      <c r="V75" s="26"/>
       <c r="W75" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B76" s="26"/>
+      <c r="B76" s="24"/>
       <c r="C76" t="s">
         <v>240</v>
       </c>
-      <c r="F76" s="28"/>
+      <c r="F76" s="26"/>
       <c r="G76" t="s">
         <v>277</v>
       </c>
-      <c r="J76" s="28"/>
+      <c r="J76" s="26"/>
       <c r="K76" t="s">
         <v>312</v>
       </c>
-      <c r="N76" s="28"/>
+      <c r="N76" s="26"/>
       <c r="O76" t="s">
         <v>347</v>
       </c>
-      <c r="V76" s="28"/>
+      <c r="V76" s="26"/>
       <c r="W76" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B77" s="26"/>
+      <c r="B77" s="24"/>
       <c r="C77" t="s">
         <v>241</v>
       </c>
-      <c r="F77" s="28"/>
+      <c r="F77" s="26"/>
       <c r="G77" t="s">
         <v>278</v>
       </c>
-      <c r="J77" s="28"/>
+      <c r="J77" s="26"/>
       <c r="K77" t="s">
         <v>313</v>
       </c>
-      <c r="V77" s="28"/>
+      <c r="V77" s="26"/>
       <c r="W77" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B78" s="28" t="s">
+      <c r="B78" s="26" t="s">
         <v>36</v>
       </c>
       <c r="C78" t="s">
         <v>109</v>
       </c>
-      <c r="F78" s="28"/>
+      <c r="F78" s="26"/>
       <c r="G78" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B79" s="28"/>
+      <c r="B79" s="26"/>
       <c r="C79" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B80" s="28"/>
+      <c r="B80" s="26"/>
       <c r="C80" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B81" s="28"/>
+      <c r="B81" s="26"/>
       <c r="C81" t="s">
         <v>244</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="85">
+    <mergeCell ref="F63:F67"/>
+    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="F68:F71"/>
+    <mergeCell ref="B68:B73"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="J4:J9"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="J24:J26"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="F27:F31"/>
     <mergeCell ref="F72:F74"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="B62:B67"/>
+    <mergeCell ref="F47:F54"/>
+    <mergeCell ref="F55:F62"/>
+    <mergeCell ref="F10:F15"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="R4:R9"/>
+    <mergeCell ref="V73:V77"/>
+    <mergeCell ref="V35:V37"/>
+    <mergeCell ref="R53:R60"/>
+    <mergeCell ref="V26:V29"/>
+    <mergeCell ref="J20:J23"/>
+    <mergeCell ref="V52:V59"/>
+    <mergeCell ref="V60:V63"/>
+    <mergeCell ref="V64:V67"/>
+    <mergeCell ref="R62:R66"/>
+    <mergeCell ref="V30:V34"/>
+    <mergeCell ref="R48:R52"/>
     <mergeCell ref="N68:N72"/>
-    <mergeCell ref="V2:V4"/>
-    <mergeCell ref="V13:V22"/>
-    <mergeCell ref="J10:J16"/>
+    <mergeCell ref="V68:V72"/>
+    <mergeCell ref="R67:R70"/>
+    <mergeCell ref="R71:R75"/>
+    <mergeCell ref="V23:V25"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="N4:N10"/>
+    <mergeCell ref="N11:N16"/>
+    <mergeCell ref="J27:J30"/>
+    <mergeCell ref="N24:N29"/>
+    <mergeCell ref="N30:N33"/>
+    <mergeCell ref="J44:J46"/>
     <mergeCell ref="B78:B81"/>
     <mergeCell ref="F75:F78"/>
     <mergeCell ref="J70:J73"/>
@@ -4957,71 +5025,21 @@
     <mergeCell ref="N60:N63"/>
     <mergeCell ref="B47:B52"/>
     <mergeCell ref="B53:B61"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="F44:F46"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="N4:N10"/>
-    <mergeCell ref="N11:N16"/>
+    <mergeCell ref="J47:J49"/>
+    <mergeCell ref="V2:V4"/>
+    <mergeCell ref="V13:V22"/>
+    <mergeCell ref="J10:J16"/>
     <mergeCell ref="R44:R47"/>
-    <mergeCell ref="J27:J30"/>
-    <mergeCell ref="N24:N29"/>
-    <mergeCell ref="N30:N33"/>
     <mergeCell ref="R26:R30"/>
-    <mergeCell ref="J44:J46"/>
-    <mergeCell ref="J47:J49"/>
     <mergeCell ref="R22:R25"/>
     <mergeCell ref="N19:N23"/>
-    <mergeCell ref="V68:V72"/>
-    <mergeCell ref="R67:R70"/>
-    <mergeCell ref="R71:R75"/>
     <mergeCell ref="R31:R34"/>
     <mergeCell ref="V43:Y43"/>
     <mergeCell ref="V44:V46"/>
     <mergeCell ref="V47:V51"/>
-    <mergeCell ref="V52:V59"/>
-    <mergeCell ref="V60:V63"/>
-    <mergeCell ref="V64:V67"/>
-    <mergeCell ref="R62:R66"/>
-    <mergeCell ref="V30:V34"/>
-    <mergeCell ref="R48:R52"/>
-    <mergeCell ref="V73:V77"/>
-    <mergeCell ref="V35:V37"/>
-    <mergeCell ref="R53:R60"/>
-    <mergeCell ref="V26:V29"/>
-    <mergeCell ref="J20:J23"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="F27:F31"/>
-    <mergeCell ref="V23:V25"/>
     <mergeCell ref="R20:R21"/>
     <mergeCell ref="R10:R19"/>
     <mergeCell ref="V5:V12"/>
-    <mergeCell ref="F10:F15"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="R4:R9"/>
-    <mergeCell ref="B10:B15"/>
-    <mergeCell ref="F68:F71"/>
-    <mergeCell ref="B68:B73"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="B62:B67"/>
-    <mergeCell ref="F47:F54"/>
-    <mergeCell ref="F55:F62"/>
-    <mergeCell ref="F63:F67"/>
-    <mergeCell ref="B5:B9"/>
-    <mergeCell ref="J4:J9"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="J24:J26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -5033,7 +5051,7 @@
   <dimension ref="A1:Z50"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5041,7 +5059,7 @@
     <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.26953125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.90625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.7265625" customWidth="1"/>
     <col min="10" max="10" width="29" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.26953125" bestFit="1" customWidth="1"/>
@@ -5054,36 +5072,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="E1" s="29" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="E1" s="27" t="s">
         <v>412</v>
       </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
       <c r="J1" t="s">
         <v>411</v>
       </c>
-      <c r="O1" s="29" t="s">
+      <c r="O1" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="T1" s="29" t="s">
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="T1" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
-      <c r="X1" s="29" t="s">
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="X1" s="27" t="s">
         <v>177</v>
       </c>
-      <c r="Y1" s="29"/>
-      <c r="Z1" s="29"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -5124,6 +5142,9 @@
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>599</v>
+      </c>
       <c r="B3" t="s">
         <v>500</v>
       </c>
@@ -5152,10 +5173,7 @@
         <v>531</v>
       </c>
       <c r="X3" t="s">
-        <v>593</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>528</v>
+        <v>417</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.35">
@@ -5166,13 +5184,10 @@
         <v>413</v>
       </c>
       <c r="F4" t="s">
-        <v>492</v>
-      </c>
-      <c r="J4" t="s">
-        <v>599</v>
+        <v>491</v>
       </c>
       <c r="K4" t="s">
-        <v>491</v>
+        <v>527</v>
       </c>
       <c r="O4" t="s">
         <v>637</v>
@@ -5187,7 +5202,7 @@
         <v>532</v>
       </c>
       <c r="X4" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="Y4" t="s">
         <v>539</v>
@@ -5213,7 +5228,7 @@
         <v>709</v>
       </c>
       <c r="K5" t="s">
-        <v>538</v>
+        <v>492</v>
       </c>
       <c r="O5" t="s">
         <v>638</v>
@@ -5228,7 +5243,7 @@
         <v>533</v>
       </c>
       <c r="X5" t="s">
-        <v>416</v>
+        <v>603</v>
       </c>
       <c r="Y5" t="s">
         <v>699</v>
@@ -5244,6 +5259,9 @@
       <c r="F6" t="s">
         <v>494</v>
       </c>
+      <c r="K6" t="s">
+        <v>538</v>
+      </c>
       <c r="P6" t="s">
         <v>519</v>
       </c>
@@ -5252,6 +5270,9 @@
       </c>
       <c r="U6" t="s">
         <v>534</v>
+      </c>
+      <c r="X6" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.35">
@@ -5264,19 +5285,22 @@
       <c r="F7" t="s">
         <v>529</v>
       </c>
+      <c r="K7" t="s">
+        <v>668</v>
+      </c>
       <c r="T7" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="B8" t="s">
-        <v>527</v>
-      </c>
       <c r="E8" t="s">
         <v>419</v>
       </c>
       <c r="F8" t="s">
         <v>686</v>
+      </c>
+      <c r="K8" t="s">
+        <v>431</v>
       </c>
       <c r="T8" t="s">
         <v>625</v>
@@ -5296,42 +5320,39 @@
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="27" t="s">
         <v>212</v>
       </c>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
       <c r="E17" t="s">
         <v>420</v>
       </c>
-      <c r="I17" s="29" t="s">
+      <c r="I17" s="27" t="s">
         <v>421</v>
       </c>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="N17" s="29" t="s">
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="N17" s="27" t="s">
         <v>314</v>
       </c>
-      <c r="O17" s="29"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="29"/>
-      <c r="S17" s="29" t="s">
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="27"/>
+      <c r="S17" s="27" t="s">
         <v>315</v>
       </c>
-      <c r="T17" s="29"/>
-      <c r="U17" s="29"/>
-      <c r="V17" s="29"/>
+      <c r="T17" s="27"/>
+      <c r="U17" s="27"/>
+      <c r="V17" s="27"/>
       <c r="X17" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>417</v>
-      </c>
       <c r="B18" t="s">
-        <v>509</v>
+        <v>528</v>
       </c>
       <c r="E18" t="s">
         <v>594</v>
@@ -5369,7 +5390,7 @@
         <v>596</v>
       </c>
       <c r="B19" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="E19" t="s">
         <v>609</v>
@@ -5407,7 +5428,7 @@
         <v>598</v>
       </c>
       <c r="B20" t="s">
-        <v>700</v>
+        <v>504</v>
       </c>
       <c r="E20" t="s">
         <v>429</v>
@@ -5440,6 +5461,9 @@
     <row r="21" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>611</v>
+      </c>
+      <c r="B21" t="s">
+        <v>700</v>
       </c>
       <c r="E21" t="s">
         <v>592</v>
@@ -5891,10 +5915,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K262"/>
+  <dimension ref="A1:K270"/>
   <sheetViews>
-    <sheetView topLeftCell="A249" workbookViewId="0">
-      <selection activeCell="C261" sqref="C261"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C267" sqref="C267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7413,6 +7437,52 @@
         <v>740</v>
       </c>
     </row>
+    <row r="263" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A264" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="B264" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A265" s="10"/>
+      <c r="B265" s="11" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A266" s="10" t="s">
+        <v>742</v>
+      </c>
+      <c r="B266" s="11" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A267" s="7"/>
+      <c r="B267" s="8" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A269" s="5" t="s">
+        <v>745</v>
+      </c>
+      <c r="B269" s="6" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A270" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="B270" s="8" t="s">
+        <v>599</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/OffSeason.xlsx
+++ b/OffSeason.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Rosters" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="747">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="749">
   <si>
     <t>Chubber for Chubb - John Olson</t>
   </si>
@@ -1268,21 +1268,9 @@
     <t>Cooper Solo Kupp - Benjamin Luther</t>
   </si>
   <si>
-    <t>2020 2nd Snow Happens</t>
-  </si>
-  <si>
-    <t>2020 1st Slick Dady Club</t>
-  </si>
-  <si>
-    <t>2020 1st Jimmy's done</t>
-  </si>
-  <si>
     <t>Round 7 start own</t>
   </si>
   <si>
-    <t>2020 4th Jimmy's done</t>
-  </si>
-  <si>
     <t>2020 2nd Naked Pooper</t>
   </si>
   <si>
@@ -1295,39 +1283,15 @@
     <t>Injured Reserve Team - Patrick Ponterelli</t>
   </si>
   <si>
-    <t>2020 2nd Jimmy's Done</t>
-  </si>
-  <si>
-    <t>2020 2nd Slick Daddy Club</t>
-  </si>
-  <si>
-    <t>2020 1st Snow Happens</t>
-  </si>
-  <si>
-    <t>2020 3rd Jimmy's Done</t>
-  </si>
-  <si>
     <t>own 7th start</t>
   </si>
   <si>
     <t>2020 5th starts own</t>
   </si>
   <si>
-    <t>2020 3rd Slick Daddy Club</t>
-  </si>
-  <si>
-    <t>2020 4th Snow Happens</t>
-  </si>
-  <si>
-    <t>2020 3rd Snow Happens</t>
-  </si>
-  <si>
     <t>start 6th</t>
   </si>
   <si>
-    <t>2020 5th Snow happens</t>
-  </si>
-  <si>
     <t>1-3 will be auto generated between the picks of Slick Daddy Club, Jimmy's Done I'm not, and Snow happens.</t>
   </si>
   <si>
@@ -1955,9 +1919,6 @@
     <t>Patrick via John</t>
   </si>
   <si>
-    <t>* Lottery</t>
-  </si>
-  <si>
     <t>MikeW</t>
   </si>
   <si>
@@ -2189,12 +2150,6 @@
     <t>2020 4th (andrew)</t>
   </si>
   <si>
-    <t>2020 4th Slick Daddy Club</t>
-  </si>
-  <si>
-    <t>2020 5th Slick Daddy Club</t>
-  </si>
-  <si>
     <t>2020 2 lottery</t>
   </si>
   <si>
@@ -2268,6 +2223,57 @@
   </si>
   <si>
     <t>2021 3 (MikeW)</t>
+  </si>
+  <si>
+    <t>2021 3 (Adam)</t>
+  </si>
+  <si>
+    <t>2020 1.3</t>
+  </si>
+  <si>
+    <t>2020 1.2</t>
+  </si>
+  <si>
+    <t>2020 2.1</t>
+  </si>
+  <si>
+    <t>2020 4.1</t>
+  </si>
+  <si>
+    <t>2020 5.1</t>
+  </si>
+  <si>
+    <t>2020 1.1</t>
+  </si>
+  <si>
+    <t>2020 2.3</t>
+  </si>
+  <si>
+    <t>2020 3.3</t>
+  </si>
+  <si>
+    <t>2020 3.1</t>
+  </si>
+  <si>
+    <t>2020 2.2</t>
+  </si>
+  <si>
+    <t>2020 3.2</t>
+  </si>
+  <si>
+    <t>2020 5.2</t>
+  </si>
+  <si>
+    <t>2020 4.2</t>
+  </si>
+  <si>
+    <t>2020 4.3</t>
+  </si>
+  <si>
+    <t>*order was picked out of hat by trade committee</t>
+  </si>
+  <si>
+    <t>*Trade Committee member</t>
   </si>
 </sst>
 </file>
@@ -2362,7 +2368,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -2432,49 +2438,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2504,37 +2473,37 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2819,8 +2788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2836,11 +2805,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
       <c r="F1" t="s">
         <v>42</v>
       </c>
@@ -2861,37 +2830,37 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="26" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="26" t="s">
         <v>1</v>
       </c>
       <c r="G2" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="26" t="s">
         <v>1</v>
       </c>
       <c r="K2" t="s">
         <v>77</v>
       </c>
-      <c r="N2" s="22" t="s">
+      <c r="N2" s="26" t="s">
         <v>1</v>
       </c>
       <c r="O2" t="s">
         <v>112</v>
       </c>
-      <c r="R2" s="22" t="s">
+      <c r="R2" s="26" t="s">
         <v>1</v>
       </c>
       <c r="S2" t="s">
         <v>144</v>
       </c>
-      <c r="V2" s="22" t="s">
+      <c r="V2" s="26" t="s">
         <v>1</v>
       </c>
       <c r="W2" t="s">
@@ -2902,27 +2871,27 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="22"/>
+      <c r="B3" s="26"/>
       <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="22"/>
+      <c r="F3" s="26"/>
       <c r="G3" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="22"/>
+      <c r="J3" s="26"/>
       <c r="K3" t="s">
         <v>214</v>
       </c>
-      <c r="N3" s="22"/>
+      <c r="N3" s="26"/>
       <c r="O3" t="s">
         <v>104</v>
       </c>
-      <c r="R3" s="22"/>
+      <c r="R3" s="26"/>
       <c r="S3" t="s">
         <v>145</v>
       </c>
-      <c r="V3" s="22"/>
+      <c r="V3" s="26"/>
       <c r="W3" t="s">
         <v>180</v>
       </c>
@@ -2931,33 +2900,33 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="22"/>
+      <c r="B4" s="26"/>
       <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="22"/>
+      <c r="F4" s="26"/>
       <c r="G4" t="s">
         <v>46</v>
       </c>
-      <c r="J4" s="28" t="s">
+      <c r="J4" s="20" t="s">
         <v>5</v>
       </c>
       <c r="K4" t="s">
         <v>248</v>
       </c>
-      <c r="N4" s="28" t="s">
+      <c r="N4" s="20" t="s">
         <v>5</v>
       </c>
       <c r="O4" t="s">
         <v>113</v>
       </c>
-      <c r="R4" s="28" t="s">
+      <c r="R4" s="20" t="s">
         <v>5</v>
       </c>
       <c r="S4" t="s">
         <v>146</v>
       </c>
-      <c r="V4" s="22"/>
+      <c r="V4" s="26"/>
       <c r="W4" t="s">
         <v>181</v>
       </c>
@@ -2966,29 +2935,29 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="20" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="22"/>
+      <c r="F5" s="26"/>
       <c r="G5" t="s">
         <v>47</v>
       </c>
-      <c r="J5" s="28"/>
+      <c r="J5" s="20"/>
       <c r="K5" t="s">
         <v>81</v>
       </c>
-      <c r="N5" s="28"/>
+      <c r="N5" s="20"/>
       <c r="O5" t="s">
         <v>114</v>
       </c>
-      <c r="R5" s="28"/>
+      <c r="R5" s="20"/>
       <c r="S5" t="s">
         <v>147</v>
       </c>
-      <c r="V5" s="28" t="s">
+      <c r="V5" s="20" t="s">
         <v>5</v>
       </c>
       <c r="W5" t="s">
@@ -2999,29 +2968,29 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="28"/>
+      <c r="B6" s="20"/>
       <c r="C6" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="28" t="s">
+      <c r="F6" s="20" t="s">
         <v>5</v>
       </c>
       <c r="G6" t="s">
         <v>215</v>
       </c>
-      <c r="J6" s="28"/>
+      <c r="J6" s="20"/>
       <c r="K6" t="s">
         <v>9</v>
       </c>
-      <c r="N6" s="28"/>
+      <c r="N6" s="20"/>
       <c r="O6" t="s">
         <v>115</v>
       </c>
-      <c r="R6" s="28"/>
+      <c r="R6" s="20"/>
       <c r="S6" t="s">
         <v>148</v>
       </c>
-      <c r="V6" s="28"/>
+      <c r="V6" s="20"/>
       <c r="W6" t="s">
         <v>250</v>
       </c>
@@ -3030,27 +2999,27 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="28"/>
+      <c r="B7" s="20"/>
       <c r="C7" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="28"/>
+      <c r="F7" s="20"/>
       <c r="G7" t="s">
         <v>52</v>
       </c>
-      <c r="J7" s="28"/>
+      <c r="J7" s="20"/>
       <c r="K7" t="s">
         <v>352</v>
       </c>
-      <c r="N7" s="28"/>
+      <c r="N7" s="20"/>
       <c r="O7" t="s">
         <v>116</v>
       </c>
-      <c r="R7" s="28"/>
+      <c r="R7" s="20"/>
       <c r="S7" t="s">
         <v>149</v>
       </c>
-      <c r="V7" s="28"/>
+      <c r="V7" s="20"/>
       <c r="W7" t="s">
         <v>184</v>
       </c>
@@ -3059,27 +3028,27 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="28"/>
+      <c r="B8" s="20"/>
       <c r="C8" t="s">
         <v>80</v>
       </c>
-      <c r="F8" s="28"/>
+      <c r="F8" s="20"/>
       <c r="G8" t="s">
         <v>50</v>
       </c>
-      <c r="J8" s="28"/>
+      <c r="J8" s="20"/>
       <c r="K8" t="s">
         <v>85</v>
       </c>
-      <c r="N8" s="28"/>
+      <c r="N8" s="20"/>
       <c r="O8" t="s">
         <v>117</v>
       </c>
-      <c r="R8" s="28"/>
+      <c r="R8" s="20"/>
       <c r="S8" t="s">
         <v>150</v>
       </c>
-      <c r="V8" s="28"/>
+      <c r="V8" s="20"/>
       <c r="W8" t="s">
         <v>252</v>
       </c>
@@ -3088,27 +3057,27 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="28"/>
+      <c r="B9" s="20"/>
       <c r="C9" t="s">
         <v>82</v>
       </c>
-      <c r="F9" s="28"/>
+      <c r="F9" s="20"/>
       <c r="G9" t="s">
         <v>49</v>
       </c>
-      <c r="J9" s="28"/>
+      <c r="J9" s="20"/>
       <c r="K9" t="s">
         <v>11</v>
       </c>
-      <c r="N9" s="28"/>
+      <c r="N9" s="20"/>
       <c r="O9" t="s">
         <v>118</v>
       </c>
-      <c r="R9" s="28"/>
+      <c r="R9" s="20"/>
       <c r="S9" t="s">
         <v>151</v>
       </c>
-      <c r="V9" s="28"/>
+      <c r="V9" s="20"/>
       <c r="W9" t="s">
         <v>385</v>
       </c>
@@ -3117,35 +3086,35 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="24" t="s">
         <v>12</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="24" t="s">
         <v>12</v>
       </c>
       <c r="G10" t="s">
         <v>194</v>
       </c>
-      <c r="J10" s="23" t="s">
+      <c r="J10" s="24" t="s">
         <v>12</v>
       </c>
       <c r="K10" t="s">
         <v>15</v>
       </c>
-      <c r="N10" s="28"/>
+      <c r="N10" s="20"/>
       <c r="O10" t="s">
         <v>119</v>
       </c>
-      <c r="R10" s="23" t="s">
+      <c r="R10" s="24" t="s">
         <v>12</v>
       </c>
       <c r="S10" t="s">
         <v>152</v>
       </c>
-      <c r="V10" s="28"/>
+      <c r="V10" s="20"/>
       <c r="W10" t="s">
         <v>187</v>
       </c>
@@ -3154,29 +3123,29 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="23"/>
+      <c r="B11" s="24"/>
       <c r="C11" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="23"/>
+      <c r="F11" s="24"/>
       <c r="G11" t="s">
         <v>56</v>
       </c>
-      <c r="J11" s="23"/>
+      <c r="J11" s="24"/>
       <c r="K11" t="s">
         <v>188</v>
       </c>
-      <c r="N11" s="23" t="s">
+      <c r="N11" s="24" t="s">
         <v>12</v>
       </c>
       <c r="O11" t="s">
         <v>120</v>
       </c>
-      <c r="R11" s="23"/>
+      <c r="R11" s="24"/>
       <c r="S11" t="s">
         <v>153</v>
       </c>
-      <c r="V11" s="28"/>
+      <c r="V11" s="20"/>
       <c r="W11" t="s">
         <v>53</v>
       </c>
@@ -3185,27 +3154,27 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="23"/>
+      <c r="B12" s="24"/>
       <c r="C12" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="23"/>
+      <c r="F12" s="24"/>
       <c r="G12" t="s">
         <v>58</v>
       </c>
-      <c r="J12" s="23"/>
+      <c r="J12" s="24"/>
       <c r="K12" t="s">
         <v>86</v>
       </c>
-      <c r="N12" s="23"/>
+      <c r="N12" s="24"/>
       <c r="O12" t="s">
         <v>121</v>
       </c>
-      <c r="R12" s="23"/>
+      <c r="R12" s="24"/>
       <c r="S12" t="s">
         <v>154</v>
       </c>
-      <c r="V12" s="28"/>
+      <c r="V12" s="20"/>
       <c r="W12" t="s">
         <v>10</v>
       </c>
@@ -3214,27 +3183,27 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="23"/>
+      <c r="B13" s="24"/>
       <c r="C13" t="s">
         <v>89</v>
       </c>
-      <c r="F13" s="23"/>
+      <c r="F13" s="24"/>
       <c r="G13" t="s">
         <v>59</v>
       </c>
-      <c r="J13" s="23"/>
+      <c r="J13" s="24"/>
       <c r="K13" t="s">
         <v>88</v>
       </c>
-      <c r="N13" s="23"/>
+      <c r="N13" s="24"/>
       <c r="O13" t="s">
         <v>122</v>
       </c>
-      <c r="R13" s="23"/>
+      <c r="R13" s="24"/>
       <c r="S13" t="s">
         <v>155</v>
       </c>
-      <c r="V13" s="23" t="s">
+      <c r="V13" s="24" t="s">
         <v>12</v>
       </c>
       <c r="W13" t="s">
@@ -3245,27 +3214,27 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="23"/>
+      <c r="B14" s="24"/>
       <c r="C14" t="s">
         <v>87</v>
       </c>
-      <c r="F14" s="23"/>
+      <c r="F14" s="24"/>
       <c r="G14" t="s">
         <v>226</v>
       </c>
-      <c r="J14" s="23"/>
+      <c r="J14" s="24"/>
       <c r="K14" t="s">
         <v>16</v>
       </c>
-      <c r="N14" s="23"/>
+      <c r="N14" s="24"/>
       <c r="O14" t="s">
         <v>123</v>
       </c>
-      <c r="R14" s="23"/>
+      <c r="R14" s="24"/>
       <c r="S14" t="s">
         <v>156</v>
       </c>
-      <c r="V14" s="23"/>
+      <c r="V14" s="24"/>
       <c r="W14" t="s">
         <v>189</v>
       </c>
@@ -3274,27 +3243,27 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="23"/>
+      <c r="B15" s="24"/>
       <c r="C15" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="23"/>
+      <c r="F15" s="24"/>
       <c r="G15" t="s">
         <v>225</v>
       </c>
-      <c r="J15" s="23"/>
+      <c r="J15" s="24"/>
       <c r="K15" t="s">
         <v>22</v>
       </c>
-      <c r="N15" s="23"/>
+      <c r="N15" s="24"/>
       <c r="O15" t="s">
         <v>124</v>
       </c>
-      <c r="R15" s="23"/>
+      <c r="R15" s="24"/>
       <c r="S15" t="s">
         <v>157</v>
       </c>
-      <c r="V15" s="23"/>
+      <c r="V15" s="24"/>
       <c r="W15" t="s">
         <v>190</v>
       </c>
@@ -3303,31 +3272,31 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="25" t="s">
         <v>18</v>
       </c>
       <c r="C16" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="29" t="s">
+      <c r="F16" s="25" t="s">
         <v>18</v>
       </c>
       <c r="G16" t="s">
         <v>60</v>
       </c>
-      <c r="J16" s="23"/>
+      <c r="J16" s="24"/>
       <c r="K16" t="s">
         <v>23</v>
       </c>
-      <c r="N16" s="23"/>
+      <c r="N16" s="24"/>
       <c r="O16" t="s">
         <v>125</v>
       </c>
-      <c r="R16" s="23"/>
+      <c r="R16" s="24"/>
       <c r="S16" t="s">
         <v>158</v>
       </c>
-      <c r="V16" s="23"/>
+      <c r="V16" s="24"/>
       <c r="W16" t="s">
         <v>191</v>
       </c>
@@ -3336,31 +3305,31 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="29"/>
+      <c r="B17" s="25"/>
       <c r="C17" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="29"/>
+      <c r="F17" s="25"/>
       <c r="G17" t="s">
         <v>62</v>
       </c>
-      <c r="J17" s="29" t="s">
+      <c r="J17" s="25" t="s">
         <v>18</v>
       </c>
       <c r="K17" t="s">
         <v>95</v>
       </c>
-      <c r="N17" s="29" t="s">
+      <c r="N17" s="25" t="s">
         <v>18</v>
       </c>
       <c r="O17" t="s">
         <v>126</v>
       </c>
-      <c r="R17" s="23"/>
+      <c r="R17" s="24"/>
       <c r="S17" t="s">
         <v>159</v>
       </c>
-      <c r="V17" s="23"/>
+      <c r="V17" s="24"/>
       <c r="W17" t="s">
         <v>91</v>
       </c>
@@ -3369,27 +3338,27 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="29"/>
+      <c r="B18" s="25"/>
       <c r="C18" t="s">
         <v>96</v>
       </c>
-      <c r="F18" s="29"/>
+      <c r="F18" s="25"/>
       <c r="G18" t="s">
         <v>63</v>
       </c>
-      <c r="J18" s="29"/>
+      <c r="J18" s="25"/>
       <c r="K18" t="s">
         <v>98</v>
       </c>
-      <c r="N18" s="29"/>
+      <c r="N18" s="25"/>
       <c r="O18" t="s">
         <v>127</v>
       </c>
-      <c r="R18" s="23"/>
+      <c r="R18" s="24"/>
       <c r="S18" t="s">
         <v>160</v>
       </c>
-      <c r="V18" s="23"/>
+      <c r="V18" s="24"/>
       <c r="W18" t="s">
         <v>261</v>
       </c>
@@ -3398,33 +3367,33 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="23" t="s">
         <v>24</v>
       </c>
       <c r="C19" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="25" t="s">
+      <c r="F19" s="23" t="s">
         <v>24</v>
       </c>
       <c r="G19" t="s">
         <v>64</v>
       </c>
-      <c r="J19" s="29"/>
+      <c r="J19" s="25"/>
       <c r="K19" t="s">
         <v>333</v>
       </c>
-      <c r="N19" s="25" t="s">
+      <c r="N19" s="23" t="s">
         <v>24</v>
       </c>
       <c r="O19" t="s">
         <v>128</v>
       </c>
-      <c r="R19" s="23"/>
+      <c r="R19" s="24"/>
       <c r="S19" t="s">
         <v>161</v>
       </c>
-      <c r="V19" s="23"/>
+      <c r="V19" s="24"/>
       <c r="W19" t="s">
         <v>94</v>
       </c>
@@ -3433,31 +3402,31 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="25"/>
+      <c r="B20" s="23"/>
       <c r="C20" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="25"/>
+      <c r="F20" s="23"/>
       <c r="G20" t="s">
         <v>65</v>
       </c>
-      <c r="J20" s="25" t="s">
+      <c r="J20" s="19" t="s">
         <v>24</v>
       </c>
       <c r="K20" t="s">
         <v>99</v>
       </c>
-      <c r="N20" s="25"/>
+      <c r="N20" s="23"/>
       <c r="O20" t="s">
         <v>129</v>
       </c>
-      <c r="R20" s="29" t="s">
+      <c r="R20" s="25" t="s">
         <v>18</v>
       </c>
       <c r="S20" t="s">
         <v>162</v>
       </c>
-      <c r="V20" s="23"/>
+      <c r="V20" s="24"/>
       <c r="W20" t="s">
         <v>193</v>
       </c>
@@ -3466,27 +3435,27 @@
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="25"/>
+      <c r="B21" s="23"/>
       <c r="C21" t="s">
         <v>100</v>
       </c>
-      <c r="F21" s="25"/>
+      <c r="F21" s="23"/>
       <c r="G21" t="s">
         <v>66</v>
       </c>
-      <c r="J21" s="25"/>
+      <c r="J21" s="19"/>
       <c r="K21" t="s">
-        <v>28</v>
-      </c>
-      <c r="N21" s="25"/>
+        <v>29</v>
+      </c>
+      <c r="N21" s="23"/>
       <c r="O21" t="s">
         <v>130</v>
       </c>
-      <c r="R21" s="29"/>
+      <c r="R21" s="25"/>
       <c r="S21" t="s">
         <v>163</v>
       </c>
-      <c r="V21" s="23"/>
+      <c r="V21" s="24"/>
       <c r="W21" t="s">
         <v>195</v>
       </c>
@@ -3495,31 +3464,31 @@
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="21" t="s">
         <v>30</v>
       </c>
       <c r="C22" t="s">
         <v>31</v>
       </c>
-      <c r="F22" s="25"/>
+      <c r="F22" s="23"/>
       <c r="G22" t="s">
         <v>67</v>
       </c>
-      <c r="J22" s="25"/>
+      <c r="J22" s="19"/>
       <c r="K22" t="s">
-        <v>29</v>
-      </c>
-      <c r="N22" s="25"/>
+        <v>27</v>
+      </c>
+      <c r="N22" s="23"/>
       <c r="O22" t="s">
         <v>131</v>
       </c>
-      <c r="R22" s="25" t="s">
+      <c r="R22" s="23" t="s">
         <v>24</v>
       </c>
       <c r="S22" t="s">
         <v>164</v>
       </c>
-      <c r="V22" s="23"/>
+      <c r="V22" s="24"/>
       <c r="W22" t="s">
         <v>196</v>
       </c>
@@ -3528,29 +3497,31 @@
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="24"/>
+      <c r="B23" s="21"/>
       <c r="C23" t="s">
         <v>32</v>
       </c>
-      <c r="F23" s="24" t="s">
+      <c r="F23" s="21" t="s">
         <v>30</v>
       </c>
       <c r="G23" t="s">
         <v>69</v>
       </c>
-      <c r="J23" s="25"/>
+      <c r="J23" s="21" t="s">
+        <v>30</v>
+      </c>
       <c r="K23" t="s">
-        <v>27</v>
-      </c>
-      <c r="N23" s="25"/>
+        <v>103</v>
+      </c>
+      <c r="N23" s="23"/>
       <c r="O23" t="s">
         <v>132</v>
       </c>
-      <c r="R23" s="25"/>
+      <c r="R23" s="23"/>
       <c r="S23" t="s">
         <v>165</v>
       </c>
-      <c r="V23" s="29" t="s">
+      <c r="V23" s="25" t="s">
         <v>18</v>
       </c>
       <c r="W23" t="s">
@@ -3561,31 +3532,29 @@
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="24"/>
+      <c r="B24" s="21"/>
       <c r="C24" t="s">
         <v>33</v>
       </c>
-      <c r="F24" s="24"/>
+      <c r="F24" s="21"/>
       <c r="G24" t="s">
         <v>70</v>
       </c>
-      <c r="J24" s="24" t="s">
-        <v>30</v>
-      </c>
+      <c r="J24" s="21"/>
       <c r="K24" t="s">
-        <v>103</v>
-      </c>
-      <c r="N24" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="N24" s="21" t="s">
         <v>30</v>
       </c>
       <c r="O24" t="s">
         <v>133</v>
       </c>
-      <c r="R24" s="25"/>
+      <c r="R24" s="23"/>
       <c r="S24" t="s">
         <v>166</v>
       </c>
-      <c r="V24" s="29"/>
+      <c r="V24" s="25"/>
       <c r="W24" t="s">
         <v>198</v>
       </c>
@@ -3594,27 +3563,27 @@
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="24"/>
+      <c r="B25" s="21"/>
       <c r="C25" t="s">
         <v>104</v>
       </c>
-      <c r="F25" s="24"/>
+      <c r="F25" s="21"/>
       <c r="G25" t="s">
         <v>71</v>
       </c>
-      <c r="J25" s="24"/>
+      <c r="J25" s="21"/>
       <c r="K25" t="s">
-        <v>105</v>
-      </c>
-      <c r="N25" s="24"/>
+        <v>106</v>
+      </c>
+      <c r="N25" s="21"/>
       <c r="O25" t="s">
         <v>134</v>
       </c>
-      <c r="R25" s="25"/>
+      <c r="R25" s="23"/>
       <c r="S25" t="s">
         <v>167</v>
       </c>
-      <c r="V25" s="29"/>
+      <c r="V25" s="25"/>
       <c r="W25" t="s">
         <v>199</v>
       </c>
@@ -3623,31 +3592,33 @@
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="22" t="s">
         <v>36</v>
       </c>
       <c r="C26" t="s">
         <v>37</v>
       </c>
-      <c r="F26" s="24"/>
+      <c r="F26" s="21"/>
       <c r="G26" t="s">
         <v>68</v>
       </c>
-      <c r="J26" s="24"/>
+      <c r="J26" s="22" t="s">
+        <v>36</v>
+      </c>
       <c r="K26" t="s">
-        <v>106</v>
-      </c>
-      <c r="N26" s="24"/>
+        <v>40</v>
+      </c>
+      <c r="N26" s="21"/>
       <c r="O26" t="s">
         <v>135</v>
       </c>
-      <c r="R26" s="24" t="s">
+      <c r="R26" s="21" t="s">
         <v>30</v>
       </c>
       <c r="S26" t="s">
         <v>168</v>
       </c>
-      <c r="V26" s="25" t="s">
+      <c r="V26" s="23" t="s">
         <v>24</v>
       </c>
       <c r="W26" t="s">
@@ -3658,31 +3629,29 @@
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="26"/>
+      <c r="B27" s="22"/>
       <c r="C27" t="s">
         <v>38</v>
       </c>
-      <c r="F27" s="26" t="s">
+      <c r="F27" s="22" t="s">
         <v>36</v>
       </c>
       <c r="G27" t="s">
         <v>72</v>
       </c>
-      <c r="J27" s="26" t="s">
-        <v>36</v>
-      </c>
+      <c r="J27" s="22"/>
       <c r="K27" t="s">
-        <v>40</v>
-      </c>
-      <c r="N27" s="24"/>
+        <v>108</v>
+      </c>
+      <c r="N27" s="21"/>
       <c r="O27" t="s">
         <v>136</v>
       </c>
-      <c r="R27" s="24"/>
+      <c r="R27" s="21"/>
       <c r="S27" t="s">
         <v>169</v>
       </c>
-      <c r="V27" s="25"/>
+      <c r="V27" s="23"/>
       <c r="W27" t="s">
         <v>201</v>
       </c>
@@ -3691,27 +3660,27 @@
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="26"/>
+      <c r="B28" s="22"/>
       <c r="C28" t="s">
         <v>39</v>
       </c>
-      <c r="F28" s="26"/>
+      <c r="F28" s="22"/>
       <c r="G28" t="s">
         <v>73</v>
       </c>
-      <c r="J28" s="26"/>
+      <c r="J28" s="22"/>
       <c r="K28" t="s">
-        <v>108</v>
-      </c>
-      <c r="N28" s="24"/>
+        <v>110</v>
+      </c>
+      <c r="N28" s="21"/>
       <c r="O28" t="s">
         <v>137</v>
       </c>
-      <c r="R28" s="24"/>
+      <c r="R28" s="21"/>
       <c r="S28" t="s">
         <v>170</v>
       </c>
-      <c r="V28" s="25"/>
+      <c r="V28" s="23"/>
       <c r="W28" t="s">
         <v>202</v>
       </c>
@@ -3720,27 +3689,27 @@
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="26"/>
+      <c r="B29" s="22"/>
       <c r="C29" t="s">
         <v>107</v>
       </c>
-      <c r="F29" s="26"/>
+      <c r="F29" s="22"/>
       <c r="G29" t="s">
         <v>74</v>
       </c>
-      <c r="J29" s="26"/>
+      <c r="J29" s="22"/>
       <c r="K29" t="s">
-        <v>110</v>
-      </c>
-      <c r="N29" s="24"/>
+        <v>41</v>
+      </c>
+      <c r="N29" s="21"/>
       <c r="O29" t="s">
         <v>138</v>
       </c>
-      <c r="R29" s="24"/>
+      <c r="R29" s="21"/>
       <c r="S29" t="s">
         <v>171</v>
       </c>
-      <c r="V29" s="25"/>
+      <c r="V29" s="23"/>
       <c r="W29" t="s">
         <v>203</v>
       </c>
@@ -3749,25 +3718,21 @@
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="F30" s="26"/>
+      <c r="F30" s="22"/>
       <c r="G30" t="s">
         <v>75</v>
       </c>
-      <c r="J30" s="26"/>
-      <c r="K30" t="s">
-        <v>41</v>
-      </c>
-      <c r="N30" s="26" t="s">
+      <c r="N30" s="22" t="s">
         <v>36</v>
       </c>
       <c r="O30" t="s">
         <v>139</v>
       </c>
-      <c r="R30" s="24"/>
+      <c r="R30" s="21"/>
       <c r="S30" t="s">
         <v>172</v>
       </c>
-      <c r="V30" s="24" t="s">
+      <c r="V30" s="21" t="s">
         <v>30</v>
       </c>
       <c r="W30" t="s">
@@ -3778,65 +3743,65 @@
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="F31" s="26"/>
+      <c r="F31" s="22"/>
       <c r="G31" t="s">
         <v>275</v>
       </c>
-      <c r="N31" s="26"/>
+      <c r="N31" s="22"/>
       <c r="O31" t="s">
         <v>140</v>
       </c>
-      <c r="R31" s="26" t="s">
+      <c r="R31" s="22" t="s">
         <v>36</v>
       </c>
       <c r="S31" t="s">
         <v>173</v>
       </c>
-      <c r="V31" s="24"/>
+      <c r="V31" s="21"/>
       <c r="W31" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="N32" s="26"/>
+      <c r="N32" s="22"/>
       <c r="O32" t="s">
         <v>141</v>
       </c>
-      <c r="R32" s="26"/>
+      <c r="R32" s="22"/>
       <c r="S32" t="s">
         <v>174</v>
       </c>
-      <c r="V32" s="24"/>
+      <c r="V32" s="21"/>
       <c r="W32" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="N33" s="26"/>
+      <c r="N33" s="22"/>
       <c r="O33" t="s">
         <v>142</v>
       </c>
-      <c r="R33" s="26"/>
+      <c r="R33" s="22"/>
       <c r="S33" t="s">
         <v>175</v>
       </c>
-      <c r="V33" s="24"/>
+      <c r="V33" s="21"/>
       <c r="W33" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="R34" s="26"/>
+      <c r="R34" s="22"/>
       <c r="S34" t="s">
         <v>176</v>
       </c>
-      <c r="V34" s="24"/>
+      <c r="V34" s="21"/>
       <c r="W34" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="V35" s="26" t="s">
+      <c r="V35" s="22" t="s">
         <v>36</v>
       </c>
       <c r="W35" t="s">
@@ -3844,13 +3809,13 @@
       </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="V36" s="26"/>
+      <c r="V36" s="22"/>
       <c r="W36" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="V37" s="26"/>
+      <c r="V37" s="22"/>
       <c r="W37" t="s">
         <v>211</v>
       </c>
@@ -3863,7 +3828,7 @@
         <v>245</v>
       </c>
       <c r="J43" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="N43" t="s">
         <v>314</v>
@@ -3871,48 +3836,48 @@
       <c r="R43" t="s">
         <v>315</v>
       </c>
-      <c r="V43" s="27" t="s">
+      <c r="V43" s="28" t="s">
         <v>316</v>
       </c>
-      <c r="W43" s="27"/>
-      <c r="X43" s="27"/>
-      <c r="Y43" s="27"/>
+      <c r="W43" s="28"/>
+      <c r="X43" s="28"/>
+      <c r="Y43" s="28"/>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>1</v>
       </c>
-      <c r="B44" s="22" t="s">
+      <c r="B44" s="26" t="s">
         <v>1</v>
       </c>
       <c r="C44" t="s">
         <v>44</v>
       </c>
-      <c r="F44" s="22" t="s">
+      <c r="F44" s="26" t="s">
         <v>1</v>
       </c>
       <c r="G44" t="s">
         <v>246</v>
       </c>
-      <c r="J44" s="22" t="s">
+      <c r="J44" s="26" t="s">
         <v>1</v>
       </c>
       <c r="K44" t="s">
         <v>280</v>
       </c>
-      <c r="N44" s="22" t="s">
+      <c r="N44" s="26" t="s">
         <v>1</v>
       </c>
       <c r="O44" t="s">
         <v>317</v>
       </c>
-      <c r="R44" s="22" t="s">
+      <c r="R44" s="26" t="s">
         <v>1</v>
       </c>
       <c r="S44" t="s">
         <v>348</v>
       </c>
-      <c r="V44" s="22" t="s">
+      <c r="V44" s="26" t="s">
         <v>1</v>
       </c>
       <c r="W44" t="s">
@@ -3923,27 +3888,27 @@
       <c r="A45" s="1">
         <v>2</v>
       </c>
-      <c r="B45" s="22"/>
+      <c r="B45" s="26"/>
       <c r="C45" t="s">
         <v>178</v>
       </c>
-      <c r="F45" s="22"/>
+      <c r="F45" s="26"/>
       <c r="G45" t="s">
         <v>247</v>
       </c>
-      <c r="J45" s="22"/>
+      <c r="J45" s="26"/>
       <c r="K45" t="s">
         <v>281</v>
       </c>
-      <c r="N45" s="22"/>
+      <c r="N45" s="26"/>
       <c r="O45" t="s">
         <v>318</v>
       </c>
-      <c r="R45" s="22"/>
+      <c r="R45" s="26"/>
       <c r="S45" t="s">
         <v>349</v>
       </c>
-      <c r="V45" s="22"/>
+      <c r="V45" s="26"/>
       <c r="W45" t="s">
         <v>379</v>
       </c>
@@ -3952,27 +3917,27 @@
       <c r="A46" s="1">
         <v>3</v>
       </c>
-      <c r="B46" s="22"/>
+      <c r="B46" s="26"/>
       <c r="C46" t="s">
         <v>213</v>
       </c>
-      <c r="F46" s="22"/>
+      <c r="F46" s="26"/>
       <c r="G46" t="s">
         <v>79</v>
       </c>
-      <c r="J46" s="22"/>
+      <c r="J46" s="26"/>
       <c r="K46" t="s">
         <v>282</v>
       </c>
-      <c r="N46" s="22"/>
+      <c r="N46" s="26"/>
       <c r="O46" t="s">
         <v>319</v>
       </c>
-      <c r="R46" s="22"/>
+      <c r="R46" s="26"/>
       <c r="S46" t="s">
         <v>78</v>
       </c>
-      <c r="V46" s="22"/>
+      <c r="V46" s="26"/>
       <c r="W46" t="s">
         <v>380</v>
       </c>
@@ -3981,35 +3946,35 @@
       <c r="A47" s="1">
         <v>4</v>
       </c>
-      <c r="B47" s="28" t="s">
+      <c r="B47" s="20" t="s">
         <v>5</v>
       </c>
       <c r="C47" t="s">
         <v>216</v>
       </c>
-      <c r="F47" s="28" t="s">
+      <c r="F47" s="20" t="s">
         <v>5</v>
       </c>
       <c r="G47" t="s">
         <v>183</v>
       </c>
-      <c r="J47" s="28" t="s">
+      <c r="J47" s="20" t="s">
         <v>5</v>
       </c>
       <c r="K47" t="s">
         <v>283</v>
       </c>
-      <c r="N47" s="28" t="s">
+      <c r="N47" s="20" t="s">
         <v>5</v>
       </c>
       <c r="O47" t="s">
         <v>320</v>
       </c>
-      <c r="R47" s="22"/>
+      <c r="R47" s="26"/>
       <c r="S47" t="s">
         <v>350</v>
       </c>
-      <c r="V47" s="28" t="s">
+      <c r="V47" s="20" t="s">
         <v>5</v>
       </c>
       <c r="W47" t="s">
@@ -4020,29 +3985,29 @@
       <c r="A48" s="1">
         <v>5</v>
       </c>
-      <c r="B48" s="28"/>
+      <c r="B48" s="20"/>
       <c r="C48" t="s">
         <v>217</v>
       </c>
-      <c r="F48" s="28"/>
+      <c r="F48" s="20"/>
       <c r="G48" t="s">
         <v>84</v>
       </c>
-      <c r="J48" s="28"/>
+      <c r="J48" s="20"/>
       <c r="K48" t="s">
         <v>284</v>
       </c>
-      <c r="N48" s="28"/>
+      <c r="N48" s="20"/>
       <c r="O48" t="s">
         <v>251</v>
       </c>
-      <c r="R48" s="28" t="s">
+      <c r="R48" s="20" t="s">
         <v>5</v>
       </c>
       <c r="S48" t="s">
         <v>351</v>
       </c>
-      <c r="V48" s="28"/>
+      <c r="V48" s="20"/>
       <c r="W48" t="s">
         <v>382</v>
       </c>
@@ -4051,28 +4016,28 @@
       <c r="A49" s="1">
         <v>6</v>
       </c>
-      <c r="B49" s="28"/>
+      <c r="B49" s="20"/>
       <c r="C49" t="s">
         <v>221</v>
       </c>
-      <c r="D49" s="20"/>
-      <c r="F49" s="28"/>
+      <c r="D49" s="17"/>
+      <c r="F49" s="20"/>
       <c r="G49" t="s">
         <v>51</v>
       </c>
-      <c r="J49" s="28"/>
+      <c r="J49" s="20"/>
       <c r="K49" t="s">
         <v>285</v>
       </c>
-      <c r="N49" s="28"/>
+      <c r="N49" s="20"/>
       <c r="O49" t="s">
         <v>322</v>
       </c>
-      <c r="R49" s="28"/>
+      <c r="R49" s="20"/>
       <c r="S49" t="s">
         <v>48</v>
       </c>
-      <c r="V49" s="28"/>
+      <c r="V49" s="20"/>
       <c r="W49" t="s">
         <v>383</v>
       </c>
@@ -4081,31 +4046,31 @@
       <c r="A50" s="1">
         <v>7</v>
       </c>
-      <c r="B50" s="28"/>
+      <c r="B50" s="20"/>
       <c r="C50" t="s">
         <v>222</v>
       </c>
-      <c r="F50" s="28"/>
+      <c r="F50" s="20"/>
       <c r="G50" t="s">
         <v>321</v>
       </c>
-      <c r="J50" s="23" t="s">
+      <c r="J50" s="24" t="s">
         <v>12</v>
       </c>
       <c r="K50" t="s">
         <v>286</v>
       </c>
-      <c r="N50" s="23" t="s">
+      <c r="N50" s="24" t="s">
         <v>12</v>
       </c>
       <c r="O50" t="s">
         <v>323</v>
       </c>
-      <c r="R50" s="28"/>
+      <c r="R50" s="20"/>
       <c r="S50" t="s">
         <v>353</v>
       </c>
-      <c r="V50" s="28"/>
+      <c r="V50" s="20"/>
       <c r="W50" t="s">
         <v>384</v>
       </c>
@@ -4114,27 +4079,27 @@
       <c r="A51" s="1">
         <v>8</v>
       </c>
-      <c r="B51" s="28"/>
+      <c r="B51" s="20"/>
       <c r="C51" t="s">
         <v>253</v>
       </c>
-      <c r="F51" s="28"/>
+      <c r="F51" s="20"/>
       <c r="G51" t="s">
         <v>254</v>
       </c>
-      <c r="J51" s="23"/>
+      <c r="J51" s="24"/>
       <c r="K51" t="s">
         <v>287</v>
       </c>
-      <c r="N51" s="23"/>
+      <c r="N51" s="24"/>
       <c r="O51" t="s">
         <v>324</v>
       </c>
-      <c r="R51" s="28"/>
+      <c r="R51" s="20"/>
       <c r="S51" t="s">
         <v>354</v>
       </c>
-      <c r="V51" s="28"/>
+      <c r="V51" s="20"/>
       <c r="W51" t="s">
         <v>186</v>
       </c>
@@ -4143,27 +4108,27 @@
       <c r="A52" s="1">
         <v>9</v>
       </c>
-      <c r="B52" s="28"/>
+      <c r="B52" s="20"/>
       <c r="C52" t="s">
         <v>83</v>
       </c>
-      <c r="F52" s="28"/>
+      <c r="F52" s="20"/>
       <c r="G52" t="s">
         <v>249</v>
       </c>
-      <c r="J52" s="23"/>
+      <c r="J52" s="24"/>
       <c r="K52" t="s">
         <v>288</v>
       </c>
-      <c r="N52" s="23"/>
+      <c r="N52" s="24"/>
       <c r="O52" t="s">
         <v>325</v>
       </c>
-      <c r="R52" s="28"/>
+      <c r="R52" s="20"/>
       <c r="S52" t="s">
         <v>355</v>
       </c>
-      <c r="V52" s="23" t="s">
+      <c r="V52" s="24" t="s">
         <v>12</v>
       </c>
       <c r="W52" t="s">
@@ -4174,31 +4139,31 @@
       <c r="A53" s="1">
         <v>10</v>
       </c>
-      <c r="B53" s="23" t="s">
+      <c r="B53" s="24" t="s">
         <v>12</v>
       </c>
       <c r="C53" t="s">
         <v>57</v>
       </c>
-      <c r="F53" s="28"/>
+      <c r="F53" s="20"/>
       <c r="G53" t="s">
         <v>255</v>
       </c>
-      <c r="J53" s="23"/>
+      <c r="J53" s="24"/>
       <c r="K53" t="s">
         <v>289</v>
       </c>
-      <c r="N53" s="23"/>
+      <c r="N53" s="24"/>
       <c r="O53" t="s">
         <v>326</v>
       </c>
-      <c r="R53" s="23" t="s">
+      <c r="R53" s="24" t="s">
         <v>12</v>
       </c>
       <c r="S53" t="s">
         <v>356</v>
       </c>
-      <c r="V53" s="23"/>
+      <c r="V53" s="24"/>
       <c r="W53" t="s">
         <v>387</v>
       </c>
@@ -4207,27 +4172,27 @@
       <c r="A54" s="1">
         <v>11</v>
       </c>
-      <c r="B54" s="23"/>
+      <c r="B54" s="24"/>
       <c r="C54" t="s">
         <v>93</v>
       </c>
-      <c r="F54" s="28"/>
+      <c r="F54" s="20"/>
       <c r="G54" t="s">
         <v>185</v>
       </c>
-      <c r="J54" s="23"/>
+      <c r="J54" s="24"/>
       <c r="K54" t="s">
         <v>290</v>
       </c>
-      <c r="N54" s="23"/>
+      <c r="N54" s="24"/>
       <c r="O54" t="s">
         <v>327</v>
       </c>
-      <c r="R54" s="23"/>
+      <c r="R54" s="24"/>
       <c r="S54" t="s">
         <v>357</v>
       </c>
-      <c r="V54" s="23"/>
+      <c r="V54" s="24"/>
       <c r="W54" t="s">
         <v>388</v>
       </c>
@@ -4236,29 +4201,29 @@
       <c r="A55" s="1">
         <v>12</v>
       </c>
-      <c r="B55" s="23"/>
+      <c r="B55" s="24"/>
       <c r="C55" t="s">
         <v>218</v>
       </c>
-      <c r="F55" s="23" t="s">
+      <c r="F55" s="24" t="s">
         <v>12</v>
       </c>
       <c r="G55" t="s">
         <v>219</v>
       </c>
-      <c r="J55" s="23"/>
+      <c r="J55" s="24"/>
       <c r="K55" t="s">
         <v>291</v>
       </c>
-      <c r="N55" s="23"/>
+      <c r="N55" s="24"/>
       <c r="O55" t="s">
         <v>328</v>
       </c>
-      <c r="R55" s="23"/>
+      <c r="R55" s="24"/>
       <c r="S55" t="s">
         <v>358</v>
       </c>
-      <c r="V55" s="23"/>
+      <c r="V55" s="24"/>
       <c r="W55" t="s">
         <v>389</v>
       </c>
@@ -4267,27 +4232,27 @@
       <c r="A56" s="1">
         <v>13</v>
       </c>
-      <c r="B56" s="23"/>
+      <c r="B56" s="24"/>
       <c r="C56" t="s">
         <v>220</v>
       </c>
-      <c r="F56" s="23"/>
+      <c r="F56" s="24"/>
       <c r="G56" t="s">
         <v>228</v>
       </c>
-      <c r="J56" s="23"/>
+      <c r="J56" s="24"/>
       <c r="K56" t="s">
         <v>292</v>
       </c>
-      <c r="N56" s="23"/>
+      <c r="N56" s="24"/>
       <c r="O56" t="s">
         <v>329</v>
       </c>
-      <c r="R56" s="23"/>
+      <c r="R56" s="24"/>
       <c r="S56" t="s">
         <v>359</v>
       </c>
-      <c r="V56" s="23"/>
+      <c r="V56" s="24"/>
       <c r="W56" t="s">
         <v>390</v>
       </c>
@@ -4296,27 +4261,27 @@
       <c r="A57" s="1">
         <v>14</v>
       </c>
-      <c r="B57" s="23"/>
+      <c r="B57" s="24"/>
       <c r="C57" t="s">
         <v>223</v>
       </c>
-      <c r="F57" s="23"/>
+      <c r="F57" s="24"/>
       <c r="G57" t="s">
         <v>258</v>
       </c>
-      <c r="J57" s="23"/>
+      <c r="J57" s="24"/>
       <c r="K57" t="s">
         <v>293</v>
       </c>
-      <c r="N57" s="23"/>
+      <c r="N57" s="24"/>
       <c r="O57" t="s">
         <v>257</v>
       </c>
-      <c r="R57" s="23"/>
+      <c r="R57" s="24"/>
       <c r="S57" t="s">
         <v>360</v>
       </c>
-      <c r="V57" s="23"/>
+      <c r="V57" s="24"/>
       <c r="W57" t="s">
         <v>391</v>
       </c>
@@ -4325,27 +4290,27 @@
       <c r="A58" s="1">
         <v>15</v>
       </c>
-      <c r="B58" s="23"/>
+      <c r="B58" s="24"/>
       <c r="C58" t="s">
         <v>224</v>
       </c>
-      <c r="F58" s="23"/>
+      <c r="F58" s="24"/>
       <c r="G58" t="s">
         <v>90</v>
       </c>
-      <c r="J58" s="23"/>
+      <c r="J58" s="24"/>
       <c r="K58" t="s">
         <v>294</v>
       </c>
-      <c r="N58" s="23"/>
+      <c r="N58" s="24"/>
       <c r="O58" t="s">
         <v>263</v>
       </c>
-      <c r="R58" s="23"/>
+      <c r="R58" s="24"/>
       <c r="S58" t="s">
         <v>361</v>
       </c>
-      <c r="V58" s="23"/>
+      <c r="V58" s="24"/>
       <c r="W58" t="s">
         <v>392</v>
       </c>
@@ -4354,27 +4319,27 @@
       <c r="A59" s="1">
         <v>16</v>
       </c>
-      <c r="B59" s="23"/>
+      <c r="B59" s="24"/>
       <c r="C59" t="s">
         <v>227</v>
       </c>
-      <c r="F59" s="23"/>
+      <c r="F59" s="24"/>
       <c r="G59" t="s">
         <v>262</v>
       </c>
-      <c r="J59" s="23"/>
+      <c r="J59" s="24"/>
       <c r="K59" t="s">
         <v>295</v>
       </c>
-      <c r="N59" s="23"/>
+      <c r="N59" s="24"/>
       <c r="O59" t="s">
         <v>330</v>
       </c>
-      <c r="R59" s="23"/>
+      <c r="R59" s="24"/>
       <c r="S59" t="s">
         <v>362</v>
       </c>
-      <c r="V59" s="23"/>
+      <c r="V59" s="24"/>
       <c r="W59" t="s">
         <v>393</v>
       </c>
@@ -4383,31 +4348,31 @@
       <c r="A60" s="1">
         <v>17</v>
       </c>
-      <c r="B60" s="23"/>
+      <c r="B60" s="24"/>
       <c r="C60" t="s">
         <v>229</v>
       </c>
-      <c r="F60" s="23"/>
+      <c r="F60" s="24"/>
       <c r="G60" t="s">
         <v>260</v>
       </c>
-      <c r="J60" s="29" t="s">
+      <c r="J60" s="25" t="s">
         <v>18</v>
       </c>
       <c r="K60" t="s">
         <v>296</v>
       </c>
-      <c r="N60" s="29" t="s">
+      <c r="N60" s="25" t="s">
         <v>18</v>
       </c>
       <c r="O60" t="s">
         <v>331</v>
       </c>
-      <c r="R60" s="23"/>
+      <c r="R60" s="24"/>
       <c r="S60" t="s">
         <v>192</v>
       </c>
-      <c r="V60" s="29" t="s">
+      <c r="V60" s="25" t="s">
         <v>18</v>
       </c>
       <c r="W60" t="s">
@@ -4418,19 +4383,19 @@
       <c r="A61" s="1">
         <v>18</v>
       </c>
-      <c r="B61" s="23"/>
+      <c r="B61" s="24"/>
       <c r="C61" t="s">
         <v>55</v>
       </c>
-      <c r="F61" s="23"/>
+      <c r="F61" s="24"/>
       <c r="G61" t="s">
         <v>92</v>
       </c>
-      <c r="J61" s="29"/>
+      <c r="J61" s="25"/>
       <c r="K61" t="s">
         <v>297</v>
       </c>
-      <c r="N61" s="29"/>
+      <c r="N61" s="25"/>
       <c r="O61" t="s">
         <v>332</v>
       </c>
@@ -4440,7 +4405,7 @@
       <c r="S61" t="s">
         <v>363</v>
       </c>
-      <c r="V61" s="29"/>
+      <c r="V61" s="25"/>
       <c r="W61" t="s">
         <v>395</v>
       </c>
@@ -4449,31 +4414,31 @@
       <c r="A62" s="1">
         <v>19</v>
       </c>
-      <c r="B62" s="29" t="s">
+      <c r="B62" s="25" t="s">
         <v>18</v>
       </c>
       <c r="C62" t="s">
         <v>233</v>
       </c>
-      <c r="F62" s="23"/>
+      <c r="F62" s="24"/>
       <c r="G62" t="s">
         <v>259</v>
       </c>
-      <c r="J62" s="29"/>
+      <c r="J62" s="25"/>
       <c r="K62" t="s">
         <v>298</v>
       </c>
-      <c r="N62" s="29"/>
+      <c r="N62" s="25"/>
       <c r="O62" t="s">
         <v>334</v>
       </c>
-      <c r="R62" s="25" t="s">
+      <c r="R62" s="23" t="s">
         <v>24</v>
       </c>
       <c r="S62" t="s">
         <v>364</v>
       </c>
-      <c r="V62" s="29"/>
+      <c r="V62" s="25"/>
       <c r="W62" t="s">
         <v>396</v>
       </c>
@@ -4482,31 +4447,31 @@
       <c r="A63" s="1">
         <v>20</v>
       </c>
-      <c r="B63" s="29"/>
+      <c r="B63" s="25"/>
       <c r="C63" t="s">
         <v>230</v>
       </c>
-      <c r="F63" s="29" t="s">
+      <c r="F63" s="25" t="s">
         <v>18</v>
       </c>
       <c r="G63" t="s">
         <v>264</v>
       </c>
-      <c r="J63" s="25" t="s">
+      <c r="J63" s="23" t="s">
         <v>24</v>
       </c>
       <c r="K63" t="s">
         <v>299</v>
       </c>
-      <c r="N63" s="29"/>
+      <c r="N63" s="25"/>
       <c r="O63" t="s">
         <v>335</v>
       </c>
-      <c r="R63" s="25"/>
+      <c r="R63" s="23"/>
       <c r="S63" t="s">
         <v>365</v>
       </c>
-      <c r="V63" s="29"/>
+      <c r="V63" s="25"/>
       <c r="W63" t="s">
         <v>397</v>
       </c>
@@ -4515,29 +4480,29 @@
       <c r="A64" s="1">
         <v>21</v>
       </c>
-      <c r="B64" s="29"/>
+      <c r="B64" s="25"/>
       <c r="C64" t="s">
         <v>231</v>
       </c>
-      <c r="F64" s="29"/>
+      <c r="F64" s="25"/>
       <c r="G64" t="s">
         <v>265</v>
       </c>
-      <c r="J64" s="25"/>
+      <c r="J64" s="23"/>
       <c r="K64" t="s">
         <v>300</v>
       </c>
-      <c r="N64" s="25" t="s">
+      <c r="N64" s="23" t="s">
         <v>24</v>
       </c>
       <c r="O64" t="s">
         <v>336</v>
       </c>
-      <c r="R64" s="25"/>
+      <c r="R64" s="23"/>
       <c r="S64" t="s">
         <v>366</v>
       </c>
-      <c r="V64" s="25" t="s">
+      <c r="V64" s="23" t="s">
         <v>24</v>
       </c>
       <c r="W64" t="s">
@@ -4548,27 +4513,27 @@
       <c r="A65" s="1">
         <v>22</v>
       </c>
-      <c r="B65" s="29"/>
+      <c r="B65" s="25"/>
       <c r="C65" t="s">
         <v>232</v>
       </c>
-      <c r="F65" s="29"/>
+      <c r="F65" s="25"/>
       <c r="G65" t="s">
         <v>97</v>
       </c>
-      <c r="J65" s="25"/>
+      <c r="J65" s="23"/>
       <c r="K65" t="s">
         <v>301</v>
       </c>
-      <c r="N65" s="25"/>
+      <c r="N65" s="23"/>
       <c r="O65" t="s">
         <v>337</v>
       </c>
-      <c r="R65" s="25"/>
+      <c r="R65" s="23"/>
       <c r="S65" t="s">
         <v>367</v>
       </c>
-      <c r="V65" s="25"/>
+      <c r="V65" s="23"/>
       <c r="W65" t="s">
         <v>399</v>
       </c>
@@ -4577,27 +4542,27 @@
       <c r="A66" s="1">
         <v>23</v>
       </c>
-      <c r="B66" s="29"/>
+      <c r="B66" s="25"/>
       <c r="C66" t="s">
         <v>61</v>
       </c>
-      <c r="F66" s="29"/>
+      <c r="F66" s="25"/>
       <c r="G66" t="s">
         <v>266</v>
       </c>
-      <c r="J66" s="25"/>
+      <c r="J66" s="23"/>
       <c r="K66" t="s">
         <v>302</v>
       </c>
-      <c r="N66" s="25"/>
+      <c r="N66" s="23"/>
       <c r="O66" t="s">
         <v>338</v>
       </c>
-      <c r="R66" s="25"/>
+      <c r="R66" s="23"/>
       <c r="S66" t="s">
         <v>368</v>
       </c>
-      <c r="V66" s="25"/>
+      <c r="V66" s="23"/>
       <c r="W66" t="s">
         <v>400</v>
       </c>
@@ -4606,29 +4571,29 @@
       <c r="A67" s="1">
         <v>24</v>
       </c>
-      <c r="B67" s="29"/>
+      <c r="B67" s="25"/>
       <c r="C67" t="s">
         <v>267</v>
       </c>
-      <c r="F67" s="29"/>
+      <c r="F67" s="25"/>
       <c r="G67" t="s">
         <v>21</v>
       </c>
-      <c r="J67" s="25"/>
+      <c r="J67" s="23"/>
       <c r="K67" t="s">
         <v>303</v>
       </c>
-      <c r="N67" s="25"/>
+      <c r="N67" s="23"/>
       <c r="O67" t="s">
         <v>342</v>
       </c>
-      <c r="R67" s="24" t="s">
+      <c r="R67" s="21" t="s">
         <v>30</v>
       </c>
       <c r="S67" t="s">
         <v>369</v>
       </c>
-      <c r="V67" s="25"/>
+      <c r="V67" s="23"/>
       <c r="W67" t="s">
         <v>401</v>
       </c>
@@ -4637,33 +4602,33 @@
       <c r="A68" s="1">
         <v>25</v>
       </c>
-      <c r="B68" s="25" t="s">
+      <c r="B68" s="23" t="s">
         <v>24</v>
       </c>
       <c r="C68" t="s">
         <v>102</v>
       </c>
-      <c r="F68" s="25" t="s">
+      <c r="F68" s="23" t="s">
         <v>24</v>
       </c>
       <c r="G68" t="s">
         <v>268</v>
       </c>
-      <c r="J68" s="25"/>
+      <c r="J68" s="23"/>
       <c r="K68" t="s">
         <v>304</v>
       </c>
-      <c r="N68" s="24" t="s">
+      <c r="N68" s="21" t="s">
         <v>30</v>
       </c>
       <c r="O68" t="s">
         <v>339</v>
       </c>
-      <c r="R68" s="24"/>
+      <c r="R68" s="21"/>
       <c r="S68" t="s">
         <v>370</v>
       </c>
-      <c r="V68" s="24" t="s">
+      <c r="V68" s="21" t="s">
         <v>30</v>
       </c>
       <c r="W68" t="s">
@@ -4674,27 +4639,28 @@
       <c r="A69" s="1">
         <v>26</v>
       </c>
-      <c r="B69" s="25"/>
+      <c r="B69" s="23"/>
       <c r="C69" t="s">
         <v>234</v>
       </c>
-      <c r="F69" s="25"/>
+      <c r="F69" s="23"/>
       <c r="G69" t="s">
         <v>269</v>
       </c>
-      <c r="J69" s="25"/>
+      <c r="H69" s="17"/>
+      <c r="J69" s="23"/>
       <c r="K69" t="s">
         <v>305</v>
       </c>
-      <c r="N69" s="24"/>
+      <c r="N69" s="21"/>
       <c r="O69" t="s">
         <v>340</v>
       </c>
-      <c r="R69" s="24"/>
+      <c r="R69" s="21"/>
       <c r="S69" t="s">
         <v>371</v>
       </c>
-      <c r="V69" s="24"/>
+      <c r="V69" s="21"/>
       <c r="W69" t="s">
         <v>403</v>
       </c>
@@ -4703,29 +4669,29 @@
       <c r="A70" s="1">
         <v>27</v>
       </c>
-      <c r="B70" s="25"/>
+      <c r="B70" s="23"/>
       <c r="C70" t="s">
         <v>235</v>
       </c>
-      <c r="F70" s="25"/>
+      <c r="F70" s="23"/>
       <c r="G70" t="s">
         <v>270</v>
       </c>
-      <c r="J70" s="24" t="s">
+      <c r="J70" s="21" t="s">
         <v>30</v>
       </c>
       <c r="K70" t="s">
         <v>306</v>
       </c>
-      <c r="N70" s="24"/>
+      <c r="N70" s="21"/>
       <c r="O70" t="s">
         <v>341</v>
       </c>
-      <c r="R70" s="24"/>
+      <c r="R70" s="21"/>
       <c r="S70" t="s">
         <v>372</v>
       </c>
-      <c r="V70" s="24"/>
+      <c r="V70" s="21"/>
       <c r="W70" t="s">
         <v>404</v>
       </c>
@@ -4734,29 +4700,29 @@
       <c r="A71" s="1">
         <v>28</v>
       </c>
-      <c r="B71" s="25"/>
+      <c r="B71" s="23"/>
       <c r="C71" t="s">
         <v>236</v>
       </c>
-      <c r="F71" s="25"/>
+      <c r="F71" s="23"/>
       <c r="G71" t="s">
         <v>101</v>
       </c>
-      <c r="J71" s="24"/>
+      <c r="J71" s="21"/>
       <c r="K71" t="s">
         <v>307</v>
       </c>
-      <c r="N71" s="24"/>
+      <c r="N71" s="21"/>
       <c r="O71" t="s">
         <v>343</v>
       </c>
-      <c r="R71" s="26" t="s">
+      <c r="R71" s="22" t="s">
         <v>36</v>
       </c>
       <c r="S71" t="s">
         <v>373</v>
       </c>
-      <c r="V71" s="24"/>
+      <c r="V71" s="21"/>
       <c r="W71" t="s">
         <v>405</v>
       </c>
@@ -4765,29 +4731,27 @@
       <c r="A72" s="1">
         <v>29</v>
       </c>
-      <c r="B72" s="25"/>
+      <c r="B72" s="23"/>
       <c r="C72" t="s">
         <v>237</v>
       </c>
-      <c r="F72" s="24" t="s">
-        <v>30</v>
-      </c>
+      <c r="F72" s="23"/>
       <c r="G72" t="s">
-        <v>272</v>
-      </c>
-      <c r="J72" s="24"/>
+        <v>28</v>
+      </c>
+      <c r="J72" s="21"/>
       <c r="K72" t="s">
         <v>308</v>
       </c>
-      <c r="N72" s="24"/>
+      <c r="N72" s="21"/>
       <c r="O72" t="s">
         <v>271</v>
       </c>
-      <c r="R72" s="26"/>
+      <c r="R72" s="22"/>
       <c r="S72" t="s">
         <v>374</v>
       </c>
-      <c r="V72" s="24"/>
+      <c r="V72" s="21"/>
       <c r="W72" t="s">
         <v>406</v>
       </c>
@@ -4796,29 +4760,31 @@
       <c r="A73" s="1">
         <v>30</v>
       </c>
-      <c r="B73" s="25"/>
+      <c r="B73" s="23"/>
       <c r="C73" t="s">
         <v>238</v>
       </c>
-      <c r="F73" s="24"/>
+      <c r="F73" s="21" t="s">
+        <v>30</v>
+      </c>
       <c r="G73" t="s">
-        <v>273</v>
-      </c>
-      <c r="J73" s="24"/>
+        <v>272</v>
+      </c>
+      <c r="J73" s="21"/>
       <c r="K73" t="s">
         <v>309</v>
       </c>
-      <c r="N73" s="26" t="s">
+      <c r="N73" s="22" t="s">
         <v>36</v>
       </c>
       <c r="O73" t="s">
         <v>344</v>
       </c>
-      <c r="R73" s="26"/>
+      <c r="R73" s="22"/>
       <c r="S73" t="s">
         <v>375</v>
       </c>
-      <c r="V73" s="26" t="s">
+      <c r="V73" s="22" t="s">
         <v>36</v>
       </c>
       <c r="W73" t="s">
@@ -4826,172 +4792,179 @@
       </c>
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B74" s="24" t="s">
+      <c r="B74" s="21" t="s">
         <v>30</v>
       </c>
       <c r="C74" t="s">
         <v>34</v>
       </c>
-      <c r="F74" s="24"/>
+      <c r="F74" s="21"/>
       <c r="G74" t="s">
-        <v>274</v>
-      </c>
-      <c r="J74" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="J74" s="22" t="s">
         <v>36</v>
       </c>
       <c r="K74" t="s">
         <v>310</v>
       </c>
-      <c r="N74" s="26"/>
+      <c r="N74" s="22"/>
       <c r="O74" t="s">
         <v>345</v>
       </c>
-      <c r="R74" s="26"/>
+      <c r="R74" s="22"/>
       <c r="S74" t="s">
         <v>376</v>
       </c>
-      <c r="V74" s="26"/>
+      <c r="V74" s="22"/>
       <c r="W74" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B75" s="24"/>
+      <c r="B75" s="21"/>
       <c r="C75" t="s">
         <v>239</v>
       </c>
-      <c r="F75" s="26" t="s">
-        <v>36</v>
-      </c>
+      <c r="F75" s="21"/>
       <c r="G75" t="s">
-        <v>276</v>
-      </c>
-      <c r="J75" s="26"/>
+        <v>274</v>
+      </c>
+      <c r="J75" s="22"/>
       <c r="K75" t="s">
         <v>311</v>
       </c>
-      <c r="N75" s="26"/>
+      <c r="N75" s="22"/>
       <c r="O75" t="s">
         <v>346</v>
       </c>
-      <c r="R75" s="26"/>
+      <c r="R75" s="22"/>
       <c r="S75" t="s">
         <v>377</v>
       </c>
-      <c r="V75" s="26"/>
+      <c r="V75" s="22"/>
       <c r="W75" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B76" s="24"/>
+      <c r="B76" s="21"/>
       <c r="C76" t="s">
         <v>240</v>
       </c>
-      <c r="F76" s="26"/>
+      <c r="F76" s="22" t="s">
+        <v>36</v>
+      </c>
       <c r="G76" t="s">
-        <v>277</v>
-      </c>
-      <c r="J76" s="26"/>
+        <v>276</v>
+      </c>
+      <c r="J76" s="22"/>
       <c r="K76" t="s">
         <v>312</v>
       </c>
-      <c r="N76" s="26"/>
+      <c r="N76" s="22"/>
       <c r="O76" t="s">
         <v>347</v>
       </c>
-      <c r="V76" s="26"/>
+      <c r="V76" s="22"/>
       <c r="W76" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B77" s="24"/>
+      <c r="B77" s="21"/>
       <c r="C77" t="s">
         <v>241</v>
       </c>
-      <c r="F77" s="26"/>
+      <c r="F77" s="22"/>
       <c r="G77" t="s">
-        <v>278</v>
-      </c>
-      <c r="J77" s="26"/>
+        <v>277</v>
+      </c>
+      <c r="J77" s="22"/>
       <c r="K77" t="s">
         <v>313</v>
       </c>
-      <c r="V77" s="26"/>
+      <c r="V77" s="22"/>
       <c r="W77" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B78" s="26" t="s">
+      <c r="B78" s="22" t="s">
         <v>36</v>
       </c>
       <c r="C78" t="s">
         <v>109</v>
       </c>
-      <c r="F78" s="26"/>
+      <c r="F78" s="22"/>
       <c r="G78" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B79" s="26"/>
+      <c r="B79" s="22"/>
       <c r="C79" t="s">
         <v>242</v>
       </c>
+      <c r="F79" s="22"/>
+      <c r="G79" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B80" s="26"/>
+      <c r="B80" s="22"/>
       <c r="C80" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B81" s="26"/>
+      <c r="B81" s="22"/>
       <c r="C81" t="s">
         <v>244</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="85">
+  <mergeCells count="84">
+    <mergeCell ref="V2:V4"/>
+    <mergeCell ref="V13:V22"/>
+    <mergeCell ref="J10:J16"/>
+    <mergeCell ref="R44:R47"/>
+    <mergeCell ref="R26:R30"/>
+    <mergeCell ref="R22:R25"/>
+    <mergeCell ref="N19:N23"/>
+    <mergeCell ref="R31:R34"/>
+    <mergeCell ref="V43:Y43"/>
+    <mergeCell ref="V44:V46"/>
+    <mergeCell ref="V47:V51"/>
+    <mergeCell ref="R20:R21"/>
+    <mergeCell ref="R10:R19"/>
+    <mergeCell ref="V5:V12"/>
+    <mergeCell ref="N30:N33"/>
+    <mergeCell ref="J44:J46"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="F76:F79"/>
+    <mergeCell ref="J70:J73"/>
+    <mergeCell ref="J74:J77"/>
+    <mergeCell ref="J60:J62"/>
+    <mergeCell ref="J50:J59"/>
+    <mergeCell ref="J63:J69"/>
+    <mergeCell ref="B47:B52"/>
     <mergeCell ref="F63:F67"/>
-    <mergeCell ref="B10:B15"/>
-    <mergeCell ref="F68:F71"/>
     <mergeCell ref="B68:B73"/>
-    <mergeCell ref="B5:B9"/>
-    <mergeCell ref="J4:J9"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="J24:J26"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="F27:F31"/>
-    <mergeCell ref="F72:F74"/>
+    <mergeCell ref="F73:F75"/>
     <mergeCell ref="B74:B77"/>
     <mergeCell ref="B62:B67"/>
     <mergeCell ref="F47:F54"/>
+    <mergeCell ref="J47:J49"/>
     <mergeCell ref="F55:F62"/>
-    <mergeCell ref="F10:F15"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="R4:R9"/>
-    <mergeCell ref="V73:V77"/>
-    <mergeCell ref="V35:V37"/>
-    <mergeCell ref="R53:R60"/>
-    <mergeCell ref="V26:V29"/>
-    <mergeCell ref="J20:J23"/>
-    <mergeCell ref="V52:V59"/>
-    <mergeCell ref="V60:V63"/>
-    <mergeCell ref="V64:V67"/>
-    <mergeCell ref="R62:R66"/>
-    <mergeCell ref="V30:V34"/>
-    <mergeCell ref="R48:R52"/>
-    <mergeCell ref="N68:N72"/>
-    <mergeCell ref="V68:V72"/>
-    <mergeCell ref="R67:R70"/>
+    <mergeCell ref="B53:B61"/>
+    <mergeCell ref="F68:F72"/>
+    <mergeCell ref="N44:N46"/>
+    <mergeCell ref="N47:N49"/>
+    <mergeCell ref="N64:N67"/>
+    <mergeCell ref="N73:N76"/>
+    <mergeCell ref="N50:N59"/>
+    <mergeCell ref="N60:N63"/>
     <mergeCell ref="R71:R75"/>
     <mergeCell ref="V23:V25"/>
     <mergeCell ref="B1:D1"/>
@@ -5006,40 +4979,36 @@
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="N4:N10"/>
     <mergeCell ref="N11:N16"/>
-    <mergeCell ref="J27:J30"/>
+    <mergeCell ref="J26:J29"/>
     <mergeCell ref="N24:N29"/>
-    <mergeCell ref="N30:N33"/>
-    <mergeCell ref="J44:J46"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="F75:F78"/>
-    <mergeCell ref="J70:J73"/>
-    <mergeCell ref="J74:J77"/>
-    <mergeCell ref="N44:N46"/>
-    <mergeCell ref="N47:N49"/>
-    <mergeCell ref="N64:N67"/>
-    <mergeCell ref="N73:N76"/>
-    <mergeCell ref="N50:N59"/>
-    <mergeCell ref="J60:J62"/>
-    <mergeCell ref="J50:J59"/>
-    <mergeCell ref="J63:J69"/>
-    <mergeCell ref="N60:N63"/>
-    <mergeCell ref="B47:B52"/>
-    <mergeCell ref="B53:B61"/>
-    <mergeCell ref="J47:J49"/>
-    <mergeCell ref="V2:V4"/>
-    <mergeCell ref="V13:V22"/>
-    <mergeCell ref="J10:J16"/>
-    <mergeCell ref="R44:R47"/>
-    <mergeCell ref="R26:R30"/>
-    <mergeCell ref="R22:R25"/>
-    <mergeCell ref="N19:N23"/>
-    <mergeCell ref="R31:R34"/>
-    <mergeCell ref="V43:Y43"/>
-    <mergeCell ref="V44:V46"/>
-    <mergeCell ref="V47:V51"/>
-    <mergeCell ref="R20:R21"/>
-    <mergeCell ref="R10:R19"/>
-    <mergeCell ref="V5:V12"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="R4:R9"/>
+    <mergeCell ref="V73:V77"/>
+    <mergeCell ref="V35:V37"/>
+    <mergeCell ref="R53:R60"/>
+    <mergeCell ref="V26:V29"/>
+    <mergeCell ref="V52:V59"/>
+    <mergeCell ref="V60:V63"/>
+    <mergeCell ref="V64:V67"/>
+    <mergeCell ref="R62:R66"/>
+    <mergeCell ref="V30:V34"/>
+    <mergeCell ref="R48:R52"/>
+    <mergeCell ref="N68:N72"/>
+    <mergeCell ref="V68:V72"/>
+    <mergeCell ref="R67:R70"/>
+    <mergeCell ref="J4:J9"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="J23:J25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="F27:F31"/>
+    <mergeCell ref="F10:F15"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="B5:B9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -5051,7 +5020,7 @@
   <dimension ref="A1:Z50"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5072,599 +5041,607 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="E1" s="27" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="E1" s="28" t="s">
         <v>412</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
       <c r="J1" t="s">
         <v>411</v>
       </c>
-      <c r="O1" s="27" t="s">
+      <c r="O1" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="T1" s="27" t="s">
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="T1" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="X1" s="27" t="s">
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="X1" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="Y1" s="27"/>
-      <c r="Z1" s="27"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>415</v>
+        <v>733</v>
       </c>
       <c r="B2" t="s">
+        <v>513</v>
+      </c>
+      <c r="E2" t="s">
+        <v>734</v>
+      </c>
+      <c r="F2" t="s">
+        <v>493</v>
+      </c>
+      <c r="J2" t="s">
+        <v>542</v>
+      </c>
+      <c r="K2" t="s">
+        <v>508</v>
+      </c>
+      <c r="O2" t="s">
+        <v>623</v>
+      </c>
+      <c r="P2" t="s">
+        <v>503</v>
+      </c>
+      <c r="T2" t="s">
+        <v>596</v>
+      </c>
+      <c r="U2" t="s">
+        <v>518</v>
+      </c>
+      <c r="X2" t="s">
+        <v>745</v>
+      </c>
+      <c r="Y2" t="s">
         <v>525</v>
-      </c>
-      <c r="E2" t="s">
-        <v>414</v>
-      </c>
-      <c r="F2" t="s">
-        <v>505</v>
-      </c>
-      <c r="J2" t="s">
-        <v>554</v>
-      </c>
-      <c r="K2" t="s">
-        <v>520</v>
-      </c>
-      <c r="O2" t="s">
-        <v>635</v>
-      </c>
-      <c r="P2" t="s">
-        <v>515</v>
-      </c>
-      <c r="T2" t="s">
-        <v>608</v>
-      </c>
-      <c r="U2" t="s">
-        <v>530</v>
-      </c>
-      <c r="X2" t="s">
-        <v>720</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="B3" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="E3" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
       <c r="F3" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="J3" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="K3" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="O3" t="s">
-        <v>636</v>
+        <v>624</v>
       </c>
       <c r="P3" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="T3" t="s">
-        <v>624</v>
+        <v>612</v>
       </c>
       <c r="U3" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="X3" t="s">
-        <v>417</v>
+        <v>746</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="E4" t="s">
-        <v>413</v>
+        <v>735</v>
       </c>
       <c r="F4" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="K4" t="s">
+        <v>515</v>
+      </c>
+      <c r="O4" t="s">
+        <v>625</v>
+      </c>
+      <c r="P4" t="s">
+        <v>505</v>
+      </c>
+      <c r="T4" t="s">
+        <v>611</v>
+      </c>
+      <c r="U4" t="s">
+        <v>520</v>
+      </c>
+      <c r="X4" t="s">
+        <v>581</v>
+      </c>
+      <c r="Y4" t="s">
         <v>527</v>
-      </c>
-      <c r="O4" t="s">
-        <v>637</v>
-      </c>
-      <c r="P4" t="s">
-        <v>517</v>
-      </c>
-      <c r="T4" t="s">
-        <v>623</v>
-      </c>
-      <c r="U4" t="s">
-        <v>532</v>
-      </c>
-      <c r="X4" t="s">
-        <v>593</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="B5" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="E5" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
       <c r="F5" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="G5" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="J5" t="s">
-        <v>709</v>
+        <v>696</v>
       </c>
       <c r="K5" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="O5" t="s">
-        <v>638</v>
+        <v>626</v>
       </c>
       <c r="P5" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="T5" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="U5" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="X5" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="Y5" t="s">
-        <v>699</v>
+        <v>686</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="B6" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="F6" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="K6" t="s">
-        <v>538</v>
+        <v>480</v>
       </c>
       <c r="P6" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="T6" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="U6" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="X6" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="E7" t="s">
-        <v>620</v>
+        <v>608</v>
       </c>
       <c r="F7" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="K7" t="s">
-        <v>668</v>
+        <v>526</v>
       </c>
       <c r="T7" t="s">
-        <v>614</v>
+        <v>602</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="E8" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F8" t="s">
-        <v>686</v>
+        <v>673</v>
       </c>
       <c r="K8" t="s">
-        <v>431</v>
+        <v>655</v>
       </c>
       <c r="T8" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>487</v>
+        <v>475</v>
+      </c>
+      <c r="K9" t="s">
+        <v>420</v>
       </c>
       <c r="T9" t="s">
-        <v>610</v>
+        <v>598</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="28" t="s">
         <v>212</v>
       </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
       <c r="E17" t="s">
-        <v>420</v>
-      </c>
-      <c r="I17" s="27" t="s">
-        <v>421</v>
-      </c>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="N17" s="27" t="s">
+        <v>416</v>
+      </c>
+      <c r="I17" s="28" t="s">
+        <v>417</v>
+      </c>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="N17" s="28" t="s">
         <v>314</v>
       </c>
-      <c r="O17" s="27"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="27"/>
-      <c r="S17" s="27" t="s">
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="28"/>
+      <c r="S17" s="28" t="s">
         <v>315</v>
       </c>
-      <c r="T17" s="27"/>
-      <c r="U17" s="27"/>
-      <c r="V17" s="27"/>
+      <c r="T17" s="28"/>
+      <c r="U17" s="28"/>
+      <c r="V17" s="28"/>
       <c r="X17" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
+        <v>516</v>
+      </c>
+      <c r="E18" t="s">
+        <v>582</v>
+      </c>
+      <c r="J18" t="s">
+        <v>583</v>
+      </c>
+      <c r="K18" t="s">
+        <v>498</v>
+      </c>
+      <c r="O18" t="s">
+        <v>738</v>
+      </c>
+      <c r="P18" t="s">
+        <v>524</v>
+      </c>
+      <c r="T18" t="s">
+        <v>739</v>
+      </c>
+      <c r="U18" t="s">
+        <v>473</v>
+      </c>
+      <c r="X18" t="s">
+        <v>609</v>
+      </c>
+      <c r="Y18" t="s">
         <v>528</v>
-      </c>
-      <c r="E18" t="s">
-        <v>594</v>
-      </c>
-      <c r="F18" t="s">
-        <v>502</v>
-      </c>
-      <c r="J18" t="s">
-        <v>595</v>
-      </c>
-      <c r="K18" t="s">
-        <v>510</v>
-      </c>
-      <c r="O18" t="s">
-        <v>424</v>
-      </c>
-      <c r="P18" t="s">
-        <v>536</v>
-      </c>
-      <c r="T18" t="s">
-        <v>422</v>
-      </c>
-      <c r="U18" t="s">
-        <v>485</v>
-      </c>
-      <c r="X18" t="s">
-        <v>621</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="B19" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="E19" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
       <c r="F19" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="J19" t="s">
-        <v>628</v>
+        <v>616</v>
       </c>
       <c r="K19" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="O19" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="P19" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="T19" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
       <c r="U19" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="X19" t="s">
-        <v>423</v>
+        <v>742</v>
       </c>
       <c r="Y19" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>598</v>
+        <v>586</v>
       </c>
       <c r="B20" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="E20" t="s">
-        <v>429</v>
+        <v>736</v>
       </c>
       <c r="F20" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="J20" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="K20" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="O20" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
       <c r="P20" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="T20" t="s">
-        <v>619</v>
+        <v>607</v>
       </c>
       <c r="X20" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="Y20" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>611</v>
+        <v>599</v>
       </c>
       <c r="B21" t="s">
-        <v>700</v>
+        <v>687</v>
       </c>
       <c r="E21" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="F21" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="J21" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="K21" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="O21" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="P21" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="T21" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
       <c r="X21" t="s">
-        <v>428</v>
+        <v>743</v>
       </c>
       <c r="Y21" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>627</v>
+        <v>615</v>
       </c>
       <c r="E22" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="F22" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="K22" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="O22" t="s">
-        <v>597</v>
+        <v>585</v>
       </c>
       <c r="P22" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="T22" t="s">
-        <v>425</v>
+        <v>740</v>
       </c>
       <c r="Y22" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>626</v>
+        <v>614</v>
       </c>
       <c r="E23" t="s">
-        <v>622</v>
+        <v>610</v>
       </c>
       <c r="F23" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="O23" t="s">
-        <v>607</v>
+        <v>595</v>
       </c>
       <c r="T23" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="U23" t="s">
-        <v>685</v>
+        <v>672</v>
       </c>
       <c r="X23" t="s">
-        <v>721</v>
+        <v>744</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="E24" t="s">
-        <v>618</v>
+        <v>606</v>
       </c>
       <c r="F24" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="O24" t="s">
-        <v>430</v>
+        <v>741</v>
       </c>
       <c r="P24" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="X24" t="s">
-        <v>700</v>
+        <v>687</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>606</v>
+        <v>594</v>
       </c>
       <c r="E25" t="s">
-        <v>432</v>
+        <v>737</v>
       </c>
       <c r="F25" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="O25" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>617</v>
+        <v>605</v>
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.35">
       <c r="C30" s="2" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.35">
       <c r="C31" s="2" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.35">
       <c r="C32" s="2" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
     </row>
     <row r="33" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C33" s="2" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
     </row>
     <row r="34" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C34" s="2" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
     </row>
     <row r="35" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C35" s="2" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
     </row>
     <row r="36" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C36" s="2" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="H36" s="2"/>
     </row>
     <row r="37" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C37" s="2" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="38" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="38" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C38" s="2" t="s">
-        <v>469</v>
-      </c>
+        <v>457</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
     </row>
     <row r="39" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C39" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="J39" s="17" t="s">
-        <v>631</v>
-      </c>
-      <c r="K39" t="s">
-        <v>642</v>
+        <v>433</v>
+      </c>
+      <c r="I39" s="9">
+        <v>1</v>
+      </c>
+      <c r="J39" s="9" t="s">
+        <v>558</v>
+      </c>
+      <c r="K39" s="9" t="s">
+        <v>747</v>
       </c>
     </row>
     <row r="40" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="J40" s="18" t="s">
-        <v>632</v>
-      </c>
-      <c r="K40" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="41" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J41" s="19" t="s">
-        <v>570</v>
-      </c>
-      <c r="K41" t="s">
-        <v>642</v>
-      </c>
+      <c r="I40" s="9">
+        <v>2</v>
+      </c>
+      <c r="J40" s="9" t="s">
+        <v>620</v>
+      </c>
+      <c r="K40" s="9"/>
+    </row>
+    <row r="41" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="I41" s="9">
+        <v>3</v>
+      </c>
+      <c r="J41" s="9" t="s">
+        <v>619</v>
+      </c>
+      <c r="K41" s="9"/>
     </row>
     <row r="42" spans="3:11" x14ac:dyDescent="0.35">
       <c r="I42">
         <v>4</v>
       </c>
       <c r="J42" t="s">
-        <v>733</v>
+        <v>718</v>
       </c>
     </row>
     <row r="43" spans="3:11" x14ac:dyDescent="0.35">
@@ -5672,7 +5649,7 @@
         <v>5</v>
       </c>
       <c r="J43" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
     </row>
     <row r="44" spans="3:11" x14ac:dyDescent="0.35">
@@ -5680,7 +5657,7 @@
         <v>6</v>
       </c>
       <c r="J44" t="s">
-        <v>680</v>
+        <v>667</v>
       </c>
     </row>
     <row r="45" spans="3:11" x14ac:dyDescent="0.35">
@@ -5688,7 +5665,7 @@
         <v>7</v>
       </c>
       <c r="J45" t="s">
-        <v>734</v>
+        <v>719</v>
       </c>
     </row>
     <row r="46" spans="3:11" x14ac:dyDescent="0.35">
@@ -5696,7 +5673,7 @@
         <v>8</v>
       </c>
       <c r="J46" t="s">
-        <v>634</v>
+        <v>622</v>
       </c>
     </row>
     <row r="47" spans="3:11" x14ac:dyDescent="0.35">
@@ -5704,7 +5681,7 @@
         <v>9</v>
       </c>
       <c r="J47" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
     </row>
     <row r="48" spans="3:11" x14ac:dyDescent="0.35">
@@ -5712,7 +5689,7 @@
         <v>10</v>
       </c>
       <c r="J48" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
     </row>
     <row r="49" spans="9:10" x14ac:dyDescent="0.35">
@@ -5720,7 +5697,7 @@
         <v>11</v>
       </c>
       <c r="J49" t="s">
-        <v>640</v>
+        <v>628</v>
       </c>
     </row>
     <row r="50" spans="9:10" x14ac:dyDescent="0.35">
@@ -5728,7 +5705,7 @@
         <v>12</v>
       </c>
       <c r="J50" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
     </row>
   </sheetData>
@@ -5750,10 +5727,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5763,136 +5740,148 @@
     <col min="3" max="3" width="31.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="B1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B2" t="s">
+        <v>429</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="D2" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>457</v>
+      </c>
+      <c r="B3" t="s">
+        <v>431</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>433</v>
+      </c>
+      <c r="B4" t="s">
+        <v>434</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="D4" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>436</v>
+      </c>
+      <c r="B5" t="s">
+        <v>437</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="C1" s="4" t="s">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>422</v>
+      </c>
+      <c r="B6" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="C6" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>458</v>
+      </c>
+      <c r="B7" t="s">
         <v>441</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>469</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>423</v>
+      </c>
+      <c r="B8" t="s">
         <v>443</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="D8" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>445</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B9" t="s">
         <v>446</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>424</v>
+      </c>
+      <c r="B10" t="s">
         <v>448</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C10" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="C5" s="4" t="s">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>434</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B11" t="s">
         <v>451</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>470</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="D11" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>453</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="B12" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>435</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C12" s="4" t="s">
         <v>455</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>457</v>
-      </c>
-      <c r="B9" t="s">
-        <v>458</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>436</v>
-      </c>
-      <c r="B10" t="s">
-        <v>460</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>462</v>
-      </c>
-      <c r="B11" t="s">
-        <v>463</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>465</v>
-      </c>
-      <c r="B12" t="s">
-        <v>466</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>467</v>
       </c>
     </row>
   </sheetData>
@@ -5915,10 +5904,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K270"/>
+  <dimension ref="A1:K273"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C267" sqref="C267"/>
+    <sheetView topLeftCell="A264" workbookViewId="0">
+      <selection activeCell="B275" sqref="B275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5938,7 +5927,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>226</v>
@@ -5946,7 +5935,7 @@
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>44</v>
@@ -5955,10 +5944,10 @@
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
@@ -5971,13 +5960,13 @@
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="10"/>
       <c r="B5" s="11" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="10"/>
       <c r="B6" s="11" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
@@ -5986,7 +5975,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>90</v>
@@ -5995,19 +5984,19 @@
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="10"/>
       <c r="B9" s="11" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="10"/>
       <c r="B10" s="11" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="10"/>
       <c r="B11" s="11" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
@@ -6019,37 +6008,37 @@
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="10"/>
       <c r="B13" s="11" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="10"/>
       <c r="B14" s="11" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="10"/>
       <c r="B15" s="11" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="10"/>
       <c r="B16" s="11" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="7"/>
       <c r="B17" s="8" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>86</v>
@@ -6064,7 +6053,7 @@
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="10"/>
       <c r="B21" s="11" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -6076,7 +6065,7 @@
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="10"/>
       <c r="B23" s="11" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -6088,19 +6077,19 @@
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="10"/>
       <c r="B25" s="12" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="10"/>
       <c r="B26" s="11" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="10"/>
       <c r="B27" s="11" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
@@ -6109,7 +6098,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="10" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>17</v>
@@ -6124,49 +6113,49 @@
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="10"/>
       <c r="B31" s="11" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="10"/>
       <c r="B32" s="11" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="10"/>
       <c r="B33" s="12" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="10"/>
       <c r="B34" s="12" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="10"/>
       <c r="B35" s="12" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="10"/>
       <c r="B36" s="12" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="10"/>
       <c r="B37" s="12" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="10"/>
       <c r="B38" s="11" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
@@ -6178,13 +6167,13 @@
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="10"/>
       <c r="B40" s="11" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="10"/>
       <c r="B41" s="11" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
@@ -6202,7 +6191,7 @@
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="10"/>
       <c r="B44" s="12" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -6214,27 +6203,27 @@
     <row r="46" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="10"/>
       <c r="B48" s="11" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="10"/>
       <c r="B49" s="11" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="7" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>225</v>
@@ -6243,28 +6232,28 @@
     <row r="52" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="10"/>
       <c r="B54" s="15" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="10"/>
       <c r="B55" s="15" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="10"/>
       <c r="B56" s="15" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
@@ -6273,7 +6262,7 @@
     </row>
     <row r="58" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="7" t="s">
-        <v>570</v>
+        <v>558</v>
       </c>
       <c r="B58" s="16" t="s">
         <v>321</v>
@@ -6282,24 +6271,24 @@
     <row r="60" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="7" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>48</v>
@@ -6308,33 +6297,33 @@
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="10"/>
       <c r="B65" s="11" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="10" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="10"/>
       <c r="B67" s="11" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="7"/>
       <c r="B68" s="8" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>183</v>
@@ -6343,27 +6332,27 @@
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="10"/>
       <c r="B71" s="11" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="10"/>
       <c r="B72" s="11" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="10"/>
       <c r="B73" s="11" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="10" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>587</v>
+        <v>575</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
@@ -6399,13 +6388,13 @@
     <row r="80" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="7"/>
       <c r="B80" s="8" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="5" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
       <c r="B83" s="6" t="s">
         <v>78</v>
@@ -6413,16 +6402,16 @@
     </row>
     <row r="84" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84" s="7" t="s">
-        <v>643</v>
+        <v>630</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>644</v>
+        <v>631</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="5" t="s">
-        <v>645</v>
+        <v>632</v>
       </c>
       <c r="B87" s="6" t="s">
         <v>215</v>
@@ -6430,7 +6419,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="10" t="s">
-        <v>646</v>
+        <v>633</v>
       </c>
       <c r="B88" s="11" t="s">
         <v>57</v>
@@ -6439,13 +6428,13 @@
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="10"/>
       <c r="B89" s="11" t="s">
-        <v>647</v>
+        <v>634</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="10"/>
       <c r="B90" s="11" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -6457,7 +6446,7 @@
     <row r="92" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" s="5" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
       <c r="B93" s="6" t="s">
         <v>93</v>
@@ -6472,7 +6461,7 @@
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="10"/>
       <c r="B95" s="11" t="s">
-        <v>648</v>
+        <v>635</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
@@ -6483,42 +6472,42 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="10" t="s">
-        <v>645</v>
+        <v>632</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>649</v>
+        <v>636</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="10"/>
       <c r="B98" s="11" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" s="10"/>
       <c r="B99" s="11" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A100" s="7"/>
       <c r="B100" s="8" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="5" t="s">
-        <v>653</v>
+        <v>640</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>654</v>
+        <v>641</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A104" s="7" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
       <c r="B104" s="8" t="s">
         <v>35</v>
@@ -6527,24 +6516,24 @@
     <row r="106" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" s="5" t="s">
-        <v>646</v>
+        <v>633</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>655</v>
+        <v>642</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" s="10"/>
       <c r="B108" s="11" t="s">
-        <v>656</v>
+        <v>643</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" s="10" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>657</v>
+        <v>644</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -6556,7 +6545,7 @@
     <row r="112" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" s="5" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
       <c r="B113" s="6" t="s">
         <v>10</v>
@@ -6564,7 +6553,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" s="10" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="B114" s="11" t="s">
         <v>188</v>
@@ -6573,16 +6562,16 @@
     <row r="115" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A115" s="7"/>
       <c r="B115" s="8" t="s">
-        <v>658</v>
+        <v>645</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" s="5" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
@@ -6593,10 +6582,10 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" s="10" t="s">
-        <v>659</v>
+        <v>646</v>
       </c>
       <c r="B120" s="11" t="s">
-        <v>660</v>
+        <v>647</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
@@ -6608,16 +6597,16 @@
     <row r="122" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A122" s="7"/>
       <c r="B122" s="8" t="s">
-        <v>661</v>
+        <v>648</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" s="5" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>662</v>
+        <v>649</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
@@ -6629,158 +6618,158 @@
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" s="10"/>
       <c r="B126" s="11" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" s="10"/>
       <c r="B127" s="11" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" s="10"/>
       <c r="B128" s="11" t="s">
-        <v>663</v>
+        <v>650</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" s="10" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
       <c r="B129" s="11" t="s">
-        <v>664</v>
+        <v>651</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" s="10"/>
       <c r="B130" s="11" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A131" s="7"/>
       <c r="B131" s="8" t="s">
-        <v>666</v>
+        <v>653</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" s="5" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" s="10"/>
       <c r="B134" s="11" t="s">
-        <v>667</v>
+        <v>654</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" s="10"/>
       <c r="B135" s="11" t="s">
-        <v>668</v>
+        <v>655</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A136" s="7" t="s">
-        <v>645</v>
+        <v>632</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" s="5" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>669</v>
+        <v>656</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" s="10" t="s">
-        <v>659</v>
+        <v>646</v>
       </c>
       <c r="B139" s="11" t="s">
-        <v>670</v>
+        <v>657</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A140" s="7"/>
       <c r="B140" s="8" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" s="5" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" s="10"/>
       <c r="B143" s="11" t="s">
-        <v>671</v>
+        <v>658</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" s="10"/>
       <c r="B144" s="11" t="s">
-        <v>672</v>
+        <v>659</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" s="10"/>
       <c r="B145" s="11" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" s="10" t="s">
-        <v>646</v>
+        <v>633</v>
       </c>
       <c r="B146" s="11" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" s="10"/>
       <c r="B147" s="11" t="s">
-        <v>673</v>
+        <v>660</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A148" s="7"/>
       <c r="B148" s="8" t="s">
-        <v>674</v>
+        <v>661</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="B150" s="6" t="s">
         <v>576</v>
-      </c>
-      <c r="B150" s="6" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" s="10"/>
       <c r="B151" s="11" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" s="10" t="s">
-        <v>659</v>
+        <v>646</v>
       </c>
       <c r="B152" s="11" t="s">
         <v>15</v>
@@ -6789,19 +6778,19 @@
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" s="10"/>
       <c r="B153" s="11" t="s">
-        <v>675</v>
+        <v>662</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A154" s="7"/>
       <c r="B154" s="8" t="s">
-        <v>676</v>
+        <v>663</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" s="5" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="B156" s="6" t="s">
         <v>192</v>
@@ -6809,25 +6798,25 @@
     </row>
     <row r="157" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A157" s="7" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>677</v>
+        <v>664</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" s="5" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>678</v>
+        <v>665</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" s="10"/>
       <c r="B160" s="11" t="s">
-        <v>679</v>
+        <v>666</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
@@ -6838,51 +6827,51 @@
     </row>
     <row r="162" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A162" s="7" t="s">
-        <v>659</v>
+        <v>646</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" s="5" t="s">
-        <v>646</v>
+        <v>633</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" s="10"/>
       <c r="B165" s="11" t="s">
-        <v>619</v>
+        <v>607</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" s="10"/>
       <c r="B166" s="11" t="s">
-        <v>681</v>
+        <v>668</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" s="10" t="s">
-        <v>643</v>
+        <v>630</v>
       </c>
       <c r="B167" s="11" t="s">
-        <v>682</v>
+        <v>669</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A168" s="7"/>
       <c r="B168" s="8" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" s="5" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
       <c r="B170" s="6" t="s">
         <v>48</v>
@@ -6891,12 +6880,12 @@
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" s="10"/>
       <c r="B171" s="11" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" s="10" t="s">
-        <v>643</v>
+        <v>630</v>
       </c>
       <c r="B172" s="11" t="s">
         <v>352</v>
@@ -6905,65 +6894,65 @@
     <row r="173" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A173" s="7"/>
       <c r="B173" s="8" t="s">
-        <v>684</v>
+        <v>671</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" s="5" t="s">
-        <v>687</v>
+        <v>674</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" s="10" t="s">
-        <v>688</v>
+        <v>675</v>
       </c>
       <c r="B176" s="11" t="s">
-        <v>689</v>
+        <v>676</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A177" s="7"/>
       <c r="B177" s="8" t="s">
-        <v>690</v>
+        <v>677</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" s="5" t="s">
-        <v>688</v>
+        <v>675</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" s="10"/>
       <c r="B180" s="11" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" s="10"/>
       <c r="B181" s="11" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" s="10"/>
       <c r="B182" s="11" t="s">
-        <v>692</v>
+        <v>679</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" s="10" t="s">
-        <v>693</v>
+        <v>680</v>
       </c>
       <c r="B183" s="11" t="s">
-        <v>694</v>
+        <v>681</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -6975,18 +6964,18 @@
     <row r="185" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" s="5" t="s">
-        <v>695</v>
+        <v>682</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>697</v>
+        <v>684</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" s="10" t="s">
-        <v>696</v>
+        <v>683</v>
       </c>
       <c r="B187" s="11" t="s">
-        <v>698</v>
+        <v>685</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -6998,10 +6987,10 @@
     <row r="189" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" s="5" t="s">
-        <v>701</v>
+        <v>688</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>702</v>
+        <v>689</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.35">
@@ -7013,30 +7002,30 @@
     <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" s="10"/>
       <c r="B192" s="11" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" s="10"/>
       <c r="B193" s="11" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" s="10"/>
       <c r="B194" s="11" t="s">
-        <v>598</v>
+        <v>586</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" s="10"/>
       <c r="B195" s="11" t="s">
-        <v>627</v>
+        <v>615</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" s="10" t="s">
-        <v>703</v>
+        <v>690</v>
       </c>
       <c r="B196" s="11" t="s">
         <v>219</v>
@@ -7045,37 +7034,37 @@
     <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" s="10"/>
       <c r="B197" s="11" t="s">
-        <v>704</v>
+        <v>691</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" s="10"/>
       <c r="B198" s="11" t="s">
-        <v>705</v>
+        <v>692</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" s="10"/>
       <c r="B199" s="11" t="s">
-        <v>706</v>
+        <v>693</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" s="10"/>
       <c r="B200" s="11" t="s">
-        <v>707</v>
+        <v>694</v>
       </c>
     </row>
     <row r="201" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A201" s="7"/>
       <c r="B201" s="8" t="s">
-        <v>708</v>
+        <v>695</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203" s="5" t="s">
-        <v>710</v>
+        <v>697</v>
       </c>
       <c r="B203" s="6" t="s">
         <v>214</v>
@@ -7083,7 +7072,7 @@
     </row>
     <row r="204" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A204" s="7" t="s">
-        <v>688</v>
+        <v>675</v>
       </c>
       <c r="B204" s="8" t="s">
         <v>179</v>
@@ -7092,27 +7081,27 @@
     <row r="205" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206" s="5" t="s">
-        <v>711</v>
+        <v>698</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207" s="10"/>
       <c r="B207" s="11" t="s">
-        <v>712</v>
+        <v>699</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208" s="10"/>
       <c r="B208" s="11" t="s">
-        <v>713</v>
+        <v>700</v>
       </c>
     </row>
     <row r="209" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A209" s="7" t="s">
-        <v>688</v>
+        <v>675</v>
       </c>
       <c r="B209" s="8" t="s">
         <v>21</v>
@@ -7121,15 +7110,15 @@
     <row r="210" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211" s="5" t="s">
-        <v>688</v>
+        <v>675</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>657</v>
+        <v>644</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212" s="10" t="s">
-        <v>714</v>
+        <v>701</v>
       </c>
       <c r="B212" s="11" t="s">
         <v>27</v>
@@ -7138,21 +7127,21 @@
     <row r="213" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A213" s="7"/>
       <c r="B213" s="8" t="s">
-        <v>715</v>
+        <v>702</v>
       </c>
     </row>
     <row r="214" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215" s="5" t="s">
-        <v>688</v>
+        <v>675</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>712</v>
+        <v>699</v>
       </c>
     </row>
     <row r="216" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A216" s="7" t="s">
-        <v>716</v>
+        <v>703</v>
       </c>
       <c r="B216" s="8" t="s">
         <v>333</v>
@@ -7161,7 +7150,7 @@
     <row r="217" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="218" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A218" s="5" t="s">
-        <v>717</v>
+        <v>704</v>
       </c>
       <c r="B218" s="6" t="s">
         <v>186</v>
@@ -7175,7 +7164,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A220" s="10" t="s">
-        <v>718</v>
+        <v>705</v>
       </c>
       <c r="B220" s="11" t="s">
         <v>385</v>
@@ -7184,27 +7173,27 @@
     <row r="221" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A221" s="7"/>
       <c r="B221" s="8" t="s">
-        <v>719</v>
+        <v>706</v>
       </c>
     </row>
     <row r="222" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="223" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A223" s="5" t="s">
-        <v>687</v>
-      </c>
-      <c r="B223" s="21" t="s">
+        <v>674</v>
+      </c>
+      <c r="B223" s="18" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A224" s="10"/>
       <c r="B224" s="12" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A225" s="10" t="s">
-        <v>726</v>
+        <v>711</v>
       </c>
       <c r="B225" s="12" t="s">
         <v>54</v>
@@ -7218,22 +7207,22 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A227" s="10" t="s">
-        <v>727</v>
+        <v>712</v>
       </c>
       <c r="B227" s="11" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A228" s="10"/>
       <c r="B228" s="11" t="s">
-        <v>725</v>
+        <v>710</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A229" s="10"/>
       <c r="B229" s="11" t="s">
-        <v>728</v>
+        <v>713</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.35">
@@ -7244,28 +7233,28 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A231" s="10" t="s">
-        <v>729</v>
+        <v>714</v>
       </c>
       <c r="B231" s="11" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A232" s="10"/>
       <c r="B232" s="11" t="s">
-        <v>722</v>
+        <v>707</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A233" s="10"/>
       <c r="B233" s="11" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A234" s="10"/>
       <c r="B234" s="11" t="s">
-        <v>724</v>
+        <v>709</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.35">
@@ -7277,27 +7266,27 @@
     <row r="236" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A236" s="10"/>
       <c r="B236" s="11" t="s">
-        <v>730</v>
+        <v>715</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A237" s="10" t="s">
-        <v>695</v>
+        <v>682</v>
       </c>
       <c r="B237" s="11" t="s">
-        <v>722</v>
+        <v>707</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A238" s="10"/>
       <c r="B238" s="11" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A239" s="10"/>
       <c r="B239" s="11" t="s">
-        <v>724</v>
+        <v>709</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.35">
@@ -7309,7 +7298,7 @@
     <row r="241" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A241" s="10"/>
       <c r="B241" s="11" t="s">
-        <v>730</v>
+        <v>715</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.35">
@@ -7320,7 +7309,7 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A243" s="10" t="s">
-        <v>731</v>
+        <v>716</v>
       </c>
       <c r="B243" s="11" t="s">
         <v>86</v>
@@ -7329,25 +7318,25 @@
     <row r="244" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A244" s="10"/>
       <c r="B244" s="11" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A245" s="10"/>
       <c r="B245" s="11" t="s">
-        <v>725</v>
+        <v>710</v>
       </c>
     </row>
     <row r="246" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A246" s="7"/>
       <c r="B246" s="8" t="s">
-        <v>728</v>
+        <v>713</v>
       </c>
     </row>
     <row r="247" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="248" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A248" s="5" t="s">
-        <v>714</v>
+        <v>701</v>
       </c>
       <c r="B248" s="6" t="s">
         <v>9</v>
@@ -7361,7 +7350,7 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A250" s="10" t="s">
-        <v>695</v>
+        <v>682</v>
       </c>
       <c r="B250" s="11" t="s">
         <v>82</v>
@@ -7370,60 +7359,60 @@
     <row r="251" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A251" s="10"/>
       <c r="B251" s="11" t="s">
-        <v>725</v>
+        <v>710</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A252" s="10"/>
       <c r="B252" s="11" t="s">
-        <v>728</v>
+        <v>713</v>
       </c>
     </row>
     <row r="253" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A253" s="7"/>
       <c r="B253" s="8" t="s">
-        <v>732</v>
+        <v>717</v>
       </c>
     </row>
     <row r="254" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="255" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A255" s="5" t="s">
-        <v>735</v>
+        <v>720</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A256" s="10"/>
       <c r="B256" s="11" t="s">
-        <v>736</v>
+        <v>721</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A257" s="10" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
       <c r="B257" s="11" t="s">
-        <v>737</v>
+        <v>722</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A258" s="10"/>
       <c r="B258" s="11" t="s">
-        <v>738</v>
+        <v>723</v>
       </c>
     </row>
     <row r="259" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A259" s="7"/>
       <c r="B259" s="8" t="s">
-        <v>739</v>
+        <v>724</v>
       </c>
     </row>
     <row r="260" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="261" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A261" s="5" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
       <c r="B261" s="6" t="s">
         <v>271</v>
@@ -7431,16 +7420,16 @@
     </row>
     <row r="262" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A262" s="7" t="s">
-        <v>570</v>
+        <v>558</v>
       </c>
       <c r="B262" s="8" t="s">
-        <v>740</v>
+        <v>725</v>
       </c>
     </row>
     <row r="263" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="264" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A264" s="5" t="s">
-        <v>741</v>
+        <v>726</v>
       </c>
       <c r="B264" s="6" t="s">
         <v>178</v>
@@ -7449,38 +7438,55 @@
     <row r="265" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A265" s="10"/>
       <c r="B265" s="11" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A266" s="10" t="s">
-        <v>742</v>
+        <v>727</v>
       </c>
       <c r="B266" s="11" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
     </row>
     <row r="267" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A267" s="7"/>
       <c r="B267" s="8" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
     </row>
     <row r="268" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="269" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A269" s="5" t="s">
-        <v>745</v>
+        <v>730</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
     </row>
     <row r="270" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A270" s="7" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="B270" s="8" t="s">
-        <v>599</v>
+        <v>587</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A272" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="B272" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A273" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="B273" s="8" t="s">
+        <v>732</v>
       </c>
     </row>
   </sheetData>

--- a/OffSeason.xlsx
+++ b/OffSeason.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Rosters" sheetId="1" r:id="rId1"/>
     <sheet name="Picks" sheetId="2" r:id="rId2"/>
     <sheet name="Managers" sheetId="3" r:id="rId3"/>
     <sheet name="Off-Season Trades" sheetId="4" r:id="rId4"/>
+    <sheet name="Post Draft trades needed" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="749">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="778">
   <si>
     <t>Chubber for Chubb - John Olson</t>
   </si>
@@ -1013,9 +1014,6 @@
     <t>Jamison Crowder</t>
   </si>
   <si>
-    <t>Demaryius Thomas</t>
-  </si>
-  <si>
     <t>Trey Quinn</t>
   </si>
   <si>
@@ -1292,9 +1290,6 @@
     <t>start 6th</t>
   </si>
   <si>
-    <t>1-3 will be auto generated between the picks of Slick Daddy Club, Jimmy's Done I'm not, and Snow happens.</t>
-  </si>
-  <si>
     <t>Injured Reserve Team</t>
   </si>
   <si>
@@ -1733,12 +1728,6 @@
     <t>2020 4th (Jacobs Ladder)</t>
   </si>
   <si>
-    <t>Naked Pooper</t>
-  </si>
-  <si>
-    <t>Guice is Right</t>
-  </si>
-  <si>
     <t>Alan</t>
   </si>
   <si>
@@ -2270,17 +2259,116 @@
     <t>2020 4.3</t>
   </si>
   <si>
-    <t>*order was picked out of hat by trade committee</t>
-  </si>
-  <si>
     <t>*Trade Committee member</t>
+  </si>
+  <si>
+    <t>2021 3(Adam)</t>
+  </si>
+  <si>
+    <t>2021 3(MikeW)</t>
+  </si>
+  <si>
+    <t>2021 4(AlanP)</t>
+  </si>
+  <si>
+    <t>MikeW sends</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        </t>
+  </si>
+  <si>
+    <t>drops</t>
+  </si>
+  <si>
+    <t>2020 5.9</t>
+  </si>
+  <si>
+    <t>2020 6.9</t>
+  </si>
+  <si>
+    <t>2020 7.9</t>
+  </si>
+  <si>
+    <t>2020 7.11</t>
+  </si>
+  <si>
+    <t>2020 8.11</t>
+  </si>
+  <si>
+    <t>2020 5.3</t>
+  </si>
+  <si>
+    <t>Andrew</t>
+  </si>
+  <si>
+    <t>Cam</t>
+  </si>
+  <si>
+    <t>Whittier</t>
+  </si>
+  <si>
+    <t>Zach</t>
+  </si>
+  <si>
+    <t>MikeRhode</t>
+  </si>
+  <si>
+    <t>DRAFT ORDER</t>
+  </si>
+  <si>
+    <t>*order was picked out of hat by trade committee for lottery</t>
+  </si>
+  <si>
+    <t>Cam via Vanja via Ben via Vanja via John via Alan</t>
+  </si>
+  <si>
+    <t>Vanja via Cameron via Vanja</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>2021 2(John)</t>
+  </si>
+  <si>
+    <t>late pick</t>
+  </si>
+  <si>
+    <t>2021 ben 3</t>
+  </si>
+  <si>
+    <t>2021 4th Ben</t>
+  </si>
+  <si>
+    <t>2021 3rd adam</t>
+  </si>
+  <si>
+    <t>MikeR offer trade</t>
+  </si>
+  <si>
+    <t>Cameron offer trade</t>
+  </si>
+  <si>
+    <t>Adam Wells offer trade</t>
+  </si>
+  <si>
+    <t>Vanja offer trades</t>
+  </si>
+  <si>
+    <t>BenL offer trades</t>
+  </si>
+  <si>
+    <t>John offer trades</t>
+  </si>
+  <si>
+    <t>MikeW offer trades</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2311,6 +2399,35 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -2443,7 +2560,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2475,13 +2592,40 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2490,16 +2634,13 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2786,10 +2927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y81"/>
+  <dimension ref="A1:AA88"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2804,2211 +2945,3514 @@
     <col min="23" max="23" width="22.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B1" s="27" t="s">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="B1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="F1" t="s">
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="F1" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="J1" t="s">
+      <c r="G1" s="24"/>
+      <c r="J1" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="N1" t="s">
+      <c r="K1" s="24"/>
+      <c r="N1" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="R1" t="s">
+      <c r="O1" s="24"/>
+      <c r="R1" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="V1" t="s">
+      <c r="S1" s="24"/>
+      <c r="V1" s="24" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="W1" s="24"/>
+      <c r="AA1" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="34" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="34" t="s">
         <v>1</v>
       </c>
       <c r="G2" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" s="34" t="s">
         <v>1</v>
       </c>
       <c r="K2" t="s">
         <v>77</v>
       </c>
-      <c r="N2" s="26" t="s">
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2" s="34" t="s">
         <v>1</v>
       </c>
       <c r="O2" t="s">
         <v>112</v>
       </c>
-      <c r="R2" s="26" t="s">
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2" s="34" t="s">
         <v>1</v>
       </c>
       <c r="S2" t="s">
         <v>144</v>
       </c>
-      <c r="V2" s="26" t="s">
+      <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2" s="34" t="s">
         <v>1</v>
       </c>
       <c r="W2" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="Z2">
+        <v>1</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="26"/>
+      <c r="B3" s="34"/>
       <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="26"/>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" s="34"/>
       <c r="G3" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="26"/>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3" s="34"/>
       <c r="K3" t="s">
         <v>214</v>
       </c>
-      <c r="N3" s="26"/>
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3" s="34"/>
       <c r="O3" t="s">
         <v>104</v>
       </c>
-      <c r="R3" s="26"/>
+      <c r="Q3">
+        <v>2</v>
+      </c>
+      <c r="R3" s="34"/>
       <c r="S3" t="s">
         <v>145</v>
       </c>
-      <c r="V3" s="26"/>
+      <c r="U3">
+        <v>2</v>
+      </c>
+      <c r="V3" s="34"/>
       <c r="W3" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="Z3">
+        <v>2</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="26"/>
+      <c r="B4" s="34"/>
       <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="26"/>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4" s="34"/>
       <c r="G4" t="s">
         <v>46</v>
       </c>
-      <c r="J4" s="20" t="s">
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4" s="33" t="s">
         <v>5</v>
       </c>
       <c r="K4" t="s">
         <v>248</v>
       </c>
-      <c r="N4" s="20" t="s">
+      <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="N4" s="33" t="s">
         <v>5</v>
       </c>
       <c r="O4" t="s">
         <v>113</v>
       </c>
-      <c r="R4" s="20" t="s">
+      <c r="Q4">
+        <v>3</v>
+      </c>
+      <c r="R4" s="33" t="s">
         <v>5</v>
       </c>
       <c r="S4" t="s">
         <v>146</v>
       </c>
-      <c r="V4" s="26"/>
+      <c r="U4">
+        <v>3</v>
+      </c>
+      <c r="V4" s="34"/>
       <c r="W4" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="Z4">
+        <v>3</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="33" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="26"/>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>5</v>
+      </c>
       <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="J5" s="20"/>
+        <v>215</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5" s="33"/>
       <c r="K5" t="s">
         <v>81</v>
       </c>
-      <c r="N5" s="20"/>
+      <c r="M5">
+        <v>4</v>
+      </c>
+      <c r="N5" s="33"/>
       <c r="O5" t="s">
         <v>114</v>
       </c>
-      <c r="R5" s="20"/>
+      <c r="Q5">
+        <v>4</v>
+      </c>
+      <c r="R5" s="33"/>
       <c r="S5" t="s">
         <v>147</v>
       </c>
-      <c r="V5" s="20" t="s">
+      <c r="U5">
+        <v>4</v>
+      </c>
+      <c r="V5" s="33" t="s">
         <v>5</v>
       </c>
       <c r="W5" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="Z5">
+        <v>4</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="20"/>
+      <c r="B6" s="33"/>
       <c r="C6" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="E6">
         <v>5</v>
       </c>
+      <c r="F6" s="33"/>
       <c r="G6" t="s">
-        <v>215</v>
-      </c>
-      <c r="J6" s="20"/>
+        <v>52</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6" s="33"/>
       <c r="K6" t="s">
         <v>9</v>
       </c>
-      <c r="N6" s="20"/>
+      <c r="M6">
+        <v>5</v>
+      </c>
+      <c r="N6" s="33"/>
       <c r="O6" t="s">
-        <v>115</v>
-      </c>
-      <c r="R6" s="20"/>
+        <v>117</v>
+      </c>
+      <c r="Q6">
+        <v>5</v>
+      </c>
+      <c r="R6" s="33"/>
       <c r="S6" t="s">
         <v>148</v>
       </c>
-      <c r="V6" s="20"/>
+      <c r="U6">
+        <v>5</v>
+      </c>
+      <c r="V6" s="33"/>
       <c r="W6" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="Z6">
+        <v>5</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="20"/>
+      <c r="B7" s="33"/>
       <c r="C7" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="20"/>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>12</v>
+      </c>
       <c r="G7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J7" s="20"/>
+        <v>194</v>
+      </c>
+      <c r="I7">
+        <v>6</v>
+      </c>
+      <c r="J7" s="33"/>
       <c r="K7" t="s">
-        <v>352</v>
-      </c>
-      <c r="N7" s="20"/>
+        <v>351</v>
+      </c>
+      <c r="M7">
+        <v>6</v>
+      </c>
+      <c r="N7" s="33"/>
       <c r="O7" t="s">
-        <v>116</v>
-      </c>
-      <c r="R7" s="20"/>
+        <v>119</v>
+      </c>
+      <c r="Q7">
+        <v>6</v>
+      </c>
+      <c r="R7" s="33"/>
       <c r="S7" t="s">
-        <v>149</v>
-      </c>
-      <c r="V7" s="20"/>
+        <v>151</v>
+      </c>
+      <c r="U7">
+        <v>6</v>
+      </c>
+      <c r="V7" s="33"/>
       <c r="W7" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+      <c r="Z7">
+        <v>6</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="20"/>
+      <c r="B8" s="33"/>
       <c r="C8" t="s">
         <v>80</v>
       </c>
-      <c r="F8" s="20"/>
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="F8" s="32"/>
       <c r="G8" t="s">
-        <v>50</v>
-      </c>
-      <c r="J8" s="20"/>
+        <v>56</v>
+      </c>
+      <c r="I8">
+        <v>7</v>
+      </c>
+      <c r="J8" s="33"/>
       <c r="K8" t="s">
         <v>85</v>
       </c>
-      <c r="N8" s="20"/>
+      <c r="M8">
+        <v>7</v>
+      </c>
+      <c r="N8" s="32" t="s">
+        <v>12</v>
+      </c>
       <c r="O8" t="s">
-        <v>117</v>
-      </c>
-      <c r="R8" s="20"/>
+        <v>120</v>
+      </c>
+      <c r="Q8">
+        <v>7</v>
+      </c>
+      <c r="R8" s="32" t="s">
+        <v>12</v>
+      </c>
       <c r="S8" t="s">
-        <v>150</v>
-      </c>
-      <c r="V8" s="20"/>
+        <v>152</v>
+      </c>
+      <c r="U8">
+        <v>7</v>
+      </c>
+      <c r="V8" s="33"/>
       <c r="W8" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="Z8">
+        <v>7</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="20"/>
+      <c r="B9" s="33"/>
       <c r="C9" t="s">
         <v>82</v>
       </c>
-      <c r="F9" s="20"/>
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="F9" s="32"/>
       <c r="G9" t="s">
-        <v>49</v>
-      </c>
-      <c r="J9" s="20"/>
+        <v>58</v>
+      </c>
+      <c r="I9">
+        <v>8</v>
+      </c>
+      <c r="J9" s="33"/>
       <c r="K9" t="s">
         <v>11</v>
       </c>
-      <c r="N9" s="20"/>
+      <c r="M9">
+        <v>8</v>
+      </c>
+      <c r="N9" s="32"/>
       <c r="O9" t="s">
-        <v>118</v>
-      </c>
-      <c r="R9" s="20"/>
+        <v>121</v>
+      </c>
+      <c r="Q9">
+        <v>8</v>
+      </c>
+      <c r="R9" s="32"/>
       <c r="S9" t="s">
-        <v>151</v>
-      </c>
-      <c r="V9" s="20"/>
+        <v>153</v>
+      </c>
+      <c r="U9">
+        <v>8</v>
+      </c>
+      <c r="V9" s="33"/>
       <c r="W9" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+        <v>384</v>
+      </c>
+      <c r="Z9">
+        <v>8</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="32" t="s">
         <v>12</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="24" t="s">
-        <v>12</v>
-      </c>
+      <c r="E10">
+        <v>9</v>
+      </c>
+      <c r="F10" s="32"/>
       <c r="G10" t="s">
-        <v>194</v>
-      </c>
-      <c r="J10" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="I10">
+        <v>9</v>
+      </c>
+      <c r="J10" s="32" t="s">
         <v>12</v>
       </c>
       <c r="K10" t="s">
         <v>15</v>
       </c>
-      <c r="N10" s="20"/>
+      <c r="M10">
+        <v>9</v>
+      </c>
+      <c r="N10" s="32"/>
       <c r="O10" t="s">
-        <v>119</v>
-      </c>
-      <c r="R10" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q10">
+        <v>9</v>
+      </c>
+      <c r="R10" s="32"/>
+      <c r="S10" t="s">
+        <v>154</v>
+      </c>
+      <c r="U10">
+        <v>9</v>
+      </c>
+      <c r="V10" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="S10" t="s">
-        <v>152</v>
-      </c>
-      <c r="V10" s="20"/>
       <c r="W10" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+        <v>256</v>
+      </c>
+      <c r="Z10">
+        <v>9</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="24"/>
+      <c r="B11" s="32"/>
       <c r="C11" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="24"/>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11" s="32"/>
       <c r="G11" t="s">
-        <v>56</v>
-      </c>
-      <c r="J11" s="24"/>
+        <v>226</v>
+      </c>
+      <c r="I11">
+        <v>10</v>
+      </c>
+      <c r="J11" s="32"/>
       <c r="K11" t="s">
         <v>188</v>
       </c>
-      <c r="N11" s="24" t="s">
-        <v>12</v>
-      </c>
+      <c r="M11">
+        <v>10</v>
+      </c>
+      <c r="N11" s="32"/>
       <c r="O11" t="s">
-        <v>120</v>
-      </c>
-      <c r="R11" s="24"/>
+        <v>125</v>
+      </c>
+      <c r="Q11">
+        <v>10</v>
+      </c>
+      <c r="R11" s="32"/>
       <c r="S11" t="s">
-        <v>153</v>
-      </c>
-      <c r="V11" s="20"/>
+        <v>155</v>
+      </c>
+      <c r="U11">
+        <v>10</v>
+      </c>
+      <c r="V11" s="32"/>
       <c r="W11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+        <v>189</v>
+      </c>
+      <c r="Z11">
+        <v>10</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="24"/>
+      <c r="B12" s="32"/>
       <c r="C12" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="24"/>
+      <c r="E12">
+        <v>11</v>
+      </c>
+      <c r="F12" s="32"/>
       <c r="G12" t="s">
-        <v>58</v>
-      </c>
-      <c r="J12" s="24"/>
+        <v>225</v>
+      </c>
+      <c r="I12">
+        <v>11</v>
+      </c>
+      <c r="J12" s="32"/>
       <c r="K12" t="s">
         <v>86</v>
       </c>
-      <c r="N12" s="24"/>
+      <c r="M12">
+        <v>11</v>
+      </c>
+      <c r="N12" s="22" t="s">
+        <v>18</v>
+      </c>
       <c r="O12" t="s">
-        <v>121</v>
-      </c>
-      <c r="R12" s="24"/>
+        <v>126</v>
+      </c>
+      <c r="Q12">
+        <v>11</v>
+      </c>
+      <c r="R12" s="32"/>
       <c r="S12" t="s">
-        <v>154</v>
-      </c>
-      <c r="V12" s="20"/>
+        <v>156</v>
+      </c>
+      <c r="U12">
+        <v>11</v>
+      </c>
+      <c r="V12" s="32"/>
       <c r="W12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+        <v>190</v>
+      </c>
+      <c r="Z12">
+        <v>11</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="24"/>
+      <c r="B13" s="32"/>
       <c r="C13" t="s">
         <v>89</v>
       </c>
-      <c r="F13" s="24"/>
+      <c r="E13">
+        <v>12</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>18</v>
+      </c>
       <c r="G13" t="s">
-        <v>59</v>
-      </c>
-      <c r="J13" s="24"/>
+        <v>60</v>
+      </c>
+      <c r="I13">
+        <v>12</v>
+      </c>
+      <c r="J13" s="32"/>
       <c r="K13" t="s">
         <v>88</v>
       </c>
-      <c r="N13" s="24"/>
+      <c r="M13">
+        <v>12</v>
+      </c>
+      <c r="N13" s="36" t="s">
+        <v>24</v>
+      </c>
       <c r="O13" t="s">
-        <v>122</v>
-      </c>
-      <c r="R13" s="24"/>
+        <v>128</v>
+      </c>
+      <c r="Q13">
+        <v>12</v>
+      </c>
+      <c r="R13" s="32"/>
       <c r="S13" t="s">
-        <v>155</v>
-      </c>
-      <c r="V13" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="U13">
         <v>12</v>
       </c>
+      <c r="V13" s="32"/>
       <c r="W13" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+        <v>191</v>
+      </c>
+      <c r="Z13">
+        <v>12</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="24"/>
+      <c r="B14" s="32"/>
       <c r="C14" t="s">
         <v>87</v>
       </c>
-      <c r="F14" s="24"/>
+      <c r="E14">
+        <v>13</v>
+      </c>
+      <c r="F14" s="31"/>
       <c r="G14" t="s">
-        <v>226</v>
-      </c>
-      <c r="J14" s="24"/>
+        <v>62</v>
+      </c>
+      <c r="I14">
+        <v>13</v>
+      </c>
+      <c r="J14" s="32"/>
       <c r="K14" t="s">
         <v>16</v>
       </c>
-      <c r="N14" s="24"/>
+      <c r="M14">
+        <v>13</v>
+      </c>
+      <c r="N14" s="36"/>
       <c r="O14" t="s">
-        <v>123</v>
-      </c>
-      <c r="R14" s="24"/>
+        <v>129</v>
+      </c>
+      <c r="Q14">
+        <v>13</v>
+      </c>
+      <c r="R14" s="32"/>
       <c r="S14" t="s">
-        <v>156</v>
-      </c>
-      <c r="V14" s="24"/>
+        <v>160</v>
+      </c>
+      <c r="U14">
+        <v>13</v>
+      </c>
+      <c r="V14" s="32"/>
       <c r="W14" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+        <v>91</v>
+      </c>
+      <c r="Z14">
+        <v>13</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="24"/>
+      <c r="B15" s="32"/>
       <c r="C15" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="24"/>
+      <c r="E15">
+        <v>14</v>
+      </c>
+      <c r="F15" s="31"/>
       <c r="G15" t="s">
-        <v>225</v>
-      </c>
-      <c r="J15" s="24"/>
+        <v>63</v>
+      </c>
+      <c r="I15">
+        <v>14</v>
+      </c>
+      <c r="J15" s="32"/>
       <c r="K15" t="s">
-        <v>22</v>
-      </c>
-      <c r="N15" s="24"/>
+        <v>23</v>
+      </c>
+      <c r="M15">
+        <v>14</v>
+      </c>
+      <c r="N15" s="36"/>
       <c r="O15" t="s">
-        <v>124</v>
-      </c>
-      <c r="R15" s="24"/>
+        <v>130</v>
+      </c>
+      <c r="Q15">
+        <v>14</v>
+      </c>
+      <c r="R15" s="32"/>
       <c r="S15" t="s">
-        <v>157</v>
-      </c>
-      <c r="V15" s="24"/>
+        <v>161</v>
+      </c>
+      <c r="U15">
+        <v>14</v>
+      </c>
+      <c r="V15" s="32"/>
       <c r="W15" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+        <v>261</v>
+      </c>
+      <c r="Z15">
+        <v>14</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="31" t="s">
         <v>18</v>
       </c>
       <c r="C16" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="25" t="s">
+      <c r="E16">
+        <v>15</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I16">
+        <v>15</v>
+      </c>
+      <c r="J16" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="G16" t="s">
-        <v>60</v>
-      </c>
-      <c r="J16" s="24"/>
       <c r="K16" t="s">
-        <v>23</v>
-      </c>
-      <c r="N16" s="24"/>
+        <v>95</v>
+      </c>
+      <c r="M16">
+        <v>15</v>
+      </c>
+      <c r="N16" s="36"/>
       <c r="O16" t="s">
-        <v>125</v>
-      </c>
-      <c r="R16" s="24"/>
+        <v>131</v>
+      </c>
+      <c r="Q16">
+        <v>15</v>
+      </c>
+      <c r="R16" s="31" t="s">
+        <v>18</v>
+      </c>
       <c r="S16" t="s">
-        <v>158</v>
-      </c>
-      <c r="V16" s="24"/>
+        <v>162</v>
+      </c>
+      <c r="U16">
+        <v>15</v>
+      </c>
+      <c r="V16" s="32"/>
       <c r="W16" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
+        <v>196</v>
+      </c>
+      <c r="Z16">
+        <v>15</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="25"/>
+      <c r="B17" s="31"/>
       <c r="C17" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="25"/>
+      <c r="E17">
+        <v>16</v>
+      </c>
+      <c r="F17" s="37" t="s">
+        <v>30</v>
+      </c>
       <c r="G17" t="s">
-        <v>62</v>
-      </c>
-      <c r="J17" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="I17">
+        <v>16</v>
+      </c>
+      <c r="J17" s="31"/>
+      <c r="K17" t="s">
+        <v>98</v>
+      </c>
+      <c r="M17">
+        <v>16</v>
+      </c>
+      <c r="N17" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="O17" t="s">
+        <v>133</v>
+      </c>
+      <c r="P17" t="s">
+        <v>748</v>
+      </c>
+      <c r="Q17">
+        <v>16</v>
+      </c>
+      <c r="R17" s="31"/>
+      <c r="S17" t="s">
+        <v>163</v>
+      </c>
+      <c r="U17">
+        <v>16</v>
+      </c>
+      <c r="V17" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="K17" t="s">
-        <v>95</v>
-      </c>
-      <c r="N17" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="O17" t="s">
-        <v>126</v>
-      </c>
-      <c r="R17" s="24"/>
-      <c r="S17" t="s">
-        <v>159</v>
-      </c>
-      <c r="V17" s="24"/>
       <c r="W17" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
+        <v>197</v>
+      </c>
+      <c r="Z17">
+        <v>16</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="25"/>
+      <c r="B18" s="31"/>
       <c r="C18" t="s">
         <v>96</v>
       </c>
-      <c r="F18" s="25"/>
+      <c r="E18">
+        <v>17</v>
+      </c>
+      <c r="F18" s="37"/>
       <c r="G18" t="s">
-        <v>63</v>
-      </c>
-      <c r="J18" s="25"/>
+        <v>70</v>
+      </c>
+      <c r="I18">
+        <v>17</v>
+      </c>
+      <c r="J18" s="31"/>
       <c r="K18" t="s">
-        <v>98</v>
-      </c>
-      <c r="N18" s="25"/>
+        <v>332</v>
+      </c>
+      <c r="M18">
+        <v>17</v>
+      </c>
+      <c r="N18" s="37"/>
       <c r="O18" t="s">
-        <v>127</v>
-      </c>
-      <c r="R18" s="24"/>
+        <v>134</v>
+      </c>
+      <c r="Q18">
+        <v>17</v>
+      </c>
+      <c r="R18" s="36" t="s">
+        <v>24</v>
+      </c>
       <c r="S18" t="s">
-        <v>160</v>
-      </c>
-      <c r="V18" s="24"/>
+        <v>164</v>
+      </c>
+      <c r="U18">
+        <v>17</v>
+      </c>
+      <c r="V18" s="31"/>
       <c r="W18" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
+        <v>198</v>
+      </c>
+      <c r="Z18">
+        <v>17</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="36" t="s">
         <v>24</v>
       </c>
       <c r="C19" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="23" t="s">
+      <c r="E19">
+        <v>18</v>
+      </c>
+      <c r="F19" s="37"/>
+      <c r="G19" t="s">
+        <v>71</v>
+      </c>
+      <c r="I19">
+        <v>18</v>
+      </c>
+      <c r="J19" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="G19" t="s">
-        <v>64</v>
-      </c>
-      <c r="J19" s="25"/>
       <c r="K19" t="s">
-        <v>333</v>
-      </c>
-      <c r="N19" s="23" t="s">
-        <v>24</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="M19">
+        <v>18</v>
+      </c>
+      <c r="N19" s="37"/>
       <c r="O19" t="s">
-        <v>128</v>
-      </c>
-      <c r="R19" s="24"/>
+        <v>135</v>
+      </c>
+      <c r="Q19">
+        <v>18</v>
+      </c>
+      <c r="R19" s="36"/>
       <c r="S19" t="s">
-        <v>161</v>
-      </c>
-      <c r="V19" s="24"/>
+        <v>165</v>
+      </c>
+      <c r="U19">
+        <v>18</v>
+      </c>
+      <c r="V19" s="31"/>
       <c r="W19" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
+        <v>199</v>
+      </c>
+      <c r="Z19">
+        <v>18</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="23"/>
+      <c r="B20" s="36"/>
       <c r="C20" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="23"/>
+      <c r="E20">
+        <v>19</v>
+      </c>
+      <c r="F20" s="35" t="s">
+        <v>36</v>
+      </c>
       <c r="G20" t="s">
-        <v>65</v>
-      </c>
-      <c r="J20" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="I20">
+        <v>19</v>
+      </c>
+      <c r="J20" s="36"/>
+      <c r="K20" t="s">
+        <v>29</v>
+      </c>
+      <c r="M20">
+        <v>19</v>
+      </c>
+      <c r="N20" s="37"/>
+      <c r="O20" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q20">
+        <v>19</v>
+      </c>
+      <c r="R20" s="36"/>
+      <c r="S20" t="s">
+        <v>166</v>
+      </c>
+      <c r="U20">
+        <v>19</v>
+      </c>
+      <c r="V20" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="K20" t="s">
-        <v>99</v>
-      </c>
-      <c r="N20" s="23"/>
-      <c r="O20" t="s">
-        <v>129</v>
-      </c>
-      <c r="R20" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="S20" t="s">
-        <v>162</v>
-      </c>
-      <c r="V20" s="24"/>
       <c r="W20" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
+        <v>200</v>
+      </c>
+      <c r="Z20">
+        <v>19</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="23"/>
+      <c r="B21" s="36"/>
       <c r="C21" t="s">
         <v>100</v>
       </c>
-      <c r="F21" s="23"/>
+      <c r="E21">
+        <v>20</v>
+      </c>
+      <c r="F21" s="35"/>
       <c r="G21" t="s">
-        <v>66</v>
-      </c>
-      <c r="J21" s="19"/>
+        <v>73</v>
+      </c>
+      <c r="I21">
+        <v>20</v>
+      </c>
+      <c r="J21" s="36"/>
       <c r="K21" t="s">
-        <v>29</v>
-      </c>
-      <c r="N21" s="23"/>
+        <v>27</v>
+      </c>
+      <c r="M21">
+        <v>20</v>
+      </c>
+      <c r="N21" s="35" t="s">
+        <v>36</v>
+      </c>
       <c r="O21" t="s">
-        <v>130</v>
-      </c>
-      <c r="R21" s="25"/>
+        <v>139</v>
+      </c>
+      <c r="Q21">
+        <v>20</v>
+      </c>
+      <c r="R21" s="36"/>
       <c r="S21" t="s">
-        <v>163</v>
-      </c>
-      <c r="V21" s="24"/>
+        <v>167</v>
+      </c>
+      <c r="U21">
+        <v>20</v>
+      </c>
+      <c r="V21" s="36"/>
       <c r="W21" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
+        <v>201</v>
+      </c>
+      <c r="Z21">
+        <v>20</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="37" t="s">
         <v>30</v>
       </c>
       <c r="C22" t="s">
         <v>31</v>
       </c>
-      <c r="F22" s="23"/>
+      <c r="E22">
+        <v>21</v>
+      </c>
+      <c r="F22" s="35"/>
       <c r="G22" t="s">
-        <v>67</v>
-      </c>
-      <c r="J22" s="19"/>
+        <v>74</v>
+      </c>
+      <c r="I22">
+        <v>21</v>
+      </c>
+      <c r="J22" s="37" t="s">
+        <v>30</v>
+      </c>
       <c r="K22" t="s">
-        <v>27</v>
-      </c>
-      <c r="N22" s="23"/>
+        <v>103</v>
+      </c>
+      <c r="M22">
+        <v>21</v>
+      </c>
+      <c r="N22" s="35"/>
       <c r="O22" t="s">
-        <v>131</v>
-      </c>
-      <c r="R22" s="23" t="s">
-        <v>24</v>
+        <v>140</v>
+      </c>
+      <c r="Q22">
+        <v>21</v>
+      </c>
+      <c r="R22" s="37" t="s">
+        <v>30</v>
       </c>
       <c r="S22" t="s">
-        <v>164</v>
-      </c>
-      <c r="V22" s="24"/>
+        <v>172</v>
+      </c>
+      <c r="U22">
+        <v>21</v>
+      </c>
+      <c r="V22" s="36"/>
       <c r="W22" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
+        <v>202</v>
+      </c>
+      <c r="Z22">
+        <v>21</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="21"/>
+      <c r="B23" s="37"/>
       <c r="C23" t="s">
         <v>32</v>
       </c>
-      <c r="F23" s="21" t="s">
-        <v>30</v>
-      </c>
+      <c r="E23">
+        <v>22</v>
+      </c>
+      <c r="F23" s="35"/>
       <c r="G23" t="s">
-        <v>69</v>
-      </c>
-      <c r="J23" s="21" t="s">
-        <v>30</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="I23">
+        <v>22</v>
+      </c>
+      <c r="J23" s="37"/>
       <c r="K23" t="s">
-        <v>103</v>
-      </c>
-      <c r="N23" s="23"/>
+        <v>105</v>
+      </c>
+      <c r="M23">
+        <v>22</v>
+      </c>
+      <c r="N23" s="35"/>
       <c r="O23" t="s">
-        <v>132</v>
-      </c>
-      <c r="R23" s="23"/>
+        <v>141</v>
+      </c>
+      <c r="Q23">
+        <v>22</v>
+      </c>
+      <c r="R23" s="37"/>
       <c r="S23" t="s">
-        <v>165</v>
-      </c>
-      <c r="V23" s="25" t="s">
-        <v>18</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="U23">
+        <v>22</v>
+      </c>
+      <c r="V23" s="36"/>
       <c r="W23" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
+        <v>203</v>
+      </c>
+      <c r="Z23">
+        <v>22</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="21"/>
+      <c r="B24" s="37"/>
       <c r="C24" t="s">
         <v>33</v>
       </c>
-      <c r="F24" s="21"/>
+      <c r="E24">
+        <v>23</v>
+      </c>
+      <c r="F24" s="35"/>
       <c r="G24" t="s">
-        <v>70</v>
-      </c>
-      <c r="J24" s="21"/>
+        <v>275</v>
+      </c>
+      <c r="I24">
+        <v>23</v>
+      </c>
+      <c r="J24" s="37"/>
       <c r="K24" t="s">
-        <v>105</v>
-      </c>
-      <c r="N24" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="M24">
+        <v>23</v>
+      </c>
+      <c r="N24" s="35"/>
+      <c r="O24" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q24">
+        <v>23</v>
+      </c>
+      <c r="R24" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="S24" t="s">
+        <v>173</v>
+      </c>
+      <c r="U24">
+        <v>23</v>
+      </c>
+      <c r="V24" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="O24" t="s">
-        <v>133</v>
-      </c>
-      <c r="R24" s="23"/>
-      <c r="S24" t="s">
-        <v>166</v>
-      </c>
-      <c r="V24" s="25"/>
       <c r="W24" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
+        <v>204</v>
+      </c>
+      <c r="Z24">
+        <v>23</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="21"/>
+      <c r="B25" s="37"/>
       <c r="C25" t="s">
         <v>104</v>
       </c>
-      <c r="F25" s="21"/>
-      <c r="G25" t="s">
-        <v>71</v>
-      </c>
-      <c r="J25" s="21"/>
+      <c r="E25">
+        <v>24</v>
+      </c>
+      <c r="G25" s="28" t="s">
+        <v>730</v>
+      </c>
+      <c r="I25">
+        <v>24</v>
+      </c>
+      <c r="J25" s="35" t="s">
+        <v>36</v>
+      </c>
       <c r="K25" t="s">
-        <v>106</v>
-      </c>
-      <c r="N25" s="21"/>
-      <c r="O25" t="s">
-        <v>134</v>
-      </c>
-      <c r="R25" s="23"/>
+        <v>40</v>
+      </c>
+      <c r="M25">
+        <v>24</v>
+      </c>
+      <c r="O25" s="28" t="s">
+        <v>619</v>
+      </c>
+      <c r="Q25">
+        <v>24</v>
+      </c>
+      <c r="R25" s="35"/>
       <c r="S25" t="s">
-        <v>167</v>
-      </c>
-      <c r="V25" s="25"/>
+        <v>174</v>
+      </c>
+      <c r="U25">
+        <v>24</v>
+      </c>
+      <c r="V25" s="37"/>
       <c r="W25" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
+        <v>206</v>
+      </c>
+      <c r="Z25">
+        <v>24</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="35" t="s">
         <v>36</v>
       </c>
       <c r="C26" t="s">
         <v>37</v>
       </c>
-      <c r="F26" s="21"/>
-      <c r="G26" t="s">
-        <v>68</v>
-      </c>
-      <c r="J26" s="22" t="s">
-        <v>36</v>
-      </c>
+      <c r="E26">
+        <v>25</v>
+      </c>
+      <c r="G26" s="28" t="s">
+        <v>572</v>
+      </c>
+      <c r="I26">
+        <v>25</v>
+      </c>
+      <c r="J26" s="35"/>
       <c r="K26" t="s">
-        <v>40</v>
-      </c>
-      <c r="N26" s="21"/>
-      <c r="O26" t="s">
-        <v>135</v>
-      </c>
-      <c r="R26" s="21" t="s">
-        <v>30</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="M26">
+        <v>25</v>
+      </c>
+      <c r="O26" s="28" t="s">
+        <v>620</v>
+      </c>
+      <c r="Q26">
+        <v>25</v>
+      </c>
+      <c r="R26" s="35"/>
       <c r="S26" t="s">
-        <v>168</v>
-      </c>
-      <c r="V26" s="23" t="s">
-        <v>24</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="U26">
+        <v>25</v>
+      </c>
+      <c r="V26" s="37"/>
       <c r="W26" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
+        <v>207</v>
+      </c>
+      <c r="Z26">
+        <v>25</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="22"/>
+      <c r="B27" s="35"/>
       <c r="C27" t="s">
         <v>38</v>
       </c>
-      <c r="F27" s="22" t="s">
+      <c r="E27">
+        <v>26</v>
+      </c>
+      <c r="G27" s="28" t="s">
+        <v>731</v>
+      </c>
+      <c r="I27">
+        <v>26</v>
+      </c>
+      <c r="J27" s="35"/>
+      <c r="K27" t="s">
+        <v>110</v>
+      </c>
+      <c r="M27">
+        <v>26</v>
+      </c>
+      <c r="O27" s="28" t="s">
+        <v>621</v>
+      </c>
+      <c r="Q27">
+        <v>26</v>
+      </c>
+      <c r="R27" s="35"/>
+      <c r="S27" t="s">
+        <v>176</v>
+      </c>
+      <c r="U27">
+        <v>26</v>
+      </c>
+      <c r="V27" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="G27" t="s">
-        <v>72</v>
-      </c>
-      <c r="J27" s="22"/>
-      <c r="K27" t="s">
-        <v>108</v>
-      </c>
-      <c r="N27" s="21"/>
-      <c r="O27" t="s">
-        <v>136</v>
-      </c>
-      <c r="R27" s="21"/>
-      <c r="S27" t="s">
-        <v>169</v>
-      </c>
-      <c r="V27" s="23"/>
       <c r="W27" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
+        <v>208</v>
+      </c>
+      <c r="Z27">
+        <v>26</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="22"/>
+      <c r="B28" s="35"/>
       <c r="C28" t="s">
         <v>39</v>
       </c>
-      <c r="F28" s="22"/>
-      <c r="G28" t="s">
-        <v>73</v>
-      </c>
-      <c r="J28" s="22"/>
+      <c r="E28">
+        <v>27</v>
+      </c>
+      <c r="G28" s="28" t="s">
+        <v>573</v>
+      </c>
+      <c r="I28">
+        <v>27</v>
+      </c>
+      <c r="J28" s="35"/>
       <c r="K28" t="s">
-        <v>110</v>
-      </c>
-      <c r="N28" s="21"/>
-      <c r="O28" t="s">
-        <v>137</v>
-      </c>
-      <c r="R28" s="21"/>
-      <c r="S28" t="s">
-        <v>170</v>
-      </c>
-      <c r="V28" s="23"/>
+        <v>41</v>
+      </c>
+      <c r="M28">
+        <v>27</v>
+      </c>
+      <c r="O28" s="28" t="s">
+        <v>622</v>
+      </c>
+      <c r="Q28">
+        <v>27</v>
+      </c>
+      <c r="S28" s="28" t="s">
+        <v>592</v>
+      </c>
+      <c r="U28">
+        <v>27</v>
+      </c>
+      <c r="V28" s="35"/>
       <c r="W28" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
+        <v>210</v>
+      </c>
+      <c r="Z28">
+        <v>27</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="22"/>
+      <c r="B29" s="35"/>
       <c r="C29" t="s">
         <v>107</v>
       </c>
-      <c r="F29" s="22"/>
-      <c r="G29" t="s">
-        <v>74</v>
-      </c>
-      <c r="J29" s="22"/>
-      <c r="K29" t="s">
-        <v>41</v>
-      </c>
-      <c r="N29" s="21"/>
-      <c r="O29" t="s">
-        <v>138</v>
-      </c>
-      <c r="R29" s="21"/>
-      <c r="S29" t="s">
-        <v>171</v>
-      </c>
-      <c r="V29" s="23"/>
+      <c r="E29">
+        <v>28</v>
+      </c>
+      <c r="G29" s="28" t="s">
+        <v>604</v>
+      </c>
+      <c r="I29">
+        <v>28</v>
+      </c>
+      <c r="K29" s="28" t="s">
+        <v>540</v>
+      </c>
+      <c r="M29">
+        <v>28</v>
+      </c>
+      <c r="O29" s="28" t="s">
+        <v>750</v>
+      </c>
+      <c r="Q29">
+        <v>28</v>
+      </c>
+      <c r="S29" s="28" t="s">
+        <v>597</v>
+      </c>
+      <c r="U29">
+        <v>28</v>
+      </c>
+      <c r="V29" s="35"/>
       <c r="W29" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+      <c r="Z29">
+        <v>28</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="F30" s="22"/>
-      <c r="G30" t="s">
-        <v>75</v>
-      </c>
-      <c r="N30" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="O30" t="s">
-        <v>139</v>
-      </c>
-      <c r="R30" s="21"/>
-      <c r="S30" t="s">
-        <v>172</v>
-      </c>
-      <c r="V30" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="W30" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="C30" s="28" t="s">
+        <v>729</v>
+      </c>
+      <c r="E30">
+        <v>29</v>
+      </c>
+      <c r="G30" s="28" t="s">
+        <v>753</v>
+      </c>
+      <c r="I30">
+        <v>29</v>
+      </c>
+      <c r="K30" s="28" t="s">
+        <v>599</v>
+      </c>
+      <c r="M30">
+        <v>29</v>
+      </c>
+      <c r="O30" s="28" t="s">
+        <v>751</v>
+      </c>
+      <c r="Q30">
+        <v>29</v>
+      </c>
+      <c r="S30" s="28" t="s">
+        <v>607</v>
+      </c>
+      <c r="U30">
+        <v>29</v>
+      </c>
+      <c r="W30" s="28" t="s">
+        <v>741</v>
+      </c>
+      <c r="Z30">
+        <v>29</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="F31" s="22"/>
-      <c r="G31" t="s">
-        <v>275</v>
-      </c>
-      <c r="N31" s="22"/>
-      <c r="O31" t="s">
-        <v>140</v>
-      </c>
-      <c r="R31" s="22" t="s">
+      <c r="C31" s="28" t="s">
+        <v>583</v>
+      </c>
+      <c r="E31">
+        <v>30</v>
+      </c>
+      <c r="G31" s="28" t="s">
+        <v>754</v>
+      </c>
+      <c r="I31">
+        <v>30</v>
+      </c>
+      <c r="K31" s="28" t="s">
+        <v>735</v>
+      </c>
+      <c r="M31">
+        <v>30</v>
+      </c>
+      <c r="O31" s="28" t="s">
+        <v>752</v>
+      </c>
+      <c r="Q31">
+        <v>30</v>
+      </c>
+      <c r="S31" s="28" t="s">
+        <v>608</v>
+      </c>
+      <c r="U31">
+        <v>30</v>
+      </c>
+      <c r="W31" s="28" t="s">
+        <v>742</v>
+      </c>
+      <c r="Y31" s="23"/>
+      <c r="Z31">
+        <v>30</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="Z32">
+        <v>31</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="Z33">
+        <v>32</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="Z34">
+        <v>33</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="Z35">
+        <v>34</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="Z36">
+        <v>35</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="Z37">
         <v>36</v>
       </c>
-      <c r="S31" t="s">
-        <v>173</v>
-      </c>
-      <c r="V31" s="21"/>
-      <c r="W31" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="N32" s="22"/>
-      <c r="O32" t="s">
-        <v>141</v>
-      </c>
-      <c r="R32" s="22"/>
-      <c r="S32" t="s">
-        <v>174</v>
-      </c>
-      <c r="V32" s="21"/>
-      <c r="W32" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="N33" s="22"/>
-      <c r="O33" t="s">
-        <v>142</v>
-      </c>
-      <c r="R33" s="22"/>
-      <c r="S33" t="s">
-        <v>175</v>
-      </c>
-      <c r="V33" s="21"/>
-      <c r="W33" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="R34" s="22"/>
-      <c r="S34" t="s">
-        <v>176</v>
-      </c>
-      <c r="V34" s="21"/>
-      <c r="W34" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="V35" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="W35" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="V36" s="22"/>
-      <c r="W36" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="V37" s="22"/>
-      <c r="W37" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B43" t="s">
+      <c r="AA37" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="Z38">
+        <v>37</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="Z39">
+        <v>38</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="Z40">
+        <v>39</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="Z41">
+        <v>40</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="Z42">
+        <v>41</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="B43" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="F43" t="s">
+      <c r="C43" s="24"/>
+      <c r="F43" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="J43" t="s">
-        <v>425</v>
-      </c>
-      <c r="N43" t="s">
+      <c r="G43" s="24"/>
+      <c r="J43" s="24" t="s">
+        <v>423</v>
+      </c>
+      <c r="K43" s="24"/>
+      <c r="N43" s="24" t="s">
         <v>314</v>
       </c>
-      <c r="R43" t="s">
+      <c r="O43" s="24"/>
+      <c r="R43" s="24" t="s">
         <v>315</v>
       </c>
-      <c r="V43" s="28" t="s">
+      <c r="S43" s="24"/>
+      <c r="V43" s="38" t="s">
         <v>316</v>
       </c>
-      <c r="W43" s="28"/>
-      <c r="X43" s="28"/>
-      <c r="Y43" s="28"/>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="W43" s="38"/>
+      <c r="X43" s="38"/>
+      <c r="Y43" s="38"/>
+      <c r="Z43">
+        <v>42</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>1</v>
       </c>
-      <c r="B44" s="26" t="s">
+      <c r="B44" s="34" t="s">
         <v>1</v>
       </c>
       <c r="C44" t="s">
         <v>44</v>
       </c>
-      <c r="F44" s="26" t="s">
+      <c r="D44" s="25"/>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44" s="34" t="s">
         <v>1</v>
       </c>
       <c r="G44" t="s">
         <v>246</v>
       </c>
-      <c r="J44" s="26" t="s">
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44" s="34" t="s">
         <v>1</v>
       </c>
       <c r="K44" t="s">
         <v>280</v>
       </c>
-      <c r="N44" s="26" t="s">
+      <c r="M44">
+        <v>1</v>
+      </c>
+      <c r="N44" s="34" t="s">
         <v>1</v>
       </c>
       <c r="O44" t="s">
         <v>317</v>
       </c>
-      <c r="R44" s="26" t="s">
+      <c r="Q44">
         <v>1</v>
       </c>
+      <c r="R44" s="34" t="s">
+        <v>1</v>
+      </c>
       <c r="S44" t="s">
-        <v>348</v>
-      </c>
-      <c r="V44" s="26" t="s">
+        <v>347</v>
+      </c>
+      <c r="U44">
         <v>1</v>
       </c>
+      <c r="V44" s="34" t="s">
+        <v>1</v>
+      </c>
       <c r="W44" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
+        <v>377</v>
+      </c>
+      <c r="Z44">
+        <v>43</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>2</v>
       </c>
-      <c r="B45" s="26"/>
+      <c r="B45" s="34"/>
       <c r="C45" t="s">
         <v>178</v>
       </c>
-      <c r="F45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="E45">
+        <v>2</v>
+      </c>
+      <c r="F45" s="34"/>
       <c r="G45" t="s">
         <v>247</v>
       </c>
-      <c r="J45" s="26"/>
+      <c r="I45">
+        <v>2</v>
+      </c>
+      <c r="J45" s="34"/>
       <c r="K45" t="s">
-        <v>281</v>
-      </c>
-      <c r="N45" s="26"/>
+        <v>282</v>
+      </c>
+      <c r="M45">
+        <v>2</v>
+      </c>
+      <c r="N45" s="34"/>
       <c r="O45" t="s">
         <v>318</v>
       </c>
-      <c r="R45" s="26"/>
+      <c r="Q45">
+        <v>2</v>
+      </c>
+      <c r="R45" s="34"/>
       <c r="S45" t="s">
-        <v>349</v>
-      </c>
-      <c r="V45" s="26"/>
+        <v>348</v>
+      </c>
+      <c r="U45">
+        <v>2</v>
+      </c>
+      <c r="V45" s="34"/>
       <c r="W45" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.35">
+        <v>378</v>
+      </c>
+      <c r="Z45">
+        <v>44</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>3</v>
       </c>
-      <c r="B46" s="26"/>
+      <c r="B46" s="33" t="s">
+        <v>5</v>
+      </c>
       <c r="C46" t="s">
-        <v>213</v>
-      </c>
-      <c r="F46" s="26"/>
+        <v>216</v>
+      </c>
+      <c r="D46" s="26"/>
+      <c r="E46">
+        <v>3</v>
+      </c>
+      <c r="F46" s="34"/>
       <c r="G46" t="s">
         <v>79</v>
       </c>
-      <c r="J46" s="26"/>
+      <c r="I46">
+        <v>3</v>
+      </c>
+      <c r="J46" s="33" t="s">
+        <v>5</v>
+      </c>
       <c r="K46" t="s">
-        <v>282</v>
-      </c>
-      <c r="N46" s="26"/>
+        <v>283</v>
+      </c>
+      <c r="M46">
+        <v>3</v>
+      </c>
+      <c r="N46" s="34"/>
       <c r="O46" t="s">
         <v>319</v>
       </c>
-      <c r="R46" s="26"/>
+      <c r="Q46">
+        <v>3</v>
+      </c>
+      <c r="R46" s="34"/>
       <c r="S46" t="s">
         <v>78</v>
       </c>
-      <c r="V46" s="26"/>
+      <c r="U46">
+        <v>3</v>
+      </c>
+      <c r="V46" s="34"/>
       <c r="W46" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.35">
+        <v>379</v>
+      </c>
+      <c r="Z46">
+        <v>45</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>4</v>
       </c>
-      <c r="B47" s="20" t="s">
-        <v>5</v>
-      </c>
+      <c r="B47" s="33"/>
       <c r="C47" t="s">
-        <v>216</v>
-      </c>
-      <c r="F47" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="D47" s="27"/>
+      <c r="E47">
+        <v>4</v>
+      </c>
+      <c r="F47" s="33" t="s">
         <v>5</v>
       </c>
       <c r="G47" t="s">
         <v>183</v>
       </c>
-      <c r="J47" s="20" t="s">
-        <v>5</v>
-      </c>
+      <c r="I47">
+        <v>4</v>
+      </c>
+      <c r="J47" s="33"/>
       <c r="K47" t="s">
-        <v>283</v>
-      </c>
-      <c r="N47" s="20" t="s">
+        <v>284</v>
+      </c>
+      <c r="M47">
+        <v>4</v>
+      </c>
+      <c r="N47" s="33" t="s">
         <v>5</v>
       </c>
       <c r="O47" t="s">
         <v>320</v>
       </c>
-      <c r="R47" s="26"/>
+      <c r="Q47">
+        <v>4</v>
+      </c>
+      <c r="R47" s="33" t="s">
+        <v>5</v>
+      </c>
       <c r="S47" t="s">
         <v>350</v>
       </c>
-      <c r="V47" s="20" t="s">
+      <c r="U47">
+        <v>4</v>
+      </c>
+      <c r="V47" s="33" t="s">
         <v>5</v>
       </c>
       <c r="W47" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.35">
+        <v>380</v>
+      </c>
+      <c r="Z47">
+        <v>46</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>5</v>
       </c>
-      <c r="B48" s="20"/>
+      <c r="B48" s="33"/>
       <c r="C48" t="s">
-        <v>217</v>
-      </c>
-      <c r="F48" s="20"/>
+        <v>83</v>
+      </c>
+      <c r="D48" s="26"/>
+      <c r="E48">
+        <v>5</v>
+      </c>
+      <c r="F48" s="33"/>
       <c r="G48" t="s">
         <v>84</v>
       </c>
-      <c r="J48" s="20"/>
+      <c r="I48">
+        <v>5</v>
+      </c>
+      <c r="J48" s="33"/>
       <c r="K48" t="s">
-        <v>284</v>
-      </c>
-      <c r="N48" s="20"/>
+        <v>285</v>
+      </c>
+      <c r="M48">
+        <v>5</v>
+      </c>
+      <c r="N48" s="33"/>
       <c r="O48" t="s">
         <v>251</v>
       </c>
-      <c r="R48" s="20" t="s">
+      <c r="Q48">
         <v>5</v>
       </c>
+      <c r="R48" s="33"/>
       <c r="S48" t="s">
-        <v>351</v>
-      </c>
-      <c r="V48" s="20"/>
+        <v>48</v>
+      </c>
+      <c r="U48">
+        <v>5</v>
+      </c>
+      <c r="V48" s="33"/>
       <c r="W48" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.35">
+        <v>381</v>
+      </c>
+      <c r="Z48">
+        <v>47</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>6</v>
       </c>
-      <c r="B49" s="20"/>
+      <c r="B49" s="33"/>
       <c r="C49" t="s">
-        <v>221</v>
-      </c>
-      <c r="D49" s="17"/>
-      <c r="F49" s="20"/>
+        <v>222</v>
+      </c>
+      <c r="D49" s="26"/>
+      <c r="E49">
+        <v>6</v>
+      </c>
+      <c r="F49" s="33"/>
       <c r="G49" t="s">
         <v>51</v>
       </c>
-      <c r="J49" s="20"/>
+      <c r="I49">
+        <v>6</v>
+      </c>
+      <c r="J49" s="32" t="s">
+        <v>12</v>
+      </c>
       <c r="K49" t="s">
-        <v>285</v>
-      </c>
-      <c r="N49" s="20"/>
+        <v>286</v>
+      </c>
+      <c r="M49">
+        <v>6</v>
+      </c>
+      <c r="N49" s="33"/>
       <c r="O49" t="s">
         <v>322</v>
       </c>
-      <c r="R49" s="20"/>
+      <c r="Q49">
+        <v>6</v>
+      </c>
+      <c r="R49" s="33"/>
       <c r="S49" t="s">
-        <v>48</v>
-      </c>
-      <c r="V49" s="20"/>
+        <v>352</v>
+      </c>
+      <c r="U49">
+        <v>6</v>
+      </c>
+      <c r="V49" s="33"/>
       <c r="W49" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="Z49">
+        <v>48</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>7</v>
       </c>
-      <c r="B50" s="20"/>
+      <c r="B50" s="32" t="s">
+        <v>12</v>
+      </c>
       <c r="C50" t="s">
-        <v>222</v>
-      </c>
-      <c r="F50" s="20"/>
+        <v>57</v>
+      </c>
+      <c r="D50" s="26"/>
+      <c r="E50">
+        <v>7</v>
+      </c>
+      <c r="F50" s="33"/>
       <c r="G50" t="s">
         <v>321</v>
       </c>
-      <c r="J50" s="24" t="s">
-        <v>12</v>
-      </c>
+      <c r="I50">
+        <v>7</v>
+      </c>
+      <c r="J50" s="32"/>
       <c r="K50" t="s">
-        <v>286</v>
-      </c>
-      <c r="N50" s="24" t="s">
+        <v>287</v>
+      </c>
+      <c r="M50">
+        <v>7</v>
+      </c>
+      <c r="N50" s="32" t="s">
         <v>12</v>
       </c>
       <c r="O50" t="s">
         <v>323</v>
       </c>
-      <c r="R50" s="20"/>
+      <c r="Q50">
+        <v>7</v>
+      </c>
+      <c r="R50" s="33"/>
       <c r="S50" t="s">
         <v>353</v>
       </c>
-      <c r="V50" s="20"/>
+      <c r="U50">
+        <v>7</v>
+      </c>
+      <c r="V50" s="33"/>
       <c r="W50" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.35">
+        <v>186</v>
+      </c>
+      <c r="Z50">
+        <v>49</v>
+      </c>
+      <c r="AA50" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>8</v>
       </c>
-      <c r="B51" s="20"/>
+      <c r="B51" s="32"/>
       <c r="C51" t="s">
-        <v>253</v>
-      </c>
-      <c r="F51" s="20"/>
+        <v>93</v>
+      </c>
+      <c r="D51" s="26"/>
+      <c r="E51">
+        <v>8</v>
+      </c>
+      <c r="F51" s="33"/>
       <c r="G51" t="s">
         <v>254</v>
       </c>
-      <c r="J51" s="24"/>
+      <c r="I51">
+        <v>8</v>
+      </c>
+      <c r="J51" s="32"/>
       <c r="K51" t="s">
-        <v>287</v>
-      </c>
-      <c r="N51" s="24"/>
+        <v>288</v>
+      </c>
+      <c r="M51">
+        <v>8</v>
+      </c>
+      <c r="N51" s="32"/>
       <c r="O51" t="s">
         <v>324</v>
       </c>
-      <c r="R51" s="20"/>
+      <c r="Q51">
+        <v>8</v>
+      </c>
+      <c r="R51" s="32" t="s">
+        <v>12</v>
+      </c>
       <c r="S51" t="s">
-        <v>354</v>
-      </c>
-      <c r="V51" s="20"/>
+        <v>22</v>
+      </c>
+      <c r="U51">
+        <v>8</v>
+      </c>
+      <c r="V51" s="32" t="s">
+        <v>12</v>
+      </c>
       <c r="W51" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.35">
+        <v>385</v>
+      </c>
+      <c r="Z51">
+        <v>50</v>
+      </c>
+      <c r="AA51" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>9</v>
       </c>
-      <c r="B52" s="20"/>
+      <c r="B52" s="32"/>
       <c r="C52" t="s">
-        <v>83</v>
-      </c>
-      <c r="F52" s="20"/>
+        <v>218</v>
+      </c>
+      <c r="D52" s="26"/>
+      <c r="E52">
+        <v>9</v>
+      </c>
+      <c r="F52" s="32" t="s">
+        <v>12</v>
+      </c>
       <c r="G52" t="s">
-        <v>249</v>
-      </c>
-      <c r="J52" s="24"/>
+        <v>219</v>
+      </c>
+      <c r="I52">
+        <v>9</v>
+      </c>
+      <c r="J52" s="32"/>
       <c r="K52" t="s">
-        <v>288</v>
-      </c>
-      <c r="N52" s="24"/>
+        <v>289</v>
+      </c>
+      <c r="M52">
+        <v>9</v>
+      </c>
+      <c r="N52" s="32"/>
       <c r="O52" t="s">
         <v>325</v>
       </c>
-      <c r="R52" s="20"/>
+      <c r="Q52">
+        <v>9</v>
+      </c>
+      <c r="R52" s="32"/>
       <c r="S52" t="s">
         <v>355</v>
       </c>
-      <c r="V52" s="24" t="s">
-        <v>12</v>
-      </c>
+      <c r="U52">
+        <v>9</v>
+      </c>
+      <c r="V52" s="32"/>
       <c r="W52" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="Z52">
+        <v>51</v>
+      </c>
+      <c r="AA52" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>10</v>
       </c>
-      <c r="B53" s="24" t="s">
-        <v>12</v>
-      </c>
+      <c r="B53" s="32"/>
       <c r="C53" t="s">
-        <v>57</v>
-      </c>
-      <c r="F53" s="20"/>
+        <v>223</v>
+      </c>
+      <c r="D53" s="27"/>
+      <c r="E53">
+        <v>10</v>
+      </c>
+      <c r="F53" s="32"/>
       <c r="G53" t="s">
-        <v>255</v>
-      </c>
-      <c r="J53" s="24"/>
+        <v>228</v>
+      </c>
+      <c r="I53">
+        <v>10</v>
+      </c>
+      <c r="J53" s="32"/>
       <c r="K53" t="s">
-        <v>289</v>
-      </c>
-      <c r="N53" s="24"/>
+        <v>290</v>
+      </c>
+      <c r="M53">
+        <v>10</v>
+      </c>
+      <c r="N53" s="32"/>
       <c r="O53" t="s">
         <v>326</v>
       </c>
-      <c r="R53" s="24" t="s">
-        <v>12</v>
-      </c>
+      <c r="Q53">
+        <v>10</v>
+      </c>
+      <c r="R53" s="32"/>
       <c r="S53" t="s">
         <v>356</v>
       </c>
-      <c r="V53" s="24"/>
+      <c r="U53">
+        <v>10</v>
+      </c>
+      <c r="V53" s="32"/>
       <c r="W53" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="Z53">
+        <v>52</v>
+      </c>
+      <c r="AA53" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>11</v>
       </c>
-      <c r="B54" s="24"/>
+      <c r="B54" s="31" t="s">
+        <v>18</v>
+      </c>
       <c r="C54" t="s">
-        <v>93</v>
-      </c>
-      <c r="F54" s="20"/>
+        <v>233</v>
+      </c>
+      <c r="D54" s="26"/>
+      <c r="E54">
+        <v>11</v>
+      </c>
+      <c r="F54" s="32"/>
       <c r="G54" t="s">
-        <v>185</v>
-      </c>
-      <c r="J54" s="24"/>
+        <v>258</v>
+      </c>
+      <c r="I54">
+        <v>11</v>
+      </c>
+      <c r="J54" s="32"/>
       <c r="K54" t="s">
-        <v>290</v>
-      </c>
-      <c r="N54" s="24"/>
+        <v>291</v>
+      </c>
+      <c r="M54">
+        <v>11</v>
+      </c>
+      <c r="N54" s="32"/>
       <c r="O54" t="s">
         <v>327</v>
       </c>
-      <c r="R54" s="24"/>
+      <c r="Q54">
+        <v>11</v>
+      </c>
+      <c r="R54" s="32"/>
       <c r="S54" t="s">
         <v>357</v>
       </c>
-      <c r="V54" s="24"/>
+      <c r="U54">
+        <v>11</v>
+      </c>
+      <c r="V54" s="32"/>
       <c r="W54" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="Z54">
+        <v>53</v>
+      </c>
+      <c r="AA54" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>12</v>
       </c>
-      <c r="B55" s="24"/>
+      <c r="B55" s="31"/>
       <c r="C55" t="s">
-        <v>218</v>
-      </c>
-      <c r="F55" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="D55" s="26"/>
+      <c r="E55">
         <v>12</v>
       </c>
+      <c r="F55" s="32"/>
       <c r="G55" t="s">
-        <v>219</v>
-      </c>
-      <c r="J55" s="24"/>
+        <v>90</v>
+      </c>
+      <c r="I55">
+        <v>12</v>
+      </c>
+      <c r="J55" s="32"/>
       <c r="K55" t="s">
-        <v>291</v>
-      </c>
-      <c r="N55" s="24"/>
+        <v>292</v>
+      </c>
+      <c r="M55">
+        <v>12</v>
+      </c>
+      <c r="N55" s="32"/>
       <c r="O55" t="s">
-        <v>328</v>
-      </c>
-      <c r="R55" s="24"/>
+        <v>257</v>
+      </c>
+      <c r="Q55">
+        <v>12</v>
+      </c>
+      <c r="R55" s="32"/>
       <c r="S55" t="s">
         <v>358</v>
       </c>
-      <c r="V55" s="24"/>
+      <c r="U55">
+        <v>12</v>
+      </c>
+      <c r="V55" s="32"/>
       <c r="W55" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="Z55">
+        <v>54</v>
+      </c>
+      <c r="AA55" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>13</v>
       </c>
-      <c r="B56" s="24"/>
+      <c r="B56" s="31"/>
       <c r="C56" t="s">
-        <v>220</v>
-      </c>
-      <c r="F56" s="24"/>
+        <v>232</v>
+      </c>
+      <c r="D56" s="26"/>
+      <c r="E56">
+        <v>13</v>
+      </c>
+      <c r="F56" s="32"/>
       <c r="G56" t="s">
-        <v>228</v>
-      </c>
-      <c r="J56" s="24"/>
+        <v>262</v>
+      </c>
+      <c r="I56">
+        <v>13</v>
+      </c>
+      <c r="J56" s="32"/>
       <c r="K56" t="s">
-        <v>292</v>
-      </c>
-      <c r="N56" s="24"/>
+        <v>293</v>
+      </c>
+      <c r="M56">
+        <v>13</v>
+      </c>
+      <c r="N56" s="31" t="s">
+        <v>18</v>
+      </c>
       <c r="O56" t="s">
-        <v>329</v>
-      </c>
-      <c r="R56" s="24"/>
+        <v>330</v>
+      </c>
+      <c r="Q56">
+        <v>13</v>
+      </c>
+      <c r="R56" s="32"/>
       <c r="S56" t="s">
-        <v>359</v>
-      </c>
-      <c r="V56" s="24"/>
+        <v>192</v>
+      </c>
+      <c r="U56">
+        <v>13</v>
+      </c>
+      <c r="V56" s="32"/>
       <c r="W56" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.35">
+        <v>391</v>
+      </c>
+      <c r="Z56">
+        <v>55</v>
+      </c>
+      <c r="AA56" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>14</v>
       </c>
-      <c r="B57" s="24"/>
+      <c r="B57" s="31"/>
       <c r="C57" t="s">
-        <v>223</v>
-      </c>
-      <c r="F57" s="24"/>
+        <v>267</v>
+      </c>
+      <c r="D57" s="26"/>
+      <c r="E57">
+        <v>14</v>
+      </c>
+      <c r="F57" s="32"/>
       <c r="G57" t="s">
-        <v>258</v>
-      </c>
-      <c r="J57" s="24"/>
+        <v>92</v>
+      </c>
+      <c r="I57">
+        <v>14</v>
+      </c>
+      <c r="J57" s="32"/>
       <c r="K57" t="s">
-        <v>293</v>
-      </c>
-      <c r="N57" s="24"/>
+        <v>294</v>
+      </c>
+      <c r="M57">
+        <v>14</v>
+      </c>
+      <c r="N57" s="31"/>
       <c r="O57" t="s">
-        <v>257</v>
-      </c>
-      <c r="R57" s="24"/>
+        <v>333</v>
+      </c>
+      <c r="Q57">
+        <v>14</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="S57" t="s">
-        <v>360</v>
-      </c>
-      <c r="V57" s="24"/>
+        <v>362</v>
+      </c>
+      <c r="U57">
+        <v>14</v>
+      </c>
+      <c r="V57" s="31" t="s">
+        <v>18</v>
+      </c>
       <c r="W57" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.35">
+        <v>393</v>
+      </c>
+      <c r="Z57">
+        <v>56</v>
+      </c>
+      <c r="AA57" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>15</v>
       </c>
-      <c r="B58" s="24"/>
+      <c r="B58" s="36" t="s">
+        <v>24</v>
+      </c>
       <c r="C58" t="s">
-        <v>224</v>
-      </c>
-      <c r="F58" s="24"/>
+        <v>102</v>
+      </c>
+      <c r="D58" s="26"/>
+      <c r="E58">
+        <v>15</v>
+      </c>
+      <c r="F58" s="32"/>
       <c r="G58" t="s">
-        <v>90</v>
-      </c>
-      <c r="J58" s="24"/>
+        <v>259</v>
+      </c>
+      <c r="I58">
+        <v>15</v>
+      </c>
+      <c r="J58" s="32"/>
       <c r="K58" t="s">
-        <v>294</v>
-      </c>
-      <c r="N58" s="24"/>
+        <v>295</v>
+      </c>
+      <c r="M58">
+        <v>15</v>
+      </c>
+      <c r="N58" s="36" t="s">
+        <v>24</v>
+      </c>
       <c r="O58" t="s">
-        <v>263</v>
-      </c>
-      <c r="R58" s="24"/>
+        <v>336</v>
+      </c>
+      <c r="Q58">
+        <v>15</v>
+      </c>
+      <c r="R58" s="36" t="s">
+        <v>24</v>
+      </c>
       <c r="S58" t="s">
-        <v>361</v>
-      </c>
-      <c r="V58" s="24"/>
+        <v>363</v>
+      </c>
+      <c r="U58">
+        <v>15</v>
+      </c>
+      <c r="V58" s="31"/>
       <c r="W58" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.35">
+        <v>394</v>
+      </c>
+      <c r="Z58">
+        <v>57</v>
+      </c>
+      <c r="AA58" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>16</v>
       </c>
-      <c r="B59" s="24"/>
+      <c r="B59" s="36"/>
       <c r="C59" t="s">
-        <v>227</v>
-      </c>
-      <c r="F59" s="24"/>
+        <v>237</v>
+      </c>
+      <c r="D59" s="27"/>
+      <c r="E59">
+        <v>16</v>
+      </c>
+      <c r="F59" s="31" t="s">
+        <v>18</v>
+      </c>
       <c r="G59" t="s">
-        <v>262</v>
-      </c>
-      <c r="J59" s="24"/>
+        <v>264</v>
+      </c>
+      <c r="I59">
+        <v>16</v>
+      </c>
+      <c r="J59" s="31" t="s">
+        <v>18</v>
+      </c>
       <c r="K59" t="s">
-        <v>295</v>
-      </c>
-      <c r="N59" s="24"/>
+        <v>296</v>
+      </c>
+      <c r="M59">
+        <v>16</v>
+      </c>
+      <c r="N59" s="36"/>
       <c r="O59" t="s">
-        <v>330</v>
-      </c>
-      <c r="R59" s="24"/>
+        <v>337</v>
+      </c>
+      <c r="Q59">
+        <v>16</v>
+      </c>
+      <c r="R59" s="36"/>
       <c r="S59" t="s">
-        <v>362</v>
-      </c>
-      <c r="V59" s="24"/>
+        <v>367</v>
+      </c>
+      <c r="U59">
+        <v>16</v>
+      </c>
+      <c r="V59" s="31"/>
       <c r="W59" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.35">
+        <v>395</v>
+      </c>
+      <c r="Z59">
+        <v>58</v>
+      </c>
+      <c r="AA59" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>17</v>
       </c>
-      <c r="B60" s="24"/>
+      <c r="B60" s="36"/>
       <c r="C60" t="s">
-        <v>229</v>
-      </c>
-      <c r="F60" s="24"/>
+        <v>235</v>
+      </c>
+      <c r="D60" s="26"/>
+      <c r="E60">
+        <v>17</v>
+      </c>
+      <c r="F60" s="31"/>
       <c r="G60" t="s">
-        <v>260</v>
-      </c>
-      <c r="J60" s="25" t="s">
-        <v>18</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="I60">
+        <v>17</v>
+      </c>
+      <c r="J60" s="31"/>
       <c r="K60" t="s">
-        <v>296</v>
-      </c>
-      <c r="N60" s="25" t="s">
-        <v>18</v>
+        <v>298</v>
+      </c>
+      <c r="M60">
+        <v>17</v>
+      </c>
+      <c r="N60" s="37" t="s">
+        <v>30</v>
       </c>
       <c r="O60" t="s">
-        <v>331</v>
-      </c>
-      <c r="R60" s="24"/>
+        <v>338</v>
+      </c>
+      <c r="Q60">
+        <v>17</v>
+      </c>
+      <c r="R60" s="36"/>
       <c r="S60" t="s">
-        <v>192</v>
-      </c>
-      <c r="V60" s="25" t="s">
-        <v>18</v>
+        <v>365</v>
+      </c>
+      <c r="U60">
+        <v>17</v>
+      </c>
+      <c r="V60" s="36" t="s">
+        <v>24</v>
       </c>
       <c r="W60" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.35">
+        <v>397</v>
+      </c>
+      <c r="Z60">
+        <v>59</v>
+      </c>
+      <c r="AA60" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>18</v>
       </c>
-      <c r="B61" s="24"/>
+      <c r="B61" s="19" t="s">
+        <v>30</v>
+      </c>
       <c r="C61" t="s">
-        <v>55</v>
-      </c>
-      <c r="F61" s="24"/>
+        <v>34</v>
+      </c>
+      <c r="D61" s="26"/>
+      <c r="E61">
+        <v>18</v>
+      </c>
+      <c r="F61" s="31"/>
       <c r="G61" t="s">
-        <v>92</v>
-      </c>
-      <c r="J61" s="25"/>
+        <v>97</v>
+      </c>
+      <c r="I61">
+        <v>18</v>
+      </c>
+      <c r="J61" s="36" t="s">
+        <v>24</v>
+      </c>
       <c r="K61" t="s">
-        <v>297</v>
-      </c>
-      <c r="N61" s="25"/>
+        <v>299</v>
+      </c>
+      <c r="M61">
+        <v>18</v>
+      </c>
+      <c r="N61" s="37"/>
       <c r="O61" t="s">
-        <v>332</v>
-      </c>
-      <c r="R61" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q61">
         <v>18</v>
       </c>
+      <c r="R61" s="37" t="s">
+        <v>30</v>
+      </c>
       <c r="S61" t="s">
-        <v>363</v>
-      </c>
-      <c r="V61" s="25"/>
+        <v>368</v>
+      </c>
+      <c r="U61">
+        <v>18</v>
+      </c>
+      <c r="V61" s="36"/>
       <c r="W61" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.35">
+        <v>398</v>
+      </c>
+      <c r="Z61">
+        <v>60</v>
+      </c>
+      <c r="AA61" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>19</v>
       </c>
-      <c r="B62" s="25" t="s">
-        <v>18</v>
+      <c r="B62" s="35" t="s">
+        <v>36</v>
       </c>
       <c r="C62" t="s">
-        <v>233</v>
-      </c>
-      <c r="F62" s="24"/>
+        <v>242</v>
+      </c>
+      <c r="D62" s="26"/>
+      <c r="E62">
+        <v>19</v>
+      </c>
+      <c r="F62" s="31"/>
       <c r="G62" t="s">
-        <v>259</v>
-      </c>
-      <c r="J62" s="25"/>
+        <v>21</v>
+      </c>
+      <c r="I62">
+        <v>19</v>
+      </c>
+      <c r="J62" s="36"/>
       <c r="K62" t="s">
-        <v>298</v>
-      </c>
-      <c r="N62" s="25"/>
+        <v>301</v>
+      </c>
+      <c r="M62">
+        <v>19</v>
+      </c>
+      <c r="N62" s="37"/>
       <c r="O62" t="s">
-        <v>334</v>
-      </c>
-      <c r="R62" s="23" t="s">
-        <v>24</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="Q62">
+        <v>19</v>
+      </c>
+      <c r="R62" s="37"/>
       <c r="S62" t="s">
-        <v>364</v>
-      </c>
-      <c r="V62" s="25"/>
+        <v>370</v>
+      </c>
+      <c r="U62">
+        <v>19</v>
+      </c>
+      <c r="V62" s="36"/>
       <c r="W62" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.35">
+        <v>399</v>
+      </c>
+      <c r="Z62">
+        <v>61</v>
+      </c>
+      <c r="AA62" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>20</v>
       </c>
-      <c r="B63" s="25"/>
+      <c r="B63" s="35"/>
       <c r="C63" t="s">
-        <v>230</v>
-      </c>
-      <c r="F63" s="25" t="s">
-        <v>18</v>
+        <v>243</v>
+      </c>
+      <c r="D63" s="26"/>
+      <c r="E63">
+        <v>20</v>
+      </c>
+      <c r="F63" s="36" t="s">
+        <v>24</v>
       </c>
       <c r="G63" t="s">
-        <v>264</v>
-      </c>
-      <c r="J63" s="23" t="s">
-        <v>24</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="I63">
+        <v>20</v>
+      </c>
+      <c r="J63" s="36"/>
       <c r="K63" t="s">
-        <v>299</v>
-      </c>
-      <c r="N63" s="25"/>
+        <v>303</v>
+      </c>
+      <c r="M63">
+        <v>20</v>
+      </c>
+      <c r="N63" s="37"/>
       <c r="O63" t="s">
-        <v>335</v>
-      </c>
-      <c r="R63" s="23"/>
+        <v>271</v>
+      </c>
+      <c r="Q63">
+        <v>20</v>
+      </c>
+      <c r="R63" s="37"/>
       <c r="S63" t="s">
-        <v>365</v>
-      </c>
-      <c r="V63" s="25"/>
+        <v>371</v>
+      </c>
+      <c r="U63">
+        <v>20</v>
+      </c>
+      <c r="V63" s="36"/>
       <c r="W63" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.35">
+        <v>400</v>
+      </c>
+      <c r="Z63">
+        <v>62</v>
+      </c>
+      <c r="AA63" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>21</v>
       </c>
-      <c r="B64" s="25"/>
+      <c r="B64" s="35"/>
       <c r="C64" t="s">
-        <v>231</v>
-      </c>
-      <c r="F64" s="25"/>
+        <v>244</v>
+      </c>
+      <c r="D64" s="26"/>
+      <c r="E64">
+        <v>21</v>
+      </c>
+      <c r="F64" s="36"/>
       <c r="G64" t="s">
-        <v>265</v>
-      </c>
-      <c r="J64" s="23"/>
+        <v>101</v>
+      </c>
+      <c r="I64">
+        <v>21</v>
+      </c>
+      <c r="J64" s="36"/>
       <c r="K64" t="s">
-        <v>300</v>
-      </c>
-      <c r="N64" s="23" t="s">
-        <v>24</v>
+        <v>304</v>
+      </c>
+      <c r="M64">
+        <v>21</v>
+      </c>
+      <c r="N64" s="35" t="s">
+        <v>36</v>
       </c>
       <c r="O64" t="s">
-        <v>336</v>
-      </c>
-      <c r="R64" s="23"/>
+        <v>344</v>
+      </c>
+      <c r="Q64">
+        <v>21</v>
+      </c>
+      <c r="R64" s="35" t="s">
+        <v>36</v>
+      </c>
       <c r="S64" t="s">
-        <v>366</v>
-      </c>
-      <c r="V64" s="23" t="s">
-        <v>24</v>
+        <v>372</v>
+      </c>
+      <c r="U64">
+        <v>21</v>
+      </c>
+      <c r="V64" s="37" t="s">
+        <v>30</v>
       </c>
       <c r="W64" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.35">
+        <v>401</v>
+      </c>
+      <c r="Z64">
+        <v>63</v>
+      </c>
+      <c r="AA64" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>22</v>
       </c>
-      <c r="B65" s="25"/>
-      <c r="C65" t="s">
-        <v>232</v>
-      </c>
-      <c r="F65" s="25"/>
+      <c r="C65" s="28" t="s">
+        <v>580</v>
+      </c>
+      <c r="D65" s="27"/>
+      <c r="E65">
+        <v>22</v>
+      </c>
+      <c r="F65" s="36"/>
       <c r="G65" t="s">
-        <v>97</v>
-      </c>
-      <c r="J65" s="23"/>
+        <v>28</v>
+      </c>
+      <c r="I65">
+        <v>22</v>
+      </c>
+      <c r="J65" s="36"/>
       <c r="K65" t="s">
-        <v>301</v>
-      </c>
-      <c r="N65" s="23"/>
+        <v>305</v>
+      </c>
+      <c r="M65">
+        <v>22</v>
+      </c>
+      <c r="N65" s="35"/>
       <c r="O65" t="s">
-        <v>337</v>
-      </c>
-      <c r="R65" s="23"/>
+        <v>345</v>
+      </c>
+      <c r="Q65">
+        <v>22</v>
+      </c>
+      <c r="R65" s="35"/>
       <c r="S65" t="s">
-        <v>367</v>
-      </c>
-      <c r="V65" s="23"/>
+        <v>373</v>
+      </c>
+      <c r="U65">
+        <v>22</v>
+      </c>
+      <c r="V65" s="37"/>
       <c r="W65" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.35">
+        <v>403</v>
+      </c>
+      <c r="Z65">
+        <v>64</v>
+      </c>
+      <c r="AA65" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>23</v>
       </c>
-      <c r="B66" s="25"/>
-      <c r="C66" t="s">
-        <v>61</v>
-      </c>
-      <c r="F66" s="25"/>
+      <c r="C66" s="28" t="s">
+        <v>582</v>
+      </c>
+      <c r="D66" s="26"/>
+      <c r="E66">
+        <v>23</v>
+      </c>
+      <c r="F66" s="37" t="s">
+        <v>30</v>
+      </c>
       <c r="G66" t="s">
-        <v>266</v>
-      </c>
-      <c r="J66" s="23"/>
+        <v>272</v>
+      </c>
+      <c r="I66">
+        <v>23</v>
+      </c>
+      <c r="J66" s="37" t="s">
+        <v>30</v>
+      </c>
       <c r="K66" t="s">
-        <v>302</v>
-      </c>
-      <c r="N66" s="23"/>
+        <v>306</v>
+      </c>
+      <c r="M66">
+        <v>23</v>
+      </c>
+      <c r="N66" s="35"/>
       <c r="O66" t="s">
-        <v>338</v>
-      </c>
-      <c r="R66" s="23"/>
+        <v>346</v>
+      </c>
+      <c r="Q66">
+        <v>23</v>
+      </c>
+      <c r="R66" s="35"/>
       <c r="S66" t="s">
-        <v>368</v>
-      </c>
-      <c r="V66" s="23"/>
+        <v>374</v>
+      </c>
+      <c r="U66">
+        <v>23</v>
+      </c>
+      <c r="V66" s="37"/>
       <c r="W66" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.35">
+        <v>405</v>
+      </c>
+      <c r="Z66">
+        <v>65</v>
+      </c>
+      <c r="AA66" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>24</v>
       </c>
-      <c r="B67" s="25"/>
-      <c r="C67" t="s">
-        <v>267</v>
-      </c>
-      <c r="F67" s="25"/>
+      <c r="C67" s="28" t="s">
+        <v>595</v>
+      </c>
+      <c r="D67" s="26"/>
+      <c r="E67">
+        <v>24</v>
+      </c>
+      <c r="F67" s="37"/>
       <c r="G67" t="s">
-        <v>21</v>
-      </c>
-      <c r="J67" s="23"/>
+        <v>273</v>
+      </c>
+      <c r="I67">
+        <v>24</v>
+      </c>
+      <c r="J67" s="37"/>
       <c r="K67" t="s">
-        <v>303</v>
-      </c>
-      <c r="N67" s="23"/>
-      <c r="O67" t="s">
-        <v>342</v>
-      </c>
-      <c r="R67" s="21" t="s">
-        <v>30</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="M67">
+        <v>24</v>
+      </c>
+      <c r="O67" s="28" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q67">
+        <v>24</v>
+      </c>
+      <c r="R67" s="35"/>
       <c r="S67" t="s">
-        <v>369</v>
-      </c>
-      <c r="V67" s="23"/>
+        <v>375</v>
+      </c>
+      <c r="U67">
+        <v>24</v>
+      </c>
+      <c r="V67" s="35" t="s">
+        <v>36</v>
+      </c>
       <c r="W67" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.35">
+        <v>406</v>
+      </c>
+      <c r="Z67">
+        <v>66</v>
+      </c>
+      <c r="AA67" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>25</v>
       </c>
-      <c r="B68" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C68" t="s">
-        <v>102</v>
-      </c>
-      <c r="F68" s="23" t="s">
-        <v>24</v>
-      </c>
+      <c r="C68" s="28" t="s">
+        <v>611</v>
+      </c>
+      <c r="D68" s="26"/>
+      <c r="E68">
+        <v>25</v>
+      </c>
+      <c r="F68" s="37"/>
       <c r="G68" t="s">
-        <v>268</v>
-      </c>
-      <c r="J68" s="23"/>
+        <v>274</v>
+      </c>
+      <c r="I68">
+        <v>25</v>
+      </c>
+      <c r="J68" s="37"/>
       <c r="K68" t="s">
-        <v>304</v>
-      </c>
-      <c r="N68" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="O68" t="s">
-        <v>339</v>
-      </c>
-      <c r="R68" s="21"/>
+        <v>308</v>
+      </c>
+      <c r="M68">
+        <v>25</v>
+      </c>
+      <c r="O68" s="28" t="s">
+        <v>539</v>
+      </c>
+      <c r="Q68">
+        <v>25</v>
+      </c>
+      <c r="R68" s="35"/>
       <c r="S68" t="s">
-        <v>370</v>
-      </c>
-      <c r="V68" s="21" t="s">
-        <v>30</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="U68">
+        <v>25</v>
+      </c>
+      <c r="V68" s="35"/>
       <c r="W68" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.35">
+        <v>408</v>
+      </c>
+      <c r="Z68">
+        <v>67</v>
+      </c>
+      <c r="AA68" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>26</v>
       </c>
-      <c r="B69" s="23"/>
-      <c r="C69" t="s">
-        <v>234</v>
-      </c>
-      <c r="F69" s="23"/>
+      <c r="C69" s="28" t="s">
+        <v>610</v>
+      </c>
+      <c r="D69" s="26"/>
+      <c r="E69">
+        <v>26</v>
+      </c>
+      <c r="F69" s="21" t="s">
+        <v>36</v>
+      </c>
       <c r="G69" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="H69" s="17"/>
-      <c r="J69" s="23"/>
+      <c r="I69">
+        <v>26</v>
+      </c>
+      <c r="J69" s="35" t="s">
+        <v>36</v>
+      </c>
       <c r="K69" t="s">
-        <v>305</v>
-      </c>
-      <c r="N69" s="21"/>
-      <c r="O69" t="s">
+        <v>310</v>
+      </c>
+      <c r="M69">
+        <v>26</v>
+      </c>
+      <c r="O69" s="28" t="s">
+        <v>596</v>
+      </c>
+      <c r="Q69">
+        <v>26</v>
+      </c>
+      <c r="S69" s="28" t="s">
+        <v>588</v>
+      </c>
+      <c r="U69">
+        <v>26</v>
+      </c>
+      <c r="V69" s="35"/>
+      <c r="W69" t="s">
+        <v>409</v>
+      </c>
+      <c r="Z69">
+        <v>68</v>
+      </c>
+      <c r="AA69" t="s">
         <v>340</v>
       </c>
-      <c r="R69" s="21"/>
-      <c r="S69" t="s">
-        <v>371</v>
-      </c>
-      <c r="V69" s="21"/>
-      <c r="W69" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>27</v>
       </c>
-      <c r="B70" s="23"/>
-      <c r="C70" t="s">
-        <v>235</v>
-      </c>
-      <c r="F70" s="23"/>
-      <c r="G70" t="s">
-        <v>270</v>
-      </c>
-      <c r="J70" s="21" t="s">
-        <v>30</v>
-      </c>
+      <c r="C70" s="28" t="s">
+        <v>584</v>
+      </c>
+      <c r="D70" s="27"/>
+      <c r="E70">
+        <v>27</v>
+      </c>
+      <c r="G70" s="28" t="s">
+        <v>578</v>
+      </c>
+      <c r="I70">
+        <v>27</v>
+      </c>
+      <c r="J70" s="35"/>
       <c r="K70" t="s">
-        <v>306</v>
-      </c>
-      <c r="N70" s="21"/>
-      <c r="O70" t="s">
-        <v>341</v>
-      </c>
-      <c r="R70" s="21"/>
-      <c r="S70" t="s">
-        <v>372</v>
-      </c>
-      <c r="V70" s="21"/>
+        <v>311</v>
+      </c>
+      <c r="M70">
+        <v>27</v>
+      </c>
+      <c r="O70" s="28" t="s">
+        <v>600</v>
+      </c>
+      <c r="Q70">
+        <v>27</v>
+      </c>
+      <c r="S70" s="28" t="s">
+        <v>603</v>
+      </c>
+      <c r="U70">
+        <v>27</v>
+      </c>
+      <c r="V70" s="35"/>
       <c r="W70" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.35">
+        <v>209</v>
+      </c>
+      <c r="Z70">
+        <v>69</v>
+      </c>
+      <c r="AA70" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>28</v>
       </c>
-      <c r="B71" s="23"/>
-      <c r="C71" t="s">
-        <v>236</v>
-      </c>
-      <c r="F71" s="23"/>
-      <c r="G71" t="s">
-        <v>101</v>
-      </c>
-      <c r="J71" s="21"/>
+      <c r="C71" s="28" t="s">
+        <v>590</v>
+      </c>
+      <c r="D71" s="26"/>
+      <c r="E71">
+        <v>28</v>
+      </c>
+      <c r="G71" s="28" t="s">
+        <v>593</v>
+      </c>
+      <c r="I71">
+        <v>28</v>
+      </c>
+      <c r="J71" s="35"/>
       <c r="K71" t="s">
-        <v>307</v>
-      </c>
-      <c r="N71" s="21"/>
-      <c r="O71" t="s">
-        <v>343</v>
-      </c>
-      <c r="R71" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="S71" t="s">
-        <v>373</v>
-      </c>
-      <c r="V71" s="21"/>
-      <c r="W71" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.35">
+        <v>312</v>
+      </c>
+      <c r="M71">
+        <v>28</v>
+      </c>
+      <c r="O71" s="28" t="s">
+        <v>737</v>
+      </c>
+      <c r="Q71">
+        <v>28</v>
+      </c>
+      <c r="S71" s="28" t="s">
+        <v>613</v>
+      </c>
+      <c r="U71">
+        <v>28</v>
+      </c>
+      <c r="W71" s="28" t="s">
+        <v>605</v>
+      </c>
+      <c r="Z71">
+        <v>70</v>
+      </c>
+      <c r="AA71" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>29</v>
       </c>
-      <c r="B72" s="23"/>
-      <c r="C72" t="s">
-        <v>237</v>
-      </c>
-      <c r="F72" s="23"/>
-      <c r="G72" t="s">
-        <v>28</v>
-      </c>
-      <c r="J72" s="21"/>
+      <c r="C72" s="28" t="s">
+        <v>601</v>
+      </c>
+      <c r="D72" s="26"/>
+      <c r="E72">
+        <v>29</v>
+      </c>
+      <c r="G72" s="28" t="s">
+        <v>732</v>
+      </c>
+      <c r="I72">
+        <v>29</v>
+      </c>
+      <c r="J72" s="35"/>
       <c r="K72" t="s">
-        <v>308</v>
-      </c>
-      <c r="N72" s="21"/>
-      <c r="O72" t="s">
-        <v>271</v>
-      </c>
-      <c r="R72" s="22"/>
-      <c r="S72" t="s">
-        <v>374</v>
-      </c>
-      <c r="V72" s="21"/>
-      <c r="W72" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.35">
+        <v>313</v>
+      </c>
+      <c r="M72">
+        <v>29</v>
+      </c>
+      <c r="O72" s="28" t="s">
+        <v>581</v>
+      </c>
+      <c r="Q72">
+        <v>29</v>
+      </c>
+      <c r="S72" s="28" t="s">
+        <v>736</v>
+      </c>
+      <c r="U72">
+        <v>29</v>
+      </c>
+      <c r="W72" s="28" t="s">
+        <v>738</v>
+      </c>
+      <c r="Z72">
+        <v>71</v>
+      </c>
+      <c r="AA72" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>30</v>
       </c>
-      <c r="B73" s="23"/>
-      <c r="C73" t="s">
-        <v>238</v>
-      </c>
-      <c r="F73" s="21" t="s">
+      <c r="C73" s="28" t="s">
+        <v>614</v>
+      </c>
+      <c r="D73" s="27"/>
+      <c r="E73">
         <v>30</v>
       </c>
-      <c r="G73" t="s">
-        <v>272</v>
-      </c>
-      <c r="J73" s="21"/>
-      <c r="K73" t="s">
-        <v>309</v>
-      </c>
-      <c r="N73" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="O73" t="s">
-        <v>344</v>
-      </c>
-      <c r="R73" s="22"/>
-      <c r="S73" t="s">
-        <v>375</v>
-      </c>
-      <c r="V73" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="W73" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B74" s="21" t="s">
+      <c r="G73" s="28" t="s">
+        <v>576</v>
+      </c>
+      <c r="I73">
         <v>30</v>
       </c>
-      <c r="C74" t="s">
-        <v>34</v>
-      </c>
-      <c r="F74" s="21"/>
-      <c r="G74" t="s">
-        <v>273</v>
-      </c>
-      <c r="J74" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="K74" t="s">
-        <v>310</v>
-      </c>
-      <c r="N74" s="22"/>
-      <c r="O74" t="s">
-        <v>345</v>
-      </c>
-      <c r="R74" s="22"/>
-      <c r="S74" t="s">
-        <v>376</v>
-      </c>
-      <c r="V74" s="22"/>
-      <c r="W74" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B75" s="21"/>
-      <c r="C75" t="s">
-        <v>239</v>
-      </c>
-      <c r="F75" s="21"/>
-      <c r="G75" t="s">
-        <v>274</v>
-      </c>
-      <c r="J75" s="22"/>
-      <c r="K75" t="s">
-        <v>311</v>
-      </c>
-      <c r="N75" s="22"/>
-      <c r="O75" t="s">
-        <v>346</v>
-      </c>
-      <c r="R75" s="22"/>
-      <c r="S75" t="s">
-        <v>377</v>
-      </c>
-      <c r="V75" s="22"/>
-      <c r="W75" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B76" s="21"/>
-      <c r="C76" t="s">
-        <v>240</v>
-      </c>
-      <c r="F76" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="G76" t="s">
-        <v>276</v>
-      </c>
-      <c r="J76" s="22"/>
-      <c r="K76" t="s">
-        <v>312</v>
-      </c>
-      <c r="N76" s="22"/>
-      <c r="O76" t="s">
-        <v>347</v>
-      </c>
-      <c r="V76" s="22"/>
-      <c r="W76" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B77" s="21"/>
-      <c r="C77" t="s">
-        <v>241</v>
-      </c>
-      <c r="F77" s="22"/>
-      <c r="G77" t="s">
-        <v>277</v>
-      </c>
-      <c r="J77" s="22"/>
-      <c r="K77" t="s">
-        <v>313</v>
-      </c>
-      <c r="V77" s="22"/>
-      <c r="W77" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B78" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C78" t="s">
-        <v>109</v>
-      </c>
-      <c r="F78" s="22"/>
-      <c r="G78" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B79" s="22"/>
-      <c r="C79" t="s">
-        <v>242</v>
-      </c>
-      <c r="F79" s="22"/>
-      <c r="G79" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B80" s="22"/>
-      <c r="C80" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B81" s="22"/>
-      <c r="C81" t="s">
-        <v>244</v>
+      <c r="K73" s="28" t="s">
+        <v>579</v>
+      </c>
+      <c r="M73">
+        <v>30</v>
+      </c>
+      <c r="O73" s="28" t="s">
+        <v>591</v>
+      </c>
+      <c r="Q73">
+        <v>30</v>
+      </c>
+      <c r="S73" s="28" t="s">
+        <v>755</v>
+      </c>
+      <c r="U73">
+        <v>30</v>
+      </c>
+      <c r="W73" s="28" t="s">
+        <v>739</v>
+      </c>
+      <c r="Z73">
+        <v>72</v>
+      </c>
+      <c r="AA73" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="D74" s="26"/>
+      <c r="Z74">
+        <v>73</v>
+      </c>
+      <c r="AA74" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="D75" s="26"/>
+      <c r="Z75">
+        <v>74</v>
+      </c>
+      <c r="AA75" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="D76" s="26"/>
+      <c r="Z76">
+        <v>75</v>
+      </c>
+      <c r="AA76" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="D77" s="26"/>
+      <c r="Z77">
+        <v>76</v>
+      </c>
+      <c r="AA77" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="Z78">
+        <v>77</v>
+      </c>
+      <c r="AA78" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="Z79">
+        <v>78</v>
+      </c>
+      <c r="AA79" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="Z80">
+        <v>79</v>
+      </c>
+      <c r="AA80" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="81" spans="26:27" x14ac:dyDescent="0.35">
+      <c r="Z81">
+        <v>80</v>
+      </c>
+      <c r="AA81" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="82" spans="26:27" x14ac:dyDescent="0.35">
+      <c r="Z82">
+        <v>81</v>
+      </c>
+      <c r="AA82" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="83" spans="26:27" x14ac:dyDescent="0.35">
+      <c r="Z83">
+        <v>82</v>
+      </c>
+      <c r="AA83" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="84" spans="26:27" x14ac:dyDescent="0.35">
+      <c r="Z84">
+        <v>83</v>
+      </c>
+      <c r="AA84" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="85" spans="26:27" x14ac:dyDescent="0.35">
+      <c r="Z85">
+        <v>84</v>
+      </c>
+      <c r="AA85" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="86" spans="26:27" x14ac:dyDescent="0.35">
+      <c r="Z86">
+        <v>85</v>
+      </c>
+      <c r="AA86" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="87" spans="26:27" x14ac:dyDescent="0.35">
+      <c r="Z87">
+        <v>86</v>
+      </c>
+      <c r="AA87" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="88" spans="26:27" x14ac:dyDescent="0.35">
+      <c r="Z88">
+        <v>87</v>
+      </c>
+      <c r="AA88" t="s">
+        <v>369</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="84">
-    <mergeCell ref="V2:V4"/>
-    <mergeCell ref="V13:V22"/>
-    <mergeCell ref="J10:J16"/>
-    <mergeCell ref="R44:R47"/>
-    <mergeCell ref="R26:R30"/>
-    <mergeCell ref="R22:R25"/>
-    <mergeCell ref="N19:N23"/>
-    <mergeCell ref="R31:R34"/>
-    <mergeCell ref="V43:Y43"/>
-    <mergeCell ref="V44:V46"/>
-    <mergeCell ref="V47:V51"/>
-    <mergeCell ref="R20:R21"/>
-    <mergeCell ref="R10:R19"/>
-    <mergeCell ref="V5:V12"/>
-    <mergeCell ref="N30:N33"/>
-    <mergeCell ref="J44:J46"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="F76:F79"/>
-    <mergeCell ref="J70:J73"/>
-    <mergeCell ref="J74:J77"/>
-    <mergeCell ref="J60:J62"/>
-    <mergeCell ref="J50:J59"/>
-    <mergeCell ref="J63:J69"/>
-    <mergeCell ref="B47:B52"/>
-    <mergeCell ref="F63:F67"/>
-    <mergeCell ref="B68:B73"/>
-    <mergeCell ref="F73:F75"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="B62:B67"/>
-    <mergeCell ref="F47:F54"/>
-    <mergeCell ref="J47:J49"/>
-    <mergeCell ref="F55:F62"/>
-    <mergeCell ref="B53:B61"/>
-    <mergeCell ref="F68:F72"/>
-    <mergeCell ref="N44:N46"/>
+  <mergeCells count="81">
+    <mergeCell ref="V67:V70"/>
+    <mergeCell ref="V24:V26"/>
+    <mergeCell ref="V5:V9"/>
+    <mergeCell ref="V10:V16"/>
+    <mergeCell ref="V17:V19"/>
+    <mergeCell ref="V64:V66"/>
+    <mergeCell ref="V60:V63"/>
+    <mergeCell ref="J69:J72"/>
+    <mergeCell ref="R64:R68"/>
     <mergeCell ref="N47:N49"/>
-    <mergeCell ref="N64:N67"/>
-    <mergeCell ref="N73:N76"/>
-    <mergeCell ref="N50:N59"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="R47:R50"/>
+    <mergeCell ref="R58:R60"/>
+    <mergeCell ref="R61:R63"/>
+    <mergeCell ref="N56:N57"/>
+    <mergeCell ref="N58:N59"/>
     <mergeCell ref="N60:N63"/>
-    <mergeCell ref="R71:R75"/>
-    <mergeCell ref="V23:V25"/>
+    <mergeCell ref="N64:N66"/>
+    <mergeCell ref="R44:R46"/>
+    <mergeCell ref="N50:N55"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="J49:J58"/>
+    <mergeCell ref="F66:F68"/>
+    <mergeCell ref="J46:J48"/>
+    <mergeCell ref="F47:F51"/>
+    <mergeCell ref="F52:F58"/>
+    <mergeCell ref="F59:F62"/>
+    <mergeCell ref="F63:F65"/>
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="J61:J65"/>
+    <mergeCell ref="J66:J68"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="F44:F46"/>
-    <mergeCell ref="B44:B46"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="B2:B4"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="F13:F15"/>
     <mergeCell ref="B19:B21"/>
-    <mergeCell ref="N4:N10"/>
-    <mergeCell ref="N11:N16"/>
-    <mergeCell ref="J26:J29"/>
-    <mergeCell ref="N24:N29"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="R4:R9"/>
-    <mergeCell ref="V73:V77"/>
-    <mergeCell ref="V35:V37"/>
-    <mergeCell ref="R53:R60"/>
-    <mergeCell ref="V26:V29"/>
-    <mergeCell ref="V52:V59"/>
-    <mergeCell ref="V60:V63"/>
-    <mergeCell ref="V64:V67"/>
-    <mergeCell ref="R62:R66"/>
-    <mergeCell ref="V30:V34"/>
-    <mergeCell ref="R48:R52"/>
-    <mergeCell ref="N68:N72"/>
-    <mergeCell ref="V68:V72"/>
-    <mergeCell ref="R67:R70"/>
-    <mergeCell ref="J4:J9"/>
+    <mergeCell ref="J25:J28"/>
+    <mergeCell ref="N44:N46"/>
+    <mergeCell ref="J10:J15"/>
+    <mergeCell ref="N21:N24"/>
+    <mergeCell ref="B44:B45"/>
     <mergeCell ref="B22:B25"/>
-    <mergeCell ref="J23:J25"/>
+    <mergeCell ref="J22:J24"/>
     <mergeCell ref="B26:B29"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="F27:F31"/>
-    <mergeCell ref="F10:F15"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="F7:F12"/>
+    <mergeCell ref="V2:V4"/>
+    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="V51:V56"/>
+    <mergeCell ref="V57:V59"/>
+    <mergeCell ref="R8:R15"/>
+    <mergeCell ref="R4:R7"/>
+    <mergeCell ref="R18:R21"/>
+    <mergeCell ref="V47:V50"/>
+    <mergeCell ref="R51:R56"/>
+    <mergeCell ref="R22:R23"/>
+    <mergeCell ref="R24:R27"/>
+    <mergeCell ref="V43:Y43"/>
+    <mergeCell ref="V44:V46"/>
+    <mergeCell ref="J16:J18"/>
     <mergeCell ref="B10:B15"/>
     <mergeCell ref="B5:B9"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="V27:V29"/>
+    <mergeCell ref="V20:V23"/>
+    <mergeCell ref="N17:N20"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="N4:N7"/>
+    <mergeCell ref="N8:N11"/>
+    <mergeCell ref="N13:N16"/>
+    <mergeCell ref="J19:J21"/>
+    <mergeCell ref="J4:J9"/>
+    <mergeCell ref="F20:F24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -5017,10 +6461,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z50"/>
+  <dimension ref="A1:Z91"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+      <selection activeCell="U19" sqref="U19:U22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5033,7 +6477,7 @@
     <col min="10" max="10" width="29" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.26953125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="25.54296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.36328125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="26.453125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="16.26953125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="30.1796875" bestFit="1" customWidth="1"/>
@@ -5041,670 +6485,1060 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="E1" s="28" t="s">
-        <v>412</v>
-      </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="E1" s="40" t="s">
+        <v>411</v>
+      </c>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
       <c r="J1" t="s">
-        <v>411</v>
-      </c>
-      <c r="O1" s="28" t="s">
+        <v>410</v>
+      </c>
+      <c r="O1" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="T1" s="28" t="s">
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="T1" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="X1" s="28" t="s">
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="X1" s="40" t="s">
         <v>177</v>
       </c>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="40"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="B2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="F2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="K2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="O2" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="P2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="T2" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="U2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="X2" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="Y2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="B3" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E3" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="F3" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="J3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="K3" t="s">
-        <v>514</v>
+        <v>471</v>
       </c>
       <c r="O3" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="P3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="T3" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="U3" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="X3" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E4" t="s">
+        <v>731</v>
+      </c>
+      <c r="F4" t="s">
+        <v>477</v>
+      </c>
+      <c r="J4" t="s">
         <v>735</v>
       </c>
-      <c r="F4" t="s">
-        <v>479</v>
-      </c>
       <c r="K4" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="O4" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="P4" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="T4" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="U4" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="X4" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="Y4" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="B5" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="E5" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="F5" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G5" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="J5" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="K5" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="O5" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="P5" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="T5" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="U5" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="X5" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="Y5" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B6" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F6" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="K6" t="s">
-        <v>480</v>
+        <v>651</v>
       </c>
       <c r="P6" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="T6" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="U6" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="X6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E7" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="F7" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="K7" t="s">
-        <v>526</v>
+        <v>419</v>
       </c>
       <c r="T7" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="E8" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F8" t="s">
-        <v>673</v>
-      </c>
-      <c r="K8" t="s">
-        <v>655</v>
+        <v>669</v>
       </c>
       <c r="T8" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>475</v>
-      </c>
-      <c r="K9" t="s">
-        <v>420</v>
+        <v>473</v>
       </c>
       <c r="T9" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="40" t="s">
         <v>212</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
       <c r="E17" t="s">
+        <v>415</v>
+      </c>
+      <c r="I17" s="40" t="s">
         <v>416</v>
       </c>
-      <c r="I17" s="28" t="s">
-        <v>417</v>
-      </c>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="N17" s="28" t="s">
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="N17" s="40" t="s">
         <v>314</v>
       </c>
-      <c r="O17" s="28"/>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="28"/>
-      <c r="S17" s="28" t="s">
+      <c r="O17" s="40"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="40"/>
+      <c r="S17" s="40" t="s">
         <v>315</v>
       </c>
-      <c r="T17" s="28"/>
-      <c r="U17" s="28"/>
-      <c r="V17" s="28"/>
+      <c r="T17" s="40"/>
+      <c r="U17" s="40"/>
+      <c r="V17" s="40"/>
       <c r="X17" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E18" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="J18" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="K18" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="O18" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="P18" t="s">
-        <v>524</v>
-      </c>
-      <c r="T18" t="s">
-        <v>739</v>
-      </c>
-      <c r="U18" t="s">
-        <v>473</v>
+        <v>522</v>
       </c>
       <c r="X18" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="Y18" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="B19" t="s">
+        <v>495</v>
+      </c>
+      <c r="E19" t="s">
+        <v>593</v>
+      </c>
+      <c r="F19" t="s">
+        <v>493</v>
+      </c>
+      <c r="J19" t="s">
+        <v>612</v>
+      </c>
+      <c r="K19" t="s">
         <v>497</v>
       </c>
-      <c r="E19" t="s">
-        <v>597</v>
-      </c>
-      <c r="F19" t="s">
-        <v>495</v>
-      </c>
-      <c r="J19" t="s">
-        <v>616</v>
-      </c>
-      <c r="K19" t="s">
-        <v>499</v>
-      </c>
       <c r="O19" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="P19" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="T19" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="U19" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="X19" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="Y19" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="B20" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E20" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="F20" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="J20" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="K20" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="O20" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="P20" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="T20" t="s">
-        <v>607</v>
+        <v>603</v>
+      </c>
+      <c r="U20" t="s">
+        <v>513</v>
       </c>
       <c r="X20" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="Y20" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="B21" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="E21" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="F21" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="J21" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K21" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="O21" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="P21" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="T21" t="s">
-        <v>617</v>
+        <v>613</v>
+      </c>
+      <c r="U21" t="s">
+        <v>488</v>
       </c>
       <c r="X21" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="Y21" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="E22" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="F22" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="K22" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="O22" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="P22" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="T22" t="s">
-        <v>740</v>
+        <v>736</v>
+      </c>
+      <c r="U22" t="s">
+        <v>524</v>
       </c>
       <c r="Y22" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="E23" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="F23" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="O23" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="T23" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="U23" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="X23" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="E24" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="F24" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="O24" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="P24" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="X24" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="E25" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="F25" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="O25" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="C30" s="2" t="s">
-        <v>421</v>
-      </c>
+      <c r="C30" s="2"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="C31" s="2" t="s">
-        <v>422</v>
-      </c>
+      <c r="C31" s="2"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="C32" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="33" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C33" s="2" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="34" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C34" s="2" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="35" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C35" s="2" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="36" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C36" s="2" t="s">
-        <v>453</v>
-      </c>
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B35" s="29" t="s">
+        <v>761</v>
+      </c>
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C36" s="2"/>
       <c r="H36" s="2"/>
     </row>
-    <row r="37" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C37" s="2" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="38" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C38" s="2" t="s">
-        <v>457</v>
-      </c>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C37" s="2"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A38" s="9">
+        <v>1</v>
+      </c>
+      <c r="B38" s="30" t="s">
+        <v>556</v>
+      </c>
+      <c r="C38" s="2"/>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
     </row>
-    <row r="39" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C39" s="2" t="s">
-        <v>433</v>
-      </c>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A39" s="9">
+        <v>2</v>
+      </c>
+      <c r="B39" s="30" t="s">
+        <v>616</v>
+      </c>
+      <c r="C39" s="2"/>
       <c r="I39" s="9">
         <v>1</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="K39" s="9" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="40" spans="3:11" x14ac:dyDescent="0.35">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A40" s="9">
+        <v>3</v>
+      </c>
+      <c r="B40" s="30" t="s">
+        <v>615</v>
+      </c>
       <c r="I40" s="9">
         <v>2</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>620</v>
-      </c>
-      <c r="K40" s="9"/>
-    </row>
-    <row r="41" spans="3:11" x14ac:dyDescent="0.35">
+        <v>616</v>
+      </c>
+      <c r="K40" s="9" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>4</v>
+      </c>
+      <c r="B41" s="28" t="s">
+        <v>714</v>
+      </c>
       <c r="I41" s="9">
         <v>3</v>
       </c>
       <c r="J41" s="9" t="s">
-        <v>619</v>
-      </c>
-      <c r="K41" s="9"/>
-    </row>
-    <row r="42" spans="3:11" x14ac:dyDescent="0.35">
+        <v>615</v>
+      </c>
+      <c r="K41" s="9" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>5</v>
+      </c>
+      <c r="B42" s="28" t="s">
+        <v>617</v>
+      </c>
       <c r="I42">
         <v>4</v>
       </c>
       <c r="J42" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="43" spans="3:11" x14ac:dyDescent="0.35">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>6</v>
+      </c>
+      <c r="B43" s="28" t="s">
+        <v>663</v>
+      </c>
       <c r="I43">
         <v>5</v>
       </c>
       <c r="J43" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="44" spans="3:11" x14ac:dyDescent="0.35">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>7</v>
+      </c>
+      <c r="B44" s="28" t="s">
+        <v>763</v>
+      </c>
       <c r="I44">
         <v>6</v>
       </c>
       <c r="J44" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="45" spans="3:11" x14ac:dyDescent="0.35">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>8</v>
+      </c>
+      <c r="B45" s="28" t="s">
+        <v>618</v>
+      </c>
       <c r="I45">
         <v>7</v>
       </c>
       <c r="J45" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="46" spans="3:11" x14ac:dyDescent="0.35">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>9</v>
+      </c>
+      <c r="B46" s="28" t="s">
+        <v>452</v>
+      </c>
       <c r="I46">
         <v>8</v>
       </c>
       <c r="J46" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="47" spans="3:11" x14ac:dyDescent="0.35">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>10</v>
+      </c>
+      <c r="B47" s="28" t="s">
+        <v>764</v>
+      </c>
       <c r="I47">
         <v>9</v>
       </c>
       <c r="J47" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="48" spans="3:11" x14ac:dyDescent="0.35">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>11</v>
+      </c>
+      <c r="B48" s="28" t="s">
+        <v>624</v>
+      </c>
       <c r="I48">
         <v>10</v>
       </c>
       <c r="J48" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="49" spans="9:10" x14ac:dyDescent="0.35">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>12</v>
+      </c>
+      <c r="B49" t="s">
+        <v>629</v>
+      </c>
       <c r="I49">
         <v>11</v>
       </c>
       <c r="J49" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="50" spans="9:10" x14ac:dyDescent="0.35">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A50" s="9">
+        <v>13</v>
+      </c>
+      <c r="B50" t="s">
+        <v>756</v>
+      </c>
       <c r="I50">
         <v>12</v>
       </c>
       <c r="J50" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A51" s="9">
+        <v>14</v>
+      </c>
+      <c r="B51" s="28" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A52" s="9">
+        <v>15</v>
+      </c>
+      <c r="B52" s="28" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>16</v>
+      </c>
+      <c r="B53" s="28" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>17</v>
+      </c>
+      <c r="B54" s="28" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>18</v>
+      </c>
+      <c r="B55" s="28" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>19</v>
+      </c>
+      <c r="B56" s="28" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>20</v>
+      </c>
+      <c r="B57" s="28" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>21</v>
+      </c>
+      <c r="B58" s="28" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>22</v>
+      </c>
+      <c r="B59" s="28" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>23</v>
+      </c>
+      <c r="B60" s="28" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>24</v>
+      </c>
+      <c r="B61" s="28" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A62" s="9">
+        <v>25</v>
+      </c>
+      <c r="B62" s="28" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A63" s="9">
+        <v>26</v>
+      </c>
+      <c r="B63" s="28" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A64" s="9">
+        <v>27</v>
+      </c>
+      <c r="B64" s="28" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>28</v>
+      </c>
+      <c r="B65" s="28" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>29</v>
+      </c>
+      <c r="B66" s="28" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>30</v>
+      </c>
+      <c r="B67" s="28" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>31</v>
+      </c>
+      <c r="B68" s="28" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>32</v>
+      </c>
+      <c r="B69" s="28" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>33</v>
+      </c>
+      <c r="B70" s="28" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>34</v>
+      </c>
+      <c r="B71" s="28" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>35</v>
+      </c>
+      <c r="B72" s="28" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>36</v>
+      </c>
+      <c r="B73" s="28" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" s="9">
+        <v>37</v>
+      </c>
+      <c r="B74" s="28" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" s="9">
+        <v>38</v>
+      </c>
+      <c r="B75" s="28" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" s="9">
+        <v>39</v>
+      </c>
+      <c r="B76" s="28" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>40</v>
+      </c>
+      <c r="B77" s="28" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" s="9">
+        <v>41</v>
+      </c>
+      <c r="B78" s="28" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" s="9">
+        <v>42</v>
+      </c>
+      <c r="B79" s="28" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" s="9">
+        <v>43</v>
+      </c>
+      <c r="B80" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>44</v>
+      </c>
+      <c r="B81" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" s="9">
+        <v>45</v>
+      </c>
+      <c r="B82" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" s="9">
+        <v>46</v>
+      </c>
+      <c r="B83" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" s="9">
+        <v>47</v>
+      </c>
+      <c r="B84" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>48</v>
+      </c>
+      <c r="B85" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" s="9">
+        <v>49</v>
+      </c>
+      <c r="B86" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" s="9">
+        <v>50</v>
+      </c>
+      <c r="B87" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>51</v>
+      </c>
+      <c r="B88" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" s="9">
+        <v>52</v>
+      </c>
+      <c r="B89" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" s="9">
+        <v>53</v>
+      </c>
+      <c r="B90" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B91" t="s">
         <v>629</v>
       </c>
     </row>
@@ -5729,7 +7563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -5742,146 +7576,146 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>426</v>
+      </c>
+      <c r="B2" t="s">
+        <v>427</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="B2" t="s">
-        <v>429</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>430</v>
-      </c>
       <c r="D2" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B3" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>431</v>
+      </c>
+      <c r="B4" t="s">
+        <v>432</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="B4" t="s">
-        <v>434</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>435</v>
-      </c>
       <c r="D4" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>434</v>
+      </c>
+      <c r="B5" t="s">
+        <v>435</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>436</v>
-      </c>
-      <c r="B5" t="s">
-        <v>437</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B6" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B7" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B8" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D8" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>443</v>
+      </c>
+      <c r="B9" t="s">
+        <v>444</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>445</v>
-      </c>
-      <c r="B9" t="s">
-        <v>446</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B10" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>448</v>
+      </c>
+      <c r="B11" t="s">
+        <v>449</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="B11" t="s">
-        <v>451</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>452</v>
-      </c>
       <c r="D11" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>451</v>
+      </c>
+      <c r="B12" t="s">
+        <v>452</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>453</v>
-      </c>
-      <c r="B12" t="s">
-        <v>454</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>455</v>
       </c>
     </row>
   </sheetData>
@@ -5904,10 +7738,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K273"/>
+  <dimension ref="A1:K280"/>
   <sheetViews>
-    <sheetView topLeftCell="A264" workbookViewId="0">
-      <selection activeCell="B275" sqref="B275"/>
+    <sheetView topLeftCell="A271" workbookViewId="0">
+      <selection activeCell="B274" sqref="B274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5927,7 +7761,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>226</v>
@@ -5935,7 +7769,7 @@
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>44</v>
@@ -5944,10 +7778,10 @@
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
@@ -5960,13 +7794,13 @@
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="10"/>
       <c r="B5" s="11" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="10"/>
       <c r="B6" s="11" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
@@ -5975,7 +7809,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>90</v>
@@ -5984,19 +7818,19 @@
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="10"/>
       <c r="B9" s="11" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="10"/>
       <c r="B10" s="11" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="10"/>
       <c r="B11" s="11" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
@@ -6008,37 +7842,37 @@
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="10"/>
       <c r="B13" s="11" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="10"/>
       <c r="B14" s="11" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="10"/>
       <c r="B15" s="11" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="10"/>
       <c r="B16" s="11" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="7"/>
       <c r="B17" s="8" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>86</v>
@@ -6053,7 +7887,7 @@
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="10"/>
       <c r="B21" s="11" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -6065,7 +7899,7 @@
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="10"/>
       <c r="B23" s="11" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -6077,19 +7911,19 @@
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="10"/>
       <c r="B25" s="12" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="10"/>
       <c r="B26" s="11" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="10"/>
       <c r="B27" s="11" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
@@ -6098,7 +7932,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="10" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>17</v>
@@ -6113,49 +7947,49 @@
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="10"/>
       <c r="B31" s="11" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="10"/>
       <c r="B32" s="11" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="10"/>
       <c r="B33" s="12" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="10"/>
       <c r="B34" s="12" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="10"/>
       <c r="B35" s="12" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="10"/>
       <c r="B36" s="12" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="10"/>
       <c r="B37" s="12" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="10"/>
       <c r="B38" s="11" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
@@ -6167,13 +8001,13 @@
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="10"/>
       <c r="B40" s="11" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="10"/>
       <c r="B41" s="11" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
@@ -6191,7 +8025,7 @@
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="10"/>
       <c r="B44" s="12" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -6203,27 +8037,27 @@
     <row r="46" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="10"/>
       <c r="B48" s="11" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="10"/>
       <c r="B49" s="11" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="7" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>225</v>
@@ -6232,28 +8066,28 @@
     <row r="52" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="10"/>
       <c r="B54" s="15" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="10"/>
       <c r="B55" s="15" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="10"/>
       <c r="B56" s="15" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
@@ -6262,7 +8096,7 @@
     </row>
     <row r="58" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="7" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B58" s="16" t="s">
         <v>321</v>
@@ -6271,24 +8105,24 @@
     <row r="60" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="7" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>48</v>
@@ -6297,33 +8131,33 @@
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="10"/>
       <c r="B65" s="11" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="10" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="10"/>
       <c r="B67" s="11" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="7"/>
       <c r="B68" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>183</v>
@@ -6332,27 +8166,27 @@
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="10"/>
       <c r="B71" s="11" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="10"/>
       <c r="B72" s="11" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="10"/>
       <c r="B73" s="11" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="10" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
@@ -6388,13 +8222,13 @@
     <row r="80" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="7"/>
       <c r="B80" s="8" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="5" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B83" s="6" t="s">
         <v>78</v>
@@ -6402,16 +8236,16 @@
     </row>
     <row r="84" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84" s="7" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="5" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="B87" s="6" t="s">
         <v>215</v>
@@ -6419,7 +8253,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="10" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="B88" s="11" t="s">
         <v>57</v>
@@ -6428,13 +8262,13 @@
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="10"/>
       <c r="B89" s="11" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="10"/>
       <c r="B90" s="11" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -6446,7 +8280,7 @@
     <row r="92" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" s="5" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B93" s="6" t="s">
         <v>93</v>
@@ -6461,7 +8295,7 @@
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="10"/>
       <c r="B95" s="11" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
@@ -6472,42 +8306,42 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="B97" s="11" t="s">
         <v>632</v>
-      </c>
-      <c r="B97" s="11" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="10"/>
       <c r="B98" s="11" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" s="10"/>
       <c r="B99" s="11" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A100" s="7"/>
       <c r="B100" s="8" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="5" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A104" s="7" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B104" s="8" t="s">
         <v>35</v>
@@ -6516,24 +8350,24 @@
     <row r="106" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" s="5" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" s="10"/>
       <c r="B108" s="11" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" s="10" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -6545,7 +8379,7 @@
     <row r="112" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" s="5" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B113" s="6" t="s">
         <v>10</v>
@@ -6553,7 +8387,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" s="10" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="B114" s="11" t="s">
         <v>188</v>
@@ -6562,16 +8396,16 @@
     <row r="115" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A115" s="7"/>
       <c r="B115" s="8" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" s="5" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
@@ -6582,10 +8416,10 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" s="10" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="B120" s="11" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
@@ -6597,16 +8431,16 @@
     <row r="122" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A122" s="7"/>
       <c r="B122" s="8" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" s="5" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
@@ -6618,158 +8452,158 @@
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" s="10"/>
       <c r="B126" s="11" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" s="10"/>
       <c r="B127" s="11" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" s="10"/>
       <c r="B128" s="11" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" s="10" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B129" s="11" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" s="10"/>
       <c r="B130" s="11" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A131" s="7"/>
       <c r="B131" s="8" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" s="5" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" s="10"/>
       <c r="B134" s="11" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" s="10"/>
       <c r="B135" s="11" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A136" s="7" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" s="5" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" s="10" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="B139" s="11" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A140" s="7"/>
       <c r="B140" s="8" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" s="5" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" s="10"/>
       <c r="B143" s="11" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" s="10"/>
       <c r="B144" s="11" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" s="10"/>
       <c r="B145" s="11" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" s="10" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="B146" s="11" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" s="10"/>
       <c r="B147" s="11" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A148" s="7"/>
       <c r="B148" s="8" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" s="5" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" s="10"/>
       <c r="B151" s="11" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" s="10" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="B152" s="11" t="s">
         <v>15</v>
@@ -6778,19 +8612,19 @@
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" s="10"/>
       <c r="B153" s="11" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A154" s="7"/>
       <c r="B154" s="8" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" s="5" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="B156" s="6" t="s">
         <v>192</v>
@@ -6798,25 +8632,25 @@
     </row>
     <row r="157" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A157" s="7" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" s="5" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" s="10"/>
       <c r="B160" s="11" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
@@ -6827,51 +8661,51 @@
     </row>
     <row r="162" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A162" s="7" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" s="5" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" s="10"/>
       <c r="B165" s="11" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" s="10"/>
       <c r="B166" s="11" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" s="10" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="B167" s="11" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A168" s="7"/>
       <c r="B168" s="8" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" s="5" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B170" s="6" t="s">
         <v>48</v>
@@ -6880,79 +8714,79 @@
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" s="10"/>
       <c r="B171" s="11" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" s="10" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="B172" s="11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A173" s="7"/>
       <c r="B173" s="8" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" s="5" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" s="10" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="B176" s="11" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A177" s="7"/>
       <c r="B177" s="8" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" s="5" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" s="10"/>
       <c r="B180" s="11" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" s="10"/>
       <c r="B181" s="11" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" s="10"/>
       <c r="B182" s="11" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" s="10" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="B183" s="11" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -6964,18 +8798,18 @@
     <row r="185" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" s="5" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" s="10" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="B187" s="11" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -6987,10 +8821,10 @@
     <row r="189" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" s="5" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.35">
@@ -7002,30 +8836,30 @@
     <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" s="10"/>
       <c r="B192" s="11" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" s="10"/>
       <c r="B193" s="11" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" s="10"/>
       <c r="B194" s="11" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" s="10"/>
       <c r="B195" s="11" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" s="10" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B196" s="11" t="s">
         <v>219</v>
@@ -7034,37 +8868,37 @@
     <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" s="10"/>
       <c r="B197" s="11" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" s="10"/>
       <c r="B198" s="11" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" s="10"/>
       <c r="B199" s="11" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" s="10"/>
       <c r="B200" s="11" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="201" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A201" s="7"/>
       <c r="B201" s="8" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203" s="5" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="B203" s="6" t="s">
         <v>214</v>
@@ -7072,7 +8906,7 @@
     </row>
     <row r="204" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A204" s="7" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="B204" s="8" t="s">
         <v>179</v>
@@ -7081,27 +8915,27 @@
     <row r="205" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206" s="5" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207" s="10"/>
       <c r="B207" s="11" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208" s="10"/>
       <c r="B208" s="11" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="209" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A209" s="7" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="B209" s="8" t="s">
         <v>21</v>
@@ -7110,15 +8944,15 @@
     <row r="210" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211" s="5" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212" s="10" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="B212" s="11" t="s">
         <v>27</v>
@@ -7127,30 +8961,30 @@
     <row r="213" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A213" s="7"/>
       <c r="B213" s="8" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
     </row>
     <row r="214" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215" s="5" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
     </row>
     <row r="216" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A216" s="7" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="B216" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="218" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A218" s="5" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="B218" s="6" t="s">
         <v>186</v>
@@ -7164,22 +8998,22 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A220" s="10" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="B220" s="11" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="221" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A221" s="7"/>
       <c r="B221" s="8" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
     </row>
     <row r="222" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="223" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A223" s="5" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="B223" s="18" t="s">
         <v>86</v>
@@ -7188,12 +9022,12 @@
     <row r="224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A224" s="10"/>
       <c r="B224" s="12" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A225" s="10" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="B225" s="12" t="s">
         <v>54</v>
@@ -7207,22 +9041,22 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A227" s="10" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="B227" s="11" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A228" s="10"/>
       <c r="B228" s="11" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A229" s="10"/>
       <c r="B229" s="11" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.35">
@@ -7233,28 +9067,28 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A231" s="10" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="B231" s="11" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A232" s="10"/>
       <c r="B232" s="11" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A233" s="10"/>
       <c r="B233" s="11" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A234" s="10"/>
       <c r="B234" s="11" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.35">
@@ -7266,27 +9100,27 @@
     <row r="236" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A236" s="10"/>
       <c r="B236" s="11" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A237" s="10" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="B237" s="11" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A238" s="10"/>
       <c r="B238" s="11" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A239" s="10"/>
       <c r="B239" s="11" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.35">
@@ -7298,7 +9132,7 @@
     <row r="241" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A241" s="10"/>
       <c r="B241" s="11" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.35">
@@ -7309,7 +9143,7 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A243" s="10" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="B243" s="11" t="s">
         <v>86</v>
@@ -7318,25 +9152,25 @@
     <row r="244" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A244" s="10"/>
       <c r="B244" s="11" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A245" s="10"/>
       <c r="B245" s="11" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
     </row>
     <row r="246" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A246" s="7"/>
       <c r="B246" s="8" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="247" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="248" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A248" s="5" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="B248" s="6" t="s">
         <v>9</v>
@@ -7350,7 +9184,7 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A250" s="10" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="B250" s="11" t="s">
         <v>82</v>
@@ -7359,60 +9193,60 @@
     <row r="251" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A251" s="10"/>
       <c r="B251" s="11" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A252" s="10"/>
       <c r="B252" s="11" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="253" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A253" s="7"/>
       <c r="B253" s="8" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
     </row>
     <row r="254" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="255" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A255" s="5" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A256" s="10"/>
       <c r="B256" s="11" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A257" s="10" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B257" s="11" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A258" s="10"/>
       <c r="B258" s="11" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
     </row>
     <row r="259" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A259" s="7"/>
       <c r="B259" s="8" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
     </row>
     <row r="260" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="261" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A261" s="5" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B261" s="6" t="s">
         <v>271</v>
@@ -7420,16 +9254,16 @@
     </row>
     <row r="262" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A262" s="7" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B262" s="8" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
     </row>
     <row r="263" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="264" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A264" s="5" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="B264" s="6" t="s">
         <v>178</v>
@@ -7438,44 +9272,44 @@
     <row r="265" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A265" s="10"/>
       <c r="B265" s="11" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A266" s="10" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="B266" s="11" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
     </row>
     <row r="267" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A267" s="7"/>
       <c r="B267" s="8" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="268" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="269" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A269" s="5" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
     </row>
     <row r="270" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A270" s="7" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B270" s="8" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
     </row>
     <row r="271" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="272" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A272" s="5" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B272" s="6" t="s">
         <v>28</v>
@@ -7483,14 +9317,330 @@
     </row>
     <row r="273" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A273" s="7" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B273" s="8" t="s">
-        <v>732</v>
+        <v>728</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A275" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="B275" s="6" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A276" s="10"/>
+      <c r="B276" s="11" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A277" s="10"/>
+      <c r="B277" s="11" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A278" s="10"/>
+      <c r="B278" s="11" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A279" s="10" t="s">
+        <v>747</v>
+      </c>
+      <c r="B279" s="11" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A280" s="7"/>
+      <c r="B280" s="8" t="s">
+        <v>735</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:D27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>776</v>
+      </c>
+      <c r="B1" t="s">
+        <v>511</v>
+      </c>
+      <c r="C1" t="s">
+        <v>765</v>
+      </c>
+      <c r="D1" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>486</v>
+      </c>
+      <c r="C2" t="s">
+        <v>765</v>
+      </c>
+      <c r="D2" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>481</v>
+      </c>
+      <c r="C3" t="s">
+        <v>765</v>
+      </c>
+      <c r="D3" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>521</v>
+      </c>
+      <c r="C4" t="s">
+        <v>765</v>
+      </c>
+      <c r="D4" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>476</v>
+      </c>
+      <c r="C5" t="s">
+        <v>765</v>
+      </c>
+      <c r="D5" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>492</v>
+      </c>
+      <c r="C6" t="s">
+        <v>765</v>
+      </c>
+      <c r="D6" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>775</v>
+      </c>
+      <c r="B8" t="s">
+        <v>491</v>
+      </c>
+      <c r="C8" t="s">
+        <v>765</v>
+      </c>
+      <c r="D8" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>482</v>
+      </c>
+      <c r="C9" t="s">
+        <v>765</v>
+      </c>
+      <c r="D9" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>483</v>
+      </c>
+      <c r="C10" t="s">
+        <v>765</v>
+      </c>
+      <c r="D10" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>515</v>
+      </c>
+      <c r="C11" t="s">
+        <v>765</v>
+      </c>
+      <c r="D11" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>774</v>
+      </c>
+      <c r="B13" t="s">
+        <v>506</v>
+      </c>
+      <c r="C13" t="s">
+        <v>765</v>
+      </c>
+      <c r="D13" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>512</v>
+      </c>
+      <c r="C14" t="s">
+        <v>765</v>
+      </c>
+      <c r="D14" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>773</v>
+      </c>
+      <c r="B16" t="s">
+        <v>514</v>
+      </c>
+      <c r="C16" t="s">
+        <v>765</v>
+      </c>
+      <c r="D16" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>495</v>
+      </c>
+      <c r="C17" t="s">
+        <v>765</v>
+      </c>
+      <c r="D17" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>771</v>
+      </c>
+      <c r="B19" t="s">
+        <v>493</v>
+      </c>
+      <c r="C19" t="s">
+        <v>765</v>
+      </c>
+      <c r="D19" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>494</v>
+      </c>
+      <c r="C20" t="s">
+        <v>765</v>
+      </c>
+      <c r="D20" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>509</v>
+      </c>
+      <c r="C21" t="s">
+        <v>765</v>
+      </c>
+      <c r="D21" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>772</v>
+      </c>
+      <c r="B23" t="s">
+        <v>522</v>
+      </c>
+      <c r="C23" t="s">
+        <v>765</v>
+      </c>
+      <c r="D23" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
+        <v>487</v>
+      </c>
+      <c r="C24" t="s">
+        <v>765</v>
+      </c>
+      <c r="D24" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>475</v>
+      </c>
+      <c r="C25" t="s">
+        <v>765</v>
+      </c>
+      <c r="D25" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>777</v>
+      </c>
+      <c r="B27" t="s">
+        <v>524</v>
+      </c>
+      <c r="C27" t="s">
+        <v>765</v>
+      </c>
+      <c r="D27" t="s">
+        <v>767</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/OffSeason.xlsx
+++ b/OffSeason.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="477">
   <si>
     <t>Vanja Dolas - CeeDee Nuts</t>
   </si>
@@ -1278,6 +1278,186 @@
   </si>
   <si>
     <t>Jamie Collins Sr</t>
+  </si>
+  <si>
+    <t>2021 1 MikeW</t>
+  </si>
+  <si>
+    <t>2021 2 MikeW</t>
+  </si>
+  <si>
+    <t>2021 3 MikeW</t>
+  </si>
+  <si>
+    <t>2021 4 MikeW</t>
+  </si>
+  <si>
+    <t>2021 5 MikeW</t>
+  </si>
+  <si>
+    <t>2021 1 AdamW</t>
+  </si>
+  <si>
+    <t>2021 2 AdamW</t>
+  </si>
+  <si>
+    <t>2021 3 AdamW</t>
+  </si>
+  <si>
+    <t>2021 4 AdamW</t>
+  </si>
+  <si>
+    <t>2021 5 AdamW</t>
+  </si>
+  <si>
+    <t>2021 1 MikeR</t>
+  </si>
+  <si>
+    <t>2021 2 MikeR</t>
+  </si>
+  <si>
+    <t>2021 3 MikeR</t>
+  </si>
+  <si>
+    <t>2021 4 MikeR</t>
+  </si>
+  <si>
+    <t>2021 5 MikeR</t>
+  </si>
+  <si>
+    <t>2021 1.12 Vanja</t>
+  </si>
+  <si>
+    <t>2021 2.12 Vanja</t>
+  </si>
+  <si>
+    <t>2021 3.12 Vanja</t>
+  </si>
+  <si>
+    <t>2021 4.12 Vanja</t>
+  </si>
+  <si>
+    <t>2021 5.12 Vanja</t>
+  </si>
+  <si>
+    <t>2021 1.11 JohnO</t>
+  </si>
+  <si>
+    <t>2021 2.11 JohnO</t>
+  </si>
+  <si>
+    <t>2021 3.11 JohnO</t>
+  </si>
+  <si>
+    <t>2021 4.11 JohnO</t>
+  </si>
+  <si>
+    <t>2021 5.11 JohnO</t>
+  </si>
+  <si>
+    <t>2021 1.10 MattH</t>
+  </si>
+  <si>
+    <t>2021 2.10 MattH</t>
+  </si>
+  <si>
+    <t>2021 3.10 MattH</t>
+  </si>
+  <si>
+    <t>2021 4.10 MattH</t>
+  </si>
+  <si>
+    <t>2021 5.10 MattH</t>
+  </si>
+  <si>
+    <t>2021 1.9 CamR</t>
+  </si>
+  <si>
+    <t>2021 2.9 CamR</t>
+  </si>
+  <si>
+    <t>2021 3.9 CamR</t>
+  </si>
+  <si>
+    <t>2021 4.9 CamR</t>
+  </si>
+  <si>
+    <t>2021 5.9 CamR</t>
+  </si>
+  <si>
+    <t>2021 1.8 ZachJ</t>
+  </si>
+  <si>
+    <t>2021 2.8 ZachJ</t>
+  </si>
+  <si>
+    <t>2021 3.8 ZachJ</t>
+  </si>
+  <si>
+    <t>2021 4.8 ZachJ</t>
+  </si>
+  <si>
+    <t>2021 5.8 ZachJ</t>
+  </si>
+  <si>
+    <t>2021 1.7 Andrew</t>
+  </si>
+  <si>
+    <t>2021 2.7 Andrew</t>
+  </si>
+  <si>
+    <t>2021 3.7 Andrew</t>
+  </si>
+  <si>
+    <t>2021 4.7 Andrew</t>
+  </si>
+  <si>
+    <t>2021 5.7 Andrew</t>
+  </si>
+  <si>
+    <t>2021 1.6 AlanP</t>
+  </si>
+  <si>
+    <t>2021 2.6 AlanP</t>
+  </si>
+  <si>
+    <t>2021 3.6 AlanP</t>
+  </si>
+  <si>
+    <t>2021 5.6 AlanP</t>
+  </si>
+  <si>
+    <t>2021 1.5 BenL</t>
+  </si>
+  <si>
+    <t>2021 2.5 BenL</t>
+  </si>
+  <si>
+    <t>2021 3.5 BenL</t>
+  </si>
+  <si>
+    <t>2021 4.5 BenL</t>
+  </si>
+  <si>
+    <t>2021 5.5 BenL</t>
+  </si>
+  <si>
+    <t>2021 1.4 PatrickP</t>
+  </si>
+  <si>
+    <t>2021 2.4 PatrickP</t>
+  </si>
+  <si>
+    <t>2021 3.4 PatrickP</t>
+  </si>
+  <si>
+    <t>2021 4.4 PatrickP</t>
+  </si>
+  <si>
+    <t>2021 5.4 PatrickP</t>
+  </si>
+  <si>
+    <t>2021 4.6AlanP</t>
   </si>
 </sst>
 </file>
@@ -1376,13 +1556,13 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1670,14 +1850,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:P1048576"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L48" sqref="L48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.1796875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
     <col min="10" max="10" width="20.7265625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19.7265625" bestFit="1" customWidth="1"/>
@@ -1785,7 +1965,7 @@
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B4" t="s">
@@ -1795,7 +1975,7 @@
       <c r="F4" t="s">
         <v>56</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="8" t="s">
         <v>15</v>
       </c>
       <c r="J4" t="s">
@@ -1815,33 +1995,33 @@
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A5" s="9"/>
+      <c r="A5" s="8"/>
       <c r="B5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>15</v>
       </c>
       <c r="F5" t="s">
         <v>57</v>
       </c>
-      <c r="I5" s="9"/>
+      <c r="I5" s="8"/>
       <c r="J5" t="s">
         <v>91</v>
       </c>
-      <c r="M5" s="9" t="s">
+      <c r="M5" s="8" t="s">
         <v>15</v>
       </c>
       <c r="N5" t="s">
         <v>123</v>
       </c>
-      <c r="Q5" s="9" t="s">
+      <c r="Q5" s="8" t="s">
         <v>15</v>
       </c>
       <c r="R5" t="s">
         <v>155</v>
       </c>
-      <c r="U5" s="9" t="s">
+      <c r="U5" s="8" t="s">
         <v>15</v>
       </c>
       <c r="V5" t="s">
@@ -1849,159 +2029,159 @@
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A6" s="9"/>
+      <c r="A6" s="8"/>
       <c r="B6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="9"/>
+      <c r="E6" s="8"/>
       <c r="F6" t="s">
         <v>58</v>
       </c>
-      <c r="I6" s="9"/>
+      <c r="I6" s="8"/>
       <c r="J6" t="s">
         <v>92</v>
       </c>
-      <c r="M6" s="9"/>
+      <c r="M6" s="8"/>
       <c r="N6" t="s">
         <v>124</v>
       </c>
-      <c r="Q6" s="9"/>
+      <c r="Q6" s="8"/>
       <c r="R6" t="s">
         <v>156</v>
       </c>
-      <c r="U6" s="9"/>
+      <c r="U6" s="8"/>
       <c r="V6" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A7" s="9"/>
+      <c r="A7" s="8"/>
       <c r="B7" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="9"/>
+      <c r="E7" s="8"/>
       <c r="F7" t="s">
         <v>59</v>
       </c>
-      <c r="I7" s="9"/>
+      <c r="I7" s="8"/>
       <c r="J7" t="s">
         <v>93</v>
       </c>
-      <c r="M7" s="9"/>
+      <c r="M7" s="8"/>
       <c r="N7" t="s">
         <v>125</v>
       </c>
-      <c r="Q7" s="9"/>
+      <c r="Q7" s="8"/>
       <c r="R7" t="s">
         <v>157</v>
       </c>
-      <c r="U7" s="9"/>
+      <c r="U7" s="8"/>
       <c r="V7" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A8" s="9"/>
+      <c r="A8" s="8"/>
       <c r="B8" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="9"/>
+      <c r="E8" s="8"/>
       <c r="F8" t="s">
         <v>60</v>
       </c>
-      <c r="I8" s="9"/>
+      <c r="I8" s="8"/>
       <c r="J8" t="s">
         <v>94</v>
       </c>
-      <c r="M8" s="9"/>
+      <c r="M8" s="8"/>
       <c r="N8" t="s">
         <v>126</v>
       </c>
-      <c r="Q8" s="9"/>
+      <c r="Q8" s="8"/>
       <c r="R8" t="s">
         <v>158</v>
       </c>
-      <c r="U8" s="9"/>
+      <c r="U8" s="8"/>
       <c r="V8" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A9" s="9"/>
+      <c r="A9" s="8"/>
       <c r="B9" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="9"/>
+      <c r="E9" s="8"/>
       <c r="F9" t="s">
         <v>61</v>
       </c>
-      <c r="I9" s="9"/>
+      <c r="I9" s="8"/>
       <c r="J9" t="s">
         <v>95</v>
       </c>
-      <c r="M9" s="9"/>
+      <c r="M9" s="8"/>
       <c r="N9" t="s">
         <v>127</v>
       </c>
-      <c r="Q9" s="9"/>
+      <c r="Q9" s="8"/>
       <c r="R9" t="s">
         <v>159</v>
       </c>
-      <c r="U9" s="9"/>
+      <c r="U9" s="8"/>
       <c r="V9" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="9"/>
+      <c r="E10" s="8"/>
       <c r="F10" t="s">
         <v>62</v>
       </c>
-      <c r="I10" s="9"/>
+      <c r="I10" s="8"/>
       <c r="J10" t="s">
         <v>96</v>
       </c>
-      <c r="M10" s="9"/>
+      <c r="M10" s="8"/>
       <c r="N10" t="s">
         <v>128</v>
       </c>
-      <c r="Q10" s="9"/>
+      <c r="Q10" s="8"/>
       <c r="R10" t="s">
         <v>160</v>
       </c>
-      <c r="U10" s="9"/>
+      <c r="U10" s="8"/>
       <c r="V10" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A11" s="10"/>
+      <c r="A11" s="9"/>
       <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="9"/>
+      <c r="E11" s="8"/>
       <c r="F11" t="s">
         <v>63</v>
       </c>
-      <c r="I11" s="9"/>
+      <c r="I11" s="8"/>
       <c r="J11" t="s">
         <v>119</v>
       </c>
-      <c r="M11" s="9"/>
+      <c r="M11" s="8"/>
       <c r="N11" t="s">
         <v>129</v>
       </c>
-      <c r="Q11" s="9"/>
+      <c r="Q11" s="8"/>
       <c r="R11" t="s">
         <v>161</v>
       </c>
-      <c r="U11" s="10" t="s">
+      <c r="U11" s="9" t="s">
         <v>22</v>
       </c>
       <c r="V11" t="s">
@@ -2009,223 +2189,223 @@
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A12" s="10"/>
+      <c r="A12" s="9"/>
       <c r="B12" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="9"/>
+      <c r="E12" s="8"/>
       <c r="F12" t="s">
         <v>64</v>
       </c>
-      <c r="I12" s="10" t="s">
+      <c r="I12" s="9" t="s">
         <v>22</v>
       </c>
       <c r="J12" t="s">
         <v>97</v>
       </c>
-      <c r="M12" s="10" t="s">
+      <c r="M12" s="9" t="s">
         <v>22</v>
       </c>
       <c r="N12" t="s">
         <v>130</v>
       </c>
-      <c r="Q12" s="10" t="s">
+      <c r="Q12" s="9" t="s">
         <v>22</v>
       </c>
       <c r="R12" t="s">
         <v>162</v>
       </c>
-      <c r="U12" s="10"/>
+      <c r="U12" s="9"/>
       <c r="V12" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A13" s="10"/>
+      <c r="A13" s="9"/>
       <c r="B13" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="9" t="s">
         <v>22</v>
       </c>
       <c r="F13" t="s">
         <v>65</v>
       </c>
-      <c r="I13" s="10"/>
+      <c r="I13" s="9"/>
       <c r="J13" t="s">
         <v>98</v>
       </c>
-      <c r="M13" s="10"/>
+      <c r="M13" s="9"/>
       <c r="N13" t="s">
         <v>131</v>
       </c>
-      <c r="Q13" s="10"/>
+      <c r="Q13" s="9"/>
       <c r="R13" t="s">
         <v>163</v>
       </c>
-      <c r="U13" s="10"/>
+      <c r="U13" s="9"/>
       <c r="V13" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A14" s="10"/>
+      <c r="A14" s="9"/>
       <c r="B14" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="10"/>
+      <c r="E14" s="9"/>
       <c r="F14" t="s">
         <v>66</v>
       </c>
-      <c r="I14" s="10"/>
+      <c r="I14" s="9"/>
       <c r="J14" t="s">
         <v>99</v>
       </c>
-      <c r="M14" s="10"/>
+      <c r="M14" s="9"/>
       <c r="N14" t="s">
         <v>132</v>
       </c>
-      <c r="Q14" s="10"/>
+      <c r="Q14" s="9"/>
       <c r="R14" t="s">
         <v>164</v>
       </c>
-      <c r="U14" s="10"/>
+      <c r="U14" s="9"/>
       <c r="V14" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A15" s="10"/>
+      <c r="A15" s="9"/>
       <c r="B15" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="10"/>
+      <c r="E15" s="9"/>
       <c r="F15" t="s">
         <v>67</v>
       </c>
-      <c r="I15" s="10"/>
+      <c r="I15" s="9"/>
       <c r="J15" t="s">
         <v>100</v>
       </c>
-      <c r="M15" s="10"/>
+      <c r="M15" s="9"/>
       <c r="N15" t="s">
         <v>133</v>
       </c>
-      <c r="Q15" s="10"/>
+      <c r="Q15" s="9"/>
       <c r="R15" t="s">
         <v>165</v>
       </c>
-      <c r="U15" s="10"/>
+      <c r="U15" s="9"/>
       <c r="V15" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A16" s="10"/>
+      <c r="A16" s="9"/>
       <c r="B16" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="10"/>
+      <c r="E16" s="9"/>
       <c r="F16" t="s">
         <v>68</v>
       </c>
-      <c r="I16" s="10"/>
+      <c r="I16" s="9"/>
       <c r="J16" t="s">
         <v>101</v>
       </c>
-      <c r="M16" s="10"/>
+      <c r="M16" s="9"/>
       <c r="N16" t="s">
         <v>134</v>
       </c>
-      <c r="Q16" s="10"/>
+      <c r="Q16" s="9"/>
       <c r="R16" t="s">
         <v>166</v>
       </c>
-      <c r="U16" s="10"/>
+      <c r="U16" s="9"/>
       <c r="V16" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A17" s="10"/>
+      <c r="A17" s="9"/>
       <c r="B17" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="10"/>
+      <c r="E17" s="9"/>
       <c r="F17" t="s">
         <v>69</v>
       </c>
-      <c r="I17" s="10"/>
+      <c r="I17" s="9"/>
       <c r="J17" t="s">
         <v>102</v>
       </c>
-      <c r="M17" s="10"/>
+      <c r="M17" s="9"/>
       <c r="N17" t="s">
         <v>135</v>
       </c>
-      <c r="Q17" s="10"/>
+      <c r="Q17" s="9"/>
       <c r="R17" t="s">
         <v>167</v>
       </c>
-      <c r="U17" s="10"/>
+      <c r="U17" s="9"/>
       <c r="V17" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A18" s="10"/>
+      <c r="A18" s="9"/>
       <c r="B18" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="10"/>
+      <c r="E18" s="9"/>
       <c r="F18" t="s">
         <v>70</v>
       </c>
-      <c r="I18" s="10"/>
+      <c r="I18" s="9"/>
       <c r="J18" t="s">
         <v>103</v>
       </c>
-      <c r="M18" s="10"/>
+      <c r="M18" s="9"/>
       <c r="N18" t="s">
         <v>136</v>
       </c>
-      <c r="Q18" s="10"/>
+      <c r="Q18" s="9"/>
       <c r="R18" t="s">
         <v>168</v>
       </c>
-      <c r="U18" s="10"/>
+      <c r="U18" s="9"/>
       <c r="V18" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="10" t="s">
         <v>32</v>
       </c>
       <c r="B19" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="10"/>
+      <c r="E19" s="9"/>
       <c r="F19" t="s">
         <v>71</v>
       </c>
-      <c r="I19" s="10"/>
+      <c r="I19" s="9"/>
       <c r="J19" t="s">
         <v>104</v>
       </c>
-      <c r="M19" s="8" t="s">
+      <c r="M19" s="10" t="s">
         <v>32</v>
       </c>
       <c r="N19" t="s">
         <v>137</v>
       </c>
-      <c r="Q19" s="8" t="s">
+      <c r="Q19" s="10" t="s">
         <v>32</v>
       </c>
       <c r="R19" t="s">
         <v>169</v>
       </c>
-      <c r="U19" s="8" t="s">
+      <c r="U19" s="10" t="s">
         <v>32</v>
       </c>
       <c r="V19" t="s">
@@ -2233,11 +2413,11 @@
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A20" s="8"/>
+      <c r="A20" s="10"/>
       <c r="B20" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="10"/>
+      <c r="E20" s="9"/>
       <c r="F20" t="s">
         <v>72</v>
       </c>
@@ -2247,25 +2427,25 @@
       <c r="J20" t="s">
         <v>105</v>
       </c>
-      <c r="M20" s="8"/>
+      <c r="M20" s="10"/>
       <c r="N20" t="s">
         <v>138</v>
       </c>
-      <c r="Q20" s="8"/>
+      <c r="Q20" s="10"/>
       <c r="R20" t="s">
         <v>170</v>
       </c>
-      <c r="U20" s="8"/>
+      <c r="U20" s="10"/>
       <c r="V20" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A21" s="8"/>
+      <c r="A21" s="10"/>
       <c r="B21" t="s">
         <v>35</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="10" t="s">
         <v>32</v>
       </c>
       <c r="F21" t="s">
@@ -2277,11 +2457,11 @@
       <c r="J21" t="s">
         <v>106</v>
       </c>
-      <c r="M21" s="8"/>
+      <c r="M21" s="10"/>
       <c r="N21" t="s">
         <v>139</v>
       </c>
-      <c r="Q21" s="8"/>
+      <c r="Q21" s="10"/>
       <c r="R21" t="s">
         <v>184</v>
       </c>
@@ -2293,11 +2473,11 @@
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A22" s="8"/>
+      <c r="A22" s="10"/>
       <c r="B22" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="8"/>
+      <c r="E22" s="10"/>
       <c r="F22" t="s">
         <v>74</v>
       </c>
@@ -2305,7 +2485,7 @@
       <c r="J22" t="s">
         <v>107</v>
       </c>
-      <c r="M22" s="8"/>
+      <c r="M22" s="10"/>
       <c r="N22" t="s">
         <v>140</v>
       </c>
@@ -2327,7 +2507,7 @@
       <c r="B23" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="8"/>
+      <c r="E23" s="10"/>
       <c r="F23" t="s">
         <v>75</v>
       </c>
@@ -2769,7 +2949,7 @@
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B43" t="s">
@@ -2779,7 +2959,7 @@
       <c r="F43" t="s">
         <v>254</v>
       </c>
-      <c r="I43" s="9" t="s">
+      <c r="I43" s="8" t="s">
         <v>15</v>
       </c>
       <c r="J43" t="s">
@@ -2789,13 +2969,13 @@
       <c r="N43" t="s">
         <v>324</v>
       </c>
-      <c r="Q43" s="9" t="s">
+      <c r="Q43" s="8" t="s">
         <v>15</v>
       </c>
       <c r="R43" t="s">
         <v>356</v>
       </c>
-      <c r="U43" s="9" t="s">
+      <c r="U43" s="8" t="s">
         <v>15</v>
       </c>
       <c r="V43" t="s">
@@ -2803,7 +2983,7 @@
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A44" s="9"/>
+      <c r="A44" s="8"/>
       <c r="B44" t="s">
         <v>220</v>
       </c>
@@ -2811,101 +2991,101 @@
       <c r="F44" t="s">
         <v>255</v>
       </c>
-      <c r="I44" s="9"/>
+      <c r="I44" s="8"/>
       <c r="J44" t="s">
         <v>290</v>
       </c>
-      <c r="M44" s="9" t="s">
+      <c r="M44" s="8" t="s">
         <v>15</v>
       </c>
       <c r="N44" t="s">
         <v>327</v>
       </c>
-      <c r="Q44" s="9"/>
+      <c r="Q44" s="8"/>
       <c r="R44" t="s">
         <v>357</v>
       </c>
-      <c r="U44" s="9"/>
+      <c r="U44" s="8"/>
       <c r="V44" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A45" s="9"/>
+      <c r="A45" s="8"/>
       <c r="B45" t="s">
         <v>221</v>
       </c>
-      <c r="E45" s="9" t="s">
+      <c r="E45" s="8" t="s">
         <v>15</v>
       </c>
       <c r="F45" t="s">
         <v>256</v>
       </c>
-      <c r="I45" s="9"/>
+      <c r="I45" s="8"/>
       <c r="J45" t="s">
         <v>291</v>
       </c>
-      <c r="M45" s="9"/>
+      <c r="M45" s="8"/>
       <c r="N45" t="s">
         <v>325</v>
       </c>
-      <c r="Q45" s="9"/>
+      <c r="Q45" s="8"/>
       <c r="R45" t="s">
         <v>358</v>
       </c>
-      <c r="U45" s="9"/>
+      <c r="U45" s="8"/>
       <c r="V45" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A46" s="9"/>
+      <c r="A46" s="8"/>
       <c r="B46" t="s">
         <v>222</v>
       </c>
-      <c r="E46" s="9"/>
+      <c r="E46" s="8"/>
       <c r="F46" t="s">
         <v>257</v>
       </c>
-      <c r="I46" s="9"/>
+      <c r="I46" s="8"/>
       <c r="J46" t="s">
         <v>292</v>
       </c>
-      <c r="M46" s="9"/>
+      <c r="M46" s="8"/>
       <c r="N46" t="s">
         <v>326</v>
       </c>
-      <c r="Q46" s="9"/>
+      <c r="Q46" s="8"/>
       <c r="R46" t="s">
         <v>359</v>
       </c>
-      <c r="U46" s="9"/>
+      <c r="U46" s="8"/>
       <c r="V46" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A47" s="9"/>
+      <c r="A47" s="8"/>
       <c r="B47" t="s">
         <v>223</v>
       </c>
-      <c r="E47" s="9"/>
+      <c r="E47" s="8"/>
       <c r="F47" t="s">
         <v>258</v>
       </c>
-      <c r="I47" s="9"/>
+      <c r="I47" s="8"/>
       <c r="J47" t="s">
         <v>293</v>
       </c>
-      <c r="M47" s="9"/>
+      <c r="M47" s="8"/>
       <c r="N47" t="s">
         <v>328</v>
       </c>
-      <c r="Q47" s="9"/>
+      <c r="Q47" s="8"/>
       <c r="R47" t="s">
         <v>360</v>
       </c>
-      <c r="U47" s="10" t="s">
+      <c r="U47" s="9" t="s">
         <v>22</v>
       </c>
       <c r="V47" t="s">
@@ -2913,215 +3093,215 @@
       </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A48" s="9"/>
+      <c r="A48" s="8"/>
       <c r="B48" t="s">
         <v>224</v>
       </c>
-      <c r="E48" s="9"/>
+      <c r="E48" s="8"/>
       <c r="F48" t="s">
         <v>259</v>
       </c>
-      <c r="I48" s="9"/>
+      <c r="I48" s="8"/>
       <c r="J48" t="s">
         <v>294</v>
       </c>
-      <c r="M48" s="9"/>
+      <c r="M48" s="8"/>
       <c r="N48" t="s">
         <v>329</v>
       </c>
-      <c r="Q48" s="9"/>
+      <c r="Q48" s="8"/>
       <c r="R48" t="s">
         <v>361</v>
       </c>
-      <c r="U48" s="10"/>
+      <c r="U48" s="9"/>
       <c r="V48" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A49" s="9"/>
+      <c r="A49" s="8"/>
       <c r="B49" t="s">
         <v>225</v>
       </c>
-      <c r="E49" s="9"/>
+      <c r="E49" s="8"/>
       <c r="F49" t="s">
         <v>260</v>
       </c>
-      <c r="I49" s="9"/>
+      <c r="I49" s="8"/>
       <c r="J49" t="s">
         <v>295</v>
       </c>
-      <c r="M49" s="9"/>
+      <c r="M49" s="8"/>
       <c r="N49" t="s">
         <v>330</v>
       </c>
-      <c r="Q49" s="10" t="s">
+      <c r="Q49" s="9" t="s">
         <v>22</v>
       </c>
       <c r="R49" t="s">
         <v>362</v>
       </c>
-      <c r="U49" s="10"/>
+      <c r="U49" s="9"/>
       <c r="V49" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A50" s="9"/>
+      <c r="A50" s="8"/>
       <c r="B50" t="s">
         <v>226</v>
       </c>
-      <c r="E50" s="9"/>
+      <c r="E50" s="8"/>
       <c r="F50" t="s">
         <v>261</v>
       </c>
-      <c r="I50" s="9"/>
+      <c r="I50" s="8"/>
       <c r="J50" t="s">
         <v>296</v>
       </c>
-      <c r="M50" s="9"/>
+      <c r="M50" s="8"/>
       <c r="N50" t="s">
         <v>331</v>
       </c>
-      <c r="Q50" s="10"/>
+      <c r="Q50" s="9"/>
       <c r="R50" t="s">
         <v>363</v>
       </c>
-      <c r="U50" s="10"/>
+      <c r="U50" s="9"/>
       <c r="V50" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A51" s="10" t="s">
+      <c r="A51" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B51" t="s">
         <v>227</v>
       </c>
-      <c r="E51" s="10" t="s">
+      <c r="E51" s="9" t="s">
         <v>22</v>
       </c>
       <c r="F51" t="s">
         <v>262</v>
       </c>
-      <c r="I51" s="10" t="s">
+      <c r="I51" s="9" t="s">
         <v>22</v>
       </c>
       <c r="J51" t="s">
         <v>297</v>
       </c>
-      <c r="M51" s="10" t="s">
+      <c r="M51" s="9" t="s">
         <v>22</v>
       </c>
       <c r="N51" t="s">
         <v>332</v>
       </c>
-      <c r="Q51" s="10"/>
+      <c r="Q51" s="9"/>
       <c r="R51" t="s">
         <v>364</v>
       </c>
-      <c r="U51" s="10"/>
+      <c r="U51" s="9"/>
       <c r="V51" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A52" s="10"/>
+      <c r="A52" s="9"/>
       <c r="B52" t="s">
         <v>229</v>
       </c>
-      <c r="E52" s="10"/>
+      <c r="E52" s="9"/>
       <c r="F52" t="s">
         <v>263</v>
       </c>
-      <c r="I52" s="10"/>
+      <c r="I52" s="9"/>
       <c r="J52" t="s">
         <v>298</v>
       </c>
-      <c r="M52" s="10"/>
+      <c r="M52" s="9"/>
       <c r="N52" t="s">
         <v>333</v>
       </c>
-      <c r="Q52" s="10"/>
+      <c r="Q52" s="9"/>
       <c r="R52" t="s">
         <v>365</v>
       </c>
-      <c r="U52" s="10"/>
+      <c r="U52" s="9"/>
       <c r="V52" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A53" s="10"/>
+      <c r="A53" s="9"/>
       <c r="B53" t="s">
         <v>228</v>
       </c>
-      <c r="E53" s="10"/>
+      <c r="E53" s="9"/>
       <c r="F53" t="s">
         <v>264</v>
       </c>
-      <c r="I53" s="10"/>
+      <c r="I53" s="9"/>
       <c r="J53" t="s">
         <v>299</v>
       </c>
-      <c r="M53" s="10"/>
+      <c r="M53" s="9"/>
       <c r="N53" t="s">
         <v>334</v>
       </c>
-      <c r="Q53" s="10"/>
+      <c r="Q53" s="9"/>
       <c r="R53" t="s">
         <v>366</v>
       </c>
-      <c r="U53" s="10"/>
+      <c r="U53" s="9"/>
       <c r="V53" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A54" s="10"/>
+      <c r="A54" s="9"/>
       <c r="B54" t="s">
         <v>230</v>
       </c>
-      <c r="E54" s="10"/>
+      <c r="E54" s="9"/>
       <c r="F54" t="s">
         <v>265</v>
       </c>
-      <c r="I54" s="10"/>
+      <c r="I54" s="9"/>
       <c r="J54" t="s">
         <v>300</v>
       </c>
-      <c r="M54" s="10"/>
+      <c r="M54" s="9"/>
       <c r="N54" t="s">
         <v>335</v>
       </c>
-      <c r="Q54" s="10"/>
+      <c r="Q54" s="9"/>
       <c r="R54" t="s">
         <v>367</v>
       </c>
-      <c r="U54" s="10"/>
+      <c r="U54" s="9"/>
       <c r="V54" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A55" s="10"/>
+      <c r="A55" s="9"/>
       <c r="B55" t="s">
         <v>231</v>
       </c>
-      <c r="E55" s="10"/>
+      <c r="E55" s="9"/>
       <c r="F55" t="s">
         <v>266</v>
       </c>
-      <c r="I55" s="10"/>
+      <c r="I55" s="9"/>
       <c r="J55" t="s">
         <v>301</v>
       </c>
-      <c r="M55" s="10"/>
+      <c r="M55" s="9"/>
       <c r="N55" t="s">
         <v>336</v>
       </c>
-      <c r="Q55" s="10"/>
+      <c r="Q55" s="9"/>
       <c r="R55" t="s">
         <v>368</v>
       </c>
@@ -3133,23 +3313,23 @@
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A56" s="10"/>
+      <c r="A56" s="9"/>
       <c r="B56" t="s">
         <v>232</v>
       </c>
-      <c r="E56" s="10"/>
+      <c r="E56" s="9"/>
       <c r="F56" t="s">
         <v>267</v>
       </c>
-      <c r="I56" s="10"/>
+      <c r="I56" s="9"/>
       <c r="J56" t="s">
         <v>302</v>
       </c>
-      <c r="M56" s="10"/>
+      <c r="M56" s="9"/>
       <c r="N56" t="s">
         <v>337</v>
       </c>
-      <c r="Q56" s="10"/>
+      <c r="Q56" s="9"/>
       <c r="R56" t="s">
         <v>369</v>
       </c>
@@ -3161,23 +3341,23 @@
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A57" s="10"/>
+      <c r="A57" s="9"/>
       <c r="B57" t="s">
         <v>233</v>
       </c>
-      <c r="E57" s="10"/>
+      <c r="E57" s="9"/>
       <c r="F57" t="s">
         <v>268</v>
       </c>
-      <c r="I57" s="10"/>
+      <c r="I57" s="9"/>
       <c r="J57" t="s">
         <v>303</v>
       </c>
-      <c r="M57" s="10"/>
+      <c r="M57" s="9"/>
       <c r="N57" t="s">
         <v>338</v>
       </c>
-      <c r="Q57" s="10"/>
+      <c r="Q57" s="9"/>
       <c r="R57" t="s">
         <v>370</v>
       </c>
@@ -3187,23 +3367,23 @@
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A58" s="10"/>
+      <c r="A58" s="9"/>
       <c r="B58" t="s">
         <v>234</v>
       </c>
-      <c r="E58" s="10"/>
+      <c r="E58" s="9"/>
       <c r="F58" t="s">
         <v>269</v>
       </c>
-      <c r="I58" s="10"/>
+      <c r="I58" s="9"/>
       <c r="J58" t="s">
         <v>304</v>
       </c>
-      <c r="M58" s="10"/>
+      <c r="M58" s="9"/>
       <c r="N58" t="s">
         <v>339</v>
       </c>
-      <c r="Q58" s="10"/>
+      <c r="Q58" s="9"/>
       <c r="R58" t="s">
         <v>371</v>
       </c>
@@ -3213,27 +3393,27 @@
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A59" s="10"/>
+      <c r="A59" s="9"/>
       <c r="B59" t="s">
         <v>235</v>
       </c>
-      <c r="E59" s="10"/>
+      <c r="E59" s="9"/>
       <c r="F59" t="s">
         <v>270</v>
       </c>
-      <c r="I59" s="8" t="s">
+      <c r="I59" s="10" t="s">
         <v>32</v>
       </c>
       <c r="J59" t="s">
         <v>305</v>
       </c>
-      <c r="M59" s="8" t="s">
+      <c r="M59" s="10" t="s">
         <v>32</v>
       </c>
       <c r="N59" t="s">
         <v>340</v>
       </c>
-      <c r="Q59" s="10"/>
+      <c r="Q59" s="9"/>
       <c r="R59" t="s">
         <v>372</v>
       </c>
@@ -3245,23 +3425,23 @@
       </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A60" s="10"/>
+      <c r="A60" s="9"/>
       <c r="B60" t="s">
         <v>236</v>
       </c>
-      <c r="E60" s="10"/>
+      <c r="E60" s="9"/>
       <c r="F60" t="s">
         <v>271</v>
       </c>
-      <c r="I60" s="8"/>
+      <c r="I60" s="10"/>
       <c r="J60" t="s">
         <v>306</v>
       </c>
-      <c r="M60" s="8"/>
+      <c r="M60" s="10"/>
       <c r="N60" t="s">
         <v>341</v>
       </c>
-      <c r="Q60" s="10"/>
+      <c r="Q60" s="9"/>
       <c r="R60" t="s">
         <v>373</v>
       </c>
@@ -3271,25 +3451,25 @@
       </c>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A61" s="8" t="s">
+      <c r="A61" s="10" t="s">
         <v>32</v>
       </c>
       <c r="B61" t="s">
         <v>237</v>
       </c>
-      <c r="E61" s="10"/>
+      <c r="E61" s="9"/>
       <c r="F61" t="s">
         <v>272</v>
       </c>
-      <c r="I61" s="8"/>
+      <c r="I61" s="10"/>
       <c r="J61" t="s">
         <v>307</v>
       </c>
-      <c r="M61" s="8"/>
+      <c r="M61" s="10"/>
       <c r="N61" t="s">
         <v>342</v>
       </c>
-      <c r="Q61" s="10"/>
+      <c r="Q61" s="9"/>
       <c r="R61" t="s">
         <v>374</v>
       </c>
@@ -3299,17 +3479,17 @@
       </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A62" s="8"/>
+      <c r="A62" s="10"/>
       <c r="B62" t="s">
         <v>238</v>
       </c>
-      <c r="E62" s="8" t="s">
+      <c r="E62" s="10" t="s">
         <v>32</v>
       </c>
       <c r="F62" t="s">
         <v>273</v>
       </c>
-      <c r="I62" s="8"/>
+      <c r="I62" s="10"/>
       <c r="J62" t="s">
         <v>308</v>
       </c>
@@ -3319,7 +3499,7 @@
       <c r="N62" t="s">
         <v>343</v>
       </c>
-      <c r="Q62" s="8" t="s">
+      <c r="Q62" s="10" t="s">
         <v>32</v>
       </c>
       <c r="R62" t="s">
@@ -3331,11 +3511,11 @@
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A63" s="8"/>
+      <c r="A63" s="10"/>
       <c r="B63" t="s">
         <v>239</v>
       </c>
-      <c r="E63" s="8"/>
+      <c r="E63" s="10"/>
       <c r="F63" t="s">
         <v>274</v>
       </c>
@@ -3349,7 +3529,7 @@
       <c r="N63" t="s">
         <v>344</v>
       </c>
-      <c r="Q63" s="8"/>
+      <c r="Q63" s="10"/>
       <c r="R63" t="s">
         <v>388</v>
       </c>
@@ -3359,11 +3539,11 @@
       </c>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A64" s="8"/>
+      <c r="A64" s="10"/>
       <c r="B64" t="s">
         <v>240</v>
       </c>
-      <c r="E64" s="8"/>
+      <c r="E64" s="10"/>
       <c r="F64" t="s">
         <v>275</v>
       </c>
@@ -3395,7 +3575,7 @@
       <c r="B65" t="s">
         <v>241</v>
       </c>
-      <c r="E65" s="8"/>
+      <c r="E65" s="10"/>
       <c r="F65" t="s">
         <v>276</v>
       </c>
@@ -3668,18 +3848,39 @@
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="M2:M4"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="E28:E32"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="E33:E36"/>
+    <mergeCell ref="A31:A36"/>
     <mergeCell ref="Q2:Q4"/>
     <mergeCell ref="U2:U4"/>
     <mergeCell ref="U41:U42"/>
     <mergeCell ref="Q41:Q42"/>
     <mergeCell ref="M41:M43"/>
+    <mergeCell ref="U40:V40"/>
+    <mergeCell ref="U21:U24"/>
+    <mergeCell ref="U25:U28"/>
+    <mergeCell ref="U29:U33"/>
+    <mergeCell ref="U43:U46"/>
+    <mergeCell ref="Q43:Q48"/>
+    <mergeCell ref="M44:M50"/>
     <mergeCell ref="I41:I42"/>
     <mergeCell ref="Q19:Q21"/>
     <mergeCell ref="M19:M22"/>
     <mergeCell ref="M30:M33"/>
     <mergeCell ref="I29:I33"/>
-    <mergeCell ref="U40:V40"/>
     <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="Q22:Q25"/>
+    <mergeCell ref="M23:M25"/>
+    <mergeCell ref="I21:I24"/>
+    <mergeCell ref="Q26:Q29"/>
+    <mergeCell ref="M26:M29"/>
+    <mergeCell ref="I25:I28"/>
+    <mergeCell ref="Q30:Q34"/>
     <mergeCell ref="E41:E44"/>
     <mergeCell ref="A41:A42"/>
     <mergeCell ref="U5:U10"/>
@@ -3696,27 +3897,6 @@
     <mergeCell ref="E13:E20"/>
     <mergeCell ref="A10:A18"/>
     <mergeCell ref="U19:U20"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="U21:U24"/>
-    <mergeCell ref="Q22:Q25"/>
-    <mergeCell ref="M23:M25"/>
-    <mergeCell ref="I21:I24"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="U25:U28"/>
-    <mergeCell ref="Q26:Q29"/>
-    <mergeCell ref="M26:M29"/>
-    <mergeCell ref="I25:I28"/>
-    <mergeCell ref="E28:E32"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="U29:U33"/>
-    <mergeCell ref="Q30:Q34"/>
-    <mergeCell ref="E33:E36"/>
-    <mergeCell ref="A31:A36"/>
-    <mergeCell ref="U43:U46"/>
-    <mergeCell ref="Q43:Q48"/>
-    <mergeCell ref="M44:M50"/>
     <mergeCell ref="I43:I50"/>
     <mergeCell ref="E45:E50"/>
     <mergeCell ref="A43:A50"/>
@@ -3761,12 +3941,313 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="12.453125" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="10" max="10" width="18.26953125" customWidth="1"/>
+    <col min="13" max="13" width="16.54296875" customWidth="1"/>
+    <col min="16" max="16" width="17.36328125" customWidth="1"/>
+    <col min="17" max="17" width="7.81640625" customWidth="1"/>
+    <col min="19" max="19" width="20.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="E1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="4"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="4"/>
+      <c r="O1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="4"/>
+      <c r="R1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S1" s="4"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>462</v>
+      </c>
+      <c r="E2" t="s">
+        <v>427</v>
+      </c>
+      <c r="H2" t="s">
+        <v>442</v>
+      </c>
+      <c r="L2" t="s">
+        <v>423</v>
+      </c>
+      <c r="O2" t="s">
+        <v>453</v>
+      </c>
+      <c r="R2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>418</v>
+      </c>
+      <c r="E3" t="s">
+        <v>422</v>
+      </c>
+      <c r="H3" t="s">
+        <v>437</v>
+      </c>
+      <c r="L3" t="s">
+        <v>463</v>
+      </c>
+      <c r="O3" t="s">
+        <v>469</v>
+      </c>
+      <c r="R3" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>467</v>
+      </c>
+      <c r="E4" t="s">
+        <v>417</v>
+      </c>
+      <c r="H4" t="s">
+        <v>443</v>
+      </c>
+      <c r="L4" t="s">
+        <v>464</v>
+      </c>
+      <c r="O4" t="s">
+        <v>455</v>
+      </c>
+      <c r="R4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>448</v>
+      </c>
+      <c r="E5" t="s">
+        <v>468</v>
+      </c>
+      <c r="H5" t="s">
+        <v>444</v>
+      </c>
+      <c r="L5" t="s">
+        <v>449</v>
+      </c>
+      <c r="O5" t="s">
+        <v>435</v>
+      </c>
+      <c r="R5" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>428</v>
+      </c>
+      <c r="E6" t="s">
+        <v>429</v>
+      </c>
+      <c r="H6" t="s">
+        <v>445</v>
+      </c>
+      <c r="L6" t="s">
+        <v>465</v>
+      </c>
+      <c r="O6" t="s">
+        <v>470</v>
+      </c>
+      <c r="R6" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>476</v>
+      </c>
+      <c r="H7" t="s">
+        <v>446</v>
+      </c>
+      <c r="O7" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="E13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="I13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M13" s="4"/>
+      <c r="O13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P13" s="4"/>
+      <c r="R13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="S13" s="4"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>451</v>
+      </c>
+      <c r="E14" t="s">
+        <v>466</v>
+      </c>
+      <c r="I14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L14" t="s">
+        <v>431</v>
+      </c>
+      <c r="O14" t="s">
+        <v>430</v>
+      </c>
+      <c r="R14" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="E15" t="s">
+        <v>452</v>
+      </c>
+      <c r="I15" t="s">
+        <v>472</v>
+      </c>
+      <c r="O15" t="s">
+        <v>450</v>
+      </c>
+      <c r="R15" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="E16" t="s">
+        <v>447</v>
+      </c>
+      <c r="I16" t="s">
+        <v>473</v>
+      </c>
+      <c r="O16" t="s">
+        <v>426</v>
+      </c>
+      <c r="R16" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="17" spans="5:18" x14ac:dyDescent="0.35">
+      <c r="E17" t="s">
+        <v>432</v>
+      </c>
+      <c r="I17" t="s">
+        <v>474</v>
+      </c>
+      <c r="O17" t="s">
+        <v>436</v>
+      </c>
+      <c r="R17" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="18" spans="5:18" x14ac:dyDescent="0.35">
+      <c r="E18" t="s">
+        <v>458</v>
+      </c>
+      <c r="I18" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="19" spans="5:18" x14ac:dyDescent="0.35">
+      <c r="E19" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="20" spans="5:18" x14ac:dyDescent="0.35">
+      <c r="E20" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="21" spans="5:18" x14ac:dyDescent="0.35">
+      <c r="E21" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="22" spans="5:18" x14ac:dyDescent="0.35">
+      <c r="E22" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="23" spans="5:18" x14ac:dyDescent="0.35">
+      <c r="E23" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="24" spans="5:18" x14ac:dyDescent="0.35">
+      <c r="E24" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="25" spans="5:18" x14ac:dyDescent="0.35">
+      <c r="E25" t="s">
+        <v>441</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="R1:S1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/OffSeason.xlsx
+++ b/OffSeason.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="512">
   <si>
     <t>Vanja Dolas - CeeDee Nuts</t>
   </si>
@@ -38,9 +38,6 @@
     <t>Matt Holland - Velociraptor Maloish</t>
   </si>
   <si>
-    <t>Cam Rhode - Snow Happens</t>
-  </si>
-  <si>
     <t>Zach Johnson - BeatinGoff</t>
   </si>
   <si>
@@ -1370,21 +1367,6 @@
     <t>2021 5.10 MattH</t>
   </si>
   <si>
-    <t>2021 1.9 CamR</t>
-  </si>
-  <si>
-    <t>2021 2.9 CamR</t>
-  </si>
-  <si>
-    <t>2021 3.9 CamR</t>
-  </si>
-  <si>
-    <t>2021 4.9 CamR</t>
-  </si>
-  <si>
-    <t>2021 5.9 CamR</t>
-  </si>
-  <si>
     <t>2021 1.8 ZachJ</t>
   </si>
   <si>
@@ -1458,16 +1440,147 @@
   </si>
   <si>
     <t>2021 4.6AlanP</t>
+  </si>
+  <si>
+    <t>Decaf Metcalf</t>
+  </si>
+  <si>
+    <t>Vanja Dolas</t>
+  </si>
+  <si>
+    <t>Eranievanja@gmail.com</t>
+  </si>
+  <si>
+    <t>BeatinGoff</t>
+  </si>
+  <si>
+    <t>Zach Johnson</t>
+  </si>
+  <si>
+    <t>sdhusker15@gmail.com</t>
+  </si>
+  <si>
+    <t>*Trade Committee member</t>
+  </si>
+  <si>
+    <t>Cooper Solo Kupp</t>
+  </si>
+  <si>
+    <t>Benjamin Luther</t>
+  </si>
+  <si>
+    <t>blluther7@gmail.com</t>
+  </si>
+  <si>
+    <t>Chubber for Chubb</t>
+  </si>
+  <si>
+    <t>John Olson</t>
+  </si>
+  <si>
+    <t>john.olson8734@gmail.com</t>
+  </si>
+  <si>
+    <t>jimmy's done i'm not</t>
+  </si>
+  <si>
+    <t>Mike Whittier</t>
+  </si>
+  <si>
+    <t>reittihwmm@gmail.com</t>
+  </si>
+  <si>
+    <t>Injured Reserve Team</t>
+  </si>
+  <si>
+    <t>Patrick Pontarelli</t>
+  </si>
+  <si>
+    <t>pjpontarelli@pluto.dsu.edu</t>
+  </si>
+  <si>
+    <t>Snow Happens</t>
+  </si>
+  <si>
+    <t>Punisher</t>
+  </si>
+  <si>
+    <t>Slick Daddy Club</t>
+  </si>
+  <si>
+    <t>Andrew Gates</t>
+  </si>
+  <si>
+    <t>andrewagates89@hotmail.com</t>
+  </si>
+  <si>
+    <t>Jacobs Ladder</t>
+  </si>
+  <si>
+    <t>Adam Wells</t>
+  </si>
+  <si>
+    <t>adamwells12@gmail.com</t>
+  </si>
+  <si>
+    <t>the naked pooper</t>
+  </si>
+  <si>
+    <t>Alan Powell</t>
+  </si>
+  <si>
+    <t>powellap28@gmail.com</t>
+  </si>
+  <si>
+    <t>Velociraptor Maloish</t>
+  </si>
+  <si>
+    <t>Matt Holland</t>
+  </si>
+  <si>
+    <t>king_ahab11@hotmail.com</t>
+  </si>
+  <si>
+    <t>bjhurd@hotmail.com</t>
+  </si>
+  <si>
+    <t>Brandon Hurd</t>
+  </si>
+  <si>
+    <t>Brandon Hurd - Snow Happens</t>
+  </si>
+  <si>
+    <t>2021 2.9 BrandonH</t>
+  </si>
+  <si>
+    <t>2021 3.9 BrandonH</t>
+  </si>
+  <si>
+    <t>2021 5.9 BrandonH</t>
+  </si>
+  <si>
+    <t>2021 4.9 BrandonH</t>
+  </si>
+  <si>
+    <t>2021 1.9 BrandonH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1532,10 +1645,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1568,8 +1682,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1851,7 +1968,7 @@
   <dimension ref="A1:W75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L48" sqref="L48"/>
+      <selection activeCell="M2" sqref="M2:M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1885,1957 +2002,1957 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="4" t="s">
-        <v>3</v>
+        <v>506</v>
       </c>
       <c r="N1" s="4"/>
       <c r="O1" s="1"/>
       <c r="Q1" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R1" s="4"/>
       <c r="S1" s="1"/>
       <c r="U1" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V1" s="4"/>
       <c r="W1" s="1"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
       <c r="E2" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q2" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="U2" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3" s="11"/>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I3" s="11"/>
       <c r="J3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M3" s="11"/>
       <c r="N3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q3" s="11"/>
       <c r="R3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U3" s="11"/>
       <c r="V3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
         <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M4" s="11"/>
       <c r="N4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q4" s="11"/>
       <c r="R4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="U4" s="11"/>
       <c r="V4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" s="8"/>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="U5" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="V5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M6" s="8"/>
       <c r="N6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q6" s="8"/>
       <c r="R6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="U6" s="8"/>
       <c r="V6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M7" s="8"/>
       <c r="N7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Q7" s="8"/>
       <c r="R7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="U7" s="8"/>
       <c r="V7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M8" s="8"/>
       <c r="N8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Q8" s="8"/>
       <c r="R8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="U8" s="8"/>
       <c r="V8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M9" s="8"/>
       <c r="N9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q9" s="8"/>
       <c r="R9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="U9" s="8"/>
       <c r="V9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
         <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M10" s="8"/>
       <c r="N10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Q10" s="8"/>
       <c r="R10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="U10" s="8"/>
       <c r="V10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A11" s="9"/>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M11" s="8"/>
       <c r="N11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Q11" s="8"/>
       <c r="R11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="U11" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A12" s="9"/>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q12" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="U12" s="9"/>
       <c r="V12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A13" s="9"/>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M13" s="9"/>
       <c r="N13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q13" s="9"/>
       <c r="R13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="U13" s="9"/>
       <c r="V13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A14" s="9"/>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M14" s="9"/>
       <c r="N14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q14" s="9"/>
       <c r="R14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="U14" s="9"/>
       <c r="V14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A15" s="9"/>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M15" s="9"/>
       <c r="N15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q15" s="9"/>
       <c r="R15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U15" s="9"/>
       <c r="V15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A16" s="9"/>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M16" s="9"/>
       <c r="N16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q16" s="9"/>
       <c r="R16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="U16" s="9"/>
       <c r="V16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A17" s="9"/>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M17" s="9"/>
       <c r="N17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q17" s="9"/>
       <c r="R17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="U17" s="9"/>
       <c r="V17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A18" s="9"/>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M18" s="9"/>
       <c r="N18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q18" s="9"/>
       <c r="R18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="U18" s="9"/>
       <c r="V18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
         <v>32</v>
-      </c>
-      <c r="B19" t="s">
-        <v>33</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M19" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q19" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="U19" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A20" s="10"/>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M20" s="10"/>
       <c r="N20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q20" s="10"/>
       <c r="R20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="U20" s="10"/>
       <c r="V20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A21" s="10"/>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M21" s="10"/>
       <c r="N21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q21" s="10"/>
       <c r="R21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="U21" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A22" s="10"/>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M22" s="10"/>
       <c r="N22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q22" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="U22" s="6"/>
       <c r="V22" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" t="s">
         <v>38</v>
-      </c>
-      <c r="B23" t="s">
-        <v>39</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q23" s="6"/>
       <c r="R23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="U23" s="6"/>
       <c r="V23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A24" s="6"/>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M24" s="6"/>
       <c r="N24" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Q24" s="6"/>
       <c r="R24" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="U24" s="6"/>
       <c r="V24" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A25" s="6"/>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M25" s="6"/>
       <c r="N25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q25" s="6"/>
       <c r="R25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="U25" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I26" s="7"/>
       <c r="J26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M26" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="U26" s="7"/>
       <c r="V26" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A27" s="7"/>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I27" s="7"/>
       <c r="J27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M27" s="7"/>
       <c r="N27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q27" s="7"/>
       <c r="R27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="U27" s="7"/>
       <c r="V27" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A28" s="7"/>
       <c r="B28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I28" s="7"/>
       <c r="J28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M28" s="7"/>
       <c r="N28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Q28" s="7"/>
       <c r="R28" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="U28" s="7"/>
       <c r="V28" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A29" s="7"/>
       <c r="B29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M29" s="7"/>
       <c r="N29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q29" s="7"/>
       <c r="R29" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="U29" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="V29" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A30" s="7"/>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I30" s="5"/>
       <c r="J30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M30" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q30" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R30" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="U30" s="5"/>
       <c r="V30" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" t="s">
         <v>47</v>
-      </c>
-      <c r="B31" t="s">
-        <v>48</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I31" s="5"/>
       <c r="J31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M31" s="5"/>
       <c r="N31" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Q31" s="5"/>
       <c r="R31" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="U31" s="5"/>
       <c r="V31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A32" s="5"/>
       <c r="B32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I32" s="5"/>
       <c r="J32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M32" s="5"/>
       <c r="N32" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Q32" s="5"/>
       <c r="R32" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U32" s="5"/>
       <c r="V32" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A33" s="5"/>
       <c r="B33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I33" s="5"/>
       <c r="J33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M33" s="5"/>
       <c r="N33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Q33" s="5"/>
       <c r="R33" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="U33" s="5"/>
       <c r="V33" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A34" s="5"/>
       <c r="B34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q34" s="5"/>
       <c r="R34" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="U34" s="3"/>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A35" s="5"/>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A36" s="5"/>
       <c r="B36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="E40" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
       <c r="I40" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
       <c r="L40" s="1"/>
       <c r="M40" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N40" s="4"/>
       <c r="O40" s="1"/>
       <c r="Q40" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R40" s="4"/>
       <c r="S40" s="1"/>
       <c r="U40" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="V40" s="4"/>
       <c r="W40" s="1"/>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A41" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J41" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M41" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N41" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="Q41" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R41" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="U41" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V41" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A42" s="11"/>
       <c r="B42" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E42" s="11"/>
       <c r="F42" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I42" s="11"/>
       <c r="J42" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M42" s="11"/>
       <c r="N42" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="Q42" s="11"/>
       <c r="R42" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="U42" s="11"/>
       <c r="V42" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A43" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B43" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E43" s="11"/>
       <c r="F43" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J43" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="M43" s="11"/>
       <c r="N43" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="Q43" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R43" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="U43" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="V43" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A44" s="8"/>
       <c r="B44" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E44" s="11"/>
       <c r="F44" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="M44" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N44" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="Q44" s="8"/>
       <c r="R44" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="U44" s="8"/>
       <c r="V44" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A45" s="8"/>
       <c r="B45" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F45" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M45" s="8"/>
       <c r="N45" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Q45" s="8"/>
       <c r="R45" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="U45" s="8"/>
       <c r="V45" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
       <c r="B46" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E46" s="8"/>
       <c r="F46" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="M46" s="8"/>
       <c r="N46" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Q46" s="8"/>
       <c r="R46" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="U46" s="8"/>
       <c r="V46" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A47" s="8"/>
       <c r="B47" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E47" s="8"/>
       <c r="F47" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="M47" s="8"/>
       <c r="N47" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Q47" s="8"/>
       <c r="R47" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="U47" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V47" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A48" s="8"/>
       <c r="B48" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E48" s="8"/>
       <c r="F48" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="M48" s="8"/>
       <c r="N48" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="Q48" s="8"/>
       <c r="R48" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="U48" s="9"/>
       <c r="V48" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A49" s="8"/>
       <c r="B49" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E49" s="8"/>
       <c r="F49" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="M49" s="8"/>
       <c r="N49" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="Q49" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R49" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="U49" s="9"/>
       <c r="V49" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A50" s="8"/>
       <c r="B50" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E50" s="8"/>
       <c r="F50" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="M50" s="8"/>
       <c r="N50" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="Q50" s="9"/>
       <c r="R50" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="U50" s="9"/>
       <c r="V50" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A51" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B51" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F51" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I51" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J51" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="M51" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N51" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Q51" s="9"/>
       <c r="R51" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="U51" s="9"/>
       <c r="V51" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A52" s="9"/>
       <c r="B52" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E52" s="9"/>
       <c r="F52" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="M52" s="9"/>
       <c r="N52" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Q52" s="9"/>
       <c r="R52" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="U52" s="9"/>
       <c r="V52" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A53" s="9"/>
       <c r="B53" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E53" s="9"/>
       <c r="F53" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="M53" s="9"/>
       <c r="N53" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="Q53" s="9"/>
       <c r="R53" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="U53" s="9"/>
       <c r="V53" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A54" s="9"/>
       <c r="B54" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E54" s="9"/>
       <c r="F54" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="M54" s="9"/>
       <c r="N54" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="Q54" s="9"/>
       <c r="R54" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="U54" s="9"/>
       <c r="V54" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A55" s="9"/>
       <c r="B55" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E55" s="9"/>
       <c r="F55" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M55" s="9"/>
       <c r="N55" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="Q55" s="9"/>
       <c r="R55" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="U55" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V55" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A56" s="9"/>
       <c r="B56" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E56" s="9"/>
       <c r="F56" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="M56" s="9"/>
       <c r="N56" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="Q56" s="9"/>
       <c r="R56" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="U56" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V56" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A57" s="9"/>
       <c r="B57" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E57" s="9"/>
       <c r="F57" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="M57" s="9"/>
       <c r="N57" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="Q57" s="9"/>
       <c r="R57" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="U57" s="6"/>
       <c r="V57" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A58" s="9"/>
       <c r="B58" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E58" s="9"/>
       <c r="F58" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M58" s="9"/>
       <c r="N58" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="Q58" s="9"/>
       <c r="R58" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="U58" s="6"/>
       <c r="V58" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A59" s="9"/>
       <c r="B59" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E59" s="9"/>
       <c r="F59" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I59" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J59" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="M59" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N59" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="Q59" s="9"/>
       <c r="R59" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="U59" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V59" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A60" s="9"/>
       <c r="B60" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E60" s="9"/>
       <c r="F60" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I60" s="10"/>
       <c r="J60" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="M60" s="10"/>
       <c r="N60" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Q60" s="9"/>
       <c r="R60" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="U60" s="7"/>
       <c r="V60" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A61" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B61" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E61" s="9"/>
       <c r="F61" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I61" s="10"/>
       <c r="J61" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M61" s="10"/>
       <c r="N61" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="Q61" s="9"/>
       <c r="R61" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="U61" s="7"/>
       <c r="V61" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A62" s="10"/>
       <c r="B62" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F62" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I62" s="10"/>
       <c r="J62" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M62" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N62" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="Q62" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R62" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="U62" s="7"/>
       <c r="V62" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A63" s="10"/>
       <c r="B63" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E63" s="10"/>
       <c r="F63" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I63" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J63" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="M63" s="6"/>
       <c r="N63" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="Q63" s="10"/>
       <c r="R63" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="U63" s="7"/>
       <c r="V63" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A64" s="10"/>
       <c r="B64" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E64" s="10"/>
       <c r="F64" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I64" s="6"/>
       <c r="J64" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M64" s="6"/>
       <c r="N64" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Q64" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R64" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="U64" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="V64" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A65" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B65" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E65" s="10"/>
       <c r="F65" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I65" s="6"/>
       <c r="J65" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M65" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N65" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="Q65" s="6"/>
       <c r="R65" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="U65" s="5"/>
       <c r="V65" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A66" s="6"/>
       <c r="B66" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F66" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I66" s="6"/>
       <c r="J66" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="M66" s="7"/>
       <c r="N66" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="Q66" s="6"/>
       <c r="R66" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U66" s="5"/>
       <c r="V66" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A67" s="6"/>
       <c r="B67" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E67" s="6"/>
       <c r="F67" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J67" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M67" s="7"/>
       <c r="N67" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="Q67" s="6"/>
       <c r="R67" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U67" s="5"/>
       <c r="V67" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A68" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B68" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E68" s="6"/>
       <c r="F68" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I68" s="7"/>
       <c r="J68" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="M68" s="7"/>
       <c r="N68" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R68" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="U68" s="5"/>
       <c r="V68" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A69" s="7"/>
       <c r="B69" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F69" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I69" s="7"/>
       <c r="J69" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M69" s="7"/>
       <c r="N69" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="Q69" s="7"/>
       <c r="R69" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A70" s="7"/>
       <c r="B70" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E70" s="7"/>
       <c r="F70" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I70" s="7"/>
       <c r="J70" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="M70" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N70" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="Q70" s="7"/>
       <c r="R70" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A71" s="7"/>
       <c r="B71" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E71" s="7"/>
       <c r="F71" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I71" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J71" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M71" s="5"/>
       <c r="N71" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Q71" s="7"/>
       <c r="R71" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A72" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B72" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E72" s="7"/>
       <c r="F72" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I72" s="5"/>
       <c r="J72" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M72" s="5"/>
       <c r="N72" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="Q72" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R72" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A73" s="5"/>
       <c r="B73" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F73" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I73" s="5"/>
       <c r="J73" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Q73" s="5"/>
       <c r="R73" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A74" s="5"/>
       <c r="B74" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E74" s="5"/>
       <c r="F74" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I74" s="5"/>
       <c r="J74" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="Q74" s="5"/>
       <c r="R74" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A75" s="5"/>
       <c r="B75" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E75" s="5"/>
       <c r="F75" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I75" s="5"/>
       <c r="J75" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="Q75" s="5"/>
       <c r="R75" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
   </sheetData>
@@ -3943,8 +4060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S25"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3952,7 +4069,7 @@
     <col min="3" max="3" width="12.453125" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="10" max="10" width="18.26953125" customWidth="1"/>
-    <col min="13" max="13" width="16.54296875" customWidth="1"/>
+    <col min="13" max="13" width="18.453125" customWidth="1"/>
     <col min="16" max="16" width="17.36328125" customWidth="1"/>
     <col min="17" max="17" width="7.81640625" customWidth="1"/>
     <col min="19" max="19" width="20.7265625" customWidth="1"/>
@@ -3976,261 +4093,261 @@
       <c r="J1" s="4"/>
       <c r="K1" s="1"/>
       <c r="L1" s="4" t="s">
-        <v>3</v>
+        <v>506</v>
       </c>
       <c r="M1" s="4"/>
       <c r="O1" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P1" s="4"/>
       <c r="R1" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="E2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="L2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="O2" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="R2" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="L3" t="s">
+        <v>457</v>
+      </c>
+      <c r="O3" t="s">
         <v>463</v>
       </c>
-      <c r="O3" t="s">
-        <v>469</v>
-      </c>
       <c r="R3" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="E4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="L4" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="O4" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="R4" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>448</v>
+        <v>507</v>
       </c>
       <c r="E5" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="H5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="L5" t="s">
-        <v>449</v>
+        <v>508</v>
       </c>
       <c r="O5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="R5" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
+        <v>427</v>
+      </c>
+      <c r="E6" t="s">
         <v>428</v>
       </c>
-      <c r="E6" t="s">
-        <v>429</v>
-      </c>
       <c r="H6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="L6" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="O6" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="R6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="H7" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="O7" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="I13" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M13" s="4"/>
       <c r="O13" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P13" s="4"/>
       <c r="R13" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S13" s="4"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
-        <v>451</v>
+        <v>509</v>
       </c>
       <c r="E14" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="I14" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="L14" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="O14" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="R14" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="E15" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="I15" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="O15" t="s">
-        <v>450</v>
+        <v>510</v>
       </c>
       <c r="R15" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="E16" t="s">
-        <v>447</v>
+        <v>511</v>
       </c>
       <c r="I16" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="O16" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="R16" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="17" spans="5:18" x14ac:dyDescent="0.35">
       <c r="E17" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I17" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="O17" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="R17" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="18" spans="5:18" x14ac:dyDescent="0.35">
       <c r="E18" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="I18" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
     <row r="19" spans="5:18" x14ac:dyDescent="0.35">
       <c r="E19" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="20" spans="5:18" x14ac:dyDescent="0.35">
       <c r="E20" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="21" spans="5:18" x14ac:dyDescent="0.35">
       <c r="E21" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="22" spans="5:18" x14ac:dyDescent="0.35">
       <c r="E22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="23" spans="5:18" x14ac:dyDescent="0.35">
       <c r="E23" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="24" spans="5:18" x14ac:dyDescent="0.35">
       <c r="E24" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="25" spans="5:18" x14ac:dyDescent="0.35">
       <c r="E25" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
   </sheetData>
@@ -4254,12 +4371,180 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="19.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
+        <v>471</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>472</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>473</v>
+      </c>
+      <c r="D1" s="12"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="12" t="s">
+        <v>474</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>475</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>476</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="12" t="s">
+        <v>478</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>479</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>480</v>
+      </c>
+      <c r="D3" s="12"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="12" t="s">
+        <v>481</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>482</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>483</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="12" t="s">
+        <v>484</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>485</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>486</v>
+      </c>
+      <c r="D5" s="12"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>489</v>
+      </c>
+      <c r="D6" s="12"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="12" t="s">
+        <v>490</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>505</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>504</v>
+      </c>
+      <c r="D7" s="12"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="12" t="s">
+        <v>491</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="12"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>494</v>
+      </c>
+      <c r="D9" s="12"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="12" t="s">
+        <v>495</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>496</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>497</v>
+      </c>
+      <c r="D10" s="12"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="12" t="s">
+        <v>498</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>499</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>500</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="12" t="s">
+        <v>501</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>502</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>503</v>
+      </c>
+      <c r="D12" s="12"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C1" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C6" r:id="rId4"/>
+    <hyperlink ref="C9" r:id="rId5"/>
+    <hyperlink ref="C10" r:id="rId6"/>
+    <hyperlink ref="C11" r:id="rId7"/>
+    <hyperlink ref="C12" r:id="rId8"/>
+    <hyperlink ref="C2" r:id="rId9"/>
+    <hyperlink ref="C5" r:id="rId10"/>
+    <hyperlink ref="C7" r:id="rId11"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/OffSeason.xlsx
+++ b/OffSeason.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="572">
   <si>
     <t>Vanja Dolas - CeeDee Nuts</t>
   </si>
@@ -1563,6 +1563,186 @@
   </si>
   <si>
     <t>2021 1.9 BrandonH</t>
+  </si>
+  <si>
+    <t>2022 1 Brandon</t>
+  </si>
+  <si>
+    <t>2022 1 Vanja</t>
+  </si>
+  <si>
+    <t>2022 2 Vanja</t>
+  </si>
+  <si>
+    <t>2022 4 Vanja</t>
+  </si>
+  <si>
+    <t>2022 3 Vanja</t>
+  </si>
+  <si>
+    <t>2022 5 Vanja</t>
+  </si>
+  <si>
+    <t>2022 1 JohnO</t>
+  </si>
+  <si>
+    <t>2022 2 JohnO</t>
+  </si>
+  <si>
+    <t>2022 3 JohnO</t>
+  </si>
+  <si>
+    <t>2022 4 JohnO</t>
+  </si>
+  <si>
+    <t>2022 5 JohnO</t>
+  </si>
+  <si>
+    <t>2022 1 MattH</t>
+  </si>
+  <si>
+    <t>2022 2 MattH</t>
+  </si>
+  <si>
+    <t>2022 3 MattH</t>
+  </si>
+  <si>
+    <t>2022 4 MattH</t>
+  </si>
+  <si>
+    <t>2022 5 MattH</t>
+  </si>
+  <si>
+    <t>2022 2 Brandon</t>
+  </si>
+  <si>
+    <t>2022 3 Brandon</t>
+  </si>
+  <si>
+    <t>2022 4 Brandon</t>
+  </si>
+  <si>
+    <t>2022 5 Brandon</t>
+  </si>
+  <si>
+    <t>2022 1 Zach</t>
+  </si>
+  <si>
+    <t>2022 2 Zach</t>
+  </si>
+  <si>
+    <t>2022 3 Zach</t>
+  </si>
+  <si>
+    <t>2022 4 Zach</t>
+  </si>
+  <si>
+    <t>2022 5 Zach</t>
+  </si>
+  <si>
+    <t>2022 1 Andrew</t>
+  </si>
+  <si>
+    <t>2022 2 Andrew</t>
+  </si>
+  <si>
+    <t>2022 3 Andrew</t>
+  </si>
+  <si>
+    <t>2022 4 Andrew</t>
+  </si>
+  <si>
+    <t>2022 5 Andrew</t>
+  </si>
+  <si>
+    <t>2022 1 MikeW</t>
+  </si>
+  <si>
+    <t>2022 2 MikeW</t>
+  </si>
+  <si>
+    <t>2022 3 MikeW</t>
+  </si>
+  <si>
+    <t>2022 4 MikeW</t>
+  </si>
+  <si>
+    <t>2022 5 MikeW</t>
+  </si>
+  <si>
+    <t>2022 1 AdamW</t>
+  </si>
+  <si>
+    <t>2022 2 AdamW</t>
+  </si>
+  <si>
+    <t>2022 3 AdamW</t>
+  </si>
+  <si>
+    <t>2022 4 AdamW</t>
+  </si>
+  <si>
+    <t>2022 5 AdamW</t>
+  </si>
+  <si>
+    <t>2022 1 MikeR</t>
+  </si>
+  <si>
+    <t>2022 2 MikeR</t>
+  </si>
+  <si>
+    <t>2022 3 MikeR</t>
+  </si>
+  <si>
+    <t>2022 4 MikeR</t>
+  </si>
+  <si>
+    <t>2022 5 MikeR</t>
+  </si>
+  <si>
+    <t>2022 1 Patrick</t>
+  </si>
+  <si>
+    <t>2022 2 Patrick</t>
+  </si>
+  <si>
+    <t>2022 3 Patrick</t>
+  </si>
+  <si>
+    <t>2022 4 Patrick</t>
+  </si>
+  <si>
+    <t>2022 5 Patrick</t>
+  </si>
+  <si>
+    <t>2022 1 BenL</t>
+  </si>
+  <si>
+    <t>2022 2 BenL</t>
+  </si>
+  <si>
+    <t>2022 3 BenL</t>
+  </si>
+  <si>
+    <t>2022 4 BenL</t>
+  </si>
+  <si>
+    <t>2022 5 BenL</t>
+  </si>
+  <si>
+    <t>2022 1 AlanP</t>
+  </si>
+  <si>
+    <t>2022 2 AlanP</t>
+  </si>
+  <si>
+    <t>2022 3 AlanP</t>
+  </si>
+  <si>
+    <t>2022 4 AlanP</t>
+  </si>
+  <si>
+    <t>2022 5 AlanP</t>
   </si>
 </sst>
 </file>
@@ -1658,6 +1838,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1682,8 +1864,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1968,7 +2148,7 @@
   <dimension ref="A1:W75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:M4"/>
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1984,71 +2164,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="E1" s="4" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="E1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="4"/>
+      <c r="F1" s="6"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="6" t="s">
         <v>506</v>
       </c>
-      <c r="N1" s="4"/>
+      <c r="N1" s="6"/>
       <c r="O1" s="1"/>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="4"/>
+      <c r="R1" s="6"/>
       <c r="S1" s="1"/>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="V1" s="4"/>
+      <c r="V1" s="6"/>
       <c r="W1" s="1"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="13" t="s">
         <v>11</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="13" t="s">
         <v>11</v>
       </c>
       <c r="F2" t="s">
         <v>53</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="13" t="s">
         <v>11</v>
       </c>
       <c r="J2" t="s">
         <v>45</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="13" t="s">
         <v>11</v>
       </c>
       <c r="N2" t="s">
         <v>119</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="Q2" s="13" t="s">
         <v>11</v>
       </c>
       <c r="R2" t="s">
         <v>151</v>
       </c>
-      <c r="U2" s="11" t="s">
+      <c r="U2" s="13" t="s">
         <v>11</v>
       </c>
       <c r="V2" t="s">
@@ -2056,89 +2236,90 @@
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A3" s="11"/>
+      <c r="A3" s="13"/>
       <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="11"/>
+      <c r="E3" s="13"/>
       <c r="F3" t="s">
         <v>54</v>
       </c>
-      <c r="I3" s="11"/>
+      <c r="I3" s="13"/>
       <c r="J3" t="s">
         <v>88</v>
       </c>
-      <c r="M3" s="11"/>
+      <c r="M3" s="13"/>
       <c r="N3" t="s">
         <v>120</v>
       </c>
-      <c r="Q3" s="11"/>
+      <c r="Q3" s="13"/>
       <c r="R3" t="s">
         <v>152</v>
       </c>
-      <c r="U3" s="11"/>
+      <c r="U3" s="13"/>
       <c r="V3" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="11"/>
+      <c r="E4" s="13"/>
       <c r="F4" t="s">
         <v>55</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J4" t="s">
         <v>89</v>
       </c>
-      <c r="M4" s="11"/>
+      <c r="M4" s="13"/>
       <c r="N4" t="s">
         <v>121</v>
       </c>
-      <c r="Q4" s="11"/>
+      <c r="Q4" s="13"/>
       <c r="R4" t="s">
         <v>153</v>
       </c>
-      <c r="U4" s="11"/>
+      <c r="U4" s="13"/>
       <c r="V4" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A5" s="8"/>
+      <c r="A5" s="10"/>
       <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="10" t="s">
         <v>14</v>
       </c>
       <c r="F5" t="s">
         <v>56</v>
       </c>
-      <c r="I5" s="8"/>
+      <c r="I5" s="10"/>
       <c r="J5" t="s">
         <v>90</v>
       </c>
-      <c r="M5" s="8" t="s">
+      <c r="L5" s="4"/>
+      <c r="M5" s="10" t="s">
         <v>14</v>
       </c>
       <c r="N5" t="s">
         <v>122</v>
       </c>
-      <c r="Q5" s="8" t="s">
+      <c r="Q5" s="10" t="s">
         <v>14</v>
       </c>
       <c r="R5" t="s">
         <v>154</v>
       </c>
-      <c r="U5" s="8" t="s">
+      <c r="U5" s="10" t="s">
         <v>14</v>
       </c>
       <c r="V5" t="s">
@@ -2146,159 +2327,165 @@
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A6" s="8"/>
+      <c r="A6" s="10"/>
       <c r="B6" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="8"/>
+      <c r="E6" s="10"/>
       <c r="F6" t="s">
         <v>57</v>
       </c>
-      <c r="I6" s="8"/>
+      <c r="I6" s="10"/>
       <c r="J6" t="s">
         <v>91</v>
       </c>
-      <c r="M6" s="8"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="10"/>
       <c r="N6" t="s">
         <v>123</v>
       </c>
-      <c r="Q6" s="8"/>
+      <c r="Q6" s="10"/>
       <c r="R6" t="s">
         <v>155</v>
       </c>
-      <c r="U6" s="8"/>
+      <c r="U6" s="10"/>
       <c r="V6" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A7" s="8"/>
+      <c r="A7" s="10"/>
       <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="8"/>
+      <c r="E7" s="10"/>
       <c r="F7" t="s">
         <v>58</v>
       </c>
-      <c r="I7" s="8"/>
+      <c r="I7" s="10"/>
       <c r="J7" t="s">
         <v>92</v>
       </c>
-      <c r="M7" s="8"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="10"/>
       <c r="N7" t="s">
         <v>124</v>
       </c>
-      <c r="Q7" s="8"/>
+      <c r="Q7" s="10"/>
       <c r="R7" t="s">
         <v>156</v>
       </c>
-      <c r="U7" s="8"/>
+      <c r="U7" s="10"/>
       <c r="V7" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A8" s="8"/>
+      <c r="A8" s="10"/>
       <c r="B8" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="8"/>
+      <c r="E8" s="10"/>
       <c r="F8" t="s">
         <v>59</v>
       </c>
-      <c r="I8" s="8"/>
+      <c r="I8" s="10"/>
       <c r="J8" t="s">
         <v>93</v>
       </c>
-      <c r="M8" s="8"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="10"/>
       <c r="N8" t="s">
         <v>125</v>
       </c>
-      <c r="Q8" s="8"/>
+      <c r="Q8" s="10"/>
       <c r="R8" t="s">
         <v>157</v>
       </c>
-      <c r="U8" s="8"/>
+      <c r="U8" s="10"/>
       <c r="V8" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A9" s="8"/>
+      <c r="A9" s="10"/>
       <c r="B9" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="8"/>
+      <c r="E9" s="10"/>
       <c r="F9" t="s">
         <v>60</v>
       </c>
-      <c r="I9" s="8"/>
+      <c r="I9" s="10"/>
       <c r="J9" t="s">
         <v>94</v>
       </c>
-      <c r="M9" s="8"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="10"/>
       <c r="N9" t="s">
         <v>126</v>
       </c>
-      <c r="Q9" s="8"/>
+      <c r="Q9" s="10"/>
       <c r="R9" t="s">
         <v>158</v>
       </c>
-      <c r="U9" s="8"/>
+      <c r="U9" s="10"/>
       <c r="V9" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="8"/>
+      <c r="E10" s="10"/>
       <c r="F10" t="s">
         <v>61</v>
       </c>
-      <c r="I10" s="8"/>
+      <c r="I10" s="10"/>
       <c r="J10" t="s">
         <v>95</v>
       </c>
-      <c r="M10" s="8"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="10"/>
       <c r="N10" t="s">
         <v>127</v>
       </c>
-      <c r="Q10" s="8"/>
+      <c r="Q10" s="10"/>
       <c r="R10" t="s">
         <v>159</v>
       </c>
-      <c r="U10" s="8"/>
+      <c r="U10" s="10"/>
       <c r="V10" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A11" s="9"/>
+      <c r="A11" s="11"/>
       <c r="B11" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="8"/>
+      <c r="E11" s="10"/>
       <c r="F11" t="s">
         <v>62</v>
       </c>
-      <c r="I11" s="8"/>
+      <c r="I11" s="10"/>
       <c r="J11" t="s">
         <v>118</v>
       </c>
-      <c r="M11" s="8"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="10"/>
       <c r="N11" t="s">
         <v>128</v>
       </c>
-      <c r="Q11" s="8"/>
+      <c r="Q11" s="10"/>
       <c r="R11" t="s">
         <v>160</v>
       </c>
-      <c r="U11" s="9" t="s">
+      <c r="U11" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V11" t="s">
@@ -2306,223 +2493,231 @@
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A12" s="9"/>
+      <c r="A12" s="11"/>
       <c r="B12" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="8"/>
+      <c r="E12" s="10"/>
       <c r="F12" t="s">
         <v>63</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="I12" s="11" t="s">
         <v>21</v>
       </c>
       <c r="J12" t="s">
         <v>96</v>
       </c>
-      <c r="M12" s="9" t="s">
+      <c r="L12" s="4"/>
+      <c r="M12" s="11" t="s">
         <v>21</v>
       </c>
       <c r="N12" t="s">
         <v>129</v>
       </c>
-      <c r="Q12" s="9" t="s">
+      <c r="Q12" s="11" t="s">
         <v>21</v>
       </c>
       <c r="R12" t="s">
         <v>161</v>
       </c>
-      <c r="U12" s="9"/>
+      <c r="U12" s="11"/>
       <c r="V12" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A13" s="9"/>
+      <c r="A13" s="11"/>
       <c r="B13" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F13" t="s">
         <v>64</v>
       </c>
-      <c r="I13" s="9"/>
+      <c r="I13" s="11"/>
       <c r="J13" t="s">
         <v>97</v>
       </c>
-      <c r="M13" s="9"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="11"/>
       <c r="N13" t="s">
         <v>130</v>
       </c>
-      <c r="Q13" s="9"/>
+      <c r="Q13" s="11"/>
       <c r="R13" t="s">
         <v>162</v>
       </c>
-      <c r="U13" s="9"/>
+      <c r="U13" s="11"/>
       <c r="V13" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A14" s="9"/>
+      <c r="A14" s="11"/>
       <c r="B14" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="9"/>
+      <c r="E14" s="11"/>
       <c r="F14" t="s">
         <v>65</v>
       </c>
-      <c r="I14" s="9"/>
+      <c r="I14" s="11"/>
       <c r="J14" t="s">
         <v>98</v>
       </c>
-      <c r="M14" s="9"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="11"/>
       <c r="N14" t="s">
         <v>131</v>
       </c>
-      <c r="Q14" s="9"/>
+      <c r="Q14" s="11"/>
       <c r="R14" t="s">
         <v>163</v>
       </c>
-      <c r="U14" s="9"/>
+      <c r="U14" s="11"/>
       <c r="V14" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A15" s="9"/>
+      <c r="A15" s="11"/>
       <c r="B15" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="9"/>
+      <c r="E15" s="11"/>
       <c r="F15" t="s">
         <v>66</v>
       </c>
-      <c r="I15" s="9"/>
+      <c r="I15" s="11"/>
       <c r="J15" t="s">
         <v>99</v>
       </c>
-      <c r="M15" s="9"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="11"/>
       <c r="N15" t="s">
         <v>132</v>
       </c>
-      <c r="Q15" s="9"/>
+      <c r="Q15" s="11"/>
       <c r="R15" t="s">
         <v>164</v>
       </c>
-      <c r="U15" s="9"/>
+      <c r="U15" s="11"/>
       <c r="V15" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A16" s="9"/>
+      <c r="A16" s="11"/>
       <c r="B16" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="9"/>
+      <c r="E16" s="11"/>
       <c r="F16" t="s">
         <v>67</v>
       </c>
-      <c r="I16" s="9"/>
+      <c r="I16" s="11"/>
       <c r="J16" t="s">
         <v>100</v>
       </c>
-      <c r="M16" s="9"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="11"/>
       <c r="N16" t="s">
         <v>133</v>
       </c>
-      <c r="Q16" s="9"/>
+      <c r="Q16" s="11"/>
       <c r="R16" t="s">
         <v>165</v>
       </c>
-      <c r="U16" s="9"/>
+      <c r="U16" s="11"/>
       <c r="V16" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A17" s="9"/>
+      <c r="A17" s="11"/>
       <c r="B17" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="9"/>
+      <c r="E17" s="11"/>
       <c r="F17" t="s">
         <v>68</v>
       </c>
-      <c r="I17" s="9"/>
+      <c r="I17" s="11"/>
       <c r="J17" t="s">
         <v>101</v>
       </c>
-      <c r="M17" s="9"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="11"/>
       <c r="N17" t="s">
         <v>134</v>
       </c>
-      <c r="Q17" s="9"/>
+      <c r="Q17" s="11"/>
       <c r="R17" t="s">
         <v>166</v>
       </c>
-      <c r="U17" s="9"/>
+      <c r="U17" s="11"/>
       <c r="V17" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A18" s="9"/>
+      <c r="A18" s="11"/>
       <c r="B18" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="9"/>
+      <c r="E18" s="11"/>
       <c r="F18" t="s">
         <v>69</v>
       </c>
-      <c r="I18" s="9"/>
+      <c r="I18" s="11"/>
       <c r="J18" t="s">
         <v>102</v>
       </c>
-      <c r="M18" s="9"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="11"/>
       <c r="N18" t="s">
         <v>135</v>
       </c>
-      <c r="Q18" s="9"/>
+      <c r="Q18" s="11"/>
       <c r="R18" t="s">
         <v>167</v>
       </c>
-      <c r="U18" s="9"/>
+      <c r="U18" s="11"/>
       <c r="V18" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="12" t="s">
         <v>31</v>
       </c>
       <c r="B19" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="9"/>
+      <c r="E19" s="11"/>
       <c r="F19" t="s">
         <v>70</v>
       </c>
-      <c r="I19" s="9"/>
+      <c r="I19" s="11"/>
       <c r="J19" t="s">
         <v>103</v>
       </c>
-      <c r="M19" s="10" t="s">
+      <c r="L19" s="4"/>
+      <c r="M19" s="12" t="s">
         <v>31</v>
       </c>
       <c r="N19" t="s">
         <v>136</v>
       </c>
-      <c r="Q19" s="10" t="s">
+      <c r="Q19" s="12" t="s">
         <v>31</v>
       </c>
       <c r="R19" t="s">
         <v>168</v>
       </c>
-      <c r="U19" s="10" t="s">
+      <c r="U19" s="12" t="s">
         <v>31</v>
       </c>
       <c r="V19" t="s">
@@ -2530,11 +2725,11 @@
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A20" s="10"/>
+      <c r="A20" s="12"/>
       <c r="B20" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="9"/>
+      <c r="E20" s="11"/>
       <c r="F20" t="s">
         <v>71</v>
       </c>
@@ -2544,45 +2739,47 @@
       <c r="J20" t="s">
         <v>104</v>
       </c>
-      <c r="M20" s="10"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="12"/>
       <c r="N20" t="s">
         <v>137</v>
       </c>
-      <c r="Q20" s="10"/>
+      <c r="Q20" s="12"/>
       <c r="R20" t="s">
         <v>169</v>
       </c>
-      <c r="U20" s="10"/>
+      <c r="U20" s="12"/>
       <c r="V20" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A21" s="10"/>
+      <c r="A21" s="12"/>
       <c r="B21" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="12" t="s">
         <v>31</v>
       </c>
       <c r="F21" t="s">
         <v>72</v>
       </c>
-      <c r="I21" s="6" t="s">
+      <c r="I21" s="8" t="s">
         <v>37</v>
       </c>
       <c r="J21" t="s">
         <v>105</v>
       </c>
-      <c r="M21" s="10"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="12"/>
       <c r="N21" t="s">
         <v>138</v>
       </c>
-      <c r="Q21" s="10"/>
+      <c r="Q21" s="12"/>
       <c r="R21" t="s">
         <v>183</v>
       </c>
-      <c r="U21" s="6" t="s">
+      <c r="U21" s="8" t="s">
         <v>37</v>
       </c>
       <c r="V21" t="s">
@@ -2590,115 +2787,119 @@
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A22" s="10"/>
+      <c r="A22" s="12"/>
       <c r="B22" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="10"/>
+      <c r="E22" s="12"/>
       <c r="F22" t="s">
         <v>73</v>
       </c>
-      <c r="I22" s="6"/>
+      <c r="I22" s="8"/>
       <c r="J22" t="s">
         <v>106</v>
       </c>
-      <c r="M22" s="10"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="12"/>
       <c r="N22" t="s">
         <v>139</v>
       </c>
-      <c r="Q22" s="6" t="s">
+      <c r="Q22" s="8" t="s">
         <v>37</v>
       </c>
       <c r="R22" t="s">
         <v>170</v>
       </c>
-      <c r="U22" s="6"/>
+      <c r="U22" s="8"/>
       <c r="V22" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="8" t="s">
         <v>37</v>
       </c>
       <c r="B23" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="10"/>
+      <c r="E23" s="12"/>
       <c r="F23" t="s">
         <v>74</v>
       </c>
-      <c r="I23" s="6"/>
+      <c r="I23" s="8"/>
       <c r="J23" t="s">
         <v>107</v>
       </c>
-      <c r="M23" s="6" t="s">
+      <c r="L23" s="4"/>
+      <c r="M23" s="8" t="s">
         <v>37</v>
       </c>
       <c r="N23" t="s">
         <v>140</v>
       </c>
-      <c r="Q23" s="6"/>
+      <c r="Q23" s="8"/>
       <c r="R23" t="s">
         <v>171</v>
       </c>
-      <c r="U23" s="6"/>
+      <c r="U23" s="8"/>
       <c r="V23" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A24" s="6"/>
+      <c r="A24" s="8"/>
       <c r="B24" t="s">
         <v>39</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="8" t="s">
         <v>37</v>
       </c>
       <c r="F24" t="s">
         <v>75</v>
       </c>
-      <c r="I24" s="6"/>
+      <c r="I24" s="8"/>
       <c r="J24" t="s">
         <v>108</v>
       </c>
-      <c r="M24" s="6"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="8"/>
       <c r="N24" t="s">
         <v>141</v>
       </c>
-      <c r="Q24" s="6"/>
+      <c r="Q24" s="8"/>
       <c r="R24" t="s">
         <v>172</v>
       </c>
-      <c r="U24" s="6"/>
+      <c r="U24" s="8"/>
       <c r="V24" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A25" s="6"/>
+      <c r="A25" s="8"/>
       <c r="B25" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="6"/>
+      <c r="E25" s="8"/>
       <c r="F25" t="s">
         <v>76</v>
       </c>
-      <c r="I25" s="7" t="s">
+      <c r="I25" s="9" t="s">
         <v>36</v>
       </c>
       <c r="J25" t="s">
         <v>109</v>
       </c>
-      <c r="M25" s="6"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="8"/>
       <c r="N25" t="s">
         <v>142</v>
       </c>
-      <c r="Q25" s="6"/>
+      <c r="Q25" s="8"/>
       <c r="R25" t="s">
         <v>173</v>
       </c>
-      <c r="U25" s="7" t="s">
+      <c r="U25" s="9" t="s">
         <v>36</v>
       </c>
       <c r="V25" t="s">
@@ -2706,115 +2907,119 @@
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="9" t="s">
         <v>36</v>
       </c>
       <c r="B26" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="6"/>
+      <c r="E26" s="8"/>
       <c r="F26" t="s">
         <v>77</v>
       </c>
-      <c r="I26" s="7"/>
+      <c r="I26" s="9"/>
       <c r="J26" t="s">
         <v>110</v>
       </c>
-      <c r="M26" s="7" t="s">
+      <c r="L26" s="4"/>
+      <c r="M26" s="9" t="s">
         <v>36</v>
       </c>
       <c r="N26" t="s">
         <v>143</v>
       </c>
-      <c r="Q26" s="7" t="s">
+      <c r="Q26" s="9" t="s">
         <v>36</v>
       </c>
       <c r="R26" t="s">
         <v>174</v>
       </c>
-      <c r="U26" s="7"/>
+      <c r="U26" s="9"/>
       <c r="V26" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A27" s="7"/>
+      <c r="A27" s="9"/>
       <c r="B27" t="s">
         <v>42</v>
       </c>
-      <c r="E27" s="6"/>
+      <c r="E27" s="8"/>
       <c r="F27" t="s">
         <v>78</v>
       </c>
-      <c r="I27" s="7"/>
+      <c r="I27" s="9"/>
       <c r="J27" t="s">
         <v>111</v>
       </c>
-      <c r="M27" s="7"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="9"/>
       <c r="N27" t="s">
         <v>144</v>
       </c>
-      <c r="Q27" s="7"/>
+      <c r="Q27" s="9"/>
       <c r="R27" t="s">
         <v>175</v>
       </c>
-      <c r="U27" s="7"/>
+      <c r="U27" s="9"/>
       <c r="V27" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A28" s="7"/>
+      <c r="A28" s="9"/>
       <c r="B28" t="s">
         <v>43</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="9" t="s">
         <v>36</v>
       </c>
       <c r="F28" t="s">
         <v>79</v>
       </c>
-      <c r="I28" s="7"/>
+      <c r="I28" s="9"/>
       <c r="J28" t="s">
         <v>112</v>
       </c>
-      <c r="M28" s="7"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="9"/>
       <c r="N28" t="s">
         <v>145</v>
       </c>
-      <c r="Q28" s="7"/>
+      <c r="Q28" s="9"/>
       <c r="R28" t="s">
         <v>176</v>
       </c>
-      <c r="U28" s="7"/>
+      <c r="U28" s="9"/>
       <c r="V28" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A29" s="7"/>
+      <c r="A29" s="9"/>
       <c r="B29" t="s">
         <v>44</v>
       </c>
-      <c r="E29" s="7"/>
+      <c r="E29" s="9"/>
       <c r="F29" t="s">
         <v>80</v>
       </c>
-      <c r="I29" s="5" t="s">
+      <c r="I29" s="7" t="s">
         <v>46</v>
       </c>
       <c r="J29" t="s">
         <v>113</v>
       </c>
-      <c r="M29" s="7"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="9"/>
       <c r="N29" t="s">
         <v>146</v>
       </c>
-      <c r="Q29" s="7"/>
+      <c r="Q29" s="9"/>
       <c r="R29" t="s">
         <v>177</v>
       </c>
-      <c r="U29" s="5" t="s">
+      <c r="U29" s="7" t="s">
         <v>46</v>
       </c>
       <c r="V29" t="s">
@@ -2822,217 +3027,219 @@
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A30" s="7"/>
+      <c r="A30" s="9"/>
       <c r="B30" t="s">
         <v>45</v>
       </c>
-      <c r="E30" s="7"/>
+      <c r="E30" s="9"/>
       <c r="F30" t="s">
         <v>81</v>
       </c>
-      <c r="I30" s="5"/>
+      <c r="I30" s="7"/>
       <c r="J30" t="s">
         <v>114</v>
       </c>
-      <c r="M30" s="5" t="s">
+      <c r="L30" s="4"/>
+      <c r="M30" s="7" t="s">
         <v>46</v>
       </c>
       <c r="N30" t="s">
         <v>147</v>
       </c>
-      <c r="Q30" s="5" t="s">
+      <c r="Q30" s="7" t="s">
         <v>46</v>
       </c>
       <c r="R30" t="s">
         <v>178</v>
       </c>
-      <c r="U30" s="5"/>
+      <c r="U30" s="7"/>
       <c r="V30" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="7" t="s">
         <v>46</v>
       </c>
       <c r="B31" t="s">
         <v>47</v>
       </c>
-      <c r="E31" s="7"/>
+      <c r="E31" s="9"/>
       <c r="F31" t="s">
         <v>82</v>
       </c>
-      <c r="I31" s="5"/>
+      <c r="I31" s="7"/>
       <c r="J31" t="s">
         <v>115</v>
       </c>
-      <c r="M31" s="5"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="7"/>
       <c r="N31" t="s">
         <v>148</v>
       </c>
-      <c r="Q31" s="5"/>
+      <c r="Q31" s="7"/>
       <c r="R31" t="s">
         <v>179</v>
       </c>
-      <c r="U31" s="5"/>
+      <c r="U31" s="7"/>
       <c r="V31" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A32" s="5"/>
+      <c r="A32" s="7"/>
       <c r="B32" t="s">
         <v>48</v>
       </c>
-      <c r="E32" s="7"/>
+      <c r="E32" s="9"/>
       <c r="F32" t="s">
         <v>83</v>
       </c>
-      <c r="I32" s="5"/>
+      <c r="I32" s="7"/>
       <c r="J32" t="s">
         <v>116</v>
       </c>
-      <c r="M32" s="5"/>
+      <c r="M32" s="7"/>
       <c r="N32" t="s">
         <v>149</v>
       </c>
-      <c r="Q32" s="5"/>
+      <c r="Q32" s="7"/>
       <c r="R32" t="s">
         <v>180</v>
       </c>
-      <c r="U32" s="5"/>
+      <c r="U32" s="7"/>
       <c r="V32" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A33" s="5"/>
+      <c r="A33" s="7"/>
       <c r="B33" t="s">
         <v>49</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="7" t="s">
         <v>46</v>
       </c>
       <c r="F33" t="s">
         <v>84</v>
       </c>
-      <c r="I33" s="5"/>
+      <c r="I33" s="7"/>
       <c r="J33" t="s">
         <v>117</v>
       </c>
-      <c r="M33" s="5"/>
+      <c r="M33" s="7"/>
       <c r="N33" t="s">
         <v>150</v>
       </c>
-      <c r="Q33" s="5"/>
+      <c r="Q33" s="7"/>
       <c r="R33" t="s">
         <v>181</v>
       </c>
-      <c r="U33" s="5"/>
+      <c r="U33" s="7"/>
       <c r="V33" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A34" s="5"/>
+      <c r="A34" s="7"/>
       <c r="B34" t="s">
         <v>50</v>
       </c>
-      <c r="E34" s="5"/>
+      <c r="E34" s="7"/>
       <c r="F34" t="s">
         <v>85</v>
       </c>
-      <c r="Q34" s="5"/>
+      <c r="Q34" s="7"/>
       <c r="R34" t="s">
         <v>182</v>
       </c>
       <c r="U34" s="3"/>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A35" s="5"/>
+      <c r="A35" s="7"/>
       <c r="B35" t="s">
         <v>51</v>
       </c>
-      <c r="E35" s="5"/>
+      <c r="E35" s="7"/>
       <c r="F35" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A36" s="5"/>
+      <c r="A36" s="7"/>
       <c r="B36" t="s">
         <v>52</v>
       </c>
-      <c r="E36" s="5"/>
+      <c r="E36" s="7"/>
       <c r="F36" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="E40" s="4" t="s">
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="E40" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="I40" s="4" t="s">
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="I40" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
       <c r="L40" s="1"/>
-      <c r="M40" s="4" t="s">
+      <c r="M40" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N40" s="4"/>
+      <c r="N40" s="6"/>
       <c r="O40" s="1"/>
-      <c r="Q40" s="4" t="s">
+      <c r="Q40" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="R40" s="4"/>
+      <c r="R40" s="6"/>
       <c r="S40" s="1"/>
-      <c r="U40" s="4" t="s">
+      <c r="U40" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="V40" s="4"/>
+      <c r="V40" s="6"/>
       <c r="W40" s="1"/>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="13" t="s">
         <v>11</v>
       </c>
       <c r="B41" t="s">
         <v>216</v>
       </c>
-      <c r="E41" s="11" t="s">
+      <c r="E41" s="13" t="s">
         <v>11</v>
       </c>
       <c r="F41" t="s">
         <v>251</v>
       </c>
-      <c r="I41" s="11" t="s">
+      <c r="I41" s="13" t="s">
         <v>11</v>
       </c>
       <c r="J41" t="s">
         <v>286</v>
       </c>
-      <c r="M41" s="11" t="s">
+      <c r="M41" s="13" t="s">
         <v>11</v>
       </c>
       <c r="N41" t="s">
         <v>321</v>
       </c>
-      <c r="Q41" s="11" t="s">
+      <c r="Q41" s="13" t="s">
         <v>11</v>
       </c>
       <c r="R41" t="s">
         <v>353</v>
       </c>
-      <c r="U41" s="11" t="s">
+      <c r="U41" s="13" t="s">
         <v>11</v>
       </c>
       <c r="V41" t="s">
@@ -3040,59 +3247,59 @@
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A42" s="11"/>
+      <c r="A42" s="13"/>
       <c r="B42" t="s">
         <v>217</v>
       </c>
-      <c r="E42" s="11"/>
+      <c r="E42" s="13"/>
       <c r="F42" t="s">
         <v>252</v>
       </c>
-      <c r="I42" s="11"/>
+      <c r="I42" s="13"/>
       <c r="J42" t="s">
         <v>287</v>
       </c>
-      <c r="M42" s="11"/>
+      <c r="M42" s="13"/>
       <c r="N42" t="s">
         <v>322</v>
       </c>
-      <c r="Q42" s="11"/>
+      <c r="Q42" s="13"/>
       <c r="R42" t="s">
         <v>354</v>
       </c>
-      <c r="U42" s="11"/>
+      <c r="U42" s="13"/>
       <c r="V42" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B43" t="s">
         <v>218</v>
       </c>
-      <c r="E43" s="11"/>
+      <c r="E43" s="13"/>
       <c r="F43" t="s">
         <v>253</v>
       </c>
-      <c r="I43" s="8" t="s">
+      <c r="I43" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J43" t="s">
         <v>288</v>
       </c>
-      <c r="M43" s="11"/>
+      <c r="M43" s="13"/>
       <c r="N43" t="s">
         <v>323</v>
       </c>
-      <c r="Q43" s="8" t="s">
+      <c r="Q43" s="10" t="s">
         <v>14</v>
       </c>
       <c r="R43" t="s">
         <v>355</v>
       </c>
-      <c r="U43" s="8" t="s">
+      <c r="U43" s="10" t="s">
         <v>14</v>
       </c>
       <c r="V43" t="s">
@@ -3100,109 +3307,109 @@
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A44" s="8"/>
+      <c r="A44" s="10"/>
       <c r="B44" t="s">
         <v>219</v>
       </c>
-      <c r="E44" s="11"/>
+      <c r="E44" s="13"/>
       <c r="F44" t="s">
         <v>254</v>
       </c>
-      <c r="I44" s="8"/>
+      <c r="I44" s="10"/>
       <c r="J44" t="s">
         <v>289</v>
       </c>
-      <c r="M44" s="8" t="s">
+      <c r="M44" s="10" t="s">
         <v>14</v>
       </c>
       <c r="N44" t="s">
         <v>326</v>
       </c>
-      <c r="Q44" s="8"/>
+      <c r="Q44" s="10"/>
       <c r="R44" t="s">
         <v>356</v>
       </c>
-      <c r="U44" s="8"/>
+      <c r="U44" s="10"/>
       <c r="V44" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A45" s="8"/>
+      <c r="A45" s="10"/>
       <c r="B45" t="s">
         <v>220</v>
       </c>
-      <c r="E45" s="8" t="s">
+      <c r="E45" s="10" t="s">
         <v>14</v>
       </c>
       <c r="F45" t="s">
         <v>255</v>
       </c>
-      <c r="I45" s="8"/>
+      <c r="I45" s="10"/>
       <c r="J45" t="s">
         <v>290</v>
       </c>
-      <c r="M45" s="8"/>
+      <c r="M45" s="10"/>
       <c r="N45" t="s">
         <v>324</v>
       </c>
-      <c r="Q45" s="8"/>
+      <c r="Q45" s="10"/>
       <c r="R45" t="s">
         <v>357</v>
       </c>
-      <c r="U45" s="8"/>
+      <c r="U45" s="10"/>
       <c r="V45" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A46" s="8"/>
+      <c r="A46" s="10"/>
       <c r="B46" t="s">
         <v>221</v>
       </c>
-      <c r="E46" s="8"/>
+      <c r="E46" s="10"/>
       <c r="F46" t="s">
         <v>256</v>
       </c>
-      <c r="I46" s="8"/>
+      <c r="I46" s="10"/>
       <c r="J46" t="s">
         <v>291</v>
       </c>
-      <c r="M46" s="8"/>
+      <c r="M46" s="10"/>
       <c r="N46" t="s">
         <v>325</v>
       </c>
-      <c r="Q46" s="8"/>
+      <c r="Q46" s="10"/>
       <c r="R46" t="s">
         <v>358</v>
       </c>
-      <c r="U46" s="8"/>
+      <c r="U46" s="10"/>
       <c r="V46" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A47" s="8"/>
+      <c r="A47" s="10"/>
       <c r="B47" t="s">
         <v>222</v>
       </c>
-      <c r="E47" s="8"/>
+      <c r="E47" s="10"/>
       <c r="F47" t="s">
         <v>257</v>
       </c>
-      <c r="I47" s="8"/>
+      <c r="I47" s="10"/>
       <c r="J47" t="s">
         <v>292</v>
       </c>
-      <c r="M47" s="8"/>
+      <c r="M47" s="10"/>
       <c r="N47" t="s">
         <v>327</v>
       </c>
-      <c r="Q47" s="8"/>
+      <c r="Q47" s="10"/>
       <c r="R47" t="s">
         <v>359</v>
       </c>
-      <c r="U47" s="9" t="s">
+      <c r="U47" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V47" t="s">
@@ -3210,215 +3417,215 @@
       </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A48" s="8"/>
+      <c r="A48" s="10"/>
       <c r="B48" t="s">
         <v>223</v>
       </c>
-      <c r="E48" s="8"/>
+      <c r="E48" s="10"/>
       <c r="F48" t="s">
         <v>258</v>
       </c>
-      <c r="I48" s="8"/>
+      <c r="I48" s="10"/>
       <c r="J48" t="s">
         <v>293</v>
       </c>
-      <c r="M48" s="8"/>
+      <c r="M48" s="10"/>
       <c r="N48" t="s">
         <v>328</v>
       </c>
-      <c r="Q48" s="8"/>
+      <c r="Q48" s="10"/>
       <c r="R48" t="s">
         <v>360</v>
       </c>
-      <c r="U48" s="9"/>
+      <c r="U48" s="11"/>
       <c r="V48" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A49" s="8"/>
+      <c r="A49" s="10"/>
       <c r="B49" t="s">
         <v>224</v>
       </c>
-      <c r="E49" s="8"/>
+      <c r="E49" s="10"/>
       <c r="F49" t="s">
         <v>259</v>
       </c>
-      <c r="I49" s="8"/>
+      <c r="I49" s="10"/>
       <c r="J49" t="s">
         <v>294</v>
       </c>
-      <c r="M49" s="8"/>
+      <c r="M49" s="10"/>
       <c r="N49" t="s">
         <v>329</v>
       </c>
-      <c r="Q49" s="9" t="s">
+      <c r="Q49" s="11" t="s">
         <v>21</v>
       </c>
       <c r="R49" t="s">
         <v>361</v>
       </c>
-      <c r="U49" s="9"/>
+      <c r="U49" s="11"/>
       <c r="V49" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A50" s="8"/>
+      <c r="A50" s="10"/>
       <c r="B50" t="s">
         <v>225</v>
       </c>
-      <c r="E50" s="8"/>
+      <c r="E50" s="10"/>
       <c r="F50" t="s">
         <v>260</v>
       </c>
-      <c r="I50" s="8"/>
+      <c r="I50" s="10"/>
       <c r="J50" t="s">
         <v>295</v>
       </c>
-      <c r="M50" s="8"/>
+      <c r="M50" s="10"/>
       <c r="N50" t="s">
         <v>330</v>
       </c>
-      <c r="Q50" s="9"/>
+      <c r="Q50" s="11"/>
       <c r="R50" t="s">
         <v>362</v>
       </c>
-      <c r="U50" s="9"/>
+      <c r="U50" s="11"/>
       <c r="V50" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A51" s="9" t="s">
+      <c r="A51" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B51" t="s">
         <v>226</v>
       </c>
-      <c r="E51" s="9" t="s">
+      <c r="E51" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F51" t="s">
         <v>261</v>
       </c>
-      <c r="I51" s="9" t="s">
+      <c r="I51" s="11" t="s">
         <v>21</v>
       </c>
       <c r="J51" t="s">
         <v>296</v>
       </c>
-      <c r="M51" s="9" t="s">
+      <c r="M51" s="11" t="s">
         <v>21</v>
       </c>
       <c r="N51" t="s">
         <v>331</v>
       </c>
-      <c r="Q51" s="9"/>
+      <c r="Q51" s="11"/>
       <c r="R51" t="s">
         <v>363</v>
       </c>
-      <c r="U51" s="9"/>
+      <c r="U51" s="11"/>
       <c r="V51" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A52" s="9"/>
+      <c r="A52" s="11"/>
       <c r="B52" t="s">
         <v>228</v>
       </c>
-      <c r="E52" s="9"/>
+      <c r="E52" s="11"/>
       <c r="F52" t="s">
         <v>262</v>
       </c>
-      <c r="I52" s="9"/>
+      <c r="I52" s="11"/>
       <c r="J52" t="s">
         <v>297</v>
       </c>
-      <c r="M52" s="9"/>
+      <c r="M52" s="11"/>
       <c r="N52" t="s">
         <v>332</v>
       </c>
-      <c r="Q52" s="9"/>
+      <c r="Q52" s="11"/>
       <c r="R52" t="s">
         <v>364</v>
       </c>
-      <c r="U52" s="9"/>
+      <c r="U52" s="11"/>
       <c r="V52" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A53" s="9"/>
+      <c r="A53" s="11"/>
       <c r="B53" t="s">
         <v>227</v>
       </c>
-      <c r="E53" s="9"/>
+      <c r="E53" s="11"/>
       <c r="F53" t="s">
         <v>263</v>
       </c>
-      <c r="I53" s="9"/>
+      <c r="I53" s="11"/>
       <c r="J53" t="s">
         <v>298</v>
       </c>
-      <c r="M53" s="9"/>
+      <c r="M53" s="11"/>
       <c r="N53" t="s">
         <v>333</v>
       </c>
-      <c r="Q53" s="9"/>
+      <c r="Q53" s="11"/>
       <c r="R53" t="s">
         <v>365</v>
       </c>
-      <c r="U53" s="9"/>
+      <c r="U53" s="11"/>
       <c r="V53" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A54" s="9"/>
+      <c r="A54" s="11"/>
       <c r="B54" t="s">
         <v>229</v>
       </c>
-      <c r="E54" s="9"/>
+      <c r="E54" s="11"/>
       <c r="F54" t="s">
         <v>264</v>
       </c>
-      <c r="I54" s="9"/>
+      <c r="I54" s="11"/>
       <c r="J54" t="s">
         <v>299</v>
       </c>
-      <c r="M54" s="9"/>
+      <c r="M54" s="11"/>
       <c r="N54" t="s">
         <v>334</v>
       </c>
-      <c r="Q54" s="9"/>
+      <c r="Q54" s="11"/>
       <c r="R54" t="s">
         <v>366</v>
       </c>
-      <c r="U54" s="9"/>
+      <c r="U54" s="11"/>
       <c r="V54" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A55" s="9"/>
+      <c r="A55" s="11"/>
       <c r="B55" t="s">
         <v>230</v>
       </c>
-      <c r="E55" s="9"/>
+      <c r="E55" s="11"/>
       <c r="F55" t="s">
         <v>265</v>
       </c>
-      <c r="I55" s="9"/>
+      <c r="I55" s="11"/>
       <c r="J55" t="s">
         <v>300</v>
       </c>
-      <c r="M55" s="9"/>
+      <c r="M55" s="11"/>
       <c r="N55" t="s">
         <v>335</v>
       </c>
-      <c r="Q55" s="9"/>
+      <c r="Q55" s="11"/>
       <c r="R55" t="s">
         <v>367</v>
       </c>
@@ -3430,27 +3637,27 @@
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A56" s="9"/>
+      <c r="A56" s="11"/>
       <c r="B56" t="s">
         <v>231</v>
       </c>
-      <c r="E56" s="9"/>
+      <c r="E56" s="11"/>
       <c r="F56" t="s">
         <v>266</v>
       </c>
-      <c r="I56" s="9"/>
+      <c r="I56" s="11"/>
       <c r="J56" t="s">
         <v>301</v>
       </c>
-      <c r="M56" s="9"/>
+      <c r="M56" s="11"/>
       <c r="N56" t="s">
         <v>336</v>
       </c>
-      <c r="Q56" s="9"/>
+      <c r="Q56" s="11"/>
       <c r="R56" t="s">
         <v>368</v>
       </c>
-      <c r="U56" s="6" t="s">
+      <c r="U56" s="8" t="s">
         <v>37</v>
       </c>
       <c r="V56" t="s">
@@ -3458,83 +3665,83 @@
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A57" s="9"/>
+      <c r="A57" s="11"/>
       <c r="B57" t="s">
         <v>232</v>
       </c>
-      <c r="E57" s="9"/>
+      <c r="E57" s="11"/>
       <c r="F57" t="s">
         <v>267</v>
       </c>
-      <c r="I57" s="9"/>
+      <c r="I57" s="11"/>
       <c r="J57" t="s">
         <v>302</v>
       </c>
-      <c r="M57" s="9"/>
+      <c r="M57" s="11"/>
       <c r="N57" t="s">
         <v>337</v>
       </c>
-      <c r="Q57" s="9"/>
+      <c r="Q57" s="11"/>
       <c r="R57" t="s">
         <v>369</v>
       </c>
-      <c r="U57" s="6"/>
+      <c r="U57" s="8"/>
       <c r="V57" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A58" s="9"/>
+      <c r="A58" s="11"/>
       <c r="B58" t="s">
         <v>233</v>
       </c>
-      <c r="E58" s="9"/>
+      <c r="E58" s="11"/>
       <c r="F58" t="s">
         <v>268</v>
       </c>
-      <c r="I58" s="9"/>
+      <c r="I58" s="11"/>
       <c r="J58" t="s">
         <v>303</v>
       </c>
-      <c r="M58" s="9"/>
+      <c r="M58" s="11"/>
       <c r="N58" t="s">
         <v>338</v>
       </c>
-      <c r="Q58" s="9"/>
+      <c r="Q58" s="11"/>
       <c r="R58" t="s">
         <v>370</v>
       </c>
-      <c r="U58" s="6"/>
+      <c r="U58" s="8"/>
       <c r="V58" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A59" s="9"/>
+      <c r="A59" s="11"/>
       <c r="B59" t="s">
         <v>234</v>
       </c>
-      <c r="E59" s="9"/>
+      <c r="E59" s="11"/>
       <c r="F59" t="s">
         <v>269</v>
       </c>
-      <c r="I59" s="10" t="s">
+      <c r="I59" s="12" t="s">
         <v>31</v>
       </c>
       <c r="J59" t="s">
         <v>304</v>
       </c>
-      <c r="M59" s="10" t="s">
+      <c r="M59" s="12" t="s">
         <v>31</v>
       </c>
       <c r="N59" t="s">
         <v>339</v>
       </c>
-      <c r="Q59" s="9"/>
+      <c r="Q59" s="11"/>
       <c r="R59" t="s">
         <v>371</v>
       </c>
-      <c r="U59" s="7" t="s">
+      <c r="U59" s="9" t="s">
         <v>36</v>
       </c>
       <c r="V59" t="s">
@@ -3542,143 +3749,143 @@
       </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A60" s="9"/>
+      <c r="A60" s="11"/>
       <c r="B60" t="s">
         <v>235</v>
       </c>
-      <c r="E60" s="9"/>
+      <c r="E60" s="11"/>
       <c r="F60" t="s">
         <v>270</v>
       </c>
-      <c r="I60" s="10"/>
+      <c r="I60" s="12"/>
       <c r="J60" t="s">
         <v>305</v>
       </c>
-      <c r="M60" s="10"/>
+      <c r="M60" s="12"/>
       <c r="N60" t="s">
         <v>340</v>
       </c>
-      <c r="Q60" s="9"/>
+      <c r="Q60" s="11"/>
       <c r="R60" t="s">
         <v>372</v>
       </c>
-      <c r="U60" s="7"/>
+      <c r="U60" s="9"/>
       <c r="V60" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A61" s="10" t="s">
+      <c r="A61" s="12" t="s">
         <v>31</v>
       </c>
       <c r="B61" t="s">
         <v>236</v>
       </c>
-      <c r="E61" s="9"/>
+      <c r="E61" s="11"/>
       <c r="F61" t="s">
         <v>271</v>
       </c>
-      <c r="I61" s="10"/>
+      <c r="I61" s="12"/>
       <c r="J61" t="s">
         <v>306</v>
       </c>
-      <c r="M61" s="10"/>
+      <c r="M61" s="12"/>
       <c r="N61" t="s">
         <v>341</v>
       </c>
-      <c r="Q61" s="9"/>
+      <c r="Q61" s="11"/>
       <c r="R61" t="s">
         <v>373</v>
       </c>
-      <c r="U61" s="7"/>
+      <c r="U61" s="9"/>
       <c r="V61" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A62" s="10"/>
+      <c r="A62" s="12"/>
       <c r="B62" t="s">
         <v>237</v>
       </c>
-      <c r="E62" s="10" t="s">
+      <c r="E62" s="12" t="s">
         <v>31</v>
       </c>
       <c r="F62" t="s">
         <v>272</v>
       </c>
-      <c r="I62" s="10"/>
+      <c r="I62" s="12"/>
       <c r="J62" t="s">
         <v>307</v>
       </c>
-      <c r="M62" s="6" t="s">
+      <c r="M62" s="8" t="s">
         <v>37</v>
       </c>
       <c r="N62" t="s">
         <v>342</v>
       </c>
-      <c r="Q62" s="10" t="s">
+      <c r="Q62" s="12" t="s">
         <v>31</v>
       </c>
       <c r="R62" t="s">
         <v>386</v>
       </c>
-      <c r="U62" s="7"/>
+      <c r="U62" s="9"/>
       <c r="V62" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A63" s="10"/>
+      <c r="A63" s="12"/>
       <c r="B63" t="s">
         <v>238</v>
       </c>
-      <c r="E63" s="10"/>
+      <c r="E63" s="12"/>
       <c r="F63" t="s">
         <v>273</v>
       </c>
-      <c r="I63" s="6" t="s">
+      <c r="I63" s="8" t="s">
         <v>37</v>
       </c>
       <c r="J63" t="s">
         <v>308</v>
       </c>
-      <c r="M63" s="6"/>
+      <c r="M63" s="8"/>
       <c r="N63" t="s">
         <v>343</v>
       </c>
-      <c r="Q63" s="10"/>
+      <c r="Q63" s="12"/>
       <c r="R63" t="s">
         <v>387</v>
       </c>
-      <c r="U63" s="7"/>
+      <c r="U63" s="9"/>
       <c r="V63" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A64" s="10"/>
+      <c r="A64" s="12"/>
       <c r="B64" t="s">
         <v>239</v>
       </c>
-      <c r="E64" s="10"/>
+      <c r="E64" s="12"/>
       <c r="F64" t="s">
         <v>274</v>
       </c>
-      <c r="I64" s="6"/>
+      <c r="I64" s="8"/>
       <c r="J64" t="s">
         <v>309</v>
       </c>
-      <c r="M64" s="6"/>
+      <c r="M64" s="8"/>
       <c r="N64" t="s">
         <v>344</v>
       </c>
-      <c r="Q64" s="6" t="s">
+      <c r="Q64" s="8" t="s">
         <v>37</v>
       </c>
       <c r="R64" t="s">
         <v>374</v>
       </c>
-      <c r="U64" s="5" t="s">
+      <c r="U64" s="7" t="s">
         <v>46</v>
       </c>
       <c r="V64" t="s">
@@ -3686,213 +3893,213 @@
       </c>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A65" s="6" t="s">
+      <c r="A65" s="8" t="s">
         <v>37</v>
       </c>
       <c r="B65" t="s">
         <v>240</v>
       </c>
-      <c r="E65" s="10"/>
+      <c r="E65" s="12"/>
       <c r="F65" t="s">
         <v>275</v>
       </c>
-      <c r="I65" s="6"/>
+      <c r="I65" s="8"/>
       <c r="J65" t="s">
         <v>310</v>
       </c>
-      <c r="M65" s="7" t="s">
+      <c r="M65" s="9" t="s">
         <v>36</v>
       </c>
       <c r="N65" t="s">
         <v>345</v>
       </c>
-      <c r="Q65" s="6"/>
+      <c r="Q65" s="8"/>
       <c r="R65" t="s">
         <v>375</v>
       </c>
-      <c r="U65" s="5"/>
+      <c r="U65" s="7"/>
       <c r="V65" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A66" s="6"/>
+      <c r="A66" s="8"/>
       <c r="B66" t="s">
         <v>241</v>
       </c>
-      <c r="E66" s="6" t="s">
+      <c r="E66" s="8" t="s">
         <v>37</v>
       </c>
       <c r="F66" t="s">
         <v>276</v>
       </c>
-      <c r="I66" s="6"/>
+      <c r="I66" s="8"/>
       <c r="J66" t="s">
         <v>311</v>
       </c>
-      <c r="M66" s="7"/>
+      <c r="M66" s="9"/>
       <c r="N66" t="s">
         <v>346</v>
       </c>
-      <c r="Q66" s="6"/>
+      <c r="Q66" s="8"/>
       <c r="R66" t="s">
         <v>376</v>
       </c>
-      <c r="U66" s="5"/>
+      <c r="U66" s="7"/>
       <c r="V66" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A67" s="6"/>
+      <c r="A67" s="8"/>
       <c r="B67" t="s">
         <v>242</v>
       </c>
-      <c r="E67" s="6"/>
+      <c r="E67" s="8"/>
       <c r="F67" t="s">
         <v>277</v>
       </c>
-      <c r="I67" s="7" t="s">
+      <c r="I67" s="9" t="s">
         <v>36</v>
       </c>
       <c r="J67" t="s">
         <v>312</v>
       </c>
-      <c r="M67" s="7"/>
+      <c r="M67" s="9"/>
       <c r="N67" t="s">
         <v>347</v>
       </c>
-      <c r="Q67" s="6"/>
+      <c r="Q67" s="8"/>
       <c r="R67" t="s">
         <v>377</v>
       </c>
-      <c r="U67" s="5"/>
+      <c r="U67" s="7"/>
       <c r="V67" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A68" s="7" t="s">
+      <c r="A68" s="9" t="s">
         <v>36</v>
       </c>
       <c r="B68" t="s">
         <v>243</v>
       </c>
-      <c r="E68" s="6"/>
+      <c r="E68" s="8"/>
       <c r="F68" t="s">
         <v>278</v>
       </c>
-      <c r="I68" s="7"/>
+      <c r="I68" s="9"/>
       <c r="J68" t="s">
         <v>313</v>
       </c>
-      <c r="M68" s="7"/>
+      <c r="M68" s="9"/>
       <c r="N68" t="s">
         <v>348</v>
       </c>
-      <c r="Q68" s="7" t="s">
+      <c r="Q68" s="9" t="s">
         <v>36</v>
       </c>
       <c r="R68" t="s">
         <v>378</v>
       </c>
-      <c r="U68" s="5"/>
+      <c r="U68" s="7"/>
       <c r="V68" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A69" s="7"/>
+      <c r="A69" s="9"/>
       <c r="B69" t="s">
         <v>244</v>
       </c>
-      <c r="E69" s="7" t="s">
+      <c r="E69" s="9" t="s">
         <v>36</v>
       </c>
       <c r="F69" t="s">
         <v>279</v>
       </c>
-      <c r="I69" s="7"/>
+      <c r="I69" s="9"/>
       <c r="J69" t="s">
         <v>314</v>
       </c>
-      <c r="M69" s="7"/>
+      <c r="M69" s="9"/>
       <c r="N69" t="s">
         <v>349</v>
       </c>
-      <c r="Q69" s="7"/>
+      <c r="Q69" s="9"/>
       <c r="R69" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A70" s="7"/>
+      <c r="A70" s="9"/>
       <c r="B70" t="s">
         <v>245</v>
       </c>
-      <c r="E70" s="7"/>
+      <c r="E70" s="9"/>
       <c r="F70" t="s">
         <v>282</v>
       </c>
-      <c r="I70" s="7"/>
+      <c r="I70" s="9"/>
       <c r="J70" t="s">
         <v>315</v>
       </c>
-      <c r="M70" s="5" t="s">
+      <c r="M70" s="7" t="s">
         <v>46</v>
       </c>
       <c r="N70" t="s">
         <v>350</v>
       </c>
-      <c r="Q70" s="7"/>
+      <c r="Q70" s="9"/>
       <c r="R70" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A71" s="7"/>
+      <c r="A71" s="9"/>
       <c r="B71" t="s">
         <v>247</v>
       </c>
-      <c r="E71" s="7"/>
+      <c r="E71" s="9"/>
       <c r="F71" t="s">
         <v>280</v>
       </c>
-      <c r="I71" s="5" t="s">
+      <c r="I71" s="7" t="s">
         <v>46</v>
       </c>
       <c r="J71" t="s">
         <v>316</v>
       </c>
-      <c r="M71" s="5"/>
+      <c r="M71" s="7"/>
       <c r="N71" t="s">
         <v>351</v>
       </c>
-      <c r="Q71" s="7"/>
+      <c r="Q71" s="9"/>
       <c r="R71" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A72" s="5" t="s">
+      <c r="A72" s="7" t="s">
         <v>46</v>
       </c>
       <c r="B72" t="s">
         <v>246</v>
       </c>
-      <c r="E72" s="7"/>
+      <c r="E72" s="9"/>
       <c r="F72" t="s">
         <v>281</v>
       </c>
-      <c r="I72" s="5"/>
+      <c r="I72" s="7"/>
       <c r="J72" t="s">
         <v>320</v>
       </c>
-      <c r="M72" s="5"/>
+      <c r="M72" s="7"/>
       <c r="N72" t="s">
         <v>352</v>
       </c>
-      <c r="Q72" s="5" t="s">
+      <c r="Q72" s="7" t="s">
         <v>46</v>
       </c>
       <c r="R72" t="s">
@@ -3900,57 +4107,57 @@
       </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A73" s="5"/>
+      <c r="A73" s="7"/>
       <c r="B73" t="s">
         <v>248</v>
       </c>
-      <c r="E73" s="5" t="s">
+      <c r="E73" s="7" t="s">
         <v>46</v>
       </c>
       <c r="F73" t="s">
         <v>283</v>
       </c>
-      <c r="I73" s="5"/>
+      <c r="I73" s="7"/>
       <c r="J73" t="s">
         <v>317</v>
       </c>
-      <c r="Q73" s="5"/>
+      <c r="Q73" s="7"/>
       <c r="R73" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A74" s="5"/>
+      <c r="A74" s="7"/>
       <c r="B74" t="s">
         <v>249</v>
       </c>
-      <c r="E74" s="5"/>
+      <c r="E74" s="7"/>
       <c r="F74" t="s">
         <v>284</v>
       </c>
-      <c r="I74" s="5"/>
+      <c r="I74" s="7"/>
       <c r="J74" t="s">
         <v>318</v>
       </c>
-      <c r="Q74" s="5"/>
+      <c r="Q74" s="7"/>
       <c r="R74" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A75" s="5"/>
+      <c r="A75" s="7"/>
       <c r="B75" t="s">
         <v>250</v>
       </c>
-      <c r="E75" s="5"/>
+      <c r="E75" s="7"/>
       <c r="F75" t="s">
         <v>285</v>
       </c>
-      <c r="I75" s="5"/>
+      <c r="I75" s="7"/>
       <c r="J75" t="s">
         <v>319</v>
       </c>
-      <c r="Q75" s="5"/>
+      <c r="Q75" s="7"/>
       <c r="R75" t="s">
         <v>385</v>
       </c>
@@ -4060,149 +4267,246 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S25"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="2" max="2" width="16.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.453125" customWidth="1"/>
+    <col min="5" max="5" width="16.81640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="8" max="8" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.90625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.26953125" customWidth="1"/>
+    <col min="12" max="12" width="16.81640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.453125" customWidth="1"/>
+    <col min="15" max="15" width="16.81640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17.36328125" customWidth="1"/>
     <col min="17" max="17" width="7.81640625" customWidth="1"/>
+    <col min="18" max="18" width="14.90625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="20.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="E1" s="4" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="E1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="4"/>
+      <c r="F1" s="6"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
       <c r="K1" s="1"/>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="6" t="s">
         <v>506</v>
       </c>
-      <c r="M1" s="4"/>
-      <c r="O1" s="4" t="s">
+      <c r="M1" s="6"/>
+      <c r="O1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="4"/>
-      <c r="R1" s="4" t="s">
+      <c r="P1" s="6"/>
+      <c r="R1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="4"/>
+      <c r="S1" s="6"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>456</v>
       </c>
+      <c r="C2" t="s">
+        <v>513</v>
+      </c>
       <c r="E2" t="s">
         <v>426</v>
       </c>
+      <c r="F2" s="4" t="s">
+        <v>518</v>
+      </c>
       <c r="H2" t="s">
         <v>441</v>
       </c>
+      <c r="I2" s="4" t="s">
+        <v>523</v>
+      </c>
       <c r="L2" t="s">
         <v>422</v>
       </c>
+      <c r="M2" s="4" t="s">
+        <v>512</v>
+      </c>
       <c r="O2" t="s">
         <v>447</v>
       </c>
+      <c r="P2" s="4" t="s">
+        <v>532</v>
+      </c>
       <c r="R2" t="s">
         <v>451</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>417</v>
       </c>
+      <c r="C3" t="s">
+        <v>514</v>
+      </c>
       <c r="E3" t="s">
         <v>421</v>
       </c>
+      <c r="F3" s="4" t="s">
+        <v>519</v>
+      </c>
       <c r="H3" t="s">
         <v>436</v>
       </c>
+      <c r="I3" s="4" t="s">
+        <v>524</v>
+      </c>
       <c r="L3" t="s">
         <v>457</v>
       </c>
+      <c r="M3" s="4" t="s">
+        <v>528</v>
+      </c>
       <c r="O3" t="s">
         <v>463</v>
       </c>
+      <c r="P3" s="4" t="s">
+        <v>533</v>
+      </c>
       <c r="R3" t="s">
         <v>448</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>461</v>
       </c>
+      <c r="C4" t="s">
+        <v>516</v>
+      </c>
       <c r="E4" t="s">
         <v>416</v>
       </c>
+      <c r="F4" s="4" t="s">
+        <v>520</v>
+      </c>
       <c r="H4" t="s">
         <v>442</v>
       </c>
+      <c r="I4" s="4" t="s">
+        <v>525</v>
+      </c>
       <c r="L4" t="s">
         <v>458</v>
       </c>
+      <c r="M4" s="4" t="s">
+        <v>529</v>
+      </c>
       <c r="O4" t="s">
         <v>449</v>
       </c>
+      <c r="P4" s="4" t="s">
+        <v>534</v>
+      </c>
       <c r="R4" t="s">
         <v>453</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>507</v>
       </c>
+      <c r="C5" t="s">
+        <v>515</v>
+      </c>
       <c r="E5" t="s">
         <v>462</v>
       </c>
+      <c r="F5" s="4" t="s">
+        <v>521</v>
+      </c>
       <c r="H5" t="s">
         <v>443</v>
       </c>
+      <c r="I5" s="4" t="s">
+        <v>526</v>
+      </c>
       <c r="L5" t="s">
         <v>508</v>
       </c>
+      <c r="M5" s="4" t="s">
+        <v>530</v>
+      </c>
       <c r="O5" t="s">
         <v>434</v>
       </c>
+      <c r="P5" s="4" t="s">
+        <v>535</v>
+      </c>
       <c r="R5" t="s">
         <v>454</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>427</v>
       </c>
+      <c r="C6" t="s">
+        <v>517</v>
+      </c>
       <c r="E6" t="s">
         <v>428</v>
       </c>
+      <c r="F6" s="4" t="s">
+        <v>522</v>
+      </c>
       <c r="H6" t="s">
         <v>444</v>
       </c>
+      <c r="I6" s="4" t="s">
+        <v>527</v>
+      </c>
       <c r="L6" t="s">
         <v>459</v>
       </c>
+      <c r="M6" s="4" t="s">
+        <v>531</v>
+      </c>
       <c r="O6" t="s">
         <v>464</v>
       </c>
+      <c r="P6" s="4" t="s">
+        <v>536</v>
+      </c>
       <c r="R6" t="s">
         <v>455</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
@@ -4217,146 +4521,231 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="E13" s="4" t="s">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="E13" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="I13" s="4" t="s">
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="I13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4" t="s">
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="M13" s="4"/>
-      <c r="O13" s="4" t="s">
+      <c r="M13" s="6"/>
+      <c r="O13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="P13" s="4"/>
-      <c r="R13" s="4" t="s">
+      <c r="P13" s="6"/>
+      <c r="R13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="S13" s="4"/>
+      <c r="S13" s="6"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>509</v>
       </c>
+      <c r="C14" s="4" t="s">
+        <v>567</v>
+      </c>
       <c r="E14" t="s">
         <v>460</v>
       </c>
+      <c r="F14" s="4" t="s">
+        <v>562</v>
+      </c>
       <c r="I14" t="s">
         <v>465</v>
       </c>
+      <c r="J14" s="4" t="s">
+        <v>557</v>
+      </c>
       <c r="L14" t="s">
         <v>430</v>
       </c>
+      <c r="M14" s="4" t="s">
+        <v>552</v>
+      </c>
       <c r="O14" t="s">
         <v>429</v>
       </c>
+      <c r="P14" s="4" t="s">
+        <v>547</v>
+      </c>
       <c r="R14" t="s">
         <v>437</v>
       </c>
+      <c r="S14" s="4" t="s">
+        <v>542</v>
+      </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="C15" s="4" t="s">
+        <v>568</v>
+      </c>
       <c r="E15" t="s">
         <v>446</v>
       </c>
+      <c r="F15" s="4" t="s">
+        <v>563</v>
+      </c>
       <c r="I15" t="s">
         <v>466</v>
       </c>
+      <c r="J15" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>553</v>
+      </c>
       <c r="O15" t="s">
         <v>510</v>
       </c>
+      <c r="P15" s="4" t="s">
+        <v>548</v>
+      </c>
       <c r="R15" t="s">
         <v>423</v>
       </c>
+      <c r="S15" s="4" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="C16" s="4" t="s">
+        <v>569</v>
+      </c>
       <c r="E16" t="s">
         <v>511</v>
       </c>
+      <c r="F16" s="4" t="s">
+        <v>564</v>
+      </c>
       <c r="I16" t="s">
         <v>467</v>
       </c>
+      <c r="J16" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>554</v>
+      </c>
       <c r="O16" t="s">
         <v>425</v>
       </c>
+      <c r="P16" s="4" t="s">
+        <v>549</v>
+      </c>
       <c r="R16" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="17" spans="5:18" x14ac:dyDescent="0.35">
+      <c r="S16" s="4" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="C17" s="4" t="s">
+        <v>570</v>
+      </c>
       <c r="E17" t="s">
         <v>431</v>
       </c>
+      <c r="F17" s="4" t="s">
+        <v>565</v>
+      </c>
       <c r="I17" t="s">
         <v>468</v>
       </c>
+      <c r="J17" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>555</v>
+      </c>
       <c r="O17" t="s">
         <v>435</v>
       </c>
+      <c r="P17" s="4" t="s">
+        <v>550</v>
+      </c>
       <c r="R17" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="18" spans="5:18" x14ac:dyDescent="0.35">
+      <c r="S17" s="4" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="C18" s="4" t="s">
+        <v>571</v>
+      </c>
       <c r="E18" t="s">
         <v>452</v>
       </c>
+      <c r="F18" s="4" t="s">
+        <v>566</v>
+      </c>
       <c r="I18" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="19" spans="5:18" x14ac:dyDescent="0.35">
+      <c r="J18" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="S18" s="4" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.35">
       <c r="E19" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="20" spans="5:18" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:19" x14ac:dyDescent="0.35">
       <c r="E20" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="21" spans="5:18" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.35">
       <c r="E21" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="22" spans="5:18" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.35">
       <c r="E22" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="23" spans="5:18" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.35">
       <c r="E23" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="24" spans="5:18" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.35">
       <c r="E24" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="25" spans="5:18" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.35">
       <c r="E25" t="s">
         <v>440</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="O13:P13"/>
     <mergeCell ref="R13:S13"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="E1:F1"/>
@@ -4364,8 +4753,14 @@
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="R1:S1"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="O13:P13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4386,150 +4781,150 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="4" t="s">
         <v>472</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="5" t="s">
         <v>473</v>
       </c>
-      <c r="D1" s="12"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="4" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="4" t="s">
         <v>479</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="D3" s="12"/>
+      <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="4" t="s">
         <v>481</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="4" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="4" t="s">
         <v>484</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="D5" s="12"/>
+      <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="D6" s="12"/>
+      <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="4" t="s">
         <v>505</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D7" s="12"/>
+      <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="4" t="s">
         <v>491</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="12"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="4" t="s">
         <v>492</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="D9" s="12"/>
+      <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="D10" s="12"/>
+      <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="5" t="s">
         <v>500</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="4" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="4" t="s">
         <v>501</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="5" t="s">
         <v>503</v>
       </c>
-      <c r="D12" s="12"/>
+      <c r="D12" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/OffSeason.xlsx
+++ b/OffSeason.xlsx
@@ -16,6 +16,7 @@
     <sheet name="Picks" sheetId="3" r:id="rId2"/>
     <sheet name="Managers" sheetId="2" r:id="rId3"/>
     <sheet name="Off-Season Trades" sheetId="4" r:id="rId4"/>
+    <sheet name="Post Draft trades" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="577">
   <si>
     <t>Vanja Dolas - CeeDee Nuts</t>
   </si>
@@ -1743,6 +1744,21 @@
   </si>
   <si>
     <t>2022 5 AlanP</t>
+  </si>
+  <si>
+    <t>2021 2.9 Brandon</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>Vanja</t>
+  </si>
+  <si>
+    <t>2022 2 (Adam)</t>
+  </si>
+  <si>
+    <t>Adam sends 2022 2 to Vanja per trade</t>
   </si>
 </sst>
 </file>
@@ -1816,7 +1832,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1824,12 +1840,56 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1864,6 +1924,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2148,12 +2212,12 @@
   <dimension ref="A1:W75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.54296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.1796875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
     <col min="10" max="10" width="20.7265625" bestFit="1" customWidth="1"/>
@@ -4268,7 +4332,7 @@
   <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4361,8 +4425,8 @@
       <c r="B3" t="s">
         <v>417</v>
       </c>
-      <c r="C3" t="s">
-        <v>514</v>
+      <c r="C3" s="4" t="s">
+        <v>548</v>
       </c>
       <c r="E3" t="s">
         <v>421</v>
@@ -4400,7 +4464,7 @@
         <v>461</v>
       </c>
       <c r="C4" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E4" t="s">
         <v>416</v>
@@ -4435,10 +4499,10 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>507</v>
+        <v>427</v>
       </c>
       <c r="C5" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="E5" t="s">
         <v>462</v>
@@ -4473,10 +4537,10 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>427</v>
+        <v>470</v>
       </c>
       <c r="C6" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E6" t="s">
         <v>428</v>
@@ -4510,8 +4574,8 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B7" t="s">
-        <v>470</v>
+      <c r="C7" t="s">
+        <v>517</v>
       </c>
       <c r="H7" t="s">
         <v>445</v>
@@ -4609,9 +4673,6 @@
       <c r="O15" t="s">
         <v>510</v>
       </c>
-      <c r="P15" s="4" t="s">
-        <v>548</v>
-      </c>
       <c r="R15" t="s">
         <v>423</v>
       </c>
@@ -4717,6 +4778,9 @@
     <row r="20" spans="3:19" x14ac:dyDescent="0.35">
       <c r="E20" t="s">
         <v>418</v>
+      </c>
+      <c r="O20" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="21" spans="3:19" x14ac:dyDescent="0.35">
@@ -4769,7 +4833,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4946,12 +5010,58 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
+        <v>574</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="16" t="s">
+        <v>573</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>575</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="32.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>576</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/OffSeason.xlsx
+++ b/OffSeason.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="580">
   <si>
     <t>Vanja Dolas - CeeDee Nuts</t>
   </si>
@@ -1759,6 +1759,15 @@
   </si>
   <si>
     <t>Adam sends 2022 2 to Vanja per trade</t>
+  </si>
+  <si>
+    <t>MikeW sends 2022 2 to Vanja per trade</t>
+  </si>
+  <si>
+    <t>Vanja sends 2022 4 to MikeW per trade</t>
+  </si>
+  <si>
+    <t>MikeW</t>
   </si>
 </sst>
 </file>
@@ -1832,7 +1841,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1884,12 +1893,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1900,10 +1927,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1912,22 +1948,15 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2212,7 +2241,7 @@
   <dimension ref="A1:W75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2228,37 +2257,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="E1" s="6" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="E1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="6"/>
+      <c r="F1" s="12"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="12" t="s">
         <v>506</v>
       </c>
-      <c r="N1" s="6"/>
+      <c r="N1" s="12"/>
       <c r="O1" s="1"/>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="6"/>
+      <c r="R1" s="12"/>
       <c r="S1" s="1"/>
-      <c r="U1" s="6" t="s">
+      <c r="U1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="V1" s="6"/>
+      <c r="V1" s="12"/>
       <c r="W1" s="1"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.35">
@@ -2326,7 +2355,7 @@
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="18" t="s">
         <v>14</v>
       </c>
       <c r="B4" t="s">
@@ -2336,7 +2365,7 @@
       <c r="F4" t="s">
         <v>55</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="18" t="s">
         <v>14</v>
       </c>
       <c r="J4" t="s">
@@ -2356,34 +2385,34 @@
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A5" s="10"/>
+      <c r="A5" s="18"/>
       <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F5" t="s">
         <v>56</v>
       </c>
-      <c r="I5" s="10"/>
+      <c r="I5" s="18"/>
       <c r="J5" t="s">
         <v>90</v>
       </c>
       <c r="L5" s="4"/>
-      <c r="M5" s="10" t="s">
+      <c r="M5" s="18" t="s">
         <v>14</v>
       </c>
       <c r="N5" t="s">
         <v>122</v>
       </c>
-      <c r="Q5" s="10" t="s">
+      <c r="Q5" s="18" t="s">
         <v>14</v>
       </c>
       <c r="R5" t="s">
         <v>154</v>
       </c>
-      <c r="U5" s="10" t="s">
+      <c r="U5" s="18" t="s">
         <v>14</v>
       </c>
       <c r="V5" t="s">
@@ -2391,165 +2420,165 @@
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A6" s="10"/>
+      <c r="A6" s="18"/>
       <c r="B6" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="10"/>
+      <c r="E6" s="18"/>
       <c r="F6" t="s">
         <v>57</v>
       </c>
-      <c r="I6" s="10"/>
+      <c r="I6" s="18"/>
       <c r="J6" t="s">
         <v>91</v>
       </c>
       <c r="L6" s="4"/>
-      <c r="M6" s="10"/>
+      <c r="M6" s="18"/>
       <c r="N6" t="s">
         <v>123</v>
       </c>
-      <c r="Q6" s="10"/>
+      <c r="Q6" s="18"/>
       <c r="R6" t="s">
         <v>155</v>
       </c>
-      <c r="U6" s="10"/>
+      <c r="U6" s="18"/>
       <c r="V6" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A7" s="10"/>
+      <c r="A7" s="18"/>
       <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="10"/>
+      <c r="E7" s="18"/>
       <c r="F7" t="s">
         <v>58</v>
       </c>
-      <c r="I7" s="10"/>
+      <c r="I7" s="18"/>
       <c r="J7" t="s">
         <v>92</v>
       </c>
       <c r="L7" s="4"/>
-      <c r="M7" s="10"/>
+      <c r="M7" s="18"/>
       <c r="N7" t="s">
         <v>124</v>
       </c>
-      <c r="Q7" s="10"/>
+      <c r="Q7" s="18"/>
       <c r="R7" t="s">
         <v>156</v>
       </c>
-      <c r="U7" s="10"/>
+      <c r="U7" s="18"/>
       <c r="V7" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A8" s="10"/>
+      <c r="A8" s="18"/>
       <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="10"/>
+        <v>20</v>
+      </c>
+      <c r="E8" s="18"/>
       <c r="F8" t="s">
         <v>59</v>
       </c>
-      <c r="I8" s="10"/>
+      <c r="I8" s="18"/>
       <c r="J8" t="s">
         <v>93</v>
       </c>
       <c r="L8" s="4"/>
-      <c r="M8" s="10"/>
+      <c r="M8" s="18"/>
       <c r="N8" t="s">
         <v>125</v>
       </c>
-      <c r="Q8" s="10"/>
+      <c r="Q8" s="18"/>
       <c r="R8" t="s">
         <v>157</v>
       </c>
-      <c r="U8" s="10"/>
+      <c r="U8" s="18"/>
       <c r="V8" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A9" s="10"/>
+      <c r="A9" s="19" t="s">
+        <v>21</v>
+      </c>
       <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="10"/>
+        <v>22</v>
+      </c>
+      <c r="E9" s="18"/>
       <c r="F9" t="s">
         <v>60</v>
       </c>
-      <c r="I9" s="10"/>
+      <c r="I9" s="18"/>
       <c r="J9" t="s">
         <v>94</v>
       </c>
       <c r="L9" s="4"/>
-      <c r="M9" s="10"/>
+      <c r="M9" s="18"/>
       <c r="N9" t="s">
         <v>126</v>
       </c>
-      <c r="Q9" s="10"/>
+      <c r="Q9" s="18"/>
       <c r="R9" t="s">
         <v>158</v>
       </c>
-      <c r="U9" s="10"/>
+      <c r="U9" s="18"/>
       <c r="V9" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A10" s="11" t="s">
-        <v>21</v>
-      </c>
+      <c r="A10" s="19"/>
       <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="10"/>
+        <v>23</v>
+      </c>
+      <c r="E10" s="18"/>
       <c r="F10" t="s">
         <v>61</v>
       </c>
-      <c r="I10" s="10"/>
+      <c r="I10" s="18"/>
       <c r="J10" t="s">
         <v>95</v>
       </c>
       <c r="L10" s="4"/>
-      <c r="M10" s="10"/>
+      <c r="M10" s="18"/>
       <c r="N10" t="s">
         <v>127</v>
       </c>
-      <c r="Q10" s="10"/>
+      <c r="Q10" s="18"/>
       <c r="R10" t="s">
         <v>159</v>
       </c>
-      <c r="U10" s="10"/>
+      <c r="U10" s="18"/>
       <c r="V10" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A11" s="11"/>
+      <c r="A11" s="19"/>
       <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="10"/>
+        <v>24</v>
+      </c>
+      <c r="E11" s="18"/>
       <c r="F11" t="s">
         <v>62</v>
       </c>
-      <c r="I11" s="10"/>
+      <c r="I11" s="18"/>
       <c r="J11" t="s">
         <v>118</v>
       </c>
       <c r="L11" s="4"/>
-      <c r="M11" s="10"/>
+      <c r="M11" s="18"/>
       <c r="N11" t="s">
         <v>128</v>
       </c>
-      <c r="Q11" s="10"/>
+      <c r="Q11" s="18"/>
       <c r="R11" t="s">
         <v>160</v>
       </c>
-      <c r="U11" s="11" t="s">
+      <c r="U11" s="19" t="s">
         <v>21</v>
       </c>
       <c r="V11" t="s">
@@ -2557,231 +2586,231 @@
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A12" s="11"/>
+      <c r="A12" s="19"/>
       <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="10"/>
+        <v>25</v>
+      </c>
+      <c r="E12" s="18"/>
       <c r="F12" t="s">
         <v>63</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="I12" s="19" t="s">
         <v>21</v>
       </c>
       <c r="J12" t="s">
         <v>96</v>
       </c>
       <c r="L12" s="4"/>
-      <c r="M12" s="11" t="s">
+      <c r="M12" s="19" t="s">
         <v>21</v>
       </c>
       <c r="N12" t="s">
         <v>129</v>
       </c>
-      <c r="Q12" s="11" t="s">
+      <c r="Q12" s="19" t="s">
         <v>21</v>
       </c>
       <c r="R12" t="s">
         <v>161</v>
       </c>
-      <c r="U12" s="11"/>
+      <c r="U12" s="19"/>
       <c r="V12" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A13" s="11"/>
+      <c r="A13" s="19"/>
       <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F13" t="s">
         <v>64</v>
       </c>
-      <c r="I13" s="11"/>
+      <c r="I13" s="19"/>
       <c r="J13" t="s">
         <v>97</v>
       </c>
       <c r="L13" s="4"/>
-      <c r="M13" s="11"/>
+      <c r="M13" s="19"/>
       <c r="N13" t="s">
         <v>130</v>
       </c>
-      <c r="Q13" s="11"/>
+      <c r="Q13" s="19"/>
       <c r="R13" t="s">
         <v>162</v>
       </c>
-      <c r="U13" s="11"/>
+      <c r="U13" s="19"/>
       <c r="V13" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A14" s="11"/>
+      <c r="A14" s="19"/>
       <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="11"/>
+        <v>27</v>
+      </c>
+      <c r="E14" s="19"/>
       <c r="F14" t="s">
         <v>65</v>
       </c>
-      <c r="I14" s="11"/>
+      <c r="I14" s="19"/>
       <c r="J14" t="s">
         <v>98</v>
       </c>
       <c r="L14" s="4"/>
-      <c r="M14" s="11"/>
+      <c r="M14" s="19"/>
       <c r="N14" t="s">
         <v>131</v>
       </c>
-      <c r="Q14" s="11"/>
+      <c r="Q14" s="19"/>
       <c r="R14" t="s">
         <v>163</v>
       </c>
-      <c r="U14" s="11"/>
+      <c r="U14" s="19"/>
       <c r="V14" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A15" s="11"/>
+      <c r="A15" s="19"/>
       <c r="B15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="11"/>
+        <v>28</v>
+      </c>
+      <c r="E15" s="19"/>
       <c r="F15" t="s">
         <v>66</v>
       </c>
-      <c r="I15" s="11"/>
+      <c r="I15" s="19"/>
       <c r="J15" t="s">
         <v>99</v>
       </c>
       <c r="L15" s="4"/>
-      <c r="M15" s="11"/>
+      <c r="M15" s="19"/>
       <c r="N15" t="s">
         <v>132</v>
       </c>
-      <c r="Q15" s="11"/>
+      <c r="Q15" s="19"/>
       <c r="R15" t="s">
         <v>164</v>
       </c>
-      <c r="U15" s="11"/>
+      <c r="U15" s="19"/>
       <c r="V15" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A16" s="11"/>
+      <c r="A16" s="19"/>
       <c r="B16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="11"/>
+        <v>29</v>
+      </c>
+      <c r="E16" s="19"/>
       <c r="F16" t="s">
         <v>67</v>
       </c>
-      <c r="I16" s="11"/>
+      <c r="I16" s="19"/>
       <c r="J16" t="s">
         <v>100</v>
       </c>
       <c r="L16" s="4"/>
-      <c r="M16" s="11"/>
+      <c r="M16" s="19"/>
       <c r="N16" t="s">
         <v>133</v>
       </c>
-      <c r="Q16" s="11"/>
+      <c r="Q16" s="19"/>
       <c r="R16" t="s">
         <v>165</v>
       </c>
-      <c r="U16" s="11"/>
+      <c r="U16" s="19"/>
       <c r="V16" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A17" s="11"/>
+      <c r="A17" s="19"/>
       <c r="B17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="11"/>
+        <v>30</v>
+      </c>
+      <c r="E17" s="1